--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1408">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,379 +44,382 @@
     <t xml:space="preserve">IGD.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97771215438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93245983123779</t>
+    <t xml:space="preserve">4.97771263122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93246030807495</t>
   </si>
   <si>
     <t xml:space="preserve">4.92963218688965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80801773071289</t>
+    <t xml:space="preserve">4.80801725387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69488763809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72317028045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83347225189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70902919769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48276853561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30741786956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18580436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73328447341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01610851287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09247159957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17731857299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11226940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08398675918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94540286064148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10095643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21125745773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05570363998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82378792762756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91712045669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57490229606628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62015461921692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8181312084198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69086050987244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76439547538757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01893711090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954442024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07267332077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00479602813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19994449615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14620780944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08964252471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12358236312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12923860549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1716628074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19428825378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38660860061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35549831390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52519273757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48559808731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49691009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48842573165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58175802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68357467651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6666054725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6156964302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72882747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83630037307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76842164993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70620059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63832330703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49973964691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57327318191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57610177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41206359863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40075063705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36963939666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37246751785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38378095626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47994136810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55347585678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46862745285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45448684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51670789718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489124298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47428512573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44034576416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41771984100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44317436218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55064725875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45731544494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53933429718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57892942428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4940824508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54216194152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45165872573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65023136138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73061323165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81099414825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85267400741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84076595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85565090179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82290363311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77526950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73358964920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79610967636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79015493392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79313230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79908561706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72168207168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50137662887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20068979263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22450590133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08755970001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10839891433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30488729476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34656715393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39420080184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42397212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17389488220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954346656799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9774067401886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98931455612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37038373947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30191040039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15603303909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00122308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96847558021545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09946775436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19771289825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23343753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40313196182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55496406555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48351430892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67404842376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56984949111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60855150222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5251932144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63832235336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61152935028076</t>
   </si>
   <si>
     <t xml:space="preserve">4.6948881149292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72317028045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83347177505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70902872085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48276948928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30741834640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18580436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73328471183777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01610898971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0924711227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17731904983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11226940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08398723602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94540333747864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10095596313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21125745773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05570459365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82378840446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91712021827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57490229606628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62015438079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8181312084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69086050987244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76439595222473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01893758773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954442024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07267379760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00479602813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19994449615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1462082862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0896430015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12358236312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12923860549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1716628074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19428777694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38660907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35549831390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52519273757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48559808731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49691009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48842620849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58175802230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68357467651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66660594940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61569690704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72882652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83630037307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76842212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70620012283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49973917007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57327365875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5761022567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4120626449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40075016021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36963987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37246751785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38378143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47994089126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55347537994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4686279296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45448732376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5167088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47428512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44034576416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41771984100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44317436218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5506477355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45731496810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53933429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57892990112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49408292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54216289520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45165824890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65023136138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73061370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81099462509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85267496109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84076595306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85565090179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82290315628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77526903152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73358964920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79610919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7901554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79313182830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79908609390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72168207168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50137662887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2006893157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22450590133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08755922317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10839939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30488729476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34656715393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39420080184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42397165298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17389535903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954346656799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97740650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98931479454041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37038373947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30191040039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15603256225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00122308731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96847486495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09946727752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19771242141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23343753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40313196182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55496454238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48351383209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67404842376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56984901428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60855150222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5251932144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61152935028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69488859176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68595600128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64427661895752</t>
+    <t xml:space="preserve">4.6859564781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64427757263184</t>
   </si>
   <si>
     <t xml:space="preserve">4.67107105255127</t>
@@ -425,7 +428,7 @@
     <t xml:space="preserve">4.40610980987549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54007863998413</t>
+    <t xml:space="preserve">4.54007911682129</t>
   </si>
   <si>
     <t xml:space="preserve">4.62046003341675</t>
@@ -434,10 +437,10 @@
     <t xml:space="preserve">4.53412437438965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51626205444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56687259674072</t>
+    <t xml:space="preserve">4.5162615776062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56687307357788</t>
   </si>
   <si>
     <t xml:space="preserve">4.51030731201172</t>
@@ -449,55 +452,55 @@
     <t xml:space="preserve">4.44183444976807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46267366409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33465909957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.343590259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36740636825562</t>
+    <t xml:space="preserve">4.46267414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3346586227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34358978271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36740684509277</t>
   </si>
   <si>
     <t xml:space="preserve">4.40908622741699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40015459060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37633848190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.287024974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34061288833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31084203720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29893398284912</t>
+    <t xml:space="preserve">4.40015411376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37633800506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28702449798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34061336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31084251403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29893350601196</t>
   </si>
   <si>
     <t xml:space="preserve">4.25725364685059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35252046585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29000234603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32275009155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21557474136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07862854003906</t>
+    <t xml:space="preserve">4.35252141952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29000186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32274961471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21557521820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0786280632019</t>
   </si>
   <si>
     <t xml:space="preserve">3.99824619293213</t>
@@ -506,31 +509,31 @@
     <t xml:space="preserve">3.92977333068848</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90595579147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97145223617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87618517875671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87916254997253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99229216575623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95656704902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92679595947266</t>
+    <t xml:space="preserve">3.90595602989197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9714527130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87618494033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791618347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99229264259338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95656681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9267954826355</t>
   </si>
   <si>
     <t xml:space="preserve">4.01313161849976</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94168138504028</t>
+    <t xml:space="preserve">3.9416811466217</t>
   </si>
   <si>
     <t xml:space="preserve">3.91488814353943</t>
@@ -542,16 +545,16 @@
     <t xml:space="preserve">3.85832262039185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84046053886414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85236859321594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9744291305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13519287109375</t>
+    <t xml:space="preserve">3.84045958518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85236835479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97442936897278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13519334793091</t>
   </si>
   <si>
     <t xml:space="preserve">4.20366621017456</t>
@@ -563,7 +566,7 @@
     <t xml:space="preserve">4.26023101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22748327255249</t>
+    <t xml:space="preserve">4.22748279571533</t>
   </si>
   <si>
     <t xml:space="preserve">4.17687273025513</t>
@@ -572,79 +575,79 @@
     <t xml:space="preserve">4.14114761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11137628555298</t>
+    <t xml:space="preserve">4.11137580871582</t>
   </si>
   <si>
     <t xml:space="preserve">4.04885721206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07565116882324</t>
+    <t xml:space="preserve">4.07565069198608</t>
   </si>
   <si>
     <t xml:space="preserve">4.06076526641846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06374263763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0309944152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98038363456726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8821394443512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88809370994568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67969608306885</t>
+    <t xml:space="preserve">4.06374311447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03099393844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98038387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88213992118835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88809323310852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67969655990601</t>
   </si>
   <si>
     <t xml:space="preserve">3.76900887489319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79580330848694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78389501571655</t>
+    <t xml:space="preserve">3.79580283164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78389453887939</t>
   </si>
   <si>
     <t xml:space="preserve">3.7035129070282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72137594223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72733044624329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75710153579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75114727020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78687238693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73923850059509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9357271194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09648990631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21259784698486</t>
+    <t xml:space="preserve">3.72137570381165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72732996940613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75710105895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7511465549469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78687262535095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73923873901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93572759628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09649038314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21259737014771</t>
   </si>
   <si>
     <t xml:space="preserve">4.18282699584961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26916265487671</t>
+    <t xml:space="preserve">4.26916217803955</t>
   </si>
   <si>
     <t xml:space="preserve">4.27511644363403</t>
@@ -656,28 +659,28 @@
     <t xml:space="preserve">4.51923942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4299259185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48946809768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4983983039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48053646087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45076465606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41206359863281</t>
+    <t xml:space="preserve">4.42992544174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48946857452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49839925765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48053693771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45076560974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41206312179565</t>
   </si>
   <si>
     <t xml:space="preserve">4.41801738739014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37336158752441</t>
+    <t xml:space="preserve">4.37336111068726</t>
   </si>
   <si>
     <t xml:space="preserve">4.35847568511963</t>
@@ -686,58 +689,58 @@
     <t xml:space="preserve">4.32572746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2393913269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14412450790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24534559249878</t>
+    <t xml:space="preserve">4.23939085006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14412403106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24534606933594</t>
   </si>
   <si>
     <t xml:space="preserve">4.16794157028198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20961999893188</t>
+    <t xml:space="preserve">4.20962047576904</t>
   </si>
   <si>
     <t xml:space="preserve">4.18580389022827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36442995071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45671987533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29297924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62641477584839</t>
+    <t xml:space="preserve">4.36442947387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45671939849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29297971725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62641429901123</t>
   </si>
   <si>
     <t xml:space="preserve">4.66809415817261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52817010879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59664344787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75145292282104</t>
+    <t xml:space="preserve">4.52816963195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59664440155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75145244598389</t>
   </si>
   <si>
     <t xml:space="preserve">4.78420162200928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72763586044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88244533538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87053632736206</t>
+    <t xml:space="preserve">4.72763633728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88244581222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87053680419922</t>
   </si>
   <si>
     <t xml:space="preserve">4.96878099441528</t>
@@ -746,22 +749,22 @@
     <t xml:space="preserve">4.89435338973999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8675594329834</t>
+    <t xml:space="preserve">4.86755990982056</t>
   </si>
   <si>
     <t xml:space="preserve">4.86458301544189</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80504083633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78122425079346</t>
+    <t xml:space="preserve">4.80504131317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78122329711914</t>
   </si>
   <si>
     <t xml:space="preserve">4.70381879806519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68297958374023</t>
+    <t xml:space="preserve">4.68297863006592</t>
   </si>
   <si>
     <t xml:space="preserve">4.61450624465942</t>
@@ -770,49 +773,49 @@
     <t xml:space="preserve">4.76336097717285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8764910697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82588052749634</t>
+    <t xml:space="preserve">4.87649059295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82588005065918</t>
   </si>
   <si>
     <t xml:space="preserve">4.90923881530762</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93007850646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9122166633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94794178009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93603277206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98962116241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0967960357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12061309814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15633821487427</t>
+    <t xml:space="preserve">4.93007898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91221618652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94794130325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93603324890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98962068557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09679651260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12061357498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15633869171143</t>
   </si>
   <si>
     <t xml:space="preserve">5.19801807403564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23076677322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06107139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03130006790161</t>
+    <t xml:space="preserve">5.23076629638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06107091903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03130054473877</t>
   </si>
   <si>
     <t xml:space="preserve">4.99557542800903</t>
@@ -821,7 +824,7 @@
     <t xml:space="preserve">5.04405927658081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08096694946289</t>
+    <t xml:space="preserve">5.08096742630005</t>
   </si>
   <si>
     <t xml:space="preserve">5.10557222366333</t>
@@ -830,52 +833,52 @@
     <t xml:space="preserve">5.06866455078125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09019470214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18553924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.139404296875</t>
+    <t xml:space="preserve">5.09019422531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18553876876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13940477371216</t>
   </si>
   <si>
     <t xml:space="preserve">5.14248037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06251287460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11787414550781</t>
+    <t xml:space="preserve">5.06251335144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11787462234497</t>
   </si>
   <si>
     <t xml:space="preserve">5.11172342300415</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09942102432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05636119842529</t>
+    <t xml:space="preserve">5.09942054748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05636167526245</t>
   </si>
   <si>
     <t xml:space="preserve">5.02252960205078</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96409273147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93641138076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91488265991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95178937911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89642906188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82261323928833</t>
+    <t xml:space="preserve">4.96409225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93641185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91488218307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95178985595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89642858505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82261276245117</t>
   </si>
   <si>
     <t xml:space="preserve">4.6903600692749</t>
@@ -893,16 +896,16 @@
     <t xml:space="preserve">4.88412570953369</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79800844192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89027690887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98254680633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99792528152466</t>
+    <t xml:space="preserve">4.79800748825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89027643203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98254632949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9979248046875</t>
   </si>
   <si>
     <t xml:space="preserve">5.1086483001709</t>
@@ -911,16 +914,16 @@
     <t xml:space="preserve">5.11479902267456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15478229522705</t>
+    <t xml:space="preserve">5.15478324890137</t>
   </si>
   <si>
     <t xml:space="preserve">5.12402629852295</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07481622695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01330280303955</t>
+    <t xml:space="preserve">5.07481575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01330327987671</t>
   </si>
   <si>
     <t xml:space="preserve">5.05943727493286</t>
@@ -929,13 +932,13 @@
     <t xml:space="preserve">5.17631196975708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22859764099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22244691848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17016077041626</t>
+    <t xml:space="preserve">5.22859811782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22244644165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1701602935791</t>
   </si>
   <si>
     <t xml:space="preserve">5.15785837173462</t>
@@ -956,7 +959,7 @@
     <t xml:space="preserve">5.25627899169922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27165699005127</t>
+    <t xml:space="preserve">5.27165746688843</t>
   </si>
   <si>
     <t xml:space="preserve">5.29011154174805</t>
@@ -968,7 +971,7 @@
     <t xml:space="preserve">5.20091724395752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14863061904907</t>
+    <t xml:space="preserve">5.14863109588623</t>
   </si>
   <si>
     <t xml:space="preserve">5.22552251815796</t>
@@ -977,7 +980,7 @@
     <t xml:space="preserve">5.16708517074585</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18861532211304</t>
+    <t xml:space="preserve">5.18861484527588</t>
   </si>
   <si>
     <t xml:space="preserve">5.24090099334717</t>
@@ -986,7 +989,7 @@
     <t xml:space="preserve">5.31471633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41313648223877</t>
+    <t xml:space="preserve">5.41313600540161</t>
   </si>
   <si>
     <t xml:space="preserve">5.42543935775757</t>
@@ -995,28 +998,28 @@
     <t xml:space="preserve">5.41928863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37622880935669</t>
+    <t xml:space="preserve">5.37622928619385</t>
   </si>
   <si>
     <t xml:space="preserve">5.35162401199341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36392641067505</t>
+    <t xml:space="preserve">5.36392593383789</t>
   </si>
   <si>
     <t xml:space="preserve">5.38853216171265</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37315320968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42851495742798</t>
+    <t xml:space="preserve">5.37315368652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42851448059082</t>
   </si>
   <si>
     <t xml:space="preserve">5.43159055709839</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44389343261719</t>
+    <t xml:space="preserve">5.44389390945435</t>
   </si>
   <si>
     <t xml:space="preserve">5.32701873779297</t>
@@ -1025,13 +1028,13 @@
     <t xml:space="preserve">5.34239721298218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39468288421631</t>
+    <t xml:space="preserve">5.39468240737915</t>
   </si>
   <si>
     <t xml:space="preserve">5.53616333007812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62843132019043</t>
+    <t xml:space="preserve">5.62843179702759</t>
   </si>
   <si>
     <t xml:space="preserve">5.84372758865356</t>
@@ -1040,37 +1043,37 @@
     <t xml:space="preserve">5.87448358535767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65918779373169</t>
+    <t xml:space="preserve">5.65918827056885</t>
   </si>
   <si>
     <t xml:space="preserve">5.65611219406128</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75145769119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78836536407471</t>
+    <t xml:space="preserve">5.75145816802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78836488723755</t>
   </si>
   <si>
     <t xml:space="preserve">5.78221464157104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69302034378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76991176605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94829988479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10515689849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1205358505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4157977104187</t>
+    <t xml:space="preserve">5.69301986694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76991128921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94829940795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10515737533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12053537368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41579818725586</t>
   </si>
   <si>
     <t xml:space="preserve">6.40349531173706</t>
@@ -1079,10 +1082,10 @@
     <t xml:space="preserve">6.32352781295776</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33583116531372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36658811569214</t>
+    <t xml:space="preserve">6.33583068847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36658763885498</t>
   </si>
   <si>
     <t xml:space="preserve">6.24356126785278</t>
@@ -1091,37 +1094,37 @@
     <t xml:space="preserve">6.18204879760742</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09285449981689</t>
+    <t xml:space="preserve">6.09285497665405</t>
   </si>
   <si>
     <t xml:space="preserve">6.21280479431152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50806665420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56342935562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39119148254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61879062652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60648822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55112600326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65569829940796</t>
+    <t xml:space="preserve">6.50806617736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56342840194702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39119243621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61879014968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60648727416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55112504959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65569734573364</t>
   </si>
   <si>
     <t xml:space="preserve">6.69260549545288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63724422454834</t>
+    <t xml:space="preserve">6.63724374771118</t>
   </si>
   <si>
     <t xml:space="preserve">6.62494087219238</t>
@@ -1130,34 +1133,34 @@
     <t xml:space="preserve">6.4588565826416</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5757303237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66800165176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82793378829956</t>
+    <t xml:space="preserve">6.57573080062866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6680006980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82793521881104</t>
   </si>
   <si>
     <t xml:space="preserve">6.81563138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9509596824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88944673538208</t>
+    <t xml:space="preserve">6.95096015930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88944721221924</t>
   </si>
   <si>
     <t xml:space="preserve">6.70490789413452</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28046846389771</t>
+    <t xml:space="preserve">6.28046894073486</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826595306396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96675300598145</t>
+    <t xml:space="preserve">5.9667534828186</t>
   </si>
   <si>
     <t xml:space="preserve">6.00981187820435</t>
@@ -1166,19 +1169,19 @@
     <t xml:space="preserve">5.87755918502808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93599653244019</t>
+    <t xml:space="preserve">5.93599605560303</t>
   </si>
   <si>
     <t xml:space="preserve">6.01903915405273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92984533309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92369365692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05902338027954</t>
+    <t xml:space="preserve">5.92984580993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92369318008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05902242660522</t>
   </si>
   <si>
     <t xml:space="preserve">6.0651741027832</t>
@@ -1190,7 +1193,7 @@
     <t xml:space="preserve">6.13283824920654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060228347778</t>
+    <t xml:space="preserve">5.96060180664062</t>
   </si>
   <si>
     <t xml:space="preserve">5.90524005889893</t>
@@ -1199,28 +1202,28 @@
     <t xml:space="preserve">5.99750947952271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95445013046265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88063478469849</t>
+    <t xml:space="preserve">5.9544506072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88063526153564</t>
   </si>
   <si>
     <t xml:space="preserve">5.89293766021729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85602998733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69609642028809</t>
+    <t xml:space="preserve">5.85602951049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69609689712524</t>
   </si>
   <si>
     <t xml:space="preserve">5.64688587188721</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52385997772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33316946029663</t>
+    <t xml:space="preserve">5.52385950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33316993713379</t>
   </si>
   <si>
     <t xml:space="preserve">5.49310398101807</t>
@@ -1229,22 +1232,22 @@
     <t xml:space="preserve">5.21014404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08711814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17323637008667</t>
+    <t xml:space="preserve">5.08711767196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17323684692383</t>
   </si>
   <si>
     <t xml:space="preserve">5.03790760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01945447921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32086706161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92103338241577</t>
+    <t xml:space="preserve">5.01945400238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32086753845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92103385925293</t>
   </si>
   <si>
     <t xml:space="preserve">4.9597864151001</t>
@@ -1253,22 +1256,22 @@
     <t xml:space="preserve">4.87059307098389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74633646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63192272186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62269592285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68728446960449</t>
+    <t xml:space="preserve">4.74633693695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63192319869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62269639968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68728399276733</t>
   </si>
   <si>
     <t xml:space="preserve">4.82568836212158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82937955856323</t>
+    <t xml:space="preserve">4.82937908172607</t>
   </si>
   <si>
     <t xml:space="preserve">4.71188926696777</t>
@@ -1277,37 +1280,37 @@
     <t xml:space="preserve">4.65283679962158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66821527481079</t>
+    <t xml:space="preserve">4.66821575164795</t>
   </si>
   <si>
     <t xml:space="preserve">4.56425857543945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51873826980591</t>
+    <t xml:space="preserve">4.51873874664307</t>
   </si>
   <si>
     <t xml:space="preserve">4.44738388061523</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63991928100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61900472640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59501457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4418478012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33666086196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73106288909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81509733200073</t>
+    <t xml:space="preserve">4.63991975784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61900520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59501504898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44184827804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33666133880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73106336593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81509685516357</t>
   </si>
   <si>
     <t xml:space="preserve">5.27894020080566</t>
@@ -1316,49 +1319,49 @@
     <t xml:space="preserve">5.02088212966919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12807559967041</t>
+    <t xml:space="preserve">5.12807512283325</t>
   </si>
   <si>
     <t xml:space="preserve">5.32128763198853</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53170394897461</t>
+    <t xml:space="preserve">5.53170442581177</t>
   </si>
   <si>
     <t xml:space="preserve">5.46487379074097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35635757446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18564224243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14130926132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22666645050049</t>
+    <t xml:space="preserve">5.35635709762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18564176559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14130878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22666692733765</t>
   </si>
   <si>
     <t xml:space="preserve">5.16115951538086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11550283432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20549297332764</t>
+    <t xml:space="preserve">5.11550331115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20549249649048</t>
   </si>
   <si>
     <t xml:space="preserve">5.1889500617981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19953775405884</t>
+    <t xml:space="preserve">5.19953727722168</t>
   </si>
   <si>
     <t xml:space="preserve">5.18762731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26041221618652</t>
+    <t xml:space="preserve">5.26041269302368</t>
   </si>
   <si>
     <t xml:space="preserve">5.10557794570923</t>
@@ -1373,10 +1376,10 @@
     <t xml:space="preserve">5.19887590408325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21409511566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19424390792847</t>
+    <t xml:space="preserve">5.21409463882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19424343109131</t>
   </si>
   <si>
     <t xml:space="preserve">5.29349708557129</t>
@@ -1388,16 +1391,16 @@
     <t xml:space="preserve">5.24453210830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42583417892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31864070892334</t>
+    <t xml:space="preserve">5.42583465576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3186411857605</t>
   </si>
   <si>
     <t xml:space="preserve">5.15057277679443</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92890691757202</t>
+    <t xml:space="preserve">4.92890739440918</t>
   </si>
   <si>
     <t xml:space="preserve">5.00169324874878</t>
@@ -1409,22 +1412,22 @@
     <t xml:space="preserve">4.896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87729549407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82369899749756</t>
+    <t xml:space="preserve">4.87729501724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82369947433472</t>
   </si>
   <si>
     <t xml:space="preserve">4.70790386199951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47631311416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73172473907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81311178207397</t>
+    <t xml:space="preserve">4.47631359100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73172426223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81311225891113</t>
   </si>
   <si>
     <t xml:space="preserve">4.79061460494995</t>
@@ -1433,25 +1436,25 @@
     <t xml:space="preserve">4.89251518249512</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98581171035767</t>
+    <t xml:space="preserve">4.98581266403198</t>
   </si>
   <si>
     <t xml:space="preserve">4.9593448638916</t>
   </si>
   <si>
-    <t xml:space="preserve">4.845534324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74495840072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0422739982605</t>
+    <t xml:space="preserve">4.84553480148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74495792388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04227447509766</t>
   </si>
   <si>
     <t xml:space="preserve">5.16319179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05792188644409</t>
+    <t xml:space="preserve">5.05792236328125</t>
   </si>
   <si>
     <t xml:space="preserve">5.15607929229736</t>
@@ -1460,37 +1463,37 @@
     <t xml:space="preserve">5.20515727996826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9590539932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96047687530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92491292953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90997552871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02875995635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95549821853638</t>
+    <t xml:space="preserve">4.95905447006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96047639846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92491245269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90997505187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02875947952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95549774169922</t>
   </si>
   <si>
     <t xml:space="preserve">4.97897005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89005994796753</t>
+    <t xml:space="preserve">4.89005947113037</t>
   </si>
   <si>
     <t xml:space="preserve">4.93629312515259</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89503860473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01239967346191</t>
+    <t xml:space="preserve">4.89503908157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01240015029907</t>
   </si>
   <si>
     <t xml:space="preserve">4.95194101333618</t>
@@ -1502,7 +1505,7 @@
     <t xml:space="preserve">5.08566236495972</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14967727661133</t>
+    <t xml:space="preserve">5.14967679977417</t>
   </si>
   <si>
     <t xml:space="preserve">5.13900804519653</t>
@@ -1514,13 +1517,13 @@
     <t xml:space="preserve">5.01737880706787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02804803848267</t>
+    <t xml:space="preserve">5.02804851531982</t>
   </si>
   <si>
     <t xml:space="preserve">5.06859159469604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10486698150635</t>
+    <t xml:space="preserve">5.10486650466919</t>
   </si>
   <si>
     <t xml:space="preserve">5.16390323638916</t>
@@ -1535,10 +1538,10 @@
     <t xml:space="preserve">5.15110015869141</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16461420059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02591419219971</t>
+    <t xml:space="preserve">5.1646146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02591466903687</t>
   </si>
   <si>
     <t xml:space="preserve">5.15679025650024</t>
@@ -1562,7 +1565,7 @@
     <t xml:space="preserve">5.00030851364136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92989158630371</t>
+    <t xml:space="preserve">4.92989206314087</t>
   </si>
   <si>
     <t xml:space="preserve">4.92277908325195</t>
@@ -1571,7 +1574,7 @@
     <t xml:space="preserve">4.91424369812012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8317346572876</t>
+    <t xml:space="preserve">4.83173513412476</t>
   </si>
   <si>
     <t xml:space="preserve">4.73926830291748</t>
@@ -1583,22 +1586,22 @@
     <t xml:space="preserve">4.61692762374878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63684320449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67525243759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76487398147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75633907318115</t>
+    <t xml:space="preserve">4.63684368133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67525291442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76487445831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75633859634399</t>
   </si>
   <si>
     <t xml:space="preserve">4.68592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69445753097534</t>
+    <t xml:space="preserve">4.69445705413818</t>
   </si>
   <si>
     <t xml:space="preserve">4.73713445663452</t>
@@ -1613,7 +1616,7 @@
     <t xml:space="preserve">4.7093939781189</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66173887252808</t>
+    <t xml:space="preserve">4.66173839569092</t>
   </si>
   <si>
     <t xml:space="preserve">4.67169618606567</t>
@@ -1622,19 +1625,19 @@
     <t xml:space="preserve">4.64537906646729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667484283447</t>
+    <t xml:space="preserve">4.67667531967163</t>
   </si>
   <si>
     <t xml:space="preserve">4.67454147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68663311004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66600561141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68094301223755</t>
+    <t xml:space="preserve">4.68663358688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66600608825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68094348907471</t>
   </si>
   <si>
     <t xml:space="preserve">4.63968849182129</t>
@@ -1649,7 +1652,7 @@
     <t xml:space="preserve">4.8260440826416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81466436386108</t>
+    <t xml:space="preserve">4.81466388702393</t>
   </si>
   <si>
     <t xml:space="preserve">4.8651647567749</t>
@@ -1658,7 +1661,7 @@
     <t xml:space="preserve">4.89361619949341</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87298917770386</t>
+    <t xml:space="preserve">4.8729887008667</t>
   </si>
   <si>
     <t xml:space="preserve">4.80683946609497</t>
@@ -1667,19 +1670,19 @@
     <t xml:space="preserve">4.79332542419434</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70726013183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66387176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56784963607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5799412727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55220127105713</t>
+    <t xml:space="preserve">4.7072606086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66387224197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56784915924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57994079589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55220079421997</t>
   </si>
   <si>
     <t xml:space="preserve">4.48178434371948</t>
@@ -1691,7 +1694,7 @@
     <t xml:space="preserve">4.34948587417603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30609703063965</t>
+    <t xml:space="preserve">4.30609798431396</t>
   </si>
   <si>
     <t xml:space="preserve">4.20651817321777</t>
@@ -1703,19 +1706,19 @@
     <t xml:space="preserve">4.12543201446533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19940567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23852634429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1894474029541</t>
+    <t xml:space="preserve">4.19940519332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23852586746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18944692611694</t>
   </si>
   <si>
     <t xml:space="preserve">4.19300365447998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24634981155396</t>
+    <t xml:space="preserve">4.24635028839111</t>
   </si>
   <si>
     <t xml:space="preserve">4.23212432861328</t>
@@ -1727,16 +1730,16 @@
     <t xml:space="preserve">4.27408981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36513376235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43341684341431</t>
+    <t xml:space="preserve">4.36513423919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43341732025146</t>
   </si>
   <si>
     <t xml:space="preserve">4.44550895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43768453598022</t>
+    <t xml:space="preserve">4.43768501281738</t>
   </si>
   <si>
     <t xml:space="preserve">4.3665566444397</t>
@@ -1745,34 +1748,34 @@
     <t xml:space="preserve">4.29613924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51663684844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42345857620239</t>
+    <t xml:space="preserve">4.51663732528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42345905303955</t>
   </si>
   <si>
     <t xml:space="preserve">4.37082433700562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33952808380127</t>
+    <t xml:space="preserve">4.33952760696411</t>
   </si>
   <si>
     <t xml:space="preserve">4.2698221206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29542827606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2776460647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23283576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17166519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17379951477051</t>
+    <t xml:space="preserve">4.29542875289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27764654159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23283624649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17166566848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17379903793335</t>
   </si>
   <si>
     <t xml:space="preserve">4.19442653656006</t>
@@ -1781,25 +1784,25 @@
     <t xml:space="preserve">4.2883152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36940145492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38149309158325</t>
+    <t xml:space="preserve">4.36940240859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38149356842041</t>
   </si>
   <si>
     <t xml:space="preserve">4.34379577636719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33312654495239</t>
+    <t xml:space="preserve">4.33312606811523</t>
   </si>
   <si>
     <t xml:space="preserve">4.25559663772583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18375682830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16810941696167</t>
+    <t xml:space="preserve">4.18375730514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16810894012451</t>
   </si>
   <si>
     <t xml:space="preserve">4.13041114807129</t>
@@ -1808,19 +1811,19 @@
     <t xml:space="preserve">4.13681221008301</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09982633590698</t>
+    <t xml:space="preserve">4.09982585906982</t>
   </si>
   <si>
     <t xml:space="preserve">4.02087354660034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11974143981934</t>
+    <t xml:space="preserve">4.11974191665649</t>
   </si>
   <si>
     <t xml:space="preserve">4.04007863998413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00735902786255</t>
+    <t xml:space="preserve">4.00735950469971</t>
   </si>
   <si>
     <t xml:space="preserve">3.91204786300659</t>
@@ -1829,22 +1832,22 @@
     <t xml:space="preserve">3.83807468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82242655754089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225819587708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85727882385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77477073669434</t>
+    <t xml:space="preserve">3.82242679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225771903992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85727906227112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77477049827576</t>
   </si>
   <si>
     <t xml:space="preserve">3.82811665534973</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96326065063477</t>
+    <t xml:space="preserve">3.96325969696045</t>
   </si>
   <si>
     <t xml:space="preserve">4.03438806533813</t>
@@ -1862,22 +1865,22 @@
     <t xml:space="preserve">4.18802499771118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20794105529785</t>
+    <t xml:space="preserve">4.20794057846069</t>
   </si>
   <si>
     <t xml:space="preserve">4.18233489990234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13325643539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09129095077515</t>
+    <t xml:space="preserve">4.13325595855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09129047393799</t>
   </si>
   <si>
     <t xml:space="preserve">4.18020105361938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16028451919556</t>
+    <t xml:space="preserve">4.16028499603271</t>
   </si>
   <si>
     <t xml:space="preserve">4.19798278808594</t>
@@ -1904,28 +1907,28 @@
     <t xml:space="preserve">4.43697309494019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43839645385742</t>
+    <t xml:space="preserve">4.43839550018311</t>
   </si>
   <si>
     <t xml:space="preserve">4.39714193344116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39571857452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41705799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40994501113892</t>
+    <t xml:space="preserve">4.39571905136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41705703735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40994453430176</t>
   </si>
   <si>
     <t xml:space="preserve">4.38860654830933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27906894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19371509552002</t>
+    <t xml:space="preserve">4.27906847000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19371557235718</t>
   </si>
   <si>
     <t xml:space="preserve">4.2676887512207</t>
@@ -1940,16 +1943,16 @@
     <t xml:space="preserve">4.31534433364868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38433885574341</t>
+    <t xml:space="preserve">4.38433837890625</t>
   </si>
   <si>
     <t xml:space="preserve">4.36726808547974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36442279815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36015462875366</t>
+    <t xml:space="preserve">4.36442232131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36015558242798</t>
   </si>
   <si>
     <t xml:space="preserve">4.30680894851685</t>
@@ -1958,13 +1961,13 @@
     <t xml:space="preserve">4.43270540237427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49458742141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40069770812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48676300048828</t>
+    <t xml:space="preserve">4.49458694458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40069818496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48676347732544</t>
   </si>
   <si>
     <t xml:space="preserve">4.5251727104187</t>
@@ -1976,10 +1979,10 @@
     <t xml:space="preserve">4.73215532302856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63044214248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59487771987915</t>
+    <t xml:space="preserve">4.63044261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59487819671631</t>
   </si>
   <si>
     <t xml:space="preserve">4.60199069976807</t>
@@ -1988,7 +1991,7 @@
     <t xml:space="preserve">4.71366214752197</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73571157455444</t>
+    <t xml:space="preserve">4.7357120513916</t>
   </si>
   <si>
     <t xml:space="preserve">4.76843070983887</t>
@@ -2003,25 +2006,25 @@
     <t xml:space="preserve">4.72859859466553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72931003570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66316080093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61123704910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57211637496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61621618270874</t>
+    <t xml:space="preserve">4.72931051254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.663161277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61123752593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57211685180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6162166595459</t>
   </si>
   <si>
     <t xml:space="preserve">4.58065223693848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70157051086426</t>
+    <t xml:space="preserve">4.7015700340271</t>
   </si>
   <si>
     <t xml:space="preserve">4.68023157119751</t>
@@ -2030,7 +2033,7 @@
     <t xml:space="preserve">4.71579599380493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74424743652344</t>
+    <t xml:space="preserve">4.74424695968628</t>
   </si>
   <si>
     <t xml:space="preserve">4.60910367965698</t>
@@ -2045,7 +2048,7 @@
     <t xml:space="preserve">4.72290849685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75847244262695</t>
+    <t xml:space="preserve">4.75847291946411</t>
   </si>
   <si>
     <t xml:space="preserve">4.80114936828613</t>
@@ -2057,7 +2060,7 @@
     <t xml:space="preserve">4.77981090545654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78692436218262</t>
+    <t xml:space="preserve">4.78692388534546</t>
   </si>
   <si>
     <t xml:space="preserve">4.87939071655273</t>
@@ -2072,10 +2075,7 @@
     <t xml:space="preserve">4.70926475524902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77082395553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7015700340271</t>
+    <t xml:space="preserve">4.77082347869873</t>
   </si>
   <si>
     <t xml:space="preserve">4.76312923431396</t>
@@ -2084,10 +2084,10 @@
     <t xml:space="preserve">4.78621339797974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85546779632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90163660049438</t>
+    <t xml:space="preserve">4.85546731948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90163707733154</t>
   </si>
   <si>
     <t xml:space="preserve">4.87855243682861</t>
@@ -2099,25 +2099,25 @@
     <t xml:space="preserve">4.81699371337891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74773931503296</t>
+    <t xml:space="preserve">4.74773979187012</t>
   </si>
   <si>
     <t xml:space="preserve">4.67079067230225</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73234939575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72465467453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71695947647095</t>
+    <t xml:space="preserve">4.73234987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72465419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71695995330811</t>
   </si>
   <si>
     <t xml:space="preserve">4.80929851531982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8016037940979</t>
+    <t xml:space="preserve">4.80160331726074</t>
   </si>
   <si>
     <t xml:space="preserve">4.74004411697388</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">4.60153675079346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53228282928467</t>
+    <t xml:space="preserve">4.53228235244751</t>
   </si>
   <si>
     <t xml:space="preserve">4.57845211029053</t>
@@ -2138,25 +2138,25 @@
     <t xml:space="preserve">4.52458810806274</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57075691223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5091986656189</t>
+    <t xml:space="preserve">4.5707573890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50919818878174</t>
   </si>
   <si>
     <t xml:space="preserve">4.47841882705688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47072410583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46302843093872</t>
+    <t xml:space="preserve">4.4707236289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46302890777588</t>
   </si>
   <si>
     <t xml:space="preserve">4.48611354827881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75543355941772</t>
+    <t xml:space="preserve">4.75543403625488</t>
   </si>
   <si>
     <t xml:space="preserve">4.66309547424316</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">4.58614730834961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5553674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53997755050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54767274856567</t>
+    <t xml:space="preserve">4.55536794662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53997802734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54767227172852</t>
   </si>
   <si>
     <t xml:space="preserve">4.50150299072266</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">4.33991050720215</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24757194519043</t>
+    <t xml:space="preserve">4.24757242202759</t>
   </si>
   <si>
     <t xml:space="preserve">4.27835178375244</t>
@@ -2204,22 +2204,22 @@
     <t xml:space="preserve">4.16292858123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07059001922607</t>
+    <t xml:space="preserve">4.07059049606323</t>
   </si>
   <si>
     <t xml:space="preserve">4.03981065750122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.093674659729</t>
+    <t xml:space="preserve">4.09367513656616</t>
   </si>
   <si>
     <t xml:space="preserve">4.03211545944214</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12445402145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05520009994507</t>
+    <t xml:space="preserve">4.12445449829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05520057678223</t>
   </si>
   <si>
     <t xml:space="preserve">4.07828521728516</t>
@@ -2231,19 +2231,19 @@
     <t xml:space="preserve">4.10906457901001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18601369857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20909786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23987770080566</t>
+    <t xml:space="preserve">4.18601322174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20909738540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23987722396851</t>
   </si>
   <si>
     <t xml:space="preserve">4.30913114547729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33221626281738</t>
+    <t xml:space="preserve">4.33221578598022</t>
   </si>
   <si>
     <t xml:space="preserve">4.3245210647583</t>
@@ -2252,31 +2252,31 @@
     <t xml:space="preserve">4.31682634353638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25526762008667</t>
+    <t xml:space="preserve">4.25526714324951</t>
   </si>
   <si>
     <t xml:space="preserve">4.28604650497437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27065706253052</t>
+    <t xml:space="preserve">4.27065658569336</t>
   </si>
   <si>
     <t xml:space="preserve">4.30143642425537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1783185005188</t>
+    <t xml:space="preserve">4.17831802368164</t>
   </si>
   <si>
     <t xml:space="preserve">4.37838506698608</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38607978820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41685914993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4553337097168</t>
+    <t xml:space="preserve">4.38608026504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41685962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45533418655396</t>
   </si>
   <si>
     <t xml:space="preserve">4.43994426727295</t>
@@ -2288,13 +2288,13 @@
     <t xml:space="preserve">4.42455434799194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44763898849487</t>
+    <t xml:space="preserve">4.44763946533203</t>
   </si>
   <si>
     <t xml:space="preserve">4.43224954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56306219100952</t>
+    <t xml:space="preserve">4.56306171417236</t>
   </si>
   <si>
     <t xml:space="preserve">4.59384155273438</t>
@@ -2306,13 +2306,13 @@
     <t xml:space="preserve">4.62462139129639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60923099517822</t>
+    <t xml:space="preserve">4.60923147201538</t>
   </si>
   <si>
     <t xml:space="preserve">4.82468795776367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90933227539062</t>
+    <t xml:space="preserve">4.90933179855347</t>
   </si>
   <si>
     <t xml:space="preserve">4.95550107955933</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">4.83238315582275</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87085771560669</t>
+    <t xml:space="preserve">4.87085723876953</t>
   </si>
   <si>
     <t xml:space="preserve">4.88624715805054</t>
@@ -2342,10 +2342,10 @@
     <t xml:space="preserve">4.84777307510376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22448778152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20140314102173</t>
+    <t xml:space="preserve">4.2244873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20140266418457</t>
   </si>
   <si>
     <t xml:space="preserve">4.10136985778809</t>
@@ -2360,22 +2360,22 @@
     <t xml:space="preserve">3.50116920471191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49347424507141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81247758865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.858647108078</t>
+    <t xml:space="preserve">3.49347448348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81247782707214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85864686965942</t>
   </si>
   <si>
     <t xml:space="preserve">2.62780046463013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66242742538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79708766937256</t>
+    <t xml:space="preserve">2.6624276638031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79708790779114</t>
   </si>
   <si>
     <t xml:space="preserve">2.73937630653381</t>
@@ -2390,28 +2390,28 @@
     <t xml:space="preserve">2.98561239242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90481615066528</t>
+    <t xml:space="preserve">2.90481638908386</t>
   </si>
   <si>
     <t xml:space="preserve">2.93174815177917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92405319213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77785062789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88557910919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90096879005432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84710454940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79324054718018</t>
+    <t xml:space="preserve">2.92405343055725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77785086631775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88557887077332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90096855163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84710478782654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79324078559875</t>
   </si>
   <si>
     <t xml:space="preserve">2.8086302280426</t>
@@ -2420,13 +2420,13 @@
     <t xml:space="preserve">2.86249446868896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83171486854553</t>
+    <t xml:space="preserve">2.83171463012695</t>
   </si>
   <si>
     <t xml:space="preserve">2.78939294815063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69320726394653</t>
+    <t xml:space="preserve">2.69320702552795</t>
   </si>
   <si>
     <t xml:space="preserve">2.75476598739624</t>
@@ -2435,10 +2435,10 @@
     <t xml:space="preserve">2.78554558753967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72013926506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71629166603088</t>
+    <t xml:space="preserve">2.72013902664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71629190444946</t>
   </si>
   <si>
     <t xml:space="preserve">2.73168158531189</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">2.74707126617432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.704749584198</t>
+    <t xml:space="preserve">2.70474934577942</t>
   </si>
   <si>
     <t xml:space="preserve">2.6970546245575</t>
@@ -2456,25 +2456,25 @@
     <t xml:space="preserve">2.72398662567139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68166446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64319038391113</t>
+    <t xml:space="preserve">2.68166470527649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64319014549255</t>
   </si>
   <si>
     <t xml:space="preserve">2.53930950164795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5085301399231</t>
+    <t xml:space="preserve">2.50852990150452</t>
   </si>
   <si>
     <t xml:space="preserve">2.47775053977966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48544526100159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55469918251038</t>
+    <t xml:space="preserve">2.48544549942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55469942092896</t>
   </si>
   <si>
     <t xml:space="preserve">2.42003893852234</t>
@@ -2489,10 +2489,10 @@
     <t xml:space="preserve">2.53161454200745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46620798110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50083494186401</t>
+    <t xml:space="preserve">2.4662082195282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50083518028259</t>
   </si>
   <si>
     <t xml:space="preserve">2.49698758125305</t>
@@ -2510,13 +2510,13 @@
     <t xml:space="preserve">2.70859694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87403678894043</t>
+    <t xml:space="preserve">2.87403655052185</t>
   </si>
   <si>
     <t xml:space="preserve">3.01639199256897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63164806365967</t>
+    <t xml:space="preserve">2.63164830207825</t>
   </si>
   <si>
     <t xml:space="preserve">2.63549542427063</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">2.68935942649841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72783422470093</t>
+    <t xml:space="preserve">2.72783398628235</t>
   </si>
   <si>
     <t xml:space="preserve">2.77790355682373</t>
@@ -4233,6 +4233,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.00999999046326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96599996089935</t>
   </si>
 </sst>
 </file>
@@ -8336,7 +8339,7 @@
         <v>7.24187612533569</v>
       </c>
       <c r="G145" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8362,7 +8365,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G146" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8388,7 +8391,7 @@
         <v>7.33019208908081</v>
       </c>
       <c r="G147" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8414,7 +8417,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G148" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8440,7 +8443,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G149" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8466,7 +8469,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G150" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8518,7 +8521,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G152" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8544,7 +8547,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G153" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8570,7 +8573,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G154" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8596,7 +8599,7 @@
         <v>7.07918977737427</v>
       </c>
       <c r="G155" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8622,7 +8625,7 @@
         <v>7.05130100250244</v>
       </c>
       <c r="G156" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8674,7 +8677,7 @@
         <v>7.13032007217407</v>
       </c>
       <c r="G158" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8700,7 +8703,7 @@
         <v>7.04200410842896</v>
       </c>
       <c r="G159" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8726,7 +8729,7 @@
         <v>7.0048189163208</v>
       </c>
       <c r="G160" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8752,7 +8755,7 @@
         <v>6.93509578704834</v>
       </c>
       <c r="G161" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8778,7 +8781,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G162" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8804,7 +8807,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G163" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8830,7 +8833,7 @@
         <v>6.78170585632324</v>
       </c>
       <c r="G164" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8856,7 +8859,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G165" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8882,7 +8885,7 @@
         <v>6.88396596908569</v>
       </c>
       <c r="G166" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8908,7 +8911,7 @@
         <v>6.87002086639404</v>
       </c>
       <c r="G167" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8934,7 +8937,7 @@
         <v>6.83283615112305</v>
       </c>
       <c r="G168" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8960,7 +8963,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G169" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8986,7 +8989,7 @@
         <v>6.77705812454224</v>
       </c>
       <c r="G170" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9012,7 +9015,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G171" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9038,7 +9041,7 @@
         <v>6.71198320388794</v>
       </c>
       <c r="G172" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9064,7 +9067,7 @@
         <v>6.64690780639648</v>
       </c>
       <c r="G173" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9090,7 +9093,7 @@
         <v>6.79565000534058</v>
       </c>
       <c r="G174" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9116,7 +9119,7 @@
         <v>6.69803810119629</v>
       </c>
       <c r="G175" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9168,7 +9171,7 @@
         <v>6.74916791915894</v>
       </c>
       <c r="G177" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9194,7 +9197,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G178" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9220,7 +9223,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G179" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9246,7 +9249,7 @@
         <v>6.242516040802</v>
       </c>
       <c r="G180" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9298,7 +9301,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G182" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9324,7 +9327,7 @@
         <v>6.09842205047607</v>
       </c>
       <c r="G183" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9350,7 +9353,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G184" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9376,7 +9379,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G185" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9402,7 +9405,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G186" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9428,7 +9431,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G187" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9454,7 +9457,7 @@
         <v>6.17744112014771</v>
       </c>
       <c r="G188" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9480,7 +9483,7 @@
         <v>6.13095903396606</v>
       </c>
       <c r="G189" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9532,7 +9535,7 @@
         <v>6.26575708389282</v>
       </c>
       <c r="G191" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9584,7 +9587,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G193" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9610,7 +9613,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G194" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9636,7 +9639,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G195" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9662,7 +9665,7 @@
         <v>6.11236715316772</v>
       </c>
       <c r="G196" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9688,7 +9691,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G197" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9714,7 +9717,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G198" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9740,7 +9743,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G199" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9766,7 +9769,7 @@
         <v>6.02405118942261</v>
       </c>
       <c r="G200" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9792,7 +9795,7 @@
         <v>5.99616193771362</v>
       </c>
       <c r="G201" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9818,7 +9821,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G202" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9844,7 +9847,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G203" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9870,7 +9873,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G204" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9896,7 +9899,7 @@
         <v>6.20532989501953</v>
       </c>
       <c r="G205" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9922,7 +9925,7 @@
         <v>6.45633316040039</v>
       </c>
       <c r="G206" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9948,7 +9951,7 @@
         <v>6.56324100494385</v>
       </c>
       <c r="G207" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9974,7 +9977,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G208" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10000,7 +10003,7 @@
         <v>6.63761186599731</v>
       </c>
       <c r="G209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10052,7 +10055,7 @@
         <v>6.65155601501465</v>
       </c>
       <c r="G211" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10078,7 +10081,7 @@
         <v>6.600426197052</v>
       </c>
       <c r="G212" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10104,7 +10107,7 @@
         <v>6.52140712738037</v>
       </c>
       <c r="G213" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10156,7 +10159,7 @@
         <v>6.46562910079956</v>
       </c>
       <c r="G215" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10182,7 +10185,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G216" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10208,7 +10211,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10234,7 +10237,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G218" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10260,7 +10263,7 @@
         <v>6.36336898803711</v>
       </c>
       <c r="G219" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10286,7 +10289,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G220" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10312,7 +10315,7 @@
         <v>6.34477615356445</v>
       </c>
       <c r="G221" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10338,7 +10341,7 @@
         <v>6.29364585876465</v>
       </c>
       <c r="G222" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10364,7 +10367,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G223" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10390,7 +10393,7 @@
         <v>6.21462678909302</v>
       </c>
       <c r="G224" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10416,7 +10419,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G225" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10442,7 +10445,7 @@
         <v>6.06123685836792</v>
       </c>
       <c r="G226" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10468,7 +10471,7 @@
         <v>6.07053279876709</v>
       </c>
       <c r="G227" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10494,7 +10497,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G228" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10520,7 +10523,7 @@
         <v>5.74516010284424</v>
       </c>
       <c r="G229" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10546,7 +10549,7 @@
         <v>5.88460493087769</v>
       </c>
       <c r="G230" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10572,7 +10575,7 @@
         <v>5.92643880844116</v>
       </c>
       <c r="G231" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10598,7 +10601,7 @@
         <v>5.90784597396851</v>
       </c>
       <c r="G232" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10624,7 +10627,7 @@
         <v>5.78234481811523</v>
       </c>
       <c r="G233" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10650,7 +10653,7 @@
         <v>5.81023406982422</v>
       </c>
       <c r="G234" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10676,7 +10679,7 @@
         <v>5.81953096389771</v>
       </c>
       <c r="G235" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10702,7 +10705,7 @@
         <v>5.86601305007935</v>
       </c>
       <c r="G236" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10728,7 +10731,7 @@
         <v>5.85671615600586</v>
       </c>
       <c r="G237" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10754,7 +10757,7 @@
         <v>5.91249513626099</v>
       </c>
       <c r="G238" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10780,7 +10783,7 @@
         <v>5.83812379837036</v>
       </c>
       <c r="G239" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10806,7 +10809,7 @@
         <v>6.14490413665771</v>
       </c>
       <c r="G240" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10832,7 +10835,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G241" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10858,7 +10861,7 @@
         <v>6.3959059715271</v>
       </c>
       <c r="G242" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10884,7 +10887,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G243" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10910,7 +10913,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G244" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10962,7 +10965,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G246" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11040,7 +11043,7 @@
         <v>6.57718515396118</v>
       </c>
       <c r="G249" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11066,7 +11069,7 @@
         <v>6.53070402145386</v>
       </c>
       <c r="G250" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11092,7 +11095,7 @@
         <v>6.6655011177063</v>
       </c>
       <c r="G251" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11118,7 +11121,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G252" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11144,7 +11147,7 @@
         <v>6.67479705810547</v>
       </c>
       <c r="G253" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11170,7 +11173,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G254" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11196,7 +11199,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G255" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11222,7 +11225,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G256" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11248,7 +11251,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G257" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11274,7 +11277,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G258" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11352,7 +11355,7 @@
         <v>7.05594921112061</v>
       </c>
       <c r="G261" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11404,7 +11407,7 @@
         <v>6.91650295257568</v>
       </c>
       <c r="G263" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11430,7 +11433,7 @@
         <v>7.00946712493896</v>
       </c>
       <c r="G264" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11456,7 +11459,7 @@
         <v>7.02341079711914</v>
       </c>
       <c r="G265" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11508,7 +11511,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G267" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11534,7 +11537,7 @@
         <v>6.94903993606567</v>
       </c>
       <c r="G268" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11560,7 +11563,7 @@
         <v>6.88861417770386</v>
       </c>
       <c r="G269" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11612,7 +11615,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G271" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11664,7 +11667,7 @@
         <v>6.82818794250488</v>
       </c>
       <c r="G273" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11690,7 +11693,7 @@
         <v>6.80494689941406</v>
       </c>
       <c r="G274" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11716,7 +11719,7 @@
         <v>6.75381708145142</v>
       </c>
       <c r="G275" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11768,7 +11771,7 @@
         <v>6.61901903152466</v>
       </c>
       <c r="G277" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11794,7 +11797,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G278" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11820,7 +11823,7 @@
         <v>6.47027683258057</v>
       </c>
       <c r="G279" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11846,7 +11849,7 @@
         <v>6.62831592559814</v>
       </c>
       <c r="G280" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11872,7 +11875,7 @@
         <v>6.50746297836304</v>
       </c>
       <c r="G281" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11898,7 +11901,7 @@
         <v>6.57253694534302</v>
       </c>
       <c r="G282" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11924,7 +11927,7 @@
         <v>6.53535223007202</v>
       </c>
       <c r="G283" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11950,7 +11953,7 @@
         <v>6.53535223007202</v>
       </c>
       <c r="G284" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11976,7 +11979,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G285" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12054,7 +12057,7 @@
         <v>6.81424283981323</v>
       </c>
       <c r="G288" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12080,7 +12083,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G289" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12106,7 +12109,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G290" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12132,7 +12135,7 @@
         <v>6.95833683013916</v>
       </c>
       <c r="G291" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12158,7 +12161,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G292" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12184,7 +12187,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G293" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12210,7 +12213,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G294" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12236,7 +12239,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G295" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12262,7 +12265,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G296" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12314,7 +12317,7 @@
         <v>6.70268678665161</v>
       </c>
       <c r="G298" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12340,7 +12343,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G299" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12366,7 +12369,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G300" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12392,7 +12395,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G301" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12444,7 +12447,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G303" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12470,7 +12473,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G304" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12496,7 +12499,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G305" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12522,7 +12525,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G306" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12548,7 +12551,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G307" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12574,7 +12577,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G308" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12600,7 +12603,7 @@
         <v>7.06989288330078</v>
       </c>
       <c r="G309" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12626,7 +12629,7 @@
         <v>7.17680215835571</v>
       </c>
       <c r="G310" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12652,7 +12655,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G311" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12678,7 +12681,7 @@
         <v>7.41850709915161</v>
       </c>
       <c r="G312" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12704,7 +12707,7 @@
         <v>7.46963787078857</v>
       </c>
       <c r="G313" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12756,7 +12759,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G315" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12808,7 +12811,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G317" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12834,7 +12837,7 @@
         <v>7.60443496704102</v>
       </c>
       <c r="G318" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12860,7 +12863,7 @@
         <v>7.75782489776611</v>
       </c>
       <c r="G319" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12886,7 +12889,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G320" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12938,7 +12941,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G322" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12964,7 +12967,7 @@
         <v>7.59978723526001</v>
       </c>
       <c r="G323" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12990,7 +12993,7 @@
         <v>7.59513902664185</v>
       </c>
       <c r="G324" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13094,7 +13097,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G328" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13120,7 +13123,7 @@
         <v>7.46498918533325</v>
       </c>
       <c r="G329" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13172,7 +13175,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G331" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13198,7 +13201,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G332" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13224,7 +13227,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G333" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13250,7 +13253,7 @@
         <v>7.311598777771</v>
       </c>
       <c r="G334" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13276,7 +13279,7 @@
         <v>7.20469093322754</v>
       </c>
       <c r="G335" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13302,7 +13305,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G336" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13328,7 +13331,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G337" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13354,7 +13357,7 @@
         <v>7.53471183776855</v>
       </c>
       <c r="G338" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13380,7 +13383,7 @@
         <v>7.66486120223999</v>
       </c>
       <c r="G339" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13406,7 +13409,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G340" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13432,7 +13435,7 @@
         <v>7.6973991394043</v>
       </c>
       <c r="G341" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13458,7 +13461,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G342" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13484,7 +13487,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G343" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13510,7 +13513,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G344" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13536,7 +13539,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G345" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13562,7 +13565,7 @@
         <v>7.95769691467285</v>
       </c>
       <c r="G346" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13588,7 +13591,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G347" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13614,7 +13617,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G348" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13640,7 +13643,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G349" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13666,7 +13669,7 @@
         <v>8.16686630249023</v>
       </c>
       <c r="G350" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13692,7 +13695,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G351" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13718,7 +13721,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G352" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13744,7 +13747,7 @@
         <v>7.8554368019104</v>
       </c>
       <c r="G353" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13770,7 +13773,7 @@
         <v>7.79965877532959</v>
       </c>
       <c r="G354" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13796,7 +13799,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G355" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13822,7 +13825,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G356" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13848,7 +13851,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G357" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13874,7 +13877,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G358" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13900,7 +13903,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G359" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13926,7 +13929,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G360" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13952,7 +13955,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G361" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13978,7 +13981,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G362" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14004,7 +14007,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G363" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14030,7 +14033,7 @@
         <v>7.83684396743774</v>
       </c>
       <c r="G364" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14056,7 +14059,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G365" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14082,7 +14085,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G366" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14108,7 +14111,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G367" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14134,7 +14137,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G368" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14160,7 +14163,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G369" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14186,7 +14189,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G370" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14212,7 +14215,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G371" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14238,7 +14241,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G372" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14264,7 +14267,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G373" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14290,7 +14293,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G374" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14316,7 +14319,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G375" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14342,7 +14345,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G376" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14368,7 +14371,7 @@
         <v>7.46034097671509</v>
       </c>
       <c r="G377" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14394,7 +14397,7 @@
         <v>7.4278039932251</v>
       </c>
       <c r="G378" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14420,7 +14423,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G379" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14446,7 +14449,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G380" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14472,7 +14475,7 @@
         <v>7.39991521835327</v>
       </c>
       <c r="G381" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14498,7 +14501,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G382" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14524,7 +14527,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G383" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14550,7 +14553,7 @@
         <v>7.16750478744507</v>
       </c>
       <c r="G384" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14576,7 +14579,7 @@
         <v>7.21863508224487</v>
       </c>
       <c r="G385" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14602,7 +14605,7 @@
         <v>7.35343313217163</v>
       </c>
       <c r="G386" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14628,7 +14631,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G387" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14654,7 +14657,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G388" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14680,7 +14683,7 @@
         <v>7.39061784744263</v>
       </c>
       <c r="G389" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14706,7 +14709,7 @@
         <v>7.53006410598755</v>
       </c>
       <c r="G390" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14732,7 +14735,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G391" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14758,7 +14761,7 @@
         <v>7.55330514907837</v>
       </c>
       <c r="G392" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14784,7 +14787,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G393" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14810,7 +14813,7 @@
         <v>7.72064018249512</v>
       </c>
       <c r="G394" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14836,7 +14839,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G395" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14862,7 +14865,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G396" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14888,7 +14891,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G397" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14914,7 +14917,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G398" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14940,7 +14943,7 @@
         <v>7.72993612289429</v>
       </c>
       <c r="G399" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14966,7 +14969,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G400" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14992,7 +14995,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G401" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15018,7 +15021,7 @@
         <v>7.74388122558594</v>
       </c>
       <c r="G402" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15044,7 +15047,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G403" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15070,7 +15073,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G404" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15096,7 +15099,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G405" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15122,7 +15125,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G406" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15148,7 +15151,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G407" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15174,7 +15177,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G408" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15200,7 +15203,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G409" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15226,7 +15229,7 @@
         <v>7.82289981842041</v>
       </c>
       <c r="G410" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15252,7 +15255,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G411" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15278,7 +15281,7 @@
         <v>7.89262294769287</v>
       </c>
       <c r="G412" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15304,7 +15307,7 @@
         <v>7.81360292434692</v>
       </c>
       <c r="G413" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15330,7 +15333,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G414" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15356,7 +15359,7 @@
         <v>7.79501104354858</v>
       </c>
       <c r="G415" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15382,7 +15385,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G416" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15408,7 +15411,7 @@
         <v>8.01347637176514</v>
       </c>
       <c r="G417" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15434,7 +15437,7 @@
         <v>7.99023485183716</v>
       </c>
       <c r="G418" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15460,7 +15463,7 @@
         <v>7.93445587158203</v>
       </c>
       <c r="G419" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15486,7 +15489,7 @@
         <v>7.94375276565552</v>
       </c>
       <c r="G420" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15512,7 +15515,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G421" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15538,7 +15541,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G422" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15564,7 +15567,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G423" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15590,7 +15593,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G424" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15616,7 +15619,7 @@
         <v>7.86008501052856</v>
       </c>
       <c r="G425" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15642,7 +15645,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G426" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15668,7 +15671,7 @@
         <v>7.78106594085693</v>
       </c>
       <c r="G427" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15694,7 +15697,7 @@
         <v>7.89727115631104</v>
       </c>
       <c r="G428" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15720,7 +15723,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G429" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15746,7 +15749,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G430" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15772,7 +15775,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G431" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15798,7 +15801,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G432" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15824,7 +15827,7 @@
         <v>7.84149312973022</v>
       </c>
       <c r="G433" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15850,7 +15853,7 @@
         <v>7.92051219940186</v>
       </c>
       <c r="G434" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15876,7 +15879,7 @@
         <v>8.03206825256348</v>
       </c>
       <c r="G435" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15902,7 +15905,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G436" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15928,7 +15931,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G437" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15954,7 +15957,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G438" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15980,7 +15983,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G439" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16006,7 +16009,7 @@
         <v>8.19010734558105</v>
       </c>
       <c r="G440" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16032,7 +16035,7 @@
         <v>8.12503242492676</v>
       </c>
       <c r="G441" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16058,7 +16061,7 @@
         <v>8.08784675598145</v>
       </c>
       <c r="G442" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16084,7 +16087,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G443" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16110,7 +16113,7 @@
         <v>8.10643863677979</v>
       </c>
       <c r="G444" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16136,7 +16139,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G445" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16162,7 +16165,7 @@
         <v>8.14362525939941</v>
       </c>
       <c r="G446" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16188,7 +16191,7 @@
         <v>8.12038421630859</v>
       </c>
       <c r="G447" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16214,7 +16217,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G448" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16240,7 +16243,7 @@
         <v>8.20869922637939</v>
       </c>
       <c r="G449" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16266,7 +16269,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G450" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16292,7 +16295,7 @@
         <v>8.22729206085205</v>
       </c>
       <c r="G451" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16318,7 +16321,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G452" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16344,7 +16347,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G453" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16370,7 +16373,7 @@
         <v>8.07390213012695</v>
       </c>
       <c r="G454" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16396,7 +16399,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G455" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16422,7 +16425,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G456" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16448,7 +16451,7 @@
         <v>8.36673831939697</v>
       </c>
       <c r="G457" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16474,7 +16477,7 @@
         <v>8.50618267059326</v>
       </c>
       <c r="G458" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16500,7 +16503,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G459" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16526,7 +16529,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G460" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16552,7 +16555,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G461" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16578,7 +16581,7 @@
         <v>8.5526647567749</v>
       </c>
       <c r="G462" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16604,7 +16607,7 @@
         <v>8.54801654815674</v>
       </c>
       <c r="G463" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16630,7 +16633,7 @@
         <v>8.69211101531982</v>
       </c>
       <c r="G464" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16656,7 +16659,7 @@
         <v>8.74788856506348</v>
       </c>
       <c r="G465" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16682,7 +16685,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G466" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16708,7 +16711,7 @@
         <v>8.60379505157471</v>
       </c>
       <c r="G467" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16734,7 +16737,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G468" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16760,7 +16763,7 @@
         <v>8.98959541320801</v>
       </c>
       <c r="G469" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16786,7 +16789,7 @@
         <v>9.22665309906006</v>
       </c>
       <c r="G470" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16812,7 +16815,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G471" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16838,7 +16841,7 @@
         <v>9.696120262146</v>
       </c>
       <c r="G472" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16864,7 +16867,7 @@
         <v>9.67752742767334</v>
       </c>
       <c r="G473" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16890,7 +16893,7 @@
         <v>9.55667400360107</v>
       </c>
       <c r="G474" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16916,7 +16919,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G475" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16942,7 +16945,7 @@
         <v>9.62174892425537</v>
       </c>
       <c r="G476" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16968,7 +16971,7 @@
         <v>9.43582057952881</v>
       </c>
       <c r="G477" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16994,7 +16997,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G478" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17020,7 +17023,7 @@
         <v>9.34285736083984</v>
       </c>
       <c r="G479" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17046,7 +17049,7 @@
         <v>9.2080602645874</v>
       </c>
       <c r="G480" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17072,7 +17075,7 @@
         <v>9.38933944702148</v>
       </c>
       <c r="G481" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17098,7 +17101,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G482" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17124,7 +17127,7 @@
         <v>9.91923332214355</v>
       </c>
       <c r="G483" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17150,7 +17153,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G484" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17176,7 +17179,7 @@
         <v>9.65893363952637</v>
       </c>
       <c r="G485" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17202,7 +17205,7 @@
         <v>10.0029001235962</v>
       </c>
       <c r="G486" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17228,7 +17231,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G487" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17254,7 +17257,7 @@
         <v>9.90063953399658</v>
       </c>
       <c r="G488" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17280,7 +17283,7 @@
         <v>10.0586776733398</v>
       </c>
       <c r="G489" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17306,7 +17309,7 @@
         <v>10.1144561767578</v>
       </c>
       <c r="G490" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17332,7 +17335,7 @@
         <v>10.0307893753052</v>
       </c>
       <c r="G491" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17358,7 +17361,7 @@
         <v>10.0121955871582</v>
       </c>
       <c r="G492" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17384,7 +17387,7 @@
         <v>9.76119422912598</v>
       </c>
       <c r="G493" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17410,7 +17413,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G494" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17436,7 +17439,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G495" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17462,7 +17465,7 @@
         <v>9.93782520294189</v>
       </c>
       <c r="G496" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17488,7 +17491,7 @@
         <v>10.0772714614868</v>
       </c>
       <c r="G497" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17514,7 +17517,7 @@
         <v>10.318977355957</v>
       </c>
       <c r="G498" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17540,7 +17543,7 @@
         <v>10.3003835678101</v>
       </c>
       <c r="G499" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17566,7 +17569,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G500" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17592,7 +17595,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G501" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17618,7 +17621,7 @@
         <v>10.411940574646</v>
       </c>
       <c r="G502" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17644,7 +17647,7 @@
         <v>10.1330490112305</v>
       </c>
       <c r="G503" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17670,7 +17673,7 @@
         <v>9.49159908294678</v>
       </c>
       <c r="G504" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17696,7 +17699,7 @@
         <v>9.11044788360596</v>
       </c>
       <c r="G505" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17722,7 +17725,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G506" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17748,7 +17751,7 @@
         <v>9.08255863189697</v>
       </c>
       <c r="G507" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17774,7 +17777,7 @@
         <v>8.88268661499023</v>
       </c>
       <c r="G508" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17800,7 +17803,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G509" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17826,7 +17829,7 @@
         <v>9.09650325775146</v>
       </c>
       <c r="G510" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17852,7 +17855,7 @@
         <v>8.96170616149902</v>
       </c>
       <c r="G511" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17878,7 +17881,7 @@
         <v>8.95240879058838</v>
       </c>
       <c r="G512" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17904,7 +17907,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G513" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17930,7 +17933,7 @@
         <v>9.1569299697876</v>
       </c>
       <c r="G514" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17956,7 +17959,7 @@
         <v>9.16622638702393</v>
       </c>
       <c r="G515" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17982,7 +17985,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G516" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18008,7 +18011,7 @@
         <v>9.31496810913086</v>
       </c>
       <c r="G517" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18034,7 +18037,7 @@
         <v>9.26848602294922</v>
       </c>
       <c r="G518" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18060,7 +18063,7 @@
         <v>9.00818824768066</v>
       </c>
       <c r="G519" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18086,7 +18089,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G520" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18112,7 +18115,7 @@
         <v>9.06396579742432</v>
       </c>
       <c r="G521" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18138,7 +18141,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G522" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18164,7 +18167,7 @@
         <v>8.8873348236084</v>
       </c>
       <c r="G523" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18190,7 +18193,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G524" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18216,7 +18219,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G525" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18242,7 +18245,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G526" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18268,7 +18271,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G527" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18294,7 +18297,7 @@
         <v>8.90592765808105</v>
       </c>
       <c r="G528" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18320,7 +18323,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G529" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18346,7 +18349,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G530" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18372,7 +18375,7 @@
         <v>8.85014915466309</v>
       </c>
       <c r="G531" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18398,7 +18401,7 @@
         <v>8.60844421386719</v>
       </c>
       <c r="G532" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18424,7 +18427,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G533" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18450,7 +18453,7 @@
         <v>8.53407287597656</v>
       </c>
       <c r="G534" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18476,7 +18479,7 @@
         <v>8.34814453125</v>
       </c>
       <c r="G535" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18502,7 +18505,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G536" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18528,7 +18531,7 @@
         <v>8.05995655059814</v>
       </c>
       <c r="G537" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18554,7 +18557,7 @@
         <v>8.30166339874268</v>
       </c>
       <c r="G538" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18580,7 +18583,7 @@
         <v>7.87403011322021</v>
       </c>
       <c r="G539" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18606,7 +18609,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G540" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18632,7 +18635,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G541" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18658,7 +18661,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G542" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18684,7 +18687,7 @@
         <v>7.68810176849365</v>
       </c>
       <c r="G543" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18710,7 +18713,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G544" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18736,7 +18739,7 @@
         <v>7.8182520866394</v>
       </c>
       <c r="G545" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18762,7 +18765,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G546" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18788,7 +18791,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G547" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18814,7 +18817,7 @@
         <v>7.58584213256836</v>
       </c>
       <c r="G548" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18840,7 +18843,7 @@
         <v>8.0413646697998</v>
       </c>
       <c r="G549" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18866,7 +18869,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G550" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18892,7 +18895,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G551" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18918,7 +18921,7 @@
         <v>7.49566698074341</v>
       </c>
       <c r="G552" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18944,7 +18947,7 @@
         <v>7.36086988449097</v>
       </c>
       <c r="G553" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18970,7 +18973,7 @@
         <v>7.17308282852173</v>
       </c>
       <c r="G554" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18996,7 +18999,7 @@
         <v>7.00017118453979</v>
       </c>
       <c r="G555" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19022,7 +19025,7 @@
         <v>6.98622608184814</v>
       </c>
       <c r="G556" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19048,7 +19051,7 @@
         <v>7.08383798599243</v>
       </c>
       <c r="G557" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19074,7 +19077,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G558" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19100,7 +19103,7 @@
         <v>7.298583984375</v>
       </c>
       <c r="G559" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19126,7 +19129,7 @@
         <v>7.12102317810059</v>
       </c>
       <c r="G560" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19152,7 +19155,7 @@
         <v>7.03177785873413</v>
       </c>
       <c r="G561" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19178,7 +19181,7 @@
         <v>7.05501890182495</v>
       </c>
       <c r="G562" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19204,7 +19207,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G563" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19230,7 +19233,7 @@
         <v>6.82911682128906</v>
       </c>
       <c r="G564" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19256,7 +19259,7 @@
         <v>6.72127914428711</v>
       </c>
       <c r="G565" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19282,7 +19285,7 @@
         <v>7.01225614547729</v>
       </c>
       <c r="G566" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19308,7 +19311,7 @@
         <v>6.98064804077148</v>
       </c>
       <c r="G567" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19334,7 +19337,7 @@
         <v>6.94439220428467</v>
       </c>
       <c r="G568" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19360,7 +19363,7 @@
         <v>6.71291303634644</v>
       </c>
       <c r="G569" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19386,7 +19389,7 @@
         <v>6.55394506454468</v>
       </c>
       <c r="G570" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19412,7 +19415,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19438,7 +19441,7 @@
         <v>7.27699995040894</v>
       </c>
       <c r="G572" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19464,7 +19467,7 @@
         <v>7.97800016403198</v>
       </c>
       <c r="G573" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19490,7 +19493,7 @@
         <v>7.58799982070923</v>
       </c>
       <c r="G574" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19516,7 +19519,7 @@
         <v>7.75</v>
       </c>
       <c r="G575" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19542,7 +19545,7 @@
         <v>8.04199981689453</v>
       </c>
       <c r="G576" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19568,7 +19571,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G577" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19594,7 +19597,7 @@
         <v>8.25899982452393</v>
       </c>
       <c r="G578" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19620,7 +19623,7 @@
         <v>8.09500026702881</v>
       </c>
       <c r="G579" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19646,7 +19649,7 @@
         <v>7.83699989318848</v>
       </c>
       <c r="G580" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19672,7 +19675,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G581" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19698,7 +19701,7 @@
         <v>7.89900016784668</v>
       </c>
       <c r="G582" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19724,7 +19727,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G583" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19750,7 +19753,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G584" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19776,7 +19779,7 @@
         <v>7.86700010299683</v>
       </c>
       <c r="G585" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19802,7 +19805,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G586" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19828,7 +19831,7 @@
         <v>7.84200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19854,7 +19857,7 @@
         <v>7.85799980163574</v>
       </c>
       <c r="G588" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19880,7 +19883,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G589" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19906,7 +19909,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G590" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19932,7 +19935,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G591" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19958,7 +19961,7 @@
         <v>7.71600008010864</v>
       </c>
       <c r="G592" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19984,7 +19987,7 @@
         <v>7.70100021362305</v>
       </c>
       <c r="G593" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20010,7 +20013,7 @@
         <v>7.76300001144409</v>
       </c>
       <c r="G594" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20036,7 +20039,7 @@
         <v>7.85699987411499</v>
       </c>
       <c r="G595" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20062,7 +20065,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G596" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20088,7 +20091,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20114,7 +20117,7 @@
         <v>8</v>
       </c>
       <c r="G598" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20140,7 +20143,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G599" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20166,7 +20169,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20192,7 +20195,7 @@
         <v>7.92600011825562</v>
       </c>
       <c r="G601" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20218,7 +20221,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G602" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20244,7 +20247,7 @@
         <v>8.03800010681152</v>
       </c>
       <c r="G603" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20270,7 +20273,7 @@
         <v>8</v>
       </c>
       <c r="G604" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20296,7 +20299,7 @@
         <v>7.78399991989136</v>
       </c>
       <c r="G605" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20322,7 +20325,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G606" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20348,7 +20351,7 @@
         <v>7.44899988174438</v>
       </c>
       <c r="G607" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20374,7 +20377,7 @@
         <v>7.55900001525879</v>
       </c>
       <c r="G608" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20400,7 +20403,7 @@
         <v>7.47499990463257</v>
       </c>
       <c r="G609" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20426,7 +20429,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G610" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20452,7 +20455,7 @@
         <v>7.37099981307983</v>
       </c>
       <c r="G611" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20478,7 +20481,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20504,7 +20507,7 @@
         <v>7.11499977111816</v>
       </c>
       <c r="G613" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20530,7 +20533,7 @@
         <v>6.7649998664856</v>
       </c>
       <c r="G614" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20556,7 +20559,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G615" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20582,7 +20585,7 @@
         <v>7.27400016784668</v>
       </c>
       <c r="G616" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20608,7 +20611,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G617" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20634,7 +20637,7 @@
         <v>7.39400005340576</v>
       </c>
       <c r="G618" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20660,7 +20663,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G619" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20686,7 +20689,7 @@
         <v>7.49499988555908</v>
       </c>
       <c r="G620" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20712,7 +20715,7 @@
         <v>7.32299995422363</v>
       </c>
       <c r="G621" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20738,7 +20741,7 @@
         <v>7.1710000038147</v>
       </c>
       <c r="G622" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20764,7 +20767,7 @@
         <v>7.08900022506714</v>
       </c>
       <c r="G623" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20790,7 +20793,7 @@
         <v>7.25899982452393</v>
       </c>
       <c r="G624" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20816,7 +20819,7 @@
         <v>7.11100006103516</v>
       </c>
       <c r="G625" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20842,7 +20845,7 @@
         <v>7.24900007247925</v>
       </c>
       <c r="G626" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20868,7 +20871,7 @@
         <v>7.31799983978271</v>
       </c>
       <c r="G627" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20894,7 +20897,7 @@
         <v>6.97200012207031</v>
       </c>
       <c r="G628" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20920,7 +20923,7 @@
         <v>6.97399997711182</v>
       </c>
       <c r="G629" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20946,7 +20949,7 @@
         <v>6.92399978637695</v>
       </c>
       <c r="G630" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20972,7 +20975,7 @@
         <v>6.90299987792969</v>
       </c>
       <c r="G631" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20998,7 +21001,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G632" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21024,7 +21027,7 @@
         <v>6.96700000762939</v>
       </c>
       <c r="G633" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21050,7 +21053,7 @@
         <v>7</v>
       </c>
       <c r="G634" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21076,7 +21079,7 @@
         <v>6.875</v>
       </c>
       <c r="G635" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21102,7 +21105,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G636" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21128,7 +21131,7 @@
         <v>6.88199996948242</v>
       </c>
       <c r="G637" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21154,7 +21157,7 @@
         <v>7.04699993133545</v>
       </c>
       <c r="G638" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21180,7 +21183,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G639" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21206,7 +21209,7 @@
         <v>7</v>
       </c>
       <c r="G640" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21232,7 +21235,7 @@
         <v>6.93699979782104</v>
       </c>
       <c r="G641" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21258,7 +21261,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G642" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21284,7 +21287,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G643" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21310,7 +21313,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G644" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21336,7 +21339,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G645" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21362,7 +21365,7 @@
         <v>7.05399990081787</v>
       </c>
       <c r="G646" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21388,7 +21391,7 @@
         <v>7.06899976730347</v>
       </c>
       <c r="G647" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21414,7 +21417,7 @@
         <v>7.12599992752075</v>
       </c>
       <c r="G648" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21440,7 +21443,7 @@
         <v>7.17700004577637</v>
       </c>
       <c r="G649" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21466,7 +21469,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G650" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21492,7 +21495,7 @@
         <v>7.35099983215332</v>
       </c>
       <c r="G651" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21518,7 +21521,7 @@
         <v>7.21600008010864</v>
       </c>
       <c r="G652" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21544,7 +21547,7 @@
         <v>7.24200010299683</v>
       </c>
       <c r="G653" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21570,7 +21573,7 @@
         <v>7.26100015640259</v>
       </c>
       <c r="G654" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21596,7 +21599,7 @@
         <v>7.06599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21622,7 +21625,7 @@
         <v>7.25</v>
       </c>
       <c r="G656" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21648,7 +21651,7 @@
         <v>7.05700016021729</v>
       </c>
       <c r="G657" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21674,7 +21677,7 @@
         <v>7.13100004196167</v>
       </c>
       <c r="G658" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21700,7 +21703,7 @@
         <v>7.23099994659424</v>
       </c>
       <c r="G659" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21726,7 +21729,7 @@
         <v>7.18300008773804</v>
       </c>
       <c r="G660" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21752,7 +21755,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G661" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21778,7 +21781,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G662" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21804,7 +21807,7 @@
         <v>6.93100023269653</v>
       </c>
       <c r="G663" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21830,7 +21833,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G664" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21856,7 +21859,7 @@
         <v>6.9210000038147</v>
       </c>
       <c r="G665" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21882,7 +21885,7 @@
         <v>6.90899991989136</v>
       </c>
       <c r="G666" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21908,7 +21911,7 @@
         <v>6.79300022125244</v>
       </c>
       <c r="G667" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21934,7 +21937,7 @@
         <v>6.66300010681152</v>
       </c>
       <c r="G668" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21960,7 +21963,7 @@
         <v>6.60699987411499</v>
       </c>
       <c r="G669" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21986,7 +21989,7 @@
         <v>6.49100017547607</v>
       </c>
       <c r="G670" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22012,7 +22015,7 @@
         <v>6.51900005340576</v>
       </c>
       <c r="G671" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22038,7 +22041,7 @@
         <v>6.57299995422363</v>
       </c>
       <c r="G672" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22064,7 +22067,7 @@
         <v>6.69899988174438</v>
       </c>
       <c r="G673" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22090,7 +22093,7 @@
         <v>6.68699979782104</v>
       </c>
       <c r="G674" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22116,7 +22119,7 @@
         <v>6.58799982070923</v>
       </c>
       <c r="G675" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22142,7 +22145,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G676" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22168,7 +22171,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G677" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22194,7 +22197,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G678" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22220,7 +22223,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G679" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22246,7 +22249,7 @@
         <v>6.62099981307983</v>
       </c>
       <c r="G680" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22272,7 +22275,7 @@
         <v>6.55399990081787</v>
       </c>
       <c r="G681" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22298,7 +22301,7 @@
         <v>6.56799983978271</v>
       </c>
       <c r="G682" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22324,7 +22327,7 @@
         <v>6.5310001373291</v>
       </c>
       <c r="G683" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22350,7 +22353,7 @@
         <v>6.57499980926514</v>
       </c>
       <c r="G684" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22376,7 +22379,7 @@
         <v>6.57200002670288</v>
       </c>
       <c r="G685" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22402,7 +22405,7 @@
         <v>6.58900022506714</v>
       </c>
       <c r="G686" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22428,7 +22431,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G687" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22454,7 +22457,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G688" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22480,7 +22483,7 @@
         <v>6.58099985122681</v>
       </c>
       <c r="G689" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22506,7 +22509,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G690" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22532,7 +22535,7 @@
         <v>6.51200008392334</v>
       </c>
       <c r="G691" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22558,7 +22561,7 @@
         <v>6.95800018310547</v>
       </c>
       <c r="G692" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22584,7 +22587,7 @@
         <v>6.78499984741211</v>
       </c>
       <c r="G693" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22610,7 +22613,7 @@
         <v>6.76900005340576</v>
       </c>
       <c r="G694" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22636,7 +22639,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G695" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22662,7 +22665,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22688,7 +22691,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G697" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22714,7 +22717,7 @@
         <v>6.85099983215332</v>
       </c>
       <c r="G698" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22740,7 +22743,7 @@
         <v>6.75799989700317</v>
       </c>
       <c r="G699" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22766,7 +22769,7 @@
         <v>6.73899984359741</v>
       </c>
       <c r="G700" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22792,7 +22795,7 @@
         <v>6.61800003051758</v>
       </c>
       <c r="G701" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22818,7 +22821,7 @@
         <v>6.55700016021729</v>
       </c>
       <c r="G702" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22844,7 +22847,7 @@
         <v>6.42199993133545</v>
       </c>
       <c r="G703" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22870,7 +22873,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G704" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22896,7 +22899,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G705" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22922,7 +22925,7 @@
         <v>6.30100011825562</v>
       </c>
       <c r="G706" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22948,7 +22951,7 @@
         <v>6.14099979400635</v>
       </c>
       <c r="G707" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22974,7 +22977,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G708" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23000,7 +23003,7 @@
         <v>6.05399990081787</v>
       </c>
       <c r="G709" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23026,7 +23029,7 @@
         <v>5.91400003433228</v>
       </c>
       <c r="G710" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23052,7 +23055,7 @@
         <v>5.95300006866455</v>
       </c>
       <c r="G711" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23078,7 +23081,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G712" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23104,7 +23107,7 @@
         <v>5.90399980545044</v>
       </c>
       <c r="G713" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23130,7 +23133,7 @@
         <v>5.95900011062622</v>
       </c>
       <c r="G714" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23156,7 +23159,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G715" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23182,7 +23185,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G716" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23208,7 +23211,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G717" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23234,7 +23237,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G718" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23260,7 +23263,7 @@
         <v>5.94600009918213</v>
       </c>
       <c r="G719" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23286,7 +23289,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G720" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23312,7 +23315,7 @@
         <v>6.00899982452393</v>
       </c>
       <c r="G721" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23338,7 +23341,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G722" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23364,7 +23367,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G723" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23390,7 +23393,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G724" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23416,7 +23419,7 @@
         <v>6.25</v>
       </c>
       <c r="G725" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23442,7 +23445,7 @@
         <v>6.23899984359741</v>
       </c>
       <c r="G726" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23468,7 +23471,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G727" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23494,7 +23497,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G728" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23520,7 +23523,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G729" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23546,7 +23549,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G730" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23572,7 +23575,7 @@
         <v>6.2189998626709</v>
       </c>
       <c r="G731" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23598,7 +23601,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G732" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23624,7 +23627,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G733" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23650,7 +23653,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G734" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23676,7 +23679,7 @@
         <v>6.03900003433228</v>
       </c>
       <c r="G735" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23702,7 +23705,7 @@
         <v>6.01399993896484</v>
       </c>
       <c r="G736" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23728,7 +23731,7 @@
         <v>5.95100021362305</v>
       </c>
       <c r="G737" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23754,7 +23757,7 @@
         <v>5.86499977111816</v>
       </c>
       <c r="G738" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23780,7 +23783,7 @@
         <v>5.86800003051758</v>
       </c>
       <c r="G739" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23806,7 +23809,7 @@
         <v>5.89699983596802</v>
       </c>
       <c r="G740" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23832,7 +23835,7 @@
         <v>6.02899980545044</v>
       </c>
       <c r="G741" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23858,7 +23861,7 @@
         <v>6.14300012588501</v>
       </c>
       <c r="G742" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23884,7 +23887,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G743" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23910,7 +23913,7 @@
         <v>6.10699987411499</v>
       </c>
       <c r="G744" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23936,7 +23939,7 @@
         <v>6.09200000762939</v>
       </c>
       <c r="G745" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23962,7 +23965,7 @@
         <v>5.98299980163574</v>
       </c>
       <c r="G746" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23988,7 +23991,7 @@
         <v>5.88199996948242</v>
       </c>
       <c r="G747" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24014,7 +24017,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G748" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24040,7 +24043,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G749" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24066,7 +24069,7 @@
         <v>5.80700016021729</v>
       </c>
       <c r="G750" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24092,7 +24095,7 @@
         <v>5.81599998474121</v>
       </c>
       <c r="G751" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24118,7 +24121,7 @@
         <v>5.76399993896484</v>
       </c>
       <c r="G752" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24144,7 +24147,7 @@
         <v>5.65299987792969</v>
       </c>
       <c r="G753" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24170,7 +24173,7 @@
         <v>5.79199981689453</v>
       </c>
       <c r="G754" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24196,7 +24199,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G755" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24222,7 +24225,7 @@
         <v>5.63399982452393</v>
       </c>
       <c r="G756" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24248,7 +24251,7 @@
         <v>5.5</v>
       </c>
       <c r="G757" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24274,7 +24277,7 @@
         <v>5.39599990844727</v>
       </c>
       <c r="G758" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24300,7 +24303,7 @@
         <v>5.37400007247925</v>
       </c>
       <c r="G759" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24326,7 +24329,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G760" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24352,7 +24355,7 @@
         <v>5.4229998588562</v>
       </c>
       <c r="G761" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24378,7 +24381,7 @@
         <v>5.30700016021729</v>
       </c>
       <c r="G762" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24404,7 +24407,7 @@
         <v>5.38199996948242</v>
       </c>
       <c r="G763" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24430,7 +24433,7 @@
         <v>5.57200002670288</v>
       </c>
       <c r="G764" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24456,7 +24459,7 @@
         <v>5.67199993133545</v>
       </c>
       <c r="G765" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24482,7 +24485,7 @@
         <v>5.80800008773804</v>
       </c>
       <c r="G766" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24508,7 +24511,7 @@
         <v>5.78599977493286</v>
       </c>
       <c r="G767" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24534,7 +24537,7 @@
         <v>5.90899991989136</v>
       </c>
       <c r="G768" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24560,7 +24563,7 @@
         <v>5.88800001144409</v>
       </c>
       <c r="G769" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24586,7 +24589,7 @@
         <v>5.91599988937378</v>
       </c>
       <c r="G770" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24612,7 +24615,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G771" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24638,7 +24641,7 @@
         <v>5.81099987030029</v>
       </c>
       <c r="G772" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24664,7 +24667,7 @@
         <v>5.7519998550415</v>
       </c>
       <c r="G773" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24690,7 +24693,7 @@
         <v>5.8769998550415</v>
       </c>
       <c r="G774" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24716,7 +24719,7 @@
         <v>5.84899997711182</v>
       </c>
       <c r="G775" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24742,7 +24745,7 @@
         <v>5.90199995040894</v>
       </c>
       <c r="G776" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24768,7 +24771,7 @@
         <v>5.83699989318848</v>
       </c>
       <c r="G777" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24794,7 +24797,7 @@
         <v>5.77400016784668</v>
       </c>
       <c r="G778" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24820,7 +24823,7 @@
         <v>5.92199993133545</v>
       </c>
       <c r="G779" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24846,7 +24849,7 @@
         <v>5.98899984359741</v>
       </c>
       <c r="G780" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24872,7 +24875,7 @@
         <v>6.14900016784668</v>
       </c>
       <c r="G781" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24898,7 +24901,7 @@
         <v>6.2810001373291</v>
       </c>
       <c r="G782" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24924,7 +24927,7 @@
         <v>6.23799991607666</v>
       </c>
       <c r="G783" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24950,7 +24953,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G784" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24976,7 +24979,7 @@
         <v>6.18200016021729</v>
       </c>
       <c r="G785" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25002,7 +25005,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G786" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25028,7 +25031,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G787" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25054,7 +25057,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G788" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25080,7 +25083,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G789" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25106,7 +25109,7 @@
         <v>6.01599979400635</v>
       </c>
       <c r="G790" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25132,7 +25135,7 @@
         <v>5.89599990844727</v>
       </c>
       <c r="G791" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25158,7 +25161,7 @@
         <v>6</v>
       </c>
       <c r="G792" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25184,7 +25187,7 @@
         <v>5.94799995422363</v>
       </c>
       <c r="G793" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25210,7 +25213,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G794" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25236,7 +25239,7 @@
         <v>6.06699991226196</v>
       </c>
       <c r="G795" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25262,7 +25265,7 @@
         <v>6.16400003433228</v>
       </c>
       <c r="G796" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25288,7 +25291,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G797" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25314,7 +25317,7 @@
         <v>6.13600015640259</v>
       </c>
       <c r="G798" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25340,7 +25343,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G799" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25366,7 +25369,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G800" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25392,7 +25395,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G801" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25418,7 +25421,7 @@
         <v>6.23199987411499</v>
       </c>
       <c r="G802" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25444,7 +25447,7 @@
         <v>6.31899976730347</v>
       </c>
       <c r="G803" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25470,7 +25473,7 @@
         <v>6.18699979782104</v>
       </c>
       <c r="G804" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25496,7 +25499,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G805" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25522,7 +25525,7 @@
         <v>6.30800008773804</v>
       </c>
       <c r="G806" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25548,7 +25551,7 @@
         <v>6.36199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25574,7 +25577,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G808" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25600,7 +25603,7 @@
         <v>6.65299987792969</v>
       </c>
       <c r="G809" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25626,7 +25629,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G810" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25652,7 +25655,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G811" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25678,7 +25681,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25704,7 +25707,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G813" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25730,7 +25733,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G814" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25756,7 +25759,7 @@
         <v>6.65799999237061</v>
       </c>
       <c r="G815" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25782,7 +25785,7 @@
         <v>6.7039999961853</v>
       </c>
       <c r="G816" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25808,7 +25811,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G817" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25834,7 +25837,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G818" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25860,7 +25863,7 @@
         <v>6.64799976348877</v>
       </c>
       <c r="G819" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25886,7 +25889,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G820" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25912,7 +25915,7 @@
         <v>6.55600023269653</v>
       </c>
       <c r="G821" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25938,7 +25941,7 @@
         <v>6.48299980163574</v>
       </c>
       <c r="G822" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -25964,7 +25967,7 @@
         <v>6.42799997329712</v>
       </c>
       <c r="G823" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25990,7 +25993,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G824" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26016,7 +26019,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G825" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26042,7 +26045,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G826" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26068,7 +26071,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G827" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26094,7 +26097,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G828" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26120,7 +26123,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G829" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26146,7 +26149,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G830" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26172,7 +26175,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G831" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26198,7 +26201,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26224,7 +26227,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G833" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26250,7 +26253,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G834" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26276,7 +26279,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G835" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26302,7 +26305,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G836" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26328,7 +26331,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G837" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26354,7 +26357,7 @@
         <v>6.75</v>
       </c>
       <c r="G838" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26380,7 +26383,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26406,7 +26409,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26432,7 +26435,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G841" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26458,7 +26461,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G842" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26484,7 +26487,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G843" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26510,7 +26513,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G844" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26536,7 +26539,7 @@
         <v>6.75</v>
       </c>
       <c r="G845" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26562,7 +26565,7 @@
         <v>6.75</v>
       </c>
       <c r="G846" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26588,7 +26591,7 @@
         <v>6.75</v>
       </c>
       <c r="G847" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26614,7 +26617,7 @@
         <v>6.75</v>
       </c>
       <c r="G848" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26640,7 +26643,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G849" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26666,7 +26669,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G850" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26692,7 +26695,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G851" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26718,7 +26721,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G852" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26744,7 +26747,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G853" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26770,7 +26773,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26796,7 +26799,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G855" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26822,7 +26825,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G856" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27212,7 +27215,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G871" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27784,7 +27787,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G893" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -30410,7 +30413,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G994" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30696,7 +30699,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1005" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30800,7 +30803,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1009" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30956,7 +30959,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1015" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31320,7 +31323,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1029" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31372,7 +31375,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1031" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31580,7 +31583,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G1039" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -60344,7 +60347,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6495486111</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>179924</v>
@@ -60365,6 +60368,32 @@
         <v>1406</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6496180556</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>144483</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>1.96000003814697</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>1.96599996089935</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1421">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,31 +44,31 @@
     <t xml:space="preserve">IGD.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97771263122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93246030807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92963266372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80801820755005</t>
+    <t xml:space="preserve">4.97771215438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93245983123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92963314056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80801773071289</t>
   </si>
   <si>
     <t xml:space="preserve">4.69488763809204</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7231707572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83347129821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70902919769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48276948928833</t>
+    <t xml:space="preserve">4.72317028045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83347225189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70902872085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48276853561401</t>
   </si>
   <si>
     <t xml:space="preserve">4.30741786956787</t>
@@ -77,67 +77,67 @@
     <t xml:space="preserve">4.18580436706543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73328423500061</t>
+    <t xml:space="preserve">3.73328495025635</t>
   </si>
   <si>
     <t xml:space="preserve">4.01610851287842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0924711227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17731904983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11226940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08398675918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94540333747864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10095548629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21125745773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05570411682129</t>
+    <t xml:space="preserve">4.09247207641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17731857299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11226892471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08398723602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94540286064148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10095691680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21125793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05570459365845</t>
   </si>
   <si>
     <t xml:space="preserve">3.82378792762756</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91712021827698</t>
+    <t xml:space="preserve">3.9171199798584</t>
   </si>
   <si>
     <t xml:space="preserve">3.57490253448486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6201548576355</t>
+    <t xml:space="preserve">3.62015438079834</t>
   </si>
   <si>
     <t xml:space="preserve">3.81813168525696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69086122512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76439547538757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01893711090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954394340515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07267332077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00479650497437</t>
+    <t xml:space="preserve">3.69086098670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76439476013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01893663406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954442024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07267379760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00479602813721</t>
   </si>
   <si>
     <t xml:space="preserve">4.1999454498291</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">4.14620780944824</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0896430015564</t>
+    <t xml:space="preserve">4.08964347839355</t>
   </si>
   <si>
     <t xml:space="preserve">4.12358236312866</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">4.12923860549927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1716628074646</t>
+    <t xml:space="preserve">4.17166233062744</t>
   </si>
   <si>
     <t xml:space="preserve">4.19428825378418</t>
@@ -164,19 +164,19 @@
     <t xml:space="preserve">4.38660907745361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35549783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52519273757935</t>
+    <t xml:space="preserve">4.35549831390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5251932144165</t>
   </si>
   <si>
     <t xml:space="preserve">4.48559808731079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.496910572052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48842573165894</t>
+    <t xml:space="preserve">4.49691009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48842620849609</t>
   </si>
   <si>
     <t xml:space="preserve">4.58175802230835</t>
@@ -185,25 +185,25 @@
     <t xml:space="preserve">4.68357515335083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6666054725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6156964302063</t>
+    <t xml:space="preserve">4.66660594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61569690704346</t>
   </si>
   <si>
     <t xml:space="preserve">4.72882699966431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83629989624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76842212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70620012283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63832330703735</t>
+    <t xml:space="preserve">4.83630037307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76842164993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70620059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6383228302002</t>
   </si>
   <si>
     <t xml:space="preserve">4.49973917007446</t>
@@ -218,13 +218,13 @@
     <t xml:space="preserve">4.41206359863281</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40075016021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36963987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3724684715271</t>
+    <t xml:space="preserve">4.40075063705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36963939666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37246799468994</t>
   </si>
   <si>
     <t xml:space="preserve">4.38378143310547</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">4.47994089126587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55347537994385</t>
+    <t xml:space="preserve">4.55347585678101</t>
   </si>
   <si>
     <t xml:space="preserve">4.46862840652466</t>
@@ -242,16 +242,16 @@
     <t xml:space="preserve">4.45448732376099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51670837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47428464889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44034576416016</t>
+    <t xml:space="preserve">4.5167088508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489171981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47428512573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44034624099731</t>
   </si>
   <si>
     <t xml:space="preserve">4.41771984100342</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">4.5506477355957</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45731592178345</t>
+    <t xml:space="preserve">4.45731544494629</t>
   </si>
   <si>
     <t xml:space="preserve">4.53933429718018</t>
@@ -275,31 +275,31 @@
     <t xml:space="preserve">4.49408197402954</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54216289520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45165872573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.650230884552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73061323165894</t>
+    <t xml:space="preserve">4.54216241836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45165824890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65023136138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73061275482178</t>
   </si>
   <si>
     <t xml:space="preserve">4.81099462509155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85267496109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84076595306396</t>
+    <t xml:space="preserve">4.85267448425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84076547622681</t>
   </si>
   <si>
     <t xml:space="preserve">4.85565185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82290267944336</t>
+    <t xml:space="preserve">4.82290363311768</t>
   </si>
   <si>
     <t xml:space="preserve">4.77526903152466</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">4.73358964920044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79610919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79015493392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79313182830811</t>
+    <t xml:space="preserve">4.79610967636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7901554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79313230514526</t>
   </si>
   <si>
     <t xml:space="preserve">4.79908609390259</t>
@@ -326,19 +326,19 @@
     <t xml:space="preserve">4.50137615203857</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20068883895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22450542449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08755922317505</t>
+    <t xml:space="preserve">4.2006893157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22450590133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08755970001221</t>
   </si>
   <si>
     <t xml:space="preserve">4.10839891433716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30488729476929</t>
+    <t xml:space="preserve">4.30488777160645</t>
   </si>
   <si>
     <t xml:space="preserve">4.34656715393066</t>
@@ -356,31 +356,31 @@
     <t xml:space="preserve">3.95954346656799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97740745544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98931479454041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37038373947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30191087722778</t>
+    <t xml:space="preserve">3.9774067401886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98931455612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37038326263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30191040039062</t>
   </si>
   <si>
     <t xml:space="preserve">4.15603303909302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00122356414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96847486495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09946727752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19771194458008</t>
+    <t xml:space="preserve">4.00122308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96847534179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09946775436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19771242141724</t>
   </si>
   <si>
     <t xml:space="preserve">4.23343706130981</t>
@@ -392,58 +392,58 @@
     <t xml:space="preserve">4.55496406555176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48351430892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67404842376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56984901428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60855102539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5251932144165</t>
+    <t xml:space="preserve">4.48351383209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67404890060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56984949111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60855197906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52519369125366</t>
   </si>
   <si>
     <t xml:space="preserve">4.61152935028076</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69488859176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6859564781189</t>
+    <t xml:space="preserve">4.6948881149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68595600128174</t>
   </si>
   <si>
     <t xml:space="preserve">4.64427757263184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67107057571411</t>
+    <t xml:space="preserve">4.67107105255127</t>
   </si>
   <si>
     <t xml:space="preserve">4.40610980987549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54007863998413</t>
+    <t xml:space="preserve">4.54007911682129</t>
   </si>
   <si>
     <t xml:space="preserve">4.62046003341675</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53412389755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51626205444336</t>
+    <t xml:space="preserve">4.53412437438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5162615776062</t>
   </si>
   <si>
     <t xml:space="preserve">4.56687259674072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51030778884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48649120330811</t>
+    <t xml:space="preserve">4.51030731201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48649072647095</t>
   </si>
   <si>
     <t xml:space="preserve">4.44183397293091</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">4.46267366409302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3346586227417</t>
+    <t xml:space="preserve">4.33465814590454</t>
   </si>
   <si>
     <t xml:space="preserve">4.343590259552</t>
@@ -464,16 +464,16 @@
     <t xml:space="preserve">4.40908622741699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40015506744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37633800506592</t>
+    <t xml:space="preserve">4.40015459060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37633848190308</t>
   </si>
   <si>
     <t xml:space="preserve">4.287024974823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34061288833618</t>
+    <t xml:space="preserve">4.34061336517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.31084203720093</t>
@@ -482,19 +482,19 @@
     <t xml:space="preserve">4.29893350601196</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25725364685059</t>
+    <t xml:space="preserve">4.25725412368774</t>
   </si>
   <si>
     <t xml:space="preserve">4.35252094268799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29000186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32275056838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21557521820068</t>
+    <t xml:space="preserve">4.29000234603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32275009155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21557474136353</t>
   </si>
   <si>
     <t xml:space="preserve">4.0786280632019</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">3.99824643135071</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92977356910706</t>
+    <t xml:space="preserve">3.92977333068848</t>
   </si>
   <si>
     <t xml:space="preserve">3.90595579147339</t>
@@ -512,55 +512,55 @@
     <t xml:space="preserve">3.97145223617554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87618517875671</t>
+    <t xml:space="preserve">3.87618470191956</t>
   </si>
   <si>
     <t xml:space="preserve">3.87916207313538</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99229216575623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95656609535217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92679595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01313209533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94168138504028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91488814353943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89404821395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85832262039185</t>
+    <t xml:space="preserve">3.99229264259338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95656681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92679572105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01313161849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9416811466217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91488790512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.894047498703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85832238197327</t>
   </si>
   <si>
     <t xml:space="preserve">3.84045958518982</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85236859321594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97442865371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13519287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20366668701172</t>
+    <t xml:space="preserve">3.85236835479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9744291305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13519382476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20366621017456</t>
   </si>
   <si>
     <t xml:space="preserve">4.25130033493042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26023149490356</t>
+    <t xml:space="preserve">4.26023101806641</t>
   </si>
   <si>
     <t xml:space="preserve">4.22748279571533</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">4.14114713668823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11137628555298</t>
+    <t xml:space="preserve">4.11137580871582</t>
   </si>
   <si>
     <t xml:space="preserve">4.04885721206665</t>
@@ -581,58 +581,58 @@
     <t xml:space="preserve">4.07565116882324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06076526641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06374263763428</t>
+    <t xml:space="preserve">4.06076574325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06374216079712</t>
   </si>
   <si>
     <t xml:space="preserve">4.0309944152832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9803831577301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8821394443512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88809370994568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67969679832458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76900935173035</t>
+    <t xml:space="preserve">3.98038411140442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88213968276978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88809299468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67969655990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76900959014893</t>
   </si>
   <si>
     <t xml:space="preserve">3.79580330848694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78389501571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70351266860962</t>
+    <t xml:space="preserve">3.78389453887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70351314544678</t>
   </si>
   <si>
     <t xml:space="preserve">3.72137546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72732996940613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75710105895996</t>
+    <t xml:space="preserve">3.72733044624329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75710082054138</t>
   </si>
   <si>
     <t xml:space="preserve">3.75114679336548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78687238693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73923802375793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93572759628296</t>
+    <t xml:space="preserve">3.78687191009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73923850059509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9357271194458</t>
   </si>
   <si>
     <t xml:space="preserve">4.09649038314819</t>
@@ -641,36 +641,39 @@
     <t xml:space="preserve">4.21259737014771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18282699584961</t>
+    <t xml:space="preserve">4.18282651901245</t>
   </si>
   <si>
     <t xml:space="preserve">4.26916265487671</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27511596679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26320886611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51923990249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42992544174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48946762084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4983983039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48053646087646</t>
+    <t xml:space="preserve">4.27511644363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26320838928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51923894882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4299259185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48946857452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49839878082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48053598403931</t>
   </si>
   <si>
     <t xml:space="preserve">4.45076513290405</t>
   </si>
   <si>
+    <t xml:space="preserve">4.41206312179565</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.41801738739014</t>
   </si>
   <si>
@@ -683,16 +686,16 @@
     <t xml:space="preserve">4.32572746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23939085006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14412450790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24534606933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16794109344482</t>
+    <t xml:space="preserve">4.2393913269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14412403106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24534559249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16794157028198</t>
   </si>
   <si>
     <t xml:space="preserve">4.20961999893188</t>
@@ -701,10 +704,10 @@
     <t xml:space="preserve">4.18580389022827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36442995071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45671939849854</t>
+    <t xml:space="preserve">4.36442947387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45672035217285</t>
   </si>
   <si>
     <t xml:space="preserve">4.29297924041748</t>
@@ -713,10 +716,10 @@
     <t xml:space="preserve">4.62641477584839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66809368133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52817010879517</t>
+    <t xml:space="preserve">4.66809320449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52817058563232</t>
   </si>
   <si>
     <t xml:space="preserve">4.59664344787598</t>
@@ -731,7 +734,7 @@
     <t xml:space="preserve">4.72763633728027</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88244533538818</t>
+    <t xml:space="preserve">4.88244485855103</t>
   </si>
   <si>
     <t xml:space="preserve">4.87053632736206</t>
@@ -749,7 +752,7 @@
     <t xml:space="preserve">4.86458253860474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80504131317139</t>
+    <t xml:space="preserve">4.80504035949707</t>
   </si>
   <si>
     <t xml:space="preserve">4.7812237739563</t>
@@ -758,61 +761,61 @@
     <t xml:space="preserve">4.70381927490234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68297863006592</t>
+    <t xml:space="preserve">4.68297910690308</t>
   </si>
   <si>
     <t xml:space="preserve">4.61450624465942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76336097717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8764910697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82587957382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90923881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93007898330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9122166633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94794130325317</t>
+    <t xml:space="preserve">4.76336145401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87649059295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82588052749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90923929214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93007946014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91221714019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94794178009033</t>
   </si>
   <si>
     <t xml:space="preserve">4.93603277206421</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98962116241455</t>
+    <t xml:space="preserve">4.98962068557739</t>
   </si>
   <si>
     <t xml:space="preserve">5.09679651260376</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12061405181885</t>
+    <t xml:space="preserve">5.12061309814453</t>
   </si>
   <si>
     <t xml:space="preserve">5.15633869171143</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19801807403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23076629638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06107187271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03130006790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99557542800903</t>
+    <t xml:space="preserve">5.1980185508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23076677322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06107139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03130054473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99557495117188</t>
   </si>
   <si>
     <t xml:space="preserve">5.04405927658081</t>
@@ -824,7 +827,7 @@
     <t xml:space="preserve">5.10557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06866455078125</t>
+    <t xml:space="preserve">5.06866407394409</t>
   </si>
   <si>
     <t xml:space="preserve">5.09019422531128</t>
@@ -833,31 +836,31 @@
     <t xml:space="preserve">5.18553829193115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13940382003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14248037338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06251287460327</t>
+    <t xml:space="preserve">5.13940477371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14247989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06251335144043</t>
   </si>
   <si>
     <t xml:space="preserve">5.11787414550781</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11172342300415</t>
+    <t xml:space="preserve">5.11172389984131</t>
   </si>
   <si>
     <t xml:space="preserve">5.09942054748535</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05636167526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02252960205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96409320831299</t>
+    <t xml:space="preserve">5.05636215209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02252912521362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96409225463867</t>
   </si>
   <si>
     <t xml:space="preserve">4.93641185760498</t>
@@ -866,10 +869,10 @@
     <t xml:space="preserve">4.91488218307495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95178985595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89642906188965</t>
+    <t xml:space="preserve">4.95179033279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89642858505249</t>
   </si>
   <si>
     <t xml:space="preserve">4.82261276245117</t>
@@ -878,25 +881,25 @@
     <t xml:space="preserve">4.6903600692749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74264621734619</t>
+    <t xml:space="preserve">4.74264574050903</t>
   </si>
   <si>
     <t xml:space="preserve">4.7764778137207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86567211151123</t>
+    <t xml:space="preserve">4.86567258834839</t>
   </si>
   <si>
     <t xml:space="preserve">4.88412570953369</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79800796508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89027690887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98254632949829</t>
+    <t xml:space="preserve">4.79800748825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89027643203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98254680633545</t>
   </si>
   <si>
     <t xml:space="preserve">4.9979248046875</t>
@@ -908,19 +911,19 @@
     <t xml:space="preserve">5.11479902267456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15478229522705</t>
+    <t xml:space="preserve">5.15478277206421</t>
   </si>
   <si>
     <t xml:space="preserve">5.12402629852295</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07481575012207</t>
+    <t xml:space="preserve">5.07481622695923</t>
   </si>
   <si>
     <t xml:space="preserve">5.01330280303955</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05943727493286</t>
+    <t xml:space="preserve">5.05943822860718</t>
   </si>
   <si>
     <t xml:space="preserve">5.17631196975708</t>
@@ -932,7 +935,7 @@
     <t xml:space="preserve">5.22244691848755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17015981674194</t>
+    <t xml:space="preserve">5.17016077041626</t>
   </si>
   <si>
     <t xml:space="preserve">5.15785837173462</t>
@@ -953,7 +956,7 @@
     <t xml:space="preserve">5.25627899169922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27165746688843</t>
+    <t xml:space="preserve">5.27165699005127</t>
   </si>
   <si>
     <t xml:space="preserve">5.29011106491089</t>
@@ -962,13 +965,13 @@
     <t xml:space="preserve">5.21321964263916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20091724395752</t>
+    <t xml:space="preserve">5.20091676712036</t>
   </si>
   <si>
     <t xml:space="preserve">5.14863109588623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22552251815796</t>
+    <t xml:space="preserve">5.2255220413208</t>
   </si>
   <si>
     <t xml:space="preserve">5.16708517074585</t>
@@ -980,10 +983,10 @@
     <t xml:space="preserve">5.24090099334717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31471586227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41313648223877</t>
+    <t xml:space="preserve">5.31471633911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41313600540161</t>
   </si>
   <si>
     <t xml:space="preserve">5.42543935775757</t>
@@ -995,13 +998,13 @@
     <t xml:space="preserve">5.37622928619385</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35162401199341</t>
+    <t xml:space="preserve">5.35162448883057</t>
   </si>
   <si>
     <t xml:space="preserve">5.36392593383789</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38853168487549</t>
+    <t xml:space="preserve">5.38853216171265</t>
   </si>
   <si>
     <t xml:space="preserve">5.37315368652344</t>
@@ -1010,7 +1013,7 @@
     <t xml:space="preserve">5.42851495742798</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43159008026123</t>
+    <t xml:space="preserve">5.43159055709839</t>
   </si>
   <si>
     <t xml:space="preserve">5.44389343261719</t>
@@ -1043,7 +1046,7 @@
     <t xml:space="preserve">5.65611267089844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75145769119263</t>
+    <t xml:space="preserve">5.75145816802979</t>
   </si>
   <si>
     <t xml:space="preserve">5.78836488723755</t>
@@ -1052,46 +1055,46 @@
     <t xml:space="preserve">5.78221464157104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69302082061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76991176605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94829940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10515689849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12053537368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41579723358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40349531173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32352828979492</t>
+    <t xml:space="preserve">5.69302034378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7699122428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94829893112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10515737533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12053632736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4157977104187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4034948348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32352781295776</t>
   </si>
   <si>
     <t xml:space="preserve">6.33583068847656</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36658763885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24356126785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18204879760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09285545349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21280527114868</t>
+    <t xml:space="preserve">6.36658716201782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24356079101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18204832077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09285497665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21280479431152</t>
   </si>
   <si>
     <t xml:space="preserve">6.50806665420532</t>
@@ -1100,37 +1103,37 @@
     <t xml:space="preserve">6.56342887878418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3911919593811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61879014968872</t>
+    <t xml:space="preserve">6.39119243621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61878967285156</t>
   </si>
   <si>
     <t xml:space="preserve">6.60648775100708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55112504959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65569686889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69260597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6372447013855</t>
+    <t xml:space="preserve">6.55112552642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6556978225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69260501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63724374771118</t>
   </si>
   <si>
     <t xml:space="preserve">6.62494087219238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45885705947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57573080062866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6680006980896</t>
+    <t xml:space="preserve">6.4588565826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57573127746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66800117492676</t>
   </si>
   <si>
     <t xml:space="preserve">6.82793426513672</t>
@@ -1139,58 +1142,58 @@
     <t xml:space="preserve">6.81563138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95096015930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88944721221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70490741729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28046894073486</t>
+    <t xml:space="preserve">6.9509596824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8894476890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70490837097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28046941757202</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826642990112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96675252914429</t>
+    <t xml:space="preserve">5.96675300598145</t>
   </si>
   <si>
     <t xml:space="preserve">6.0098123550415</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87755918502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93599557876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01903963088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92984628677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92369365692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05902290344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06517362594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16359519958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13283824920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96060180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90524005889893</t>
+    <t xml:space="preserve">5.87756013870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93599605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01903915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92984533309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92369318008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05902242660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06517457962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1635947227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13283777236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96060276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90523910522461</t>
   </si>
   <si>
     <t xml:space="preserve">5.99750947952271</t>
@@ -1202,28 +1205,28 @@
     <t xml:space="preserve">5.88063526153564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89293766021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85602951049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69609642028809</t>
+    <t xml:space="preserve">5.89293813705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85603046417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69609689712524</t>
   </si>
   <si>
     <t xml:space="preserve">5.64688634872437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52385997772217</t>
+    <t xml:space="preserve">5.52385950088501</t>
   </si>
   <si>
     <t xml:space="preserve">5.33316946029663</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49310398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21014404296875</t>
+    <t xml:space="preserve">5.49310350418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21014451980591</t>
   </si>
   <si>
     <t xml:space="preserve">5.08711814880371</t>
@@ -1235,7 +1238,7 @@
     <t xml:space="preserve">5.03790807723999</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01945447921753</t>
+    <t xml:space="preserve">5.01945400238037</t>
   </si>
   <si>
     <t xml:space="preserve">5.32086753845215</t>
@@ -1244,16 +1247,16 @@
     <t xml:space="preserve">4.92103338241577</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9597864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87059259414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74633646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63192272186279</t>
+    <t xml:space="preserve">4.95978593826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87059307098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74633693695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63192319869995</t>
   </si>
   <si>
     <t xml:space="preserve">4.62269592285156</t>
@@ -1262,7 +1265,7 @@
     <t xml:space="preserve">4.68728446960449</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82568788528442</t>
+    <t xml:space="preserve">4.82568836212158</t>
   </si>
   <si>
     <t xml:space="preserve">4.82937908172607</t>
@@ -1277,40 +1280,40 @@
     <t xml:space="preserve">4.66821527481079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56425809860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51873874664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44738340377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63991975784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61900472640991</t>
+    <t xml:space="preserve">4.56425857543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51873922348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44738435745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63991928100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61900520324707</t>
   </si>
   <si>
     <t xml:space="preserve">4.59501457214355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4418478012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33666086196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73106288909912</t>
+    <t xml:space="preserve">4.44184827804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33666133880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73106336593628</t>
   </si>
   <si>
     <t xml:space="preserve">4.81509733200073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27893972396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02088212966919</t>
+    <t xml:space="preserve">5.27894020080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02088165283203</t>
   </si>
   <si>
     <t xml:space="preserve">5.12807559967041</t>
@@ -1319,10 +1322,10 @@
     <t xml:space="preserve">5.32128810882568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53170442581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46487379074097</t>
+    <t xml:space="preserve">5.53170394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46487426757812</t>
   </si>
   <si>
     <t xml:space="preserve">5.35635757446289</t>
@@ -1334,10 +1337,10 @@
     <t xml:space="preserve">5.14130926132202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22666692733765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16115999221802</t>
+    <t xml:space="preserve">5.22666645050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16115951538086</t>
   </si>
   <si>
     <t xml:space="preserve">5.11550331115723</t>
@@ -1364,7 +1367,7 @@
     <t xml:space="preserve">5.09565258026123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13667726516724</t>
+    <t xml:space="preserve">5.13667678833008</t>
   </si>
   <si>
     <t xml:space="preserve">5.19887542724609</t>
@@ -1373,19 +1376,19 @@
     <t xml:space="preserve">5.2140941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19424390792847</t>
+    <t xml:space="preserve">5.19424343109131</t>
   </si>
   <si>
     <t xml:space="preserve">5.29349708557129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23394536972046</t>
+    <t xml:space="preserve">5.2339448928833</t>
   </si>
   <si>
     <t xml:space="preserve">5.24453258514404</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42583465576172</t>
+    <t xml:space="preserve">5.42583417892456</t>
   </si>
   <si>
     <t xml:space="preserve">5.3186411857605</t>
@@ -1394,40 +1397,40 @@
     <t xml:space="preserve">5.15057277679443</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92890739440918</t>
+    <t xml:space="preserve">4.92890787124634</t>
   </si>
   <si>
     <t xml:space="preserve">5.00169324874878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94611167907715</t>
+    <t xml:space="preserve">4.94611120223999</t>
   </si>
   <si>
     <t xml:space="preserve">4.89648485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87729549407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82369899749756</t>
+    <t xml:space="preserve">4.87729501724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8236985206604</t>
   </si>
   <si>
     <t xml:space="preserve">4.70790386199951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47631359100342</t>
+    <t xml:space="preserve">4.47631311416626</t>
   </si>
   <si>
     <t xml:space="preserve">4.73172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81311178207397</t>
+    <t xml:space="preserve">4.81311225891113</t>
   </si>
   <si>
     <t xml:space="preserve">4.79061460494995</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8925142288208</t>
+    <t xml:space="preserve">4.89251470565796</t>
   </si>
   <si>
     <t xml:space="preserve">4.98581218719482</t>
@@ -1445,22 +1448,22 @@
     <t xml:space="preserve">5.0422739982605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16319179534912</t>
+    <t xml:space="preserve">5.16319131851196</t>
   </si>
   <si>
     <t xml:space="preserve">5.05792236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15607929229736</t>
+    <t xml:space="preserve">5.15607881546021</t>
   </si>
   <si>
     <t xml:space="preserve">5.20515727996826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9590539932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96047639846802</t>
+    <t xml:space="preserve">4.95905447006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96047687530518</t>
   </si>
   <si>
     <t xml:space="preserve">4.92491245269775</t>
@@ -1487,13 +1490,13 @@
     <t xml:space="preserve">4.89503860473633</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01239967346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95194053649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93415927886963</t>
+    <t xml:space="preserve">5.01240015029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95194101333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93415880203247</t>
   </si>
   <si>
     <t xml:space="preserve">5.08566188812256</t>
@@ -1505,22 +1508,22 @@
     <t xml:space="preserve">5.13900804519653</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99319553375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01737880706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02804803848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06859111785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10486698150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16390371322632</t>
+    <t xml:space="preserve">4.9931960105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01737928390503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02804851531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06859159469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10486650466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16390323638916</t>
   </si>
   <si>
     <t xml:space="preserve">5.22862958908081</t>
@@ -1538,10 +1541,10 @@
     <t xml:space="preserve">5.02591466903687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15679025650024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01951360702515</t>
+    <t xml:space="preserve">5.15678977966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01951313018799</t>
   </si>
   <si>
     <t xml:space="preserve">5.07214784622192</t>
@@ -1553,13 +1556,13 @@
     <t xml:space="preserve">5.10913467407227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0863733291626</t>
+    <t xml:space="preserve">5.08637380599976</t>
   </si>
   <si>
     <t xml:space="preserve">5.00030851364136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92989206314087</t>
+    <t xml:space="preserve">4.92989158630371</t>
   </si>
   <si>
     <t xml:space="preserve">4.92277860641479</t>
@@ -1568,10 +1571,10 @@
     <t xml:space="preserve">4.91424322128296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8317346572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73926830291748</t>
+    <t xml:space="preserve">4.83173513412476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73926782608032</t>
   </si>
   <si>
     <t xml:space="preserve">4.6994366645813</t>
@@ -1580,7 +1583,7 @@
     <t xml:space="preserve">4.61692762374878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63684368133545</t>
+    <t xml:space="preserve">4.63684320449829</t>
   </si>
   <si>
     <t xml:space="preserve">4.67525291442871</t>
@@ -1592,10 +1595,10 @@
     <t xml:space="preserve">4.75633859634399</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68592166900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69445753097534</t>
+    <t xml:space="preserve">4.68592214584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69445705413818</t>
   </si>
   <si>
     <t xml:space="preserve">4.73713397979736</t>
@@ -1613,28 +1616,28 @@
     <t xml:space="preserve">4.66173839569092</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67169666290283</t>
+    <t xml:space="preserve">4.67169618606567</t>
   </si>
   <si>
     <t xml:space="preserve">4.64537906646729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667484283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67454147338867</t>
+    <t xml:space="preserve">4.67667531967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67454099655151</t>
   </si>
   <si>
     <t xml:space="preserve">4.68663358688354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66600561141968</t>
+    <t xml:space="preserve">4.66600608825684</t>
   </si>
   <si>
     <t xml:space="preserve">4.68094253540039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63968849182129</t>
+    <t xml:space="preserve">4.63968801498413</t>
   </si>
   <si>
     <t xml:space="preserve">4.63186454772949</t>
@@ -1643,7 +1646,7 @@
     <t xml:space="preserve">4.94909620285034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82604455947876</t>
+    <t xml:space="preserve">4.8260440826416</t>
   </si>
   <si>
     <t xml:space="preserve">4.81466388702393</t>
@@ -1661,7 +1664,7 @@
     <t xml:space="preserve">4.80683946609497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79332542419434</t>
+    <t xml:space="preserve">4.79332590103149</t>
   </si>
   <si>
     <t xml:space="preserve">4.70726013183594</t>
@@ -1670,16 +1673,16 @@
     <t xml:space="preserve">4.66387224197388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56784963607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57994079589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55220079421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48178482055664</t>
+    <t xml:space="preserve">4.56784915924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5799412727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55220127105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48178434371948</t>
   </si>
   <si>
     <t xml:space="preserve">4.36797904968262</t>
@@ -1688,7 +1691,7 @@
     <t xml:space="preserve">4.34948587417603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30609703063965</t>
+    <t xml:space="preserve">4.30609750747681</t>
   </si>
   <si>
     <t xml:space="preserve">4.20651817321777</t>
@@ -1700,7 +1703,7 @@
     <t xml:space="preserve">4.12543249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19940567016602</t>
+    <t xml:space="preserve">4.19940519332886</t>
   </si>
   <si>
     <t xml:space="preserve">4.23852586746216</t>
@@ -1709,10 +1712,10 @@
     <t xml:space="preserve">4.1894474029541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19300365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24634981155396</t>
+    <t xml:space="preserve">4.19300413131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24635028839111</t>
   </si>
   <si>
     <t xml:space="preserve">4.23212432861328</t>
@@ -1721,10 +1724,10 @@
     <t xml:space="preserve">4.22927951812744</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27408981323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36513423919678</t>
+    <t xml:space="preserve">4.27409029006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36513376235962</t>
   </si>
   <si>
     <t xml:space="preserve">4.43341684341431</t>
@@ -1748,19 +1751,19 @@
     <t xml:space="preserve">4.42345857620239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37082386016846</t>
+    <t xml:space="preserve">4.37082433700562</t>
   </si>
   <si>
     <t xml:space="preserve">4.33952808380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2698221206665</t>
+    <t xml:space="preserve">4.26982259750366</t>
   </si>
   <si>
     <t xml:space="preserve">4.29542827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2776460647583</t>
+    <t xml:space="preserve">4.27764654159546</t>
   </si>
   <si>
     <t xml:space="preserve">4.23283576965332</t>
@@ -1769,16 +1772,16 @@
     <t xml:space="preserve">4.17166519165039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17379903793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19442701339722</t>
+    <t xml:space="preserve">4.17379951477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19442653656006</t>
   </si>
   <si>
     <t xml:space="preserve">4.28831577301025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36940145492554</t>
+    <t xml:space="preserve">4.3694019317627</t>
   </si>
   <si>
     <t xml:space="preserve">4.38149309158325</t>
@@ -1787,7 +1790,7 @@
     <t xml:space="preserve">4.34379577636719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33312654495239</t>
+    <t xml:space="preserve">4.33312606811523</t>
   </si>
   <si>
     <t xml:space="preserve">4.25559663772583</t>
@@ -1799,10 +1802,10 @@
     <t xml:space="preserve">4.16810894012451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13041162490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13681221008301</t>
+    <t xml:space="preserve">4.13041114807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13681268692017</t>
   </si>
   <si>
     <t xml:space="preserve">4.09982585906982</t>
@@ -1811,7 +1814,7 @@
     <t xml:space="preserve">4.02087354660034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11974191665649</t>
+    <t xml:space="preserve">4.11974143981934</t>
   </si>
   <si>
     <t xml:space="preserve">4.04007863998413</t>
@@ -1820,7 +1823,7 @@
     <t xml:space="preserve">4.00735950469971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91204810142517</t>
+    <t xml:space="preserve">3.91204786300659</t>
   </si>
   <si>
     <t xml:space="preserve">3.83807468414307</t>
@@ -1832,13 +1835,13 @@
     <t xml:space="preserve">3.86225771903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85727882385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77477073669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82811665534973</t>
+    <t xml:space="preserve">3.8572793006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77477049827576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82811641693115</t>
   </si>
   <si>
     <t xml:space="preserve">3.96326017379761</t>
@@ -1871,28 +1874,28 @@
     <t xml:space="preserve">4.09129095077515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18020057678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16028499603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19798278808594</t>
+    <t xml:space="preserve">4.18020105361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16028547286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1979832649231</t>
   </si>
   <si>
     <t xml:space="preserve">4.15174961090088</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1069393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21220827102661</t>
+    <t xml:space="preserve">4.10693883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21220874786377</t>
   </si>
   <si>
     <t xml:space="preserve">4.25986480712891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37366962432861</t>
+    <t xml:space="preserve">4.37367010116577</t>
   </si>
   <si>
     <t xml:space="preserve">4.46755886077881</t>
@@ -1910,7 +1913,7 @@
     <t xml:space="preserve">4.39571905136108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41705799102783</t>
+    <t xml:space="preserve">4.41705751419067</t>
   </si>
   <si>
     <t xml:space="preserve">4.40994453430176</t>
@@ -1925,7 +1928,7 @@
     <t xml:space="preserve">4.19371509552002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2676887512207</t>
+    <t xml:space="preserve">4.26768827438354</t>
   </si>
   <si>
     <t xml:space="preserve">4.23070192337036</t>
@@ -1940,43 +1943,43 @@
     <t xml:space="preserve">4.38433885574341</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36726760864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3644232749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36015510559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30680847167969</t>
+    <t xml:space="preserve">4.36726808547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36442279815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36015558242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30680894851685</t>
   </si>
   <si>
     <t xml:space="preserve">4.43270587921143</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49458742141724</t>
+    <t xml:space="preserve">4.49458694458008</t>
   </si>
   <si>
     <t xml:space="preserve">4.40069818496704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48676300048828</t>
+    <t xml:space="preserve">4.48676347732544</t>
   </si>
   <si>
     <t xml:space="preserve">4.5251727104187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65889406204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73215532302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63044261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59487819671631</t>
+    <t xml:space="preserve">4.65889358520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73215579986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63044214248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59487771987915</t>
   </si>
   <si>
     <t xml:space="preserve">4.60199069976807</t>
@@ -1985,19 +1988,19 @@
     <t xml:space="preserve">4.71366167068481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7357120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76843070983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82248783111572</t>
+    <t xml:space="preserve">4.73571157455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76843023300171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82248830795288</t>
   </si>
   <si>
     <t xml:space="preserve">4.76558542251587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72859859466553</t>
+    <t xml:space="preserve">4.72859907150269</t>
   </si>
   <si>
     <t xml:space="preserve">4.72931003570557</t>
@@ -2006,7 +2009,7 @@
     <t xml:space="preserve">4.663161277771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61123704910278</t>
+    <t xml:space="preserve">4.61123752593994</t>
   </si>
   <si>
     <t xml:space="preserve">4.57211685180664</t>
@@ -2015,13 +2018,13 @@
     <t xml:space="preserve">4.61621618270874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58065223693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70157051086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68023157119751</t>
+    <t xml:space="preserve">4.58065271377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7015700340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68023204803467</t>
   </si>
   <si>
     <t xml:space="preserve">4.71579599380493</t>
@@ -2033,13 +2036,13 @@
     <t xml:space="preserve">4.60910367965698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63755464553833</t>
+    <t xml:space="preserve">4.63755512237549</t>
   </si>
   <si>
     <t xml:space="preserve">4.68734502792358</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72290897369385</t>
+    <t xml:space="preserve">4.72290849685669</t>
   </si>
   <si>
     <t xml:space="preserve">4.75847244262695</t>
@@ -2051,7 +2054,7 @@
     <t xml:space="preserve">4.77269792556763</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77981090545654</t>
+    <t xml:space="preserve">4.7798113822937</t>
   </si>
   <si>
     <t xml:space="preserve">4.78692388534546</t>
@@ -2069,10 +2072,7 @@
     <t xml:space="preserve">4.70926475524902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77082347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7015700340271</t>
+    <t xml:space="preserve">4.77082395553589</t>
   </si>
   <si>
     <t xml:space="preserve">4.76312923431396</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">4.78621339797974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85546731948853</t>
+    <t xml:space="preserve">4.85546779632568</t>
   </si>
   <si>
     <t xml:space="preserve">4.90163707733154</t>
@@ -2093,10 +2093,10 @@
     <t xml:space="preserve">4.79390859603882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81699371337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74773979187012</t>
+    <t xml:space="preserve">4.81699323654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74773931503296</t>
   </si>
   <si>
     <t xml:space="preserve">4.67079067230225</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">4.73234987258911</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72465419769287</t>
+    <t xml:space="preserve">4.72465467453003</t>
   </si>
   <si>
     <t xml:space="preserve">4.71695995330811</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">4.80160331726074</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74004411697388</t>
+    <t xml:space="preserve">4.74004459381104</t>
   </si>
   <si>
     <t xml:space="preserve">4.68618059158325</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">4.60153675079346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53228235244751</t>
+    <t xml:space="preserve">4.53228282928467</t>
   </si>
   <si>
     <t xml:space="preserve">4.57845211029053</t>
@@ -2165,13 +2165,13 @@
     <t xml:space="preserve">4.64001131057739</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58614730834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55536794662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53997802734375</t>
+    <t xml:space="preserve">4.58614683151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5553674697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53997755050659</t>
   </si>
   <si>
     <t xml:space="preserve">4.54767227172852</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">4.07059049606323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03981065750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09367513656616</t>
+    <t xml:space="preserve">4.03981113433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.093674659729</t>
   </si>
   <si>
     <t xml:space="preserve">4.03211545944214</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">4.07828521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11675930023193</t>
+    <t xml:space="preserve">4.11675977706909</t>
   </si>
   <si>
     <t xml:space="preserve">4.10906457901001</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">4.18601322174072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20909738540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23987722396851</t>
+    <t xml:space="preserve">4.20909786224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23987770080566</t>
   </si>
   <si>
     <t xml:space="preserve">4.30913114547729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33221578598022</t>
+    <t xml:space="preserve">4.33221626281738</t>
   </si>
   <si>
     <t xml:space="preserve">4.3245210647583</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">4.25526714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28604650497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27065658569336</t>
+    <t xml:space="preserve">4.28604698181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27065706253052</t>
   </si>
   <si>
     <t xml:space="preserve">4.30143642425537</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">4.37838506698608</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38608026504517</t>
+    <t xml:space="preserve">4.38607978820801</t>
   </si>
   <si>
     <t xml:space="preserve">4.41685962677002</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">4.43994426727295</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40916442871094</t>
+    <t xml:space="preserve">4.4091649055481</t>
   </si>
   <si>
     <t xml:space="preserve">4.42455434799194</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">4.43224954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56306171417236</t>
+    <t xml:space="preserve">4.56306219100952</t>
   </si>
   <si>
     <t xml:space="preserve">4.59384155273438</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">4.2244873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20140266418457</t>
+    <t xml:space="preserve">4.20140314102173</t>
   </si>
   <si>
     <t xml:space="preserve">4.10136985778809</t>
@@ -2354,13 +2354,13 @@
     <t xml:space="preserve">3.60120272636414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50116920471191</t>
+    <t xml:space="preserve">3.50116944313049</t>
   </si>
   <si>
     <t xml:space="preserve">3.49347448348999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81247782707214</t>
+    <t xml:space="preserve">2.81247758865356</t>
   </si>
   <si>
     <t xml:space="preserve">2.85864686965942</t>
@@ -2387,16 +2387,16 @@
     <t xml:space="preserve">2.98561239242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90481638908386</t>
+    <t xml:space="preserve">2.90481615066528</t>
   </si>
   <si>
     <t xml:space="preserve">2.93174815177917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92405343055725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77785086631775</t>
+    <t xml:space="preserve">2.92405319213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77785062789917</t>
   </si>
   <si>
     <t xml:space="preserve">2.88557887077332</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">2.90096855163574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84710478782654</t>
+    <t xml:space="preserve">2.84710454940796</t>
   </si>
   <si>
     <t xml:space="preserve">2.79324078559875</t>
@@ -2414,19 +2414,19 @@
     <t xml:space="preserve">2.8086302280426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86249446868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83171463012695</t>
+    <t xml:space="preserve">2.86249423027039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83171486854553</t>
   </si>
   <si>
     <t xml:space="preserve">2.78939294815063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69320702552795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75476598739624</t>
+    <t xml:space="preserve">2.69320726394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75476622581482</t>
   </si>
   <si>
     <t xml:space="preserve">2.78554558753967</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">2.72013902664185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71629190444946</t>
+    <t xml:space="preserve">2.71629166603088</t>
   </si>
   <si>
     <t xml:space="preserve">2.73168158531189</t>
@@ -2447,13 +2447,13 @@
     <t xml:space="preserve">2.70474934577942</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6970546245575</t>
+    <t xml:space="preserve">2.69705438613892</t>
   </si>
   <si>
     <t xml:space="preserve">2.72398662567139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68166470527649</t>
+    <t xml:space="preserve">2.68166446685791</t>
   </si>
   <si>
     <t xml:space="preserve">2.64319014549255</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">2.53930950164795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50852990150452</t>
+    <t xml:space="preserve">2.5085301399231</t>
   </si>
   <si>
     <t xml:space="preserve">2.47775053977966</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">2.48544549942017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55469942092896</t>
+    <t xml:space="preserve">2.55469918251038</t>
   </si>
   <si>
     <t xml:space="preserve">2.42003893852234</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">2.33539533615112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53161454200745</t>
+    <t xml:space="preserve">2.53161478042603</t>
   </si>
   <si>
     <t xml:space="preserve">2.4662082195282</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">2.49698758125305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52391958236694</t>
+    <t xml:space="preserve">2.52391982078552</t>
   </si>
   <si>
     <t xml:space="preserve">2.60086870193481</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">2.70859694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87403655052185</t>
+    <t xml:space="preserve">2.87403678894043</t>
   </si>
   <si>
     <t xml:space="preserve">3.01639199256897</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">2.61625838279724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59702110290527</t>
+    <t xml:space="preserve">2.59702086448669</t>
   </si>
   <si>
     <t xml:space="preserve">2.67396974563599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67012238502502</t>
+    <t xml:space="preserve">2.6701226234436</t>
   </si>
   <si>
     <t xml:space="preserve">2.68935942649841</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">2.75324726104736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72037291526794</t>
+    <t xml:space="preserve">2.72037267684937</t>
   </si>
   <si>
     <t xml:space="preserve">2.66284227371216</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">2.60531187057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54778122901917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5395622253418</t>
+    <t xml:space="preserve">2.54778099060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53956246376038</t>
   </si>
   <si>
     <t xml:space="preserve">2.51079726219177</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">2.57243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60120248794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56832790374756</t>
+    <t xml:space="preserve">2.60120224952698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56832766532898</t>
   </si>
   <si>
     <t xml:space="preserve">2.52312517166138</t>
@@ -2633,10 +2633,10 @@
     <t xml:space="preserve">2.46559476852417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47792267799377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41217350959778</t>
+    <t xml:space="preserve">2.47792291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4121732711792</t>
   </si>
   <si>
     <t xml:space="preserve">2.45326662063599</t>
@@ -2651,22 +2651,22 @@
     <t xml:space="preserve">2.53134369850159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58887457847595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65462350845337</t>
+    <t xml:space="preserve">2.58887434005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65462374687195</t>
   </si>
   <si>
     <t xml:space="preserve">2.60942101478577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3834080696106</t>
+    <t xml:space="preserve">2.38340830802917</t>
   </si>
   <si>
     <t xml:space="preserve">2.3628613948822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38751769065857</t>
+    <t xml:space="preserve">2.38751745223999</t>
   </si>
   <si>
     <t xml:space="preserve">2.36697101593018</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">2.03411555290222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04644346237183</t>
+    <t xml:space="preserve">2.04644370079041</t>
   </si>
   <si>
     <t xml:space="preserve">2.05055284500122</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">2.157395362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16561388969421</t>
+    <t xml:space="preserve">2.16561412811279</t>
   </si>
   <si>
     <t xml:space="preserve">2.15328598022461</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">2.90940165519714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86830830574036</t>
+    <t xml:space="preserve">2.86830854415894</t>
   </si>
   <si>
     <t xml:space="preserve">2.83543395996094</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">2.96282291412354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94638562202454</t>
+    <t xml:space="preserve">2.94638586044312</t>
   </si>
   <si>
     <t xml:space="preserve">2.95460438728333</t>
@@ -2759,13 +2759,13 @@
     <t xml:space="preserve">2.88063645362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97104167938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95049500465393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03679084777832</t>
+    <t xml:space="preserve">2.97104144096375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95049476623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03679060935974</t>
   </si>
   <si>
     <t xml:space="preserve">3.06555604934692</t>
@@ -2783,13 +2783,13 @@
     <t xml:space="preserve">3.01213479042053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87652730941772</t>
+    <t xml:space="preserve">2.87652707099915</t>
   </si>
   <si>
     <t xml:space="preserve">2.92994832992554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0491189956665</t>
+    <t xml:space="preserve">3.04911875724792</t>
   </si>
   <si>
     <t xml:space="preserve">3.08199334144592</t>
@@ -2804,16 +2804,16 @@
     <t xml:space="preserve">2.92583894729614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00391602516174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04089999198914</t>
+    <t xml:space="preserve">3.00391626358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04090023040771</t>
   </si>
   <si>
     <t xml:space="preserve">3.04500937461853</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05733752250671</t>
+    <t xml:space="preserve">3.05733728408813</t>
   </si>
   <si>
     <t xml:space="preserve">3.07788395881653</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">3.10254001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06966543197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98747873306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90118312835693</t>
+    <t xml:space="preserve">3.06966519355774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98747897148132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90118288993835</t>
   </si>
   <si>
     <t xml:space="preserve">2.92172980308533</t>
@@ -2846,13 +2846,13 @@
     <t xml:space="preserve">3.00802540779114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02446269989014</t>
+    <t xml:space="preserve">3.02446293830872</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610272407532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1271960735321</t>
+    <t xml:space="preserve">3.12719583511353</t>
   </si>
   <si>
     <t xml:space="preserve">3.15185189247131</t>
@@ -2864,22 +2864,22 @@
     <t xml:space="preserve">3.2874596118927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16007041931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2258198261261</t>
+    <t xml:space="preserve">3.1600706577301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22581958770752</t>
   </si>
   <si>
     <t xml:space="preserve">3.14774250984192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21349191665649</t>
+    <t xml:space="preserve">3.21349167823792</t>
   </si>
   <si>
     <t xml:space="preserve">3.13130521774292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17239832878113</t>
+    <t xml:space="preserve">3.17239856719971</t>
   </si>
   <si>
     <t xml:space="preserve">3.17650771141052</t>
@@ -2915,22 +2915,22 @@
     <t xml:space="preserve">2.81899666786194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84776163101196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91351127624512</t>
+    <t xml:space="preserve">2.84776186943054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91351103782654</t>
   </si>
   <si>
     <t xml:space="preserve">3.09843063354492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26280379295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18061685562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24636650085449</t>
+    <t xml:space="preserve">3.26280355453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18061709403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24636626243591</t>
   </si>
   <si>
     <t xml:space="preserve">3.18883585929871</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">3.3655366897583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3819739818573</t>
+    <t xml:space="preserve">3.38197374343872</t>
   </si>
   <si>
     <t xml:space="preserve">3.41484880447388</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">3.44361400604248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51347231864929</t>
+    <t xml:space="preserve">3.51347255706787</t>
   </si>
   <si>
     <t xml:space="preserve">3.38608336448669</t>
@@ -2969,25 +2969,25 @@
     <t xml:space="preserve">3.40663003921509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34909915924072</t>
+    <t xml:space="preserve">3.3490993976593</t>
   </si>
   <si>
     <t xml:space="preserve">3.34499025344849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3203341960907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3696460723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31622457504272</t>
+    <t xml:space="preserve">3.32033395767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36964583396912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3162248134613</t>
   </si>
   <si>
     <t xml:space="preserve">3.32444357872009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33677124977112</t>
+    <t xml:space="preserve">3.3367714881897</t>
   </si>
   <si>
     <t xml:space="preserve">3.30800628662109</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">3.31211566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37786459922791</t>
+    <t xml:space="preserve">3.37786483764648</t>
   </si>
   <si>
     <t xml:space="preserve">3.43128609657288</t>
@@ -3008,7 +3008,7 @@
     <t xml:space="preserve">3.46005129814148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52990961074829</t>
+    <t xml:space="preserve">3.52990984916687</t>
   </si>
   <si>
     <t xml:space="preserve">3.5258002281189</t>
@@ -3017,25 +3017,25 @@
     <t xml:space="preserve">3.68195462226868</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79701590538025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81756234169006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82167196273804</t>
+    <t xml:space="preserve">3.79701566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81756258010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82167172431946</t>
   </si>
   <si>
     <t xml:space="preserve">3.79290628433228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76414084434509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64086127281189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57511234283447</t>
+    <t xml:space="preserve">3.76414132118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64086151123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57511210441589</t>
   </si>
   <si>
     <t xml:space="preserve">3.64497065544128</t>
@@ -3050,13 +3050,13 @@
     <t xml:space="preserve">3.5710027217865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55867505073547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45594167709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35731792449951</t>
+    <t xml:space="preserve">3.55867481231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45594191551208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35731816291809</t>
   </si>
   <si>
     <t xml:space="preserve">3.37375545501709</t>
@@ -3065,13 +3065,13 @@
     <t xml:space="preserve">3.45183229446411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43950462341309</t>
+    <t xml:space="preserve">3.43950438499451</t>
   </si>
   <si>
     <t xml:space="preserve">3.33266186714172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41895794868469</t>
+    <t xml:space="preserve">3.41895771026611</t>
   </si>
   <si>
     <t xml:space="preserve">3.39430212974548</t>
@@ -3083,7 +3083,7 @@
     <t xml:space="preserve">3.19294500350952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29978728294373</t>
+    <t xml:space="preserve">3.2997875213623</t>
   </si>
   <si>
     <t xml:space="preserve">3.36142754554749</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">3.3038969039917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39019274711609</t>
+    <t xml:space="preserve">3.39019250869751</t>
   </si>
   <si>
     <t xml:space="preserve">3.48059797286987</t>
@@ -3101,22 +3101,22 @@
     <t xml:space="preserve">3.4888162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35320854187012</t>
+    <t xml:space="preserve">3.3532087802887</t>
   </si>
   <si>
     <t xml:space="preserve">3.25869417190552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23403835296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20116353034973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19705438613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27924084663391</t>
+    <t xml:space="preserve">3.23403811454773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20116376876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1970546245575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27924108505249</t>
   </si>
   <si>
     <t xml:space="preserve">3.2710223197937</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">2.99569749832153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12308645248413</t>
+    <t xml:space="preserve">3.12308669090271</t>
   </si>
   <si>
     <t xml:space="preserve">3.42717671394348</t>
@@ -3152,16 +3152,16 @@
     <t xml:space="preserve">3.29156899452209</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28335022926331</t>
+    <t xml:space="preserve">3.28334999084473</t>
   </si>
   <si>
     <t xml:space="preserve">3.34088087081909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14363312721252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10664939880371</t>
+    <t xml:space="preserve">3.1436333656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10664916038513</t>
   </si>
   <si>
     <t xml:space="preserve">3.11486792564392</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">3.02857208251953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89296460151672</t>
+    <t xml:space="preserve">2.89296436309814</t>
   </si>
   <si>
     <t xml:space="preserve">2.97926020622253</t>
@@ -3197,13 +3197,13 @@
     <t xml:space="preserve">3.39841151237488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47648859024048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4929256439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48470687866211</t>
+    <t xml:space="preserve">3.4764883518219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49292588233948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48470711708069</t>
   </si>
   <si>
     <t xml:space="preserve">3.65318965911865</t>
@@ -3218,10 +3218,10 @@
     <t xml:space="preserve">3.46416068077087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4723789691925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43539500236511</t>
+    <t xml:space="preserve">3.47237920761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43539524078369</t>
   </si>
   <si>
     <t xml:space="preserve">3.51758193969727</t>
@@ -3239,28 +3239,28 @@
     <t xml:space="preserve">3.60798668861389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59154939651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66551733016968</t>
+    <t xml:space="preserve">3.59154963493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66551756858826</t>
   </si>
   <si>
     <t xml:space="preserve">3.66962695121765</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67373585700989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75592255592346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71482920646667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80112504959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73537611961365</t>
+    <t xml:space="preserve">3.67373561859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75592279434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71482944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80112528800964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73537588119507</t>
   </si>
   <si>
     <t xml:space="preserve">3.74770379066467</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">3.80523467063904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646899223328</t>
+    <t xml:space="preserve">3.77646923065186</t>
   </si>
   <si>
     <t xml:space="preserve">3.74359440803528</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">3.76003170013428</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71072006225586</t>
+    <t xml:space="preserve">3.71071982383728</t>
   </si>
   <si>
     <t xml:space="preserve">3.66140794754028</t>
@@ -4272,6 +4272,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.79999995231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93400001525879</t>
   </si>
 </sst>
 </file>
@@ -11599,7 +11602,7 @@
         <v>6.88861417770386</v>
       </c>
       <c r="G269" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11651,7 +11654,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G271" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11703,7 +11706,7 @@
         <v>6.82818794250488</v>
       </c>
       <c r="G273" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11729,7 +11732,7 @@
         <v>6.80494689941406</v>
       </c>
       <c r="G274" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11755,7 +11758,7 @@
         <v>6.75381708145142</v>
       </c>
       <c r="G275" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11807,7 +11810,7 @@
         <v>6.61901903152466</v>
       </c>
       <c r="G277" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11859,7 +11862,7 @@
         <v>6.47027683258057</v>
       </c>
       <c r="G279" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11885,7 +11888,7 @@
         <v>6.62831592559814</v>
       </c>
       <c r="G280" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11911,7 +11914,7 @@
         <v>6.50746297836304</v>
       </c>
       <c r="G281" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11937,7 +11940,7 @@
         <v>6.57253694534302</v>
       </c>
       <c r="G282" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11963,7 +11966,7 @@
         <v>6.53535223007202</v>
       </c>
       <c r="G283" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11989,7 +11992,7 @@
         <v>6.53535223007202</v>
       </c>
       <c r="G284" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -12093,7 +12096,7 @@
         <v>6.81424283981323</v>
       </c>
       <c r="G288" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12171,7 +12174,7 @@
         <v>6.95833683013916</v>
       </c>
       <c r="G291" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12275,7 +12278,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G295" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12301,7 +12304,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G296" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12353,7 +12356,7 @@
         <v>6.70268678665161</v>
       </c>
       <c r="G298" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12405,7 +12408,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G300" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12483,7 +12486,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G303" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12509,7 +12512,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G304" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12639,7 +12642,7 @@
         <v>7.06989288330078</v>
       </c>
       <c r="G309" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12665,7 +12668,7 @@
         <v>7.17680215835571</v>
       </c>
       <c r="G310" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12717,7 +12720,7 @@
         <v>7.41850709915161</v>
       </c>
       <c r="G312" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12743,7 +12746,7 @@
         <v>7.46963787078857</v>
       </c>
       <c r="G313" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12795,7 +12798,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G315" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12847,7 +12850,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G317" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12873,7 +12876,7 @@
         <v>7.60443496704102</v>
       </c>
       <c r="G318" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12899,7 +12902,7 @@
         <v>7.75782489776611</v>
       </c>
       <c r="G319" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12925,7 +12928,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G320" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12977,7 +12980,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G322" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13003,7 +13006,7 @@
         <v>7.59978723526001</v>
       </c>
       <c r="G323" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13029,7 +13032,7 @@
         <v>7.59513902664185</v>
       </c>
       <c r="G324" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13133,7 +13136,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G328" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13159,7 +13162,7 @@
         <v>7.46498918533325</v>
       </c>
       <c r="G329" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13211,7 +13214,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G331" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13237,7 +13240,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G332" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13263,7 +13266,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G333" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13289,7 +13292,7 @@
         <v>7.311598777771</v>
       </c>
       <c r="G334" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13315,7 +13318,7 @@
         <v>7.20469093322754</v>
       </c>
       <c r="G335" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13341,7 +13344,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G336" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13367,7 +13370,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G337" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13393,7 +13396,7 @@
         <v>7.53471183776855</v>
       </c>
       <c r="G338" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13419,7 +13422,7 @@
         <v>7.66486120223999</v>
       </c>
       <c r="G339" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13445,7 +13448,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G340" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13471,7 +13474,7 @@
         <v>7.6973991394043</v>
       </c>
       <c r="G341" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13497,7 +13500,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G342" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13523,7 +13526,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G343" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13549,7 +13552,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G344" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13575,7 +13578,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G345" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13601,7 +13604,7 @@
         <v>7.95769691467285</v>
       </c>
       <c r="G346" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13627,7 +13630,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G347" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13653,7 +13656,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G348" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13679,7 +13682,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G349" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13705,7 +13708,7 @@
         <v>8.16686630249023</v>
       </c>
       <c r="G350" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13731,7 +13734,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G351" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13757,7 +13760,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G352" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13783,7 +13786,7 @@
         <v>7.8554368019104</v>
       </c>
       <c r="G353" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13809,7 +13812,7 @@
         <v>7.79965877532959</v>
       </c>
       <c r="G354" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13835,7 +13838,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G355" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13861,7 +13864,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G356" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13887,7 +13890,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G357" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13913,7 +13916,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G358" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13939,7 +13942,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G359" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13965,7 +13968,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G360" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13991,7 +13994,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G361" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14017,7 +14020,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G362" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14043,7 +14046,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G363" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14069,7 +14072,7 @@
         <v>7.83684396743774</v>
       </c>
       <c r="G364" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14095,7 +14098,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G365" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14121,7 +14124,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G366" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14147,7 +14150,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G367" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14173,7 +14176,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G368" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14199,7 +14202,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G369" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14225,7 +14228,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G370" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14251,7 +14254,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G371" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14277,7 +14280,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G372" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14303,7 +14306,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G373" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14329,7 +14332,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G374" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14355,7 +14358,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G375" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14381,7 +14384,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G376" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14407,7 +14410,7 @@
         <v>7.46034097671509</v>
       </c>
       <c r="G377" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14433,7 +14436,7 @@
         <v>7.4278039932251</v>
       </c>
       <c r="G378" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14459,7 +14462,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G379" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14485,7 +14488,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G380" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14511,7 +14514,7 @@
         <v>7.39991521835327</v>
       </c>
       <c r="G381" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14537,7 +14540,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G382" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14563,7 +14566,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G383" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14589,7 +14592,7 @@
         <v>7.16750478744507</v>
       </c>
       <c r="G384" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14615,7 +14618,7 @@
         <v>7.21863508224487</v>
       </c>
       <c r="G385" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14641,7 +14644,7 @@
         <v>7.35343313217163</v>
       </c>
       <c r="G386" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14667,7 +14670,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G387" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14693,7 +14696,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G388" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14719,7 +14722,7 @@
         <v>7.39061784744263</v>
       </c>
       <c r="G389" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14745,7 +14748,7 @@
         <v>7.53006410598755</v>
       </c>
       <c r="G390" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14771,7 +14774,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G391" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14797,7 +14800,7 @@
         <v>7.55330514907837</v>
       </c>
       <c r="G392" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14823,7 +14826,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G393" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14849,7 +14852,7 @@
         <v>7.72064018249512</v>
       </c>
       <c r="G394" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14875,7 +14878,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G395" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14901,7 +14904,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G396" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14927,7 +14930,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G397" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14953,7 +14956,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G398" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14979,7 +14982,7 @@
         <v>7.72993612289429</v>
       </c>
       <c r="G399" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15005,7 +15008,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G400" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15031,7 +15034,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G401" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15057,7 +15060,7 @@
         <v>7.74388122558594</v>
       </c>
       <c r="G402" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15083,7 +15086,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G403" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15109,7 +15112,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G404" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15135,7 +15138,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G405" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15161,7 +15164,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G406" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15187,7 +15190,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G407" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15213,7 +15216,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G408" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15239,7 +15242,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G409" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15265,7 +15268,7 @@
         <v>7.82289981842041</v>
       </c>
       <c r="G410" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15291,7 +15294,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G411" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15317,7 +15320,7 @@
         <v>7.89262294769287</v>
       </c>
       <c r="G412" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15343,7 +15346,7 @@
         <v>7.81360292434692</v>
       </c>
       <c r="G413" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15369,7 +15372,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G414" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15395,7 +15398,7 @@
         <v>7.79501104354858</v>
       </c>
       <c r="G415" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15421,7 +15424,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G416" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15447,7 +15450,7 @@
         <v>8.01347637176514</v>
       </c>
       <c r="G417" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15473,7 +15476,7 @@
         <v>7.99023485183716</v>
       </c>
       <c r="G418" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15499,7 +15502,7 @@
         <v>7.93445587158203</v>
       </c>
       <c r="G419" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15525,7 +15528,7 @@
         <v>7.94375276565552</v>
       </c>
       <c r="G420" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15551,7 +15554,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G421" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15577,7 +15580,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G422" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15603,7 +15606,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G423" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15629,7 +15632,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G424" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15655,7 +15658,7 @@
         <v>7.86008501052856</v>
       </c>
       <c r="G425" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15681,7 +15684,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G426" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15707,7 +15710,7 @@
         <v>7.78106594085693</v>
       </c>
       <c r="G427" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15733,7 +15736,7 @@
         <v>7.89727115631104</v>
       </c>
       <c r="G428" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15759,7 +15762,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G429" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15785,7 +15788,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G430" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15811,7 +15814,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G431" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15837,7 +15840,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G432" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15863,7 +15866,7 @@
         <v>7.84149312973022</v>
       </c>
       <c r="G433" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15889,7 +15892,7 @@
         <v>7.92051219940186</v>
       </c>
       <c r="G434" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15915,7 +15918,7 @@
         <v>8.03206825256348</v>
       </c>
       <c r="G435" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15941,7 +15944,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G436" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15967,7 +15970,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G437" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15993,7 +15996,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G438" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16019,7 +16022,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G439" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16045,7 +16048,7 @@
         <v>8.19010734558105</v>
       </c>
       <c r="G440" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16071,7 +16074,7 @@
         <v>8.12503242492676</v>
       </c>
       <c r="G441" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16097,7 +16100,7 @@
         <v>8.08784675598145</v>
       </c>
       <c r="G442" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16123,7 +16126,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G443" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16149,7 +16152,7 @@
         <v>8.10643863677979</v>
       </c>
       <c r="G444" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16175,7 +16178,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G445" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16201,7 +16204,7 @@
         <v>8.14362525939941</v>
       </c>
       <c r="G446" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16227,7 +16230,7 @@
         <v>8.12038421630859</v>
       </c>
       <c r="G447" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16253,7 +16256,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G448" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16279,7 +16282,7 @@
         <v>8.20869922637939</v>
       </c>
       <c r="G449" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16305,7 +16308,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G450" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16331,7 +16334,7 @@
         <v>8.22729206085205</v>
       </c>
       <c r="G451" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16357,7 +16360,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G452" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16383,7 +16386,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G453" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16409,7 +16412,7 @@
         <v>8.07390213012695</v>
       </c>
       <c r="G454" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16435,7 +16438,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G455" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16461,7 +16464,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G456" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16487,7 +16490,7 @@
         <v>8.36673831939697</v>
       </c>
       <c r="G457" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16513,7 +16516,7 @@
         <v>8.50618267059326</v>
       </c>
       <c r="G458" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16539,7 +16542,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G459" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16565,7 +16568,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G460" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16591,7 +16594,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G461" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16617,7 +16620,7 @@
         <v>8.5526647567749</v>
       </c>
       <c r="G462" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16643,7 +16646,7 @@
         <v>8.54801654815674</v>
       </c>
       <c r="G463" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16669,7 +16672,7 @@
         <v>8.69211101531982</v>
       </c>
       <c r="G464" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16695,7 +16698,7 @@
         <v>8.74788856506348</v>
       </c>
       <c r="G465" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16721,7 +16724,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G466" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16747,7 +16750,7 @@
         <v>8.60379505157471</v>
       </c>
       <c r="G467" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16773,7 +16776,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G468" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16799,7 +16802,7 @@
         <v>8.98959541320801</v>
       </c>
       <c r="G469" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16825,7 +16828,7 @@
         <v>9.22665309906006</v>
       </c>
       <c r="G470" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16851,7 +16854,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G471" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16877,7 +16880,7 @@
         <v>9.696120262146</v>
       </c>
       <c r="G472" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16903,7 +16906,7 @@
         <v>9.67752742767334</v>
       </c>
       <c r="G473" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16929,7 +16932,7 @@
         <v>9.55667400360107</v>
       </c>
       <c r="G474" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16955,7 +16958,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G475" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16981,7 +16984,7 @@
         <v>9.62174892425537</v>
       </c>
       <c r="G476" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17007,7 +17010,7 @@
         <v>9.43582057952881</v>
       </c>
       <c r="G477" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17033,7 +17036,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G478" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17059,7 +17062,7 @@
         <v>9.34285736083984</v>
       </c>
       <c r="G479" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17085,7 +17088,7 @@
         <v>9.2080602645874</v>
       </c>
       <c r="G480" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17111,7 +17114,7 @@
         <v>9.38933944702148</v>
       </c>
       <c r="G481" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17137,7 +17140,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G482" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17163,7 +17166,7 @@
         <v>9.91923332214355</v>
       </c>
       <c r="G483" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17189,7 +17192,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G484" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17215,7 +17218,7 @@
         <v>9.65893363952637</v>
       </c>
       <c r="G485" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17241,7 +17244,7 @@
         <v>10.0029001235962</v>
       </c>
       <c r="G486" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17267,7 +17270,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G487" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17293,7 +17296,7 @@
         <v>9.90063953399658</v>
       </c>
       <c r="G488" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17319,7 +17322,7 @@
         <v>10.0586776733398</v>
       </c>
       <c r="G489" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17345,7 +17348,7 @@
         <v>10.1144561767578</v>
       </c>
       <c r="G490" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17371,7 +17374,7 @@
         <v>10.0307893753052</v>
       </c>
       <c r="G491" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17397,7 +17400,7 @@
         <v>10.0121955871582</v>
       </c>
       <c r="G492" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17423,7 +17426,7 @@
         <v>9.76119422912598</v>
       </c>
       <c r="G493" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17449,7 +17452,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G494" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17475,7 +17478,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G495" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17501,7 +17504,7 @@
         <v>9.93782520294189</v>
       </c>
       <c r="G496" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17527,7 +17530,7 @@
         <v>10.0772714614868</v>
       </c>
       <c r="G497" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17553,7 +17556,7 @@
         <v>10.318977355957</v>
       </c>
       <c r="G498" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17579,7 +17582,7 @@
         <v>10.3003835678101</v>
       </c>
       <c r="G499" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17605,7 +17608,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G500" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17631,7 +17634,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G501" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17657,7 +17660,7 @@
         <v>10.411940574646</v>
       </c>
       <c r="G502" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17683,7 +17686,7 @@
         <v>10.1330490112305</v>
       </c>
       <c r="G503" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17709,7 +17712,7 @@
         <v>9.49159908294678</v>
       </c>
       <c r="G504" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17735,7 +17738,7 @@
         <v>9.11044788360596</v>
       </c>
       <c r="G505" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17761,7 +17764,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G506" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17787,7 +17790,7 @@
         <v>9.08255863189697</v>
       </c>
       <c r="G507" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17813,7 +17816,7 @@
         <v>8.88268661499023</v>
       </c>
       <c r="G508" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17839,7 +17842,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G509" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17865,7 +17868,7 @@
         <v>9.09650325775146</v>
       </c>
       <c r="G510" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17891,7 +17894,7 @@
         <v>8.96170616149902</v>
       </c>
       <c r="G511" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17917,7 +17920,7 @@
         <v>8.95240879058838</v>
       </c>
       <c r="G512" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17943,7 +17946,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G513" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17969,7 +17972,7 @@
         <v>9.1569299697876</v>
       </c>
       <c r="G514" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17995,7 +17998,7 @@
         <v>9.16622638702393</v>
       </c>
       <c r="G515" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18021,7 +18024,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G516" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18047,7 +18050,7 @@
         <v>9.31496810913086</v>
       </c>
       <c r="G517" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18073,7 +18076,7 @@
         <v>9.26848602294922</v>
       </c>
       <c r="G518" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18099,7 +18102,7 @@
         <v>9.00818824768066</v>
       </c>
       <c r="G519" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18125,7 +18128,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G520" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18151,7 +18154,7 @@
         <v>9.06396579742432</v>
       </c>
       <c r="G521" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18177,7 +18180,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G522" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18203,7 +18206,7 @@
         <v>8.8873348236084</v>
       </c>
       <c r="G523" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18229,7 +18232,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G524" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18255,7 +18258,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G525" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18281,7 +18284,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G526" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18307,7 +18310,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G527" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18333,7 +18336,7 @@
         <v>8.90592765808105</v>
       </c>
       <c r="G528" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18359,7 +18362,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G529" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18385,7 +18388,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G530" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18411,7 +18414,7 @@
         <v>8.85014915466309</v>
       </c>
       <c r="G531" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18437,7 +18440,7 @@
         <v>8.60844421386719</v>
       </c>
       <c r="G532" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18463,7 +18466,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G533" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18489,7 +18492,7 @@
         <v>8.53407287597656</v>
       </c>
       <c r="G534" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18515,7 +18518,7 @@
         <v>8.34814453125</v>
       </c>
       <c r="G535" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18541,7 +18544,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G536" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18567,7 +18570,7 @@
         <v>8.05995655059814</v>
       </c>
       <c r="G537" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18593,7 +18596,7 @@
         <v>8.30166339874268</v>
       </c>
       <c r="G538" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18619,7 +18622,7 @@
         <v>7.87403011322021</v>
       </c>
       <c r="G539" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18645,7 +18648,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G540" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18671,7 +18674,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G541" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18697,7 +18700,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G542" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18723,7 +18726,7 @@
         <v>7.68810176849365</v>
       </c>
       <c r="G543" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18749,7 +18752,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G544" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18775,7 +18778,7 @@
         <v>7.8182520866394</v>
       </c>
       <c r="G545" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18801,7 +18804,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G546" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18827,7 +18830,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G547" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18853,7 +18856,7 @@
         <v>7.58584213256836</v>
       </c>
       <c r="G548" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18879,7 +18882,7 @@
         <v>8.0413646697998</v>
       </c>
       <c r="G549" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18905,7 +18908,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G550" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18931,7 +18934,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G551" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18957,7 +18960,7 @@
         <v>7.49566698074341</v>
       </c>
       <c r="G552" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18983,7 +18986,7 @@
         <v>7.36086988449097</v>
       </c>
       <c r="G553" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19009,7 +19012,7 @@
         <v>7.17308282852173</v>
       </c>
       <c r="G554" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19035,7 +19038,7 @@
         <v>7.00017118453979</v>
       </c>
       <c r="G555" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19061,7 +19064,7 @@
         <v>6.98622608184814</v>
       </c>
       <c r="G556" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19087,7 +19090,7 @@
         <v>7.08383798599243</v>
       </c>
       <c r="G557" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19113,7 +19116,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G558" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19139,7 +19142,7 @@
         <v>7.298583984375</v>
       </c>
       <c r="G559" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19165,7 +19168,7 @@
         <v>7.12102317810059</v>
       </c>
       <c r="G560" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19191,7 +19194,7 @@
         <v>7.03177785873413</v>
       </c>
       <c r="G561" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19217,7 +19220,7 @@
         <v>7.05501890182495</v>
       </c>
       <c r="G562" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19243,7 +19246,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G563" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19269,7 +19272,7 @@
         <v>6.82911682128906</v>
       </c>
       <c r="G564" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19295,7 +19298,7 @@
         <v>6.72127914428711</v>
       </c>
       <c r="G565" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19321,7 +19324,7 @@
         <v>7.01225614547729</v>
       </c>
       <c r="G566" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19347,7 +19350,7 @@
         <v>6.98064804077148</v>
       </c>
       <c r="G567" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19373,7 +19376,7 @@
         <v>6.94439220428467</v>
       </c>
       <c r="G568" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19399,7 +19402,7 @@
         <v>6.71291303634644</v>
       </c>
       <c r="G569" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19425,7 +19428,7 @@
         <v>6.55394506454468</v>
       </c>
       <c r="G570" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19451,7 +19454,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19477,7 +19480,7 @@
         <v>7.27699995040894</v>
       </c>
       <c r="G572" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19503,7 +19506,7 @@
         <v>7.97800016403198</v>
       </c>
       <c r="G573" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19529,7 +19532,7 @@
         <v>7.58799982070923</v>
       </c>
       <c r="G574" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19555,7 +19558,7 @@
         <v>7.75</v>
       </c>
       <c r="G575" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19581,7 +19584,7 @@
         <v>8.04199981689453</v>
       </c>
       <c r="G576" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19607,7 +19610,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G577" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19633,7 +19636,7 @@
         <v>8.25899982452393</v>
       </c>
       <c r="G578" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19659,7 +19662,7 @@
         <v>8.09500026702881</v>
       </c>
       <c r="G579" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19685,7 +19688,7 @@
         <v>7.83699989318848</v>
       </c>
       <c r="G580" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19711,7 +19714,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G581" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19737,7 +19740,7 @@
         <v>7.89900016784668</v>
       </c>
       <c r="G582" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19763,7 +19766,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G583" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19789,7 +19792,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G584" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19815,7 +19818,7 @@
         <v>7.86700010299683</v>
       </c>
       <c r="G585" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19841,7 +19844,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G586" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19867,7 +19870,7 @@
         <v>7.84200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19893,7 +19896,7 @@
         <v>7.85799980163574</v>
       </c>
       <c r="G588" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19919,7 +19922,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G589" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19945,7 +19948,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G590" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19971,7 +19974,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G591" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19997,7 +20000,7 @@
         <v>7.71600008010864</v>
       </c>
       <c r="G592" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20023,7 +20026,7 @@
         <v>7.70100021362305</v>
       </c>
       <c r="G593" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20049,7 +20052,7 @@
         <v>7.76300001144409</v>
       </c>
       <c r="G594" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20075,7 +20078,7 @@
         <v>7.85699987411499</v>
       </c>
       <c r="G595" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20101,7 +20104,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G596" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20127,7 +20130,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20153,7 +20156,7 @@
         <v>8</v>
       </c>
       <c r="G598" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20179,7 +20182,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G599" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20205,7 +20208,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20231,7 +20234,7 @@
         <v>7.92600011825562</v>
       </c>
       <c r="G601" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20257,7 +20260,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G602" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20283,7 +20286,7 @@
         <v>8.03800010681152</v>
       </c>
       <c r="G603" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20309,7 +20312,7 @@
         <v>8</v>
       </c>
       <c r="G604" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20335,7 +20338,7 @@
         <v>7.78399991989136</v>
       </c>
       <c r="G605" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20361,7 +20364,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G606" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20387,7 +20390,7 @@
         <v>7.44899988174438</v>
       </c>
       <c r="G607" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20413,7 +20416,7 @@
         <v>7.55900001525879</v>
       </c>
       <c r="G608" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20439,7 +20442,7 @@
         <v>7.47499990463257</v>
       </c>
       <c r="G609" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20465,7 +20468,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G610" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20491,7 +20494,7 @@
         <v>7.37099981307983</v>
       </c>
       <c r="G611" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20517,7 +20520,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20543,7 +20546,7 @@
         <v>7.11499977111816</v>
       </c>
       <c r="G613" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20569,7 +20572,7 @@
         <v>6.7649998664856</v>
       </c>
       <c r="G614" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20595,7 +20598,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G615" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20621,7 +20624,7 @@
         <v>7.27400016784668</v>
       </c>
       <c r="G616" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20647,7 +20650,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G617" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20673,7 +20676,7 @@
         <v>7.39400005340576</v>
       </c>
       <c r="G618" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20699,7 +20702,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G619" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20725,7 +20728,7 @@
         <v>7.49499988555908</v>
       </c>
       <c r="G620" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20751,7 +20754,7 @@
         <v>7.32299995422363</v>
       </c>
       <c r="G621" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20777,7 +20780,7 @@
         <v>7.1710000038147</v>
       </c>
       <c r="G622" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20803,7 +20806,7 @@
         <v>7.08900022506714</v>
       </c>
       <c r="G623" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20829,7 +20832,7 @@
         <v>7.25899982452393</v>
       </c>
       <c r="G624" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20855,7 +20858,7 @@
         <v>7.11100006103516</v>
       </c>
       <c r="G625" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20881,7 +20884,7 @@
         <v>7.24900007247925</v>
       </c>
       <c r="G626" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20907,7 +20910,7 @@
         <v>7.31799983978271</v>
       </c>
       <c r="G627" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20933,7 +20936,7 @@
         <v>6.97200012207031</v>
       </c>
       <c r="G628" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20959,7 +20962,7 @@
         <v>6.97399997711182</v>
       </c>
       <c r="G629" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20985,7 +20988,7 @@
         <v>6.92399978637695</v>
       </c>
       <c r="G630" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21011,7 +21014,7 @@
         <v>6.90299987792969</v>
       </c>
       <c r="G631" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21037,7 +21040,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G632" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21063,7 +21066,7 @@
         <v>6.96700000762939</v>
       </c>
       <c r="G633" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21089,7 +21092,7 @@
         <v>7</v>
       </c>
       <c r="G634" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21115,7 +21118,7 @@
         <v>6.875</v>
       </c>
       <c r="G635" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21141,7 +21144,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G636" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21167,7 +21170,7 @@
         <v>6.88199996948242</v>
       </c>
       <c r="G637" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21193,7 +21196,7 @@
         <v>7.04699993133545</v>
       </c>
       <c r="G638" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21219,7 +21222,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G639" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21245,7 +21248,7 @@
         <v>7</v>
       </c>
       <c r="G640" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21271,7 +21274,7 @@
         <v>6.93699979782104</v>
       </c>
       <c r="G641" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21297,7 +21300,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G642" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21323,7 +21326,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G643" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21349,7 +21352,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G644" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21375,7 +21378,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G645" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21401,7 +21404,7 @@
         <v>7.05399990081787</v>
       </c>
       <c r="G646" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21427,7 +21430,7 @@
         <v>7.06899976730347</v>
       </c>
       <c r="G647" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21453,7 +21456,7 @@
         <v>7.12599992752075</v>
       </c>
       <c r="G648" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21479,7 +21482,7 @@
         <v>7.17700004577637</v>
       </c>
       <c r="G649" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21505,7 +21508,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G650" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21531,7 +21534,7 @@
         <v>7.35099983215332</v>
       </c>
       <c r="G651" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21557,7 +21560,7 @@
         <v>7.21600008010864</v>
       </c>
       <c r="G652" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21583,7 +21586,7 @@
         <v>7.24200010299683</v>
       </c>
       <c r="G653" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21609,7 +21612,7 @@
         <v>7.26100015640259</v>
       </c>
       <c r="G654" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21635,7 +21638,7 @@
         <v>7.06599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21661,7 +21664,7 @@
         <v>7.25</v>
       </c>
       <c r="G656" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21687,7 +21690,7 @@
         <v>7.05700016021729</v>
       </c>
       <c r="G657" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21713,7 +21716,7 @@
         <v>7.13100004196167</v>
       </c>
       <c r="G658" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21739,7 +21742,7 @@
         <v>7.23099994659424</v>
       </c>
       <c r="G659" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21765,7 +21768,7 @@
         <v>7.18300008773804</v>
       </c>
       <c r="G660" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21791,7 +21794,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G661" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21817,7 +21820,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G662" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21843,7 +21846,7 @@
         <v>6.93100023269653</v>
       </c>
       <c r="G663" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21869,7 +21872,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G664" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21895,7 +21898,7 @@
         <v>6.9210000038147</v>
       </c>
       <c r="G665" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21921,7 +21924,7 @@
         <v>6.90899991989136</v>
       </c>
       <c r="G666" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21947,7 +21950,7 @@
         <v>6.79300022125244</v>
       </c>
       <c r="G667" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21973,7 +21976,7 @@
         <v>6.66300010681152</v>
       </c>
       <c r="G668" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21999,7 +22002,7 @@
         <v>6.60699987411499</v>
       </c>
       <c r="G669" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22025,7 +22028,7 @@
         <v>6.49100017547607</v>
       </c>
       <c r="G670" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22051,7 +22054,7 @@
         <v>6.51900005340576</v>
       </c>
       <c r="G671" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22077,7 +22080,7 @@
         <v>6.57299995422363</v>
       </c>
       <c r="G672" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22103,7 +22106,7 @@
         <v>6.69899988174438</v>
       </c>
       <c r="G673" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22129,7 +22132,7 @@
         <v>6.68699979782104</v>
       </c>
       <c r="G674" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22155,7 +22158,7 @@
         <v>6.58799982070923</v>
       </c>
       <c r="G675" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22181,7 +22184,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G676" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22207,7 +22210,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G677" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22233,7 +22236,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G678" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22259,7 +22262,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G679" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22285,7 +22288,7 @@
         <v>6.62099981307983</v>
       </c>
       <c r="G680" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22311,7 +22314,7 @@
         <v>6.55399990081787</v>
       </c>
       <c r="G681" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22337,7 +22340,7 @@
         <v>6.56799983978271</v>
       </c>
       <c r="G682" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22363,7 +22366,7 @@
         <v>6.5310001373291</v>
       </c>
       <c r="G683" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22389,7 +22392,7 @@
         <v>6.57499980926514</v>
       </c>
       <c r="G684" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22415,7 +22418,7 @@
         <v>6.57200002670288</v>
       </c>
       <c r="G685" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22441,7 +22444,7 @@
         <v>6.58900022506714</v>
       </c>
       <c r="G686" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22467,7 +22470,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G687" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22493,7 +22496,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G688" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22519,7 +22522,7 @@
         <v>6.58099985122681</v>
       </c>
       <c r="G689" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22545,7 +22548,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G690" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22571,7 +22574,7 @@
         <v>6.51200008392334</v>
       </c>
       <c r="G691" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22597,7 +22600,7 @@
         <v>6.95800018310547</v>
       </c>
       <c r="G692" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22623,7 +22626,7 @@
         <v>6.78499984741211</v>
       </c>
       <c r="G693" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22649,7 +22652,7 @@
         <v>6.76900005340576</v>
       </c>
       <c r="G694" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22675,7 +22678,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G695" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22701,7 +22704,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22727,7 +22730,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G697" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22753,7 +22756,7 @@
         <v>6.85099983215332</v>
       </c>
       <c r="G698" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22779,7 +22782,7 @@
         <v>6.75799989700317</v>
       </c>
       <c r="G699" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22805,7 +22808,7 @@
         <v>6.73899984359741</v>
       </c>
       <c r="G700" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22831,7 +22834,7 @@
         <v>6.61800003051758</v>
       </c>
       <c r="G701" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22857,7 +22860,7 @@
         <v>6.55700016021729</v>
       </c>
       <c r="G702" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22883,7 +22886,7 @@
         <v>6.42199993133545</v>
       </c>
       <c r="G703" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22909,7 +22912,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G704" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22935,7 +22938,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G705" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22961,7 +22964,7 @@
         <v>6.30100011825562</v>
       </c>
       <c r="G706" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22987,7 +22990,7 @@
         <v>6.14099979400635</v>
       </c>
       <c r="G707" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23013,7 +23016,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G708" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23039,7 +23042,7 @@
         <v>6.05399990081787</v>
       </c>
       <c r="G709" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23065,7 +23068,7 @@
         <v>5.91400003433228</v>
       </c>
       <c r="G710" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23091,7 +23094,7 @@
         <v>5.95300006866455</v>
       </c>
       <c r="G711" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23117,7 +23120,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G712" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23143,7 +23146,7 @@
         <v>5.90399980545044</v>
       </c>
       <c r="G713" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23169,7 +23172,7 @@
         <v>5.95900011062622</v>
       </c>
       <c r="G714" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23195,7 +23198,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G715" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23221,7 +23224,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G716" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23247,7 +23250,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G717" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23273,7 +23276,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G718" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23299,7 +23302,7 @@
         <v>5.94600009918213</v>
       </c>
       <c r="G719" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23325,7 +23328,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G720" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23351,7 +23354,7 @@
         <v>6.00899982452393</v>
       </c>
       <c r="G721" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23377,7 +23380,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G722" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23403,7 +23406,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G723" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23429,7 +23432,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G724" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23455,7 +23458,7 @@
         <v>6.25</v>
       </c>
       <c r="G725" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23481,7 +23484,7 @@
         <v>6.23899984359741</v>
       </c>
       <c r="G726" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23507,7 +23510,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G727" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23533,7 +23536,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G728" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23559,7 +23562,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G729" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23585,7 +23588,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G730" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23611,7 +23614,7 @@
         <v>6.2189998626709</v>
       </c>
       <c r="G731" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23637,7 +23640,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G732" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23663,7 +23666,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G733" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23689,7 +23692,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G734" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23715,7 +23718,7 @@
         <v>6.03900003433228</v>
       </c>
       <c r="G735" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23741,7 +23744,7 @@
         <v>6.01399993896484</v>
       </c>
       <c r="G736" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23767,7 +23770,7 @@
         <v>5.95100021362305</v>
       </c>
       <c r="G737" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23793,7 +23796,7 @@
         <v>5.86499977111816</v>
       </c>
       <c r="G738" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23819,7 +23822,7 @@
         <v>5.86800003051758</v>
       </c>
       <c r="G739" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23845,7 +23848,7 @@
         <v>5.89699983596802</v>
       </c>
       <c r="G740" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23871,7 +23874,7 @@
         <v>6.02899980545044</v>
       </c>
       <c r="G741" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23897,7 +23900,7 @@
         <v>6.14300012588501</v>
       </c>
       <c r="G742" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23923,7 +23926,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G743" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23949,7 +23952,7 @@
         <v>6.10699987411499</v>
       </c>
       <c r="G744" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23975,7 +23978,7 @@
         <v>6.09200000762939</v>
       </c>
       <c r="G745" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24001,7 +24004,7 @@
         <v>5.98299980163574</v>
       </c>
       <c r="G746" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24027,7 +24030,7 @@
         <v>5.88199996948242</v>
       </c>
       <c r="G747" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24053,7 +24056,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G748" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24079,7 +24082,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G749" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24105,7 +24108,7 @@
         <v>5.80700016021729</v>
       </c>
       <c r="G750" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24131,7 +24134,7 @@
         <v>5.81599998474121</v>
       </c>
       <c r="G751" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24157,7 +24160,7 @@
         <v>5.76399993896484</v>
       </c>
       <c r="G752" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24183,7 +24186,7 @@
         <v>5.65299987792969</v>
       </c>
       <c r="G753" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24209,7 +24212,7 @@
         <v>5.79199981689453</v>
       </c>
       <c r="G754" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24235,7 +24238,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G755" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24261,7 +24264,7 @@
         <v>5.63399982452393</v>
       </c>
       <c r="G756" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24287,7 +24290,7 @@
         <v>5.5</v>
       </c>
       <c r="G757" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24313,7 +24316,7 @@
         <v>5.39599990844727</v>
       </c>
       <c r="G758" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24339,7 +24342,7 @@
         <v>5.37400007247925</v>
       </c>
       <c r="G759" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24365,7 +24368,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G760" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24391,7 +24394,7 @@
         <v>5.4229998588562</v>
       </c>
       <c r="G761" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24417,7 +24420,7 @@
         <v>5.30700016021729</v>
       </c>
       <c r="G762" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24443,7 +24446,7 @@
         <v>5.38199996948242</v>
       </c>
       <c r="G763" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24469,7 +24472,7 @@
         <v>5.57200002670288</v>
       </c>
       <c r="G764" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24495,7 +24498,7 @@
         <v>5.67199993133545</v>
       </c>
       <c r="G765" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24521,7 +24524,7 @@
         <v>5.80800008773804</v>
       </c>
       <c r="G766" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24547,7 +24550,7 @@
         <v>5.78599977493286</v>
       </c>
       <c r="G767" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24573,7 +24576,7 @@
         <v>5.90899991989136</v>
       </c>
       <c r="G768" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24599,7 +24602,7 @@
         <v>5.88800001144409</v>
       </c>
       <c r="G769" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24625,7 +24628,7 @@
         <v>5.91599988937378</v>
       </c>
       <c r="G770" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24651,7 +24654,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G771" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24677,7 +24680,7 @@
         <v>5.81099987030029</v>
       </c>
       <c r="G772" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24703,7 +24706,7 @@
         <v>5.7519998550415</v>
       </c>
       <c r="G773" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24729,7 +24732,7 @@
         <v>5.8769998550415</v>
       </c>
       <c r="G774" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24755,7 +24758,7 @@
         <v>5.84899997711182</v>
       </c>
       <c r="G775" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24781,7 +24784,7 @@
         <v>5.90199995040894</v>
       </c>
       <c r="G776" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24807,7 +24810,7 @@
         <v>5.83699989318848</v>
       </c>
       <c r="G777" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24833,7 +24836,7 @@
         <v>5.77400016784668</v>
       </c>
       <c r="G778" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24859,7 +24862,7 @@
         <v>5.92199993133545</v>
       </c>
       <c r="G779" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24885,7 +24888,7 @@
         <v>5.98899984359741</v>
       </c>
       <c r="G780" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24911,7 +24914,7 @@
         <v>6.14900016784668</v>
       </c>
       <c r="G781" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24937,7 +24940,7 @@
         <v>6.2810001373291</v>
       </c>
       <c r="G782" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24963,7 +24966,7 @@
         <v>6.23799991607666</v>
       </c>
       <c r="G783" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24989,7 +24992,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G784" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -25015,7 +25018,7 @@
         <v>6.18200016021729</v>
       </c>
       <c r="G785" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25041,7 +25044,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G786" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25067,7 +25070,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G787" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25093,7 +25096,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G788" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25119,7 +25122,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G789" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25145,7 +25148,7 @@
         <v>6.01599979400635</v>
       </c>
       <c r="G790" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25171,7 +25174,7 @@
         <v>5.89599990844727</v>
       </c>
       <c r="G791" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25197,7 +25200,7 @@
         <v>6</v>
       </c>
       <c r="G792" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25223,7 +25226,7 @@
         <v>5.94799995422363</v>
       </c>
       <c r="G793" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25249,7 +25252,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G794" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25275,7 +25278,7 @@
         <v>6.06699991226196</v>
       </c>
       <c r="G795" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25301,7 +25304,7 @@
         <v>6.16400003433228</v>
       </c>
       <c r="G796" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25327,7 +25330,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G797" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25353,7 +25356,7 @@
         <v>6.13600015640259</v>
       </c>
       <c r="G798" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25379,7 +25382,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G799" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25405,7 +25408,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G800" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25431,7 +25434,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G801" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25457,7 +25460,7 @@
         <v>6.23199987411499</v>
       </c>
       <c r="G802" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25483,7 +25486,7 @@
         <v>6.31899976730347</v>
       </c>
       <c r="G803" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25509,7 +25512,7 @@
         <v>6.18699979782104</v>
       </c>
       <c r="G804" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25535,7 +25538,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G805" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25561,7 +25564,7 @@
         <v>6.30800008773804</v>
       </c>
       <c r="G806" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25587,7 +25590,7 @@
         <v>6.36199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25613,7 +25616,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G808" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25639,7 +25642,7 @@
         <v>6.65299987792969</v>
       </c>
       <c r="G809" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25665,7 +25668,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G810" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25691,7 +25694,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G811" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25717,7 +25720,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25743,7 +25746,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G813" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25769,7 +25772,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G814" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25795,7 +25798,7 @@
         <v>6.65799999237061</v>
       </c>
       <c r="G815" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25821,7 +25824,7 @@
         <v>6.7039999961853</v>
       </c>
       <c r="G816" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25847,7 +25850,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G817" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25873,7 +25876,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G818" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25899,7 +25902,7 @@
         <v>6.64799976348877</v>
       </c>
       <c r="G819" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25925,7 +25928,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G820" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25951,7 +25954,7 @@
         <v>6.55600023269653</v>
       </c>
       <c r="G821" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25977,7 +25980,7 @@
         <v>6.48299980163574</v>
       </c>
       <c r="G822" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26003,7 +26006,7 @@
         <v>6.42799997329712</v>
       </c>
       <c r="G823" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26029,7 +26032,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G824" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26055,7 +26058,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G825" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26081,7 +26084,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G826" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26107,7 +26110,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G827" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26133,7 +26136,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G828" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26159,7 +26162,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G829" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26185,7 +26188,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G830" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26211,7 +26214,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G831" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26237,7 +26240,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26263,7 +26266,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G833" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26289,7 +26292,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G834" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26315,7 +26318,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G835" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26341,7 +26344,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G836" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26367,7 +26370,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G837" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26393,7 +26396,7 @@
         <v>6.75</v>
       </c>
       <c r="G838" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26419,7 +26422,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26445,7 +26448,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26471,7 +26474,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G841" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26497,7 +26500,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G842" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26523,7 +26526,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G843" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26549,7 +26552,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G844" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26575,7 +26578,7 @@
         <v>6.75</v>
       </c>
       <c r="G845" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26601,7 +26604,7 @@
         <v>6.75</v>
       </c>
       <c r="G846" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26627,7 +26630,7 @@
         <v>6.75</v>
       </c>
       <c r="G847" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26653,7 +26656,7 @@
         <v>6.75</v>
       </c>
       <c r="G848" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26679,7 +26682,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G849" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26705,7 +26708,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G850" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26731,7 +26734,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G851" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26757,7 +26760,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G852" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26783,7 +26786,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G853" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26809,7 +26812,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26835,7 +26838,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G855" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26861,7 +26864,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G856" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27251,7 +27254,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G871" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27823,7 +27826,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G893" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -30449,7 +30452,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G994" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30735,7 +30738,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1005" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30839,7 +30842,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1009" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30995,7 +30998,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1015" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31359,7 +31362,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1029" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31411,7 +31414,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1031" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31619,7 +31622,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G1039" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -60929,7 +60932,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6493865741</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>300945</v>
@@ -60950,6 +60953,32 @@
         <v>1321</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6494444444</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>121256</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>1.93599998950958</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>1.90799999237061</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>1.93599998950958</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>1.93400001525879</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89286470413208</t>
+    <t xml:space="preserve">4.89286518096924</t>
   </si>
   <si>
     <t xml:space="preserve">IGD.MI</t>
@@ -59,16 +59,16 @@
     <t xml:space="preserve">4.69488763809204</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72316980361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83347225189209</t>
+    <t xml:space="preserve">4.7231707572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83347177505493</t>
   </si>
   <si>
     <t xml:space="preserve">4.70902919769287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48276948928833</t>
+    <t xml:space="preserve">4.48276901245117</t>
   </si>
   <si>
     <t xml:space="preserve">4.30741834640503</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">4.18580389022827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73328495025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01610851287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0924711227417</t>
+    <t xml:space="preserve">3.73328471183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01610898971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09247064590454</t>
   </si>
   <si>
     <t xml:space="preserve">4.17731904983521</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">4.11226940155029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08398723602295</t>
+    <t xml:space="preserve">4.08398675918579</t>
   </si>
   <si>
     <t xml:space="preserve">3.94540286064148</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10095596313477</t>
+    <t xml:space="preserve">4.10095643997192</t>
   </si>
   <si>
     <t xml:space="preserve">4.21125745773315</t>
@@ -107,19 +107,19 @@
     <t xml:space="preserve">4.05570411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82378840446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91712021827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57490205764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62015438079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81813144683838</t>
+    <t xml:space="preserve">3.82378792762756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91712045669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57490229606628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62015414237976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81813168525696</t>
   </si>
   <si>
     <t xml:space="preserve">3.69086074829102</t>
@@ -128,37 +128,37 @@
     <t xml:space="preserve">3.76439547538757</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01893758773804</t>
+    <t xml:space="preserve">4.01893711090088</t>
   </si>
   <si>
     <t xml:space="preserve">3.95954394340515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07267332077026</t>
+    <t xml:space="preserve">4.07267379760742</t>
   </si>
   <si>
     <t xml:space="preserve">4.00479602813721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19994497299194</t>
+    <t xml:space="preserve">4.19994449615479</t>
   </si>
   <si>
     <t xml:space="preserve">4.1462082862854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0896430015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12358236312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12923908233643</t>
+    <t xml:space="preserve">4.08964347839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12358283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12923860549927</t>
   </si>
   <si>
     <t xml:space="preserve">4.1716628074646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19428777694702</t>
+    <t xml:space="preserve">4.19428825378418</t>
   </si>
   <si>
     <t xml:space="preserve">4.38660907745361</t>
@@ -167,31 +167,31 @@
     <t xml:space="preserve">4.35549831390381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52519273757935</t>
+    <t xml:space="preserve">4.5251932144165</t>
   </si>
   <si>
     <t xml:space="preserve">4.48559761047363</t>
   </si>
   <si>
-    <t xml:space="preserve">4.496910572052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48842668533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58175849914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68357515335083</t>
+    <t xml:space="preserve">4.49690961837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48842620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58175802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68357467651367</t>
   </si>
   <si>
     <t xml:space="preserve">4.6666054725647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61569738388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72882747650146</t>
+    <t xml:space="preserve">4.61569690704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72882699966431</t>
   </si>
   <si>
     <t xml:space="preserve">4.83630037307739</t>
@@ -203,28 +203,28 @@
     <t xml:space="preserve">4.70620059967041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6383228302002</t>
+    <t xml:space="preserve">4.63832235336304</t>
   </si>
   <si>
     <t xml:space="preserve">4.49973917007446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57327270507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57610130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41206359863281</t>
+    <t xml:space="preserve">4.57327365875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57610177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41206407546997</t>
   </si>
   <si>
     <t xml:space="preserve">4.40075063705444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36963987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37246704101562</t>
+    <t xml:space="preserve">4.36963939666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37246751785278</t>
   </si>
   <si>
     <t xml:space="preserve">4.38378095626831</t>
@@ -233,31 +233,31 @@
     <t xml:space="preserve">4.47994136810303</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55347585678101</t>
+    <t xml:space="preserve">4.55347537994385</t>
   </si>
   <si>
     <t xml:space="preserve">4.4686279296875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45448780059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51670837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47428464889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.440345287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41771984100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4431734085083</t>
+    <t xml:space="preserve">4.45448684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5167088508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489124298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47428512573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44034576416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41771936416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44317436218262</t>
   </si>
   <si>
     <t xml:space="preserve">4.55064725875854</t>
@@ -275,16 +275,16 @@
     <t xml:space="preserve">4.4940824508667</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54216241836548</t>
+    <t xml:space="preserve">4.54216289520264</t>
   </si>
   <si>
     <t xml:space="preserve">4.45165872573853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65023183822632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73061323165894</t>
+    <t xml:space="preserve">4.65023136138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73061370849609</t>
   </si>
   <si>
     <t xml:space="preserve">4.81099462509155</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">4.85267448425293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84076547622681</t>
+    <t xml:space="preserve">4.84076595306396</t>
   </si>
   <si>
     <t xml:space="preserve">4.85565185546875</t>
@@ -308,31 +308,31 @@
     <t xml:space="preserve">4.7335901260376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79610919952393</t>
+    <t xml:space="preserve">4.79610872268677</t>
   </si>
   <si>
     <t xml:space="preserve">4.79015493392944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79313278198242</t>
+    <t xml:space="preserve">4.79313182830811</t>
   </si>
   <si>
     <t xml:space="preserve">4.79908609390259</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72168207168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50137615203857</t>
+    <t xml:space="preserve">4.72168159484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50137662887573</t>
   </si>
   <si>
     <t xml:space="preserve">4.2006893157959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22450637817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08755970001221</t>
+    <t xml:space="preserve">4.22450590133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08755922317505</t>
   </si>
   <si>
     <t xml:space="preserve">4.10839891433716</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">4.34656715393066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39420032501221</t>
+    <t xml:space="preserve">4.39420080184937</t>
   </si>
   <si>
     <t xml:space="preserve">4.42397165298462</t>
@@ -353,19 +353,19 @@
     <t xml:space="preserve">4.17389535903931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95954346656799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9774067401886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98931455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37038326263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30191040039062</t>
+    <t xml:space="preserve">3.95954322814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97740697860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98931479454041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37038373947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30190992355347</t>
   </si>
   <si>
     <t xml:space="preserve">4.15603303909302</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">4.00122356414795</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9684751033783</t>
+    <t xml:space="preserve">3.96847534179688</t>
   </si>
   <si>
     <t xml:space="preserve">4.09946775436401</t>
@@ -389,25 +389,22 @@
     <t xml:space="preserve">4.40313148498535</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55496406555176</t>
+    <t xml:space="preserve">4.5549635887146</t>
   </si>
   <si>
     <t xml:space="preserve">4.48351430892944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67404794692993</t>
+    <t xml:space="preserve">4.67404890060425</t>
   </si>
   <si>
     <t xml:space="preserve">4.56984949111938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60855197906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5251932144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6115288734436</t>
+    <t xml:space="preserve">4.60855150222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61152935028076</t>
   </si>
   <si>
     <t xml:space="preserve">4.6948881149292</t>
@@ -416,10 +413,10 @@
     <t xml:space="preserve">4.6859564781189</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64427757263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67107105255127</t>
+    <t xml:space="preserve">4.64427709579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67107057571411</t>
   </si>
   <si>
     <t xml:space="preserve">4.40610933303833</t>
@@ -440,7 +437,7 @@
     <t xml:space="preserve">4.56687259674072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51030731201172</t>
+    <t xml:space="preserve">4.51030778884888</t>
   </si>
   <si>
     <t xml:space="preserve">4.48649120330811</t>
@@ -452,22 +449,22 @@
     <t xml:space="preserve">4.46267366409302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3346586227417</t>
+    <t xml:space="preserve">4.33465909957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.34358978271484</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36740636825562</t>
+    <t xml:space="preserve">4.36740684509277</t>
   </si>
   <si>
     <t xml:space="preserve">4.40908622741699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40015411376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37633848190308</t>
+    <t xml:space="preserve">4.40015459060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37633800506592</t>
   </si>
   <si>
     <t xml:space="preserve">4.287024974823</t>
@@ -479,16 +476,16 @@
     <t xml:space="preserve">4.31084203720093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29893398284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25725317001343</t>
+    <t xml:space="preserve">4.29893350601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25725412368774</t>
   </si>
   <si>
     <t xml:space="preserve">4.35252094268799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29000186920166</t>
+    <t xml:space="preserve">4.29000234603882</t>
   </si>
   <si>
     <t xml:space="preserve">4.32275009155273</t>
@@ -500,64 +497,64 @@
     <t xml:space="preserve">4.07862854003906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99824619293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92977333068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90595555305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97145175933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87618494033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87916207313538</t>
+    <t xml:space="preserve">3.99824643135071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92977356910706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90595579147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97145223617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87618470191956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87916159629822</t>
   </si>
   <si>
     <t xml:space="preserve">3.99229264259338</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95656704902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9267954826355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01313257217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9416811466217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91488766670227</t>
+    <t xml:space="preserve">3.95656609535217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92679595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01313209533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94168090820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91488814353943</t>
   </si>
   <si>
     <t xml:space="preserve">3.89404773712158</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85832262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84046006202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85236811637878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97442936897278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13519287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2036657333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25130033493042</t>
+    <t xml:space="preserve">3.85832214355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84045958518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85236859321594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9744291305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13519239425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20366621017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25129985809326</t>
   </si>
   <si>
     <t xml:space="preserve">4.26023101806641</t>
@@ -572,10 +569,10 @@
     <t xml:space="preserve">4.14114761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11137628555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04885721206665</t>
+    <t xml:space="preserve">4.11137533187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04885673522949</t>
   </si>
   <si>
     <t xml:space="preserve">4.0756516456604</t>
@@ -584,16 +581,16 @@
     <t xml:space="preserve">4.06076526641846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06374216079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03099489212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98038339614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88213968276978</t>
+    <t xml:space="preserve">4.06374263763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0309944152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9803831577301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88213896751404</t>
   </si>
   <si>
     <t xml:space="preserve">3.88809370994568</t>
@@ -602,37 +599,37 @@
     <t xml:space="preserve">3.67969679832458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76900935173035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7958025932312</t>
+    <t xml:space="preserve">3.76900887489319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79580283164978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78389453887939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70351338386536</t>
+    <t xml:space="preserve">3.70351266860962</t>
   </si>
   <si>
     <t xml:space="preserve">3.72137546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72733044624329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75710129737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7511465549469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78687191009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73923873901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9357271194458</t>
+    <t xml:space="preserve">3.72732996940613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75710153579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75114631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78687286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73923850059509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93572759628296</t>
   </si>
   <si>
     <t xml:space="preserve">4.09649038314819</t>
@@ -641,22 +638,22 @@
     <t xml:space="preserve">4.21259737014771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18282651901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26916217803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27511644363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26320886611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51923942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4299259185791</t>
+    <t xml:space="preserve">4.18282747268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26916265487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27511596679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26320838928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51923990249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42992544174194</t>
   </si>
   <si>
     <t xml:space="preserve">4.48946762084961</t>
@@ -674,16 +671,16 @@
     <t xml:space="preserve">4.41801738739014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37336158752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35847616195679</t>
+    <t xml:space="preserve">4.37336111068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35847568511963</t>
   </si>
   <si>
     <t xml:space="preserve">4.32572746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2393913269043</t>
+    <t xml:space="preserve">4.23939085006714</t>
   </si>
   <si>
     <t xml:space="preserve">4.14412403106689</t>
@@ -695,19 +692,19 @@
     <t xml:space="preserve">4.16794109344482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20962047576904</t>
+    <t xml:space="preserve">4.20961999893188</t>
   </si>
   <si>
     <t xml:space="preserve">4.36442947387695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45672035217285</t>
+    <t xml:space="preserve">4.45671939849854</t>
   </si>
   <si>
     <t xml:space="preserve">4.29297924041748</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62641477584839</t>
+    <t xml:space="preserve">4.62641525268555</t>
   </si>
   <si>
     <t xml:space="preserve">4.66809415817261</t>
@@ -716,7 +713,7 @@
     <t xml:space="preserve">4.52817010879517</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59664344787598</t>
+    <t xml:space="preserve">4.59664392471313</t>
   </si>
   <si>
     <t xml:space="preserve">4.75145244598389</t>
@@ -725,22 +722,22 @@
     <t xml:space="preserve">4.78420114517212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72763586044312</t>
+    <t xml:space="preserve">4.72763633728027</t>
   </si>
   <si>
     <t xml:space="preserve">4.88244533538818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87053680419922</t>
+    <t xml:space="preserve">4.87053632736206</t>
   </si>
   <si>
     <t xml:space="preserve">4.96878099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89435338973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86756038665771</t>
+    <t xml:space="preserve">4.89435386657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8675594329834</t>
   </si>
   <si>
     <t xml:space="preserve">4.86458301544189</t>
@@ -749,73 +746,73 @@
     <t xml:space="preserve">4.80504083633423</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7812237739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70381927490234</t>
+    <t xml:space="preserve">4.78122425079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70381879806519</t>
   </si>
   <si>
     <t xml:space="preserve">4.68297910690308</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61450624465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76336050033569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8764910697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82588005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90923929214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93007946014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91221618652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94794178009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93603324890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98962163925171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0967960357666</t>
+    <t xml:space="preserve">4.61450576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76336145401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87649059295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82587957382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90923881530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93007898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9122166633606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94794130325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93603277206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98962116241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09679651260376</t>
   </si>
   <si>
     <t xml:space="preserve">5.12061357498169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15633916854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19801807403564</t>
+    <t xml:space="preserve">5.15633869171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1980185508728</t>
   </si>
   <si>
     <t xml:space="preserve">5.23076629638672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06107091903687</t>
+    <t xml:space="preserve">5.06107139587402</t>
   </si>
   <si>
     <t xml:space="preserve">5.03130006790161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99557495117188</t>
+    <t xml:space="preserve">4.99557542800903</t>
   </si>
   <si>
     <t xml:space="preserve">5.04405927658081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08096647262573</t>
+    <t xml:space="preserve">5.08096694946289</t>
   </si>
   <si>
     <t xml:space="preserve">5.10557222366333</t>
@@ -824,31 +821,31 @@
     <t xml:space="preserve">5.06866407394409</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09019422531128</t>
+    <t xml:space="preserve">5.09019470214844</t>
   </si>
   <si>
     <t xml:space="preserve">5.18553876876831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13940382003784</t>
+    <t xml:space="preserve">5.139404296875</t>
   </si>
   <si>
     <t xml:space="preserve">5.14248037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06251287460327</t>
+    <t xml:space="preserve">5.06251335144043</t>
   </si>
   <si>
     <t xml:space="preserve">5.11787462234497</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11172389984131</t>
+    <t xml:space="preserve">5.11172294616699</t>
   </si>
   <si>
     <t xml:space="preserve">5.09942102432251</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05636167526245</t>
+    <t xml:space="preserve">5.05636215209961</t>
   </si>
   <si>
     <t xml:space="preserve">5.02252960205078</t>
@@ -863,19 +860,19 @@
     <t xml:space="preserve">4.91488218307495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95179033279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89642810821533</t>
+    <t xml:space="preserve">4.95178985595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89642906188965</t>
   </si>
   <si>
     <t xml:space="preserve">4.82261276245117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6903600692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74264526367188</t>
+    <t xml:space="preserve">4.69036054611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74264621734619</t>
   </si>
   <si>
     <t xml:space="preserve">4.7764778137207</t>
@@ -884,28 +881,28 @@
     <t xml:space="preserve">4.86567211151123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88412570953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79800796508789</t>
+    <t xml:space="preserve">4.88412523269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79800748825073</t>
   </si>
   <si>
     <t xml:space="preserve">4.89027690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98254632949829</t>
+    <t xml:space="preserve">4.98254680633545</t>
   </si>
   <si>
     <t xml:space="preserve">4.9979248046875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1086483001709</t>
+    <t xml:space="preserve">5.10864877700806</t>
   </si>
   <si>
     <t xml:space="preserve">5.11479902267456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15478324890137</t>
+    <t xml:space="preserve">5.15478229522705</t>
   </si>
   <si>
     <t xml:space="preserve">5.12402629852295</t>
@@ -917,13 +914,13 @@
     <t xml:space="preserve">5.01330327987671</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05943727493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17631196975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22859764099121</t>
+    <t xml:space="preserve">5.05943775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17631244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22859811782837</t>
   </si>
   <si>
     <t xml:space="preserve">5.22244691848755</t>
@@ -932,10 +929,10 @@
     <t xml:space="preserve">5.17016077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15785884857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3362455368042</t>
+    <t xml:space="preserve">5.15785837173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33624601364136</t>
   </si>
   <si>
     <t xml:space="preserve">5.30241394042969</t>
@@ -950,16 +947,16 @@
     <t xml:space="preserve">5.25627899169922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27165746688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29011106491089</t>
+    <t xml:space="preserve">5.27165699005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29011154174805</t>
   </si>
   <si>
     <t xml:space="preserve">5.21321964263916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20091676712036</t>
+    <t xml:space="preserve">5.20091724395752</t>
   </si>
   <si>
     <t xml:space="preserve">5.14863109588623</t>
@@ -977,16 +974,16 @@
     <t xml:space="preserve">5.24090099334717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31471633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41313648223877</t>
+    <t xml:space="preserve">5.31471586227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41313695907593</t>
   </si>
   <si>
     <t xml:space="preserve">5.42543888092041</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41928815841675</t>
+    <t xml:space="preserve">5.41928863525391</t>
   </si>
   <si>
     <t xml:space="preserve">5.37622928619385</t>
@@ -995,16 +992,16 @@
     <t xml:space="preserve">5.35162401199341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36392593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38853168487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3731541633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42851495742798</t>
+    <t xml:space="preserve">5.36392641067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38853216171265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37315368652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42851448059082</t>
   </si>
   <si>
     <t xml:space="preserve">5.43159055709839</t>
@@ -1016,7 +1013,7 @@
     <t xml:space="preserve">5.32701921463013</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34239673614502</t>
+    <t xml:space="preserve">5.34239721298218</t>
   </si>
   <si>
     <t xml:space="preserve">5.39468240737915</t>
@@ -1025,10 +1022,10 @@
     <t xml:space="preserve">5.53616285324097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62843132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84372711181641</t>
+    <t xml:space="preserve">5.62843084335327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84372758865356</t>
   </si>
   <si>
     <t xml:space="preserve">5.87448406219482</t>
@@ -1043,22 +1040,22 @@
     <t xml:space="preserve">5.75145769119263</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78836488723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7822151184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69302082061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76991176605225</t>
+    <t xml:space="preserve">5.78836536407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78221416473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69302034378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7699122428894</t>
   </si>
   <si>
     <t xml:space="preserve">5.94829940795898</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10515785217285</t>
+    <t xml:space="preserve">6.10515689849854</t>
   </si>
   <si>
     <t xml:space="preserve">6.1205358505249</t>
@@ -1067,16 +1064,16 @@
     <t xml:space="preserve">6.4157977104187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4034948348999</t>
+    <t xml:space="preserve">6.40349578857422</t>
   </si>
   <si>
     <t xml:space="preserve">6.32352828979492</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33583164215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36658668518066</t>
+    <t xml:space="preserve">6.33583068847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36658716201782</t>
   </si>
   <si>
     <t xml:space="preserve">6.24356079101562</t>
@@ -1106,76 +1103,76 @@
     <t xml:space="preserve">6.60648775100708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55112600326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65569686889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69260501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63724374771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6249418258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45885610580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5757303237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66800117492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82793474197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81563138961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95095920562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88944721221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70490837097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28046941757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02826642990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96675252914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0098123550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87755918502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93599605560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01903867721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92984533309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92369318008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05902242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06517457962036</t>
+    <t xml:space="preserve">6.55112552642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6556978225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69260597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63724422454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62494087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45885753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57573127746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6680006980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82793426513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81563186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95096015930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88944673538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70490789413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28046846389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02826595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96675300598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00981187820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87755966186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93599557876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01903915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92984580993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92369365692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05902290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06517362594604</t>
   </si>
   <si>
     <t xml:space="preserve">6.1635947227478</t>
@@ -1184,10 +1181,10 @@
     <t xml:space="preserve">6.13283777236938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060228347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90523958206177</t>
+    <t xml:space="preserve">5.96060180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90524005889893</t>
   </si>
   <si>
     <t xml:space="preserve">5.99750947952271</t>
@@ -1196,28 +1193,28 @@
     <t xml:space="preserve">5.9544506072998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88063478469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89293813705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85602998733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69609642028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64688587188721</t>
+    <t xml:space="preserve">5.88063526153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89293766021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85602951049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69609594345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64688634872437</t>
   </si>
   <si>
     <t xml:space="preserve">5.52385997772217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33316993713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49310350418091</t>
+    <t xml:space="preserve">5.33316946029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49310398101807</t>
   </si>
   <si>
     <t xml:space="preserve">5.21014451980591</t>
@@ -1229,7 +1226,7 @@
     <t xml:space="preserve">5.17323684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03790807723999</t>
+    <t xml:space="preserve">5.03790760040283</t>
   </si>
   <si>
     <t xml:space="preserve">5.01945447921753</t>
@@ -1241,46 +1238,46 @@
     <t xml:space="preserve">4.92103290557861</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95978593826294</t>
+    <t xml:space="preserve">4.9597864151001</t>
   </si>
   <si>
     <t xml:space="preserve">4.87059259414673</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74633693695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63192319869995</t>
+    <t xml:space="preserve">4.74633646011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63192272186279</t>
   </si>
   <si>
     <t xml:space="preserve">4.62269592285156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68728399276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82568836212158</t>
+    <t xml:space="preserve">4.68728446960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82568788528442</t>
   </si>
   <si>
     <t xml:space="preserve">4.82937908172607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71188926696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65283727645874</t>
+    <t xml:space="preserve">4.71188974380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65283679962158</t>
   </si>
   <si>
     <t xml:space="preserve">4.66821479797363</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56425857543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51873874664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44738388061523</t>
+    <t xml:space="preserve">4.56425809860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51873826980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44738340377808</t>
   </si>
   <si>
     <t xml:space="preserve">4.63991975784302</t>
@@ -1292,46 +1289,46 @@
     <t xml:space="preserve">4.59501504898071</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44184827804565</t>
+    <t xml:space="preserve">4.4418478012085</t>
   </si>
   <si>
     <t xml:space="preserve">4.33666086196899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73106288909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81509685516357</t>
+    <t xml:space="preserve">4.73106241226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81509733200073</t>
   </si>
   <si>
     <t xml:space="preserve">5.27894020080566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02088165283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12807512283325</t>
+    <t xml:space="preserve">5.02088212966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12807559967041</t>
   </si>
   <si>
     <t xml:space="preserve">5.32128810882568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53170442581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46487426757812</t>
+    <t xml:space="preserve">5.53170394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46487379074097</t>
   </si>
   <si>
     <t xml:space="preserve">5.35635757446289</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18564176559448</t>
+    <t xml:space="preserve">5.18564128875732</t>
   </si>
   <si>
     <t xml:space="preserve">5.14130926132202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22666645050049</t>
+    <t xml:space="preserve">5.22666692733765</t>
   </si>
   <si>
     <t xml:space="preserve">5.16115999221802</t>
@@ -1343,22 +1340,22 @@
     <t xml:space="preserve">5.20549297332764</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18895053863525</t>
+    <t xml:space="preserve">5.1889500617981</t>
   </si>
   <si>
     <t xml:space="preserve">5.19953727722168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18762683868408</t>
+    <t xml:space="preserve">5.18762731552124</t>
   </si>
   <si>
     <t xml:space="preserve">5.26041221618652</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10557842254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09565258026123</t>
+    <t xml:space="preserve">5.10557794570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09565305709839</t>
   </si>
   <si>
     <t xml:space="preserve">5.13667678833008</t>
@@ -1367,7 +1364,7 @@
     <t xml:space="preserve">5.19887542724609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21409463882446</t>
+    <t xml:space="preserve">5.2140941619873</t>
   </si>
   <si>
     <t xml:space="preserve">5.19424390792847</t>
@@ -1388,10 +1385,10 @@
     <t xml:space="preserve">5.31864070892334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15057229995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92890691757202</t>
+    <t xml:space="preserve">5.15057277679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92890787124634</t>
   </si>
   <si>
     <t xml:space="preserve">5.00169324874878</t>
@@ -1400,16 +1397,16 @@
     <t xml:space="preserve">4.94611167907715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89648485183716</t>
+    <t xml:space="preserve">4.896484375</t>
   </si>
   <si>
     <t xml:space="preserve">4.87729549407959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82369899749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70790386199951</t>
+    <t xml:space="preserve">4.82369947433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70790338516235</t>
   </si>
   <si>
     <t xml:space="preserve">4.47631311416626</t>
@@ -1418,7 +1415,7 @@
     <t xml:space="preserve">4.73172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81311273574829</t>
+    <t xml:space="preserve">4.81311178207397</t>
   </si>
   <si>
     <t xml:space="preserve">4.79061460494995</t>
@@ -1430,10 +1427,10 @@
     <t xml:space="preserve">4.98581218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95934438705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.845534324646</t>
+    <t xml:space="preserve">4.9593448638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84553480148315</t>
   </si>
   <si>
     <t xml:space="preserve">4.74495840072632</t>
@@ -1445,7 +1442,7 @@
     <t xml:space="preserve">5.16319179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05792284011841</t>
+    <t xml:space="preserve">5.05792236328125</t>
   </si>
   <si>
     <t xml:space="preserve">5.15607929229736</t>
@@ -1454,13 +1451,13 @@
     <t xml:space="preserve">5.20515727996826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95905447006226</t>
+    <t xml:space="preserve">4.9590539932251</t>
   </si>
   <si>
     <t xml:space="preserve">4.96047639846802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9249119758606</t>
+    <t xml:space="preserve">4.92491245269775</t>
   </si>
   <si>
     <t xml:space="preserve">4.90997552871704</t>
@@ -1469,7 +1466,7 @@
     <t xml:space="preserve">5.02875947952271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95549726486206</t>
+    <t xml:space="preserve">4.95549774169922</t>
   </si>
   <si>
     <t xml:space="preserve">4.97897005081177</t>
@@ -1478,22 +1475,22 @@
     <t xml:space="preserve">4.89005994796753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93629264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89503908157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01240015029907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95194101333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93415880203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08566236495972</t>
+    <t xml:space="preserve">4.93629312515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89503860473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01239967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95194053649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93415927886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08566188812256</t>
   </si>
   <si>
     <t xml:space="preserve">5.14967727661133</t>
@@ -1508,16 +1505,16 @@
     <t xml:space="preserve">5.01737880706787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02804851531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06859159469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10486650466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16390323638916</t>
+    <t xml:space="preserve">5.02804803848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06859111785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10486698150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16390371322632</t>
   </si>
   <si>
     <t xml:space="preserve">5.22862958908081</t>
@@ -1529,7 +1526,7 @@
     <t xml:space="preserve">5.15110015869141</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16461420059204</t>
+    <t xml:space="preserve">5.1646146774292</t>
   </si>
   <si>
     <t xml:space="preserve">5.02591466903687</t>
@@ -1538,7 +1535,7 @@
     <t xml:space="preserve">5.15679025650024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01951265335083</t>
+    <t xml:space="preserve">5.01951360702515</t>
   </si>
   <si>
     <t xml:space="preserve">5.07214784622192</t>
@@ -1547,7 +1544,7 @@
     <t xml:space="preserve">5.14327573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10913419723511</t>
+    <t xml:space="preserve">5.10913467407227</t>
   </si>
   <si>
     <t xml:space="preserve">5.0863733291626</t>
@@ -1562,10 +1559,10 @@
     <t xml:space="preserve">4.92277860641479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9142427444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83173513412476</t>
+    <t xml:space="preserve">4.91424322128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8317346572876</t>
   </si>
   <si>
     <t xml:space="preserve">4.73926830291748</t>
@@ -1574,13 +1571,13 @@
     <t xml:space="preserve">4.6994366645813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61692810058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63684415817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67525243759155</t>
+    <t xml:space="preserve">4.61692762374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63684368133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67525291442871</t>
   </si>
   <si>
     <t xml:space="preserve">4.76487445831299</t>
@@ -1592,7 +1589,7 @@
     <t xml:space="preserve">4.68592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69445705413818</t>
+    <t xml:space="preserve">4.69445753097534</t>
   </si>
   <si>
     <t xml:space="preserve">4.73713397979736</t>
@@ -1601,7 +1598,7 @@
     <t xml:space="preserve">4.70868301391602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73002147674561</t>
+    <t xml:space="preserve">4.73002099990845</t>
   </si>
   <si>
     <t xml:space="preserve">4.7093939781189</t>
@@ -1610,31 +1607,31 @@
     <t xml:space="preserve">4.66173839569092</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67169618606567</t>
+    <t xml:space="preserve">4.67169666290283</t>
   </si>
   <si>
     <t xml:space="preserve">4.64537906646729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667579650879</t>
+    <t xml:space="preserve">4.67667484283447</t>
   </si>
   <si>
     <t xml:space="preserve">4.67454147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68663311004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66600608825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68094301223755</t>
+    <t xml:space="preserve">4.68663358688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66600561141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68094253540039</t>
   </si>
   <si>
     <t xml:space="preserve">4.63968849182129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63186407089233</t>
+    <t xml:space="preserve">4.63186454772949</t>
   </si>
   <si>
     <t xml:space="preserve">4.94909620285034</t>
@@ -1649,55 +1646,55 @@
     <t xml:space="preserve">4.86516523361206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89361619949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8729887008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80683994293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79332494735718</t>
+    <t xml:space="preserve">4.89361667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87298917770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80683946609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79332542419434</t>
   </si>
   <si>
     <t xml:space="preserve">4.70726013183594</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66387176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56784915924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5799412727356</t>
+    <t xml:space="preserve">4.66387224197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56784963607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57994079589844</t>
   </si>
   <si>
     <t xml:space="preserve">4.55220079421997</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48178434371948</t>
+    <t xml:space="preserve">4.48178482055664</t>
   </si>
   <si>
     <t xml:space="preserve">4.36797904968262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34948539733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30609750747681</t>
+    <t xml:space="preserve">4.34948587417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30609703063965</t>
   </si>
   <si>
     <t xml:space="preserve">4.20651817321777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2342586517334</t>
+    <t xml:space="preserve">4.23425817489624</t>
   </si>
   <si>
     <t xml:space="preserve">4.12543249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19940519332886</t>
+    <t xml:space="preserve">4.19940567016602</t>
   </si>
   <si>
     <t xml:space="preserve">4.23852586746216</t>
@@ -1706,13 +1703,13 @@
     <t xml:space="preserve">4.1894474029541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19300413131714</t>
+    <t xml:space="preserve">4.19300365447998</t>
   </si>
   <si>
     <t xml:space="preserve">4.24634981155396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23212480545044</t>
+    <t xml:space="preserve">4.23212432861328</t>
   </si>
   <si>
     <t xml:space="preserve">4.22927951812744</t>
@@ -1727,28 +1724,28 @@
     <t xml:space="preserve">4.43341684341431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44550848007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43768405914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36655712127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29613971710205</t>
+    <t xml:space="preserve">4.44550895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43768453598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3665566444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29613924026489</t>
   </si>
   <si>
     <t xml:space="preserve">4.51663684844971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42345905303955</t>
+    <t xml:space="preserve">4.42345857620239</t>
   </si>
   <si>
     <t xml:space="preserve">4.37082386016846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33952760696411</t>
+    <t xml:space="preserve">4.33952808380127</t>
   </si>
   <si>
     <t xml:space="preserve">4.2698221206665</t>
@@ -1757,25 +1754,25 @@
     <t xml:space="preserve">4.29542827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27764654159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23283529281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17166566848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17379951477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19442653656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2883152961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3694019317627</t>
+    <t xml:space="preserve">4.2776460647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23283576965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17166519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17379903793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19442701339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28831577301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36940145492554</t>
   </si>
   <si>
     <t xml:space="preserve">4.38149309158325</t>
@@ -1793,40 +1790,40 @@
     <t xml:space="preserve">4.18375730514526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16810989379883</t>
+    <t xml:space="preserve">4.16810894012451</t>
   </si>
   <si>
     <t xml:space="preserve">4.13041162490845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13681268692017</t>
+    <t xml:space="preserve">4.13681221008301</t>
   </si>
   <si>
     <t xml:space="preserve">4.09982585906982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0208740234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11974143981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04007816314697</t>
+    <t xml:space="preserve">4.02087354660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11974191665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04007863998413</t>
   </si>
   <si>
     <t xml:space="preserve">4.00735950469971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91204786300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83807444572449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82242679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225819587708</t>
+    <t xml:space="preserve">3.91204810142517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83807468414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82242655754089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225771903992</t>
   </si>
   <si>
     <t xml:space="preserve">3.85727882385254</t>
@@ -1835,22 +1832,22 @@
     <t xml:space="preserve">3.77477073669434</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82811689376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96326041221619</t>
+    <t xml:space="preserve">3.82811665534973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96326017379761</t>
   </si>
   <si>
     <t xml:space="preserve">4.03438806533813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13112211227417</t>
+    <t xml:space="preserve">4.13112258911133</t>
   </si>
   <si>
     <t xml:space="preserve">4.11547422409058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20296144485474</t>
+    <t xml:space="preserve">4.20296192169189</t>
   </si>
   <si>
     <t xml:space="preserve">4.18802499771118</t>
@@ -1862,13 +1859,13 @@
     <t xml:space="preserve">4.18233489990234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13325595855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09129047393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18020105361938</t>
+    <t xml:space="preserve">4.13325643539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09129095077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18020057678223</t>
   </si>
   <si>
     <t xml:space="preserve">4.16028499603271</t>
@@ -1883,22 +1880,22 @@
     <t xml:space="preserve">4.1069393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21220874786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25986433029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37366914749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46755838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43697309494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43839645385742</t>
+    <t xml:space="preserve">4.21220827102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25986480712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37366962432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46755886077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43697357177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43839597702026</t>
   </si>
   <si>
     <t xml:space="preserve">4.39714193344116</t>
@@ -1940,13 +1937,13 @@
     <t xml:space="preserve">4.36726760864258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36442279815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36015462875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30680894851685</t>
+    <t xml:space="preserve">4.3644232749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36015510559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30680847167969</t>
   </si>
   <si>
     <t xml:space="preserve">4.43270587921143</t>
@@ -1964,13 +1961,13 @@
     <t xml:space="preserve">4.5251727104187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65889358520508</t>
+    <t xml:space="preserve">4.65889406204224</t>
   </si>
   <si>
     <t xml:space="preserve">4.73215532302856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63044214248657</t>
+    <t xml:space="preserve">4.63044261932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.59487819671631</t>
@@ -1982,7 +1979,7 @@
     <t xml:space="preserve">4.71366167068481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73571157455444</t>
+    <t xml:space="preserve">4.7357120513916</t>
   </si>
   <si>
     <t xml:space="preserve">4.76843070983887</t>
@@ -2015,70 +2012,73 @@
     <t xml:space="preserve">4.58065223693848</t>
   </si>
   <si>
+    <t xml:space="preserve">4.70157051086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68023157119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71579599380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74424695968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60910367965698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63755464553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68734502792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72290897369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75847244262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80114936828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77269792556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77981090545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78692388534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87939071655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81537485122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65178060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70926475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77082347869873</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.7015700340271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68023157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71579551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74424743652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60910367965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63755464553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68734455108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72290849685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75847244262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80114936828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77269840240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77981090545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78692388534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87939071655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81537532806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65178060531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70926523208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77082347869873</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.76312923431396</t>
   </si>
   <si>
     <t xml:space="preserve">4.78621339797974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85546779632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90163660049438</t>
+    <t xml:space="preserve">4.85546731948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90163707733154</t>
   </si>
   <si>
     <t xml:space="preserve">4.87855243682861</t>
@@ -2096,19 +2096,19 @@
     <t xml:space="preserve">4.67079067230225</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73234939575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72465467453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71695947647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80929803848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8016037940979</t>
+    <t xml:space="preserve">4.73234987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72465419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71695995330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80929851531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80160331726074</t>
   </si>
   <si>
     <t xml:space="preserve">4.74004411697388</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">4.60153675079346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53228282928467</t>
+    <t xml:space="preserve">4.53228235244751</t>
   </si>
   <si>
     <t xml:space="preserve">4.57845211029053</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">4.52458810806274</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57075691223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5091986656189</t>
+    <t xml:space="preserve">4.5707573890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50919818878174</t>
   </si>
   <si>
     <t xml:space="preserve">4.47841882705688</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">4.58614730834961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55536699295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53997755050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54767274856567</t>
+    <t xml:space="preserve">4.55536794662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53997802734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54767227172852</t>
   </si>
   <si>
     <t xml:space="preserve">4.50150299072266</t>
@@ -2177,13 +2177,13 @@
     <t xml:space="preserve">4.39377498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34760618209839</t>
+    <t xml:space="preserve">4.34760570526123</t>
   </si>
   <si>
     <t xml:space="preserve">4.33991050720215</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24757194519043</t>
+    <t xml:space="preserve">4.24757242202759</t>
   </si>
   <si>
     <t xml:space="preserve">4.27835178375244</t>
@@ -2195,13 +2195,13 @@
     <t xml:space="preserve">4.16292858123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07059001922607</t>
+    <t xml:space="preserve">4.07059049606323</t>
   </si>
   <si>
     <t xml:space="preserve">4.03981065750122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.093674659729</t>
+    <t xml:space="preserve">4.09367513656616</t>
   </si>
   <si>
     <t xml:space="preserve">4.03211545944214</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">4.18601322174072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20909786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23987770080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30913162231445</t>
+    <t xml:space="preserve">4.20909738540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23987722396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30913114547729</t>
   </si>
   <si>
     <t xml:space="preserve">4.33221578598022</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">4.31682634353638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25526762008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28604698181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27065706253052</t>
+    <t xml:space="preserve">4.25526714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28604650497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27065658569336</t>
   </si>
   <si>
     <t xml:space="preserve">4.30143642425537</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">4.42455434799194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44763898849487</t>
+    <t xml:space="preserve">4.44763946533203</t>
   </si>
   <si>
     <t xml:space="preserve">4.43224954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56306219100952</t>
+    <t xml:space="preserve">4.56306171417236</t>
   </si>
   <si>
     <t xml:space="preserve">4.59384155273438</t>
@@ -2294,16 +2294,16 @@
     <t xml:space="preserve">4.61692667007446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62462091445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60923099517822</t>
+    <t xml:space="preserve">4.62462139129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60923147201538</t>
   </si>
   <si>
     <t xml:space="preserve">4.82468795776367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90933227539062</t>
+    <t xml:space="preserve">4.90933179855347</t>
   </si>
   <si>
     <t xml:space="preserve">4.95550107955933</t>
@@ -2330,13 +2330,13 @@
     <t xml:space="preserve">4.88624715805054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8477725982666</t>
+    <t xml:space="preserve">4.84777307510376</t>
   </si>
   <si>
     <t xml:space="preserve">4.2244873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20140314102173</t>
+    <t xml:space="preserve">4.20140266418457</t>
   </si>
   <si>
     <t xml:space="preserve">4.10136985778809</t>
@@ -2345,25 +2345,25 @@
     <t xml:space="preserve">4.06289529800415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60120248794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50116944313049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49347424507141</t>
+    <t xml:space="preserve">3.60120272636414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50116920471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49347448348999</t>
   </si>
   <si>
     <t xml:space="preserve">2.81247782707214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.858647108078</t>
+    <t xml:space="preserve">2.85864686965942</t>
   </si>
   <si>
     <t xml:space="preserve">2.62780046463013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66242742538452</t>
+    <t xml:space="preserve">2.6624276638031</t>
   </si>
   <si>
     <t xml:space="preserve">2.79708790779114</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">2.98561239242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90481615066528</t>
+    <t xml:space="preserve">2.90481638908386</t>
   </si>
   <si>
     <t xml:space="preserve">2.93174815177917</t>
@@ -2393,25 +2393,25 @@
     <t xml:space="preserve">2.77785086631775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88557910919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90096879005432</t>
+    <t xml:space="preserve">2.88557887077332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90096855163574</t>
   </si>
   <si>
     <t xml:space="preserve">2.84710478782654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79324054718018</t>
+    <t xml:space="preserve">2.79324078559875</t>
   </si>
   <si>
     <t xml:space="preserve">2.8086302280426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86249423027039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83171510696411</t>
+    <t xml:space="preserve">2.86249446868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83171463012695</t>
   </si>
   <si>
     <t xml:space="preserve">2.78939294815063</t>
@@ -2426,10 +2426,10 @@
     <t xml:space="preserve">2.78554558753967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72013926506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7162914276123</t>
+    <t xml:space="preserve">2.72013902664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71629190444946</t>
   </si>
   <si>
     <t xml:space="preserve">2.73168158531189</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">2.74707126617432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.704749584198</t>
+    <t xml:space="preserve">2.70474934577942</t>
   </si>
   <si>
     <t xml:space="preserve">2.6970546245575</t>
@@ -2447,16 +2447,16 @@
     <t xml:space="preserve">2.72398662567139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68166446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64319038391113</t>
+    <t xml:space="preserve">2.68166470527649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64319014549255</t>
   </si>
   <si>
     <t xml:space="preserve">2.53930950164795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5085301399231</t>
+    <t xml:space="preserve">2.50852990150452</t>
   </si>
   <si>
     <t xml:space="preserve">2.47775053977966</t>
@@ -2465,13 +2465,13 @@
     <t xml:space="preserve">2.48544549942017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55469918251038</t>
+    <t xml:space="preserve">2.55469942092896</t>
   </si>
   <si>
     <t xml:space="preserve">2.42003893852234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31231045722961</t>
+    <t xml:space="preserve">2.31231069564819</t>
   </si>
   <si>
     <t xml:space="preserve">2.33539533615112</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">2.49698758125305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52391982078552</t>
+    <t xml:space="preserve">2.52391958236694</t>
   </si>
   <si>
     <t xml:space="preserve">2.60086870193481</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">2.70090198516846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70859670639038</t>
+    <t xml:space="preserve">2.70859694480896</t>
   </si>
   <si>
     <t xml:space="preserve">2.87403655052185</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">2.75324726104736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72037267684937</t>
+    <t xml:space="preserve">2.72037291526794</t>
   </si>
   <si>
     <t xml:space="preserve">2.66284227371216</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">2.60531187057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54778099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53956246376038</t>
+    <t xml:space="preserve">2.54778122901917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5395622253418</t>
   </si>
   <si>
     <t xml:space="preserve">2.51079726219177</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">2.57243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60120224952698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56832766532898</t>
+    <t xml:space="preserve">2.60120248794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56832790374756</t>
   </si>
   <si>
     <t xml:space="preserve">2.52312517166138</t>
@@ -2627,10 +2627,10 @@
     <t xml:space="preserve">2.46559476852417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47792291641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4121732711792</t>
+    <t xml:space="preserve">2.47792267799377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41217350959778</t>
   </si>
   <si>
     <t xml:space="preserve">2.45326662063599</t>
@@ -2645,22 +2645,22 @@
     <t xml:space="preserve">2.53134369850159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58887434005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65462374687195</t>
+    <t xml:space="preserve">2.58887457847595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65462350845337</t>
   </si>
   <si>
     <t xml:space="preserve">2.60942101478577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38340830802917</t>
+    <t xml:space="preserve">2.3834080696106</t>
   </si>
   <si>
     <t xml:space="preserve">2.3628613948822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38751745223999</t>
+    <t xml:space="preserve">2.38751769065857</t>
   </si>
   <si>
     <t xml:space="preserve">2.36697101593018</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">2.03411555290222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04644370079041</t>
+    <t xml:space="preserve">2.04644346237183</t>
   </si>
   <si>
     <t xml:space="preserve">2.05055284500122</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">2.157395362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16561412811279</t>
+    <t xml:space="preserve">2.16561388969421</t>
   </si>
   <si>
     <t xml:space="preserve">2.15328598022461</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">2.90940165519714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86830854415894</t>
+    <t xml:space="preserve">2.86830830574036</t>
   </si>
   <si>
     <t xml:space="preserve">2.83543395996094</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">2.96282291412354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94638586044312</t>
+    <t xml:space="preserve">2.94638562202454</t>
   </si>
   <si>
     <t xml:space="preserve">2.95460438728333</t>
@@ -2753,13 +2753,13 @@
     <t xml:space="preserve">2.88063645362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97104144096375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95049476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03679060935974</t>
+    <t xml:space="preserve">2.97104167938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95049500465393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03679084777832</t>
   </si>
   <si>
     <t xml:space="preserve">3.06555604934692</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">3.01213479042053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87652707099915</t>
+    <t xml:space="preserve">2.87652730941772</t>
   </si>
   <si>
     <t xml:space="preserve">2.92994832992554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04911875724792</t>
+    <t xml:space="preserve">3.0491189956665</t>
   </si>
   <si>
     <t xml:space="preserve">3.08199334144592</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">2.92583894729614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00391626358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04090023040771</t>
+    <t xml:space="preserve">3.00391602516174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04089999198914</t>
   </si>
   <si>
     <t xml:space="preserve">3.04500937461853</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05733728408813</t>
+    <t xml:space="preserve">3.05733752250671</t>
   </si>
   <si>
     <t xml:space="preserve">3.07788395881653</t>
@@ -2819,13 +2819,13 @@
     <t xml:space="preserve">3.10254001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06966519355774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98747897148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90118288993835</t>
+    <t xml:space="preserve">3.06966543197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98747873306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90118312835693</t>
   </si>
   <si>
     <t xml:space="preserve">2.92172980308533</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">3.00802540779114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02446293830872</t>
+    <t xml:space="preserve">3.02446269989014</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610272407532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12719583511353</t>
+    <t xml:space="preserve">3.1271960735321</t>
   </si>
   <si>
     <t xml:space="preserve">3.15185189247131</t>
@@ -2858,22 +2858,22 @@
     <t xml:space="preserve">3.2874596118927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1600706577301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22581958770752</t>
+    <t xml:space="preserve">3.16007041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2258198261261</t>
   </si>
   <si>
     <t xml:space="preserve">3.14774250984192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21349167823792</t>
+    <t xml:space="preserve">3.21349191665649</t>
   </si>
   <si>
     <t xml:space="preserve">3.13130521774292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17239856719971</t>
+    <t xml:space="preserve">3.17239832878113</t>
   </si>
   <si>
     <t xml:space="preserve">3.17650771141052</t>
@@ -2909,22 +2909,22 @@
     <t xml:space="preserve">2.81899666786194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84776186943054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91351103782654</t>
+    <t xml:space="preserve">2.84776163101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91351127624512</t>
   </si>
   <si>
     <t xml:space="preserve">3.09843063354492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26280355453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18061709403992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24636626243591</t>
+    <t xml:space="preserve">3.26280379295349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18061685562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24636650085449</t>
   </si>
   <si>
     <t xml:space="preserve">3.18883585929871</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">3.3655366897583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38197374343872</t>
+    <t xml:space="preserve">3.3819739818573</t>
   </si>
   <si>
     <t xml:space="preserve">3.41484880447388</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">3.44361400604248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51347255706787</t>
+    <t xml:space="preserve">3.51347231864929</t>
   </si>
   <si>
     <t xml:space="preserve">3.38608336448669</t>
@@ -2963,25 +2963,25 @@
     <t xml:space="preserve">3.40663003921509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3490993976593</t>
+    <t xml:space="preserve">3.34909915924072</t>
   </si>
   <si>
     <t xml:space="preserve">3.34499025344849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32033395767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36964583396912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3162248134613</t>
+    <t xml:space="preserve">3.3203341960907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3696460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31622457504272</t>
   </si>
   <si>
     <t xml:space="preserve">3.32444357872009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3367714881897</t>
+    <t xml:space="preserve">3.33677124977112</t>
   </si>
   <si>
     <t xml:space="preserve">3.30800628662109</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">3.31211566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37786483764648</t>
+    <t xml:space="preserve">3.37786459922791</t>
   </si>
   <si>
     <t xml:space="preserve">3.43128609657288</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">3.46005129814148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52990984916687</t>
+    <t xml:space="preserve">3.52990961074829</t>
   </si>
   <si>
     <t xml:space="preserve">3.5258002281189</t>
@@ -3011,25 +3011,25 @@
     <t xml:space="preserve">3.68195462226868</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79701566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81756258010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82167172431946</t>
+    <t xml:space="preserve">3.79701590538025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81756234169006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82167196273804</t>
   </si>
   <si>
     <t xml:space="preserve">3.79290628433228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76414132118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64086151123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57511210441589</t>
+    <t xml:space="preserve">3.76414084434509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64086127281189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57511234283447</t>
   </si>
   <si>
     <t xml:space="preserve">3.64497065544128</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">3.5710027217865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55867481231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45594191551208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35731816291809</t>
+    <t xml:space="preserve">3.55867505073547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45594167709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35731792449951</t>
   </si>
   <si>
     <t xml:space="preserve">3.37375545501709</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">3.45183229446411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43950438499451</t>
+    <t xml:space="preserve">3.43950462341309</t>
   </si>
   <si>
     <t xml:space="preserve">3.33266186714172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41895771026611</t>
+    <t xml:space="preserve">3.41895794868469</t>
   </si>
   <si>
     <t xml:space="preserve">3.39430212974548</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">3.19294500350952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2997875213623</t>
+    <t xml:space="preserve">3.29978728294373</t>
   </si>
   <si>
     <t xml:space="preserve">3.36142754554749</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">3.3038969039917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39019250869751</t>
+    <t xml:space="preserve">3.39019274711609</t>
   </si>
   <si>
     <t xml:space="preserve">3.48059797286987</t>
@@ -3095,22 +3095,22 @@
     <t xml:space="preserve">3.4888162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3532087802887</t>
+    <t xml:space="preserve">3.35320854187012</t>
   </si>
   <si>
     <t xml:space="preserve">3.25869417190552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23403811454773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20116376876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1970546245575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27924108505249</t>
+    <t xml:space="preserve">3.23403835296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20116353034973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19705438613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27924084663391</t>
   </si>
   <si>
     <t xml:space="preserve">3.2710223197937</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">2.99569749832153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12308669090271</t>
+    <t xml:space="preserve">3.12308645248413</t>
   </si>
   <si>
     <t xml:space="preserve">3.42717671394348</t>
@@ -3146,16 +3146,16 @@
     <t xml:space="preserve">3.29156899452209</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28334999084473</t>
+    <t xml:space="preserve">3.28335022926331</t>
   </si>
   <si>
     <t xml:space="preserve">3.34088087081909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1436333656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10664916038513</t>
+    <t xml:space="preserve">3.14363312721252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10664939880371</t>
   </si>
   <si>
     <t xml:space="preserve">3.11486792564392</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">3.02857208251953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89296436309814</t>
+    <t xml:space="preserve">2.89296460151672</t>
   </si>
   <si>
     <t xml:space="preserve">2.97926020622253</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">3.39841151237488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4764883518219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49292588233948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48470711708069</t>
+    <t xml:space="preserve">3.47648859024048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4929256439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48470687866211</t>
   </si>
   <si>
     <t xml:space="preserve">3.65318965911865</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">3.46416068077087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47237920761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43539524078369</t>
+    <t xml:space="preserve">3.4723789691925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43539500236511</t>
   </si>
   <si>
     <t xml:space="preserve">3.51758193969727</t>
@@ -3233,28 +3233,28 @@
     <t xml:space="preserve">3.60798668861389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59154963493347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66551756858826</t>
+    <t xml:space="preserve">3.59154939651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66551733016968</t>
   </si>
   <si>
     <t xml:space="preserve">3.66962695121765</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67373561859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75592279434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71482944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80112528800964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73537588119507</t>
+    <t xml:space="preserve">3.67373585700989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75592255592346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71482920646667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80112504959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73537611961365</t>
   </si>
   <si>
     <t xml:space="preserve">3.74770379066467</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">3.80523467063904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646923065186</t>
+    <t xml:space="preserve">3.77646899223328</t>
   </si>
   <si>
     <t xml:space="preserve">3.74359440803528</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">3.76003170013428</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71071982383728</t>
+    <t xml:space="preserve">3.71072006225586</t>
   </si>
   <si>
     <t xml:space="preserve">3.66140794754028</t>
@@ -8349,7 +8349,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G144" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8401,7 +8401,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G146" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8427,7 +8427,7 @@
         <v>7.33019208908081</v>
       </c>
       <c r="G147" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8453,7 +8453,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G148" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8479,7 +8479,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G149" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8505,7 +8505,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G150" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8557,7 +8557,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G152" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8583,7 +8583,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8609,7 +8609,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8635,7 +8635,7 @@
         <v>7.07918977737427</v>
       </c>
       <c r="G155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8661,7 +8661,7 @@
         <v>7.05130100250244</v>
       </c>
       <c r="G156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8687,7 +8687,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G157" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8713,7 +8713,7 @@
         <v>7.13032007217407</v>
       </c>
       <c r="G158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8739,7 +8739,7 @@
         <v>7.04200410842896</v>
       </c>
       <c r="G159" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8765,7 +8765,7 @@
         <v>7.0048189163208</v>
       </c>
       <c r="G160" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8791,7 +8791,7 @@
         <v>6.93509578704834</v>
       </c>
       <c r="G161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8817,7 +8817,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8843,7 +8843,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8869,7 +8869,7 @@
         <v>6.78170585632324</v>
       </c>
       <c r="G164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8895,7 +8895,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8921,7 +8921,7 @@
         <v>6.88396596908569</v>
       </c>
       <c r="G166" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8947,7 +8947,7 @@
         <v>6.87002086639404</v>
       </c>
       <c r="G167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8973,7 +8973,7 @@
         <v>6.83283615112305</v>
       </c>
       <c r="G168" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8999,7 +8999,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -9025,7 +9025,7 @@
         <v>6.77705812454224</v>
       </c>
       <c r="G170" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9051,7 +9051,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9077,7 +9077,7 @@
         <v>6.71198320388794</v>
       </c>
       <c r="G172" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9103,7 +9103,7 @@
         <v>6.64690780639648</v>
       </c>
       <c r="G173" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9129,7 +9129,7 @@
         <v>6.79565000534058</v>
       </c>
       <c r="G174" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9155,7 +9155,7 @@
         <v>6.69803810119629</v>
       </c>
       <c r="G175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9207,7 +9207,7 @@
         <v>6.74916791915894</v>
       </c>
       <c r="G177" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9233,7 +9233,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G178" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9259,7 +9259,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G179" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9285,7 +9285,7 @@
         <v>6.242516040802</v>
       </c>
       <c r="G180" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9337,7 +9337,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G182" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9363,7 +9363,7 @@
         <v>6.09842205047607</v>
       </c>
       <c r="G183" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9389,7 +9389,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G184" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9415,7 +9415,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G185" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9441,7 +9441,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G186" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9467,7 +9467,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G187" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9493,7 +9493,7 @@
         <v>6.17744112014771</v>
       </c>
       <c r="G188" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9519,7 +9519,7 @@
         <v>6.13095903396606</v>
       </c>
       <c r="G189" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9571,7 +9571,7 @@
         <v>6.26575708389282</v>
       </c>
       <c r="G191" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9623,7 +9623,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G193" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9649,7 +9649,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G194" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9675,7 +9675,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G195" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9701,7 +9701,7 @@
         <v>6.11236715316772</v>
       </c>
       <c r="G196" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9727,7 +9727,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G197" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9753,7 +9753,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G198" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9779,7 +9779,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G199" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9805,7 +9805,7 @@
         <v>6.02405118942261</v>
       </c>
       <c r="G200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9831,7 +9831,7 @@
         <v>5.99616193771362</v>
       </c>
       <c r="G201" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9857,7 +9857,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9883,7 +9883,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G203" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9909,7 +9909,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G204" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9935,7 +9935,7 @@
         <v>6.20532989501953</v>
       </c>
       <c r="G205" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9961,7 +9961,7 @@
         <v>6.45633316040039</v>
       </c>
       <c r="G206" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9987,7 +9987,7 @@
         <v>6.56324100494385</v>
       </c>
       <c r="G207" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10013,7 +10013,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G208" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10039,7 +10039,7 @@
         <v>6.63761186599731</v>
       </c>
       <c r="G209" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10091,7 +10091,7 @@
         <v>6.65155601501465</v>
       </c>
       <c r="G211" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10117,7 +10117,7 @@
         <v>6.600426197052</v>
       </c>
       <c r="G212" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10143,7 +10143,7 @@
         <v>6.52140712738037</v>
       </c>
       <c r="G213" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10195,7 +10195,7 @@
         <v>6.46562910079956</v>
       </c>
       <c r="G215" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10221,7 +10221,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G216" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10247,7 +10247,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10273,7 +10273,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G218" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10299,7 +10299,7 @@
         <v>6.36336898803711</v>
       </c>
       <c r="G219" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10325,7 +10325,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G220" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10351,7 +10351,7 @@
         <v>6.34477615356445</v>
       </c>
       <c r="G221" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10377,7 +10377,7 @@
         <v>6.29364585876465</v>
       </c>
       <c r="G222" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10403,7 +10403,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G223" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10429,7 +10429,7 @@
         <v>6.21462678909302</v>
       </c>
       <c r="G224" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10455,7 +10455,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G225" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10481,7 +10481,7 @@
         <v>6.06123685836792</v>
       </c>
       <c r="G226" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10507,7 +10507,7 @@
         <v>6.07053279876709</v>
       </c>
       <c r="G227" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10533,7 +10533,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G228" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10559,7 +10559,7 @@
         <v>5.74516010284424</v>
       </c>
       <c r="G229" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10585,7 +10585,7 @@
         <v>5.88460493087769</v>
       </c>
       <c r="G230" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10611,7 +10611,7 @@
         <v>5.92643880844116</v>
       </c>
       <c r="G231" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10637,7 +10637,7 @@
         <v>5.90784597396851</v>
       </c>
       <c r="G232" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10663,7 +10663,7 @@
         <v>5.78234481811523</v>
       </c>
       <c r="G233" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10689,7 +10689,7 @@
         <v>5.81023406982422</v>
       </c>
       <c r="G234" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10715,7 +10715,7 @@
         <v>5.81953096389771</v>
       </c>
       <c r="G235" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10741,7 +10741,7 @@
         <v>5.86601305007935</v>
       </c>
       <c r="G236" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10767,7 +10767,7 @@
         <v>5.85671615600586</v>
       </c>
       <c r="G237" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10793,7 +10793,7 @@
         <v>5.91249513626099</v>
       </c>
       <c r="G238" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10819,7 +10819,7 @@
         <v>5.83812379837036</v>
       </c>
       <c r="G239" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10845,7 +10845,7 @@
         <v>6.14490413665771</v>
       </c>
       <c r="G240" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10871,7 +10871,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G241" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10897,7 +10897,7 @@
         <v>6.3959059715271</v>
       </c>
       <c r="G242" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10923,7 +10923,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G243" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10949,7 +10949,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G244" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11001,7 +11001,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G246" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11079,7 +11079,7 @@
         <v>6.57718515396118</v>
       </c>
       <c r="G249" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11105,7 +11105,7 @@
         <v>6.53070402145386</v>
       </c>
       <c r="G250" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11131,7 +11131,7 @@
         <v>6.6655011177063</v>
       </c>
       <c r="G251" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11157,7 +11157,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G252" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11183,7 +11183,7 @@
         <v>6.67479705810547</v>
       </c>
       <c r="G253" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11209,7 +11209,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G254" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11235,7 +11235,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G255" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11261,7 +11261,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G256" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11287,7 +11287,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G257" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11313,7 +11313,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G258" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11391,7 +11391,7 @@
         <v>7.05594921112061</v>
       </c>
       <c r="G261" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11443,7 +11443,7 @@
         <v>6.91650295257568</v>
       </c>
       <c r="G263" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11469,7 +11469,7 @@
         <v>7.00946712493896</v>
       </c>
       <c r="G264" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11495,7 +11495,7 @@
         <v>7.02341079711914</v>
       </c>
       <c r="G265" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11547,7 +11547,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G267" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11573,7 +11573,7 @@
         <v>6.94903993606567</v>
       </c>
       <c r="G268" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11651,7 +11651,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G271" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11703,7 +11703,7 @@
         <v>6.82818794250488</v>
       </c>
       <c r="G273" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11729,7 +11729,7 @@
         <v>6.80494689941406</v>
       </c>
       <c r="G274" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11755,7 +11755,7 @@
         <v>6.75381708145142</v>
       </c>
       <c r="G275" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11807,7 +11807,7 @@
         <v>6.61901903152466</v>
       </c>
       <c r="G277" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11833,7 +11833,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G278" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11859,7 +11859,7 @@
         <v>6.47027683258057</v>
       </c>
       <c r="G279" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11885,7 +11885,7 @@
         <v>6.62831592559814</v>
       </c>
       <c r="G280" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11911,7 +11911,7 @@
         <v>6.50746297836304</v>
       </c>
       <c r="G281" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11937,7 +11937,7 @@
         <v>6.57253694534302</v>
       </c>
       <c r="G282" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12015,7 +12015,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G285" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12093,7 +12093,7 @@
         <v>6.81424283981323</v>
       </c>
       <c r="G288" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12119,7 +12119,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G289" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12145,7 +12145,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G290" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12171,7 +12171,7 @@
         <v>6.95833683013916</v>
       </c>
       <c r="G291" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12197,7 +12197,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G292" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12223,7 +12223,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G293" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12249,7 +12249,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G294" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12275,7 +12275,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G295" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12301,7 +12301,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G296" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12353,7 +12353,7 @@
         <v>6.70268678665161</v>
       </c>
       <c r="G298" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12379,7 +12379,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G299" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12405,7 +12405,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G300" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12431,7 +12431,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G301" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12483,7 +12483,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G303" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12509,7 +12509,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G304" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12535,7 +12535,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G305" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12561,7 +12561,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G306" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12587,7 +12587,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G307" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12613,7 +12613,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G308" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12639,7 +12639,7 @@
         <v>7.06989288330078</v>
       </c>
       <c r="G309" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12665,7 +12665,7 @@
         <v>7.17680215835571</v>
       </c>
       <c r="G310" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12691,7 +12691,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G311" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12717,7 +12717,7 @@
         <v>7.41850709915161</v>
       </c>
       <c r="G312" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12743,7 +12743,7 @@
         <v>7.46963787078857</v>
       </c>
       <c r="G313" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12795,7 +12795,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G315" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12847,7 +12847,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G317" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12873,7 +12873,7 @@
         <v>7.60443496704102</v>
       </c>
       <c r="G318" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12899,7 +12899,7 @@
         <v>7.75782489776611</v>
       </c>
       <c r="G319" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12925,7 +12925,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G320" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12977,7 +12977,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G322" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13003,7 +13003,7 @@
         <v>7.59978723526001</v>
       </c>
       <c r="G323" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13029,7 +13029,7 @@
         <v>7.59513902664185</v>
       </c>
       <c r="G324" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13133,7 +13133,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G328" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13159,7 +13159,7 @@
         <v>7.46498918533325</v>
       </c>
       <c r="G329" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13211,7 +13211,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G331" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13237,7 +13237,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G332" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13263,7 +13263,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G333" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13289,7 +13289,7 @@
         <v>7.311598777771</v>
       </c>
       <c r="G334" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13315,7 +13315,7 @@
         <v>7.20469093322754</v>
       </c>
       <c r="G335" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13341,7 +13341,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G336" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13367,7 +13367,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G337" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13393,7 +13393,7 @@
         <v>7.53471183776855</v>
       </c>
       <c r="G338" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13419,7 +13419,7 @@
         <v>7.66486120223999</v>
       </c>
       <c r="G339" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13445,7 +13445,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G340" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13471,7 +13471,7 @@
         <v>7.6973991394043</v>
       </c>
       <c r="G341" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13497,7 +13497,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G342" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13523,7 +13523,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G343" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13549,7 +13549,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G344" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13575,7 +13575,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G345" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13601,7 +13601,7 @@
         <v>7.95769691467285</v>
       </c>
       <c r="G346" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13627,7 +13627,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G347" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13653,7 +13653,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G348" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13679,7 +13679,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G349" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13705,7 +13705,7 @@
         <v>8.16686630249023</v>
       </c>
       <c r="G350" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13731,7 +13731,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G351" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13757,7 +13757,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G352" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13783,7 +13783,7 @@
         <v>7.8554368019104</v>
       </c>
       <c r="G353" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13809,7 +13809,7 @@
         <v>7.79965877532959</v>
       </c>
       <c r="G354" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13835,7 +13835,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G355" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13861,7 +13861,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G356" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13887,7 +13887,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G357" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13913,7 +13913,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G358" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13939,7 +13939,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G359" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13965,7 +13965,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G360" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13991,7 +13991,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G361" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14017,7 +14017,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G362" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14043,7 +14043,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G363" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14069,7 +14069,7 @@
         <v>7.83684396743774</v>
       </c>
       <c r="G364" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14095,7 +14095,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G365" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14121,7 +14121,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G366" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14147,7 +14147,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G367" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14173,7 +14173,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G368" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14199,7 +14199,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G369" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14225,7 +14225,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G370" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14251,7 +14251,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G371" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14277,7 +14277,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G372" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14303,7 +14303,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G373" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14329,7 +14329,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G374" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14355,7 +14355,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G375" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14381,7 +14381,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G376" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14407,7 +14407,7 @@
         <v>7.46034097671509</v>
       </c>
       <c r="G377" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14433,7 +14433,7 @@
         <v>7.4278039932251</v>
       </c>
       <c r="G378" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14459,7 +14459,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G379" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14485,7 +14485,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G380" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14511,7 +14511,7 @@
         <v>7.39991521835327</v>
       </c>
       <c r="G381" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14537,7 +14537,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G382" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14563,7 +14563,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G383" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14589,7 +14589,7 @@
         <v>7.16750478744507</v>
       </c>
       <c r="G384" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14615,7 +14615,7 @@
         <v>7.21863508224487</v>
       </c>
       <c r="G385" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14641,7 +14641,7 @@
         <v>7.35343313217163</v>
       </c>
       <c r="G386" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14667,7 +14667,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G387" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14693,7 +14693,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G388" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14719,7 +14719,7 @@
         <v>7.39061784744263</v>
       </c>
       <c r="G389" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14745,7 +14745,7 @@
         <v>7.53006410598755</v>
       </c>
       <c r="G390" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14771,7 +14771,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G391" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14797,7 +14797,7 @@
         <v>7.55330514907837</v>
       </c>
       <c r="G392" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14823,7 +14823,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G393" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14849,7 +14849,7 @@
         <v>7.72064018249512</v>
       </c>
       <c r="G394" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14875,7 +14875,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G395" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14901,7 +14901,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G396" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14927,7 +14927,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G397" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14953,7 +14953,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G398" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14979,7 +14979,7 @@
         <v>7.72993612289429</v>
       </c>
       <c r="G399" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15005,7 +15005,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G400" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15031,7 +15031,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G401" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15057,7 +15057,7 @@
         <v>7.74388122558594</v>
       </c>
       <c r="G402" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15083,7 +15083,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G403" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15109,7 +15109,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G404" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15135,7 +15135,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G405" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15161,7 +15161,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G406" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15187,7 +15187,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G407" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15213,7 +15213,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G408" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15239,7 +15239,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G409" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15265,7 +15265,7 @@
         <v>7.82289981842041</v>
       </c>
       <c r="G410" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15291,7 +15291,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G411" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15317,7 +15317,7 @@
         <v>7.89262294769287</v>
       </c>
       <c r="G412" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15343,7 +15343,7 @@
         <v>7.81360292434692</v>
       </c>
       <c r="G413" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15369,7 +15369,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G414" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15395,7 +15395,7 @@
         <v>7.79501104354858</v>
       </c>
       <c r="G415" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15421,7 +15421,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G416" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15447,7 +15447,7 @@
         <v>8.01347637176514</v>
       </c>
       <c r="G417" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15473,7 +15473,7 @@
         <v>7.99023485183716</v>
       </c>
       <c r="G418" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15499,7 +15499,7 @@
         <v>7.93445587158203</v>
       </c>
       <c r="G419" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15525,7 +15525,7 @@
         <v>7.94375276565552</v>
       </c>
       <c r="G420" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15551,7 +15551,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G421" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15577,7 +15577,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G422" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15603,7 +15603,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G423" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15629,7 +15629,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G424" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15655,7 +15655,7 @@
         <v>7.86008501052856</v>
       </c>
       <c r="G425" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15681,7 +15681,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G426" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15707,7 +15707,7 @@
         <v>7.78106594085693</v>
       </c>
       <c r="G427" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15733,7 +15733,7 @@
         <v>7.89727115631104</v>
       </c>
       <c r="G428" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15759,7 +15759,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G429" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15785,7 +15785,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G430" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15811,7 +15811,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G431" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15837,7 +15837,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G432" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15863,7 +15863,7 @@
         <v>7.84149312973022</v>
       </c>
       <c r="G433" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15889,7 +15889,7 @@
         <v>7.92051219940186</v>
       </c>
       <c r="G434" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15915,7 +15915,7 @@
         <v>8.03206825256348</v>
       </c>
       <c r="G435" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15941,7 +15941,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G436" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15967,7 +15967,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G437" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15993,7 +15993,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G438" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16019,7 +16019,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G439" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16045,7 +16045,7 @@
         <v>8.19010734558105</v>
       </c>
       <c r="G440" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16071,7 +16071,7 @@
         <v>8.12503242492676</v>
       </c>
       <c r="G441" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16097,7 +16097,7 @@
         <v>8.08784675598145</v>
       </c>
       <c r="G442" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16123,7 +16123,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G443" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16149,7 +16149,7 @@
         <v>8.10643863677979</v>
       </c>
       <c r="G444" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16175,7 +16175,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G445" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16201,7 +16201,7 @@
         <v>8.14362525939941</v>
       </c>
       <c r="G446" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16227,7 +16227,7 @@
         <v>8.12038421630859</v>
       </c>
       <c r="G447" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16253,7 +16253,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G448" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16279,7 +16279,7 @@
         <v>8.20869922637939</v>
       </c>
       <c r="G449" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16305,7 +16305,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G450" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16331,7 +16331,7 @@
         <v>8.22729206085205</v>
       </c>
       <c r="G451" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16357,7 +16357,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G452" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16383,7 +16383,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G453" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16409,7 +16409,7 @@
         <v>8.07390213012695</v>
       </c>
       <c r="G454" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16435,7 +16435,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G455" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16461,7 +16461,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G456" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16487,7 +16487,7 @@
         <v>8.36673831939697</v>
       </c>
       <c r="G457" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16513,7 +16513,7 @@
         <v>8.50618267059326</v>
       </c>
       <c r="G458" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16539,7 +16539,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G459" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16565,7 +16565,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G460" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16591,7 +16591,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G461" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16617,7 +16617,7 @@
         <v>8.5526647567749</v>
       </c>
       <c r="G462" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16643,7 +16643,7 @@
         <v>8.54801654815674</v>
       </c>
       <c r="G463" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16669,7 +16669,7 @@
         <v>8.69211101531982</v>
       </c>
       <c r="G464" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16695,7 +16695,7 @@
         <v>8.74788856506348</v>
       </c>
       <c r="G465" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16721,7 +16721,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G466" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16747,7 +16747,7 @@
         <v>8.60379505157471</v>
       </c>
       <c r="G467" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16773,7 +16773,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G468" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16799,7 +16799,7 @@
         <v>8.98959541320801</v>
       </c>
       <c r="G469" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16825,7 +16825,7 @@
         <v>9.22665309906006</v>
       </c>
       <c r="G470" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16851,7 +16851,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G471" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16877,7 +16877,7 @@
         <v>9.696120262146</v>
       </c>
       <c r="G472" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16903,7 +16903,7 @@
         <v>9.67752742767334</v>
       </c>
       <c r="G473" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16929,7 +16929,7 @@
         <v>9.55667400360107</v>
       </c>
       <c r="G474" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16955,7 +16955,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G475" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16981,7 +16981,7 @@
         <v>9.62174892425537</v>
       </c>
       <c r="G476" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17007,7 +17007,7 @@
         <v>9.43582057952881</v>
       </c>
       <c r="G477" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17033,7 +17033,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G478" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17059,7 +17059,7 @@
         <v>9.34285736083984</v>
       </c>
       <c r="G479" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17085,7 +17085,7 @@
         <v>9.2080602645874</v>
       </c>
       <c r="G480" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17111,7 +17111,7 @@
         <v>9.38933944702148</v>
       </c>
       <c r="G481" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17137,7 +17137,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G482" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17163,7 +17163,7 @@
         <v>9.91923332214355</v>
       </c>
       <c r="G483" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17189,7 +17189,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G484" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17215,7 +17215,7 @@
         <v>9.65893363952637</v>
       </c>
       <c r="G485" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17241,7 +17241,7 @@
         <v>10.0029001235962</v>
       </c>
       <c r="G486" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17267,7 +17267,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G487" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17293,7 +17293,7 @@
         <v>9.90063953399658</v>
       </c>
       <c r="G488" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17319,7 +17319,7 @@
         <v>10.0586776733398</v>
       </c>
       <c r="G489" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17345,7 +17345,7 @@
         <v>10.1144561767578</v>
       </c>
       <c r="G490" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17371,7 +17371,7 @@
         <v>10.0307893753052</v>
       </c>
       <c r="G491" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17397,7 +17397,7 @@
         <v>10.0121955871582</v>
       </c>
       <c r="G492" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17423,7 +17423,7 @@
         <v>9.76119422912598</v>
       </c>
       <c r="G493" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17449,7 +17449,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G494" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17475,7 +17475,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G495" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17501,7 +17501,7 @@
         <v>9.93782520294189</v>
       </c>
       <c r="G496" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17527,7 +17527,7 @@
         <v>10.0772714614868</v>
       </c>
       <c r="G497" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17553,7 +17553,7 @@
         <v>10.318977355957</v>
       </c>
       <c r="G498" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17579,7 +17579,7 @@
         <v>10.3003835678101</v>
       </c>
       <c r="G499" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17605,7 +17605,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G500" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17631,7 +17631,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G501" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17657,7 +17657,7 @@
         <v>10.411940574646</v>
       </c>
       <c r="G502" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17683,7 +17683,7 @@
         <v>10.1330490112305</v>
       </c>
       <c r="G503" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17709,7 +17709,7 @@
         <v>9.49159908294678</v>
       </c>
       <c r="G504" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17735,7 +17735,7 @@
         <v>9.11044788360596</v>
       </c>
       <c r="G505" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17761,7 +17761,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G506" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17787,7 +17787,7 @@
         <v>9.08255863189697</v>
       </c>
       <c r="G507" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17813,7 +17813,7 @@
         <v>8.88268661499023</v>
       </c>
       <c r="G508" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17839,7 +17839,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G509" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17865,7 +17865,7 @@
         <v>9.09650325775146</v>
       </c>
       <c r="G510" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17891,7 +17891,7 @@
         <v>8.96170616149902</v>
       </c>
       <c r="G511" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17917,7 +17917,7 @@
         <v>8.95240879058838</v>
       </c>
       <c r="G512" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17943,7 +17943,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G513" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17969,7 +17969,7 @@
         <v>9.1569299697876</v>
       </c>
       <c r="G514" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17995,7 +17995,7 @@
         <v>9.16622638702393</v>
       </c>
       <c r="G515" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18021,7 +18021,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G516" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18047,7 +18047,7 @@
         <v>9.31496810913086</v>
       </c>
       <c r="G517" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18073,7 +18073,7 @@
         <v>9.26848602294922</v>
       </c>
       <c r="G518" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18099,7 +18099,7 @@
         <v>9.00818824768066</v>
       </c>
       <c r="G519" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18125,7 +18125,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G520" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18151,7 +18151,7 @@
         <v>9.06396579742432</v>
       </c>
       <c r="G521" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18177,7 +18177,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G522" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18203,7 +18203,7 @@
         <v>8.8873348236084</v>
       </c>
       <c r="G523" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18229,7 +18229,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G524" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18255,7 +18255,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G525" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18281,7 +18281,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G526" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18307,7 +18307,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G527" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18333,7 +18333,7 @@
         <v>8.90592765808105</v>
       </c>
       <c r="G528" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18359,7 +18359,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G529" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18385,7 +18385,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G530" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18411,7 +18411,7 @@
         <v>8.85014915466309</v>
       </c>
       <c r="G531" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18437,7 +18437,7 @@
         <v>8.60844421386719</v>
       </c>
       <c r="G532" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18463,7 +18463,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G533" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18489,7 +18489,7 @@
         <v>8.53407287597656</v>
       </c>
       <c r="G534" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18515,7 +18515,7 @@
         <v>8.34814453125</v>
       </c>
       <c r="G535" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18541,7 +18541,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G536" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18567,7 +18567,7 @@
         <v>8.05995655059814</v>
       </c>
       <c r="G537" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18593,7 +18593,7 @@
         <v>8.30166339874268</v>
       </c>
       <c r="G538" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18619,7 +18619,7 @@
         <v>7.87403011322021</v>
       </c>
       <c r="G539" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18645,7 +18645,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G540" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18671,7 +18671,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G541" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18697,7 +18697,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G542" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18723,7 +18723,7 @@
         <v>7.68810176849365</v>
       </c>
       <c r="G543" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18749,7 +18749,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G544" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18775,7 +18775,7 @@
         <v>7.8182520866394</v>
       </c>
       <c r="G545" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18801,7 +18801,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G546" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18827,7 +18827,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G547" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18853,7 +18853,7 @@
         <v>7.58584213256836</v>
       </c>
       <c r="G548" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18879,7 +18879,7 @@
         <v>8.0413646697998</v>
       </c>
       <c r="G549" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18905,7 +18905,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G550" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18931,7 +18931,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G551" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18957,7 +18957,7 @@
         <v>7.49566698074341</v>
       </c>
       <c r="G552" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18983,7 +18983,7 @@
         <v>7.36086988449097</v>
       </c>
       <c r="G553" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19009,7 +19009,7 @@
         <v>7.17308282852173</v>
       </c>
       <c r="G554" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19035,7 +19035,7 @@
         <v>7.00017118453979</v>
       </c>
       <c r="G555" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19061,7 +19061,7 @@
         <v>6.98622608184814</v>
       </c>
       <c r="G556" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19087,7 +19087,7 @@
         <v>7.08383798599243</v>
       </c>
       <c r="G557" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19113,7 +19113,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G558" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19139,7 +19139,7 @@
         <v>7.298583984375</v>
       </c>
       <c r="G559" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19165,7 +19165,7 @@
         <v>7.12102317810059</v>
       </c>
       <c r="G560" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19191,7 +19191,7 @@
         <v>7.03177785873413</v>
       </c>
       <c r="G561" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19217,7 +19217,7 @@
         <v>7.05501890182495</v>
       </c>
       <c r="G562" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19243,7 +19243,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G563" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19269,7 +19269,7 @@
         <v>6.82911682128906</v>
       </c>
       <c r="G564" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19295,7 +19295,7 @@
         <v>6.72127914428711</v>
       </c>
       <c r="G565" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19321,7 +19321,7 @@
         <v>7.01225614547729</v>
       </c>
       <c r="G566" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19347,7 +19347,7 @@
         <v>6.98064804077148</v>
       </c>
       <c r="G567" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19373,7 +19373,7 @@
         <v>6.94439220428467</v>
       </c>
       <c r="G568" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19399,7 +19399,7 @@
         <v>6.71291303634644</v>
       </c>
       <c r="G569" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19425,7 +19425,7 @@
         <v>6.55394506454468</v>
       </c>
       <c r="G570" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19451,7 +19451,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19477,7 +19477,7 @@
         <v>7.27699995040894</v>
       </c>
       <c r="G572" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19503,7 +19503,7 @@
         <v>7.97800016403198</v>
       </c>
       <c r="G573" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19529,7 +19529,7 @@
         <v>7.58799982070923</v>
       </c>
       <c r="G574" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19555,7 +19555,7 @@
         <v>7.75</v>
       </c>
       <c r="G575" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19581,7 +19581,7 @@
         <v>8.04199981689453</v>
       </c>
       <c r="G576" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19607,7 +19607,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G577" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19633,7 +19633,7 @@
         <v>8.25899982452393</v>
       </c>
       <c r="G578" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19659,7 +19659,7 @@
         <v>8.09500026702881</v>
       </c>
       <c r="G579" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19685,7 +19685,7 @@
         <v>7.83699989318848</v>
       </c>
       <c r="G580" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19711,7 +19711,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G581" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19737,7 +19737,7 @@
         <v>7.89900016784668</v>
       </c>
       <c r="G582" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19763,7 +19763,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G583" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19789,7 +19789,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G584" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19815,7 +19815,7 @@
         <v>7.86700010299683</v>
       </c>
       <c r="G585" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19841,7 +19841,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G586" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19867,7 +19867,7 @@
         <v>7.84200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19893,7 +19893,7 @@
         <v>7.85799980163574</v>
       </c>
       <c r="G588" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19919,7 +19919,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G589" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19945,7 +19945,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G590" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19971,7 +19971,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G591" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19997,7 +19997,7 @@
         <v>7.71600008010864</v>
       </c>
       <c r="G592" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20023,7 +20023,7 @@
         <v>7.70100021362305</v>
       </c>
       <c r="G593" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20049,7 +20049,7 @@
         <v>7.76300001144409</v>
       </c>
       <c r="G594" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20075,7 +20075,7 @@
         <v>7.85699987411499</v>
       </c>
       <c r="G595" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20101,7 +20101,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G596" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20127,7 +20127,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20153,7 +20153,7 @@
         <v>8</v>
       </c>
       <c r="G598" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20179,7 +20179,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G599" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20205,7 +20205,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20231,7 +20231,7 @@
         <v>7.92600011825562</v>
       </c>
       <c r="G601" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20257,7 +20257,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G602" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20283,7 +20283,7 @@
         <v>8.03800010681152</v>
       </c>
       <c r="G603" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20309,7 +20309,7 @@
         <v>8</v>
       </c>
       <c r="G604" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20335,7 +20335,7 @@
         <v>7.78399991989136</v>
       </c>
       <c r="G605" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20361,7 +20361,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G606" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20387,7 +20387,7 @@
         <v>7.44899988174438</v>
       </c>
       <c r="G607" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20413,7 +20413,7 @@
         <v>7.55900001525879</v>
       </c>
       <c r="G608" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20439,7 +20439,7 @@
         <v>7.47499990463257</v>
       </c>
       <c r="G609" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20465,7 +20465,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G610" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20491,7 +20491,7 @@
         <v>7.37099981307983</v>
       </c>
       <c r="G611" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20517,7 +20517,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20543,7 +20543,7 @@
         <v>7.11499977111816</v>
       </c>
       <c r="G613" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20569,7 +20569,7 @@
         <v>6.7649998664856</v>
       </c>
       <c r="G614" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20595,7 +20595,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G615" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20621,7 +20621,7 @@
         <v>7.27400016784668</v>
       </c>
       <c r="G616" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20647,7 +20647,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G617" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20673,7 +20673,7 @@
         <v>7.39400005340576</v>
       </c>
       <c r="G618" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20699,7 +20699,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G619" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20725,7 +20725,7 @@
         <v>7.49499988555908</v>
       </c>
       <c r="G620" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20751,7 +20751,7 @@
         <v>7.32299995422363</v>
       </c>
       <c r="G621" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20777,7 +20777,7 @@
         <v>7.1710000038147</v>
       </c>
       <c r="G622" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20803,7 +20803,7 @@
         <v>7.08900022506714</v>
       </c>
       <c r="G623" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20829,7 +20829,7 @@
         <v>7.25899982452393</v>
       </c>
       <c r="G624" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20855,7 +20855,7 @@
         <v>7.11100006103516</v>
       </c>
       <c r="G625" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20881,7 +20881,7 @@
         <v>7.24900007247925</v>
       </c>
       <c r="G626" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20907,7 +20907,7 @@
         <v>7.31799983978271</v>
       </c>
       <c r="G627" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20933,7 +20933,7 @@
         <v>6.97200012207031</v>
       </c>
       <c r="G628" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20959,7 +20959,7 @@
         <v>6.97399997711182</v>
       </c>
       <c r="G629" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20985,7 +20985,7 @@
         <v>6.92399978637695</v>
       </c>
       <c r="G630" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21011,7 +21011,7 @@
         <v>6.90299987792969</v>
       </c>
       <c r="G631" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21037,7 +21037,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G632" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21063,7 +21063,7 @@
         <v>6.96700000762939</v>
       </c>
       <c r="G633" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21089,7 +21089,7 @@
         <v>7</v>
       </c>
       <c r="G634" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21115,7 +21115,7 @@
         <v>6.875</v>
       </c>
       <c r="G635" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21141,7 +21141,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G636" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21167,7 +21167,7 @@
         <v>6.88199996948242</v>
       </c>
       <c r="G637" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21193,7 +21193,7 @@
         <v>7.04699993133545</v>
       </c>
       <c r="G638" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21219,7 +21219,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G639" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21245,7 +21245,7 @@
         <v>7</v>
       </c>
       <c r="G640" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21271,7 +21271,7 @@
         <v>6.93699979782104</v>
       </c>
       <c r="G641" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21297,7 +21297,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G642" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21323,7 +21323,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G643" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21349,7 +21349,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G644" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21375,7 +21375,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G645" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21401,7 +21401,7 @@
         <v>7.05399990081787</v>
       </c>
       <c r="G646" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21427,7 +21427,7 @@
         <v>7.06899976730347</v>
       </c>
       <c r="G647" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21453,7 +21453,7 @@
         <v>7.12599992752075</v>
       </c>
       <c r="G648" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21479,7 +21479,7 @@
         <v>7.17700004577637</v>
       </c>
       <c r="G649" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21505,7 +21505,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G650" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21531,7 +21531,7 @@
         <v>7.35099983215332</v>
       </c>
       <c r="G651" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21557,7 +21557,7 @@
         <v>7.21600008010864</v>
       </c>
       <c r="G652" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21583,7 +21583,7 @@
         <v>7.24200010299683</v>
       </c>
       <c r="G653" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21609,7 +21609,7 @@
         <v>7.26100015640259</v>
       </c>
       <c r="G654" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21635,7 +21635,7 @@
         <v>7.06599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21661,7 +21661,7 @@
         <v>7.25</v>
       </c>
       <c r="G656" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21687,7 +21687,7 @@
         <v>7.05700016021729</v>
       </c>
       <c r="G657" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21713,7 +21713,7 @@
         <v>7.13100004196167</v>
       </c>
       <c r="G658" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21739,7 +21739,7 @@
         <v>7.23099994659424</v>
       </c>
       <c r="G659" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21765,7 +21765,7 @@
         <v>7.18300008773804</v>
       </c>
       <c r="G660" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21791,7 +21791,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G661" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21817,7 +21817,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G662" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21843,7 +21843,7 @@
         <v>6.93100023269653</v>
       </c>
       <c r="G663" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21869,7 +21869,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G664" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21895,7 +21895,7 @@
         <v>6.9210000038147</v>
       </c>
       <c r="G665" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21921,7 +21921,7 @@
         <v>6.90899991989136</v>
       </c>
       <c r="G666" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21947,7 +21947,7 @@
         <v>6.79300022125244</v>
       </c>
       <c r="G667" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21973,7 +21973,7 @@
         <v>6.66300010681152</v>
       </c>
       <c r="G668" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21999,7 +21999,7 @@
         <v>6.60699987411499</v>
       </c>
       <c r="G669" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22025,7 +22025,7 @@
         <v>6.49100017547607</v>
       </c>
       <c r="G670" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22051,7 +22051,7 @@
         <v>6.51900005340576</v>
       </c>
       <c r="G671" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22077,7 +22077,7 @@
         <v>6.57299995422363</v>
       </c>
       <c r="G672" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22103,7 +22103,7 @@
         <v>6.69899988174438</v>
       </c>
       <c r="G673" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22129,7 +22129,7 @@
         <v>6.68699979782104</v>
       </c>
       <c r="G674" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22155,7 +22155,7 @@
         <v>6.58799982070923</v>
       </c>
       <c r="G675" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22181,7 +22181,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G676" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22207,7 +22207,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G677" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22233,7 +22233,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G678" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22259,7 +22259,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G679" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22285,7 +22285,7 @@
         <v>6.62099981307983</v>
       </c>
       <c r="G680" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22311,7 +22311,7 @@
         <v>6.55399990081787</v>
       </c>
       <c r="G681" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22337,7 +22337,7 @@
         <v>6.56799983978271</v>
       </c>
       <c r="G682" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22363,7 +22363,7 @@
         <v>6.5310001373291</v>
       </c>
       <c r="G683" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22389,7 +22389,7 @@
         <v>6.57499980926514</v>
       </c>
       <c r="G684" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22415,7 +22415,7 @@
         <v>6.57200002670288</v>
       </c>
       <c r="G685" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22441,7 +22441,7 @@
         <v>6.58900022506714</v>
       </c>
       <c r="G686" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22467,7 +22467,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G687" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22493,7 +22493,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G688" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22519,7 +22519,7 @@
         <v>6.58099985122681</v>
       </c>
       <c r="G689" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22545,7 +22545,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G690" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22571,7 +22571,7 @@
         <v>6.51200008392334</v>
       </c>
       <c r="G691" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22597,7 +22597,7 @@
         <v>6.95800018310547</v>
       </c>
       <c r="G692" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22623,7 +22623,7 @@
         <v>6.78499984741211</v>
       </c>
       <c r="G693" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22649,7 +22649,7 @@
         <v>6.76900005340576</v>
       </c>
       <c r="G694" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22675,7 +22675,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G695" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22701,7 +22701,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22727,7 +22727,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G697" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22753,7 +22753,7 @@
         <v>6.85099983215332</v>
       </c>
       <c r="G698" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22779,7 +22779,7 @@
         <v>6.75799989700317</v>
       </c>
       <c r="G699" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22805,7 +22805,7 @@
         <v>6.73899984359741</v>
       </c>
       <c r="G700" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22831,7 +22831,7 @@
         <v>6.61800003051758</v>
       </c>
       <c r="G701" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22857,7 +22857,7 @@
         <v>6.55700016021729</v>
       </c>
       <c r="G702" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22883,7 +22883,7 @@
         <v>6.42199993133545</v>
       </c>
       <c r="G703" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22909,7 +22909,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G704" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22935,7 +22935,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G705" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22961,7 +22961,7 @@
         <v>6.30100011825562</v>
       </c>
       <c r="G706" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22987,7 +22987,7 @@
         <v>6.14099979400635</v>
       </c>
       <c r="G707" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23013,7 +23013,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G708" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23039,7 +23039,7 @@
         <v>6.05399990081787</v>
       </c>
       <c r="G709" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23065,7 +23065,7 @@
         <v>5.91400003433228</v>
       </c>
       <c r="G710" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23091,7 +23091,7 @@
         <v>5.95300006866455</v>
       </c>
       <c r="G711" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23117,7 +23117,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G712" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23143,7 +23143,7 @@
         <v>5.90399980545044</v>
       </c>
       <c r="G713" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23169,7 +23169,7 @@
         <v>5.95900011062622</v>
       </c>
       <c r="G714" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23195,7 +23195,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G715" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23221,7 +23221,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G716" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23247,7 +23247,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G717" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23273,7 +23273,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G718" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23299,7 +23299,7 @@
         <v>5.94600009918213</v>
       </c>
       <c r="G719" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23325,7 +23325,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G720" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23351,7 +23351,7 @@
         <v>6.00899982452393</v>
       </c>
       <c r="G721" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23377,7 +23377,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G722" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23403,7 +23403,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G723" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23429,7 +23429,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G724" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23455,7 +23455,7 @@
         <v>6.25</v>
       </c>
       <c r="G725" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23481,7 +23481,7 @@
         <v>6.23899984359741</v>
       </c>
       <c r="G726" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23507,7 +23507,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G727" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23533,7 +23533,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G728" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23559,7 +23559,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G729" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23585,7 +23585,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G730" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23611,7 +23611,7 @@
         <v>6.2189998626709</v>
       </c>
       <c r="G731" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23637,7 +23637,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G732" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23663,7 +23663,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G733" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23689,7 +23689,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G734" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23715,7 +23715,7 @@
         <v>6.03900003433228</v>
       </c>
       <c r="G735" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23741,7 +23741,7 @@
         <v>6.01399993896484</v>
       </c>
       <c r="G736" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23767,7 +23767,7 @@
         <v>5.95100021362305</v>
       </c>
       <c r="G737" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23793,7 +23793,7 @@
         <v>5.86499977111816</v>
       </c>
       <c r="G738" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23819,7 +23819,7 @@
         <v>5.86800003051758</v>
       </c>
       <c r="G739" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23845,7 +23845,7 @@
         <v>5.89699983596802</v>
       </c>
       <c r="G740" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23871,7 +23871,7 @@
         <v>6.02899980545044</v>
       </c>
       <c r="G741" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23897,7 +23897,7 @@
         <v>6.14300012588501</v>
       </c>
       <c r="G742" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23923,7 +23923,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G743" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23949,7 +23949,7 @@
         <v>6.10699987411499</v>
       </c>
       <c r="G744" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23975,7 +23975,7 @@
         <v>6.09200000762939</v>
       </c>
       <c r="G745" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24001,7 +24001,7 @@
         <v>5.98299980163574</v>
       </c>
       <c r="G746" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24027,7 +24027,7 @@
         <v>5.88199996948242</v>
       </c>
       <c r="G747" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24053,7 +24053,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G748" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24079,7 +24079,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G749" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24105,7 +24105,7 @@
         <v>5.80700016021729</v>
       </c>
       <c r="G750" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24131,7 +24131,7 @@
         <v>5.81599998474121</v>
       </c>
       <c r="G751" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24157,7 +24157,7 @@
         <v>5.76399993896484</v>
       </c>
       <c r="G752" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24183,7 +24183,7 @@
         <v>5.65299987792969</v>
       </c>
       <c r="G753" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24209,7 +24209,7 @@
         <v>5.79199981689453</v>
       </c>
       <c r="G754" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24235,7 +24235,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G755" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24261,7 +24261,7 @@
         <v>5.63399982452393</v>
       </c>
       <c r="G756" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24287,7 +24287,7 @@
         <v>5.5</v>
       </c>
       <c r="G757" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24313,7 +24313,7 @@
         <v>5.39599990844727</v>
       </c>
       <c r="G758" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24339,7 +24339,7 @@
         <v>5.37400007247925</v>
       </c>
       <c r="G759" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24365,7 +24365,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G760" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24391,7 +24391,7 @@
         <v>5.4229998588562</v>
       </c>
       <c r="G761" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24417,7 +24417,7 @@
         <v>5.30700016021729</v>
       </c>
       <c r="G762" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24443,7 +24443,7 @@
         <v>5.38199996948242</v>
       </c>
       <c r="G763" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24469,7 +24469,7 @@
         <v>5.57200002670288</v>
       </c>
       <c r="G764" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24495,7 +24495,7 @@
         <v>5.67199993133545</v>
       </c>
       <c r="G765" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24521,7 +24521,7 @@
         <v>5.80800008773804</v>
       </c>
       <c r="G766" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24547,7 +24547,7 @@
         <v>5.78599977493286</v>
       </c>
       <c r="G767" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24573,7 +24573,7 @@
         <v>5.90899991989136</v>
       </c>
       <c r="G768" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24599,7 +24599,7 @@
         <v>5.88800001144409</v>
       </c>
       <c r="G769" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24625,7 +24625,7 @@
         <v>5.91599988937378</v>
       </c>
       <c r="G770" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24651,7 +24651,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G771" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24677,7 +24677,7 @@
         <v>5.81099987030029</v>
       </c>
       <c r="G772" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24703,7 +24703,7 @@
         <v>5.7519998550415</v>
       </c>
       <c r="G773" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24729,7 +24729,7 @@
         <v>5.8769998550415</v>
       </c>
       <c r="G774" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24755,7 +24755,7 @@
         <v>5.84899997711182</v>
       </c>
       <c r="G775" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24781,7 +24781,7 @@
         <v>5.90199995040894</v>
       </c>
       <c r="G776" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24807,7 +24807,7 @@
         <v>5.83699989318848</v>
       </c>
       <c r="G777" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24833,7 +24833,7 @@
         <v>5.77400016784668</v>
       </c>
       <c r="G778" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24859,7 +24859,7 @@
         <v>5.92199993133545</v>
       </c>
       <c r="G779" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24885,7 +24885,7 @@
         <v>5.98899984359741</v>
       </c>
       <c r="G780" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24911,7 +24911,7 @@
         <v>6.14900016784668</v>
       </c>
       <c r="G781" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24937,7 +24937,7 @@
         <v>6.2810001373291</v>
       </c>
       <c r="G782" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24963,7 +24963,7 @@
         <v>6.23799991607666</v>
       </c>
       <c r="G783" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24989,7 +24989,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G784" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -25015,7 +25015,7 @@
         <v>6.18200016021729</v>
       </c>
       <c r="G785" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25041,7 +25041,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G786" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25067,7 +25067,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G787" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25093,7 +25093,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G788" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25119,7 +25119,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G789" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25145,7 +25145,7 @@
         <v>6.01599979400635</v>
       </c>
       <c r="G790" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25171,7 +25171,7 @@
         <v>5.89599990844727</v>
       </c>
       <c r="G791" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25197,7 +25197,7 @@
         <v>6</v>
       </c>
       <c r="G792" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25223,7 +25223,7 @@
         <v>5.94799995422363</v>
       </c>
       <c r="G793" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25249,7 +25249,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G794" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25275,7 +25275,7 @@
         <v>6.06699991226196</v>
       </c>
       <c r="G795" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25301,7 +25301,7 @@
         <v>6.16400003433228</v>
       </c>
       <c r="G796" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25327,7 +25327,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G797" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25353,7 +25353,7 @@
         <v>6.13600015640259</v>
       </c>
       <c r="G798" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25379,7 +25379,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G799" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25405,7 +25405,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G800" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25431,7 +25431,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G801" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25457,7 +25457,7 @@
         <v>6.23199987411499</v>
       </c>
       <c r="G802" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25483,7 +25483,7 @@
         <v>6.31899976730347</v>
       </c>
       <c r="G803" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25509,7 +25509,7 @@
         <v>6.18699979782104</v>
       </c>
       <c r="G804" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25535,7 +25535,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G805" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25561,7 +25561,7 @@
         <v>6.30800008773804</v>
       </c>
       <c r="G806" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25587,7 +25587,7 @@
         <v>6.36199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25613,7 +25613,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G808" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25639,7 +25639,7 @@
         <v>6.65299987792969</v>
       </c>
       <c r="G809" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25665,7 +25665,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G810" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25691,7 +25691,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G811" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25717,7 +25717,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25743,7 +25743,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G813" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25769,7 +25769,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G814" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25795,7 +25795,7 @@
         <v>6.65799999237061</v>
       </c>
       <c r="G815" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25821,7 +25821,7 @@
         <v>6.7039999961853</v>
       </c>
       <c r="G816" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25847,7 +25847,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G817" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25873,7 +25873,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G818" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25899,7 +25899,7 @@
         <v>6.64799976348877</v>
       </c>
       <c r="G819" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25925,7 +25925,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G820" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25951,7 +25951,7 @@
         <v>6.55600023269653</v>
       </c>
       <c r="G821" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25977,7 +25977,7 @@
         <v>6.48299980163574</v>
       </c>
       <c r="G822" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26003,7 +26003,7 @@
         <v>6.42799997329712</v>
       </c>
       <c r="G823" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26029,7 +26029,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G824" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26055,7 +26055,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G825" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26081,7 +26081,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G826" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26107,7 +26107,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G827" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26133,7 +26133,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G828" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26159,7 +26159,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G829" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26185,7 +26185,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G830" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26211,7 +26211,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G831" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26237,7 +26237,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26263,7 +26263,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G833" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26289,7 +26289,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G834" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26315,7 +26315,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G835" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26341,7 +26341,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G836" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26367,7 +26367,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G837" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26393,7 +26393,7 @@
         <v>6.75</v>
       </c>
       <c r="G838" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26419,7 +26419,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26445,7 +26445,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26471,7 +26471,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G841" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26497,7 +26497,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G842" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26523,7 +26523,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G843" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26549,7 +26549,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G844" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26575,7 +26575,7 @@
         <v>6.75</v>
       </c>
       <c r="G845" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26601,7 +26601,7 @@
         <v>6.75</v>
       </c>
       <c r="G846" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26627,7 +26627,7 @@
         <v>6.75</v>
       </c>
       <c r="G847" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26653,7 +26653,7 @@
         <v>6.75</v>
       </c>
       <c r="G848" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26679,7 +26679,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G849" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26705,7 +26705,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G850" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26731,7 +26731,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G851" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26757,7 +26757,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G852" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26783,7 +26783,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G853" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26809,7 +26809,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26835,7 +26835,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G855" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26861,7 +26861,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G856" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27251,7 +27251,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G871" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27823,7 +27823,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G893" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -30449,7 +30449,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G994" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30735,7 +30735,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1005" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30839,7 +30839,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1009" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30995,7 +30995,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1015" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31359,7 +31359,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1029" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31411,7 +31411,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1031" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31619,7 +31619,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G1039" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -60981,7 +60981,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.649525463</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>161489</v>
@@ -60990,7 +60990,7 @@
         <v>1.93599998950958</v>
       </c>
       <c r="D2169" t="n">
-        <v>1.87399995326996</v>
+        <v>1.87199997901917</v>
       </c>
       <c r="E2169" t="n">
         <v>1.92799997329712</v>
@@ -61002,6 +61002,32 @@
         <v>1419</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6493518519</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>132896</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>1.93400001525879</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>1.87800002098083</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>1.88999998569489</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>1.93400001525879</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89286518096924</t>
+    <t xml:space="preserve">4.8928656578064</t>
   </si>
   <si>
     <t xml:space="preserve">IGD.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97771215438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93246030807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92963218688965</t>
+    <t xml:space="preserve">4.97771167755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93245935440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92963266372681</t>
   </si>
   <si>
     <t xml:space="preserve">4.80801773071289</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6948881149292</t>
+    <t xml:space="preserve">4.69488763809204</t>
   </si>
   <si>
     <t xml:space="preserve">4.72316980361938</t>
@@ -65,94 +65,94 @@
     <t xml:space="preserve">4.83347225189209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70902919769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48276853561401</t>
+    <t xml:space="preserve">4.70902872085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48276901245117</t>
   </si>
   <si>
     <t xml:space="preserve">4.30741834640503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18580389022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73328447341919</t>
+    <t xml:space="preserve">4.18580436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73328423500061</t>
   </si>
   <si>
     <t xml:space="preserve">4.01610898971558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0924711227417</t>
+    <t xml:space="preserve">4.09247064590454</t>
   </si>
   <si>
     <t xml:space="preserve">4.17731857299805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11226892471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08398628234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94540286064148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10095643997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21125793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05570459365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82378840446472</t>
+    <t xml:space="preserve">4.11226940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08398675918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9454026222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10095596313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21125745773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05570411682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82378816604614</t>
   </si>
   <si>
     <t xml:space="preserve">3.91712021827698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57490205764771</t>
+    <t xml:space="preserve">3.57490229606628</t>
   </si>
   <si>
     <t xml:space="preserve">3.62015438079834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81813168525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69086098670959</t>
+    <t xml:space="preserve">3.81813192367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69086050987244</t>
   </si>
   <si>
     <t xml:space="preserve">3.76439499855042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01893758773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954489707947</t>
+    <t xml:space="preserve">4.01893711090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954370498657</t>
   </si>
   <si>
     <t xml:space="preserve">4.07267379760742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00479555130005</t>
+    <t xml:space="preserve">4.00479602813721</t>
   </si>
   <si>
     <t xml:space="preserve">4.19994497299194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1462082862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08964347839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1235818862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12923908233643</t>
+    <t xml:space="preserve">4.14620780944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0896430015564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12358236312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12923860549927</t>
   </si>
   <si>
     <t xml:space="preserve">4.1716628074646</t>
@@ -161,253 +161,256 @@
     <t xml:space="preserve">4.19428777694702</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38660907745361</t>
+    <t xml:space="preserve">4.38660860061646</t>
   </si>
   <si>
     <t xml:space="preserve">4.35549783706665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52519226074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48559761047363</t>
+    <t xml:space="preserve">4.5251932144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48559808731079</t>
   </si>
   <si>
     <t xml:space="preserve">4.496910572052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48842668533325</t>
+    <t xml:space="preserve">4.48842573165894</t>
   </si>
   <si>
     <t xml:space="preserve">4.58175802230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68357467651367</t>
+    <t xml:space="preserve">4.68357563018799</t>
   </si>
   <si>
     <t xml:space="preserve">4.6666054725647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61569738388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72882699966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83630037307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76842212677002</t>
+    <t xml:space="preserve">4.61569690704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72882747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83629989624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76842164993286</t>
   </si>
   <si>
     <t xml:space="preserve">4.70620059967041</t>
   </si>
   <si>
+    <t xml:space="preserve">4.63832330703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49973917007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57327270507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57610177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41206359863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40075016021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36963987350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37246799468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38378095626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47994136810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55347585678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4686279296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45448732376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5167088508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47428464889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44034576416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41771936416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4431734085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5506477355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45731496810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53933429718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57892990112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4940824508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54216289520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45165824890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65023136138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73061275482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81099462509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85267400741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84076595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85565090179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82290363311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77526950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73358964920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79610872268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79015493392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79313230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79908609390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72168207168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50137615203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20068883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22450590133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08755970001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10839939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30488729476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34656667709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39420080184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42397165298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17389535903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954346656799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9774067401886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98931479454041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37038373947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30191087722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15603256225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00122356414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96847558021545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09946775436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19771242141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23343706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40313148498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55496454238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48351383209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67404794692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56984949111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60855150222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52519273757935</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.6383228302002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49973917007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57327318191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57610177993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41206312179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40075063705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36963939666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37246799468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38378095626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47994136810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55347537994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4686279296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45448684692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51670837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47428464889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44034576416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41771984100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44317436218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55064678192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45731496810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53933429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57892990112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4940824508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54216194152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45165777206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65023136138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73061323165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81099510192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85267400741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84076595306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85565185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82290363311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77526950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7335901260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79610919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7901554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79313230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79908561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72168254852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50137662887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2006893157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22450637817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08755970001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10839891433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30488729476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34656715393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39420032501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42397165298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17389583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954394340515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9774067401886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98931455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37038326263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30190992355347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15603303909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00122308731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9684751033783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09946775436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19771194458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23343753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40313196182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55496454238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48351383209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67404890060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56984949111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60855197906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52519273757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61152982711792</t>
+    <t xml:space="preserve">4.61152935028076</t>
   </si>
   <si>
     <t xml:space="preserve">4.69488859176636</t>
@@ -425,7 +428,7 @@
     <t xml:space="preserve">4.40610933303833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54007863998413</t>
+    <t xml:space="preserve">4.54007816314697</t>
   </si>
   <si>
     <t xml:space="preserve">4.62046003341675</t>
@@ -434,34 +437,34 @@
     <t xml:space="preserve">4.53412437438965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5162615776062</t>
+    <t xml:space="preserve">4.51626205444336</t>
   </si>
   <si>
     <t xml:space="preserve">4.56687259674072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51030731201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48649120330811</t>
+    <t xml:space="preserve">4.51030778884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48649072647095</t>
   </si>
   <si>
     <t xml:space="preserve">4.44183397293091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46267318725586</t>
+    <t xml:space="preserve">4.46267366409302</t>
   </si>
   <si>
     <t xml:space="preserve">4.3346586227417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.343590259552</t>
+    <t xml:space="preserve">4.34358978271484</t>
   </si>
   <si>
     <t xml:space="preserve">4.36740684509277</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40908575057983</t>
+    <t xml:space="preserve">4.40908622741699</t>
   </si>
   <si>
     <t xml:space="preserve">4.40015459060669</t>
@@ -473,16 +476,16 @@
     <t xml:space="preserve">4.287024974823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34061336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31084156036377</t>
+    <t xml:space="preserve">4.34061288833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31084251403809</t>
   </si>
   <si>
     <t xml:space="preserve">4.29893350601196</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25725364685059</t>
+    <t xml:space="preserve">4.25725317001343</t>
   </si>
   <si>
     <t xml:space="preserve">4.35252094268799</t>
@@ -491,7 +494,7 @@
     <t xml:space="preserve">4.29000186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32274961471558</t>
+    <t xml:space="preserve">4.32275009155273</t>
   </si>
   <si>
     <t xml:space="preserve">4.21557474136353</t>
@@ -506,49 +509,49 @@
     <t xml:space="preserve">3.9297730922699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90595650672913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97145223617554</t>
+    <t xml:space="preserve">3.90595602989197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97145199775696</t>
   </si>
   <si>
     <t xml:space="preserve">3.87618494033813</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87916207313538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99229264259338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95656704902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92679595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01313209533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9416811466217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91488766670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.894047498703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85832262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8404598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85236835479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97442936897278</t>
+    <t xml:space="preserve">3.8791618347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99229311943054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95656681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9267954826355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01313161849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94168090820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91488814353943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89404773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85832285881042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84045958518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85236859321594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97442889213562</t>
   </si>
   <si>
     <t xml:space="preserve">4.13519334793091</t>
@@ -557,13 +560,13 @@
     <t xml:space="preserve">4.20366668701172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2512993812561</t>
+    <t xml:space="preserve">4.25129985809326</t>
   </si>
   <si>
     <t xml:space="preserve">4.26023101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22748327255249</t>
+    <t xml:space="preserve">4.22748279571533</t>
   </si>
   <si>
     <t xml:space="preserve">4.17687225341797</t>
@@ -572,13 +575,13 @@
     <t xml:space="preserve">4.14114761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11137628555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04885721206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07565069198608</t>
+    <t xml:space="preserve">4.11137580871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04885768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07565116882324</t>
   </si>
   <si>
     <t xml:space="preserve">4.06076526641846</t>
@@ -590,49 +593,49 @@
     <t xml:space="preserve">4.0309944152832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98038387298584</t>
+    <t xml:space="preserve">3.98038363456726</t>
   </si>
   <si>
     <t xml:space="preserve">3.88213920593262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88809323310852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67969655990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76900863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79580283164978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78389453887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7035129070282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72137570381165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72733020782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75710129737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75114679336548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78687286376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73923873901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9357271194458</t>
+    <t xml:space="preserve">3.8880934715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67969679832458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76900935173035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79580330848694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78389430046082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70351266860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7213761806488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72732996940613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75710153579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75114631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78687214851379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73923850059509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93572759628296</t>
   </si>
   <si>
     <t xml:space="preserve">4.09649038314819</t>
@@ -647,10 +650,10 @@
     <t xml:space="preserve">4.26916217803955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27511596679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26320838928223</t>
+    <t xml:space="preserve">4.27511644363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26320934295654</t>
   </si>
   <si>
     <t xml:space="preserve">4.51923894882202</t>
@@ -662,58 +665,58 @@
     <t xml:space="preserve">4.48946809768677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4983983039856</t>
+    <t xml:space="preserve">4.49839878082275</t>
   </si>
   <si>
     <t xml:space="preserve">4.48053598403931</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45076513290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41801691055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37336111068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35847520828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32572746276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2393913269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14412355422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24534559249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16794157028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20962047576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36442899703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45671939849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29297971725464</t>
+    <t xml:space="preserve">4.45076560974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41801738739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37336158752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35847568511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32572793960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23939228057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14412403106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24534606933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16794109344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20961952209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36442947387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45671987533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29297876358032</t>
   </si>
   <si>
     <t xml:space="preserve">4.62641477584839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66809463500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52817010879517</t>
+    <t xml:space="preserve">4.66809368133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52816963195801</t>
   </si>
   <si>
     <t xml:space="preserve">4.59664392471313</t>
@@ -722,19 +725,19 @@
     <t xml:space="preserve">4.75145292282104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78420162200928</t>
+    <t xml:space="preserve">4.78420114517212</t>
   </si>
   <si>
     <t xml:space="preserve">4.72763586044312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88244533538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87053632736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96878099441528</t>
+    <t xml:space="preserve">4.88244581222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87053680419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96878051757812</t>
   </si>
   <si>
     <t xml:space="preserve">4.89435338973999</t>
@@ -746,7 +749,7 @@
     <t xml:space="preserve">4.86458253860474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80504083633423</t>
+    <t xml:space="preserve">4.80504035949707</t>
   </si>
   <si>
     <t xml:space="preserve">4.7812237739563</t>
@@ -755,13 +758,13 @@
     <t xml:space="preserve">4.70381927490234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68297910690308</t>
+    <t xml:space="preserve">4.68297958374023</t>
   </si>
   <si>
     <t xml:space="preserve">4.61450624465942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76336097717285</t>
+    <t xml:space="preserve">4.76336145401001</t>
   </si>
   <si>
     <t xml:space="preserve">4.8764910697937</t>
@@ -770,10 +773,10 @@
     <t xml:space="preserve">4.82588005065918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90923929214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93007898330688</t>
+    <t xml:space="preserve">4.90923881530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93007946014404</t>
   </si>
   <si>
     <t xml:space="preserve">4.91221618652344</t>
@@ -785,22 +788,22 @@
     <t xml:space="preserve">4.93603324890137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98962068557739</t>
+    <t xml:space="preserve">4.98962116241455</t>
   </si>
   <si>
     <t xml:space="preserve">5.0967960357666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12061357498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15633869171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19801807403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23076677322388</t>
+    <t xml:space="preserve">5.12061309814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15633821487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1980185508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23076629638672</t>
   </si>
   <si>
     <t xml:space="preserve">5.06107139587402</t>
@@ -815,31 +818,31 @@
     <t xml:space="preserve">5.04405927658081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08096647262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10557174682617</t>
+    <t xml:space="preserve">5.08096742630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10557222366333</t>
   </si>
   <si>
     <t xml:space="preserve">5.06866455078125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09019374847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18553876876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.139404296875</t>
+    <t xml:space="preserve">5.09019422531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18553829193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13940477371216</t>
   </si>
   <si>
     <t xml:space="preserve">5.14248037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06251287460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11787414550781</t>
+    <t xml:space="preserve">5.06251335144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11787462234497</t>
   </si>
   <si>
     <t xml:space="preserve">5.11172342300415</t>
@@ -854,25 +857,25 @@
     <t xml:space="preserve">5.02252960205078</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96409273147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93641138076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91488265991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95178985595703</t>
+    <t xml:space="preserve">4.96409225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93641185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91488218307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95179033279419</t>
   </si>
   <si>
     <t xml:space="preserve">4.89642858505249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82261323928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6903600692749</t>
+    <t xml:space="preserve">4.82261228561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69035959243774</t>
   </si>
   <si>
     <t xml:space="preserve">4.74264574050903</t>
@@ -881,7 +884,7 @@
     <t xml:space="preserve">4.7764778137207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86567211151123</t>
+    <t xml:space="preserve">4.86567163467407</t>
   </si>
   <si>
     <t xml:space="preserve">4.88412570953369</t>
@@ -893,19 +896,19 @@
     <t xml:space="preserve">4.89027690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98254680633545</t>
+    <t xml:space="preserve">4.98254632949829</t>
   </si>
   <si>
     <t xml:space="preserve">4.9979248046875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1086483001709</t>
+    <t xml:space="preserve">5.10864782333374</t>
   </si>
   <si>
     <t xml:space="preserve">5.11479902267456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15478229522705</t>
+    <t xml:space="preserve">5.15478277206421</t>
   </si>
   <si>
     <t xml:space="preserve">5.12402629852295</t>
@@ -920,19 +923,19 @@
     <t xml:space="preserve">5.05943727493286</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17631149291992</t>
+    <t xml:space="preserve">5.17631196975708</t>
   </si>
   <si>
     <t xml:space="preserve">5.22859811782837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22244739532471</t>
+    <t xml:space="preserve">5.22244691848755</t>
   </si>
   <si>
     <t xml:space="preserve">5.1701602935791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15785837173462</t>
+    <t xml:space="preserve">5.15785789489746</t>
   </si>
   <si>
     <t xml:space="preserve">5.3362455368042</t>
@@ -959,10 +962,10 @@
     <t xml:space="preserve">5.21321964263916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20091724395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14863061904907</t>
+    <t xml:space="preserve">5.20091676712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14863109588623</t>
   </si>
   <si>
     <t xml:space="preserve">5.22552251815796</t>
@@ -974,13 +977,13 @@
     <t xml:space="preserve">5.18861532211304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24090051651001</t>
+    <t xml:space="preserve">5.24090099334717</t>
   </si>
   <si>
     <t xml:space="preserve">5.31471633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41313648223877</t>
+    <t xml:space="preserve">5.41313600540161</t>
   </si>
   <si>
     <t xml:space="preserve">5.42543935775757</t>
@@ -989,25 +992,25 @@
     <t xml:space="preserve">5.41928863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37622928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35162401199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36392641067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38853216171265</t>
+    <t xml:space="preserve">5.37622976303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35162353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36392593383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38853168487549</t>
   </si>
   <si>
     <t xml:space="preserve">5.37315368652344</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42851543426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43159055709839</t>
+    <t xml:space="preserve">5.42851495742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43159103393555</t>
   </si>
   <si>
     <t xml:space="preserve">5.44389343261719</t>
@@ -1019,7 +1022,7 @@
     <t xml:space="preserve">5.34239721298218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39468288421631</t>
+    <t xml:space="preserve">5.39468240737915</t>
   </si>
   <si>
     <t xml:space="preserve">5.53616333007812</t>
@@ -1031,46 +1034,46 @@
     <t xml:space="preserve">5.84372758865356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87448358535767</t>
+    <t xml:space="preserve">5.87448310852051</t>
   </si>
   <si>
     <t xml:space="preserve">5.65918827056885</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65611267089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75145769119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78836536407471</t>
+    <t xml:space="preserve">5.65611219406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75145864486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78836441040039</t>
   </si>
   <si>
     <t xml:space="preserve">5.78221464157104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69302082061768</t>
+    <t xml:space="preserve">5.69301986694336</t>
   </si>
   <si>
     <t xml:space="preserve">5.76991176605225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94829988479614</t>
+    <t xml:space="preserve">5.94829940795898</t>
   </si>
   <si>
     <t xml:space="preserve">6.10515737533569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12053632736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41579723358154</t>
+    <t xml:space="preserve">6.12053537368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41579818725586</t>
   </si>
   <si>
     <t xml:space="preserve">6.40349531173706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32352828979492</t>
+    <t xml:space="preserve">6.32352781295776</t>
   </si>
   <si>
     <t xml:space="preserve">6.33583068847656</t>
@@ -1082,7 +1085,7 @@
     <t xml:space="preserve">6.24356126785278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18204927444458</t>
+    <t xml:space="preserve">6.18204879760742</t>
   </si>
   <si>
     <t xml:space="preserve">6.09285497665405</t>
@@ -1097,34 +1100,34 @@
     <t xml:space="preserve">6.56342887878418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3911919593811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61879014968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60648822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55112600326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6556978225708</t>
+    <t xml:space="preserve">6.39119243621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61879062652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60648727416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55112504959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65569686889648</t>
   </si>
   <si>
     <t xml:space="preserve">6.69260549545288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63724422454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62494087219238</t>
+    <t xml:space="preserve">6.63724374771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62494134902954</t>
   </si>
   <si>
     <t xml:space="preserve">6.4588565826416</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5757303237915</t>
+    <t xml:space="preserve">6.57573080062866</t>
   </si>
   <si>
     <t xml:space="preserve">6.66800117492676</t>
@@ -1139,43 +1142,43 @@
     <t xml:space="preserve">6.95096015930176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88944673538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70490789413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28046894073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02826547622681</t>
+    <t xml:space="preserve">6.88944721221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70490741729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28046846389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02826595306396</t>
   </si>
   <si>
     <t xml:space="preserve">5.96675300598145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0098123550415</t>
+    <t xml:space="preserve">6.00981187820435</t>
   </si>
   <si>
     <t xml:space="preserve">5.87755918502808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93599653244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01903915405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92984533309937</t>
+    <t xml:space="preserve">5.93599605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01903867721558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92984580993652</t>
   </si>
   <si>
     <t xml:space="preserve">5.92369318008423</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05902338027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0651741027832</t>
+    <t xml:space="preserve">6.05902242660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06517362594604</t>
   </si>
   <si>
     <t xml:space="preserve">6.16359424591064</t>
@@ -1184,58 +1187,58 @@
     <t xml:space="preserve">6.13283824920654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060228347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90523958206177</t>
+    <t xml:space="preserve">5.96060180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90524005889893</t>
   </si>
   <si>
     <t xml:space="preserve">5.99750947952271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95445013046265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88063478469849</t>
+    <t xml:space="preserve">5.9544506072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88063526153564</t>
   </si>
   <si>
     <t xml:space="preserve">5.89293766021729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85602951049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69609642028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64688634872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52385997772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33316946029663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49310445785522</t>
+    <t xml:space="preserve">5.85602998733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69609689712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64688587188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52385950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33316993713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49310398101807</t>
   </si>
   <si>
     <t xml:space="preserve">5.21014404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08711814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17323637008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03790807723999</t>
+    <t xml:space="preserve">5.08711767196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17323684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03790760040283</t>
   </si>
   <si>
     <t xml:space="preserve">5.01945400238037</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32086753845215</t>
+    <t xml:space="preserve">5.32086801528931</t>
   </si>
   <si>
     <t xml:space="preserve">4.92103338241577</t>
@@ -1247,19 +1250,19 @@
     <t xml:space="preserve">4.87059307098389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74633646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63192272186279</t>
+    <t xml:space="preserve">4.74633693695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63192319869995</t>
   </si>
   <si>
     <t xml:space="preserve">4.62269592285156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68728446960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82568788528442</t>
+    <t xml:space="preserve">4.68728399276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82568836212158</t>
   </si>
   <si>
     <t xml:space="preserve">4.82937955856323</t>
@@ -1274,25 +1277,25 @@
     <t xml:space="preserve">4.66821527481079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56425809860229</t>
+    <t xml:space="preserve">4.56425857543945</t>
   </si>
   <si>
     <t xml:space="preserve">4.51873874664307</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44738340377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63991928100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61900472640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59501457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4418478012085</t>
+    <t xml:space="preserve">4.44738388061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63991975784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61900520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59501504898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44184875488281</t>
   </si>
   <si>
     <t xml:space="preserve">4.33666086196899</t>
@@ -1307,34 +1310,34 @@
     <t xml:space="preserve">5.27894020080566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02088165283203</t>
+    <t xml:space="preserve">5.02088212966919</t>
   </si>
   <si>
     <t xml:space="preserve">5.12807559967041</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32128810882568</t>
+    <t xml:space="preserve">5.32128763198853</t>
   </si>
   <si>
     <t xml:space="preserve">5.53170394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46487379074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35635757446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18564224243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14130878448486</t>
+    <t xml:space="preserve">5.46487426757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35635709762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18564176559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14130830764771</t>
   </si>
   <si>
     <t xml:space="preserve">5.22666692733765</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16115999221802</t>
+    <t xml:space="preserve">5.16115951538086</t>
   </si>
   <si>
     <t xml:space="preserve">5.11550331115723</t>
@@ -1364,40 +1367,40 @@
     <t xml:space="preserve">5.13667678833008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19887542724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2140941619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19424438476562</t>
+    <t xml:space="preserve">5.19887590408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21409511566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19424390792847</t>
   </si>
   <si>
     <t xml:space="preserve">5.29349708557129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23394536972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24453258514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42583465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31864070892334</t>
+    <t xml:space="preserve">5.2339448928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24453210830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42583417892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3186411857605</t>
   </si>
   <si>
     <t xml:space="preserve">5.15057277679443</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92890739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00169324874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94611120223999</t>
+    <t xml:space="preserve">4.92890787124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00169277191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94611072540283</t>
   </si>
   <si>
     <t xml:space="preserve">4.896484375</t>
@@ -1418,13 +1421,13 @@
     <t xml:space="preserve">4.73172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81311178207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79061460494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89251470565796</t>
+    <t xml:space="preserve">4.81311225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79061412811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89251518249512</t>
   </si>
   <si>
     <t xml:space="preserve">4.98581218719482</t>
@@ -1436,16 +1439,16 @@
     <t xml:space="preserve">4.84553480148315</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74495840072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0422739982605</t>
+    <t xml:space="preserve">4.74495792388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04227447509766</t>
   </si>
   <si>
     <t xml:space="preserve">5.16319179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05792188644409</t>
+    <t xml:space="preserve">5.05792236328125</t>
   </si>
   <si>
     <t xml:space="preserve">5.15607929229736</t>
@@ -1454,37 +1457,37 @@
     <t xml:space="preserve">5.20515727996826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9590539932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96047687530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92491292953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90997552871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02875995635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95549821853638</t>
+    <t xml:space="preserve">4.95905447006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96047639846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92491245269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90997505187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02875947952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95549774169922</t>
   </si>
   <si>
     <t xml:space="preserve">4.97897005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89005994796753</t>
+    <t xml:space="preserve">4.89005947113037</t>
   </si>
   <si>
     <t xml:space="preserve">4.93629312515259</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89503860473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01239967346191</t>
+    <t xml:space="preserve">4.89503908157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01240015029907</t>
   </si>
   <si>
     <t xml:space="preserve">4.95194101333618</t>
@@ -1496,7 +1499,7 @@
     <t xml:space="preserve">5.08566236495972</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14967727661133</t>
+    <t xml:space="preserve">5.14967679977417</t>
   </si>
   <si>
     <t xml:space="preserve">5.13900804519653</t>
@@ -1508,13 +1511,13 @@
     <t xml:space="preserve">5.01737880706787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02804803848267</t>
+    <t xml:space="preserve">5.02804851531982</t>
   </si>
   <si>
     <t xml:space="preserve">5.06859159469604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10486698150635</t>
+    <t xml:space="preserve">5.10486650466919</t>
   </si>
   <si>
     <t xml:space="preserve">5.16390323638916</t>
@@ -1529,10 +1532,10 @@
     <t xml:space="preserve">5.15110015869141</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16461420059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02591419219971</t>
+    <t xml:space="preserve">5.1646146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02591466903687</t>
   </si>
   <si>
     <t xml:space="preserve">5.15679025650024</t>
@@ -1556,7 +1559,7 @@
     <t xml:space="preserve">5.00030851364136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92989158630371</t>
+    <t xml:space="preserve">4.92989206314087</t>
   </si>
   <si>
     <t xml:space="preserve">4.92277908325195</t>
@@ -1565,7 +1568,7 @@
     <t xml:space="preserve">4.91424369812012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8317346572876</t>
+    <t xml:space="preserve">4.83173513412476</t>
   </si>
   <si>
     <t xml:space="preserve">4.73926830291748</t>
@@ -1577,22 +1580,22 @@
     <t xml:space="preserve">4.61692762374878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63684320449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67525243759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76487398147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75633907318115</t>
+    <t xml:space="preserve">4.63684368133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67525291442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76487445831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75633859634399</t>
   </si>
   <si>
     <t xml:space="preserve">4.68592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69445753097534</t>
+    <t xml:space="preserve">4.69445705413818</t>
   </si>
   <si>
     <t xml:space="preserve">4.73713445663452</t>
@@ -1607,7 +1610,7 @@
     <t xml:space="preserve">4.7093939781189</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66173887252808</t>
+    <t xml:space="preserve">4.66173839569092</t>
   </si>
   <si>
     <t xml:space="preserve">4.67169618606567</t>
@@ -1616,19 +1619,19 @@
     <t xml:space="preserve">4.64537906646729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667484283447</t>
+    <t xml:space="preserve">4.67667531967163</t>
   </si>
   <si>
     <t xml:space="preserve">4.67454147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68663311004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66600561141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68094301223755</t>
+    <t xml:space="preserve">4.68663358688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66600608825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68094348907471</t>
   </si>
   <si>
     <t xml:space="preserve">4.63968849182129</t>
@@ -1643,7 +1646,7 @@
     <t xml:space="preserve">4.8260440826416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81466436386108</t>
+    <t xml:space="preserve">4.81466388702393</t>
   </si>
   <si>
     <t xml:space="preserve">4.8651647567749</t>
@@ -1652,7 +1655,7 @@
     <t xml:space="preserve">4.89361619949341</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87298917770386</t>
+    <t xml:space="preserve">4.8729887008667</t>
   </si>
   <si>
     <t xml:space="preserve">4.80683946609497</t>
@@ -1661,19 +1664,19 @@
     <t xml:space="preserve">4.79332542419434</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70726013183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66387176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56784963607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5799412727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55220127105713</t>
+    <t xml:space="preserve">4.7072606086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66387224197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56784915924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57994079589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55220079421997</t>
   </si>
   <si>
     <t xml:space="preserve">4.48178434371948</t>
@@ -1685,7 +1688,7 @@
     <t xml:space="preserve">4.34948587417603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30609703063965</t>
+    <t xml:space="preserve">4.30609798431396</t>
   </si>
   <si>
     <t xml:space="preserve">4.20651817321777</t>
@@ -1697,19 +1700,19 @@
     <t xml:space="preserve">4.12543201446533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19940567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23852634429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1894474029541</t>
+    <t xml:space="preserve">4.19940519332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23852586746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18944692611694</t>
   </si>
   <si>
     <t xml:space="preserve">4.19300365447998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24634981155396</t>
+    <t xml:space="preserve">4.24635028839111</t>
   </si>
   <si>
     <t xml:space="preserve">4.23212432861328</t>
@@ -1721,16 +1724,16 @@
     <t xml:space="preserve">4.27408981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36513376235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43341684341431</t>
+    <t xml:space="preserve">4.36513423919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43341732025146</t>
   </si>
   <si>
     <t xml:space="preserve">4.44550895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43768453598022</t>
+    <t xml:space="preserve">4.43768501281738</t>
   </si>
   <si>
     <t xml:space="preserve">4.3665566444397</t>
@@ -1739,34 +1742,34 @@
     <t xml:space="preserve">4.29613924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51663684844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42345857620239</t>
+    <t xml:space="preserve">4.51663732528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42345905303955</t>
   </si>
   <si>
     <t xml:space="preserve">4.37082433700562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33952808380127</t>
+    <t xml:space="preserve">4.33952760696411</t>
   </si>
   <si>
     <t xml:space="preserve">4.2698221206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29542827606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2776460647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23283576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17166519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17379951477051</t>
+    <t xml:space="preserve">4.29542875289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27764654159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23283624649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17166566848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17379903793335</t>
   </si>
   <si>
     <t xml:space="preserve">4.19442653656006</t>
@@ -1775,25 +1778,25 @@
     <t xml:space="preserve">4.2883152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36940145492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38149309158325</t>
+    <t xml:space="preserve">4.36940240859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38149356842041</t>
   </si>
   <si>
     <t xml:space="preserve">4.34379577636719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33312654495239</t>
+    <t xml:space="preserve">4.33312606811523</t>
   </si>
   <si>
     <t xml:space="preserve">4.25559663772583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18375682830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16810941696167</t>
+    <t xml:space="preserve">4.18375730514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16810894012451</t>
   </si>
   <si>
     <t xml:space="preserve">4.13041114807129</t>
@@ -1802,19 +1805,19 @@
     <t xml:space="preserve">4.13681221008301</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09982633590698</t>
+    <t xml:space="preserve">4.09982585906982</t>
   </si>
   <si>
     <t xml:space="preserve">4.02087354660034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11974143981934</t>
+    <t xml:space="preserve">4.11974191665649</t>
   </si>
   <si>
     <t xml:space="preserve">4.04007863998413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00735902786255</t>
+    <t xml:space="preserve">4.00735950469971</t>
   </si>
   <si>
     <t xml:space="preserve">3.91204786300659</t>
@@ -1823,22 +1826,22 @@
     <t xml:space="preserve">3.83807468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82242655754089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225819587708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85727882385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77477073669434</t>
+    <t xml:space="preserve">3.82242679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225771903992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85727906227112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77477049827576</t>
   </si>
   <si>
     <t xml:space="preserve">3.82811665534973</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96326065063477</t>
+    <t xml:space="preserve">3.96325969696045</t>
   </si>
   <si>
     <t xml:space="preserve">4.03438806533813</t>
@@ -1856,22 +1859,22 @@
     <t xml:space="preserve">4.18802499771118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20794105529785</t>
+    <t xml:space="preserve">4.20794057846069</t>
   </si>
   <si>
     <t xml:space="preserve">4.18233489990234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13325643539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09129095077515</t>
+    <t xml:space="preserve">4.13325595855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09129047393799</t>
   </si>
   <si>
     <t xml:space="preserve">4.18020105361938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16028451919556</t>
+    <t xml:space="preserve">4.16028499603271</t>
   </si>
   <si>
     <t xml:space="preserve">4.19798278808594</t>
@@ -1898,28 +1901,28 @@
     <t xml:space="preserve">4.43697309494019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43839645385742</t>
+    <t xml:space="preserve">4.43839550018311</t>
   </si>
   <si>
     <t xml:space="preserve">4.39714193344116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39571857452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41705799102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40994501113892</t>
+    <t xml:space="preserve">4.39571905136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41705703735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40994453430176</t>
   </si>
   <si>
     <t xml:space="preserve">4.38860654830933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27906894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19371509552002</t>
+    <t xml:space="preserve">4.27906847000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19371557235718</t>
   </si>
   <si>
     <t xml:space="preserve">4.2676887512207</t>
@@ -1934,16 +1937,16 @@
     <t xml:space="preserve">4.31534433364868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38433885574341</t>
+    <t xml:space="preserve">4.38433837890625</t>
   </si>
   <si>
     <t xml:space="preserve">4.36726808547974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36442279815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36015462875366</t>
+    <t xml:space="preserve">4.36442232131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36015558242798</t>
   </si>
   <si>
     <t xml:space="preserve">4.30680894851685</t>
@@ -1952,13 +1955,13 @@
     <t xml:space="preserve">4.43270540237427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49458742141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40069770812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48676300048828</t>
+    <t xml:space="preserve">4.49458694458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40069818496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48676347732544</t>
   </si>
   <si>
     <t xml:space="preserve">4.5251727104187</t>
@@ -1970,10 +1973,10 @@
     <t xml:space="preserve">4.73215532302856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63044214248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59487771987915</t>
+    <t xml:space="preserve">4.63044261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59487819671631</t>
   </si>
   <si>
     <t xml:space="preserve">4.60199069976807</t>
@@ -1982,7 +1985,7 @@
     <t xml:space="preserve">4.71366214752197</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73571157455444</t>
+    <t xml:space="preserve">4.7357120513916</t>
   </si>
   <si>
     <t xml:space="preserve">4.76843070983887</t>
@@ -1997,25 +2000,25 @@
     <t xml:space="preserve">4.72859859466553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72931003570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66316080093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61123704910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57211637496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61621618270874</t>
+    <t xml:space="preserve">4.72931051254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.663161277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61123752593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57211685180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6162166595459</t>
   </si>
   <si>
     <t xml:space="preserve">4.58065223693848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70157051086426</t>
+    <t xml:space="preserve">4.7015700340271</t>
   </si>
   <si>
     <t xml:space="preserve">4.68023157119751</t>
@@ -2024,7 +2027,7 @@
     <t xml:space="preserve">4.71579599380493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74424743652344</t>
+    <t xml:space="preserve">4.74424695968628</t>
   </si>
   <si>
     <t xml:space="preserve">4.60910367965698</t>
@@ -2039,7 +2042,7 @@
     <t xml:space="preserve">4.72290849685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75847244262695</t>
+    <t xml:space="preserve">4.75847291946411</t>
   </si>
   <si>
     <t xml:space="preserve">4.80114936828613</t>
@@ -2051,7 +2054,7 @@
     <t xml:space="preserve">4.77981090545654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78692436218262</t>
+    <t xml:space="preserve">4.78692388534546</t>
   </si>
   <si>
     <t xml:space="preserve">4.87939071655273</t>
@@ -2066,10 +2069,7 @@
     <t xml:space="preserve">4.70926475524902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77082395553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7015700340271</t>
+    <t xml:space="preserve">4.77082347869873</t>
   </si>
   <si>
     <t xml:space="preserve">4.76312923431396</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">4.78621339797974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85546779632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90163660049438</t>
+    <t xml:space="preserve">4.85546731948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90163707733154</t>
   </si>
   <si>
     <t xml:space="preserve">4.87855243682861</t>
@@ -2093,25 +2093,25 @@
     <t xml:space="preserve">4.81699371337891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74773931503296</t>
+    <t xml:space="preserve">4.74773979187012</t>
   </si>
   <si>
     <t xml:space="preserve">4.67079067230225</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73234939575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72465467453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71695947647095</t>
+    <t xml:space="preserve">4.73234987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72465419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71695995330811</t>
   </si>
   <si>
     <t xml:space="preserve">4.80929851531982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8016037940979</t>
+    <t xml:space="preserve">4.80160331726074</t>
   </si>
   <si>
     <t xml:space="preserve">4.74004411697388</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">4.60153675079346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53228282928467</t>
+    <t xml:space="preserve">4.53228235244751</t>
   </si>
   <si>
     <t xml:space="preserve">4.57845211029053</t>
@@ -2132,25 +2132,25 @@
     <t xml:space="preserve">4.52458810806274</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57075691223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5091986656189</t>
+    <t xml:space="preserve">4.5707573890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50919818878174</t>
   </si>
   <si>
     <t xml:space="preserve">4.47841882705688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47072410583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46302843093872</t>
+    <t xml:space="preserve">4.4707236289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46302890777588</t>
   </si>
   <si>
     <t xml:space="preserve">4.48611354827881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75543355941772</t>
+    <t xml:space="preserve">4.75543403625488</t>
   </si>
   <si>
     <t xml:space="preserve">4.66309547424316</t>
@@ -2165,13 +2165,13 @@
     <t xml:space="preserve">4.58614730834961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5553674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53997755050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54767274856567</t>
+    <t xml:space="preserve">4.55536794662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53997802734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54767227172852</t>
   </si>
   <si>
     <t xml:space="preserve">4.50150299072266</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">4.33991050720215</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24757194519043</t>
+    <t xml:space="preserve">4.24757242202759</t>
   </si>
   <si>
     <t xml:space="preserve">4.27835178375244</t>
@@ -2198,22 +2198,22 @@
     <t xml:space="preserve">4.16292858123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07059001922607</t>
+    <t xml:space="preserve">4.07059049606323</t>
   </si>
   <si>
     <t xml:space="preserve">4.03981065750122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.093674659729</t>
+    <t xml:space="preserve">4.09367513656616</t>
   </si>
   <si>
     <t xml:space="preserve">4.03211545944214</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12445402145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05520009994507</t>
+    <t xml:space="preserve">4.12445449829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05520057678223</t>
   </si>
   <si>
     <t xml:space="preserve">4.07828521728516</t>
@@ -2225,19 +2225,19 @@
     <t xml:space="preserve">4.10906457901001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18601369857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20909786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23987770080566</t>
+    <t xml:space="preserve">4.18601322174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20909738540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23987722396851</t>
   </si>
   <si>
     <t xml:space="preserve">4.30913114547729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33221626281738</t>
+    <t xml:space="preserve">4.33221578598022</t>
   </si>
   <si>
     <t xml:space="preserve">4.3245210647583</t>
@@ -2246,31 +2246,31 @@
     <t xml:space="preserve">4.31682634353638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25526762008667</t>
+    <t xml:space="preserve">4.25526714324951</t>
   </si>
   <si>
     <t xml:space="preserve">4.28604650497437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27065706253052</t>
+    <t xml:space="preserve">4.27065658569336</t>
   </si>
   <si>
     <t xml:space="preserve">4.30143642425537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1783185005188</t>
+    <t xml:space="preserve">4.17831802368164</t>
   </si>
   <si>
     <t xml:space="preserve">4.37838506698608</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38607978820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41685914993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4553337097168</t>
+    <t xml:space="preserve">4.38608026504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41685962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45533418655396</t>
   </si>
   <si>
     <t xml:space="preserve">4.43994426727295</t>
@@ -2282,13 +2282,13 @@
     <t xml:space="preserve">4.42455434799194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44763898849487</t>
+    <t xml:space="preserve">4.44763946533203</t>
   </si>
   <si>
     <t xml:space="preserve">4.43224954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56306219100952</t>
+    <t xml:space="preserve">4.56306171417236</t>
   </si>
   <si>
     <t xml:space="preserve">4.59384155273438</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">4.62462139129639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60923099517822</t>
+    <t xml:space="preserve">4.60923147201538</t>
   </si>
   <si>
     <t xml:space="preserve">4.82468795776367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90933227539062</t>
+    <t xml:space="preserve">4.90933179855347</t>
   </si>
   <si>
     <t xml:space="preserve">4.95550107955933</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">4.83238315582275</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87085771560669</t>
+    <t xml:space="preserve">4.87085723876953</t>
   </si>
   <si>
     <t xml:space="preserve">4.88624715805054</t>
@@ -2336,10 +2336,10 @@
     <t xml:space="preserve">4.84777307510376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22448778152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20140314102173</t>
+    <t xml:space="preserve">4.2244873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20140266418457</t>
   </si>
   <si>
     <t xml:space="preserve">4.10136985778809</t>
@@ -2354,22 +2354,22 @@
     <t xml:space="preserve">3.50116920471191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49347424507141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81247758865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.858647108078</t>
+    <t xml:space="preserve">3.49347448348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81247782707214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85864686965942</t>
   </si>
   <si>
     <t xml:space="preserve">2.62780046463013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66242742538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79708766937256</t>
+    <t xml:space="preserve">2.6624276638031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79708790779114</t>
   </si>
   <si>
     <t xml:space="preserve">2.73937630653381</t>
@@ -2384,28 +2384,28 @@
     <t xml:space="preserve">2.98561239242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90481615066528</t>
+    <t xml:space="preserve">2.90481638908386</t>
   </si>
   <si>
     <t xml:space="preserve">2.93174815177917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92405319213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77785062789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88557910919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90096879005432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84710454940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79324054718018</t>
+    <t xml:space="preserve">2.92405343055725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77785086631775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88557887077332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90096855163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84710478782654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79324078559875</t>
   </si>
   <si>
     <t xml:space="preserve">2.8086302280426</t>
@@ -2414,13 +2414,13 @@
     <t xml:space="preserve">2.86249446868896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83171486854553</t>
+    <t xml:space="preserve">2.83171463012695</t>
   </si>
   <si>
     <t xml:space="preserve">2.78939294815063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69320726394653</t>
+    <t xml:space="preserve">2.69320702552795</t>
   </si>
   <si>
     <t xml:space="preserve">2.75476598739624</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">2.78554558753967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72013926506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71629166603088</t>
+    <t xml:space="preserve">2.72013902664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71629190444946</t>
   </si>
   <si>
     <t xml:space="preserve">2.73168158531189</t>
@@ -2441,7 +2441,7 @@
     <t xml:space="preserve">2.74707126617432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.704749584198</t>
+    <t xml:space="preserve">2.70474934577942</t>
   </si>
   <si>
     <t xml:space="preserve">2.6970546245575</t>
@@ -2450,25 +2450,25 @@
     <t xml:space="preserve">2.72398662567139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68166446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64319038391113</t>
+    <t xml:space="preserve">2.68166470527649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64319014549255</t>
   </si>
   <si>
     <t xml:space="preserve">2.53930950164795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5085301399231</t>
+    <t xml:space="preserve">2.50852990150452</t>
   </si>
   <si>
     <t xml:space="preserve">2.47775053977966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48544526100159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55469918251038</t>
+    <t xml:space="preserve">2.48544549942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55469942092896</t>
   </si>
   <si>
     <t xml:space="preserve">2.42003893852234</t>
@@ -2483,10 +2483,10 @@
     <t xml:space="preserve">2.53161454200745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46620798110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50083494186401</t>
+    <t xml:space="preserve">2.4662082195282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50083518028259</t>
   </si>
   <si>
     <t xml:space="preserve">2.49698758125305</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">2.70859694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87403678894043</t>
+    <t xml:space="preserve">2.87403655052185</t>
   </si>
   <si>
     <t xml:space="preserve">3.01639199256897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63164806365967</t>
+    <t xml:space="preserve">2.63164830207825</t>
   </si>
   <si>
     <t xml:space="preserve">2.63549542427063</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">2.68935942649841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72783422470093</t>
+    <t xml:space="preserve">2.72783398628235</t>
   </si>
   <si>
     <t xml:space="preserve">2.77790355682373</t>
@@ -8387,7 +8387,7 @@
         <v>7.24187612533569</v>
       </c>
       <c r="G145" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8413,7 +8413,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G146" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8439,7 +8439,7 @@
         <v>7.33019208908081</v>
       </c>
       <c r="G147" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8465,7 +8465,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G148" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8491,7 +8491,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G149" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8517,7 +8517,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G150" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8569,7 +8569,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G152" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8595,7 +8595,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G153" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8621,7 +8621,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G154" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8647,7 +8647,7 @@
         <v>7.07918977737427</v>
       </c>
       <c r="G155" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8673,7 +8673,7 @@
         <v>7.05130100250244</v>
       </c>
       <c r="G156" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8725,7 +8725,7 @@
         <v>7.13032007217407</v>
       </c>
       <c r="G158" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8751,7 +8751,7 @@
         <v>7.04200410842896</v>
       </c>
       <c r="G159" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8777,7 +8777,7 @@
         <v>7.0048189163208</v>
       </c>
       <c r="G160" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8803,7 +8803,7 @@
         <v>6.93509578704834</v>
       </c>
       <c r="G161" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8829,7 +8829,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G162" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8855,7 +8855,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G163" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8881,7 +8881,7 @@
         <v>6.78170585632324</v>
       </c>
       <c r="G164" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8907,7 +8907,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G165" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8933,7 +8933,7 @@
         <v>6.88396596908569</v>
       </c>
       <c r="G166" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8959,7 +8959,7 @@
         <v>6.87002086639404</v>
       </c>
       <c r="G167" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8985,7 +8985,7 @@
         <v>6.83283615112305</v>
       </c>
       <c r="G168" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9011,7 +9011,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G169" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -9037,7 +9037,7 @@
         <v>6.77705812454224</v>
       </c>
       <c r="G170" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9063,7 +9063,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G171" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9089,7 +9089,7 @@
         <v>6.71198320388794</v>
       </c>
       <c r="G172" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9115,7 +9115,7 @@
         <v>6.64690780639648</v>
       </c>
       <c r="G173" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9141,7 +9141,7 @@
         <v>6.79565000534058</v>
       </c>
       <c r="G174" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9167,7 +9167,7 @@
         <v>6.69803810119629</v>
       </c>
       <c r="G175" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9219,7 +9219,7 @@
         <v>6.74916791915894</v>
       </c>
       <c r="G177" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9245,7 +9245,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G178" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9271,7 +9271,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G179" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9297,7 +9297,7 @@
         <v>6.242516040802</v>
       </c>
       <c r="G180" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9349,7 +9349,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G182" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9375,7 +9375,7 @@
         <v>6.09842205047607</v>
       </c>
       <c r="G183" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9401,7 +9401,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G184" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9427,7 +9427,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G185" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9453,7 +9453,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G186" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9479,7 +9479,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G187" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9505,7 +9505,7 @@
         <v>6.17744112014771</v>
       </c>
       <c r="G188" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9531,7 +9531,7 @@
         <v>6.13095903396606</v>
       </c>
       <c r="G189" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9583,7 +9583,7 @@
         <v>6.26575708389282</v>
       </c>
       <c r="G191" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9635,7 +9635,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G193" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9661,7 +9661,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G194" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9687,7 +9687,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G195" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9713,7 +9713,7 @@
         <v>6.11236715316772</v>
       </c>
       <c r="G196" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9739,7 +9739,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G197" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9765,7 +9765,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G198" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9791,7 +9791,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G199" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9817,7 +9817,7 @@
         <v>6.02405118942261</v>
       </c>
       <c r="G200" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9843,7 +9843,7 @@
         <v>5.99616193771362</v>
       </c>
       <c r="G201" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9869,7 +9869,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G202" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9895,7 +9895,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G203" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9921,7 +9921,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G204" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9947,7 +9947,7 @@
         <v>6.20532989501953</v>
       </c>
       <c r="G205" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9973,7 +9973,7 @@
         <v>6.45633316040039</v>
       </c>
       <c r="G206" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9999,7 +9999,7 @@
         <v>6.56324100494385</v>
       </c>
       <c r="G207" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10025,7 +10025,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G208" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10051,7 +10051,7 @@
         <v>6.63761186599731</v>
       </c>
       <c r="G209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10103,7 +10103,7 @@
         <v>6.65155601501465</v>
       </c>
       <c r="G211" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10129,7 +10129,7 @@
         <v>6.600426197052</v>
       </c>
       <c r="G212" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10155,7 +10155,7 @@
         <v>6.52140712738037</v>
       </c>
       <c r="G213" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10207,7 +10207,7 @@
         <v>6.46562910079956</v>
       </c>
       <c r="G215" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10233,7 +10233,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G216" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10259,7 +10259,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10285,7 +10285,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G218" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10311,7 +10311,7 @@
         <v>6.36336898803711</v>
       </c>
       <c r="G219" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10337,7 +10337,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G220" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10363,7 +10363,7 @@
         <v>6.34477615356445</v>
       </c>
       <c r="G221" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10389,7 +10389,7 @@
         <v>6.29364585876465</v>
       </c>
       <c r="G222" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10415,7 +10415,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G223" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10441,7 +10441,7 @@
         <v>6.21462678909302</v>
       </c>
       <c r="G224" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10467,7 +10467,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G225" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10493,7 +10493,7 @@
         <v>6.06123685836792</v>
       </c>
       <c r="G226" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10519,7 +10519,7 @@
         <v>6.07053279876709</v>
       </c>
       <c r="G227" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10545,7 +10545,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G228" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10571,7 +10571,7 @@
         <v>5.74516010284424</v>
       </c>
       <c r="G229" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10597,7 +10597,7 @@
         <v>5.88460493087769</v>
       </c>
       <c r="G230" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10623,7 +10623,7 @@
         <v>5.92643880844116</v>
       </c>
       <c r="G231" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10649,7 +10649,7 @@
         <v>5.90784597396851</v>
       </c>
       <c r="G232" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10675,7 +10675,7 @@
         <v>5.78234481811523</v>
       </c>
       <c r="G233" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10701,7 +10701,7 @@
         <v>5.81023406982422</v>
       </c>
       <c r="G234" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10727,7 +10727,7 @@
         <v>5.81953096389771</v>
       </c>
       <c r="G235" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10753,7 +10753,7 @@
         <v>5.86601305007935</v>
       </c>
       <c r="G236" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10779,7 +10779,7 @@
         <v>5.85671615600586</v>
       </c>
       <c r="G237" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10805,7 +10805,7 @@
         <v>5.91249513626099</v>
       </c>
       <c r="G238" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10831,7 +10831,7 @@
         <v>5.83812379837036</v>
       </c>
       <c r="G239" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10857,7 +10857,7 @@
         <v>6.14490413665771</v>
       </c>
       <c r="G240" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10883,7 +10883,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G241" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10909,7 +10909,7 @@
         <v>6.3959059715271</v>
       </c>
       <c r="G242" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10935,7 +10935,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G243" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10961,7 +10961,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G244" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11013,7 +11013,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G246" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11091,7 +11091,7 @@
         <v>6.57718515396118</v>
       </c>
       <c r="G249" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11117,7 +11117,7 @@
         <v>6.53070402145386</v>
       </c>
       <c r="G250" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11143,7 +11143,7 @@
         <v>6.6655011177063</v>
       </c>
       <c r="G251" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11169,7 +11169,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G252" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11195,7 +11195,7 @@
         <v>6.67479705810547</v>
       </c>
       <c r="G253" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11221,7 +11221,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G254" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11247,7 +11247,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G255" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11273,7 +11273,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G256" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11299,7 +11299,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G257" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11325,7 +11325,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G258" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11403,7 +11403,7 @@
         <v>7.05594921112061</v>
       </c>
       <c r="G261" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11455,7 +11455,7 @@
         <v>6.91650295257568</v>
       </c>
       <c r="G263" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11481,7 +11481,7 @@
         <v>7.00946712493896</v>
       </c>
       <c r="G264" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11507,7 +11507,7 @@
         <v>7.02341079711914</v>
       </c>
       <c r="G265" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11559,7 +11559,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G267" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11585,7 +11585,7 @@
         <v>6.94903993606567</v>
       </c>
       <c r="G268" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11663,7 +11663,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G271" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11715,7 +11715,7 @@
         <v>6.82818794250488</v>
       </c>
       <c r="G273" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11741,7 +11741,7 @@
         <v>6.80494689941406</v>
       </c>
       <c r="G274" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11767,7 +11767,7 @@
         <v>6.75381708145142</v>
       </c>
       <c r="G275" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11819,7 +11819,7 @@
         <v>6.61901903152466</v>
       </c>
       <c r="G277" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11845,7 +11845,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G278" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11871,7 +11871,7 @@
         <v>6.47027683258057</v>
       </c>
       <c r="G279" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11897,7 +11897,7 @@
         <v>6.62831592559814</v>
       </c>
       <c r="G280" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11923,7 +11923,7 @@
         <v>6.50746297836304</v>
       </c>
       <c r="G281" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11949,7 +11949,7 @@
         <v>6.57253694534302</v>
       </c>
       <c r="G282" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12027,7 +12027,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G285" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12105,7 +12105,7 @@
         <v>6.81424283981323</v>
       </c>
       <c r="G288" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12131,7 +12131,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G289" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12157,7 +12157,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G290" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12183,7 +12183,7 @@
         <v>6.95833683013916</v>
       </c>
       <c r="G291" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12209,7 +12209,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G292" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12235,7 +12235,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G293" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12261,7 +12261,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G294" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12287,7 +12287,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G295" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12313,7 +12313,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G296" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12365,7 +12365,7 @@
         <v>6.70268678665161</v>
       </c>
       <c r="G298" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12391,7 +12391,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G299" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12417,7 +12417,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G300" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12443,7 +12443,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G301" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12495,7 +12495,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G303" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12521,7 +12521,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G304" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12547,7 +12547,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G305" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12573,7 +12573,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G306" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12599,7 +12599,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G307" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12625,7 +12625,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G308" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12651,7 +12651,7 @@
         <v>7.06989288330078</v>
       </c>
       <c r="G309" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12677,7 +12677,7 @@
         <v>7.17680215835571</v>
       </c>
       <c r="G310" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12703,7 +12703,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G311" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12729,7 +12729,7 @@
         <v>7.41850709915161</v>
       </c>
       <c r="G312" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12755,7 +12755,7 @@
         <v>7.46963787078857</v>
       </c>
       <c r="G313" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12807,7 +12807,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G315" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12859,7 +12859,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G317" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12885,7 +12885,7 @@
         <v>7.60443496704102</v>
       </c>
       <c r="G318" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12911,7 +12911,7 @@
         <v>7.75782489776611</v>
       </c>
       <c r="G319" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12937,7 +12937,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G320" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12989,7 +12989,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G322" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13015,7 +13015,7 @@
         <v>7.59978723526001</v>
       </c>
       <c r="G323" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13041,7 +13041,7 @@
         <v>7.59513902664185</v>
       </c>
       <c r="G324" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13145,7 +13145,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G328" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13171,7 +13171,7 @@
         <v>7.46498918533325</v>
       </c>
       <c r="G329" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13223,7 +13223,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G331" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13249,7 +13249,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G332" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13275,7 +13275,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G333" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13301,7 +13301,7 @@
         <v>7.311598777771</v>
       </c>
       <c r="G334" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13327,7 +13327,7 @@
         <v>7.20469093322754</v>
       </c>
       <c r="G335" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13353,7 +13353,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G336" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13379,7 +13379,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G337" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13405,7 +13405,7 @@
         <v>7.53471183776855</v>
       </c>
       <c r="G338" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13431,7 +13431,7 @@
         <v>7.66486120223999</v>
       </c>
       <c r="G339" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13457,7 +13457,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G340" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13483,7 +13483,7 @@
         <v>7.6973991394043</v>
       </c>
       <c r="G341" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13509,7 +13509,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G342" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13535,7 +13535,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G343" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13561,7 +13561,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G344" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13587,7 +13587,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G345" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13613,7 +13613,7 @@
         <v>7.95769691467285</v>
       </c>
       <c r="G346" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13639,7 +13639,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G347" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13665,7 +13665,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G348" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13691,7 +13691,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G349" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13717,7 +13717,7 @@
         <v>8.16686630249023</v>
       </c>
       <c r="G350" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13743,7 +13743,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G351" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13769,7 +13769,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G352" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13795,7 +13795,7 @@
         <v>7.8554368019104</v>
       </c>
       <c r="G353" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13821,7 +13821,7 @@
         <v>7.79965877532959</v>
       </c>
       <c r="G354" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13847,7 +13847,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G355" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13873,7 +13873,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G356" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13899,7 +13899,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G357" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13925,7 +13925,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G358" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13951,7 +13951,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G359" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13977,7 +13977,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G360" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14003,7 +14003,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G361" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14029,7 +14029,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G362" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14055,7 +14055,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G363" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14081,7 +14081,7 @@
         <v>7.83684396743774</v>
       </c>
       <c r="G364" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14107,7 +14107,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G365" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14133,7 +14133,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G366" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14159,7 +14159,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G367" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14185,7 +14185,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G368" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14211,7 +14211,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G369" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14237,7 +14237,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G370" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14263,7 +14263,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G371" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14289,7 +14289,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G372" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14315,7 +14315,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G373" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14341,7 +14341,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G374" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14367,7 +14367,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G375" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14393,7 +14393,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G376" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14419,7 +14419,7 @@
         <v>7.46034097671509</v>
       </c>
       <c r="G377" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14445,7 +14445,7 @@
         <v>7.4278039932251</v>
       </c>
       <c r="G378" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14471,7 +14471,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G379" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14497,7 +14497,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G380" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14523,7 +14523,7 @@
         <v>7.39991521835327</v>
       </c>
       <c r="G381" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14549,7 +14549,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G382" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14575,7 +14575,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G383" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14601,7 +14601,7 @@
         <v>7.16750478744507</v>
       </c>
       <c r="G384" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14627,7 +14627,7 @@
         <v>7.21863508224487</v>
       </c>
       <c r="G385" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14653,7 +14653,7 @@
         <v>7.35343313217163</v>
       </c>
       <c r="G386" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14679,7 +14679,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G387" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14705,7 +14705,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G388" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14731,7 +14731,7 @@
         <v>7.39061784744263</v>
       </c>
       <c r="G389" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14757,7 +14757,7 @@
         <v>7.53006410598755</v>
       </c>
       <c r="G390" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14783,7 +14783,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G391" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14809,7 +14809,7 @@
         <v>7.55330514907837</v>
       </c>
       <c r="G392" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14835,7 +14835,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G393" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14861,7 +14861,7 @@
         <v>7.72064018249512</v>
       </c>
       <c r="G394" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14887,7 +14887,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G395" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14913,7 +14913,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G396" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14939,7 +14939,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G397" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14965,7 +14965,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G398" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14991,7 +14991,7 @@
         <v>7.72993612289429</v>
       </c>
       <c r="G399" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15017,7 +15017,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G400" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15043,7 +15043,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G401" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15069,7 +15069,7 @@
         <v>7.74388122558594</v>
       </c>
       <c r="G402" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15095,7 +15095,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G403" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15121,7 +15121,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G404" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15147,7 +15147,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G405" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15173,7 +15173,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G406" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15199,7 +15199,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G407" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15225,7 +15225,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G408" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15251,7 +15251,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G409" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15277,7 +15277,7 @@
         <v>7.82289981842041</v>
       </c>
       <c r="G410" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15303,7 +15303,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G411" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15329,7 +15329,7 @@
         <v>7.89262294769287</v>
       </c>
       <c r="G412" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15355,7 +15355,7 @@
         <v>7.81360292434692</v>
       </c>
       <c r="G413" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15381,7 +15381,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G414" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15407,7 +15407,7 @@
         <v>7.79501104354858</v>
       </c>
       <c r="G415" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15433,7 +15433,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G416" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15459,7 +15459,7 @@
         <v>8.01347637176514</v>
       </c>
       <c r="G417" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15485,7 +15485,7 @@
         <v>7.99023485183716</v>
       </c>
       <c r="G418" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15511,7 +15511,7 @@
         <v>7.93445587158203</v>
       </c>
       <c r="G419" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15537,7 +15537,7 @@
         <v>7.94375276565552</v>
       </c>
       <c r="G420" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15563,7 +15563,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G421" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15589,7 +15589,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G422" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15615,7 +15615,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G423" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15641,7 +15641,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G424" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15667,7 +15667,7 @@
         <v>7.86008501052856</v>
       </c>
       <c r="G425" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15693,7 +15693,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G426" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15719,7 +15719,7 @@
         <v>7.78106594085693</v>
       </c>
       <c r="G427" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15745,7 +15745,7 @@
         <v>7.89727115631104</v>
       </c>
       <c r="G428" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15771,7 +15771,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G429" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15797,7 +15797,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G430" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15823,7 +15823,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G431" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15849,7 +15849,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G432" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15875,7 +15875,7 @@
         <v>7.84149312973022</v>
       </c>
       <c r="G433" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15901,7 +15901,7 @@
         <v>7.92051219940186</v>
       </c>
       <c r="G434" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15927,7 +15927,7 @@
         <v>8.03206825256348</v>
       </c>
       <c r="G435" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15953,7 +15953,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G436" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15979,7 +15979,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G437" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16005,7 +16005,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G438" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16031,7 +16031,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G439" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16057,7 +16057,7 @@
         <v>8.19010734558105</v>
       </c>
       <c r="G440" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16083,7 +16083,7 @@
         <v>8.12503242492676</v>
       </c>
       <c r="G441" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16109,7 +16109,7 @@
         <v>8.08784675598145</v>
       </c>
       <c r="G442" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16135,7 +16135,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G443" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16161,7 +16161,7 @@
         <v>8.10643863677979</v>
       </c>
       <c r="G444" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16187,7 +16187,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G445" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16213,7 +16213,7 @@
         <v>8.14362525939941</v>
       </c>
       <c r="G446" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16239,7 +16239,7 @@
         <v>8.12038421630859</v>
       </c>
       <c r="G447" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16265,7 +16265,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G448" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16291,7 +16291,7 @@
         <v>8.20869922637939</v>
       </c>
       <c r="G449" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16317,7 +16317,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G450" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16343,7 +16343,7 @@
         <v>8.22729206085205</v>
       </c>
       <c r="G451" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16369,7 +16369,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G452" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16395,7 +16395,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G453" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16421,7 +16421,7 @@
         <v>8.07390213012695</v>
       </c>
       <c r="G454" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16447,7 +16447,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G455" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16473,7 +16473,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G456" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16499,7 +16499,7 @@
         <v>8.36673831939697</v>
       </c>
       <c r="G457" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16525,7 +16525,7 @@
         <v>8.50618267059326</v>
       </c>
       <c r="G458" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16551,7 +16551,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G459" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16577,7 +16577,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G460" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16603,7 +16603,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G461" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16629,7 +16629,7 @@
         <v>8.5526647567749</v>
       </c>
       <c r="G462" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16655,7 +16655,7 @@
         <v>8.54801654815674</v>
       </c>
       <c r="G463" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16681,7 +16681,7 @@
         <v>8.69211101531982</v>
       </c>
       <c r="G464" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16707,7 +16707,7 @@
         <v>8.74788856506348</v>
       </c>
       <c r="G465" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16733,7 +16733,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G466" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16759,7 +16759,7 @@
         <v>8.60379505157471</v>
       </c>
       <c r="G467" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16785,7 +16785,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G468" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16811,7 +16811,7 @@
         <v>8.98959541320801</v>
       </c>
       <c r="G469" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16837,7 +16837,7 @@
         <v>9.22665309906006</v>
       </c>
       <c r="G470" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16863,7 +16863,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G471" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16889,7 +16889,7 @@
         <v>9.696120262146</v>
       </c>
       <c r="G472" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16915,7 +16915,7 @@
         <v>9.67752742767334</v>
       </c>
       <c r="G473" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16941,7 +16941,7 @@
         <v>9.55667400360107</v>
       </c>
       <c r="G474" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16967,7 +16967,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G475" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16993,7 +16993,7 @@
         <v>9.62174892425537</v>
       </c>
       <c r="G476" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17019,7 +17019,7 @@
         <v>9.43582057952881</v>
       </c>
       <c r="G477" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17045,7 +17045,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G478" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17071,7 +17071,7 @@
         <v>9.34285736083984</v>
       </c>
       <c r="G479" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17097,7 +17097,7 @@
         <v>9.2080602645874</v>
       </c>
       <c r="G480" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17123,7 +17123,7 @@
         <v>9.38933944702148</v>
       </c>
       <c r="G481" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17149,7 +17149,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G482" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17175,7 +17175,7 @@
         <v>9.91923332214355</v>
       </c>
       <c r="G483" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17201,7 +17201,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G484" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17227,7 +17227,7 @@
         <v>9.65893363952637</v>
       </c>
       <c r="G485" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17253,7 +17253,7 @@
         <v>10.0029001235962</v>
       </c>
       <c r="G486" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17279,7 +17279,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G487" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17305,7 +17305,7 @@
         <v>9.90063953399658</v>
       </c>
       <c r="G488" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17331,7 +17331,7 @@
         <v>10.0586776733398</v>
       </c>
       <c r="G489" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17357,7 +17357,7 @@
         <v>10.1144561767578</v>
       </c>
       <c r="G490" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17383,7 +17383,7 @@
         <v>10.0307893753052</v>
       </c>
       <c r="G491" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17409,7 +17409,7 @@
         <v>10.0121955871582</v>
       </c>
       <c r="G492" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17435,7 +17435,7 @@
         <v>9.76119422912598</v>
       </c>
       <c r="G493" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17461,7 +17461,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G494" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17487,7 +17487,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G495" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17513,7 +17513,7 @@
         <v>9.93782520294189</v>
       </c>
       <c r="G496" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17539,7 +17539,7 @@
         <v>10.0772714614868</v>
       </c>
       <c r="G497" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17565,7 +17565,7 @@
         <v>10.318977355957</v>
       </c>
       <c r="G498" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17591,7 +17591,7 @@
         <v>10.3003835678101</v>
       </c>
       <c r="G499" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17617,7 +17617,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G500" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17643,7 +17643,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G501" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17669,7 +17669,7 @@
         <v>10.411940574646</v>
       </c>
       <c r="G502" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17695,7 +17695,7 @@
         <v>10.1330490112305</v>
       </c>
       <c r="G503" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17721,7 +17721,7 @@
         <v>9.49159908294678</v>
       </c>
       <c r="G504" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17747,7 +17747,7 @@
         <v>9.11044788360596</v>
       </c>
       <c r="G505" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17773,7 +17773,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G506" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17799,7 +17799,7 @@
         <v>9.08255863189697</v>
       </c>
       <c r="G507" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17825,7 +17825,7 @@
         <v>8.88268661499023</v>
       </c>
       <c r="G508" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17851,7 +17851,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G509" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17877,7 +17877,7 @@
         <v>9.09650325775146</v>
       </c>
       <c r="G510" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17903,7 +17903,7 @@
         <v>8.96170616149902</v>
       </c>
       <c r="G511" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17929,7 +17929,7 @@
         <v>8.95240879058838</v>
       </c>
       <c r="G512" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17955,7 +17955,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G513" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17981,7 +17981,7 @@
         <v>9.1569299697876</v>
       </c>
       <c r="G514" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18007,7 +18007,7 @@
         <v>9.16622638702393</v>
       </c>
       <c r="G515" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18033,7 +18033,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G516" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18059,7 +18059,7 @@
         <v>9.31496810913086</v>
       </c>
       <c r="G517" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18085,7 +18085,7 @@
         <v>9.26848602294922</v>
       </c>
       <c r="G518" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18111,7 +18111,7 @@
         <v>9.00818824768066</v>
       </c>
       <c r="G519" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18137,7 +18137,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G520" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18163,7 +18163,7 @@
         <v>9.06396579742432</v>
       </c>
       <c r="G521" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18189,7 +18189,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G522" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18215,7 +18215,7 @@
         <v>8.8873348236084</v>
       </c>
       <c r="G523" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18241,7 +18241,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G524" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18267,7 +18267,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G525" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18293,7 +18293,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G526" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18319,7 +18319,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G527" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18345,7 +18345,7 @@
         <v>8.90592765808105</v>
       </c>
       <c r="G528" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18371,7 +18371,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G529" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18397,7 +18397,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G530" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18423,7 +18423,7 @@
         <v>8.85014915466309</v>
       </c>
       <c r="G531" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18449,7 +18449,7 @@
         <v>8.60844421386719</v>
       </c>
       <c r="G532" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18475,7 +18475,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G533" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18501,7 +18501,7 @@
         <v>8.53407287597656</v>
       </c>
       <c r="G534" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18527,7 +18527,7 @@
         <v>8.34814453125</v>
       </c>
       <c r="G535" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18553,7 +18553,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G536" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18579,7 +18579,7 @@
         <v>8.05995655059814</v>
       </c>
       <c r="G537" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18605,7 +18605,7 @@
         <v>8.30166339874268</v>
       </c>
       <c r="G538" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18631,7 +18631,7 @@
         <v>7.87403011322021</v>
       </c>
       <c r="G539" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18657,7 +18657,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G540" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18683,7 +18683,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G541" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18709,7 +18709,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G542" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18735,7 +18735,7 @@
         <v>7.68810176849365</v>
       </c>
       <c r="G543" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18761,7 +18761,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G544" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18787,7 +18787,7 @@
         <v>7.8182520866394</v>
       </c>
       <c r="G545" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18813,7 +18813,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G546" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18839,7 +18839,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G547" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18865,7 +18865,7 @@
         <v>7.58584213256836</v>
       </c>
       <c r="G548" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18891,7 +18891,7 @@
         <v>8.0413646697998</v>
       </c>
       <c r="G549" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18917,7 +18917,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G550" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18943,7 +18943,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G551" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18969,7 +18969,7 @@
         <v>7.49566698074341</v>
       </c>
       <c r="G552" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18995,7 +18995,7 @@
         <v>7.36086988449097</v>
       </c>
       <c r="G553" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19021,7 +19021,7 @@
         <v>7.17308282852173</v>
       </c>
       <c r="G554" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19047,7 +19047,7 @@
         <v>7.00017118453979</v>
       </c>
       <c r="G555" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19073,7 +19073,7 @@
         <v>6.98622608184814</v>
       </c>
       <c r="G556" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19099,7 +19099,7 @@
         <v>7.08383798599243</v>
       </c>
       <c r="G557" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19125,7 +19125,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G558" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19151,7 +19151,7 @@
         <v>7.298583984375</v>
       </c>
       <c r="G559" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19177,7 +19177,7 @@
         <v>7.12102317810059</v>
       </c>
       <c r="G560" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19203,7 +19203,7 @@
         <v>7.03177785873413</v>
       </c>
       <c r="G561" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19229,7 +19229,7 @@
         <v>7.05501890182495</v>
       </c>
       <c r="G562" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19255,7 +19255,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G563" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19281,7 +19281,7 @@
         <v>6.82911682128906</v>
       </c>
       <c r="G564" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19307,7 +19307,7 @@
         <v>6.72127914428711</v>
       </c>
       <c r="G565" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19333,7 +19333,7 @@
         <v>7.01225614547729</v>
       </c>
       <c r="G566" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19359,7 +19359,7 @@
         <v>6.98064804077148</v>
       </c>
       <c r="G567" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19385,7 +19385,7 @@
         <v>6.94439220428467</v>
       </c>
       <c r="G568" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19411,7 +19411,7 @@
         <v>6.71291303634644</v>
       </c>
       <c r="G569" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19437,7 +19437,7 @@
         <v>6.55394506454468</v>
       </c>
       <c r="G570" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19463,7 +19463,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19489,7 +19489,7 @@
         <v>7.27699995040894</v>
       </c>
       <c r="G572" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19515,7 +19515,7 @@
         <v>7.97800016403198</v>
       </c>
       <c r="G573" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19541,7 +19541,7 @@
         <v>7.58799982070923</v>
       </c>
       <c r="G574" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19567,7 +19567,7 @@
         <v>7.75</v>
       </c>
       <c r="G575" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19593,7 +19593,7 @@
         <v>8.04199981689453</v>
       </c>
       <c r="G576" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19619,7 +19619,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G577" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19645,7 +19645,7 @@
         <v>8.25899982452393</v>
       </c>
       <c r="G578" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19671,7 +19671,7 @@
         <v>8.09500026702881</v>
       </c>
       <c r="G579" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19697,7 +19697,7 @@
         <v>7.83699989318848</v>
       </c>
       <c r="G580" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19723,7 +19723,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G581" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19749,7 +19749,7 @@
         <v>7.89900016784668</v>
       </c>
       <c r="G582" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19775,7 +19775,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G583" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19801,7 +19801,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G584" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19827,7 +19827,7 @@
         <v>7.86700010299683</v>
       </c>
       <c r="G585" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19853,7 +19853,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G586" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19879,7 +19879,7 @@
         <v>7.84200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19905,7 +19905,7 @@
         <v>7.85799980163574</v>
       </c>
       <c r="G588" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19931,7 +19931,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G589" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19957,7 +19957,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G590" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19983,7 +19983,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G591" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20009,7 +20009,7 @@
         <v>7.71600008010864</v>
       </c>
       <c r="G592" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20035,7 +20035,7 @@
         <v>7.70100021362305</v>
       </c>
       <c r="G593" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20061,7 +20061,7 @@
         <v>7.76300001144409</v>
       </c>
       <c r="G594" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20087,7 +20087,7 @@
         <v>7.85699987411499</v>
       </c>
       <c r="G595" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20113,7 +20113,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G596" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20139,7 +20139,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20165,7 +20165,7 @@
         <v>8</v>
       </c>
       <c r="G598" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20191,7 +20191,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G599" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20217,7 +20217,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20243,7 +20243,7 @@
         <v>7.92600011825562</v>
       </c>
       <c r="G601" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20269,7 +20269,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G602" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20295,7 +20295,7 @@
         <v>8.03800010681152</v>
       </c>
       <c r="G603" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20321,7 +20321,7 @@
         <v>8</v>
       </c>
       <c r="G604" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20347,7 +20347,7 @@
         <v>7.78399991989136</v>
       </c>
       <c r="G605" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20373,7 +20373,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G606" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20399,7 +20399,7 @@
         <v>7.44899988174438</v>
       </c>
       <c r="G607" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20425,7 +20425,7 @@
         <v>7.55900001525879</v>
       </c>
       <c r="G608" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20451,7 +20451,7 @@
         <v>7.47499990463257</v>
       </c>
       <c r="G609" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20477,7 +20477,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G610" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20503,7 +20503,7 @@
         <v>7.37099981307983</v>
       </c>
       <c r="G611" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20529,7 +20529,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20555,7 +20555,7 @@
         <v>7.11499977111816</v>
       </c>
       <c r="G613" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20581,7 +20581,7 @@
         <v>6.7649998664856</v>
       </c>
       <c r="G614" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20607,7 +20607,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G615" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20633,7 +20633,7 @@
         <v>7.27400016784668</v>
       </c>
       <c r="G616" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20659,7 +20659,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G617" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20685,7 +20685,7 @@
         <v>7.39400005340576</v>
       </c>
       <c r="G618" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20711,7 +20711,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G619" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20737,7 +20737,7 @@
         <v>7.49499988555908</v>
       </c>
       <c r="G620" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20763,7 +20763,7 @@
         <v>7.32299995422363</v>
       </c>
       <c r="G621" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20789,7 +20789,7 @@
         <v>7.1710000038147</v>
       </c>
       <c r="G622" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20815,7 +20815,7 @@
         <v>7.08900022506714</v>
       </c>
       <c r="G623" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20841,7 +20841,7 @@
         <v>7.25899982452393</v>
       </c>
       <c r="G624" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20867,7 +20867,7 @@
         <v>7.11100006103516</v>
       </c>
       <c r="G625" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20893,7 +20893,7 @@
         <v>7.24900007247925</v>
       </c>
       <c r="G626" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20919,7 +20919,7 @@
         <v>7.31799983978271</v>
       </c>
       <c r="G627" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20945,7 +20945,7 @@
         <v>6.97200012207031</v>
       </c>
       <c r="G628" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20971,7 +20971,7 @@
         <v>6.97399997711182</v>
       </c>
       <c r="G629" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20997,7 +20997,7 @@
         <v>6.92399978637695</v>
       </c>
       <c r="G630" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21023,7 +21023,7 @@
         <v>6.90299987792969</v>
       </c>
       <c r="G631" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21049,7 +21049,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G632" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21075,7 +21075,7 @@
         <v>6.96700000762939</v>
       </c>
       <c r="G633" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21101,7 +21101,7 @@
         <v>7</v>
       </c>
       <c r="G634" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21127,7 +21127,7 @@
         <v>6.875</v>
       </c>
       <c r="G635" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21153,7 +21153,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G636" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21179,7 +21179,7 @@
         <v>6.88199996948242</v>
       </c>
       <c r="G637" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21205,7 +21205,7 @@
         <v>7.04699993133545</v>
       </c>
       <c r="G638" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21231,7 +21231,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G639" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21257,7 +21257,7 @@
         <v>7</v>
       </c>
       <c r="G640" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21283,7 +21283,7 @@
         <v>6.93699979782104</v>
       </c>
       <c r="G641" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21309,7 +21309,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G642" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21335,7 +21335,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G643" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21361,7 +21361,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G644" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21387,7 +21387,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G645" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21413,7 +21413,7 @@
         <v>7.05399990081787</v>
       </c>
       <c r="G646" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21439,7 +21439,7 @@
         <v>7.06899976730347</v>
       </c>
       <c r="G647" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21465,7 +21465,7 @@
         <v>7.12599992752075</v>
       </c>
       <c r="G648" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21491,7 +21491,7 @@
         <v>7.17700004577637</v>
       </c>
       <c r="G649" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21517,7 +21517,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G650" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21543,7 +21543,7 @@
         <v>7.35099983215332</v>
       </c>
       <c r="G651" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21569,7 +21569,7 @@
         <v>7.21600008010864</v>
       </c>
       <c r="G652" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21595,7 +21595,7 @@
         <v>7.24200010299683</v>
       </c>
       <c r="G653" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21621,7 +21621,7 @@
         <v>7.26100015640259</v>
       </c>
       <c r="G654" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21647,7 +21647,7 @@
         <v>7.06599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21673,7 +21673,7 @@
         <v>7.25</v>
       </c>
       <c r="G656" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21699,7 +21699,7 @@
         <v>7.05700016021729</v>
       </c>
       <c r="G657" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21725,7 +21725,7 @@
         <v>7.13100004196167</v>
       </c>
       <c r="G658" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21751,7 +21751,7 @@
         <v>7.23099994659424</v>
       </c>
       <c r="G659" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21777,7 +21777,7 @@
         <v>7.18300008773804</v>
       </c>
       <c r="G660" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21803,7 +21803,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G661" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21829,7 +21829,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G662" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21855,7 +21855,7 @@
         <v>6.93100023269653</v>
       </c>
       <c r="G663" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21881,7 +21881,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G664" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21907,7 +21907,7 @@
         <v>6.9210000038147</v>
       </c>
       <c r="G665" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21933,7 +21933,7 @@
         <v>6.90899991989136</v>
       </c>
       <c r="G666" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21959,7 +21959,7 @@
         <v>6.79300022125244</v>
       </c>
       <c r="G667" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21985,7 +21985,7 @@
         <v>6.66300010681152</v>
       </c>
       <c r="G668" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22011,7 +22011,7 @@
         <v>6.60699987411499</v>
       </c>
       <c r="G669" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22037,7 +22037,7 @@
         <v>6.49100017547607</v>
       </c>
       <c r="G670" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22063,7 +22063,7 @@
         <v>6.51900005340576</v>
       </c>
       <c r="G671" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22089,7 +22089,7 @@
         <v>6.57299995422363</v>
       </c>
       <c r="G672" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22115,7 +22115,7 @@
         <v>6.69899988174438</v>
       </c>
       <c r="G673" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22141,7 +22141,7 @@
         <v>6.68699979782104</v>
       </c>
       <c r="G674" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22167,7 +22167,7 @@
         <v>6.58799982070923</v>
       </c>
       <c r="G675" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22193,7 +22193,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G676" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22219,7 +22219,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G677" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22245,7 +22245,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G678" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22271,7 +22271,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G679" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22297,7 +22297,7 @@
         <v>6.62099981307983</v>
       </c>
       <c r="G680" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22323,7 +22323,7 @@
         <v>6.55399990081787</v>
       </c>
       <c r="G681" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22349,7 +22349,7 @@
         <v>6.56799983978271</v>
       </c>
       <c r="G682" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22375,7 +22375,7 @@
         <v>6.5310001373291</v>
       </c>
       <c r="G683" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22401,7 +22401,7 @@
         <v>6.57499980926514</v>
       </c>
       <c r="G684" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22427,7 +22427,7 @@
         <v>6.57200002670288</v>
       </c>
       <c r="G685" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22453,7 +22453,7 @@
         <v>6.58900022506714</v>
       </c>
       <c r="G686" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22479,7 +22479,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G687" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22505,7 +22505,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G688" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22531,7 +22531,7 @@
         <v>6.58099985122681</v>
       </c>
       <c r="G689" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22557,7 +22557,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G690" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22583,7 +22583,7 @@
         <v>6.51200008392334</v>
       </c>
       <c r="G691" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22609,7 +22609,7 @@
         <v>6.95800018310547</v>
       </c>
       <c r="G692" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22635,7 +22635,7 @@
         <v>6.78499984741211</v>
       </c>
       <c r="G693" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22661,7 +22661,7 @@
         <v>6.76900005340576</v>
       </c>
       <c r="G694" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22687,7 +22687,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G695" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22713,7 +22713,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22739,7 +22739,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G697" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22765,7 +22765,7 @@
         <v>6.85099983215332</v>
       </c>
       <c r="G698" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22791,7 +22791,7 @@
         <v>6.75799989700317</v>
       </c>
       <c r="G699" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22817,7 +22817,7 @@
         <v>6.73899984359741</v>
       </c>
       <c r="G700" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22843,7 +22843,7 @@
         <v>6.61800003051758</v>
       </c>
       <c r="G701" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22869,7 +22869,7 @@
         <v>6.55700016021729</v>
       </c>
       <c r="G702" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22895,7 +22895,7 @@
         <v>6.42199993133545</v>
       </c>
       <c r="G703" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22921,7 +22921,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G704" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22947,7 +22947,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G705" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22973,7 +22973,7 @@
         <v>6.30100011825562</v>
       </c>
       <c r="G706" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22999,7 +22999,7 @@
         <v>6.14099979400635</v>
       </c>
       <c r="G707" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23025,7 +23025,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G708" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23051,7 +23051,7 @@
         <v>6.05399990081787</v>
       </c>
       <c r="G709" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23077,7 +23077,7 @@
         <v>5.91400003433228</v>
       </c>
       <c r="G710" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23103,7 +23103,7 @@
         <v>5.95300006866455</v>
       </c>
       <c r="G711" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23129,7 +23129,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G712" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23155,7 +23155,7 @@
         <v>5.90399980545044</v>
       </c>
       <c r="G713" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23181,7 +23181,7 @@
         <v>5.95900011062622</v>
       </c>
       <c r="G714" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23207,7 +23207,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G715" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23233,7 +23233,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G716" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23259,7 +23259,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G717" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23285,7 +23285,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G718" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23311,7 +23311,7 @@
         <v>5.94600009918213</v>
       </c>
       <c r="G719" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23337,7 +23337,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G720" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23363,7 +23363,7 @@
         <v>6.00899982452393</v>
       </c>
       <c r="G721" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23389,7 +23389,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G722" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23415,7 +23415,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G723" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23441,7 +23441,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G724" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23467,7 +23467,7 @@
         <v>6.25</v>
       </c>
       <c r="G725" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23493,7 +23493,7 @@
         <v>6.23899984359741</v>
       </c>
       <c r="G726" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23519,7 +23519,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G727" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23545,7 +23545,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G728" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23571,7 +23571,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G729" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23597,7 +23597,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G730" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23623,7 +23623,7 @@
         <v>6.2189998626709</v>
       </c>
       <c r="G731" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23649,7 +23649,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G732" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23675,7 +23675,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G733" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23701,7 +23701,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G734" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23727,7 +23727,7 @@
         <v>6.03900003433228</v>
       </c>
       <c r="G735" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23753,7 +23753,7 @@
         <v>6.01399993896484</v>
       </c>
       <c r="G736" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23779,7 +23779,7 @@
         <v>5.95100021362305</v>
       </c>
       <c r="G737" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23805,7 +23805,7 @@
         <v>5.86499977111816</v>
       </c>
       <c r="G738" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23831,7 +23831,7 @@
         <v>5.86800003051758</v>
       </c>
       <c r="G739" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23857,7 +23857,7 @@
         <v>5.89699983596802</v>
       </c>
       <c r="G740" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23883,7 +23883,7 @@
         <v>6.02899980545044</v>
       </c>
       <c r="G741" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23909,7 +23909,7 @@
         <v>6.14300012588501</v>
       </c>
       <c r="G742" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23935,7 +23935,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G743" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23961,7 +23961,7 @@
         <v>6.10699987411499</v>
       </c>
       <c r="G744" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23987,7 +23987,7 @@
         <v>6.09200000762939</v>
       </c>
       <c r="G745" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24013,7 +24013,7 @@
         <v>5.98299980163574</v>
       </c>
       <c r="G746" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24039,7 +24039,7 @@
         <v>5.88199996948242</v>
       </c>
       <c r="G747" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24065,7 +24065,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G748" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24091,7 +24091,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G749" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24117,7 +24117,7 @@
         <v>5.80700016021729</v>
       </c>
       <c r="G750" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24143,7 +24143,7 @@
         <v>5.81599998474121</v>
       </c>
       <c r="G751" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24169,7 +24169,7 @@
         <v>5.76399993896484</v>
       </c>
       <c r="G752" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24195,7 +24195,7 @@
         <v>5.65299987792969</v>
       </c>
       <c r="G753" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24221,7 +24221,7 @@
         <v>5.79199981689453</v>
       </c>
       <c r="G754" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24247,7 +24247,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G755" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24273,7 +24273,7 @@
         <v>5.63399982452393</v>
       </c>
       <c r="G756" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24299,7 +24299,7 @@
         <v>5.5</v>
       </c>
       <c r="G757" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24325,7 +24325,7 @@
         <v>5.39599990844727</v>
       </c>
       <c r="G758" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24351,7 +24351,7 @@
         <v>5.37400007247925</v>
       </c>
       <c r="G759" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24377,7 +24377,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G760" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24403,7 +24403,7 @@
         <v>5.4229998588562</v>
       </c>
       <c r="G761" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24429,7 +24429,7 @@
         <v>5.30700016021729</v>
       </c>
       <c r="G762" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24455,7 +24455,7 @@
         <v>5.38199996948242</v>
       </c>
       <c r="G763" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24481,7 +24481,7 @@
         <v>5.57200002670288</v>
       </c>
       <c r="G764" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24507,7 +24507,7 @@
         <v>5.67199993133545</v>
       </c>
       <c r="G765" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24533,7 +24533,7 @@
         <v>5.80800008773804</v>
       </c>
       <c r="G766" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24559,7 +24559,7 @@
         <v>5.78599977493286</v>
       </c>
       <c r="G767" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24585,7 +24585,7 @@
         <v>5.90899991989136</v>
       </c>
       <c r="G768" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24611,7 +24611,7 @@
         <v>5.88800001144409</v>
       </c>
       <c r="G769" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24637,7 +24637,7 @@
         <v>5.91599988937378</v>
       </c>
       <c r="G770" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24663,7 +24663,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G771" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24689,7 +24689,7 @@
         <v>5.81099987030029</v>
       </c>
       <c r="G772" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24715,7 +24715,7 @@
         <v>5.7519998550415</v>
       </c>
       <c r="G773" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24741,7 +24741,7 @@
         <v>5.8769998550415</v>
       </c>
       <c r="G774" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24767,7 +24767,7 @@
         <v>5.84899997711182</v>
       </c>
       <c r="G775" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24793,7 +24793,7 @@
         <v>5.90199995040894</v>
       </c>
       <c r="G776" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24819,7 +24819,7 @@
         <v>5.83699989318848</v>
       </c>
       <c r="G777" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24845,7 +24845,7 @@
         <v>5.77400016784668</v>
       </c>
       <c r="G778" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24871,7 +24871,7 @@
         <v>5.92199993133545</v>
       </c>
       <c r="G779" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24897,7 +24897,7 @@
         <v>5.98899984359741</v>
       </c>
       <c r="G780" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24923,7 +24923,7 @@
         <v>6.14900016784668</v>
       </c>
       <c r="G781" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24949,7 +24949,7 @@
         <v>6.2810001373291</v>
       </c>
       <c r="G782" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24975,7 +24975,7 @@
         <v>6.23799991607666</v>
       </c>
       <c r="G783" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -25001,7 +25001,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G784" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -25027,7 +25027,7 @@
         <v>6.18200016021729</v>
       </c>
       <c r="G785" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25053,7 +25053,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G786" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25079,7 +25079,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G787" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25105,7 +25105,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G788" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25131,7 +25131,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G789" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25157,7 +25157,7 @@
         <v>6.01599979400635</v>
       </c>
       <c r="G790" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25183,7 +25183,7 @@
         <v>5.89599990844727</v>
       </c>
       <c r="G791" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25209,7 +25209,7 @@
         <v>6</v>
       </c>
       <c r="G792" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25235,7 +25235,7 @@
         <v>5.94799995422363</v>
       </c>
       <c r="G793" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25261,7 +25261,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G794" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25287,7 +25287,7 @@
         <v>6.06699991226196</v>
       </c>
       <c r="G795" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25313,7 +25313,7 @@
         <v>6.16400003433228</v>
       </c>
       <c r="G796" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25339,7 +25339,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G797" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25365,7 +25365,7 @@
         <v>6.13600015640259</v>
       </c>
       <c r="G798" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25391,7 +25391,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G799" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25417,7 +25417,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G800" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25443,7 +25443,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G801" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25469,7 +25469,7 @@
         <v>6.23199987411499</v>
       </c>
       <c r="G802" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25495,7 +25495,7 @@
         <v>6.31899976730347</v>
       </c>
       <c r="G803" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25521,7 +25521,7 @@
         <v>6.18699979782104</v>
       </c>
       <c r="G804" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25547,7 +25547,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G805" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25573,7 +25573,7 @@
         <v>6.30800008773804</v>
       </c>
       <c r="G806" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25599,7 +25599,7 @@
         <v>6.36199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25625,7 +25625,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G808" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25651,7 +25651,7 @@
         <v>6.65299987792969</v>
       </c>
       <c r="G809" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25677,7 +25677,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G810" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25703,7 +25703,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G811" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25729,7 +25729,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25755,7 +25755,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G813" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25781,7 +25781,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G814" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25807,7 +25807,7 @@
         <v>6.65799999237061</v>
       </c>
       <c r="G815" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25833,7 +25833,7 @@
         <v>6.7039999961853</v>
       </c>
       <c r="G816" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25859,7 +25859,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G817" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25885,7 +25885,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G818" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25911,7 +25911,7 @@
         <v>6.64799976348877</v>
       </c>
       <c r="G819" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25937,7 +25937,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G820" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25963,7 +25963,7 @@
         <v>6.55600023269653</v>
       </c>
       <c r="G821" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25989,7 +25989,7 @@
         <v>6.48299980163574</v>
       </c>
       <c r="G822" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26015,7 +26015,7 @@
         <v>6.42799997329712</v>
       </c>
       <c r="G823" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26041,7 +26041,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G824" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26067,7 +26067,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G825" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26093,7 +26093,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G826" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26119,7 +26119,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G827" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26145,7 +26145,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G828" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26171,7 +26171,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G829" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26197,7 +26197,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G830" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26223,7 +26223,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G831" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26249,7 +26249,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26275,7 +26275,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G833" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26301,7 +26301,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G834" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26327,7 +26327,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G835" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26353,7 +26353,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G836" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26379,7 +26379,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G837" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26405,7 +26405,7 @@
         <v>6.75</v>
       </c>
       <c r="G838" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26431,7 +26431,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26457,7 +26457,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26483,7 +26483,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G841" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26509,7 +26509,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G842" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26535,7 +26535,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G843" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26561,7 +26561,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G844" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26587,7 +26587,7 @@
         <v>6.75</v>
       </c>
       <c r="G845" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26613,7 +26613,7 @@
         <v>6.75</v>
       </c>
       <c r="G846" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26639,7 +26639,7 @@
         <v>6.75</v>
       </c>
       <c r="G847" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26665,7 +26665,7 @@
         <v>6.75</v>
       </c>
       <c r="G848" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26691,7 +26691,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G849" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26717,7 +26717,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G850" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26743,7 +26743,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G851" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26769,7 +26769,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G852" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26795,7 +26795,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G853" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26821,7 +26821,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26847,7 +26847,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G855" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26873,7 +26873,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G856" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27263,7 +27263,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G871" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27835,7 +27835,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G893" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -30461,7 +30461,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G994" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30747,7 +30747,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1005" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30851,7 +30851,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1009" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31007,7 +31007,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1015" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31371,7 +31371,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1029" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31423,7 +31423,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1031" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31631,7 +31631,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G1039" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -61123,7 +61123,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6496064815</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>62519</v>
@@ -61144,6 +61144,32 @@
         <v>1423</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6495023148</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>76467</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>1.90799999237061</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>1.8860000371933</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>1.89400005340576</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>1.90799999237061</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="1426">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89286470413208</t>
+    <t xml:space="preserve">4.89286422729492</t>
   </si>
   <si>
     <t xml:space="preserve">IGD.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97771263122559</t>
+    <t xml:space="preserve">4.97771215438843</t>
   </si>
   <si>
     <t xml:space="preserve">4.93246030807495</t>
@@ -53,19 +53,19 @@
     <t xml:space="preserve">4.92963266372681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80801725387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69488763809204</t>
+    <t xml:space="preserve">4.80801773071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69488716125488</t>
   </si>
   <si>
     <t xml:space="preserve">4.72317028045654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83347177505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70902872085571</t>
+    <t xml:space="preserve">4.83347225189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70902919769287</t>
   </si>
   <si>
     <t xml:space="preserve">4.48276901245117</t>
@@ -80,76 +80,76 @@
     <t xml:space="preserve">3.73328495025635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01610898971558</t>
+    <t xml:space="preserve">4.01610851287842</t>
   </si>
   <si>
     <t xml:space="preserve">4.09247159957886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17731857299805</t>
+    <t xml:space="preserve">4.17731952667236</t>
   </si>
   <si>
     <t xml:space="preserve">4.11226940155029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08398628234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94540238380432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10095643997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.211256980896</t>
+    <t xml:space="preserve">4.08398723602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94540286064148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10095691680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21125745773315</t>
   </si>
   <si>
     <t xml:space="preserve">4.05570411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82378792762756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9171199798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57490253448486</t>
+    <t xml:space="preserve">3.82378840446472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91712045669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57490205764771</t>
   </si>
   <si>
     <t xml:space="preserve">3.62015438079834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81813073158264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69086050987244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76439499855042</t>
+    <t xml:space="preserve">3.81813168525696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69086098670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76439523696899</t>
   </si>
   <si>
     <t xml:space="preserve">4.01893711090088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95954442024231</t>
+    <t xml:space="preserve">3.95954394340515</t>
   </si>
   <si>
     <t xml:space="preserve">4.07267379760742</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00479555130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1999454498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1462082862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0896430015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12358236312866</t>
+    <t xml:space="preserve">4.00479602813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19994497299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14620733261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08964347839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12358283996582</t>
   </si>
   <si>
     <t xml:space="preserve">4.12923860549927</t>
@@ -158,10 +158,10 @@
     <t xml:space="preserve">4.17166233062744</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19428777694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38660955429077</t>
+    <t xml:space="preserve">4.19428825378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38660907745361</t>
   </si>
   <si>
     <t xml:space="preserve">4.35549831390381</t>
@@ -170,19 +170,19 @@
     <t xml:space="preserve">4.5251932144165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48559808731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49690961837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48842573165894</t>
+    <t xml:space="preserve">4.48559761047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.496910572052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48842620849609</t>
   </si>
   <si>
     <t xml:space="preserve">4.58175802230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68357467651367</t>
+    <t xml:space="preserve">4.68357563018799</t>
   </si>
   <si>
     <t xml:space="preserve">4.66660594940186</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">4.83630037307739</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76842164993286</t>
+    <t xml:space="preserve">4.76842212677002</t>
   </si>
   <si>
     <t xml:space="preserve">4.70620059967041</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">4.6383228302002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49973964691162</t>
+    <t xml:space="preserve">4.49973917007446</t>
   </si>
   <si>
     <t xml:space="preserve">4.57327318191528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57610177993774</t>
+    <t xml:space="preserve">4.57610130310059</t>
   </si>
   <si>
     <t xml:space="preserve">4.41206359863281</t>
@@ -224,76 +224,76 @@
     <t xml:space="preserve">4.36963987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37246751785278</t>
+    <t xml:space="preserve">4.3724684715271</t>
   </si>
   <si>
     <t xml:space="preserve">4.38378095626831</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47994136810303</t>
+    <t xml:space="preserve">4.47994089126587</t>
   </si>
   <si>
     <t xml:space="preserve">4.55347585678101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4686279296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45448684692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5167088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489124298096</t>
+    <t xml:space="preserve">4.46862745285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45448780059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489171981812</t>
   </si>
   <si>
     <t xml:space="preserve">4.47428464889526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44034624099731</t>
+    <t xml:space="preserve">4.44034576416016</t>
   </si>
   <si>
     <t xml:space="preserve">4.41771984100342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44317436218262</t>
+    <t xml:space="preserve">4.44317388534546</t>
   </si>
   <si>
     <t xml:space="preserve">4.55064725875854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45731544494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53933429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57892990112305</t>
+    <t xml:space="preserve">4.45731496810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53933477401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57892942428589</t>
   </si>
   <si>
     <t xml:space="preserve">4.4940824508667</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54216241836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45165872573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65023136138916</t>
+    <t xml:space="preserve">4.54216289520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45165824890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.650230884552</t>
   </si>
   <si>
     <t xml:space="preserve">4.73061323165894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81099414825439</t>
+    <t xml:space="preserve">4.81099462509155</t>
   </si>
   <si>
     <t xml:space="preserve">4.85267448425293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84076595306396</t>
+    <t xml:space="preserve">4.84076547622681</t>
   </si>
   <si>
     <t xml:space="preserve">4.85565137863159</t>
@@ -302,97 +302,97 @@
     <t xml:space="preserve">4.82290363311768</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77526903152466</t>
+    <t xml:space="preserve">4.77526950836182</t>
   </si>
   <si>
     <t xml:space="preserve">4.7335901260376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79610919952393</t>
+    <t xml:space="preserve">4.79610967636108</t>
   </si>
   <si>
     <t xml:space="preserve">4.79015493392944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79313182830811</t>
+    <t xml:space="preserve">4.79313278198242</t>
   </si>
   <si>
     <t xml:space="preserve">4.79908609390259</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72168207168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50137710571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2006893157959</t>
+    <t xml:space="preserve">4.72168159484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50137662887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20068883895874</t>
   </si>
   <si>
     <t xml:space="preserve">4.22450590133667</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08755970001221</t>
+    <t xml:space="preserve">4.08755922317505</t>
   </si>
   <si>
     <t xml:space="preserve">4.10839939117432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30488729476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34656763076782</t>
+    <t xml:space="preserve">4.30488777160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34656715393066</t>
   </si>
   <si>
     <t xml:space="preserve">4.39420080184937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42397212982178</t>
+    <t xml:space="preserve">4.42397165298462</t>
   </si>
   <si>
     <t xml:space="preserve">4.17389535903931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95954346656799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97740721702576</t>
+    <t xml:space="preserve">3.95954322814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9774067401886</t>
   </si>
   <si>
     <t xml:space="preserve">3.98931455612183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37038373947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30191040039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15603303909302</t>
+    <t xml:space="preserve">4.37038326263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30191087722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15603256225586</t>
   </si>
   <si>
     <t xml:space="preserve">4.00122308731079</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9684751033783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09946775436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19771194458008</t>
+    <t xml:space="preserve">3.96847486495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09946823120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19771242141724</t>
   </si>
   <si>
     <t xml:space="preserve">4.23343753814697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40313196182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5549635887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48351430892944</t>
+    <t xml:space="preserve">4.40313148498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55496454238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48351383209229</t>
   </si>
   <si>
     <t xml:space="preserve">4.67404842376709</t>
@@ -404,37 +404,40 @@
     <t xml:space="preserve">4.60855197906494</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61152935028076</t>
+    <t xml:space="preserve">4.52519369125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61152982711792</t>
   </si>
   <si>
     <t xml:space="preserve">4.6948881149292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6859564781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64427709579468</t>
+    <t xml:space="preserve">4.68595600128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64427757263184</t>
   </si>
   <si>
     <t xml:space="preserve">4.67107057571411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54007863998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62046003341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53412437438965</t>
+    <t xml:space="preserve">4.40610980987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54007911682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62046051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53412485122681</t>
   </si>
   <si>
     <t xml:space="preserve">4.51626205444336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56687259674072</t>
+    <t xml:space="preserve">4.56687211990356</t>
   </si>
   <si>
     <t xml:space="preserve">4.51030778884888</t>
@@ -443,10 +446,10 @@
     <t xml:space="preserve">4.48649120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44183444976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46267414093018</t>
+    <t xml:space="preserve">4.44183397293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46267318725586</t>
   </si>
   <si>
     <t xml:space="preserve">4.3346586227417</t>
@@ -455,112 +458,112 @@
     <t xml:space="preserve">4.343590259552</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36740589141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40908622741699</t>
+    <t xml:space="preserve">4.36740636825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40908670425415</t>
   </si>
   <si>
     <t xml:space="preserve">4.40015459060669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37633752822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28702449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34061288833618</t>
+    <t xml:space="preserve">4.37633848190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.287024974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3406138420105</t>
   </si>
   <si>
     <t xml:space="preserve">4.31084203720093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29893350601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25725412368774</t>
+    <t xml:space="preserve">4.29893398284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25725317001343</t>
   </si>
   <si>
     <t xml:space="preserve">4.35252141952515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29000186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32275009155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21557521820068</t>
+    <t xml:space="preserve">4.29000234603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32275056838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21557474136353</t>
   </si>
   <si>
     <t xml:space="preserve">4.0786280632019</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99824619293213</t>
+    <t xml:space="preserve">3.99824643135071</t>
   </si>
   <si>
     <t xml:space="preserve">3.92977333068848</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90595602989197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97145175933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87618494033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791618347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99229216575623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95656609535217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92679595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01313209533691</t>
+    <t xml:space="preserve">3.90595650672913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97145223617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87618517875671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87916159629822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99229264259338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95656681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92679572105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01313161849976</t>
   </si>
   <si>
     <t xml:space="preserve">3.9416811466217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91488766670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89404773712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85832262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84045958518982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85236883163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97442889213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13519287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20366621017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25129985809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26023101806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22748231887817</t>
+    <t xml:space="preserve">3.91488790512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89404797554016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85832285881042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84045934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85236835479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9744291305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13519382476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20366668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2512993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26023054122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22748279571533</t>
   </si>
   <si>
     <t xml:space="preserve">4.17687225341797</t>
@@ -569,7 +572,7 @@
     <t xml:space="preserve">4.14114713668823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11137533187866</t>
+    <t xml:space="preserve">4.11137628555298</t>
   </si>
   <si>
     <t xml:space="preserve">4.04885673522949</t>
@@ -578,55 +581,55 @@
     <t xml:space="preserve">4.07565116882324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06076526641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06374263763428</t>
+    <t xml:space="preserve">4.06076574325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06374168395996</t>
   </si>
   <si>
     <t xml:space="preserve">4.0309944152832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98038339614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8821394443512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8880934715271</t>
+    <t xml:space="preserve">3.98038363456726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88213968276978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88809394836426</t>
   </si>
   <si>
     <t xml:space="preserve">3.67969655990601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76900935173035</t>
+    <t xml:space="preserve">3.76900911331177</t>
   </si>
   <si>
     <t xml:space="preserve">3.79580330848694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78389453887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70351266860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72137546539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72732996940613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75710153579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7511465549469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78687262535095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73923873901367</t>
+    <t xml:space="preserve">3.78389501571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70351314544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72137594223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72733044624329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75710129737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75114679336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78687238693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73923897743225</t>
   </si>
   <si>
     <t xml:space="preserve">3.93572759628296</t>
@@ -635,13 +638,13 @@
     <t xml:space="preserve">4.09649038314819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21259689331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18282747268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26916265487671</t>
+    <t xml:space="preserve">4.21259737014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18282651901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26916217803955</t>
   </si>
   <si>
     <t xml:space="preserve">4.27511644363403</t>
@@ -650,34 +653,34 @@
     <t xml:space="preserve">4.26320838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51923942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42992639541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48946762084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49839925765991</t>
+    <t xml:space="preserve">4.51923894882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4299259185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48946809768677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49839878082275</t>
   </si>
   <si>
     <t xml:space="preserve">4.48053646087646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45076513290405</t>
+    <t xml:space="preserve">4.45076465606689</t>
   </si>
   <si>
     <t xml:space="preserve">4.41801691055298</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37336111068726</t>
+    <t xml:space="preserve">4.3733606338501</t>
   </si>
   <si>
     <t xml:space="preserve">4.35847568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32572746276855</t>
+    <t xml:space="preserve">4.32572793960571</t>
   </si>
   <si>
     <t xml:space="preserve">4.2393913269043</t>
@@ -686,13 +689,13 @@
     <t xml:space="preserve">4.14412403106689</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24534606933594</t>
+    <t xml:space="preserve">4.24534559249878</t>
   </si>
   <si>
     <t xml:space="preserve">4.16794109344482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20961999893188</t>
+    <t xml:space="preserve">4.20962047576904</t>
   </si>
   <si>
     <t xml:space="preserve">4.36442947387695</t>
@@ -707,13 +710,13 @@
     <t xml:space="preserve">4.62641477584839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66809415817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52817058563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59664392471313</t>
+    <t xml:space="preserve">4.66809368133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52817010879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59664344787598</t>
   </si>
   <si>
     <t xml:space="preserve">4.75145244598389</t>
@@ -722,7 +725,7 @@
     <t xml:space="preserve">4.78420114517212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72763633728027</t>
+    <t xml:space="preserve">4.72763586044312</t>
   </si>
   <si>
     <t xml:space="preserve">4.88244533538818</t>
@@ -734,19 +737,19 @@
     <t xml:space="preserve">4.96878099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89435338973999</t>
+    <t xml:space="preserve">4.89435386657715</t>
   </si>
   <si>
     <t xml:space="preserve">4.86755990982056</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86458301544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80504131317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78122425079346</t>
+    <t xml:space="preserve">4.86458253860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80504083633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7812237739563</t>
   </si>
   <si>
     <t xml:space="preserve">4.70381879806519</t>
@@ -764,13 +767,13 @@
     <t xml:space="preserve">4.87649059295654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82588005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90923929214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93007898330688</t>
+    <t xml:space="preserve">4.82588052749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90923881530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93007946014404</t>
   </si>
   <si>
     <t xml:space="preserve">4.9122166633606</t>
@@ -779,34 +782,34 @@
     <t xml:space="preserve">4.94794130325317</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93603324890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98962068557739</t>
+    <t xml:space="preserve">4.93603277206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98962163925171</t>
   </si>
   <si>
     <t xml:space="preserve">5.09679651260376</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12061357498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15633869171143</t>
+    <t xml:space="preserve">5.12061309814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15633821487427</t>
   </si>
   <si>
     <t xml:space="preserve">5.1980185508728</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23076581954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06107187271118</t>
+    <t xml:space="preserve">5.23076677322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06107091903687</t>
   </si>
   <si>
     <t xml:space="preserve">5.03130006790161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99557495117188</t>
+    <t xml:space="preserve">4.99557542800903</t>
   </si>
   <si>
     <t xml:space="preserve">5.04405927658081</t>
@@ -821,7 +824,7 @@
     <t xml:space="preserve">5.06866407394409</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09019422531128</t>
+    <t xml:space="preserve">5.09019374847412</t>
   </si>
   <si>
     <t xml:space="preserve">5.18553876876831</t>
@@ -830,7 +833,7 @@
     <t xml:space="preserve">5.13940477371216</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14248037338257</t>
+    <t xml:space="preserve">5.14247989654541</t>
   </si>
   <si>
     <t xml:space="preserve">5.06251335144043</t>
@@ -845,10 +848,10 @@
     <t xml:space="preserve">5.09942054748535</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05636167526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02252960205078</t>
+    <t xml:space="preserve">5.05636215209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02252912521362</t>
   </si>
   <si>
     <t xml:space="preserve">4.96409273147583</t>
@@ -857,10 +860,10 @@
     <t xml:space="preserve">4.93641185760498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91488218307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95178937911987</t>
+    <t xml:space="preserve">4.91488265991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95179033279419</t>
   </si>
   <si>
     <t xml:space="preserve">4.89642858505249</t>
@@ -878,31 +881,31 @@
     <t xml:space="preserve">4.7764778137207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86567163467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88412570953369</t>
+    <t xml:space="preserve">4.86567211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88412523269653</t>
   </si>
   <si>
     <t xml:space="preserve">4.79800748825073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89027643203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98254632949829</t>
+    <t xml:space="preserve">4.89027690887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98254680633545</t>
   </si>
   <si>
     <t xml:space="preserve">4.9979248046875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1086483001709</t>
+    <t xml:space="preserve">5.10864782333374</t>
   </si>
   <si>
     <t xml:space="preserve">5.11479902267456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15478277206421</t>
+    <t xml:space="preserve">5.15478324890137</t>
   </si>
   <si>
     <t xml:space="preserve">5.12402629852295</t>
@@ -911,16 +914,16 @@
     <t xml:space="preserve">5.07481622695923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01330327987671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05943727493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17631196975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22859859466553</t>
+    <t xml:space="preserve">5.01330280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05943775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17631244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22859764099121</t>
   </si>
   <si>
     <t xml:space="preserve">5.22244691848755</t>
@@ -929,16 +932,16 @@
     <t xml:space="preserve">5.17016077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15785837173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33624601364136</t>
+    <t xml:space="preserve">5.15785884857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3362455368042</t>
   </si>
   <si>
     <t xml:space="preserve">5.30241394042969</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28703594207764</t>
+    <t xml:space="preserve">5.28703498840332</t>
   </si>
   <si>
     <t xml:space="preserve">5.25012731552124</t>
@@ -947,37 +950,37 @@
     <t xml:space="preserve">5.25627899169922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27165699005127</t>
+    <t xml:space="preserve">5.27165746688843</t>
   </si>
   <si>
     <t xml:space="preserve">5.29011106491089</t>
   </si>
   <si>
-    <t xml:space="preserve">5.213219165802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20091724395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14863157272339</t>
+    <t xml:space="preserve">5.21321964263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20091676712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14863109588623</t>
   </si>
   <si>
     <t xml:space="preserve">5.22552251815796</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16708517074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18861484527588</t>
+    <t xml:space="preserve">5.16708564758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18861532211304</t>
   </si>
   <si>
     <t xml:space="preserve">5.24090099334717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31471633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41313695907593</t>
+    <t xml:space="preserve">5.31471586227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41313648223877</t>
   </si>
   <si>
     <t xml:space="preserve">5.42543935775757</t>
@@ -986,10 +989,10 @@
     <t xml:space="preserve">5.41928863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37622928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35162401199341</t>
+    <t xml:space="preserve">5.37622976303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35162448883057</t>
   </si>
   <si>
     <t xml:space="preserve">5.36392641067505</t>
@@ -998,10 +1001,10 @@
     <t xml:space="preserve">5.38853216171265</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37315368652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42851448059082</t>
+    <t xml:space="preserve">5.3731541633606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42851495742798</t>
   </si>
   <si>
     <t xml:space="preserve">5.43159055709839</t>
@@ -1010,10 +1013,10 @@
     <t xml:space="preserve">5.44389343261719</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32701921463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34239673614502</t>
+    <t xml:space="preserve">5.32701873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34239721298218</t>
   </si>
   <si>
     <t xml:space="preserve">5.39468288421631</t>
@@ -1022,10 +1025,10 @@
     <t xml:space="preserve">5.53616285324097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62843132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84372806549072</t>
+    <t xml:space="preserve">5.62843084335327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84372758865356</t>
   </si>
   <si>
     <t xml:space="preserve">5.87448406219482</t>
@@ -1037,7 +1040,7 @@
     <t xml:space="preserve">5.65611267089844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75145769119263</t>
+    <t xml:space="preserve">5.75145816802979</t>
   </si>
   <si>
     <t xml:space="preserve">5.78836488723755</t>
@@ -1049,16 +1052,16 @@
     <t xml:space="preserve">5.69302034378052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7699122428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94829940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10515689849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1205358505249</t>
+    <t xml:space="preserve">5.76991176605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94829893112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10515785217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12053632736206</t>
   </si>
   <si>
     <t xml:space="preserve">6.4157977104187</t>
@@ -1067,148 +1070,148 @@
     <t xml:space="preserve">6.40349578857422</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32352876663208</t>
+    <t xml:space="preserve">6.32352828979492</t>
   </si>
   <si>
     <t xml:space="preserve">6.33583068847656</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36658716201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24356079101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18204879760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09285449981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21280527114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50806665420532</t>
+    <t xml:space="preserve">6.36658763885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24356031417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18204832077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09285545349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21280479431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50806713104248</t>
   </si>
   <si>
     <t xml:space="preserve">6.56342887878418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3911919593811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61878967285156</t>
+    <t xml:space="preserve">6.39119243621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61879014968872</t>
   </si>
   <si>
     <t xml:space="preserve">6.60648775100708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55112552642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65569734573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69260549545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6372447013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62494039535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45885753631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57573127746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6680006980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82793426513672</t>
+    <t xml:space="preserve">6.55112600326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6556978225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69260597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63724374771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62494134902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45885610580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57573080062866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66800117492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82793521881104</t>
   </si>
   <si>
     <t xml:space="preserve">6.81563138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95096015930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88944673538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70490789413452</t>
+    <t xml:space="preserve">6.9509596824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8894476890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70490837097168</t>
   </si>
   <si>
     <t xml:space="preserve">6.28046894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02826642990112</t>
+    <t xml:space="preserve">6.02826547622681</t>
   </si>
   <si>
     <t xml:space="preserve">5.96675300598145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0098123550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87755918502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93599557876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01903963088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92984628677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92369365692139</t>
+    <t xml:space="preserve">6.00981140136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87755966186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93599605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01903915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92984580993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92369318008423</t>
   </si>
   <si>
     <t xml:space="preserve">6.05902290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0651741027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16359519958496</t>
+    <t xml:space="preserve">6.06517457962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16359424591064</t>
   </si>
   <si>
     <t xml:space="preserve">6.13283777236938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90523958206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99750947952271</t>
+    <t xml:space="preserve">5.96060228347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90524005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99750900268555</t>
   </si>
   <si>
     <t xml:space="preserve">5.9544506072998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88063526153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89293766021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85602951049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69609642028809</t>
+    <t xml:space="preserve">5.88063478469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89293813705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85602998733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69609689712524</t>
   </si>
   <si>
     <t xml:space="preserve">5.64688634872437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52385997772217</t>
+    <t xml:space="preserve">5.52385950088501</t>
   </si>
   <si>
     <t xml:space="preserve">5.33316946029663</t>
@@ -1217,10 +1220,10 @@
     <t xml:space="preserve">5.49310350418091</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21014499664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08711767196655</t>
+    <t xml:space="preserve">5.21014404296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08711814880371</t>
   </si>
   <si>
     <t xml:space="preserve">5.17323684692383</t>
@@ -1229,16 +1232,16 @@
     <t xml:space="preserve">5.03790760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01945400238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32086753845215</t>
+    <t xml:space="preserve">5.01945352554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32086706161499</t>
   </si>
   <si>
     <t xml:space="preserve">4.92103338241577</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9597864151001</t>
+    <t xml:space="preserve">4.95978593826294</t>
   </si>
   <si>
     <t xml:space="preserve">4.87059307098389</t>
@@ -1250,34 +1253,34 @@
     <t xml:space="preserve">4.63192319869995</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62269592285156</t>
+    <t xml:space="preserve">4.6226954460144</t>
   </si>
   <si>
     <t xml:space="preserve">4.68728446960449</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82568788528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82937860488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71188974380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65283727645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66821527481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56425857543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51873826980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44738388061523</t>
+    <t xml:space="preserve">4.82568836212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82937908172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71188926696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65283679962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66821575164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56425809860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51873922348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44738435745239</t>
   </si>
   <si>
     <t xml:space="preserve">4.63991928100586</t>
@@ -1286,7 +1289,7 @@
     <t xml:space="preserve">4.61900472640991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59501504898071</t>
+    <t xml:space="preserve">4.59501457214355</t>
   </si>
   <si>
     <t xml:space="preserve">4.4418478012085</t>
@@ -1307,7 +1310,7 @@
     <t xml:space="preserve">5.02088165283203</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12807512283325</t>
+    <t xml:space="preserve">5.12807559967041</t>
   </si>
   <si>
     <t xml:space="preserve">5.32128810882568</t>
@@ -1316,10 +1319,10 @@
     <t xml:space="preserve">5.53170442581177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46487331390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35635709762573</t>
+    <t xml:space="preserve">5.46487426757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35635757446289</t>
   </si>
   <si>
     <t xml:space="preserve">5.18564176559448</t>
@@ -1328,7 +1331,7 @@
     <t xml:space="preserve">5.14130878448486</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22666692733765</t>
+    <t xml:space="preserve">5.22666645050049</t>
   </si>
   <si>
     <t xml:space="preserve">5.16115951538086</t>
@@ -1337,13 +1340,13 @@
     <t xml:space="preserve">5.11550331115723</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20549297332764</t>
+    <t xml:space="preserve">5.20549249649048</t>
   </si>
   <si>
     <t xml:space="preserve">5.18895053863525</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19953680038452</t>
+    <t xml:space="preserve">5.19953727722168</t>
   </si>
   <si>
     <t xml:space="preserve">5.18762683868408</t>
@@ -1355,7 +1358,7 @@
     <t xml:space="preserve">5.10557794570923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09565305709839</t>
+    <t xml:space="preserve">5.09565258026123</t>
   </si>
   <si>
     <t xml:space="preserve">5.13667726516724</t>
@@ -1364,7 +1367,7 @@
     <t xml:space="preserve">5.19887590408325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2140941619873</t>
+    <t xml:space="preserve">5.21409463882446</t>
   </si>
   <si>
     <t xml:space="preserve">5.19424390792847</t>
@@ -1385,7 +1388,7 @@
     <t xml:space="preserve">5.3186411857605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15057229995728</t>
+    <t xml:space="preserve">5.15057277679443</t>
   </si>
   <si>
     <t xml:space="preserve">4.92890739440918</t>
@@ -1406,7 +1409,7 @@
     <t xml:space="preserve">4.82369899749756</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70790338516235</t>
+    <t xml:space="preserve">4.70790433883667</t>
   </si>
   <si>
     <t xml:space="preserve">4.47631359100342</t>
@@ -1415,10 +1418,10 @@
     <t xml:space="preserve">4.73172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81311225891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79061508178711</t>
+    <t xml:space="preserve">4.81311178207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79061460494995</t>
   </si>
   <si>
     <t xml:space="preserve">4.89251470565796</t>
@@ -1436,19 +1439,19 @@
     <t xml:space="preserve">4.74495840072632</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04227447509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16319179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05792284011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15607929229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20515727996826</t>
+    <t xml:space="preserve">5.0422739982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16319131851196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05792236328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15607881546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2051568031311</t>
   </si>
   <si>
     <t xml:space="preserve">4.95905447006226</t>
@@ -1463,43 +1466,43 @@
     <t xml:space="preserve">4.90997552871704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02875947952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95549726486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97897005081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89005947113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93629312515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89503908157349</t>
+    <t xml:space="preserve">5.02875995635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95549774169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97896957397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89005994796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93629264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89503860473633</t>
   </si>
   <si>
     <t xml:space="preserve">5.01240015029907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95194101333618</t>
+    <t xml:space="preserve">4.95194149017334</t>
   </si>
   <si>
     <t xml:space="preserve">4.93415880203247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08566236495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14967727661133</t>
+    <t xml:space="preserve">5.08566188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14967679977417</t>
   </si>
   <si>
     <t xml:space="preserve">5.13900804519653</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99319553375244</t>
+    <t xml:space="preserve">4.9931960105896</t>
   </si>
   <si>
     <t xml:space="preserve">5.01737928390503</t>
@@ -1511,7 +1514,7 @@
     <t xml:space="preserve">5.06859159469604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10486698150635</t>
+    <t xml:space="preserve">5.10486650466919</t>
   </si>
   <si>
     <t xml:space="preserve">5.16390323638916</t>
@@ -1526,7 +1529,7 @@
     <t xml:space="preserve">5.15110015869141</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1646146774292</t>
+    <t xml:space="preserve">5.16461420059204</t>
   </si>
   <si>
     <t xml:space="preserve">5.02591466903687</t>
@@ -1535,7 +1538,7 @@
     <t xml:space="preserve">5.15679025650024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01951360702515</t>
+    <t xml:space="preserve">5.01951313018799</t>
   </si>
   <si>
     <t xml:space="preserve">5.07214784622192</t>
@@ -1547,37 +1550,37 @@
     <t xml:space="preserve">5.10913467407227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0863733291626</t>
+    <t xml:space="preserve">5.08637380599976</t>
   </si>
   <si>
     <t xml:space="preserve">5.00030851364136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92989206314087</t>
+    <t xml:space="preserve">4.92989158630371</t>
   </si>
   <si>
     <t xml:space="preserve">4.92277860641479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91424369812012</t>
+    <t xml:space="preserve">4.91424322128296</t>
   </si>
   <si>
     <t xml:space="preserve">4.83173513412476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73926830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69943618774414</t>
+    <t xml:space="preserve">4.73926782608032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6994366645813</t>
   </si>
   <si>
     <t xml:space="preserve">4.61692762374878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63684368133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67525291442871</t>
+    <t xml:space="preserve">4.63684320449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67525243759155</t>
   </si>
   <si>
     <t xml:space="preserve">4.76487445831299</t>
@@ -1598,10 +1601,10 @@
     <t xml:space="preserve">4.70868253707886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73002147674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7093939781189</t>
+    <t xml:space="preserve">4.73002099990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70939445495605</t>
   </si>
   <si>
     <t xml:space="preserve">4.66173839569092</t>
@@ -1610,13 +1613,13 @@
     <t xml:space="preserve">4.67169618606567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64537906646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67667484283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67454147338867</t>
+    <t xml:space="preserve">4.64537954330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67667579650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67454099655151</t>
   </si>
   <si>
     <t xml:space="preserve">4.68663358688354</t>
@@ -1625,7 +1628,7 @@
     <t xml:space="preserve">4.66600608825684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68094301223755</t>
+    <t xml:space="preserve">4.68094253540039</t>
   </si>
   <si>
     <t xml:space="preserve">4.63968801498413</t>
@@ -1637,7 +1640,7 @@
     <t xml:space="preserve">4.94909620285034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82604455947876</t>
+    <t xml:space="preserve">4.8260440826416</t>
   </si>
   <si>
     <t xml:space="preserve">4.81466388702393</t>
@@ -1649,13 +1652,13 @@
     <t xml:space="preserve">4.89361619949341</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8729887008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80683946609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79332590103149</t>
+    <t xml:space="preserve">4.87298917770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80683994293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79332542419434</t>
   </si>
   <si>
     <t xml:space="preserve">4.70726013183594</t>
@@ -1664,25 +1667,25 @@
     <t xml:space="preserve">4.66387224197388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56784915924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57994079589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55220079421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48178434371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36797904968262</t>
+    <t xml:space="preserve">4.56784868240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57994174957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55220127105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48178386688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36797857284546</t>
   </si>
   <si>
     <t xml:space="preserve">4.34948587417603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30609798431396</t>
+    <t xml:space="preserve">4.30609750747681</t>
   </si>
   <si>
     <t xml:space="preserve">4.20651817321777</t>
@@ -1703,7 +1706,7 @@
     <t xml:space="preserve">4.1894474029541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19300365447998</t>
+    <t xml:space="preserve">4.19300413131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.24635028839111</t>
@@ -1718,10 +1721,10 @@
     <t xml:space="preserve">4.27408981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36513376235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43341732025146</t>
+    <t xml:space="preserve">4.36513423919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43341684341431</t>
   </si>
   <si>
     <t xml:space="preserve">4.44550895690918</t>
@@ -1733,19 +1736,19 @@
     <t xml:space="preserve">4.3665566444397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29613924026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51663732528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42345905303955</t>
+    <t xml:space="preserve">4.29613971710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51663684844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42345857620239</t>
   </si>
   <si>
     <t xml:space="preserve">4.37082433700562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33952808380127</t>
+    <t xml:space="preserve">4.33952760696411</t>
   </si>
   <si>
     <t xml:space="preserve">4.2698221206665</t>
@@ -1757,13 +1760,13 @@
     <t xml:space="preserve">4.27764654159546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23283624649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17166566848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17379903793335</t>
+    <t xml:space="preserve">4.23283576965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17166519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17379951477051</t>
   </si>
   <si>
     <t xml:space="preserve">4.19442653656006</t>
@@ -1775,16 +1778,16 @@
     <t xml:space="preserve">4.3694019317627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38149356842041</t>
+    <t xml:space="preserve">4.38149309158325</t>
   </si>
   <si>
     <t xml:space="preserve">4.34379577636719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33312654495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25559711456299</t>
+    <t xml:space="preserve">4.33312606811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25559663772583</t>
   </si>
   <si>
     <t xml:space="preserve">4.18375730514526</t>
@@ -1802,10 +1805,10 @@
     <t xml:space="preserve">4.09982585906982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02087354660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11974191665649</t>
+    <t xml:space="preserve">4.0208740234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11974143981934</t>
   </si>
   <si>
     <t xml:space="preserve">4.04007863998413</t>
@@ -1817,22 +1820,22 @@
     <t xml:space="preserve">3.91204786300659</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83807468414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82242679595947</t>
+    <t xml:space="preserve">3.83807420730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82242655754089</t>
   </si>
   <si>
     <t xml:space="preserve">3.86225771903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85727906227112</t>
+    <t xml:space="preserve">3.8572793006897</t>
   </si>
   <si>
     <t xml:space="preserve">3.77477049827576</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82811665534973</t>
+    <t xml:space="preserve">3.82811641693115</t>
   </si>
   <si>
     <t xml:space="preserve">3.96326017379761</t>
@@ -1847,40 +1850,40 @@
     <t xml:space="preserve">4.11547422409058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20296239852905</t>
+    <t xml:space="preserve">4.20296192169189</t>
   </si>
   <si>
     <t xml:space="preserve">4.18802499771118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20794057846069</t>
+    <t xml:space="preserve">4.20794105529785</t>
   </si>
   <si>
     <t xml:space="preserve">4.18233489990234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13325595855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09129047393799</t>
+    <t xml:space="preserve">4.13325643539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09129095077515</t>
   </si>
   <si>
     <t xml:space="preserve">4.18020105361938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16028499603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19798278808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15174961090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1069393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21220827102661</t>
+    <t xml:space="preserve">4.16028547286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1979832649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15174913406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10693883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21220874786377</t>
   </si>
   <si>
     <t xml:space="preserve">4.25986433029175</t>
@@ -1889,13 +1892,13 @@
     <t xml:space="preserve">4.37366962432861</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46755886077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43697357177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43839550018311</t>
+    <t xml:space="preserve">4.46755838394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43697309494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43839597702026</t>
   </si>
   <si>
     <t xml:space="preserve">4.39714193344116</t>
@@ -1916,16 +1919,16 @@
     <t xml:space="preserve">4.27906894683838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19371557235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2676887512207</t>
+    <t xml:space="preserve">4.19371509552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26768827438354</t>
   </si>
   <si>
     <t xml:space="preserve">4.23070192337036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27480173110962</t>
+    <t xml:space="preserve">4.2748007774353</t>
   </si>
   <si>
     <t xml:space="preserve">4.31534433364868</t>
@@ -1934,25 +1937,25 @@
     <t xml:space="preserve">4.38433885574341</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36726760864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36442232131958</t>
+    <t xml:space="preserve">4.36726808547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36442279815674</t>
   </si>
   <si>
     <t xml:space="preserve">4.36015558242798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30680894851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43270540237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49458694458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40069818496704</t>
+    <t xml:space="preserve">4.30680847167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43270587921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49458742141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40069770812988</t>
   </si>
   <si>
     <t xml:space="preserve">4.48676347732544</t>
@@ -1964,10 +1967,10 @@
     <t xml:space="preserve">4.65889358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73215532302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63044261932373</t>
+    <t xml:space="preserve">4.73215579986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63044166564941</t>
   </si>
   <si>
     <t xml:space="preserve">4.59487771987915</t>
@@ -1982,16 +1985,16 @@
     <t xml:space="preserve">4.73571157455444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76843023300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82248783111572</t>
+    <t xml:space="preserve">4.76843070983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82248830795288</t>
   </si>
   <si>
     <t xml:space="preserve">4.76558542251587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72859907150269</t>
+    <t xml:space="preserve">4.72859859466553</t>
   </si>
   <si>
     <t xml:space="preserve">4.72931003570557</t>
@@ -2000,28 +2003,28 @@
     <t xml:space="preserve">4.663161277771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61123704910278</t>
+    <t xml:space="preserve">4.61123752593994</t>
   </si>
   <si>
     <t xml:space="preserve">4.57211685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6162166595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58065223693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70157051086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68023157119751</t>
+    <t xml:space="preserve">4.61621618270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58065271377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7015700340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68023204803467</t>
   </si>
   <si>
     <t xml:space="preserve">4.71579599380493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74424695968628</t>
+    <t xml:space="preserve">4.74424743652344</t>
   </si>
   <si>
     <t xml:space="preserve">4.60910367965698</t>
@@ -2042,19 +2045,19 @@
     <t xml:space="preserve">4.80114936828613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77269840240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77981090545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78692388534546</t>
+    <t xml:space="preserve">4.77269792556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7798113822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78692436218262</t>
   </si>
   <si>
     <t xml:space="preserve">4.87939071655273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81537532806396</t>
+    <t xml:space="preserve">4.81537485122681</t>
   </si>
   <si>
     <t xml:space="preserve">4.65178060531616</t>
@@ -2063,10 +2066,7 @@
     <t xml:space="preserve">4.70926475524902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77082347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7015700340271</t>
+    <t xml:space="preserve">4.77082395553589</t>
   </si>
   <si>
     <t xml:space="preserve">4.76312923431396</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">4.78621339797974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85546731948853</t>
+    <t xml:space="preserve">4.85546779632568</t>
   </si>
   <si>
     <t xml:space="preserve">4.90163707733154</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">4.81699371337891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74773979187012</t>
+    <t xml:space="preserve">4.74773931503296</t>
   </si>
   <si>
     <t xml:space="preserve">4.67079067230225</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">4.73234987258911</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72465419769287</t>
+    <t xml:space="preserve">4.72465467453003</t>
   </si>
   <si>
     <t xml:space="preserve">4.71695995330811</t>
@@ -2111,16 +2111,16 @@
     <t xml:space="preserve">4.80160331726074</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74004411697388</t>
+    <t xml:space="preserve">4.74004459381104</t>
   </si>
   <si>
     <t xml:space="preserve">4.68618059158325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60153675079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53228235244751</t>
+    <t xml:space="preserve">4.6015362739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53228282928467</t>
   </si>
   <si>
     <t xml:space="preserve">4.57845211029053</t>
@@ -2153,19 +2153,19 @@
     <t xml:space="preserve">4.66309547424316</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64770555496216</t>
+    <t xml:space="preserve">4.64770603179932</t>
   </si>
   <si>
     <t xml:space="preserve">4.64001131057739</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58614730834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55536794662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53997802734375</t>
+    <t xml:space="preserve">4.58614683151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55536699295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53997755050659</t>
   </si>
   <si>
     <t xml:space="preserve">4.54767227172852</t>
@@ -2195,13 +2195,13 @@
     <t xml:space="preserve">4.16292858123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07059049606323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03981065750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09367513656616</t>
+    <t xml:space="preserve">4.07059001922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03981113433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.093674659729</t>
   </si>
   <si>
     <t xml:space="preserve">4.03211545944214</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">4.12445449829102</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05520057678223</t>
+    <t xml:space="preserve">4.05520009994507</t>
   </si>
   <si>
     <t xml:space="preserve">4.07828521728516</t>
@@ -2225,16 +2225,16 @@
     <t xml:space="preserve">4.18601322174072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20909738540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23987722396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30913114547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33221578598022</t>
+    <t xml:space="preserve">4.20909786224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23987770080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30913162231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33221626281738</t>
   </si>
   <si>
     <t xml:space="preserve">4.3245210647583</t>
@@ -2246,10 +2246,10 @@
     <t xml:space="preserve">4.25526714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28604650497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27065658569336</t>
+    <t xml:space="preserve">4.28604698181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27065706253052</t>
   </si>
   <si>
     <t xml:space="preserve">4.30143642425537</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">4.37838506698608</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38608026504517</t>
+    <t xml:space="preserve">4.38607978820801</t>
   </si>
   <si>
     <t xml:space="preserve">4.41685962677002</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">4.43994426727295</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40916442871094</t>
+    <t xml:space="preserve">4.4091649055481</t>
   </si>
   <si>
     <t xml:space="preserve">4.42455434799194</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">4.43224954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56306171417236</t>
+    <t xml:space="preserve">4.56306219100952</t>
   </si>
   <si>
     <t xml:space="preserve">4.59384155273438</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">4.61692667007446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62462139129639</t>
+    <t xml:space="preserve">4.62462091445923</t>
   </si>
   <si>
     <t xml:space="preserve">4.60923147201538</t>
@@ -2318,40 +2318,40 @@
     <t xml:space="preserve">4.77851915359497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91702651977539</t>
+    <t xml:space="preserve">4.91702604293823</t>
   </si>
   <si>
     <t xml:space="preserve">4.83238315582275</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87085723876953</t>
+    <t xml:space="preserve">4.87085676193237</t>
   </si>
   <si>
     <t xml:space="preserve">4.88624715805054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84777307510376</t>
+    <t xml:space="preserve">4.8477725982666</t>
   </si>
   <si>
     <t xml:space="preserve">4.2244873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20140266418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10136985778809</t>
+    <t xml:space="preserve">4.20140314102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10136938095093</t>
   </si>
   <si>
     <t xml:space="preserve">4.06289529800415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60120272636414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50116920471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49347448348999</t>
+    <t xml:space="preserve">3.60120224952698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50116968154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49347424507141</t>
   </si>
   <si>
     <t xml:space="preserve">2.81247782707214</t>
@@ -2363,16 +2363,16 @@
     <t xml:space="preserve">2.62780046463013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6624276638031</t>
+    <t xml:space="preserve">2.66242742538452</t>
   </si>
   <si>
     <t xml:space="preserve">2.79708790779114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73937630653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87018918991089</t>
+    <t xml:space="preserve">2.73937606811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87018942832947</t>
   </si>
   <si>
     <t xml:space="preserve">2.80093550682068</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">2.98561239242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90481638908386</t>
+    <t xml:space="preserve">2.90481615066528</t>
   </si>
   <si>
     <t xml:space="preserve">2.93174815177917</t>
@@ -2390,46 +2390,46 @@
     <t xml:space="preserve">2.92405343055725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77785086631775</t>
+    <t xml:space="preserve">2.77785062789917</t>
   </si>
   <si>
     <t xml:space="preserve">2.88557887077332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90096855163574</t>
+    <t xml:space="preserve">2.90096879005432</t>
   </si>
   <si>
     <t xml:space="preserve">2.84710478782654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79324078559875</t>
+    <t xml:space="preserve">2.79324054718018</t>
   </si>
   <si>
     <t xml:space="preserve">2.8086302280426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86249446868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83171463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78939294815063</t>
+    <t xml:space="preserve">2.86249423027039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83171486854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78939318656921</t>
   </si>
   <si>
     <t xml:space="preserve">2.69320702552795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75476598739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78554558753967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72013902664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71629190444946</t>
+    <t xml:space="preserve">2.75476622581482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78554534912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72013926506042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71629166603088</t>
   </si>
   <si>
     <t xml:space="preserve">2.73168158531189</t>
@@ -2441,22 +2441,22 @@
     <t xml:space="preserve">2.70474934577942</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6970546245575</t>
+    <t xml:space="preserve">2.69705438613892</t>
   </si>
   <si>
     <t xml:space="preserve">2.72398662567139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68166470527649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64319014549255</t>
+    <t xml:space="preserve">2.68166446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64319038391113</t>
   </si>
   <si>
     <t xml:space="preserve">2.53930950164795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50852990150452</t>
+    <t xml:space="preserve">2.5085301399231</t>
   </si>
   <si>
     <t xml:space="preserve">2.47775053977966</t>
@@ -2465,19 +2465,19 @@
     <t xml:space="preserve">2.48544549942017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55469942092896</t>
+    <t xml:space="preserve">2.55469918251038</t>
   </si>
   <si>
     <t xml:space="preserve">2.42003893852234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31231069564819</t>
+    <t xml:space="preserve">2.31231045722961</t>
   </si>
   <si>
     <t xml:space="preserve">2.33539533615112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53161454200745</t>
+    <t xml:space="preserve">2.53161478042603</t>
   </si>
   <si>
     <t xml:space="preserve">2.4662082195282</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">2.49698758125305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52391958236694</t>
+    <t xml:space="preserve">2.52391982078552</t>
   </si>
   <si>
     <t xml:space="preserve">2.60086870193481</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">2.58547878265381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61625838279724</t>
+    <t xml:space="preserve">2.61625814437866</t>
   </si>
   <si>
     <t xml:space="preserve">2.59702110290527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67396974563599</t>
+    <t xml:space="preserve">2.67396998405457</t>
   </si>
   <si>
     <t xml:space="preserve">2.67012238502502</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68935942649841</t>
+    <t xml:space="preserve">2.68935966491699</t>
   </si>
   <si>
     <t xml:space="preserve">2.72783398628235</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">2.75324726104736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72037291526794</t>
+    <t xml:space="preserve">2.72037267684937</t>
   </si>
   <si>
     <t xml:space="preserve">2.66284227371216</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">2.60531187057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54778122901917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5395622253418</t>
+    <t xml:space="preserve">2.54778099060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53956246376038</t>
   </si>
   <si>
     <t xml:space="preserve">2.51079726219177</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">2.57243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60120248794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56832790374756</t>
+    <t xml:space="preserve">2.60120224952698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56832766532898</t>
   </si>
   <si>
     <t xml:space="preserve">2.52312517166138</t>
@@ -2627,10 +2627,10 @@
     <t xml:space="preserve">2.46559476852417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47792267799377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41217350959778</t>
+    <t xml:space="preserve">2.47792291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4121732711792</t>
   </si>
   <si>
     <t xml:space="preserve">2.45326662063599</t>
@@ -2645,22 +2645,22 @@
     <t xml:space="preserve">2.53134369850159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58887457847595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65462350845337</t>
+    <t xml:space="preserve">2.58887434005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65462374687195</t>
   </si>
   <si>
     <t xml:space="preserve">2.60942101478577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3834080696106</t>
+    <t xml:space="preserve">2.38340830802917</t>
   </si>
   <si>
     <t xml:space="preserve">2.3628613948822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38751769065857</t>
+    <t xml:space="preserve">2.38751745223999</t>
   </si>
   <si>
     <t xml:space="preserve">2.36697101593018</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">2.03411555290222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04644346237183</t>
+    <t xml:space="preserve">2.04644370079041</t>
   </si>
   <si>
     <t xml:space="preserve">2.05055284500122</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">2.157395362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16561388969421</t>
+    <t xml:space="preserve">2.16561412811279</t>
   </si>
   <si>
     <t xml:space="preserve">2.15328598022461</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">2.90940165519714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86830830574036</t>
+    <t xml:space="preserve">2.86830854415894</t>
   </si>
   <si>
     <t xml:space="preserve">2.83543395996094</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">2.96282291412354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94638562202454</t>
+    <t xml:space="preserve">2.94638586044312</t>
   </si>
   <si>
     <t xml:space="preserve">2.95460438728333</t>
@@ -2753,13 +2753,13 @@
     <t xml:space="preserve">2.88063645362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97104167938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95049500465393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03679084777832</t>
+    <t xml:space="preserve">2.97104144096375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95049476623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03679060935974</t>
   </si>
   <si>
     <t xml:space="preserve">3.06555604934692</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">3.01213479042053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87652730941772</t>
+    <t xml:space="preserve">2.87652707099915</t>
   </si>
   <si>
     <t xml:space="preserve">2.92994832992554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0491189956665</t>
+    <t xml:space="preserve">3.04911875724792</t>
   </si>
   <si>
     <t xml:space="preserve">3.08199334144592</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">2.92583894729614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00391602516174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04089999198914</t>
+    <t xml:space="preserve">3.00391626358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04090023040771</t>
   </si>
   <si>
     <t xml:space="preserve">3.04500937461853</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05733752250671</t>
+    <t xml:space="preserve">3.05733728408813</t>
   </si>
   <si>
     <t xml:space="preserve">3.07788395881653</t>
@@ -2819,13 +2819,13 @@
     <t xml:space="preserve">3.10254001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06966543197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98747873306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90118312835693</t>
+    <t xml:space="preserve">3.06966519355774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98747897148132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90118288993835</t>
   </si>
   <si>
     <t xml:space="preserve">2.92172980308533</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">3.00802540779114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02446269989014</t>
+    <t xml:space="preserve">3.02446293830872</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610272407532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1271960735321</t>
+    <t xml:space="preserve">3.12719583511353</t>
   </si>
   <si>
     <t xml:space="preserve">3.15185189247131</t>
@@ -2858,22 +2858,22 @@
     <t xml:space="preserve">3.2874596118927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16007041931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2258198261261</t>
+    <t xml:space="preserve">3.1600706577301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22581958770752</t>
   </si>
   <si>
     <t xml:space="preserve">3.14774250984192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21349191665649</t>
+    <t xml:space="preserve">3.21349167823792</t>
   </si>
   <si>
     <t xml:space="preserve">3.13130521774292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17239832878113</t>
+    <t xml:space="preserve">3.17239856719971</t>
   </si>
   <si>
     <t xml:space="preserve">3.17650771141052</t>
@@ -2909,22 +2909,22 @@
     <t xml:space="preserve">2.81899666786194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84776163101196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91351127624512</t>
+    <t xml:space="preserve">2.84776186943054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91351103782654</t>
   </si>
   <si>
     <t xml:space="preserve">3.09843063354492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26280379295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18061685562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24636650085449</t>
+    <t xml:space="preserve">3.26280355453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18061709403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24636626243591</t>
   </si>
   <si>
     <t xml:space="preserve">3.18883585929871</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">3.3655366897583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3819739818573</t>
+    <t xml:space="preserve">3.38197374343872</t>
   </si>
   <si>
     <t xml:space="preserve">3.41484880447388</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">3.44361400604248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51347231864929</t>
+    <t xml:space="preserve">3.51347255706787</t>
   </si>
   <si>
     <t xml:space="preserve">3.38608336448669</t>
@@ -2963,25 +2963,25 @@
     <t xml:space="preserve">3.40663003921509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34909915924072</t>
+    <t xml:space="preserve">3.3490993976593</t>
   </si>
   <si>
     <t xml:space="preserve">3.34499025344849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3203341960907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3696460723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31622457504272</t>
+    <t xml:space="preserve">3.32033395767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36964583396912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3162248134613</t>
   </si>
   <si>
     <t xml:space="preserve">3.32444357872009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33677124977112</t>
+    <t xml:space="preserve">3.3367714881897</t>
   </si>
   <si>
     <t xml:space="preserve">3.30800628662109</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">3.31211566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37786459922791</t>
+    <t xml:space="preserve">3.37786483764648</t>
   </si>
   <si>
     <t xml:space="preserve">3.43128609657288</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">3.46005129814148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52990961074829</t>
+    <t xml:space="preserve">3.52990984916687</t>
   </si>
   <si>
     <t xml:space="preserve">3.5258002281189</t>
@@ -3011,25 +3011,25 @@
     <t xml:space="preserve">3.68195462226868</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79701590538025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81756234169006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82167196273804</t>
+    <t xml:space="preserve">3.79701566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81756258010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82167172431946</t>
   </si>
   <si>
     <t xml:space="preserve">3.79290628433228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76414084434509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64086127281189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57511234283447</t>
+    <t xml:space="preserve">3.76414132118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64086151123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57511210441589</t>
   </si>
   <si>
     <t xml:space="preserve">3.64497065544128</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">3.5710027217865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55867505073547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45594167709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35731792449951</t>
+    <t xml:space="preserve">3.55867481231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45594191551208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35731816291809</t>
   </si>
   <si>
     <t xml:space="preserve">3.37375545501709</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">3.45183229446411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43950462341309</t>
+    <t xml:space="preserve">3.43950438499451</t>
   </si>
   <si>
     <t xml:space="preserve">3.33266186714172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41895794868469</t>
+    <t xml:space="preserve">3.41895771026611</t>
   </si>
   <si>
     <t xml:space="preserve">3.39430212974548</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">3.19294500350952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29978728294373</t>
+    <t xml:space="preserve">3.2997875213623</t>
   </si>
   <si>
     <t xml:space="preserve">3.36142754554749</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">3.3038969039917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39019274711609</t>
+    <t xml:space="preserve">3.39019250869751</t>
   </si>
   <si>
     <t xml:space="preserve">3.48059797286987</t>
@@ -3095,22 +3095,22 @@
     <t xml:space="preserve">3.4888162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35320854187012</t>
+    <t xml:space="preserve">3.3532087802887</t>
   </si>
   <si>
     <t xml:space="preserve">3.25869417190552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23403835296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20116353034973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19705438613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27924084663391</t>
+    <t xml:space="preserve">3.23403811454773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20116376876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1970546245575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27924108505249</t>
   </si>
   <si>
     <t xml:space="preserve">3.2710223197937</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">2.99569749832153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12308645248413</t>
+    <t xml:space="preserve">3.12308669090271</t>
   </si>
   <si>
     <t xml:space="preserve">3.42717671394348</t>
@@ -3146,16 +3146,16 @@
     <t xml:space="preserve">3.29156899452209</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28335022926331</t>
+    <t xml:space="preserve">3.28334999084473</t>
   </si>
   <si>
     <t xml:space="preserve">3.34088087081909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14363312721252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10664939880371</t>
+    <t xml:space="preserve">3.1436333656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10664916038513</t>
   </si>
   <si>
     <t xml:space="preserve">3.11486792564392</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">3.02857208251953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89296460151672</t>
+    <t xml:space="preserve">2.89296436309814</t>
   </si>
   <si>
     <t xml:space="preserve">2.97926020622253</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">3.39841151237488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47648859024048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4929256439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48470687866211</t>
+    <t xml:space="preserve">3.4764883518219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49292588233948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48470711708069</t>
   </si>
   <si>
     <t xml:space="preserve">3.65318965911865</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">3.46416068077087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4723789691925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43539500236511</t>
+    <t xml:space="preserve">3.47237920761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43539524078369</t>
   </si>
   <si>
     <t xml:space="preserve">3.51758193969727</t>
@@ -3233,28 +3233,28 @@
     <t xml:space="preserve">3.60798668861389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59154939651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66551733016968</t>
+    <t xml:space="preserve">3.59154963493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66551756858826</t>
   </si>
   <si>
     <t xml:space="preserve">3.66962695121765</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67373585700989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75592255592346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71482920646667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80112504959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73537611961365</t>
+    <t xml:space="preserve">3.67373561859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75592279434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71482944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80112528800964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73537588119507</t>
   </si>
   <si>
     <t xml:space="preserve">3.74770379066467</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">3.80523467063904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646899223328</t>
+    <t xml:space="preserve">3.77646923065186</t>
   </si>
   <si>
     <t xml:space="preserve">3.74359440803528</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">3.76003170013428</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71072006225586</t>
+    <t xml:space="preserve">3.71071982383728</t>
   </si>
   <si>
     <t xml:space="preserve">3.66140794754028</t>
@@ -4287,6 +4287,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.932000041008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93799996376038</t>
   </si>
 </sst>
 </file>
@@ -8364,7 +8367,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G144" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8416,7 +8419,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G146" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8442,7 +8445,7 @@
         <v>7.33019208908081</v>
       </c>
       <c r="G147" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8468,7 +8471,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G148" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8494,7 +8497,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G149" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8520,7 +8523,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G150" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8572,7 +8575,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G152" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8598,7 +8601,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G153" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8624,7 +8627,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G154" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8650,7 +8653,7 @@
         <v>7.07918977737427</v>
       </c>
       <c r="G155" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8676,7 +8679,7 @@
         <v>7.05130100250244</v>
       </c>
       <c r="G156" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8702,7 +8705,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G157" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8728,7 +8731,7 @@
         <v>7.13032007217407</v>
       </c>
       <c r="G158" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8754,7 +8757,7 @@
         <v>7.04200410842896</v>
       </c>
       <c r="G159" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8780,7 +8783,7 @@
         <v>7.0048189163208</v>
       </c>
       <c r="G160" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8806,7 +8809,7 @@
         <v>6.93509578704834</v>
       </c>
       <c r="G161" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8832,7 +8835,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G162" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8858,7 +8861,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G163" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8884,7 +8887,7 @@
         <v>6.78170585632324</v>
       </c>
       <c r="G164" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8910,7 +8913,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G165" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8936,7 +8939,7 @@
         <v>6.88396596908569</v>
       </c>
       <c r="G166" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8962,7 +8965,7 @@
         <v>6.87002086639404</v>
       </c>
       <c r="G167" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8988,7 +8991,7 @@
         <v>6.83283615112305</v>
       </c>
       <c r="G168" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9014,7 +9017,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G169" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -9040,7 +9043,7 @@
         <v>6.77705812454224</v>
       </c>
       <c r="G170" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9066,7 +9069,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G171" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9092,7 +9095,7 @@
         <v>6.71198320388794</v>
       </c>
       <c r="G172" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9118,7 +9121,7 @@
         <v>6.64690780639648</v>
       </c>
       <c r="G173" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9144,7 +9147,7 @@
         <v>6.79565000534058</v>
       </c>
       <c r="G174" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9170,7 +9173,7 @@
         <v>6.69803810119629</v>
       </c>
       <c r="G175" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9222,7 +9225,7 @@
         <v>6.74916791915894</v>
       </c>
       <c r="G177" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9248,7 +9251,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G178" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9274,7 +9277,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G179" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9300,7 +9303,7 @@
         <v>6.242516040802</v>
       </c>
       <c r="G180" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9352,7 +9355,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G182" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9378,7 +9381,7 @@
         <v>6.09842205047607</v>
       </c>
       <c r="G183" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9404,7 +9407,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G184" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9430,7 +9433,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G185" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9456,7 +9459,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G186" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9482,7 +9485,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G187" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9508,7 +9511,7 @@
         <v>6.17744112014771</v>
       </c>
       <c r="G188" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9534,7 +9537,7 @@
         <v>6.13095903396606</v>
       </c>
       <c r="G189" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9586,7 +9589,7 @@
         <v>6.26575708389282</v>
       </c>
       <c r="G191" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9638,7 +9641,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G193" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9664,7 +9667,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G194" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9690,7 +9693,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G195" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9716,7 +9719,7 @@
         <v>6.11236715316772</v>
       </c>
       <c r="G196" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9742,7 +9745,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G197" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9768,7 +9771,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G198" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9794,7 +9797,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G199" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9820,7 +9823,7 @@
         <v>6.02405118942261</v>
       </c>
       <c r="G200" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9846,7 +9849,7 @@
         <v>5.99616193771362</v>
       </c>
       <c r="G201" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9872,7 +9875,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G202" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9898,7 +9901,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G203" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9924,7 +9927,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G204" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9950,7 +9953,7 @@
         <v>6.20532989501953</v>
       </c>
       <c r="G205" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9976,7 +9979,7 @@
         <v>6.45633316040039</v>
       </c>
       <c r="G206" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10002,7 +10005,7 @@
         <v>6.56324100494385</v>
       </c>
       <c r="G207" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10028,7 +10031,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G208" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10054,7 +10057,7 @@
         <v>6.63761186599731</v>
       </c>
       <c r="G209" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10106,7 +10109,7 @@
         <v>6.65155601501465</v>
       </c>
       <c r="G211" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10132,7 +10135,7 @@
         <v>6.600426197052</v>
       </c>
       <c r="G212" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10158,7 +10161,7 @@
         <v>6.52140712738037</v>
       </c>
       <c r="G213" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10210,7 +10213,7 @@
         <v>6.46562910079956</v>
       </c>
       <c r="G215" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10236,7 +10239,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G216" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10262,7 +10265,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G217" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10288,7 +10291,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G218" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10314,7 +10317,7 @@
         <v>6.36336898803711</v>
       </c>
       <c r="G219" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10340,7 +10343,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G220" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10366,7 +10369,7 @@
         <v>6.34477615356445</v>
       </c>
       <c r="G221" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10392,7 +10395,7 @@
         <v>6.29364585876465</v>
       </c>
       <c r="G222" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10418,7 +10421,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G223" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10444,7 +10447,7 @@
         <v>6.21462678909302</v>
       </c>
       <c r="G224" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10470,7 +10473,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G225" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10496,7 +10499,7 @@
         <v>6.06123685836792</v>
       </c>
       <c r="G226" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10522,7 +10525,7 @@
         <v>6.07053279876709</v>
       </c>
       <c r="G227" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10548,7 +10551,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G228" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10574,7 +10577,7 @@
         <v>5.74516010284424</v>
       </c>
       <c r="G229" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10600,7 +10603,7 @@
         <v>5.88460493087769</v>
       </c>
       <c r="G230" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10626,7 +10629,7 @@
         <v>5.92643880844116</v>
       </c>
       <c r="G231" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10652,7 +10655,7 @@
         <v>5.90784597396851</v>
       </c>
       <c r="G232" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10678,7 +10681,7 @@
         <v>5.78234481811523</v>
       </c>
       <c r="G233" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10704,7 +10707,7 @@
         <v>5.81023406982422</v>
       </c>
       <c r="G234" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10730,7 +10733,7 @@
         <v>5.81953096389771</v>
       </c>
       <c r="G235" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10756,7 +10759,7 @@
         <v>5.86601305007935</v>
       </c>
       <c r="G236" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10782,7 +10785,7 @@
         <v>5.85671615600586</v>
       </c>
       <c r="G237" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10808,7 +10811,7 @@
         <v>5.91249513626099</v>
       </c>
       <c r="G238" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10834,7 +10837,7 @@
         <v>5.83812379837036</v>
       </c>
       <c r="G239" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10860,7 +10863,7 @@
         <v>6.14490413665771</v>
       </c>
       <c r="G240" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10886,7 +10889,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G241" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10912,7 +10915,7 @@
         <v>6.3959059715271</v>
       </c>
       <c r="G242" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10938,7 +10941,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G243" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10964,7 +10967,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G244" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11016,7 +11019,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G246" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11094,7 +11097,7 @@
         <v>6.57718515396118</v>
       </c>
       <c r="G249" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11120,7 +11123,7 @@
         <v>6.53070402145386</v>
       </c>
       <c r="G250" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11146,7 +11149,7 @@
         <v>6.6655011177063</v>
       </c>
       <c r="G251" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11172,7 +11175,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G252" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11198,7 +11201,7 @@
         <v>6.67479705810547</v>
       </c>
       <c r="G253" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11224,7 +11227,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G254" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11250,7 +11253,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G255" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11276,7 +11279,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G256" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11302,7 +11305,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G257" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11328,7 +11331,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G258" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11406,7 +11409,7 @@
         <v>7.05594921112061</v>
       </c>
       <c r="G261" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11458,7 +11461,7 @@
         <v>6.91650295257568</v>
       </c>
       <c r="G263" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11484,7 +11487,7 @@
         <v>7.00946712493896</v>
       </c>
       <c r="G264" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11510,7 +11513,7 @@
         <v>7.02341079711914</v>
       </c>
       <c r="G265" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11562,7 +11565,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G267" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11588,7 +11591,7 @@
         <v>6.94903993606567</v>
       </c>
       <c r="G268" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11666,7 +11669,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G271" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11718,7 +11721,7 @@
         <v>6.82818794250488</v>
       </c>
       <c r="G273" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11744,7 +11747,7 @@
         <v>6.80494689941406</v>
       </c>
       <c r="G274" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11770,7 +11773,7 @@
         <v>6.75381708145142</v>
       </c>
       <c r="G275" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11822,7 +11825,7 @@
         <v>6.61901903152466</v>
       </c>
       <c r="G277" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11848,7 +11851,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G278" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11874,7 +11877,7 @@
         <v>6.47027683258057</v>
       </c>
       <c r="G279" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11900,7 +11903,7 @@
         <v>6.62831592559814</v>
       </c>
       <c r="G280" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11926,7 +11929,7 @@
         <v>6.50746297836304</v>
       </c>
       <c r="G281" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11952,7 +11955,7 @@
         <v>6.57253694534302</v>
       </c>
       <c r="G282" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12030,7 +12033,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G285" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12108,7 +12111,7 @@
         <v>6.81424283981323</v>
       </c>
       <c r="G288" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12134,7 +12137,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G289" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12160,7 +12163,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G290" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12186,7 +12189,7 @@
         <v>6.95833683013916</v>
       </c>
       <c r="G291" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12212,7 +12215,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G292" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12238,7 +12241,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G293" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12264,7 +12267,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G294" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12290,7 +12293,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G295" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12316,7 +12319,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G296" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12368,7 +12371,7 @@
         <v>6.70268678665161</v>
       </c>
       <c r="G298" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12394,7 +12397,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G299" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12420,7 +12423,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G300" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12446,7 +12449,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G301" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12498,7 +12501,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G303" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12524,7 +12527,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G304" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12550,7 +12553,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G305" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12576,7 +12579,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G306" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12602,7 +12605,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G307" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12628,7 +12631,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G308" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12654,7 +12657,7 @@
         <v>7.06989288330078</v>
       </c>
       <c r="G309" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12680,7 +12683,7 @@
         <v>7.17680215835571</v>
       </c>
       <c r="G310" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12706,7 +12709,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G311" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12732,7 +12735,7 @@
         <v>7.41850709915161</v>
       </c>
       <c r="G312" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12758,7 +12761,7 @@
         <v>7.46963787078857</v>
       </c>
       <c r="G313" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12810,7 +12813,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G315" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12862,7 +12865,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G317" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12888,7 +12891,7 @@
         <v>7.60443496704102</v>
       </c>
       <c r="G318" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12914,7 +12917,7 @@
         <v>7.75782489776611</v>
       </c>
       <c r="G319" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12940,7 +12943,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G320" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12992,7 +12995,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G322" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13018,7 +13021,7 @@
         <v>7.59978723526001</v>
       </c>
       <c r="G323" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13044,7 +13047,7 @@
         <v>7.59513902664185</v>
       </c>
       <c r="G324" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13148,7 +13151,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G328" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13174,7 +13177,7 @@
         <v>7.46498918533325</v>
       </c>
       <c r="G329" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13226,7 +13229,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G331" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13252,7 +13255,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G332" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13278,7 +13281,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G333" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13304,7 +13307,7 @@
         <v>7.311598777771</v>
       </c>
       <c r="G334" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13330,7 +13333,7 @@
         <v>7.20469093322754</v>
       </c>
       <c r="G335" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13356,7 +13359,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G336" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13382,7 +13385,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G337" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13408,7 +13411,7 @@
         <v>7.53471183776855</v>
       </c>
       <c r="G338" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13434,7 +13437,7 @@
         <v>7.66486120223999</v>
       </c>
       <c r="G339" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13460,7 +13463,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G340" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13486,7 +13489,7 @@
         <v>7.6973991394043</v>
       </c>
       <c r="G341" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13512,7 +13515,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G342" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13538,7 +13541,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G343" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13564,7 +13567,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G344" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13590,7 +13593,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G345" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13616,7 +13619,7 @@
         <v>7.95769691467285</v>
       </c>
       <c r="G346" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13642,7 +13645,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G347" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13668,7 +13671,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G348" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13694,7 +13697,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G349" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13720,7 +13723,7 @@
         <v>8.16686630249023</v>
       </c>
       <c r="G350" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13746,7 +13749,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G351" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13772,7 +13775,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G352" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13798,7 +13801,7 @@
         <v>7.8554368019104</v>
       </c>
       <c r="G353" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13824,7 +13827,7 @@
         <v>7.79965877532959</v>
       </c>
       <c r="G354" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13850,7 +13853,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G355" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13876,7 +13879,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G356" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13902,7 +13905,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G357" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13928,7 +13931,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G358" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13954,7 +13957,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G359" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13980,7 +13983,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G360" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14006,7 +14009,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G361" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14032,7 +14035,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G362" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14058,7 +14061,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G363" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14084,7 +14087,7 @@
         <v>7.83684396743774</v>
       </c>
       <c r="G364" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14110,7 +14113,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G365" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14136,7 +14139,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G366" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14162,7 +14165,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G367" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14188,7 +14191,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G368" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14214,7 +14217,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G369" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14240,7 +14243,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G370" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14266,7 +14269,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G371" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14292,7 +14295,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G372" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14318,7 +14321,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G373" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14344,7 +14347,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G374" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14370,7 +14373,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G375" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14396,7 +14399,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G376" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14422,7 +14425,7 @@
         <v>7.46034097671509</v>
       </c>
       <c r="G377" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14448,7 +14451,7 @@
         <v>7.4278039932251</v>
       </c>
       <c r="G378" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14474,7 +14477,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G379" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14500,7 +14503,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G380" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14526,7 +14529,7 @@
         <v>7.39991521835327</v>
       </c>
       <c r="G381" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14552,7 +14555,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G382" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14578,7 +14581,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G383" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14604,7 +14607,7 @@
         <v>7.16750478744507</v>
       </c>
       <c r="G384" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14630,7 +14633,7 @@
         <v>7.21863508224487</v>
       </c>
       <c r="G385" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14656,7 +14659,7 @@
         <v>7.35343313217163</v>
       </c>
       <c r="G386" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14682,7 +14685,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G387" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14708,7 +14711,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G388" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14734,7 +14737,7 @@
         <v>7.39061784744263</v>
       </c>
       <c r="G389" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14760,7 +14763,7 @@
         <v>7.53006410598755</v>
       </c>
       <c r="G390" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14786,7 +14789,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G391" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14812,7 +14815,7 @@
         <v>7.55330514907837</v>
       </c>
       <c r="G392" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14838,7 +14841,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G393" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14864,7 +14867,7 @@
         <v>7.72064018249512</v>
       </c>
       <c r="G394" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14890,7 +14893,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G395" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14916,7 +14919,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G396" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14942,7 +14945,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G397" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14968,7 +14971,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G398" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14994,7 +14997,7 @@
         <v>7.72993612289429</v>
       </c>
       <c r="G399" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15020,7 +15023,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G400" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15046,7 +15049,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G401" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15072,7 +15075,7 @@
         <v>7.74388122558594</v>
       </c>
       <c r="G402" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15098,7 +15101,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G403" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15124,7 +15127,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G404" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15150,7 +15153,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G405" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15176,7 +15179,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G406" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15202,7 +15205,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G407" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15228,7 +15231,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G408" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15254,7 +15257,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G409" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15280,7 +15283,7 @@
         <v>7.82289981842041</v>
       </c>
       <c r="G410" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15306,7 +15309,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G411" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15332,7 +15335,7 @@
         <v>7.89262294769287</v>
       </c>
       <c r="G412" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15358,7 +15361,7 @@
         <v>7.81360292434692</v>
       </c>
       <c r="G413" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15384,7 +15387,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G414" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15410,7 +15413,7 @@
         <v>7.79501104354858</v>
       </c>
       <c r="G415" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15436,7 +15439,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G416" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15462,7 +15465,7 @@
         <v>8.01347637176514</v>
       </c>
       <c r="G417" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15488,7 +15491,7 @@
         <v>7.99023485183716</v>
       </c>
       <c r="G418" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15514,7 +15517,7 @@
         <v>7.93445587158203</v>
       </c>
       <c r="G419" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15540,7 +15543,7 @@
         <v>7.94375276565552</v>
       </c>
       <c r="G420" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15566,7 +15569,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G421" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15592,7 +15595,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G422" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15618,7 +15621,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G423" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15644,7 +15647,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G424" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15670,7 +15673,7 @@
         <v>7.86008501052856</v>
       </c>
       <c r="G425" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15696,7 +15699,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G426" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15722,7 +15725,7 @@
         <v>7.78106594085693</v>
       </c>
       <c r="G427" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15748,7 +15751,7 @@
         <v>7.89727115631104</v>
       </c>
       <c r="G428" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15774,7 +15777,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G429" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15800,7 +15803,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G430" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15826,7 +15829,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G431" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15852,7 +15855,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G432" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15878,7 +15881,7 @@
         <v>7.84149312973022</v>
       </c>
       <c r="G433" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15904,7 +15907,7 @@
         <v>7.92051219940186</v>
       </c>
       <c r="G434" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15930,7 +15933,7 @@
         <v>8.03206825256348</v>
       </c>
       <c r="G435" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15956,7 +15959,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G436" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15982,7 +15985,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G437" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16008,7 +16011,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G438" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16034,7 +16037,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G439" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16060,7 +16063,7 @@
         <v>8.19010734558105</v>
       </c>
       <c r="G440" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16086,7 +16089,7 @@
         <v>8.12503242492676</v>
       </c>
       <c r="G441" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16112,7 +16115,7 @@
         <v>8.08784675598145</v>
       </c>
       <c r="G442" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16138,7 +16141,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G443" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16164,7 +16167,7 @@
         <v>8.10643863677979</v>
       </c>
       <c r="G444" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16190,7 +16193,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G445" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16216,7 +16219,7 @@
         <v>8.14362525939941</v>
       </c>
       <c r="G446" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16242,7 +16245,7 @@
         <v>8.12038421630859</v>
       </c>
       <c r="G447" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16268,7 +16271,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G448" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16294,7 +16297,7 @@
         <v>8.20869922637939</v>
       </c>
       <c r="G449" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16320,7 +16323,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G450" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16346,7 +16349,7 @@
         <v>8.22729206085205</v>
       </c>
       <c r="G451" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16372,7 +16375,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G452" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16398,7 +16401,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G453" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16424,7 +16427,7 @@
         <v>8.07390213012695</v>
       </c>
       <c r="G454" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16450,7 +16453,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G455" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16476,7 +16479,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G456" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16502,7 +16505,7 @@
         <v>8.36673831939697</v>
       </c>
       <c r="G457" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16528,7 +16531,7 @@
         <v>8.50618267059326</v>
       </c>
       <c r="G458" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16554,7 +16557,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G459" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16580,7 +16583,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G460" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16606,7 +16609,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G461" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16632,7 +16635,7 @@
         <v>8.5526647567749</v>
       </c>
       <c r="G462" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16658,7 +16661,7 @@
         <v>8.54801654815674</v>
       </c>
       <c r="G463" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16684,7 +16687,7 @@
         <v>8.69211101531982</v>
       </c>
       <c r="G464" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16710,7 +16713,7 @@
         <v>8.74788856506348</v>
       </c>
       <c r="G465" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16736,7 +16739,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G466" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16762,7 +16765,7 @@
         <v>8.60379505157471</v>
       </c>
       <c r="G467" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16788,7 +16791,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G468" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16814,7 +16817,7 @@
         <v>8.98959541320801</v>
       </c>
       <c r="G469" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16840,7 +16843,7 @@
         <v>9.22665309906006</v>
       </c>
       <c r="G470" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16866,7 +16869,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G471" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16892,7 +16895,7 @@
         <v>9.696120262146</v>
       </c>
       <c r="G472" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16918,7 +16921,7 @@
         <v>9.67752742767334</v>
       </c>
       <c r="G473" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16944,7 +16947,7 @@
         <v>9.55667400360107</v>
       </c>
       <c r="G474" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16970,7 +16973,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G475" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16996,7 +16999,7 @@
         <v>9.62174892425537</v>
       </c>
       <c r="G476" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17022,7 +17025,7 @@
         <v>9.43582057952881</v>
       </c>
       <c r="G477" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17048,7 +17051,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G478" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17074,7 +17077,7 @@
         <v>9.34285736083984</v>
       </c>
       <c r="G479" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17100,7 +17103,7 @@
         <v>9.2080602645874</v>
       </c>
       <c r="G480" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17126,7 +17129,7 @@
         <v>9.38933944702148</v>
       </c>
       <c r="G481" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17152,7 +17155,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G482" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17178,7 +17181,7 @@
         <v>9.91923332214355</v>
       </c>
       <c r="G483" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17204,7 +17207,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G484" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17230,7 +17233,7 @@
         <v>9.65893363952637</v>
       </c>
       <c r="G485" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17256,7 +17259,7 @@
         <v>10.0029001235962</v>
       </c>
       <c r="G486" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17282,7 +17285,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G487" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17308,7 +17311,7 @@
         <v>9.90063953399658</v>
       </c>
       <c r="G488" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17334,7 +17337,7 @@
         <v>10.0586776733398</v>
       </c>
       <c r="G489" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17360,7 +17363,7 @@
         <v>10.1144561767578</v>
       </c>
       <c r="G490" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17386,7 +17389,7 @@
         <v>10.0307893753052</v>
       </c>
       <c r="G491" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17412,7 +17415,7 @@
         <v>10.0121955871582</v>
       </c>
       <c r="G492" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17438,7 +17441,7 @@
         <v>9.76119422912598</v>
       </c>
       <c r="G493" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17464,7 +17467,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G494" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17490,7 +17493,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G495" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17516,7 +17519,7 @@
         <v>9.93782520294189</v>
       </c>
       <c r="G496" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17542,7 +17545,7 @@
         <v>10.0772714614868</v>
       </c>
       <c r="G497" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17568,7 +17571,7 @@
         <v>10.318977355957</v>
       </c>
       <c r="G498" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17594,7 +17597,7 @@
         <v>10.3003835678101</v>
       </c>
       <c r="G499" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17620,7 +17623,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G500" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17646,7 +17649,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G501" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17672,7 +17675,7 @@
         <v>10.411940574646</v>
       </c>
       <c r="G502" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17698,7 +17701,7 @@
         <v>10.1330490112305</v>
       </c>
       <c r="G503" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17724,7 +17727,7 @@
         <v>9.49159908294678</v>
       </c>
       <c r="G504" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17750,7 +17753,7 @@
         <v>9.11044788360596</v>
       </c>
       <c r="G505" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17776,7 +17779,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G506" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17802,7 +17805,7 @@
         <v>9.08255863189697</v>
       </c>
       <c r="G507" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17828,7 +17831,7 @@
         <v>8.88268661499023</v>
       </c>
       <c r="G508" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17854,7 +17857,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G509" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17880,7 +17883,7 @@
         <v>9.09650325775146</v>
       </c>
       <c r="G510" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17906,7 +17909,7 @@
         <v>8.96170616149902</v>
       </c>
       <c r="G511" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17932,7 +17935,7 @@
         <v>8.95240879058838</v>
       </c>
       <c r="G512" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17958,7 +17961,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G513" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17984,7 +17987,7 @@
         <v>9.1569299697876</v>
       </c>
       <c r="G514" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18010,7 +18013,7 @@
         <v>9.16622638702393</v>
       </c>
       <c r="G515" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18036,7 +18039,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G516" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18062,7 +18065,7 @@
         <v>9.31496810913086</v>
       </c>
       <c r="G517" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18088,7 +18091,7 @@
         <v>9.26848602294922</v>
       </c>
       <c r="G518" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18114,7 +18117,7 @@
         <v>9.00818824768066</v>
       </c>
       <c r="G519" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18140,7 +18143,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G520" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18166,7 +18169,7 @@
         <v>9.06396579742432</v>
       </c>
       <c r="G521" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18192,7 +18195,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G522" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18218,7 +18221,7 @@
         <v>8.8873348236084</v>
       </c>
       <c r="G523" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18244,7 +18247,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G524" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18270,7 +18273,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G525" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18296,7 +18299,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G526" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18322,7 +18325,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G527" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18348,7 +18351,7 @@
         <v>8.90592765808105</v>
       </c>
       <c r="G528" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18374,7 +18377,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G529" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18400,7 +18403,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G530" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18426,7 +18429,7 @@
         <v>8.85014915466309</v>
       </c>
       <c r="G531" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18452,7 +18455,7 @@
         <v>8.60844421386719</v>
       </c>
       <c r="G532" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18478,7 +18481,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G533" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18504,7 +18507,7 @@
         <v>8.53407287597656</v>
       </c>
       <c r="G534" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18530,7 +18533,7 @@
         <v>8.34814453125</v>
       </c>
       <c r="G535" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18556,7 +18559,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G536" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18582,7 +18585,7 @@
         <v>8.05995655059814</v>
       </c>
       <c r="G537" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18608,7 +18611,7 @@
         <v>8.30166339874268</v>
       </c>
       <c r="G538" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18634,7 +18637,7 @@
         <v>7.87403011322021</v>
       </c>
       <c r="G539" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18660,7 +18663,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G540" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18686,7 +18689,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G541" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18712,7 +18715,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G542" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18738,7 +18741,7 @@
         <v>7.68810176849365</v>
       </c>
       <c r="G543" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18764,7 +18767,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G544" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18790,7 +18793,7 @@
         <v>7.8182520866394</v>
       </c>
       <c r="G545" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18816,7 +18819,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G546" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18842,7 +18845,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G547" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18868,7 +18871,7 @@
         <v>7.58584213256836</v>
       </c>
       <c r="G548" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18894,7 +18897,7 @@
         <v>8.0413646697998</v>
       </c>
       <c r="G549" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18920,7 +18923,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G550" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18946,7 +18949,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G551" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18972,7 +18975,7 @@
         <v>7.49566698074341</v>
       </c>
       <c r="G552" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18998,7 +19001,7 @@
         <v>7.36086988449097</v>
       </c>
       <c r="G553" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19024,7 +19027,7 @@
         <v>7.17308282852173</v>
       </c>
       <c r="G554" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19050,7 +19053,7 @@
         <v>7.00017118453979</v>
       </c>
       <c r="G555" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19076,7 +19079,7 @@
         <v>6.98622608184814</v>
       </c>
       <c r="G556" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19102,7 +19105,7 @@
         <v>7.08383798599243</v>
       </c>
       <c r="G557" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19128,7 +19131,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G558" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19154,7 +19157,7 @@
         <v>7.298583984375</v>
       </c>
       <c r="G559" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19180,7 +19183,7 @@
         <v>7.12102317810059</v>
       </c>
       <c r="G560" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19206,7 +19209,7 @@
         <v>7.03177785873413</v>
       </c>
       <c r="G561" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19232,7 +19235,7 @@
         <v>7.05501890182495</v>
       </c>
       <c r="G562" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19258,7 +19261,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G563" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19284,7 +19287,7 @@
         <v>6.82911682128906</v>
       </c>
       <c r="G564" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19310,7 +19313,7 @@
         <v>6.72127914428711</v>
       </c>
       <c r="G565" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19336,7 +19339,7 @@
         <v>7.01225614547729</v>
       </c>
       <c r="G566" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19362,7 +19365,7 @@
         <v>6.98064804077148</v>
       </c>
       <c r="G567" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19388,7 +19391,7 @@
         <v>6.94439220428467</v>
       </c>
       <c r="G568" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19414,7 +19417,7 @@
         <v>6.71291303634644</v>
       </c>
       <c r="G569" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19440,7 +19443,7 @@
         <v>6.55394506454468</v>
       </c>
       <c r="G570" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19466,7 +19469,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19492,7 +19495,7 @@
         <v>7.27699995040894</v>
       </c>
       <c r="G572" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19518,7 +19521,7 @@
         <v>7.97800016403198</v>
       </c>
       <c r="G573" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19544,7 +19547,7 @@
         <v>7.58799982070923</v>
       </c>
       <c r="G574" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19570,7 +19573,7 @@
         <v>7.75</v>
       </c>
       <c r="G575" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19596,7 +19599,7 @@
         <v>8.04199981689453</v>
       </c>
       <c r="G576" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19622,7 +19625,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G577" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19648,7 +19651,7 @@
         <v>8.25899982452393</v>
       </c>
       <c r="G578" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19674,7 +19677,7 @@
         <v>8.09500026702881</v>
       </c>
       <c r="G579" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19700,7 +19703,7 @@
         <v>7.83699989318848</v>
       </c>
       <c r="G580" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19726,7 +19729,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G581" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19752,7 +19755,7 @@
         <v>7.89900016784668</v>
       </c>
       <c r="G582" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19778,7 +19781,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G583" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19804,7 +19807,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G584" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19830,7 +19833,7 @@
         <v>7.86700010299683</v>
       </c>
       <c r="G585" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19856,7 +19859,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G586" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19882,7 +19885,7 @@
         <v>7.84200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19908,7 +19911,7 @@
         <v>7.85799980163574</v>
       </c>
       <c r="G588" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19934,7 +19937,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G589" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19960,7 +19963,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G590" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19986,7 +19989,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G591" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20012,7 +20015,7 @@
         <v>7.71600008010864</v>
       </c>
       <c r="G592" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20038,7 +20041,7 @@
         <v>7.70100021362305</v>
       </c>
       <c r="G593" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20064,7 +20067,7 @@
         <v>7.76300001144409</v>
       </c>
       <c r="G594" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20090,7 +20093,7 @@
         <v>7.85699987411499</v>
       </c>
       <c r="G595" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20116,7 +20119,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G596" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20142,7 +20145,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20168,7 +20171,7 @@
         <v>8</v>
       </c>
       <c r="G598" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20194,7 +20197,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G599" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20220,7 +20223,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20246,7 +20249,7 @@
         <v>7.92600011825562</v>
       </c>
       <c r="G601" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20272,7 +20275,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G602" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20298,7 +20301,7 @@
         <v>8.03800010681152</v>
       </c>
       <c r="G603" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20324,7 +20327,7 @@
         <v>8</v>
       </c>
       <c r="G604" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20350,7 +20353,7 @@
         <v>7.78399991989136</v>
       </c>
       <c r="G605" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20376,7 +20379,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G606" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20402,7 +20405,7 @@
         <v>7.44899988174438</v>
       </c>
       <c r="G607" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20428,7 +20431,7 @@
         <v>7.55900001525879</v>
       </c>
       <c r="G608" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20454,7 +20457,7 @@
         <v>7.47499990463257</v>
       </c>
       <c r="G609" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20480,7 +20483,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G610" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20506,7 +20509,7 @@
         <v>7.37099981307983</v>
       </c>
       <c r="G611" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20532,7 +20535,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20558,7 +20561,7 @@
         <v>7.11499977111816</v>
       </c>
       <c r="G613" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20584,7 +20587,7 @@
         <v>6.7649998664856</v>
       </c>
       <c r="G614" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20610,7 +20613,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G615" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20636,7 +20639,7 @@
         <v>7.27400016784668</v>
       </c>
       <c r="G616" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20662,7 +20665,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G617" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20688,7 +20691,7 @@
         <v>7.39400005340576</v>
       </c>
       <c r="G618" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20714,7 +20717,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G619" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20740,7 +20743,7 @@
         <v>7.49499988555908</v>
       </c>
       <c r="G620" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20766,7 +20769,7 @@
         <v>7.32299995422363</v>
       </c>
       <c r="G621" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20792,7 +20795,7 @@
         <v>7.1710000038147</v>
       </c>
       <c r="G622" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20818,7 +20821,7 @@
         <v>7.08900022506714</v>
       </c>
       <c r="G623" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20844,7 +20847,7 @@
         <v>7.25899982452393</v>
       </c>
       <c r="G624" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20870,7 +20873,7 @@
         <v>7.11100006103516</v>
       </c>
       <c r="G625" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20896,7 +20899,7 @@
         <v>7.24900007247925</v>
       </c>
       <c r="G626" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20922,7 +20925,7 @@
         <v>7.31799983978271</v>
       </c>
       <c r="G627" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20948,7 +20951,7 @@
         <v>6.97200012207031</v>
       </c>
       <c r="G628" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20974,7 +20977,7 @@
         <v>6.97399997711182</v>
       </c>
       <c r="G629" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21000,7 +21003,7 @@
         <v>6.92399978637695</v>
       </c>
       <c r="G630" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21026,7 +21029,7 @@
         <v>6.90299987792969</v>
       </c>
       <c r="G631" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21052,7 +21055,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G632" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21078,7 +21081,7 @@
         <v>6.96700000762939</v>
       </c>
       <c r="G633" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21104,7 +21107,7 @@
         <v>7</v>
       </c>
       <c r="G634" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21130,7 +21133,7 @@
         <v>6.875</v>
       </c>
       <c r="G635" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21156,7 +21159,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G636" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21182,7 +21185,7 @@
         <v>6.88199996948242</v>
       </c>
       <c r="G637" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21208,7 +21211,7 @@
         <v>7.04699993133545</v>
       </c>
       <c r="G638" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21234,7 +21237,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G639" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21260,7 +21263,7 @@
         <v>7</v>
       </c>
       <c r="G640" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21286,7 +21289,7 @@
         <v>6.93699979782104</v>
       </c>
       <c r="G641" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21312,7 +21315,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G642" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21338,7 +21341,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G643" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21364,7 +21367,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G644" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21390,7 +21393,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G645" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21416,7 +21419,7 @@
         <v>7.05399990081787</v>
       </c>
       <c r="G646" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21442,7 +21445,7 @@
         <v>7.06899976730347</v>
       </c>
       <c r="G647" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21468,7 +21471,7 @@
         <v>7.12599992752075</v>
       </c>
       <c r="G648" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21494,7 +21497,7 @@
         <v>7.17700004577637</v>
       </c>
       <c r="G649" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21520,7 +21523,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G650" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21546,7 +21549,7 @@
         <v>7.35099983215332</v>
       </c>
       <c r="G651" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21572,7 +21575,7 @@
         <v>7.21600008010864</v>
       </c>
       <c r="G652" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21598,7 +21601,7 @@
         <v>7.24200010299683</v>
       </c>
       <c r="G653" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21624,7 +21627,7 @@
         <v>7.26100015640259</v>
       </c>
       <c r="G654" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21650,7 +21653,7 @@
         <v>7.06599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21676,7 +21679,7 @@
         <v>7.25</v>
       </c>
       <c r="G656" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21702,7 +21705,7 @@
         <v>7.05700016021729</v>
       </c>
       <c r="G657" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21728,7 +21731,7 @@
         <v>7.13100004196167</v>
       </c>
       <c r="G658" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21754,7 +21757,7 @@
         <v>7.23099994659424</v>
       </c>
       <c r="G659" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21780,7 +21783,7 @@
         <v>7.18300008773804</v>
       </c>
       <c r="G660" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21806,7 +21809,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G661" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21832,7 +21835,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G662" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21858,7 +21861,7 @@
         <v>6.93100023269653</v>
       </c>
       <c r="G663" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21884,7 +21887,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G664" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21910,7 +21913,7 @@
         <v>6.9210000038147</v>
       </c>
       <c r="G665" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21936,7 +21939,7 @@
         <v>6.90899991989136</v>
       </c>
       <c r="G666" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21962,7 +21965,7 @@
         <v>6.79300022125244</v>
       </c>
       <c r="G667" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21988,7 +21991,7 @@
         <v>6.66300010681152</v>
       </c>
       <c r="G668" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22014,7 +22017,7 @@
         <v>6.60699987411499</v>
       </c>
       <c r="G669" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22040,7 +22043,7 @@
         <v>6.49100017547607</v>
       </c>
       <c r="G670" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22066,7 +22069,7 @@
         <v>6.51900005340576</v>
       </c>
       <c r="G671" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22092,7 +22095,7 @@
         <v>6.57299995422363</v>
       </c>
       <c r="G672" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22118,7 +22121,7 @@
         <v>6.69899988174438</v>
       </c>
       <c r="G673" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22144,7 +22147,7 @@
         <v>6.68699979782104</v>
       </c>
       <c r="G674" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22170,7 +22173,7 @@
         <v>6.58799982070923</v>
       </c>
       <c r="G675" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22196,7 +22199,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G676" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22222,7 +22225,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G677" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22248,7 +22251,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G678" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22274,7 +22277,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G679" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22300,7 +22303,7 @@
         <v>6.62099981307983</v>
       </c>
       <c r="G680" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22326,7 +22329,7 @@
         <v>6.55399990081787</v>
       </c>
       <c r="G681" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22352,7 +22355,7 @@
         <v>6.56799983978271</v>
       </c>
       <c r="G682" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22378,7 +22381,7 @@
         <v>6.5310001373291</v>
       </c>
       <c r="G683" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22404,7 +22407,7 @@
         <v>6.57499980926514</v>
       </c>
       <c r="G684" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22430,7 +22433,7 @@
         <v>6.57200002670288</v>
       </c>
       <c r="G685" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22456,7 +22459,7 @@
         <v>6.58900022506714</v>
       </c>
       <c r="G686" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22482,7 +22485,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G687" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22508,7 +22511,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G688" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22534,7 +22537,7 @@
         <v>6.58099985122681</v>
       </c>
       <c r="G689" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22560,7 +22563,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G690" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22586,7 +22589,7 @@
         <v>6.51200008392334</v>
       </c>
       <c r="G691" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22612,7 +22615,7 @@
         <v>6.95800018310547</v>
       </c>
       <c r="G692" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22638,7 +22641,7 @@
         <v>6.78499984741211</v>
       </c>
       <c r="G693" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22664,7 +22667,7 @@
         <v>6.76900005340576</v>
       </c>
       <c r="G694" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22690,7 +22693,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G695" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22716,7 +22719,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22742,7 +22745,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G697" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22768,7 +22771,7 @@
         <v>6.85099983215332</v>
       </c>
       <c r="G698" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22794,7 +22797,7 @@
         <v>6.75799989700317</v>
       </c>
       <c r="G699" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22820,7 +22823,7 @@
         <v>6.73899984359741</v>
       </c>
       <c r="G700" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22846,7 +22849,7 @@
         <v>6.61800003051758</v>
       </c>
       <c r="G701" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22872,7 +22875,7 @@
         <v>6.55700016021729</v>
       </c>
       <c r="G702" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22898,7 +22901,7 @@
         <v>6.42199993133545</v>
       </c>
       <c r="G703" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22924,7 +22927,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G704" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22950,7 +22953,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G705" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22976,7 +22979,7 @@
         <v>6.30100011825562</v>
       </c>
       <c r="G706" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23002,7 +23005,7 @@
         <v>6.14099979400635</v>
       </c>
       <c r="G707" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23028,7 +23031,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G708" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23054,7 +23057,7 @@
         <v>6.05399990081787</v>
       </c>
       <c r="G709" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23080,7 +23083,7 @@
         <v>5.91400003433228</v>
       </c>
       <c r="G710" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23106,7 +23109,7 @@
         <v>5.95300006866455</v>
       </c>
       <c r="G711" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23132,7 +23135,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G712" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23158,7 +23161,7 @@
         <v>5.90399980545044</v>
       </c>
       <c r="G713" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23184,7 +23187,7 @@
         <v>5.95900011062622</v>
       </c>
       <c r="G714" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23210,7 +23213,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G715" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23236,7 +23239,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G716" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23262,7 +23265,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G717" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23288,7 +23291,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G718" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23314,7 +23317,7 @@
         <v>5.94600009918213</v>
       </c>
       <c r="G719" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23340,7 +23343,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G720" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23366,7 +23369,7 @@
         <v>6.00899982452393</v>
       </c>
       <c r="G721" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23392,7 +23395,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G722" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23418,7 +23421,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G723" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23444,7 +23447,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G724" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23470,7 +23473,7 @@
         <v>6.25</v>
       </c>
       <c r="G725" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23496,7 +23499,7 @@
         <v>6.23899984359741</v>
       </c>
       <c r="G726" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23522,7 +23525,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G727" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23548,7 +23551,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G728" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23574,7 +23577,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G729" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23600,7 +23603,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G730" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23626,7 +23629,7 @@
         <v>6.2189998626709</v>
       </c>
       <c r="G731" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23652,7 +23655,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G732" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23678,7 +23681,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G733" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23704,7 +23707,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G734" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23730,7 +23733,7 @@
         <v>6.03900003433228</v>
       </c>
       <c r="G735" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23756,7 +23759,7 @@
         <v>6.01399993896484</v>
       </c>
       <c r="G736" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23782,7 +23785,7 @@
         <v>5.95100021362305</v>
       </c>
       <c r="G737" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23808,7 +23811,7 @@
         <v>5.86499977111816</v>
       </c>
       <c r="G738" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23834,7 +23837,7 @@
         <v>5.86800003051758</v>
       </c>
       <c r="G739" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23860,7 +23863,7 @@
         <v>5.89699983596802</v>
       </c>
       <c r="G740" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23886,7 +23889,7 @@
         <v>6.02899980545044</v>
       </c>
       <c r="G741" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23912,7 +23915,7 @@
         <v>6.14300012588501</v>
       </c>
       <c r="G742" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23938,7 +23941,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G743" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23964,7 +23967,7 @@
         <v>6.10699987411499</v>
       </c>
       <c r="G744" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23990,7 +23993,7 @@
         <v>6.09200000762939</v>
       </c>
       <c r="G745" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24016,7 +24019,7 @@
         <v>5.98299980163574</v>
       </c>
       <c r="G746" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24042,7 +24045,7 @@
         <v>5.88199996948242</v>
       </c>
       <c r="G747" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24068,7 +24071,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G748" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24094,7 +24097,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G749" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24120,7 +24123,7 @@
         <v>5.80700016021729</v>
       </c>
       <c r="G750" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24146,7 +24149,7 @@
         <v>5.81599998474121</v>
       </c>
       <c r="G751" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24172,7 +24175,7 @@
         <v>5.76399993896484</v>
       </c>
       <c r="G752" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24198,7 +24201,7 @@
         <v>5.65299987792969</v>
       </c>
       <c r="G753" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24224,7 +24227,7 @@
         <v>5.79199981689453</v>
       </c>
       <c r="G754" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24250,7 +24253,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G755" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24276,7 +24279,7 @@
         <v>5.63399982452393</v>
       </c>
       <c r="G756" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24302,7 +24305,7 @@
         <v>5.5</v>
       </c>
       <c r="G757" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24328,7 +24331,7 @@
         <v>5.39599990844727</v>
       </c>
       <c r="G758" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24354,7 +24357,7 @@
         <v>5.37400007247925</v>
       </c>
       <c r="G759" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24380,7 +24383,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G760" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24406,7 +24409,7 @@
         <v>5.4229998588562</v>
       </c>
       <c r="G761" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24432,7 +24435,7 @@
         <v>5.30700016021729</v>
       </c>
       <c r="G762" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24458,7 +24461,7 @@
         <v>5.38199996948242</v>
       </c>
       <c r="G763" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24484,7 +24487,7 @@
         <v>5.57200002670288</v>
       </c>
       <c r="G764" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24510,7 +24513,7 @@
         <v>5.67199993133545</v>
       </c>
       <c r="G765" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24536,7 +24539,7 @@
         <v>5.80800008773804</v>
       </c>
       <c r="G766" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24562,7 +24565,7 @@
         <v>5.78599977493286</v>
       </c>
       <c r="G767" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24588,7 +24591,7 @@
         <v>5.90899991989136</v>
       </c>
       <c r="G768" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24614,7 +24617,7 @@
         <v>5.88800001144409</v>
       </c>
       <c r="G769" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24640,7 +24643,7 @@
         <v>5.91599988937378</v>
       </c>
       <c r="G770" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24666,7 +24669,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G771" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24692,7 +24695,7 @@
         <v>5.81099987030029</v>
       </c>
       <c r="G772" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24718,7 +24721,7 @@
         <v>5.7519998550415</v>
       </c>
       <c r="G773" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24744,7 +24747,7 @@
         <v>5.8769998550415</v>
       </c>
       <c r="G774" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24770,7 +24773,7 @@
         <v>5.84899997711182</v>
       </c>
       <c r="G775" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24796,7 +24799,7 @@
         <v>5.90199995040894</v>
       </c>
       <c r="G776" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24822,7 +24825,7 @@
         <v>5.83699989318848</v>
       </c>
       <c r="G777" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24848,7 +24851,7 @@
         <v>5.77400016784668</v>
       </c>
       <c r="G778" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24874,7 +24877,7 @@
         <v>5.92199993133545</v>
       </c>
       <c r="G779" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24900,7 +24903,7 @@
         <v>5.98899984359741</v>
       </c>
       <c r="G780" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24926,7 +24929,7 @@
         <v>6.14900016784668</v>
       </c>
       <c r="G781" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24952,7 +24955,7 @@
         <v>6.2810001373291</v>
       </c>
       <c r="G782" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24978,7 +24981,7 @@
         <v>6.23799991607666</v>
       </c>
       <c r="G783" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -25004,7 +25007,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G784" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -25030,7 +25033,7 @@
         <v>6.18200016021729</v>
       </c>
       <c r="G785" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25056,7 +25059,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G786" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25082,7 +25085,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G787" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25108,7 +25111,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G788" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25134,7 +25137,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G789" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25160,7 +25163,7 @@
         <v>6.01599979400635</v>
       </c>
       <c r="G790" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25186,7 +25189,7 @@
         <v>5.89599990844727</v>
       </c>
       <c r="G791" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25212,7 +25215,7 @@
         <v>6</v>
       </c>
       <c r="G792" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25238,7 +25241,7 @@
         <v>5.94799995422363</v>
       </c>
       <c r="G793" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25264,7 +25267,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G794" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25290,7 +25293,7 @@
         <v>6.06699991226196</v>
       </c>
       <c r="G795" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25316,7 +25319,7 @@
         <v>6.16400003433228</v>
       </c>
       <c r="G796" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25342,7 +25345,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G797" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25368,7 +25371,7 @@
         <v>6.13600015640259</v>
       </c>
       <c r="G798" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25394,7 +25397,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G799" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25420,7 +25423,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G800" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25446,7 +25449,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G801" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25472,7 +25475,7 @@
         <v>6.23199987411499</v>
       </c>
       <c r="G802" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25498,7 +25501,7 @@
         <v>6.31899976730347</v>
       </c>
       <c r="G803" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25524,7 +25527,7 @@
         <v>6.18699979782104</v>
       </c>
       <c r="G804" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25550,7 +25553,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G805" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25576,7 +25579,7 @@
         <v>6.30800008773804</v>
       </c>
       <c r="G806" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25602,7 +25605,7 @@
         <v>6.36199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25628,7 +25631,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G808" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25654,7 +25657,7 @@
         <v>6.65299987792969</v>
       </c>
       <c r="G809" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25680,7 +25683,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G810" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25706,7 +25709,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G811" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25732,7 +25735,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25758,7 +25761,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G813" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25784,7 +25787,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G814" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25810,7 +25813,7 @@
         <v>6.65799999237061</v>
       </c>
       <c r="G815" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25836,7 +25839,7 @@
         <v>6.7039999961853</v>
       </c>
       <c r="G816" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25862,7 +25865,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G817" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25888,7 +25891,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G818" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25914,7 +25917,7 @@
         <v>6.64799976348877</v>
       </c>
       <c r="G819" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25940,7 +25943,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G820" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25966,7 +25969,7 @@
         <v>6.55600023269653</v>
       </c>
       <c r="G821" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25992,7 +25995,7 @@
         <v>6.48299980163574</v>
       </c>
       <c r="G822" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26018,7 +26021,7 @@
         <v>6.42799997329712</v>
       </c>
       <c r="G823" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26044,7 +26047,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G824" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26070,7 +26073,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G825" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26096,7 +26099,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G826" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26122,7 +26125,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G827" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26148,7 +26151,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G828" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26174,7 +26177,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G829" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26200,7 +26203,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G830" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26226,7 +26229,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G831" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26252,7 +26255,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26278,7 +26281,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G833" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26304,7 +26307,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G834" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26330,7 +26333,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G835" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26356,7 +26359,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G836" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26382,7 +26385,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G837" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26408,7 +26411,7 @@
         <v>6.75</v>
       </c>
       <c r="G838" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26434,7 +26437,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26460,7 +26463,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26486,7 +26489,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G841" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26512,7 +26515,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G842" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26538,7 +26541,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G843" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26564,7 +26567,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G844" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26590,7 +26593,7 @@
         <v>6.75</v>
       </c>
       <c r="G845" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26616,7 +26619,7 @@
         <v>6.75</v>
       </c>
       <c r="G846" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26642,7 +26645,7 @@
         <v>6.75</v>
       </c>
       <c r="G847" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26668,7 +26671,7 @@
         <v>6.75</v>
       </c>
       <c r="G848" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26694,7 +26697,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G849" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26720,7 +26723,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G850" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26746,7 +26749,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G851" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26772,7 +26775,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G852" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26798,7 +26801,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G853" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26824,7 +26827,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26850,7 +26853,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G855" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26876,7 +26879,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G856" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27266,7 +27269,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G871" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27838,7 +27841,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G893" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -30464,7 +30467,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G994" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30750,7 +30753,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1005" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30854,7 +30857,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1009" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31010,7 +31013,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1015" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31374,7 +31377,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1029" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31426,7 +31429,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1031" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31634,7 +31637,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G1039" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -61256,7 +61259,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6493287037</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>89314</v>
@@ -61277,6 +61280,32 @@
         <v>1424</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6512847222</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>172924</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>1.94400000572205</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>1.84800004959106</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>1.94400000572205</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>1.93799996376038</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89286470413208</t>
+    <t xml:space="preserve">4.89286518096924</t>
   </si>
   <si>
     <t xml:space="preserve">IGD.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97771310806274</t>
+    <t xml:space="preserve">4.97771263122559</t>
   </si>
   <si>
     <t xml:space="preserve">4.93245983123779</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">4.72317028045654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83347225189209</t>
+    <t xml:space="preserve">4.83347129821777</t>
   </si>
   <si>
     <t xml:space="preserve">4.70902872085571</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">4.48276901245117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30741786956787</t>
+    <t xml:space="preserve">4.30741834640503</t>
   </si>
   <si>
     <t xml:space="preserve">4.18580389022827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73328447341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01610898971558</t>
+    <t xml:space="preserve">3.73328471183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01610851287842</t>
   </si>
   <si>
     <t xml:space="preserve">4.0924711227417</t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">4.11226940155029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08398723602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94540238380432</t>
+    <t xml:space="preserve">4.08398675918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94540333747864</t>
   </si>
   <si>
     <t xml:space="preserve">4.10095643997192</t>
@@ -107,37 +107,37 @@
     <t xml:space="preserve">4.05570411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82378840446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91712045669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57490229606628</t>
+    <t xml:space="preserve">3.82378792762756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91712021827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57490253448486</t>
   </si>
   <si>
     <t xml:space="preserve">3.6201548576355</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81813168525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69086050987244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76439476013184</t>
+    <t xml:space="preserve">3.8181312084198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69086074829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76439499855042</t>
   </si>
   <si>
     <t xml:space="preserve">4.01893711090088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95954442024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07267332077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00479602813721</t>
+    <t xml:space="preserve">3.95954394340515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07267379760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00479650497437</t>
   </si>
   <si>
     <t xml:space="preserve">4.19994497299194</t>
@@ -146,46 +146,46 @@
     <t xml:space="preserve">4.14620780944824</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08964395523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12358236312866</t>
+    <t xml:space="preserve">4.0896430015564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12358283996582</t>
   </si>
   <si>
     <t xml:space="preserve">4.12923860549927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17166233062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19428873062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38660907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35549831390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52519226074219</t>
+    <t xml:space="preserve">4.1716628074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19428825378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38660955429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35549783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5251932144165</t>
   </si>
   <si>
     <t xml:space="preserve">4.48559761047363</t>
   </si>
   <si>
-    <t xml:space="preserve">4.496910572052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48842620849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58175754547119</t>
+    <t xml:space="preserve">4.49691009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48842573165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58175802230835</t>
   </si>
   <si>
     <t xml:space="preserve">4.68357563018799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6666054725647</t>
+    <t xml:space="preserve">4.66660499572754</t>
   </si>
   <si>
     <t xml:space="preserve">4.6156964302063</t>
@@ -194,13 +194,13 @@
     <t xml:space="preserve">4.72882699966431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83630084991455</t>
+    <t xml:space="preserve">4.83629989624023</t>
   </si>
   <si>
     <t xml:space="preserve">4.76842164993286</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70620107650757</t>
+    <t xml:space="preserve">4.70620012283325</t>
   </si>
   <si>
     <t xml:space="preserve">4.6383228302002</t>
@@ -212,46 +212,46 @@
     <t xml:space="preserve">4.57327318191528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57610130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41206312179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40075063705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36963939666748</t>
+    <t xml:space="preserve">4.57610177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41206359863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40075016021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36963987350464</t>
   </si>
   <si>
     <t xml:space="preserve">4.37246799468994</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38378143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47994089126587</t>
+    <t xml:space="preserve">4.38378095626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47994136810303</t>
   </si>
   <si>
     <t xml:space="preserve">4.55347537994385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46862745285034</t>
+    <t xml:space="preserve">4.46862840652466</t>
   </si>
   <si>
     <t xml:space="preserve">4.45448684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5167088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47428417205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44034624099731</t>
+    <t xml:space="preserve">4.51670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47428512573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44034576416016</t>
   </si>
   <si>
     <t xml:space="preserve">4.41771984100342</t>
@@ -260,25 +260,25 @@
     <t xml:space="preserve">4.44317388534546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5506477355957</t>
+    <t xml:space="preserve">4.55064725875854</t>
   </si>
   <si>
     <t xml:space="preserve">4.45731544494629</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53933429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57892942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49408292770386</t>
+    <t xml:space="preserve">4.53933382034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57892990112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4940824508667</t>
   </si>
   <si>
     <t xml:space="preserve">4.54216241836548</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45165824890137</t>
+    <t xml:space="preserve">4.45165872573853</t>
   </si>
   <si>
     <t xml:space="preserve">4.65023136138916</t>
@@ -290,28 +290,28 @@
     <t xml:space="preserve">4.81099414825439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85267448425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84076547622681</t>
+    <t xml:space="preserve">4.85267400741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84076595306396</t>
   </si>
   <si>
     <t xml:space="preserve">4.85565137863159</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82290363311768</t>
+    <t xml:space="preserve">4.82290315628052</t>
   </si>
   <si>
     <t xml:space="preserve">4.77526950836182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73358964920044</t>
+    <t xml:space="preserve">4.7335901260376</t>
   </si>
   <si>
     <t xml:space="preserve">4.79610967636108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79015493392944</t>
+    <t xml:space="preserve">4.79015445709229</t>
   </si>
   <si>
     <t xml:space="preserve">4.79313182830811</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">4.72168207168579</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50137662887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20068883895874</t>
+    <t xml:space="preserve">4.50137615203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2006893157959</t>
   </si>
   <si>
     <t xml:space="preserve">4.22450590133667</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">4.08755922317505</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10839891433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30488777160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34656715393066</t>
+    <t xml:space="preserve">4.10839939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30488729476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34656667709351</t>
   </si>
   <si>
     <t xml:space="preserve">4.39420080184937</t>
@@ -353,28 +353,28 @@
     <t xml:space="preserve">4.17389535903931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95954346656799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9774067401886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98931503295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37038326263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30191087722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15603256225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00122261047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96847534179688</t>
+    <t xml:space="preserve">3.95954322814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97740697860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98931479454041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37038373947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30190992355347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15603303909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00122356414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96847486495972</t>
   </si>
   <si>
     <t xml:space="preserve">4.09946775436401</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">4.19771242141724</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23343753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40313196182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55496406555176</t>
+    <t xml:space="preserve">4.23343706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40313148498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55496454238892</t>
   </si>
   <si>
     <t xml:space="preserve">4.48351430892944</t>
@@ -404,16 +404,13 @@
     <t xml:space="preserve">4.60855150222778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52519273757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61152982711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68595600128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64427757263184</t>
+    <t xml:space="preserve">4.61152935028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6859564781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64427709579468</t>
   </si>
   <si>
     <t xml:space="preserve">4.67107105255127</t>
@@ -422,76 +419,76 @@
     <t xml:space="preserve">4.40610980987549</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54007911682129</t>
+    <t xml:space="preserve">4.54007863998413</t>
   </si>
   <si>
     <t xml:space="preserve">4.62046003341675</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53412485122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5162615776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56687211990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51030778884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48649072647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44183397293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46267414093018</t>
+    <t xml:space="preserve">4.53412437438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51626253128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56687307357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51030731201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48649120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44183444976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46267366409302</t>
   </si>
   <si>
     <t xml:space="preserve">4.3346586227417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.343590259552</t>
+    <t xml:space="preserve">4.34358978271484</t>
   </si>
   <si>
     <t xml:space="preserve">4.36740636825562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40908622741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40015411376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37633848190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28702449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34061336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31084203720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29893350601196</t>
+    <t xml:space="preserve">4.40908670425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40015506744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37633800506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.287024974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34061288833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31084156036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29893398284912</t>
   </si>
   <si>
     <t xml:space="preserve">4.25725364685059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35252141952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29000186920166</t>
+    <t xml:space="preserve">4.35252094268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29000234603882</t>
   </si>
   <si>
     <t xml:space="preserve">4.32275009155273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21557474136353</t>
+    <t xml:space="preserve">4.21557521820068</t>
   </si>
   <si>
     <t xml:space="preserve">4.0786280632019</t>
@@ -500,7 +497,7 @@
     <t xml:space="preserve">3.99824643135071</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92977333068848</t>
+    <t xml:space="preserve">3.92977356910706</t>
   </si>
   <si>
     <t xml:space="preserve">3.90595626831055</t>
@@ -509,19 +506,19 @@
     <t xml:space="preserve">3.97145223617554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87618470191956</t>
+    <t xml:space="preserve">3.87618517875671</t>
   </si>
   <si>
     <t xml:space="preserve">3.87916207313538</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99229216575623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95656681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92679524421692</t>
+    <t xml:space="preserve">3.99229264259338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95656704902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92679595947266</t>
   </si>
   <si>
     <t xml:space="preserve">4.01313161849976</t>
@@ -530,13 +527,13 @@
     <t xml:space="preserve">3.94168090820312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91488742828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89404797554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85832238197327</t>
+    <t xml:space="preserve">3.91488766670227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89404773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85832262039185</t>
   </si>
   <si>
     <t xml:space="preserve">3.84045958518982</t>
@@ -548,25 +545,25 @@
     <t xml:space="preserve">3.9744291305542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13519334793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20366621017456</t>
+    <t xml:space="preserve">4.13519287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2036657333374</t>
   </si>
   <si>
     <t xml:space="preserve">4.25129985809326</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26023101806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22748279571533</t>
+    <t xml:space="preserve">4.26023054122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22748327255249</t>
   </si>
   <si>
     <t xml:space="preserve">4.17687225341797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14114761352539</t>
+    <t xml:space="preserve">4.14114713668823</t>
   </si>
   <si>
     <t xml:space="preserve">4.11137628555298</t>
@@ -578,7 +575,7 @@
     <t xml:space="preserve">4.07565116882324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06076574325562</t>
+    <t xml:space="preserve">4.06076526641846</t>
   </si>
   <si>
     <t xml:space="preserve">4.06374263763428</t>
@@ -590,25 +587,25 @@
     <t xml:space="preserve">3.98038363456726</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88214015960693</t>
+    <t xml:space="preserve">3.88213992118835</t>
   </si>
   <si>
     <t xml:space="preserve">3.8880934715271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67969655990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76900911331177</t>
+    <t xml:space="preserve">3.67969679832458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76900887489319</t>
   </si>
   <si>
     <t xml:space="preserve">3.79580330848694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78389453887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70351314544678</t>
+    <t xml:space="preserve">3.78389501571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7035129070282</t>
   </si>
   <si>
     <t xml:space="preserve">3.72137594223022</t>
@@ -617,10 +614,10 @@
     <t xml:space="preserve">3.72733044624329</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75710129737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75114727020264</t>
+    <t xml:space="preserve">3.75710201263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75114679336548</t>
   </si>
   <si>
     <t xml:space="preserve">3.78687238693237</t>
@@ -635,25 +632,25 @@
     <t xml:space="preserve">4.09649038314819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21259737014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18282651901245</t>
+    <t xml:space="preserve">4.21259689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18282699584961</t>
   </si>
   <si>
     <t xml:space="preserve">4.26916217803955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27511692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26320838928223</t>
+    <t xml:space="preserve">4.27511596679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26320886611938</t>
   </si>
   <si>
     <t xml:space="preserve">4.51923942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4299259185791</t>
+    <t xml:space="preserve">4.42992544174194</t>
   </si>
   <si>
     <t xml:space="preserve">4.48946809768677</t>
@@ -662,13 +659,13 @@
     <t xml:space="preserve">4.49839878082275</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48053646087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45076465606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41801691055298</t>
+    <t xml:space="preserve">4.48053693771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45076513290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41801738739014</t>
   </si>
   <si>
     <t xml:space="preserve">4.37336111068726</t>
@@ -677,7 +674,7 @@
     <t xml:space="preserve">4.35847568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32572841644287</t>
+    <t xml:space="preserve">4.32572793960571</t>
   </si>
   <si>
     <t xml:space="preserve">4.23939085006714</t>
@@ -692,28 +689,28 @@
     <t xml:space="preserve">4.16794109344482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20962047576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36442947387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45672035217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29297971725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62641477584839</t>
+    <t xml:space="preserve">4.20961999893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36442995071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45671987533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29297924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62641525268555</t>
   </si>
   <si>
     <t xml:space="preserve">4.66809415817261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52817010879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59664344787598</t>
+    <t xml:space="preserve">4.52816963195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59664440155029</t>
   </si>
   <si>
     <t xml:space="preserve">4.75145244598389</t>
@@ -725,7 +722,7 @@
     <t xml:space="preserve">4.72763586044312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88244485855103</t>
+    <t xml:space="preserve">4.88244533538818</t>
   </si>
   <si>
     <t xml:space="preserve">4.87053632736206</t>
@@ -737,7 +734,7 @@
     <t xml:space="preserve">4.89435338973999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86755990982056</t>
+    <t xml:space="preserve">4.86756038665771</t>
   </si>
   <si>
     <t xml:space="preserve">4.86458253860474</t>
@@ -746,31 +743,31 @@
     <t xml:space="preserve">4.80504083633423</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7812237739563</t>
+    <t xml:space="preserve">4.78122329711914</t>
   </si>
   <si>
     <t xml:space="preserve">4.70381879806519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68297910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61450672149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76336145401001</t>
+    <t xml:space="preserve">4.68297863006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61450624465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76336050033569</t>
   </si>
   <si>
     <t xml:space="preserve">4.8764910697937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8258810043335</t>
+    <t xml:space="preserve">4.82588005065918</t>
   </si>
   <si>
     <t xml:space="preserve">4.90923881530762</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93007946014404</t>
+    <t xml:space="preserve">4.93007898330688</t>
   </si>
   <si>
     <t xml:space="preserve">4.9122166633606</t>
@@ -785,61 +782,61 @@
     <t xml:space="preserve">4.98962116241455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0967960357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12061309814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15633821487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1980185508728</t>
+    <t xml:space="preserve">5.09679698944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12061357498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15633869171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19801759719849</t>
   </si>
   <si>
     <t xml:space="preserve">5.23076629638672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06107187271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03130054473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99557495117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04405879974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08096742630005</t>
+    <t xml:space="preserve">5.06107139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03130006790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99557542800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04405927658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08096694946289</t>
   </si>
   <si>
     <t xml:space="preserve">5.10557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06866407394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09019374847412</t>
+    <t xml:space="preserve">5.06866455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09019422531128</t>
   </si>
   <si>
     <t xml:space="preserve">5.18553876876831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13940477371216</t>
+    <t xml:space="preserve">5.13940382003784</t>
   </si>
   <si>
     <t xml:space="preserve">5.14247989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06251335144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11787462234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11172389984131</t>
+    <t xml:space="preserve">5.06251287460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11787414550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11172342300415</t>
   </si>
   <si>
     <t xml:space="preserve">5.09942054748535</t>
@@ -848,43 +845,43 @@
     <t xml:space="preserve">5.05636167526245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02252912521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96409225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93641090393066</t>
+    <t xml:space="preserve">5.02252960205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96409320831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93641138076782</t>
   </si>
   <si>
     <t xml:space="preserve">4.91488218307495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95178985595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89642858505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82261323928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6903600692749</t>
+    <t xml:space="preserve">4.95179033279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89642906188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82261276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69036054611206</t>
   </si>
   <si>
     <t xml:space="preserve">4.74264621734619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77647733688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86567211151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88412523269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79800748825073</t>
+    <t xml:space="preserve">4.7764778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86567163467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88412570953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79800796508789</t>
   </si>
   <si>
     <t xml:space="preserve">4.89027690887451</t>
@@ -893,13 +890,13 @@
     <t xml:space="preserve">4.98254680633545</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99792528152466</t>
+    <t xml:space="preserve">4.9979248046875</t>
   </si>
   <si>
     <t xml:space="preserve">5.1086483001709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11479949951172</t>
+    <t xml:space="preserve">5.11479902267456</t>
   </si>
   <si>
     <t xml:space="preserve">5.15478277206421</t>
@@ -908,13 +905,13 @@
     <t xml:space="preserve">5.12402629852295</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07481622695923</t>
+    <t xml:space="preserve">5.07481575012207</t>
   </si>
   <si>
     <t xml:space="preserve">5.01330280303955</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05943822860718</t>
+    <t xml:space="preserve">5.05943727493286</t>
   </si>
   <si>
     <t xml:space="preserve">5.17631196975708</t>
@@ -926,28 +923,28 @@
     <t xml:space="preserve">5.22244691848755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17016077041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15785884857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33624601364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30241394042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28703498840332</t>
+    <t xml:space="preserve">5.1701602935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15785837173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3362455368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30241441726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28703546524048</t>
   </si>
   <si>
     <t xml:space="preserve">5.25012731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25627899169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27165746688843</t>
+    <t xml:space="preserve">5.25627851486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27165699005127</t>
   </si>
   <si>
     <t xml:space="preserve">5.29011106491089</t>
@@ -956,13 +953,13 @@
     <t xml:space="preserve">5.21321964263916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20091724395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14863109588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22552251815796</t>
+    <t xml:space="preserve">5.20091676712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14863157272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22552299499512</t>
   </si>
   <si>
     <t xml:space="preserve">5.16708517074585</t>
@@ -971,16 +968,16 @@
     <t xml:space="preserve">5.18861532211304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24090147018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31471586227417</t>
+    <t xml:space="preserve">5.24090099334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31471633911133</t>
   </si>
   <si>
     <t xml:space="preserve">5.41313648223877</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42543888092041</t>
+    <t xml:space="preserve">5.42543935775757</t>
   </si>
   <si>
     <t xml:space="preserve">5.41928863525391</t>
@@ -995,16 +992,16 @@
     <t xml:space="preserve">5.36392593383789</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3885326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37315368652344</t>
+    <t xml:space="preserve">5.38853168487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3731541633606</t>
   </si>
   <si>
     <t xml:space="preserve">5.42851495742798</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43159103393555</t>
+    <t xml:space="preserve">5.43159055709839</t>
   </si>
   <si>
     <t xml:space="preserve">5.44389343261719</t>
@@ -1013,16 +1010,16 @@
     <t xml:space="preserve">5.32701873779297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34239673614502</t>
+    <t xml:space="preserve">5.34239721298218</t>
   </si>
   <si>
     <t xml:space="preserve">5.39468240737915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53616333007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62843084335327</t>
+    <t xml:space="preserve">5.53616285324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62843179702759</t>
   </si>
   <si>
     <t xml:space="preserve">5.84372758865356</t>
@@ -1034,52 +1031,52 @@
     <t xml:space="preserve">5.65918827056885</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65611219406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75145816802979</t>
+    <t xml:space="preserve">5.6561131477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75145721435547</t>
   </si>
   <si>
     <t xml:space="preserve">5.78836488723755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78221416473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69301986694336</t>
+    <t xml:space="preserve">5.78221464157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69302034378052</t>
   </si>
   <si>
     <t xml:space="preserve">5.76991176605225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94829940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10515737533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12053632736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4157977104187</t>
+    <t xml:space="preserve">5.94829988479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10515689849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1205358505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41579723358154</t>
   </si>
   <si>
     <t xml:space="preserve">6.40349531173706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32352781295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33583116531372</t>
+    <t xml:space="preserve">6.32352828979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33583068847656</t>
   </si>
   <si>
     <t xml:space="preserve">6.36658716201782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24356079101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18204832077026</t>
+    <t xml:space="preserve">6.24356126785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18204879760742</t>
   </si>
   <si>
     <t xml:space="preserve">6.09285497665405</t>
@@ -1088,37 +1085,37 @@
     <t xml:space="preserve">6.21280527114868</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50806617736816</t>
+    <t xml:space="preserve">6.50806665420532</t>
   </si>
   <si>
     <t xml:space="preserve">6.56342887878418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39119243621826</t>
+    <t xml:space="preserve">6.3911919593811</t>
   </si>
   <si>
     <t xml:space="preserve">6.61879014968872</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60648727416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55112552642822</t>
+    <t xml:space="preserve">6.60648775100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55112504959106</t>
   </si>
   <si>
     <t xml:space="preserve">6.65569734573364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69260501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63724327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6249418258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45885610580444</t>
+    <t xml:space="preserve">6.69260549545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6372447013855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62494039535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45885705947876</t>
   </si>
   <si>
     <t xml:space="preserve">6.57573080062866</t>
@@ -1127,19 +1124,19 @@
     <t xml:space="preserve">6.6680006980896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82793474197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81563186645508</t>
+    <t xml:space="preserve">6.82793378829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81563138961792</t>
   </si>
   <si>
     <t xml:space="preserve">6.95095920562744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8894476890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70490837097168</t>
+    <t xml:space="preserve">6.88944721221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70490789413452</t>
   </si>
   <si>
     <t xml:space="preserve">6.28046846389771</t>
@@ -1148,52 +1145,52 @@
     <t xml:space="preserve">6.02826595306396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96675300598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00981187820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87755966186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93599605560303</t>
+    <t xml:space="preserve">5.96675252914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0098123550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87755918502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93599557876587</t>
   </si>
   <si>
     <t xml:space="preserve">6.01903915405273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92984580993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92369318008423</t>
+    <t xml:space="preserve">5.92984628677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92369365692139</t>
   </si>
   <si>
     <t xml:space="preserve">6.05902338027954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06517457962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16359424591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13283777236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96060228347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90524053573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99750900268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9544506072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88063478469849</t>
+    <t xml:space="preserve">6.06517362594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1635947227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13283824920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96060180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90524005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99750947952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95445013046265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88063526153564</t>
   </si>
   <si>
     <t xml:space="preserve">5.89293766021729</t>
@@ -1202,7 +1199,7 @@
     <t xml:space="preserve">5.85602951049805</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69609689712524</t>
+    <t xml:space="preserve">5.69609642028809</t>
   </si>
   <si>
     <t xml:space="preserve">5.64688634872437</t>
@@ -1214,7 +1211,7 @@
     <t xml:space="preserve">5.33316946029663</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49310398101807</t>
+    <t xml:space="preserve">5.49310350418091</t>
   </si>
   <si>
     <t xml:space="preserve">5.21014404296875</t>
@@ -1223,52 +1220,52 @@
     <t xml:space="preserve">5.08711814880371</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17323637008667</t>
+    <t xml:space="preserve">5.17323684692383</t>
   </si>
   <si>
     <t xml:space="preserve">5.03790807723999</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01945400238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32086706161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92103385925293</t>
+    <t xml:space="preserve">5.01945447921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32086753845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92103290557861</t>
   </si>
   <si>
     <t xml:space="preserve">4.9597864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87059307098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74633646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63192367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6226954460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68728494644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82568836212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82937908172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71188974380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65283679962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66821575164795</t>
+    <t xml:space="preserve">4.87059259414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74633598327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63192319869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62269592285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68728446960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82568788528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82937955856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71188926696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65283727645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66821527481079</t>
   </si>
   <si>
     <t xml:space="preserve">4.56425809860229</t>
@@ -1277,19 +1274,19 @@
     <t xml:space="preserve">4.51873874664307</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44738388061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63991928100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61900520324707</t>
+    <t xml:space="preserve">4.44738340377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63991975784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61900472640991</t>
   </si>
   <si>
     <t xml:space="preserve">4.59501457214355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4418478012085</t>
+    <t xml:space="preserve">4.44184827804565</t>
   </si>
   <si>
     <t xml:space="preserve">4.33666086196899</t>
@@ -1304,7 +1301,7 @@
     <t xml:space="preserve">5.27894020080566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02088117599487</t>
+    <t xml:space="preserve">5.02088165283203</t>
   </si>
   <si>
     <t xml:space="preserve">5.12807559967041</t>
@@ -1313,34 +1310,34 @@
     <t xml:space="preserve">5.32128810882568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53170442581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46487426757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35635757446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18564176559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14130878448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22666645050049</t>
+    <t xml:space="preserve">5.53170394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46487379074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35635709762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18564224243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14130926132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22666692733765</t>
   </si>
   <si>
     <t xml:space="preserve">5.16115999221802</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11550283432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20549249649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18895053863525</t>
+    <t xml:space="preserve">5.11550331115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20549297332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1889500617981</t>
   </si>
   <si>
     <t xml:space="preserve">5.19953727722168</t>
@@ -1349,7 +1346,7 @@
     <t xml:space="preserve">5.18762731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26041316986084</t>
+    <t xml:space="preserve">5.26041269302368</t>
   </si>
   <si>
     <t xml:space="preserve">5.10557794570923</t>
@@ -1361,19 +1358,19 @@
     <t xml:space="preserve">5.13667678833008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19887590408325</t>
+    <t xml:space="preserve">5.19887542724609</t>
   </si>
   <si>
     <t xml:space="preserve">5.2140941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19424343109131</t>
+    <t xml:space="preserve">5.19424438476562</t>
   </si>
   <si>
     <t xml:space="preserve">5.29349708557129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2339448928833</t>
+    <t xml:space="preserve">5.23394536972046</t>
   </si>
   <si>
     <t xml:space="preserve">5.24453258514404</t>
@@ -1397,7 +1394,7 @@
     <t xml:space="preserve">4.94611120223999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89648485183716</t>
+    <t xml:space="preserve">4.896484375</t>
   </si>
   <si>
     <t xml:space="preserve">4.87729549407959</t>
@@ -1409,7 +1406,7 @@
     <t xml:space="preserve">4.70790386199951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4763126373291</t>
+    <t xml:space="preserve">4.47631359100342</t>
   </si>
   <si>
     <t xml:space="preserve">4.73172473907471</t>
@@ -1418,7 +1415,7 @@
     <t xml:space="preserve">4.81311178207397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79061412811279</t>
+    <t xml:space="preserve">4.79061460494995</t>
   </si>
   <si>
     <t xml:space="preserve">4.89251470565796</t>
@@ -1439,22 +1436,22 @@
     <t xml:space="preserve">5.0422739982605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16319131851196</t>
+    <t xml:space="preserve">5.16319179534912</t>
   </si>
   <si>
     <t xml:space="preserve">5.05792236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15607881546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2051568031311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95905447006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96047687530518</t>
+    <t xml:space="preserve">5.15607929229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20515727996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9590539932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96047639846802</t>
   </si>
   <si>
     <t xml:space="preserve">4.92491245269775</t>
@@ -1463,70 +1460,70 @@
     <t xml:space="preserve">4.90997552871704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02875995635986</t>
+    <t xml:space="preserve">5.02875947952271</t>
   </si>
   <si>
     <t xml:space="preserve">4.95549774169922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97896957397461</t>
+    <t xml:space="preserve">4.97897005081177</t>
   </si>
   <si>
     <t xml:space="preserve">4.89005994796753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93629264831543</t>
+    <t xml:space="preserve">4.93629360198975</t>
   </si>
   <si>
     <t xml:space="preserve">4.89503860473633</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01240015029907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95194149017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93415880203247</t>
+    <t xml:space="preserve">5.01239967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95194101333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93415927886963</t>
   </si>
   <si>
     <t xml:space="preserve">5.08566188812256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14967679977417</t>
+    <t xml:space="preserve">5.14967727661133</t>
   </si>
   <si>
     <t xml:space="preserve">5.13900804519653</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9931960105896</t>
+    <t xml:space="preserve">4.99319553375244</t>
   </si>
   <si>
     <t xml:space="preserve">5.01737928390503</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02804851531982</t>
+    <t xml:space="preserve">5.02804803848267</t>
   </si>
   <si>
     <t xml:space="preserve">5.06859159469604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10486650466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16390323638916</t>
+    <t xml:space="preserve">5.10486698150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16390371322632</t>
   </si>
   <si>
     <t xml:space="preserve">5.22862958908081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13260698318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15110015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16461420059204</t>
+    <t xml:space="preserve">5.13260650634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15109968185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1646146774292</t>
   </si>
   <si>
     <t xml:space="preserve">5.02591466903687</t>
@@ -1544,10 +1541,10 @@
     <t xml:space="preserve">5.14327573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10913467407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08637380599976</t>
+    <t xml:space="preserve">5.10913419723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0863733291626</t>
   </si>
   <si>
     <t xml:space="preserve">5.00030851364136</t>
@@ -1562,7 +1559,7 @@
     <t xml:space="preserve">4.91424322128296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83173513412476</t>
+    <t xml:space="preserve">4.8317346572876</t>
   </si>
   <si>
     <t xml:space="preserve">4.73926782608032</t>
@@ -1574,10 +1571,10 @@
     <t xml:space="preserve">4.61692762374878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63684320449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67525243759155</t>
+    <t xml:space="preserve">4.63684368133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67525291442871</t>
   </si>
   <si>
     <t xml:space="preserve">4.76487445831299</t>
@@ -1589,52 +1586,52 @@
     <t xml:space="preserve">4.68592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69445705413818</t>
+    <t xml:space="preserve">4.69445753097534</t>
   </si>
   <si>
     <t xml:space="preserve">4.73713397979736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70868253707886</t>
+    <t xml:space="preserve">4.70868301391602</t>
   </si>
   <si>
     <t xml:space="preserve">4.73002099990845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70939445495605</t>
+    <t xml:space="preserve">4.7093939781189</t>
   </si>
   <si>
     <t xml:space="preserve">4.66173839569092</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67169618606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64537954330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67667579650879</t>
+    <t xml:space="preserve">4.67169666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64537906646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67667484283447</t>
   </si>
   <si>
     <t xml:space="preserve">4.67454099655151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68663358688354</t>
+    <t xml:space="preserve">4.68663311004639</t>
   </si>
   <si>
     <t xml:space="preserve">4.66600608825684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68094253540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63968801498413</t>
+    <t xml:space="preserve">4.68094301223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63968849182129</t>
   </si>
   <si>
     <t xml:space="preserve">4.63186454772949</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94909620285034</t>
+    <t xml:space="preserve">4.94909572601318</t>
   </si>
   <si>
     <t xml:space="preserve">4.8260440826416</t>
@@ -1646,13 +1643,13 @@
     <t xml:space="preserve">4.86516523361206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89361619949341</t>
+    <t xml:space="preserve">4.89361667633057</t>
   </si>
   <si>
     <t xml:space="preserve">4.87298917770386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80683994293213</t>
+    <t xml:space="preserve">4.80683946609497</t>
   </si>
   <si>
     <t xml:space="preserve">4.79332542419434</t>
@@ -1664,19 +1661,19 @@
     <t xml:space="preserve">4.66387224197388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56784868240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57994174957275</t>
+    <t xml:space="preserve">4.56784963607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57994079589844</t>
   </si>
   <si>
     <t xml:space="preserve">4.55220127105713</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48178386688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36797857284546</t>
+    <t xml:space="preserve">4.48178482055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36797904968262</t>
   </si>
   <si>
     <t xml:space="preserve">4.34948587417603</t>
@@ -1685,16 +1682,16 @@
     <t xml:space="preserve">4.30609750747681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20651817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2342586517334</t>
+    <t xml:space="preserve">4.20651865005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23425817489624</t>
   </si>
   <si>
     <t xml:space="preserve">4.12543249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19940519332886</t>
+    <t xml:space="preserve">4.19940567016602</t>
   </si>
   <si>
     <t xml:space="preserve">4.23852586746216</t>
@@ -1706,7 +1703,7 @@
     <t xml:space="preserve">4.19300413131714</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24635028839111</t>
+    <t xml:space="preserve">4.24634981155396</t>
   </si>
   <si>
     <t xml:space="preserve">4.23212432861328</t>
@@ -1733,7 +1730,7 @@
     <t xml:space="preserve">4.3665566444397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29613971710205</t>
+    <t xml:space="preserve">4.29613924026489</t>
   </si>
   <si>
     <t xml:space="preserve">4.51663684844971</t>
@@ -1742,13 +1739,13 @@
     <t xml:space="preserve">4.42345857620239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37082433700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33952760696411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2698221206665</t>
+    <t xml:space="preserve">4.37082386016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33952808380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26982259750366</t>
   </si>
   <si>
     <t xml:space="preserve">4.29542827606201</t>
@@ -1772,16 +1769,16 @@
     <t xml:space="preserve">4.28831577301025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3694019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38149309158325</t>
+    <t xml:space="preserve">4.36940145492554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38149356842041</t>
   </si>
   <si>
     <t xml:space="preserve">4.34379577636719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33312606811523</t>
+    <t xml:space="preserve">4.33312654495239</t>
   </si>
   <si>
     <t xml:space="preserve">4.25559663772583</t>
@@ -1802,10 +1799,10 @@
     <t xml:space="preserve">4.09982585906982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0208740234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11974143981934</t>
+    <t xml:space="preserve">4.02087354660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11974191665649</t>
   </si>
   <si>
     <t xml:space="preserve">4.04007863998413</t>
@@ -1817,7 +1814,7 @@
     <t xml:space="preserve">3.91204786300659</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83807420730591</t>
+    <t xml:space="preserve">3.83807468414307</t>
   </si>
   <si>
     <t xml:space="preserve">3.82242655754089</t>
@@ -1829,7 +1826,7 @@
     <t xml:space="preserve">3.8572793006897</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77477049827576</t>
+    <t xml:space="preserve">3.77477025985718</t>
   </si>
   <si>
     <t xml:space="preserve">3.82811641693115</t>
@@ -1862,37 +1859,37 @@
     <t xml:space="preserve">4.13325643539429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09129095077515</t>
+    <t xml:space="preserve">4.09129047393799</t>
   </si>
   <si>
     <t xml:space="preserve">4.18020105361938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16028547286987</t>
+    <t xml:space="preserve">4.16028499603271</t>
   </si>
   <si>
     <t xml:space="preserve">4.1979832649231</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15174913406372</t>
+    <t xml:space="preserve">4.15174961090088</t>
   </si>
   <si>
     <t xml:space="preserve">4.10693883895874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21220874786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25986433029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37366962432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46755838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43697309494019</t>
+    <t xml:space="preserve">4.21220827102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25986480712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37367010116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46755886077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43697357177734</t>
   </si>
   <si>
     <t xml:space="preserve">4.43839597702026</t>
@@ -1904,10 +1901,10 @@
     <t xml:space="preserve">4.39571905136108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41705751419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40994453430176</t>
+    <t xml:space="preserve">4.41705799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40994501113892</t>
   </si>
   <si>
     <t xml:space="preserve">4.38860654830933</t>
@@ -1919,13 +1916,13 @@
     <t xml:space="preserve">4.19371509552002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26768827438354</t>
+    <t xml:space="preserve">4.2676887512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.23070192337036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2748007774353</t>
+    <t xml:space="preserve">4.27480125427246</t>
   </si>
   <si>
     <t xml:space="preserve">4.31534433364868</t>
@@ -1937,25 +1934,25 @@
     <t xml:space="preserve">4.36726808547974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36442279815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36015558242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30680847167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43270587921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49458742141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40069770812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48676347732544</t>
+    <t xml:space="preserve">4.3644232749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36015510559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30680894851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43270540237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49458694458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40069818496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48676300048828</t>
   </si>
   <si>
     <t xml:space="preserve">4.5251727104187</t>
@@ -1964,13 +1961,13 @@
     <t xml:space="preserve">4.65889358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73215579986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63044166564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59487771987915</t>
+    <t xml:space="preserve">4.73215532302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63044261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59487819671631</t>
   </si>
   <si>
     <t xml:space="preserve">4.60199069976807</t>
@@ -2000,7 +1997,7 @@
     <t xml:space="preserve">4.663161277771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61123752593994</t>
+    <t xml:space="preserve">4.61123704910278</t>
   </si>
   <si>
     <t xml:space="preserve">4.57211685180664</t>
@@ -2009,63 +2006,66 @@
     <t xml:space="preserve">4.61621618270874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58065271377563</t>
+    <t xml:space="preserve">4.58065223693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70157051086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68023204803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71579599380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74424695968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60910367965698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63755512237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68734455108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72290849685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75847244262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80114889144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77269792556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77981090545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78692388534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87939071655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81537485122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65178060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70926475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77082395553589</t>
   </si>
   <si>
     <t xml:space="preserve">4.7015700340271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68023204803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71579599380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74424743652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60910367965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63755512237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68734455108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72290849685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75847291946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80114936828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77269792556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7798113822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78692436218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87939071655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81537485122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65178060531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70926475524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77082395553589</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.76312923431396</t>
   </si>
   <si>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">4.79390859603882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81699371337891</t>
+    <t xml:space="preserve">4.81699323654175</t>
   </si>
   <si>
     <t xml:space="preserve">4.74773931503296</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">4.68618059158325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6015362739563</t>
+    <t xml:space="preserve">4.60153675079346</t>
   </si>
   <si>
     <t xml:space="preserve">4.53228282928467</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">4.66309547424316</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64770603179932</t>
+    <t xml:space="preserve">4.64770555496216</t>
   </si>
   <si>
     <t xml:space="preserve">4.64001131057739</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">4.58614683151245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55536699295044</t>
+    <t xml:space="preserve">4.5553674697876</t>
   </si>
   <si>
     <t xml:space="preserve">4.53997755050659</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">4.16292858123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07059001922607</t>
+    <t xml:space="preserve">4.07059049606323</t>
   </si>
   <si>
     <t xml:space="preserve">4.03981113433838</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">4.12445449829102</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05520009994507</t>
+    <t xml:space="preserve">4.05520057678223</t>
   </si>
   <si>
     <t xml:space="preserve">4.07828521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11675930023193</t>
+    <t xml:space="preserve">4.11675977706909</t>
   </si>
   <si>
     <t xml:space="preserve">4.10906457901001</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">4.23987770080566</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30913162231445</t>
+    <t xml:space="preserve">4.30913114547729</t>
   </si>
   <si>
     <t xml:space="preserve">4.33221626281738</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">4.61692667007446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62462091445923</t>
+    <t xml:space="preserve">4.62462139129639</t>
   </si>
   <si>
     <t xml:space="preserve">4.60923147201538</t>
@@ -2315,19 +2315,19 @@
     <t xml:space="preserve">4.77851915359497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91702604293823</t>
+    <t xml:space="preserve">4.91702651977539</t>
   </si>
   <si>
     <t xml:space="preserve">4.83238315582275</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87085676193237</t>
+    <t xml:space="preserve">4.87085723876953</t>
   </si>
   <si>
     <t xml:space="preserve">4.88624715805054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8477725982666</t>
+    <t xml:space="preserve">4.84777307510376</t>
   </si>
   <si>
     <t xml:space="preserve">4.2244873046875</t>
@@ -2336,22 +2336,22 @@
     <t xml:space="preserve">4.20140314102173</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10136938095093</t>
+    <t xml:space="preserve">4.10136985778809</t>
   </si>
   <si>
     <t xml:space="preserve">4.06289529800415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60120224952698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50116968154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49347424507141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81247782707214</t>
+    <t xml:space="preserve">3.60120272636414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50116944313049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49347448348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81247758865356</t>
   </si>
   <si>
     <t xml:space="preserve">2.85864686965942</t>
@@ -2360,16 +2360,16 @@
     <t xml:space="preserve">2.62780046463013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66242742538452</t>
+    <t xml:space="preserve">2.6624276638031</t>
   </si>
   <si>
     <t xml:space="preserve">2.79708790779114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73937606811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87018942832947</t>
+    <t xml:space="preserve">2.73937630653381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87018918991089</t>
   </si>
   <si>
     <t xml:space="preserve">2.80093550682068</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">2.93174815177917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92405343055725</t>
+    <t xml:space="preserve">2.92405319213867</t>
   </si>
   <si>
     <t xml:space="preserve">2.77785062789917</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">2.88557887077332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90096879005432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84710478782654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79324054718018</t>
+    <t xml:space="preserve">2.90096855163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84710454940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79324078559875</t>
   </si>
   <si>
     <t xml:space="preserve">2.8086302280426</t>
@@ -2411,19 +2411,19 @@
     <t xml:space="preserve">2.83171486854553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78939318656921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69320702552795</t>
+    <t xml:space="preserve">2.78939294815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69320726394653</t>
   </si>
   <si>
     <t xml:space="preserve">2.75476622581482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78554534912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72013926506042</t>
+    <t xml:space="preserve">2.78554558753967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72013902664185</t>
   </si>
   <si>
     <t xml:space="preserve">2.71629166603088</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">2.68166446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64319038391113</t>
+    <t xml:space="preserve">2.64319014549255</t>
   </si>
   <si>
     <t xml:space="preserve">2.53930950164795</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">2.42003893852234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31231045722961</t>
+    <t xml:space="preserve">2.31231069564819</t>
   </si>
   <si>
     <t xml:space="preserve">2.33539533615112</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">2.70859694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87403655052185</t>
+    <t xml:space="preserve">2.87403678894043</t>
   </si>
   <si>
     <t xml:space="preserve">3.01639199256897</t>
@@ -2516,19 +2516,19 @@
     <t xml:space="preserve">2.58547878265381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61625814437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59702110290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67396998405457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67012238502502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68935966491699</t>
+    <t xml:space="preserve">2.61625838279724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59702086448669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67396974563599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6701226234436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68935942649841</t>
   </si>
   <si>
     <t xml:space="preserve">2.72783398628235</t>
@@ -8370,7 +8370,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G144" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8422,7 +8422,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G146" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8474,7 +8474,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G148" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8500,7 +8500,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G149" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8526,7 +8526,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G150" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8578,7 +8578,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G152" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8604,7 +8604,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G153" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8630,7 +8630,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G154" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8656,7 +8656,7 @@
         <v>7.07918977737427</v>
       </c>
       <c r="G155" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8682,7 +8682,7 @@
         <v>7.05130100250244</v>
       </c>
       <c r="G156" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8708,7 +8708,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G157" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8734,7 +8734,7 @@
         <v>7.13032007217407</v>
       </c>
       <c r="G158" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8760,7 +8760,7 @@
         <v>7.04200410842896</v>
       </c>
       <c r="G159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8786,7 +8786,7 @@
         <v>7.0048189163208</v>
       </c>
       <c r="G160" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8812,7 +8812,7 @@
         <v>6.93509578704834</v>
       </c>
       <c r="G161" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8838,7 +8838,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G162" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8864,7 +8864,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G163" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8890,7 +8890,7 @@
         <v>6.78170585632324</v>
       </c>
       <c r="G164" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8916,7 +8916,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G165" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8942,7 +8942,7 @@
         <v>6.88396596908569</v>
       </c>
       <c r="G166" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8968,7 +8968,7 @@
         <v>6.87002086639404</v>
       </c>
       <c r="G167" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8994,7 +8994,7 @@
         <v>6.83283615112305</v>
       </c>
       <c r="G168" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9020,7 +9020,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G169" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -9046,7 +9046,7 @@
         <v>6.77705812454224</v>
       </c>
       <c r="G170" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9072,7 +9072,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9098,7 +9098,7 @@
         <v>6.71198320388794</v>
       </c>
       <c r="G172" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9124,7 +9124,7 @@
         <v>6.64690780639648</v>
       </c>
       <c r="G173" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9150,7 +9150,7 @@
         <v>6.79565000534058</v>
       </c>
       <c r="G174" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9176,7 +9176,7 @@
         <v>6.69803810119629</v>
       </c>
       <c r="G175" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9228,7 +9228,7 @@
         <v>6.74916791915894</v>
       </c>
       <c r="G177" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9254,7 +9254,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G178" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9280,7 +9280,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G179" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9306,7 +9306,7 @@
         <v>6.242516040802</v>
       </c>
       <c r="G180" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9358,7 +9358,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G182" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9384,7 +9384,7 @@
         <v>6.09842205047607</v>
       </c>
       <c r="G183" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9410,7 +9410,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G184" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9436,7 +9436,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G185" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9462,7 +9462,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G186" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9488,7 +9488,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G187" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9514,7 +9514,7 @@
         <v>6.17744112014771</v>
       </c>
       <c r="G188" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9540,7 +9540,7 @@
         <v>6.13095903396606</v>
       </c>
       <c r="G189" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9592,7 +9592,7 @@
         <v>6.26575708389282</v>
       </c>
       <c r="G191" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9644,7 +9644,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G193" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9670,7 +9670,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G194" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9696,7 +9696,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G195" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9722,7 +9722,7 @@
         <v>6.11236715316772</v>
       </c>
       <c r="G196" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9748,7 +9748,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G197" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9774,7 +9774,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G198" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9800,7 +9800,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9826,7 +9826,7 @@
         <v>6.02405118942261</v>
       </c>
       <c r="G200" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9852,7 +9852,7 @@
         <v>5.99616193771362</v>
       </c>
       <c r="G201" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9878,7 +9878,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G202" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9904,7 +9904,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G203" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9930,7 +9930,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G204" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9956,7 +9956,7 @@
         <v>6.20532989501953</v>
       </c>
       <c r="G205" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9982,7 +9982,7 @@
         <v>6.45633316040039</v>
       </c>
       <c r="G206" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10008,7 +10008,7 @@
         <v>6.56324100494385</v>
       </c>
       <c r="G207" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10034,7 +10034,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G208" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10060,7 +10060,7 @@
         <v>6.63761186599731</v>
       </c>
       <c r="G209" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10112,7 +10112,7 @@
         <v>6.65155601501465</v>
       </c>
       <c r="G211" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10138,7 +10138,7 @@
         <v>6.600426197052</v>
       </c>
       <c r="G212" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10164,7 +10164,7 @@
         <v>6.52140712738037</v>
       </c>
       <c r="G213" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10216,7 +10216,7 @@
         <v>6.46562910079956</v>
       </c>
       <c r="G215" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10242,7 +10242,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G216" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10268,7 +10268,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G217" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10294,7 +10294,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G218" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10320,7 +10320,7 @@
         <v>6.36336898803711</v>
       </c>
       <c r="G219" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10346,7 +10346,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G220" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10372,7 +10372,7 @@
         <v>6.34477615356445</v>
       </c>
       <c r="G221" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10398,7 +10398,7 @@
         <v>6.29364585876465</v>
       </c>
       <c r="G222" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10424,7 +10424,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G223" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10450,7 +10450,7 @@
         <v>6.21462678909302</v>
       </c>
       <c r="G224" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10476,7 +10476,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G225" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10502,7 +10502,7 @@
         <v>6.06123685836792</v>
       </c>
       <c r="G226" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10528,7 +10528,7 @@
         <v>6.07053279876709</v>
       </c>
       <c r="G227" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10554,7 +10554,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G228" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10580,7 +10580,7 @@
         <v>5.74516010284424</v>
       </c>
       <c r="G229" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10606,7 +10606,7 @@
         <v>5.88460493087769</v>
       </c>
       <c r="G230" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10632,7 +10632,7 @@
         <v>5.92643880844116</v>
       </c>
       <c r="G231" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10658,7 +10658,7 @@
         <v>5.90784597396851</v>
       </c>
       <c r="G232" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10684,7 +10684,7 @@
         <v>5.78234481811523</v>
       </c>
       <c r="G233" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10710,7 +10710,7 @@
         <v>5.81023406982422</v>
       </c>
       <c r="G234" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10736,7 +10736,7 @@
         <v>5.81953096389771</v>
       </c>
       <c r="G235" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10762,7 +10762,7 @@
         <v>5.86601305007935</v>
       </c>
       <c r="G236" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10788,7 +10788,7 @@
         <v>5.85671615600586</v>
       </c>
       <c r="G237" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10814,7 +10814,7 @@
         <v>5.91249513626099</v>
       </c>
       <c r="G238" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10840,7 +10840,7 @@
         <v>5.83812379837036</v>
       </c>
       <c r="G239" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10866,7 +10866,7 @@
         <v>6.14490413665771</v>
       </c>
       <c r="G240" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10892,7 +10892,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G241" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10918,7 +10918,7 @@
         <v>6.3959059715271</v>
       </c>
       <c r="G242" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10944,7 +10944,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G243" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10970,7 +10970,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G244" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11022,7 +11022,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G246" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11100,7 +11100,7 @@
         <v>6.57718515396118</v>
       </c>
       <c r="G249" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11126,7 +11126,7 @@
         <v>6.53070402145386</v>
       </c>
       <c r="G250" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11152,7 +11152,7 @@
         <v>6.6655011177063</v>
       </c>
       <c r="G251" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11178,7 +11178,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G252" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11204,7 +11204,7 @@
         <v>6.67479705810547</v>
       </c>
       <c r="G253" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11230,7 +11230,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G254" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11256,7 +11256,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G255" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11282,7 +11282,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G256" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11308,7 +11308,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G257" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11334,7 +11334,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G258" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11412,7 +11412,7 @@
         <v>7.05594921112061</v>
       </c>
       <c r="G261" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11464,7 +11464,7 @@
         <v>6.91650295257568</v>
       </c>
       <c r="G263" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11490,7 +11490,7 @@
         <v>7.00946712493896</v>
       </c>
       <c r="G264" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11516,7 +11516,7 @@
         <v>7.02341079711914</v>
       </c>
       <c r="G265" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11568,7 +11568,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G267" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11594,7 +11594,7 @@
         <v>6.94903993606567</v>
       </c>
       <c r="G268" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11672,7 +11672,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G271" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11724,7 +11724,7 @@
         <v>6.82818794250488</v>
       </c>
       <c r="G273" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11750,7 +11750,7 @@
         <v>6.80494689941406</v>
       </c>
       <c r="G274" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11776,7 +11776,7 @@
         <v>6.75381708145142</v>
       </c>
       <c r="G275" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11828,7 +11828,7 @@
         <v>6.61901903152466</v>
       </c>
       <c r="G277" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11854,7 +11854,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G278" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11880,7 +11880,7 @@
         <v>6.47027683258057</v>
       </c>
       <c r="G279" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11906,7 +11906,7 @@
         <v>6.62831592559814</v>
       </c>
       <c r="G280" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11932,7 +11932,7 @@
         <v>6.50746297836304</v>
       </c>
       <c r="G281" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11958,7 +11958,7 @@
         <v>6.57253694534302</v>
       </c>
       <c r="G282" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12036,7 +12036,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G285" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12114,7 +12114,7 @@
         <v>6.81424283981323</v>
       </c>
       <c r="G288" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12140,7 +12140,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G289" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12166,7 +12166,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G290" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12192,7 +12192,7 @@
         <v>6.95833683013916</v>
       </c>
       <c r="G291" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12218,7 +12218,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G292" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12244,7 +12244,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G293" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12270,7 +12270,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G294" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12296,7 +12296,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G295" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12322,7 +12322,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G296" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12374,7 +12374,7 @@
         <v>6.70268678665161</v>
       </c>
       <c r="G298" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12400,7 +12400,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G299" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12426,7 +12426,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G300" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12452,7 +12452,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G301" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12504,7 +12504,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G303" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12530,7 +12530,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G304" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12556,7 +12556,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G305" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12582,7 +12582,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G306" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12608,7 +12608,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G307" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12634,7 +12634,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G308" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12660,7 +12660,7 @@
         <v>7.06989288330078</v>
       </c>
       <c r="G309" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12686,7 +12686,7 @@
         <v>7.17680215835571</v>
       </c>
       <c r="G310" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12712,7 +12712,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G311" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12738,7 +12738,7 @@
         <v>7.41850709915161</v>
       </c>
       <c r="G312" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12764,7 +12764,7 @@
         <v>7.46963787078857</v>
       </c>
       <c r="G313" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12816,7 +12816,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G315" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12868,7 +12868,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G317" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12894,7 +12894,7 @@
         <v>7.60443496704102</v>
       </c>
       <c r="G318" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12920,7 +12920,7 @@
         <v>7.75782489776611</v>
       </c>
       <c r="G319" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12946,7 +12946,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G320" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12998,7 +12998,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G322" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13024,7 +13024,7 @@
         <v>7.59978723526001</v>
       </c>
       <c r="G323" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13050,7 +13050,7 @@
         <v>7.59513902664185</v>
       </c>
       <c r="G324" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13154,7 +13154,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G328" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13180,7 +13180,7 @@
         <v>7.46498918533325</v>
       </c>
       <c r="G329" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13232,7 +13232,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G331" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13258,7 +13258,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G332" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13284,7 +13284,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G333" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13310,7 +13310,7 @@
         <v>7.311598777771</v>
       </c>
       <c r="G334" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13336,7 +13336,7 @@
         <v>7.20469093322754</v>
       </c>
       <c r="G335" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13362,7 +13362,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G336" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13388,7 +13388,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G337" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13414,7 +13414,7 @@
         <v>7.53471183776855</v>
       </c>
       <c r="G338" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13440,7 +13440,7 @@
         <v>7.66486120223999</v>
       </c>
       <c r="G339" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13466,7 +13466,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G340" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13492,7 +13492,7 @@
         <v>7.6973991394043</v>
       </c>
       <c r="G341" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13518,7 +13518,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G342" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13544,7 +13544,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G343" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13570,7 +13570,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G344" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13596,7 +13596,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G345" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13622,7 +13622,7 @@
         <v>7.95769691467285</v>
       </c>
       <c r="G346" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13648,7 +13648,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G347" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13674,7 +13674,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G348" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13700,7 +13700,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G349" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13726,7 +13726,7 @@
         <v>8.16686630249023</v>
       </c>
       <c r="G350" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13752,7 +13752,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G351" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13778,7 +13778,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G352" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13804,7 +13804,7 @@
         <v>7.8554368019104</v>
       </c>
       <c r="G353" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13830,7 +13830,7 @@
         <v>7.79965877532959</v>
       </c>
       <c r="G354" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13856,7 +13856,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G355" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13882,7 +13882,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G356" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13908,7 +13908,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G357" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13934,7 +13934,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G358" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13960,7 +13960,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G359" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13986,7 +13986,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G360" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14012,7 +14012,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G361" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14038,7 +14038,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G362" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14064,7 +14064,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G363" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14090,7 +14090,7 @@
         <v>7.83684396743774</v>
       </c>
       <c r="G364" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14116,7 +14116,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G365" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14142,7 +14142,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G366" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14168,7 +14168,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G367" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14194,7 +14194,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G368" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14220,7 +14220,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G369" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14246,7 +14246,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G370" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14272,7 +14272,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G371" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14298,7 +14298,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G372" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14324,7 +14324,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G373" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14350,7 +14350,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G374" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14376,7 +14376,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G375" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14402,7 +14402,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G376" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14428,7 +14428,7 @@
         <v>7.46034097671509</v>
       </c>
       <c r="G377" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14454,7 +14454,7 @@
         <v>7.4278039932251</v>
       </c>
       <c r="G378" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14480,7 +14480,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G379" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14506,7 +14506,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G380" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14532,7 +14532,7 @@
         <v>7.39991521835327</v>
       </c>
       <c r="G381" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14558,7 +14558,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G382" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14584,7 +14584,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G383" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14610,7 +14610,7 @@
         <v>7.16750478744507</v>
       </c>
       <c r="G384" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14636,7 +14636,7 @@
         <v>7.21863508224487</v>
       </c>
       <c r="G385" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14662,7 +14662,7 @@
         <v>7.35343313217163</v>
       </c>
       <c r="G386" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14688,7 +14688,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G387" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14714,7 +14714,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G388" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14740,7 +14740,7 @@
         <v>7.39061784744263</v>
       </c>
       <c r="G389" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14766,7 +14766,7 @@
         <v>7.53006410598755</v>
       </c>
       <c r="G390" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14792,7 +14792,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G391" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14818,7 +14818,7 @@
         <v>7.55330514907837</v>
       </c>
       <c r="G392" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14844,7 +14844,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G393" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14870,7 +14870,7 @@
         <v>7.72064018249512</v>
       </c>
       <c r="G394" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14896,7 +14896,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G395" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14922,7 +14922,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G396" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14948,7 +14948,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G397" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14974,7 +14974,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G398" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15000,7 +15000,7 @@
         <v>7.72993612289429</v>
       </c>
       <c r="G399" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15026,7 +15026,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G400" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15052,7 +15052,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G401" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15078,7 +15078,7 @@
         <v>7.74388122558594</v>
       </c>
       <c r="G402" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15104,7 +15104,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G403" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15130,7 +15130,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G404" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15156,7 +15156,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G405" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15182,7 +15182,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G406" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15208,7 +15208,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G407" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15234,7 +15234,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G408" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15260,7 +15260,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G409" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15286,7 +15286,7 @@
         <v>7.82289981842041</v>
       </c>
       <c r="G410" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15312,7 +15312,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G411" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15338,7 +15338,7 @@
         <v>7.89262294769287</v>
       </c>
       <c r="G412" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15364,7 +15364,7 @@
         <v>7.81360292434692</v>
       </c>
       <c r="G413" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15390,7 +15390,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G414" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15416,7 +15416,7 @@
         <v>7.79501104354858</v>
       </c>
       <c r="G415" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15442,7 +15442,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G416" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15468,7 +15468,7 @@
         <v>8.01347637176514</v>
       </c>
       <c r="G417" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15494,7 +15494,7 @@
         <v>7.99023485183716</v>
       </c>
       <c r="G418" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15520,7 +15520,7 @@
         <v>7.93445587158203</v>
       </c>
       <c r="G419" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15546,7 +15546,7 @@
         <v>7.94375276565552</v>
       </c>
       <c r="G420" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15572,7 +15572,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G421" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15598,7 +15598,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G422" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15624,7 +15624,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G423" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15650,7 +15650,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G424" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15676,7 +15676,7 @@
         <v>7.86008501052856</v>
       </c>
       <c r="G425" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15702,7 +15702,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G426" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15728,7 +15728,7 @@
         <v>7.78106594085693</v>
       </c>
       <c r="G427" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15754,7 +15754,7 @@
         <v>7.89727115631104</v>
       </c>
       <c r="G428" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15780,7 +15780,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G429" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15806,7 +15806,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G430" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15832,7 +15832,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G431" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15858,7 +15858,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G432" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15884,7 +15884,7 @@
         <v>7.84149312973022</v>
       </c>
       <c r="G433" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15910,7 +15910,7 @@
         <v>7.92051219940186</v>
       </c>
       <c r="G434" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15936,7 +15936,7 @@
         <v>8.03206825256348</v>
       </c>
       <c r="G435" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15962,7 +15962,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G436" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15988,7 +15988,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G437" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16014,7 +16014,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G438" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16040,7 +16040,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G439" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16066,7 +16066,7 @@
         <v>8.19010734558105</v>
       </c>
       <c r="G440" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16092,7 +16092,7 @@
         <v>8.12503242492676</v>
       </c>
       <c r="G441" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16118,7 +16118,7 @@
         <v>8.08784675598145</v>
       </c>
       <c r="G442" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16144,7 +16144,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G443" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16170,7 +16170,7 @@
         <v>8.10643863677979</v>
       </c>
       <c r="G444" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16196,7 +16196,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G445" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16222,7 +16222,7 @@
         <v>8.14362525939941</v>
       </c>
       <c r="G446" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16248,7 +16248,7 @@
         <v>8.12038421630859</v>
       </c>
       <c r="G447" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16274,7 +16274,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G448" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16300,7 +16300,7 @@
         <v>8.20869922637939</v>
       </c>
       <c r="G449" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16326,7 +16326,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G450" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16352,7 +16352,7 @@
         <v>8.22729206085205</v>
       </c>
       <c r="G451" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16378,7 +16378,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G452" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16404,7 +16404,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G453" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16430,7 +16430,7 @@
         <v>8.07390213012695</v>
       </c>
       <c r="G454" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16456,7 +16456,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G455" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16482,7 +16482,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G456" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16508,7 +16508,7 @@
         <v>8.36673831939697</v>
       </c>
       <c r="G457" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16534,7 +16534,7 @@
         <v>8.50618267059326</v>
       </c>
       <c r="G458" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16560,7 +16560,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G459" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16586,7 +16586,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G460" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16612,7 +16612,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G461" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16638,7 +16638,7 @@
         <v>8.5526647567749</v>
       </c>
       <c r="G462" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16664,7 +16664,7 @@
         <v>8.54801654815674</v>
       </c>
       <c r="G463" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16690,7 +16690,7 @@
         <v>8.69211101531982</v>
       </c>
       <c r="G464" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16716,7 +16716,7 @@
         <v>8.74788856506348</v>
       </c>
       <c r="G465" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16742,7 +16742,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G466" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16768,7 +16768,7 @@
         <v>8.60379505157471</v>
       </c>
       <c r="G467" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16794,7 +16794,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G468" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16820,7 +16820,7 @@
         <v>8.98959541320801</v>
       </c>
       <c r="G469" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16846,7 +16846,7 @@
         <v>9.22665309906006</v>
       </c>
       <c r="G470" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16872,7 +16872,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G471" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16898,7 +16898,7 @@
         <v>9.696120262146</v>
       </c>
       <c r="G472" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16924,7 +16924,7 @@
         <v>9.67752742767334</v>
       </c>
       <c r="G473" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16950,7 +16950,7 @@
         <v>9.55667400360107</v>
       </c>
       <c r="G474" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16976,7 +16976,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G475" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17002,7 +17002,7 @@
         <v>9.62174892425537</v>
       </c>
       <c r="G476" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17028,7 +17028,7 @@
         <v>9.43582057952881</v>
       </c>
       <c r="G477" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17054,7 +17054,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G478" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17080,7 +17080,7 @@
         <v>9.34285736083984</v>
       </c>
       <c r="G479" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17106,7 +17106,7 @@
         <v>9.2080602645874</v>
       </c>
       <c r="G480" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17132,7 +17132,7 @@
         <v>9.38933944702148</v>
       </c>
       <c r="G481" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17158,7 +17158,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G482" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17184,7 +17184,7 @@
         <v>9.91923332214355</v>
       </c>
       <c r="G483" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17210,7 +17210,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G484" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17236,7 +17236,7 @@
         <v>9.65893363952637</v>
       </c>
       <c r="G485" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17262,7 +17262,7 @@
         <v>10.0029001235962</v>
       </c>
       <c r="G486" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17288,7 +17288,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G487" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17314,7 +17314,7 @@
         <v>9.90063953399658</v>
       </c>
       <c r="G488" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17340,7 +17340,7 @@
         <v>10.0586776733398</v>
       </c>
       <c r="G489" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17366,7 +17366,7 @@
         <v>10.1144561767578</v>
       </c>
       <c r="G490" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17392,7 +17392,7 @@
         <v>10.0307893753052</v>
       </c>
       <c r="G491" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17418,7 +17418,7 @@
         <v>10.0121955871582</v>
       </c>
       <c r="G492" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17444,7 +17444,7 @@
         <v>9.76119422912598</v>
       </c>
       <c r="G493" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17470,7 +17470,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G494" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17496,7 +17496,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G495" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17522,7 +17522,7 @@
         <v>9.93782520294189</v>
       </c>
       <c r="G496" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17548,7 +17548,7 @@
         <v>10.0772714614868</v>
       </c>
       <c r="G497" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17574,7 +17574,7 @@
         <v>10.318977355957</v>
       </c>
       <c r="G498" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17600,7 +17600,7 @@
         <v>10.3003835678101</v>
       </c>
       <c r="G499" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17626,7 +17626,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G500" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17652,7 +17652,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G501" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17678,7 +17678,7 @@
         <v>10.411940574646</v>
       </c>
       <c r="G502" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17704,7 +17704,7 @@
         <v>10.1330490112305</v>
       </c>
       <c r="G503" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17730,7 +17730,7 @@
         <v>9.49159908294678</v>
       </c>
       <c r="G504" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17756,7 +17756,7 @@
         <v>9.11044788360596</v>
       </c>
       <c r="G505" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17782,7 +17782,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G506" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17808,7 +17808,7 @@
         <v>9.08255863189697</v>
       </c>
       <c r="G507" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17834,7 +17834,7 @@
         <v>8.88268661499023</v>
       </c>
       <c r="G508" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17860,7 +17860,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G509" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17886,7 +17886,7 @@
         <v>9.09650325775146</v>
       </c>
       <c r="G510" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17912,7 +17912,7 @@
         <v>8.96170616149902</v>
       </c>
       <c r="G511" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17938,7 +17938,7 @@
         <v>8.95240879058838</v>
       </c>
       <c r="G512" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17964,7 +17964,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G513" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17990,7 +17990,7 @@
         <v>9.1569299697876</v>
       </c>
       <c r="G514" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18016,7 +18016,7 @@
         <v>9.16622638702393</v>
       </c>
       <c r="G515" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18042,7 +18042,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G516" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18068,7 +18068,7 @@
         <v>9.31496810913086</v>
       </c>
       <c r="G517" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18094,7 +18094,7 @@
         <v>9.26848602294922</v>
       </c>
       <c r="G518" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18120,7 +18120,7 @@
         <v>9.00818824768066</v>
       </c>
       <c r="G519" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18146,7 +18146,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G520" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18172,7 +18172,7 @@
         <v>9.06396579742432</v>
       </c>
       <c r="G521" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18198,7 +18198,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G522" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18224,7 +18224,7 @@
         <v>8.8873348236084</v>
       </c>
       <c r="G523" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18250,7 +18250,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G524" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18276,7 +18276,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G525" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18302,7 +18302,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G526" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18328,7 +18328,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G527" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18354,7 +18354,7 @@
         <v>8.90592765808105</v>
       </c>
       <c r="G528" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18380,7 +18380,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G529" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18406,7 +18406,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G530" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18432,7 +18432,7 @@
         <v>8.85014915466309</v>
       </c>
       <c r="G531" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18458,7 +18458,7 @@
         <v>8.60844421386719</v>
       </c>
       <c r="G532" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18484,7 +18484,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G533" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18510,7 +18510,7 @@
         <v>8.53407287597656</v>
       </c>
       <c r="G534" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18536,7 +18536,7 @@
         <v>8.34814453125</v>
       </c>
       <c r="G535" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18562,7 +18562,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G536" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18588,7 +18588,7 @@
         <v>8.05995655059814</v>
       </c>
       <c r="G537" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18614,7 +18614,7 @@
         <v>8.30166339874268</v>
       </c>
       <c r="G538" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18640,7 +18640,7 @@
         <v>7.87403011322021</v>
       </c>
       <c r="G539" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18666,7 +18666,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G540" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18692,7 +18692,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G541" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18718,7 +18718,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G542" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18744,7 +18744,7 @@
         <v>7.68810176849365</v>
       </c>
       <c r="G543" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18770,7 +18770,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G544" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18796,7 +18796,7 @@
         <v>7.8182520866394</v>
       </c>
       <c r="G545" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18822,7 +18822,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G546" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18848,7 +18848,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G547" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18874,7 +18874,7 @@
         <v>7.58584213256836</v>
       </c>
       <c r="G548" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18900,7 +18900,7 @@
         <v>8.0413646697998</v>
       </c>
       <c r="G549" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18926,7 +18926,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G550" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18952,7 +18952,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G551" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18978,7 +18978,7 @@
         <v>7.49566698074341</v>
       </c>
       <c r="G552" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19004,7 +19004,7 @@
         <v>7.36086988449097</v>
       </c>
       <c r="G553" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19030,7 +19030,7 @@
         <v>7.17308282852173</v>
       </c>
       <c r="G554" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19056,7 +19056,7 @@
         <v>7.00017118453979</v>
       </c>
       <c r="G555" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19082,7 +19082,7 @@
         <v>6.98622608184814</v>
       </c>
       <c r="G556" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19108,7 +19108,7 @@
         <v>7.08383798599243</v>
       </c>
       <c r="G557" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19134,7 +19134,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G558" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19160,7 +19160,7 @@
         <v>7.298583984375</v>
       </c>
       <c r="G559" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19186,7 +19186,7 @@
         <v>7.12102317810059</v>
       </c>
       <c r="G560" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19212,7 +19212,7 @@
         <v>7.03177785873413</v>
       </c>
       <c r="G561" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19238,7 +19238,7 @@
         <v>7.05501890182495</v>
       </c>
       <c r="G562" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19264,7 +19264,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G563" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19290,7 +19290,7 @@
         <v>6.82911682128906</v>
       </c>
       <c r="G564" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19316,7 +19316,7 @@
         <v>6.72127914428711</v>
       </c>
       <c r="G565" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19342,7 +19342,7 @@
         <v>7.01225614547729</v>
       </c>
       <c r="G566" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19368,7 +19368,7 @@
         <v>6.98064804077148</v>
       </c>
       <c r="G567" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19394,7 +19394,7 @@
         <v>6.94439220428467</v>
       </c>
       <c r="G568" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19420,7 +19420,7 @@
         <v>6.71291303634644</v>
       </c>
       <c r="G569" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19446,7 +19446,7 @@
         <v>6.55394506454468</v>
       </c>
       <c r="G570" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19472,7 +19472,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19498,7 +19498,7 @@
         <v>7.27699995040894</v>
       </c>
       <c r="G572" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19524,7 +19524,7 @@
         <v>7.97800016403198</v>
       </c>
       <c r="G573" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19550,7 +19550,7 @@
         <v>7.58799982070923</v>
       </c>
       <c r="G574" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19576,7 +19576,7 @@
         <v>7.75</v>
       </c>
       <c r="G575" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19602,7 +19602,7 @@
         <v>8.04199981689453</v>
       </c>
       <c r="G576" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19628,7 +19628,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G577" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19654,7 +19654,7 @@
         <v>8.25899982452393</v>
       </c>
       <c r="G578" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19680,7 +19680,7 @@
         <v>8.09500026702881</v>
       </c>
       <c r="G579" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19706,7 +19706,7 @@
         <v>7.83699989318848</v>
       </c>
       <c r="G580" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19732,7 +19732,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G581" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19758,7 +19758,7 @@
         <v>7.89900016784668</v>
       </c>
       <c r="G582" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19784,7 +19784,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G583" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19810,7 +19810,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G584" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19836,7 +19836,7 @@
         <v>7.86700010299683</v>
       </c>
       <c r="G585" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19862,7 +19862,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G586" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19888,7 +19888,7 @@
         <v>7.84200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19914,7 +19914,7 @@
         <v>7.85799980163574</v>
       </c>
       <c r="G588" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19940,7 +19940,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G589" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19966,7 +19966,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G590" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19992,7 +19992,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G591" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20018,7 +20018,7 @@
         <v>7.71600008010864</v>
       </c>
       <c r="G592" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20044,7 +20044,7 @@
         <v>7.70100021362305</v>
       </c>
       <c r="G593" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20070,7 +20070,7 @@
         <v>7.76300001144409</v>
       </c>
       <c r="G594" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20096,7 +20096,7 @@
         <v>7.85699987411499</v>
       </c>
       <c r="G595" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20122,7 +20122,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G596" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20148,7 +20148,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20174,7 +20174,7 @@
         <v>8</v>
       </c>
       <c r="G598" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20200,7 +20200,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G599" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20226,7 +20226,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20252,7 +20252,7 @@
         <v>7.92600011825562</v>
       </c>
       <c r="G601" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20278,7 +20278,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G602" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20304,7 +20304,7 @@
         <v>8.03800010681152</v>
       </c>
       <c r="G603" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20330,7 +20330,7 @@
         <v>8</v>
       </c>
       <c r="G604" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20356,7 +20356,7 @@
         <v>7.78399991989136</v>
       </c>
       <c r="G605" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20382,7 +20382,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G606" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20408,7 +20408,7 @@
         <v>7.44899988174438</v>
       </c>
       <c r="G607" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20434,7 +20434,7 @@
         <v>7.55900001525879</v>
       </c>
       <c r="G608" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20460,7 +20460,7 @@
         <v>7.47499990463257</v>
       </c>
       <c r="G609" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20486,7 +20486,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G610" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20512,7 +20512,7 @@
         <v>7.37099981307983</v>
       </c>
       <c r="G611" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20538,7 +20538,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20564,7 +20564,7 @@
         <v>7.11499977111816</v>
       </c>
       <c r="G613" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20590,7 +20590,7 @@
         <v>6.7649998664856</v>
       </c>
       <c r="G614" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20616,7 +20616,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G615" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20642,7 +20642,7 @@
         <v>7.27400016784668</v>
       </c>
       <c r="G616" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20668,7 +20668,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G617" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20694,7 +20694,7 @@
         <v>7.39400005340576</v>
       </c>
       <c r="G618" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20720,7 +20720,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G619" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20746,7 +20746,7 @@
         <v>7.49499988555908</v>
       </c>
       <c r="G620" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20772,7 +20772,7 @@
         <v>7.32299995422363</v>
       </c>
       <c r="G621" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20798,7 +20798,7 @@
         <v>7.1710000038147</v>
       </c>
       <c r="G622" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20824,7 +20824,7 @@
         <v>7.08900022506714</v>
       </c>
       <c r="G623" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20850,7 +20850,7 @@
         <v>7.25899982452393</v>
       </c>
       <c r="G624" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20876,7 +20876,7 @@
         <v>7.11100006103516</v>
       </c>
       <c r="G625" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20902,7 +20902,7 @@
         <v>7.24900007247925</v>
       </c>
       <c r="G626" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20928,7 +20928,7 @@
         <v>7.31799983978271</v>
       </c>
       <c r="G627" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20954,7 +20954,7 @@
         <v>6.97200012207031</v>
       </c>
       <c r="G628" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20980,7 +20980,7 @@
         <v>6.97399997711182</v>
       </c>
       <c r="G629" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21006,7 +21006,7 @@
         <v>6.92399978637695</v>
       </c>
       <c r="G630" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21032,7 +21032,7 @@
         <v>6.90299987792969</v>
       </c>
       <c r="G631" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21058,7 +21058,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G632" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21084,7 +21084,7 @@
         <v>6.96700000762939</v>
       </c>
       <c r="G633" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21110,7 +21110,7 @@
         <v>7</v>
       </c>
       <c r="G634" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21136,7 +21136,7 @@
         <v>6.875</v>
       </c>
       <c r="G635" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21162,7 +21162,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G636" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21188,7 +21188,7 @@
         <v>6.88199996948242</v>
       </c>
       <c r="G637" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21214,7 +21214,7 @@
         <v>7.04699993133545</v>
       </c>
       <c r="G638" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21240,7 +21240,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G639" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21266,7 +21266,7 @@
         <v>7</v>
       </c>
       <c r="G640" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21292,7 +21292,7 @@
         <v>6.93699979782104</v>
       </c>
       <c r="G641" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21318,7 +21318,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G642" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21344,7 +21344,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G643" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21370,7 +21370,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G644" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21396,7 +21396,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G645" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21422,7 +21422,7 @@
         <v>7.05399990081787</v>
       </c>
       <c r="G646" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21448,7 +21448,7 @@
         <v>7.06899976730347</v>
       </c>
       <c r="G647" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21474,7 +21474,7 @@
         <v>7.12599992752075</v>
       </c>
       <c r="G648" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21500,7 +21500,7 @@
         <v>7.17700004577637</v>
       </c>
       <c r="G649" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21526,7 +21526,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G650" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21552,7 +21552,7 @@
         <v>7.35099983215332</v>
       </c>
       <c r="G651" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21578,7 +21578,7 @@
         <v>7.21600008010864</v>
       </c>
       <c r="G652" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21604,7 +21604,7 @@
         <v>7.24200010299683</v>
       </c>
       <c r="G653" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21630,7 +21630,7 @@
         <v>7.26100015640259</v>
       </c>
       <c r="G654" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21656,7 +21656,7 @@
         <v>7.06599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21682,7 +21682,7 @@
         <v>7.25</v>
       </c>
       <c r="G656" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21708,7 +21708,7 @@
         <v>7.05700016021729</v>
       </c>
       <c r="G657" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21734,7 +21734,7 @@
         <v>7.13100004196167</v>
       </c>
       <c r="G658" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21760,7 +21760,7 @@
         <v>7.23099994659424</v>
       </c>
       <c r="G659" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21786,7 +21786,7 @@
         <v>7.18300008773804</v>
       </c>
       <c r="G660" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21812,7 +21812,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G661" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21838,7 +21838,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G662" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21864,7 +21864,7 @@
         <v>6.93100023269653</v>
       </c>
       <c r="G663" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21890,7 +21890,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G664" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21916,7 +21916,7 @@
         <v>6.9210000038147</v>
       </c>
       <c r="G665" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21942,7 +21942,7 @@
         <v>6.90899991989136</v>
       </c>
       <c r="G666" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21968,7 +21968,7 @@
         <v>6.79300022125244</v>
       </c>
       <c r="G667" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21994,7 +21994,7 @@
         <v>6.66300010681152</v>
       </c>
       <c r="G668" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22020,7 +22020,7 @@
         <v>6.60699987411499</v>
       </c>
       <c r="G669" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22046,7 +22046,7 @@
         <v>6.49100017547607</v>
       </c>
       <c r="G670" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22072,7 +22072,7 @@
         <v>6.51900005340576</v>
       </c>
       <c r="G671" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22098,7 +22098,7 @@
         <v>6.57299995422363</v>
       </c>
       <c r="G672" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22124,7 +22124,7 @@
         <v>6.69899988174438</v>
       </c>
       <c r="G673" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22150,7 +22150,7 @@
         <v>6.68699979782104</v>
       </c>
       <c r="G674" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22176,7 +22176,7 @@
         <v>6.58799982070923</v>
       </c>
       <c r="G675" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22202,7 +22202,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G676" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22228,7 +22228,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G677" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22254,7 +22254,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G678" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22280,7 +22280,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G679" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22306,7 +22306,7 @@
         <v>6.62099981307983</v>
       </c>
       <c r="G680" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22332,7 +22332,7 @@
         <v>6.55399990081787</v>
       </c>
       <c r="G681" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22358,7 +22358,7 @@
         <v>6.56799983978271</v>
       </c>
       <c r="G682" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22384,7 +22384,7 @@
         <v>6.5310001373291</v>
       </c>
       <c r="G683" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22410,7 +22410,7 @@
         <v>6.57499980926514</v>
       </c>
       <c r="G684" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22436,7 +22436,7 @@
         <v>6.57200002670288</v>
       </c>
       <c r="G685" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22462,7 +22462,7 @@
         <v>6.58900022506714</v>
       </c>
       <c r="G686" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22488,7 +22488,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G687" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22514,7 +22514,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G688" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22540,7 +22540,7 @@
         <v>6.58099985122681</v>
       </c>
       <c r="G689" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22566,7 +22566,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G690" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22592,7 +22592,7 @@
         <v>6.51200008392334</v>
       </c>
       <c r="G691" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22618,7 +22618,7 @@
         <v>6.95800018310547</v>
       </c>
       <c r="G692" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22644,7 +22644,7 @@
         <v>6.78499984741211</v>
       </c>
       <c r="G693" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22670,7 +22670,7 @@
         <v>6.76900005340576</v>
       </c>
       <c r="G694" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22696,7 +22696,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G695" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22722,7 +22722,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22748,7 +22748,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G697" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22774,7 +22774,7 @@
         <v>6.85099983215332</v>
       </c>
       <c r="G698" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22800,7 +22800,7 @@
         <v>6.75799989700317</v>
       </c>
       <c r="G699" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22826,7 +22826,7 @@
         <v>6.73899984359741</v>
       </c>
       <c r="G700" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22852,7 +22852,7 @@
         <v>6.61800003051758</v>
       </c>
       <c r="G701" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22878,7 +22878,7 @@
         <v>6.55700016021729</v>
       </c>
       <c r="G702" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22904,7 +22904,7 @@
         <v>6.42199993133545</v>
       </c>
       <c r="G703" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22930,7 +22930,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G704" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22956,7 +22956,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G705" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22982,7 +22982,7 @@
         <v>6.30100011825562</v>
       </c>
       <c r="G706" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23008,7 +23008,7 @@
         <v>6.14099979400635</v>
       </c>
       <c r="G707" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23034,7 +23034,7 @@
         <v>6.11499977111816</v>
       </c>
       <c r="G708" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23060,7 +23060,7 @@
         <v>6.05399990081787</v>
       </c>
       <c r="G709" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23086,7 +23086,7 @@
         <v>5.91400003433228</v>
       </c>
       <c r="G710" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23112,7 +23112,7 @@
         <v>5.95300006866455</v>
       </c>
       <c r="G711" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23138,7 +23138,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G712" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23164,7 +23164,7 @@
         <v>5.90399980545044</v>
       </c>
       <c r="G713" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23190,7 +23190,7 @@
         <v>5.95900011062622</v>
       </c>
       <c r="G714" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23216,7 +23216,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G715" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23242,7 +23242,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G716" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23268,7 +23268,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G717" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23294,7 +23294,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G718" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23320,7 +23320,7 @@
         <v>5.94600009918213</v>
       </c>
       <c r="G719" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23346,7 +23346,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G720" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23372,7 +23372,7 @@
         <v>6.00899982452393</v>
       </c>
       <c r="G721" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23398,7 +23398,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G722" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23424,7 +23424,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G723" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23450,7 +23450,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G724" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23476,7 +23476,7 @@
         <v>6.25</v>
       </c>
       <c r="G725" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23502,7 +23502,7 @@
         <v>6.23899984359741</v>
       </c>
       <c r="G726" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23528,7 +23528,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G727" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23554,7 +23554,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G728" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23580,7 +23580,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G729" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23606,7 +23606,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G730" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23632,7 +23632,7 @@
         <v>6.2189998626709</v>
       </c>
       <c r="G731" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23658,7 +23658,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G732" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23684,7 +23684,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G733" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23710,7 +23710,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G734" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23736,7 +23736,7 @@
         <v>6.03900003433228</v>
       </c>
       <c r="G735" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23762,7 +23762,7 @@
         <v>6.01399993896484</v>
       </c>
       <c r="G736" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23788,7 +23788,7 @@
         <v>5.95100021362305</v>
       </c>
       <c r="G737" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23814,7 +23814,7 @@
         <v>5.86499977111816</v>
       </c>
       <c r="G738" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23840,7 +23840,7 @@
         <v>5.86800003051758</v>
       </c>
       <c r="G739" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23866,7 +23866,7 @@
         <v>5.89699983596802</v>
       </c>
       <c r="G740" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23892,7 +23892,7 @@
         <v>6.02899980545044</v>
       </c>
       <c r="G741" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23918,7 +23918,7 @@
         <v>6.14300012588501</v>
       </c>
       <c r="G742" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23944,7 +23944,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G743" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23970,7 +23970,7 @@
         <v>6.10699987411499</v>
       </c>
       <c r="G744" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23996,7 +23996,7 @@
         <v>6.09200000762939</v>
       </c>
       <c r="G745" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24022,7 +24022,7 @@
         <v>5.98299980163574</v>
       </c>
       <c r="G746" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24048,7 +24048,7 @@
         <v>5.88199996948242</v>
       </c>
       <c r="G747" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24074,7 +24074,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G748" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24100,7 +24100,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G749" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24126,7 +24126,7 @@
         <v>5.80700016021729</v>
       </c>
       <c r="G750" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24152,7 +24152,7 @@
         <v>5.81599998474121</v>
       </c>
       <c r="G751" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24178,7 +24178,7 @@
         <v>5.76399993896484</v>
       </c>
       <c r="G752" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24204,7 +24204,7 @@
         <v>5.65299987792969</v>
       </c>
       <c r="G753" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24230,7 +24230,7 @@
         <v>5.79199981689453</v>
       </c>
       <c r="G754" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24256,7 +24256,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G755" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24282,7 +24282,7 @@
         <v>5.63399982452393</v>
       </c>
       <c r="G756" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24308,7 +24308,7 @@
         <v>5.5</v>
       </c>
       <c r="G757" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24334,7 +24334,7 @@
         <v>5.39599990844727</v>
       </c>
       <c r="G758" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24360,7 +24360,7 @@
         <v>5.37400007247925</v>
       </c>
       <c r="G759" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24386,7 +24386,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G760" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24412,7 +24412,7 @@
         <v>5.4229998588562</v>
       </c>
       <c r="G761" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24438,7 +24438,7 @@
         <v>5.30700016021729</v>
       </c>
       <c r="G762" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24464,7 +24464,7 @@
         <v>5.38199996948242</v>
       </c>
       <c r="G763" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24490,7 +24490,7 @@
         <v>5.57200002670288</v>
       </c>
       <c r="G764" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24516,7 +24516,7 @@
         <v>5.67199993133545</v>
       </c>
       <c r="G765" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24542,7 +24542,7 @@
         <v>5.80800008773804</v>
       </c>
       <c r="G766" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24568,7 +24568,7 @@
         <v>5.78599977493286</v>
       </c>
       <c r="G767" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24594,7 +24594,7 @@
         <v>5.90899991989136</v>
       </c>
       <c r="G768" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24620,7 +24620,7 @@
         <v>5.88800001144409</v>
       </c>
       <c r="G769" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24646,7 +24646,7 @@
         <v>5.91599988937378</v>
       </c>
       <c r="G770" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24672,7 +24672,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G771" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24698,7 +24698,7 @@
         <v>5.81099987030029</v>
       </c>
       <c r="G772" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24724,7 +24724,7 @@
         <v>5.7519998550415</v>
       </c>
       <c r="G773" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24750,7 +24750,7 @@
         <v>5.8769998550415</v>
       </c>
       <c r="G774" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24776,7 +24776,7 @@
         <v>5.84899997711182</v>
       </c>
       <c r="G775" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24802,7 +24802,7 @@
         <v>5.90199995040894</v>
       </c>
       <c r="G776" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24828,7 +24828,7 @@
         <v>5.83699989318848</v>
       </c>
       <c r="G777" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24854,7 +24854,7 @@
         <v>5.77400016784668</v>
       </c>
       <c r="G778" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24880,7 +24880,7 @@
         <v>5.92199993133545</v>
       </c>
       <c r="G779" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24906,7 +24906,7 @@
         <v>5.98899984359741</v>
       </c>
       <c r="G780" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24932,7 +24932,7 @@
         <v>6.14900016784668</v>
       </c>
       <c r="G781" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24958,7 +24958,7 @@
         <v>6.2810001373291</v>
       </c>
       <c r="G782" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24984,7 +24984,7 @@
         <v>6.23799991607666</v>
       </c>
       <c r="G783" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -25010,7 +25010,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G784" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -25036,7 +25036,7 @@
         <v>6.18200016021729</v>
       </c>
       <c r="G785" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25062,7 +25062,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G786" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25088,7 +25088,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G787" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25114,7 +25114,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G788" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25140,7 +25140,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G789" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25166,7 +25166,7 @@
         <v>6.01599979400635</v>
       </c>
       <c r="G790" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25192,7 +25192,7 @@
         <v>5.89599990844727</v>
       </c>
       <c r="G791" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25218,7 +25218,7 @@
         <v>6</v>
       </c>
       <c r="G792" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25244,7 +25244,7 @@
         <v>5.94799995422363</v>
       </c>
       <c r="G793" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25270,7 +25270,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G794" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25296,7 +25296,7 @@
         <v>6.06699991226196</v>
       </c>
       <c r="G795" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25322,7 +25322,7 @@
         <v>6.16400003433228</v>
       </c>
       <c r="G796" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25348,7 +25348,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G797" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25374,7 +25374,7 @@
         <v>6.13600015640259</v>
       </c>
       <c r="G798" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25400,7 +25400,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G799" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25426,7 +25426,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G800" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25452,7 +25452,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G801" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25478,7 +25478,7 @@
         <v>6.23199987411499</v>
       </c>
       <c r="G802" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25504,7 +25504,7 @@
         <v>6.31899976730347</v>
       </c>
       <c r="G803" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25530,7 +25530,7 @@
         <v>6.18699979782104</v>
       </c>
       <c r="G804" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25556,7 +25556,7 @@
         <v>6.23299980163574</v>
       </c>
       <c r="G805" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25582,7 +25582,7 @@
         <v>6.30800008773804</v>
       </c>
       <c r="G806" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25608,7 +25608,7 @@
         <v>6.36199998855591</v>
       </c>
       <c r="G807" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25634,7 +25634,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G808" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25660,7 +25660,7 @@
         <v>6.65299987792969</v>
       </c>
       <c r="G809" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25686,7 +25686,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G810" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25712,7 +25712,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G811" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25738,7 +25738,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25764,7 +25764,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G813" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25790,7 +25790,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G814" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25816,7 +25816,7 @@
         <v>6.65799999237061</v>
       </c>
       <c r="G815" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25842,7 +25842,7 @@
         <v>6.7039999961853</v>
       </c>
       <c r="G816" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25868,7 +25868,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G817" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25894,7 +25894,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G818" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25920,7 +25920,7 @@
         <v>6.64799976348877</v>
       </c>
       <c r="G819" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25946,7 +25946,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G820" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25972,7 +25972,7 @@
         <v>6.55600023269653</v>
       </c>
       <c r="G821" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25998,7 +25998,7 @@
         <v>6.48299980163574</v>
       </c>
       <c r="G822" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26024,7 +26024,7 @@
         <v>6.42799997329712</v>
       </c>
       <c r="G823" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26050,7 +26050,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G824" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26076,7 +26076,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G825" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26102,7 +26102,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G826" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26128,7 +26128,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G827" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26154,7 +26154,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G828" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26180,7 +26180,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G829" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26206,7 +26206,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G830" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26232,7 +26232,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G831" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26258,7 +26258,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26284,7 +26284,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G833" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26310,7 +26310,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G834" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26336,7 +26336,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G835" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26362,7 +26362,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G836" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26388,7 +26388,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G837" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26414,7 +26414,7 @@
         <v>6.75</v>
       </c>
       <c r="G838" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26440,7 +26440,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26466,7 +26466,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G840" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26492,7 +26492,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G841" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26518,7 +26518,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G842" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26544,7 +26544,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G843" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26570,7 +26570,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G844" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26596,7 +26596,7 @@
         <v>6.75</v>
       </c>
       <c r="G845" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26622,7 +26622,7 @@
         <v>6.75</v>
       </c>
       <c r="G846" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26648,7 +26648,7 @@
         <v>6.75</v>
       </c>
       <c r="G847" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26674,7 +26674,7 @@
         <v>6.75</v>
       </c>
       <c r="G848" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26700,7 +26700,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G849" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26726,7 +26726,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G850" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26752,7 +26752,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G851" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26778,7 +26778,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G852" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26804,7 +26804,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G853" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26830,7 +26830,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G854" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26856,7 +26856,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G855" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26882,7 +26882,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G856" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27272,7 +27272,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G871" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27844,7 +27844,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G893" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -30470,7 +30470,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G994" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30756,7 +30756,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1005" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30860,7 +30860,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1009" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31016,7 +31016,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1015" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31380,7 +31380,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1029" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31432,7 +31432,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1031" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31640,7 +31640,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G1039" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -61340,7 +61340,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6494444444</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>105071</v>
@@ -61361,6 +61361,32 @@
         <v>1426</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.6493865741</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>223950</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>1.94799995422363</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>1.94799995422363</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>1.99000000953674</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89286518096924</t>
+    <t xml:space="preserve">4.89286470413208</t>
   </si>
   <si>
     <t xml:space="preserve">IGD.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97771263122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93246078491211</t>
+    <t xml:space="preserve">4.97771167755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93246030807495</t>
   </si>
   <si>
     <t xml:space="preserve">4.92963218688965</t>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">4.72316980361938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83347225189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70902919769287</t>
+    <t xml:space="preserve">4.83347177505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70902872085571</t>
   </si>
   <si>
     <t xml:space="preserve">4.48276901245117</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">4.18580389022827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73328447341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01610851287842</t>
+    <t xml:space="preserve">3.73328471183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01610898971558</t>
   </si>
   <si>
     <t xml:space="preserve">4.0924711227417</t>
@@ -89,55 +89,55 @@
     <t xml:space="preserve">4.17731857299805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11226892471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08398675918579</t>
+    <t xml:space="preserve">4.11226940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08398723602295</t>
   </si>
   <si>
     <t xml:space="preserve">3.94540286064148</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10095691680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21125745773315</t>
+    <t xml:space="preserve">4.10095643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21125793457031</t>
   </si>
   <si>
     <t xml:space="preserve">4.05570411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8237886428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91712045669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57490301132202</t>
+    <t xml:space="preserve">3.82378840446472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91712021827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57490205764771</t>
   </si>
   <si>
     <t xml:space="preserve">3.62015438079834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81813144683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69086074829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76439499855042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01893711090088</t>
+    <t xml:space="preserve">3.81813216209412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69086050987244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76439571380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01893758773804</t>
   </si>
   <si>
     <t xml:space="preserve">3.95954394340515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07267379760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00479602813721</t>
+    <t xml:space="preserve">4.07267332077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00479555130005</t>
   </si>
   <si>
     <t xml:space="preserve">4.19994497299194</t>
@@ -146,13 +146,13 @@
     <t xml:space="preserve">4.1462082862854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08964347839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12358283996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12923812866211</t>
+    <t xml:space="preserve">4.0896430015564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12358236312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12923908233643</t>
   </si>
   <si>
     <t xml:space="preserve">4.1716628074646</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">4.19428777694702</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38660955429077</t>
+    <t xml:space="preserve">4.38660907745361</t>
   </si>
   <si>
     <t xml:space="preserve">4.35549831390381</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">4.5251932144165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48559808731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49691009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48842573165894</t>
+    <t xml:space="preserve">4.48559761047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.496910572052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48842620849609</t>
   </si>
   <si>
     <t xml:space="preserve">4.58175802230835</t>
@@ -185,40 +185,40 @@
     <t xml:space="preserve">4.68357515335083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66660594940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6156964302063</t>
+    <t xml:space="preserve">4.6666054725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61569690704346</t>
   </si>
   <si>
     <t xml:space="preserve">4.72882699966431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83629989624023</t>
+    <t xml:space="preserve">4.83630037307739</t>
   </si>
   <si>
     <t xml:space="preserve">4.76842164993286</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70620012283325</t>
+    <t xml:space="preserve">4.70619964599609</t>
   </si>
   <si>
     <t xml:space="preserve">4.63832235336304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49973964691162</t>
+    <t xml:space="preserve">4.49973917007446</t>
   </si>
   <si>
     <t xml:space="preserve">4.57327318191528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57610177993774</t>
+    <t xml:space="preserve">4.5761022567749</t>
   </si>
   <si>
     <t xml:space="preserve">4.41206359863281</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4007511138916</t>
+    <t xml:space="preserve">4.40075063705444</t>
   </si>
   <si>
     <t xml:space="preserve">4.36963987350464</t>
@@ -242,46 +242,46 @@
     <t xml:space="preserve">4.45448732376099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5167088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489124298096</t>
+    <t xml:space="preserve">4.51670789718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489171981812</t>
   </si>
   <si>
     <t xml:space="preserve">4.47428464889526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44034576416016</t>
+    <t xml:space="preserve">4.44034624099731</t>
   </si>
   <si>
     <t xml:space="preserve">4.41771984100342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44317388534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55064725875854</t>
+    <t xml:space="preserve">4.44317436218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55064678192139</t>
   </si>
   <si>
     <t xml:space="preserve">4.45731544494629</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53933382034302</t>
+    <t xml:space="preserve">4.53933429718018</t>
   </si>
   <si>
     <t xml:space="preserve">4.57892990112305</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4940824508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54216194152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45165872573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65023136138916</t>
+    <t xml:space="preserve">4.49408292770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54216241836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45165824890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65023183822632</t>
   </si>
   <si>
     <t xml:space="preserve">4.73061323165894</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">4.85267400741577</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84076595306396</t>
+    <t xml:space="preserve">4.84076547622681</t>
   </si>
   <si>
     <t xml:space="preserve">4.85565137863159</t>
@@ -305,16 +305,16 @@
     <t xml:space="preserve">4.77526950836182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73358964920044</t>
+    <t xml:space="preserve">4.7335901260376</t>
   </si>
   <si>
     <t xml:space="preserve">4.79610872268677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79015493392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79313230514526</t>
+    <t xml:space="preserve">4.79015445709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79313278198242</t>
   </si>
   <si>
     <t xml:space="preserve">4.79908561706543</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">4.22450542449951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08755874633789</t>
+    <t xml:space="preserve">4.08755922317505</t>
   </si>
   <si>
     <t xml:space="preserve">4.10839891433716</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">4.30488777160645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34656667709351</t>
+    <t xml:space="preserve">4.34656715393066</t>
   </si>
   <si>
     <t xml:space="preserve">4.39420080184937</t>
@@ -350,10 +350,10 @@
     <t xml:space="preserve">4.42397165298462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17389535903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954370498657</t>
+    <t xml:space="preserve">4.17389583587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954346656799</t>
   </si>
   <si>
     <t xml:space="preserve">3.9774067401886</t>
@@ -362,25 +362,25 @@
     <t xml:space="preserve">3.98931455612183</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37038373947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30191087722778</t>
+    <t xml:space="preserve">4.37038326263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30191040039062</t>
   </si>
   <si>
     <t xml:space="preserve">4.15603256225586</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00122308731079</t>
+    <t xml:space="preserve">4.00122261047363</t>
   </si>
   <si>
     <t xml:space="preserve">3.9684751033783</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09946775436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19771289825439</t>
+    <t xml:space="preserve">4.09946727752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19771242141724</t>
   </si>
   <si>
     <t xml:space="preserve">4.23343753814697</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">4.55496406555176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48351383209229</t>
+    <t xml:space="preserve">4.4835147857666</t>
   </si>
   <si>
     <t xml:space="preserve">4.67404842376709</t>
@@ -401,10 +401,13 @@
     <t xml:space="preserve">4.56984949111938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60855150222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63832330703735</t>
+    <t xml:space="preserve">4.60855197906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52519273757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6383228302002</t>
   </si>
   <si>
     <t xml:space="preserve">4.61152935028076</t>
@@ -419,25 +422,25 @@
     <t xml:space="preserve">4.64427757263184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67107057571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40610933303833</t>
+    <t xml:space="preserve">4.67107105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40610980987549</t>
   </si>
   <si>
     <t xml:space="preserve">4.54007863998413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62046051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53412485122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5162615776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56687307357788</t>
+    <t xml:space="preserve">4.62046003341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53412437438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51626205444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56687211990356</t>
   </si>
   <si>
     <t xml:space="preserve">4.51030731201172</t>
@@ -446,7 +449,7 @@
     <t xml:space="preserve">4.48649072647095</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44183444976807</t>
+    <t xml:space="preserve">4.44183397293091</t>
   </si>
   <si>
     <t xml:space="preserve">4.46267366409302</t>
@@ -455,7 +458,7 @@
     <t xml:space="preserve">4.3346586227417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34358978271484</t>
+    <t xml:space="preserve">4.343590259552</t>
   </si>
   <si>
     <t xml:space="preserve">4.36740636825562</t>
@@ -464,19 +467,19 @@
     <t xml:space="preserve">4.40908622741699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40015459060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37633848190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.287024974823</t>
+    <t xml:space="preserve">4.40015411376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37633895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28702449798584</t>
   </si>
   <si>
     <t xml:space="preserve">4.34061336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31084203720093</t>
+    <t xml:space="preserve">4.31084156036377</t>
   </si>
   <si>
     <t xml:space="preserve">4.29893350601196</t>
@@ -485,13 +488,13 @@
     <t xml:space="preserve">4.25725364685059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35252141952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2900013923645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32275009155273</t>
+    <t xml:space="preserve">4.35252094268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29000234603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32275056838989</t>
   </si>
   <si>
     <t xml:space="preserve">4.21557474136353</t>
@@ -503,34 +506,34 @@
     <t xml:space="preserve">3.99824619293213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9297730922699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90595602989197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97145247459412</t>
+    <t xml:space="preserve">3.92977333068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90595650672913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97145175933838</t>
   </si>
   <si>
     <t xml:space="preserve">3.87618494033813</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8791618347168</t>
+    <t xml:space="preserve">3.87916254997253</t>
   </si>
   <si>
     <t xml:space="preserve">3.99229264259338</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95656681060791</t>
+    <t xml:space="preserve">3.95656704902649</t>
   </si>
   <si>
     <t xml:space="preserve">3.9267954826355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01313161849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94168090820312</t>
+    <t xml:space="preserve">4.01313209533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9416811466217</t>
   </si>
   <si>
     <t xml:space="preserve">3.91488718986511</t>
@@ -539,10 +542,10 @@
     <t xml:space="preserve">3.89404773712158</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85832190513611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84046006202698</t>
+    <t xml:space="preserve">3.85832262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84045958518982</t>
   </si>
   <si>
     <t xml:space="preserve">3.85236811637878</t>
@@ -551,22 +554,22 @@
     <t xml:space="preserve">3.97442936897278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13519382476807</t>
+    <t xml:space="preserve">4.13519334793091</t>
   </si>
   <si>
     <t xml:space="preserve">4.20366621017456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25129985809326</t>
+    <t xml:space="preserve">4.25130033493042</t>
   </si>
   <si>
     <t xml:space="preserve">4.26023101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22748279571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17687273025513</t>
+    <t xml:space="preserve">4.22748327255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17687225341797</t>
   </si>
   <si>
     <t xml:space="preserve">4.14114713668823</t>
@@ -584,46 +587,46 @@
     <t xml:space="preserve">4.06076574325562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06374263763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03099393844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98038363456726</t>
+    <t xml:space="preserve">4.06374216079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0309944152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98038387298584</t>
   </si>
   <si>
     <t xml:space="preserve">3.88213968276978</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88809394836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67969655990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76900935173035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79580330848694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78389525413513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70351266860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72137570381165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72733044624329</t>
+    <t xml:space="preserve">3.88809323310852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67969679832458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76900887489319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79580307006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78389453887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70351314544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7213761806488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72733020782471</t>
   </si>
   <si>
     <t xml:space="preserve">3.75710153579712</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75114679336548</t>
+    <t xml:space="preserve">3.75114727020264</t>
   </si>
   <si>
     <t xml:space="preserve">3.78687214851379</t>
@@ -632,22 +635,22 @@
     <t xml:space="preserve">3.73923850059509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9357271194458</t>
+    <t xml:space="preserve">3.93572759628296</t>
   </si>
   <si>
     <t xml:space="preserve">4.09649038314819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21259737014771</t>
+    <t xml:space="preserve">4.21259689331055</t>
   </si>
   <si>
     <t xml:space="preserve">4.18282699584961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26916217803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27511596679688</t>
+    <t xml:space="preserve">4.26916265487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27511644363403</t>
   </si>
   <si>
     <t xml:space="preserve">4.26320886611938</t>
@@ -662,34 +665,31 @@
     <t xml:space="preserve">4.48946809768677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49839878082275</t>
+    <t xml:space="preserve">4.4983983039856</t>
   </si>
   <si>
     <t xml:space="preserve">4.48053598403931</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45076560974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41206312179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41801738739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37336111068726</t>
+    <t xml:space="preserve">4.45076513290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41801691055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3733606338501</t>
   </si>
   <si>
     <t xml:space="preserve">4.35847568511963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32572793960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23939180374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14412403106689</t>
+    <t xml:space="preserve">4.32572746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23939085006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14412355422974</t>
   </si>
   <si>
     <t xml:space="preserve">4.24534606933594</t>
@@ -701,10 +701,10 @@
     <t xml:space="preserve">4.20962047576904</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36442995071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45672035217285</t>
+    <t xml:space="preserve">4.36442947387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45671987533569</t>
   </si>
   <si>
     <t xml:space="preserve">4.29297924041748</t>
@@ -716,25 +716,25 @@
     <t xml:space="preserve">4.66809368133545</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52817010879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59664392471313</t>
+    <t xml:space="preserve">4.52816963195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59664344787598</t>
   </si>
   <si>
     <t xml:space="preserve">4.75145292282104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78420114517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72763538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88244485855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87053680419922</t>
+    <t xml:space="preserve">4.78420066833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72763586044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88244533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87053632736206</t>
   </si>
   <si>
     <t xml:space="preserve">4.96878099441528</t>
@@ -746,34 +746,34 @@
     <t xml:space="preserve">4.86755990982056</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86458253860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80504035949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78122329711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70381879806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68297958374023</t>
+    <t xml:space="preserve">4.86458301544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80504083633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7812237739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70381927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68297863006592</t>
   </si>
   <si>
     <t xml:space="preserve">4.61450624465942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76336145401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87649059295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82588052749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90923881530762</t>
+    <t xml:space="preserve">4.76336097717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87649011611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82588005065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90923929214478</t>
   </si>
   <si>
     <t xml:space="preserve">4.93007898330688</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">4.9122166633606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94794130325317</t>
+    <t xml:space="preserve">4.94794178009033</t>
   </si>
   <si>
     <t xml:space="preserve">4.93603324890137</t>
@@ -794,13 +794,13 @@
     <t xml:space="preserve">5.09679651260376</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12061357498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15633821487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1980185508728</t>
+    <t xml:space="preserve">5.12061405181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15633869171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19801807403564</t>
   </si>
   <si>
     <t xml:space="preserve">5.23076629638672</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">5.06107139587402</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03130054473877</t>
+    <t xml:space="preserve">5.03130006790161</t>
   </si>
   <si>
     <t xml:space="preserve">4.99557495117188</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">5.14247989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06251382827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11787462234497</t>
+    <t xml:space="preserve">5.06251335144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11787414550781</t>
   </si>
   <si>
     <t xml:space="preserve">5.11172389984131</t>
@@ -851,37 +851,37 @@
     <t xml:space="preserve">5.09942102432251</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05636167526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02252960205078</t>
+    <t xml:space="preserve">5.05636215209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02253007888794</t>
   </si>
   <si>
     <t xml:space="preserve">4.96409273147583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93641138076782</t>
+    <t xml:space="preserve">4.93641185760498</t>
   </si>
   <si>
     <t xml:space="preserve">4.91488218307495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95178985595703</t>
+    <t xml:space="preserve">4.95179033279419</t>
   </si>
   <si>
     <t xml:space="preserve">4.89642858505249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82261276245117</t>
+    <t xml:space="preserve">4.82261228561401</t>
   </si>
   <si>
     <t xml:space="preserve">4.6903600692749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74264621734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7764778137207</t>
+    <t xml:space="preserve">4.74264574050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77647829055786</t>
   </si>
   <si>
     <t xml:space="preserve">4.86567163467407</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">4.98254632949829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9979248046875</t>
+    <t xml:space="preserve">4.99792432785034</t>
   </si>
   <si>
     <t xml:space="preserve">5.10864782333374</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">5.07481622695923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01330327987671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05943775177002</t>
+    <t xml:space="preserve">5.01330280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05943727493286</t>
   </si>
   <si>
     <t xml:space="preserve">5.17631196975708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22859859466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22244739532471</t>
+    <t xml:space="preserve">5.22859811782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22244691848755</t>
   </si>
   <si>
     <t xml:space="preserve">5.1701602935791</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">5.27165746688843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29011106491089</t>
+    <t xml:space="preserve">5.29011154174805</t>
   </si>
   <si>
     <t xml:space="preserve">5.21321964263916</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">5.16708517074585</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18861532211304</t>
+    <t xml:space="preserve">5.18861484527588</t>
   </si>
   <si>
     <t xml:space="preserve">5.24090099334717</t>
@@ -983,25 +983,25 @@
     <t xml:space="preserve">5.31471633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41313648223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42543935775757</t>
+    <t xml:space="preserve">5.41313600540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42543983459473</t>
   </si>
   <si>
     <t xml:space="preserve">5.41928863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37622928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35162353515625</t>
+    <t xml:space="preserve">5.37622976303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35162401199341</t>
   </si>
   <si>
     <t xml:space="preserve">5.36392593383789</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3885326385498</t>
+    <t xml:space="preserve">5.38853216171265</t>
   </si>
   <si>
     <t xml:space="preserve">5.37315368652344</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">5.43159055709839</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44389343261719</t>
+    <t xml:space="preserve">5.44389295578003</t>
   </si>
   <si>
     <t xml:space="preserve">5.32701873779297</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">5.34239721298218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39468240737915</t>
+    <t xml:space="preserve">5.39468288421631</t>
   </si>
   <si>
     <t xml:space="preserve">5.53616333007812</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">5.62843084335327</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84372758865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87448406219482</t>
+    <t xml:space="preserve">5.84372711181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87448358535767</t>
   </si>
   <si>
     <t xml:space="preserve">5.65918827056885</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">5.76991176605225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94829940795898</t>
+    <t xml:space="preserve">5.94829893112183</t>
   </si>
   <si>
     <t xml:space="preserve">6.10515785217285</t>
@@ -1067,22 +1067,22 @@
     <t xml:space="preserve">6.1205358505249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41579818725586</t>
+    <t xml:space="preserve">6.41579866409302</t>
   </si>
   <si>
     <t xml:space="preserve">6.40349578857422</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32352781295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33583068847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36658716201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24356126785278</t>
+    <t xml:space="preserve">6.32352828979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3358302116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36658763885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24356079101562</t>
   </si>
   <si>
     <t xml:space="preserve">6.18204879760742</t>
@@ -1094,16 +1094,16 @@
     <t xml:space="preserve">6.21280527114868</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50806665420532</t>
+    <t xml:space="preserve">6.50806713104248</t>
   </si>
   <si>
     <t xml:space="preserve">6.56342935562134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3911919593811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61879014968872</t>
+    <t xml:space="preserve">6.39119243621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61879062652588</t>
   </si>
   <si>
     <t xml:space="preserve">6.60648727416992</t>
@@ -1118,28 +1118,28 @@
     <t xml:space="preserve">6.69260501861572</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63724327087402</t>
+    <t xml:space="preserve">6.63724374771118</t>
   </si>
   <si>
     <t xml:space="preserve">6.6249418258667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4588565826416</t>
+    <t xml:space="preserve">6.45885610580444</t>
   </si>
   <si>
     <t xml:space="preserve">6.57573080062866</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66800117492676</t>
+    <t xml:space="preserve">6.6680006980896</t>
   </si>
   <si>
     <t xml:space="preserve">6.82793474197388</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81563186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95095920562744</t>
+    <t xml:space="preserve">6.81563091278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95096015930176</t>
   </si>
   <si>
     <t xml:space="preserve">6.8894476890564</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">6.02826642990112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96675300598145</t>
+    <t xml:space="preserve">5.9667534828186</t>
   </si>
   <si>
     <t xml:space="preserve">6.00981140136719</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">6.05902290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0651741027832</t>
+    <t xml:space="preserve">6.06517362594604</t>
   </si>
   <si>
     <t xml:space="preserve">6.16359424591064</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">5.90524005889893</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99750900268555</t>
+    <t xml:space="preserve">5.99750947952271</t>
   </si>
   <si>
     <t xml:space="preserve">5.95445013046265</t>
@@ -1214,25 +1214,25 @@
     <t xml:space="preserve">5.64688634872437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52385997772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33316946029663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49310398101807</t>
+    <t xml:space="preserve">5.52385950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33316898345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49310350418091</t>
   </si>
   <si>
     <t xml:space="preserve">5.21014451980591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08711767196655</t>
+    <t xml:space="preserve">5.08711814880371</t>
   </si>
   <si>
     <t xml:space="preserve">5.17323684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03790760040283</t>
+    <t xml:space="preserve">5.03790712356567</t>
   </si>
   <si>
     <t xml:space="preserve">5.01945400238037</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">4.63991975784302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61900472640991</t>
+    <t xml:space="preserve">4.61900424957275</t>
   </si>
   <si>
     <t xml:space="preserve">4.59501457214355</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">4.44184827804565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33666086196899</t>
+    <t xml:space="preserve">4.33666133880615</t>
   </si>
   <si>
     <t xml:space="preserve">4.73106288909912</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">5.27894067764282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02088165283203</t>
+    <t xml:space="preserve">5.02088212966919</t>
   </si>
   <si>
     <t xml:space="preserve">5.12807559967041</t>
@@ -1334,13 +1334,13 @@
     <t xml:space="preserve">5.14130878448486</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22666645050049</t>
+    <t xml:space="preserve">5.22666692733765</t>
   </si>
   <si>
     <t xml:space="preserve">5.16115951538086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11550283432007</t>
+    <t xml:space="preserve">5.11550331115723</t>
   </si>
   <si>
     <t xml:space="preserve">5.20549249649048</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">5.18895101547241</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19953775405884</t>
+    <t xml:space="preserve">5.19953727722168</t>
   </si>
   <si>
     <t xml:space="preserve">5.18762683868408</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">5.19887590408325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21409463882446</t>
+    <t xml:space="preserve">5.21409511566162</t>
   </si>
   <si>
     <t xml:space="preserve">5.19424390792847</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">5.15057229995728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92890739440918</t>
+    <t xml:space="preserve">4.92890787124634</t>
   </si>
   <si>
     <t xml:space="preserve">5.00169277191162</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">4.89648485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87729549407959</t>
+    <t xml:space="preserve">4.87729597091675</t>
   </si>
   <si>
     <t xml:space="preserve">4.82369899749756</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">4.47631311416626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73172521591187</t>
+    <t xml:space="preserve">4.73172473907471</t>
   </si>
   <si>
     <t xml:space="preserve">4.81311225891113</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">4.79061412811279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8925142288208</t>
+    <t xml:space="preserve">4.89251470565796</t>
   </si>
   <si>
     <t xml:space="preserve">4.98581218719482</t>
@@ -1436,13 +1436,13 @@
     <t xml:space="preserve">4.9593448638916</t>
   </si>
   <si>
-    <t xml:space="preserve">4.845534324646</t>
+    <t xml:space="preserve">4.84553480148315</t>
   </si>
   <si>
     <t xml:space="preserve">4.74495840072632</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0422739982605</t>
+    <t xml:space="preserve">5.04227447509766</t>
   </si>
   <si>
     <t xml:space="preserve">5.16319131851196</t>
@@ -1451,19 +1451,19 @@
     <t xml:space="preserve">5.05792236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15607881546021</t>
+    <t xml:space="preserve">5.15607929229736</t>
   </si>
   <si>
     <t xml:space="preserve">5.2051568031311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95905447006226</t>
+    <t xml:space="preserve">4.9590539932251</t>
   </si>
   <si>
     <t xml:space="preserve">4.96047687530518</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92491245269775</t>
+    <t xml:space="preserve">4.9249119758606</t>
   </si>
   <si>
     <t xml:space="preserve">4.90997552871704</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">4.89005994796753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93629264831543</t>
+    <t xml:space="preserve">4.93629312515259</t>
   </si>
   <si>
     <t xml:space="preserve">4.89503860473633</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">5.01240015029907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95194149017334</t>
+    <t xml:space="preserve">4.95194101333618</t>
   </si>
   <si>
     <t xml:space="preserve">4.93415880203247</t>
@@ -1502,13 +1502,13 @@
     <t xml:space="preserve">5.14967679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13900804519653</t>
+    <t xml:space="preserve">5.13900852203369</t>
   </si>
   <si>
     <t xml:space="preserve">4.9931960105896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01737928390503</t>
+    <t xml:space="preserve">5.01737880706787</t>
   </si>
   <si>
     <t xml:space="preserve">5.02804851531982</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">5.06859159469604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10486650466919</t>
+    <t xml:space="preserve">5.10486698150635</t>
   </si>
   <si>
     <t xml:space="preserve">5.16390323638916</t>
@@ -1547,13 +1547,13 @@
     <t xml:space="preserve">5.07214784622192</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14327573776245</t>
+    <t xml:space="preserve">5.14327621459961</t>
   </si>
   <si>
     <t xml:space="preserve">5.10913467407227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08637380599976</t>
+    <t xml:space="preserve">5.0863733291626</t>
   </si>
   <si>
     <t xml:space="preserve">5.00030851364136</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">4.61692762374878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63684320449829</t>
+    <t xml:space="preserve">4.63684368133545</t>
   </si>
   <si>
     <t xml:space="preserve">4.67525243759155</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">4.73713397979736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70868253707886</t>
+    <t xml:space="preserve">4.70868301391602</t>
   </si>
   <si>
     <t xml:space="preserve">4.73002099990845</t>
@@ -1610,22 +1610,22 @@
     <t xml:space="preserve">4.70939445495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66173839569092</t>
+    <t xml:space="preserve">4.66173791885376</t>
   </si>
   <si>
     <t xml:space="preserve">4.67169618606567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64537954330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67667579650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67454099655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68663358688354</t>
+    <t xml:space="preserve">4.64537906646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67667531967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67454147338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68663311004639</t>
   </si>
   <si>
     <t xml:space="preserve">4.66600608825684</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">4.68094253540039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63968801498413</t>
+    <t xml:space="preserve">4.63968849182129</t>
   </si>
   <si>
     <t xml:space="preserve">4.63186454772949</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">4.86516523361206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89361619949341</t>
+    <t xml:space="preserve">4.89361572265625</t>
   </si>
   <si>
     <t xml:space="preserve">4.87298917770386</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">4.79332542419434</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70726013183594</t>
+    <t xml:space="preserve">4.7072606086731</t>
   </si>
   <si>
     <t xml:space="preserve">4.66387224197388</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">4.56784868240356</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57994174957275</t>
+    <t xml:space="preserve">4.5799412727356</t>
   </si>
   <si>
     <t xml:space="preserve">4.55220127105713</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">4.48178386688232</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36797857284546</t>
+    <t xml:space="preserve">4.36797904968262</t>
   </si>
   <si>
     <t xml:space="preserve">4.34948587417603</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">4.19940519332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23852586746216</t>
+    <t xml:space="preserve">4.23852634429932</t>
   </si>
   <si>
     <t xml:space="preserve">4.1894474029541</t>
@@ -1724,19 +1724,19 @@
     <t xml:space="preserve">4.27408981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36513423919678</t>
+    <t xml:space="preserve">4.36513376235962</t>
   </si>
   <si>
     <t xml:space="preserve">4.43341684341431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44550895690918</t>
+    <t xml:space="preserve">4.44550848007202</t>
   </si>
   <si>
     <t xml:space="preserve">4.43768453598022</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3665566444397</t>
+    <t xml:space="preserve">4.36655712127686</t>
   </si>
   <si>
     <t xml:space="preserve">4.29613971710205</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">4.33952760696411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2698221206665</t>
+    <t xml:space="preserve">4.26982259750366</t>
   </si>
   <si>
     <t xml:space="preserve">4.29542827606201</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">4.27764654159546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23283576965332</t>
+    <t xml:space="preserve">4.23283529281616</t>
   </si>
   <si>
     <t xml:space="preserve">4.17166519165039</t>
@@ -1781,28 +1781,28 @@
     <t xml:space="preserve">4.3694019317627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38149309158325</t>
+    <t xml:space="preserve">4.38149356842041</t>
   </si>
   <si>
     <t xml:space="preserve">4.34379577636719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33312606811523</t>
+    <t xml:space="preserve">4.33312654495239</t>
   </si>
   <si>
     <t xml:space="preserve">4.25559663772583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18375730514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16810894012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13041114807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13681268692017</t>
+    <t xml:space="preserve">4.18375682830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16810941696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13041162490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13681316375732</t>
   </si>
   <si>
     <t xml:space="preserve">4.09982585906982</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">3.91204786300659</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83807420730591</t>
+    <t xml:space="preserve">3.83807468414307</t>
   </si>
   <si>
     <t xml:space="preserve">3.82242655754089</t>
@@ -1859,13 +1859,13 @@
     <t xml:space="preserve">4.18802499771118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20794105529785</t>
+    <t xml:space="preserve">4.20794057846069</t>
   </si>
   <si>
     <t xml:space="preserve">4.18233489990234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13325643539429</t>
+    <t xml:space="preserve">4.13325595855713</t>
   </si>
   <si>
     <t xml:space="preserve">4.09129095077515</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve">4.18020105361938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16028547286987</t>
+    <t xml:space="preserve">4.16028499603271</t>
   </si>
   <si>
     <t xml:space="preserve">4.1979832649231</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15174913406372</t>
+    <t xml:space="preserve">4.15174961090088</t>
   </si>
   <si>
     <t xml:space="preserve">4.10693883895874</t>
@@ -1895,10 +1895,10 @@
     <t xml:space="preserve">4.37366962432861</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46755838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43697309494019</t>
+    <t xml:space="preserve">4.46755886077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43697357177734</t>
   </si>
   <si>
     <t xml:space="preserve">4.43839597702026</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">4.39714193344116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39571905136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41705751419067</t>
+    <t xml:space="preserve">4.39571952819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41705799102783</t>
   </si>
   <si>
     <t xml:space="preserve">4.40994453430176</t>
@@ -1925,13 +1925,13 @@
     <t xml:space="preserve">4.19371509552002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26768827438354</t>
+    <t xml:space="preserve">4.2676887512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.23070192337036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2748007774353</t>
+    <t xml:space="preserve">4.27480125427246</t>
   </si>
   <si>
     <t xml:space="preserve">4.31534433364868</t>
@@ -1940,25 +1940,25 @@
     <t xml:space="preserve">4.38433885574341</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36726808547974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36442279815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36015558242798</t>
+    <t xml:space="preserve">4.36726760864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3644232749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36015510559082</t>
   </si>
   <si>
     <t xml:space="preserve">4.30680847167969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43270587921143</t>
+    <t xml:space="preserve">4.43270540237427</t>
   </si>
   <si>
     <t xml:space="preserve">4.49458742141724</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40069770812988</t>
+    <t xml:space="preserve">4.40069818496704</t>
   </si>
   <si>
     <t xml:space="preserve">4.48676347732544</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">4.65889358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73215579986572</t>
+    <t xml:space="preserve">4.73215532302856</t>
   </si>
   <si>
     <t xml:space="preserve">4.63044166564941</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">4.71366167068481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73571157455444</t>
+    <t xml:space="preserve">4.7357120513916</t>
   </si>
   <si>
     <t xml:space="preserve">4.76843070983887</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">4.82248830795288</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76558542251587</t>
+    <t xml:space="preserve">4.76558494567871</t>
   </si>
   <si>
     <t xml:space="preserve">4.72859859466553</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">4.663161277771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61123752593994</t>
+    <t xml:space="preserve">4.61123704910278</t>
   </si>
   <si>
     <t xml:space="preserve">4.57211685180664</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">4.60910367965698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63755512237549</t>
+    <t xml:space="preserve">4.63755464553833</t>
   </si>
   <si>
     <t xml:space="preserve">4.68734455108643</t>
@@ -2042,25 +2042,25 @@
     <t xml:space="preserve">4.72290849685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75847291946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80114936828613</t>
+    <t xml:space="preserve">4.75847244262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80114984512329</t>
   </si>
   <si>
     <t xml:space="preserve">4.77269792556763</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7798113822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78692436218262</t>
+    <t xml:space="preserve">4.77981090545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78692388534546</t>
   </si>
   <si>
     <t xml:space="preserve">4.87939071655273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81537485122681</t>
+    <t xml:space="preserve">4.81537532806396</t>
   </si>
   <si>
     <t xml:space="preserve">4.65178060531616</t>
@@ -8388,7 +8388,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G144" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8414,7 +8414,7 @@
         <v>7.24187612533569</v>
       </c>
       <c r="G145" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8440,7 +8440,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G146" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8466,7 +8466,7 @@
         <v>7.33019208908081</v>
       </c>
       <c r="G147" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8492,7 +8492,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G148" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8518,7 +8518,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G149" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8544,7 +8544,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G150" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8596,7 +8596,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G152" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8622,7 +8622,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G153" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8648,7 +8648,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G154" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8674,7 +8674,7 @@
         <v>7.07918977737427</v>
       </c>
       <c r="G155" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8700,7 +8700,7 @@
         <v>7.05130100250244</v>
       </c>
       <c r="G156" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8726,7 +8726,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G157" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8752,7 +8752,7 @@
         <v>7.13032007217407</v>
       </c>
       <c r="G158" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8778,7 +8778,7 @@
         <v>7.04200410842896</v>
       </c>
       <c r="G159" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8804,7 +8804,7 @@
         <v>7.0048189163208</v>
       </c>
       <c r="G160" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8830,7 +8830,7 @@
         <v>6.93509578704834</v>
       </c>
       <c r="G161" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8856,7 +8856,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G162" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8882,7 +8882,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G163" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8908,7 +8908,7 @@
         <v>6.78170585632324</v>
       </c>
       <c r="G164" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8934,7 +8934,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G165" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8960,7 +8960,7 @@
         <v>6.88396596908569</v>
       </c>
       <c r="G166" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8986,7 +8986,7 @@
         <v>6.87002086639404</v>
       </c>
       <c r="G167" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -9012,7 +9012,7 @@
         <v>6.83283615112305</v>
       </c>
       <c r="G168" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9038,7 +9038,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G169" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -9064,7 +9064,7 @@
         <v>6.77705812454224</v>
       </c>
       <c r="G170" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9090,7 +9090,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G171" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9116,7 +9116,7 @@
         <v>6.71198320388794</v>
       </c>
       <c r="G172" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9142,7 +9142,7 @@
         <v>6.64690780639648</v>
       </c>
       <c r="G173" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9168,7 +9168,7 @@
         <v>6.79565000534058</v>
       </c>
       <c r="G174" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9194,7 +9194,7 @@
         <v>6.69803810119629</v>
       </c>
       <c r="G175" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9246,7 +9246,7 @@
         <v>6.74916791915894</v>
       </c>
       <c r="G177" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9272,7 +9272,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G178" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9298,7 +9298,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G179" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9324,7 +9324,7 @@
         <v>6.242516040802</v>
       </c>
       <c r="G180" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9376,7 +9376,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G182" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9402,7 +9402,7 @@
         <v>6.09842205047607</v>
       </c>
       <c r="G183" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9428,7 +9428,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G184" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9454,7 +9454,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G185" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9480,7 +9480,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G186" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9506,7 +9506,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G187" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9532,7 +9532,7 @@
         <v>6.17744112014771</v>
       </c>
       <c r="G188" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9558,7 +9558,7 @@
         <v>6.13095903396606</v>
       </c>
       <c r="G189" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9610,7 +9610,7 @@
         <v>6.26575708389282</v>
       </c>
       <c r="G191" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9662,7 +9662,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G193" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9688,7 +9688,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G194" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9714,7 +9714,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G195" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9740,7 +9740,7 @@
         <v>6.11236715316772</v>
       </c>
       <c r="G196" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9766,7 +9766,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G197" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9792,7 +9792,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G198" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9818,7 +9818,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G199" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9844,7 +9844,7 @@
         <v>6.02405118942261</v>
       </c>
       <c r="G200" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9870,7 +9870,7 @@
         <v>5.99616193771362</v>
       </c>
       <c r="G201" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9896,7 +9896,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G202" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9922,7 +9922,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G203" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9948,7 +9948,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G204" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9974,7 +9974,7 @@
         <v>6.20532989501953</v>
       </c>
       <c r="G205" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10000,7 +10000,7 @@
         <v>6.45633316040039</v>
       </c>
       <c r="G206" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10026,7 +10026,7 @@
         <v>6.56324100494385</v>
       </c>
       <c r="G207" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10052,7 +10052,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G208" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10078,7 +10078,7 @@
         <v>6.63761186599731</v>
       </c>
       <c r="G209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10130,7 +10130,7 @@
         <v>6.65155601501465</v>
       </c>
       <c r="G211" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10156,7 +10156,7 @@
         <v>6.600426197052</v>
       </c>
       <c r="G212" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10182,7 +10182,7 @@
         <v>6.52140712738037</v>
       </c>
       <c r="G213" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10234,7 +10234,7 @@
         <v>6.46562910079956</v>
       </c>
       <c r="G215" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10260,7 +10260,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G216" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10286,7 +10286,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10312,7 +10312,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G218" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10338,7 +10338,7 @@
         <v>6.36336898803711</v>
       </c>
       <c r="G219" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10364,7 +10364,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G220" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10390,7 +10390,7 @@
         <v>6.34477615356445</v>
       </c>
       <c r="G221" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10416,7 +10416,7 @@
         <v>6.29364585876465</v>
       </c>
       <c r="G222" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10442,7 +10442,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G223" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10468,7 +10468,7 @@
         <v>6.21462678909302</v>
       </c>
       <c r="G224" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10494,7 +10494,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G225" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10520,7 +10520,7 @@
         <v>6.06123685836792</v>
       </c>
       <c r="G226" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10546,7 +10546,7 @@
         <v>6.07053279876709</v>
       </c>
       <c r="G227" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10572,7 +10572,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G228" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10598,7 +10598,7 @@
         <v>5.74516010284424</v>
       </c>
       <c r="G229" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10624,7 +10624,7 @@
         <v>5.88460493087769</v>
       </c>
       <c r="G230" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10650,7 +10650,7 @@
         <v>5.92643880844116</v>
       </c>
       <c r="G231" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10676,7 +10676,7 @@
         <v>5.90784597396851</v>
       </c>
       <c r="G232" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10702,7 +10702,7 @@
         <v>5.78234481811523</v>
       </c>
       <c r="G233" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10728,7 +10728,7 @@
         <v>5.81023406982422</v>
       </c>
       <c r="G234" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10754,7 +10754,7 @@
         <v>5.81953096389771</v>
       </c>
       <c r="G235" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10780,7 +10780,7 @@
         <v>5.86601305007935</v>
       </c>
       <c r="G236" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10806,7 +10806,7 @@
         <v>5.85671615600586</v>
       </c>
       <c r="G237" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10832,7 +10832,7 @@
         <v>5.91249513626099</v>
       </c>
       <c r="G238" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10858,7 +10858,7 @@
         <v>5.83812379837036</v>
       </c>
       <c r="G239" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10884,7 +10884,7 @@
         <v>6.14490413665771</v>
       </c>
       <c r="G240" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10910,7 +10910,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G241" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10936,7 +10936,7 @@
         <v>6.3959059715271</v>
       </c>
       <c r="G242" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10962,7 +10962,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G243" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10988,7 +10988,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G244" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11040,7 +11040,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G246" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11118,7 +11118,7 @@
         <v>6.57718515396118</v>
       </c>
       <c r="G249" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11144,7 +11144,7 @@
         <v>6.53070402145386</v>
       </c>
       <c r="G250" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11170,7 +11170,7 @@
         <v>6.6655011177063</v>
       </c>
       <c r="G251" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11196,7 +11196,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G252" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11222,7 +11222,7 @@
         <v>6.67479705810547</v>
       </c>
       <c r="G253" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11248,7 +11248,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G254" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11274,7 +11274,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G255" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11300,7 +11300,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G256" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11326,7 +11326,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G257" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11352,7 +11352,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G258" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11430,7 +11430,7 @@
         <v>7.05594921112061</v>
       </c>
       <c r="G261" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11482,7 +11482,7 @@
         <v>6.91650295257568</v>
       </c>
       <c r="G263" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11508,7 +11508,7 @@
         <v>7.00946712493896</v>
       </c>
       <c r="G264" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11534,7 +11534,7 @@
         <v>7.02341079711914</v>
       </c>
       <c r="G265" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11586,7 +11586,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G267" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11612,7 +11612,7 @@
         <v>6.94903993606567</v>
       </c>
       <c r="G268" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11638,7 +11638,7 @@
         <v>6.88861417770386</v>
       </c>
       <c r="G269" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11872,7 +11872,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G278" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -12054,7 +12054,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G285" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12158,7 +12158,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G289" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12184,7 +12184,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G290" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12236,7 +12236,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G292" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12262,7 +12262,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G293" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12288,7 +12288,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G294" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12418,7 +12418,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G299" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12470,7 +12470,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G301" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12574,7 +12574,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G305" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12600,7 +12600,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G306" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12626,7 +12626,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G307" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12652,7 +12652,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G308" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12730,7 +12730,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G311" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -61592,7 +61592,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n">
-        <v>45512.6493518519</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B2191" t="n">
         <v>184998</v>
@@ -61613,6 +61613,32 @@
         <v>1309</v>
       </c>
       <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45513.6495486111</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>184859</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>2.13000011444092</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>2.07500004768372</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>2.07500004768372</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>2.11500000953674</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H2192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -47,31 +47,31 @@
     <t xml:space="preserve">4.97771215438843</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93245983123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92963171005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80801773071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69488763809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72317028045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83347225189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70902872085571</t>
+    <t xml:space="preserve">4.93246030807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92963266372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80801725387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6948881149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7231707572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83347129821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70902919769287</t>
   </si>
   <si>
     <t xml:space="preserve">4.48276901245117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30741786956787</t>
+    <t xml:space="preserve">4.30741882324219</t>
   </si>
   <si>
     <t xml:space="preserve">4.18580389022827</t>
@@ -80,61 +80,61 @@
     <t xml:space="preserve">3.73328447341919</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01610851287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0924711227417</t>
+    <t xml:space="preserve">4.01610898971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09247159957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.17731857299805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11226940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08398723602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94540286064148</t>
+    <t xml:space="preserve">4.11226892471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08398675918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94540333747864</t>
   </si>
   <si>
     <t xml:space="preserve">4.10095596313477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21125793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05570459365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82378792762756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91712045669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57490253448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6201548576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81813168525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69086098670959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76439523696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01893758773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954442024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07267427444458</t>
+    <t xml:space="preserve">4.21125745773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05570411682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82378816604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91712021827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57490229606628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62015414237976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81813144683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69086074829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76439499855042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01893711090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954394340515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07267332077026</t>
   </si>
   <si>
     <t xml:space="preserve">4.00479555130005</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">4.19994497299194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14620780944824</t>
+    <t xml:space="preserve">4.1462082862854</t>
   </si>
   <si>
     <t xml:space="preserve">4.0896430015564</t>
@@ -152,19 +152,19 @@
     <t xml:space="preserve">4.12358236312866</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12923860549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1716628074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19428825378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38660860061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35549783706665</t>
+    <t xml:space="preserve">4.12923908233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17166233062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19428777694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38660955429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35549831390381</t>
   </si>
   <si>
     <t xml:space="preserve">4.52519273757935</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">4.48559808731079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.496910572052</t>
+    <t xml:space="preserve">4.49691009521484</t>
   </si>
   <si>
     <t xml:space="preserve">4.48842573165894</t>
@@ -182,495 +182,495 @@
     <t xml:space="preserve">4.58175802230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68357467651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6666054725647</t>
+    <t xml:space="preserve">4.68357515335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66660499572754</t>
   </si>
   <si>
     <t xml:space="preserve">4.61569738388062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72882652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83630037307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76842212677002</t>
+    <t xml:space="preserve">4.72882747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83629989624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76842164993286</t>
   </si>
   <si>
     <t xml:space="preserve">4.70620059967041</t>
   </si>
   <si>
+    <t xml:space="preserve">4.63832330703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49973917007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57327270507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57610177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41206312179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40075063705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3696403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37246799468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38378095626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47994089126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55347537994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46862840652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45448732376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489171981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47428417205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44034576416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41771984100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44317436218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55064725875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45731496810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53933382034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57893037796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4940824508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54216194152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45165872573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65023136138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73061370849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81099462509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85267448425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84076595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85565137863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82290267944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77526950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73358964920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79610919952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7901554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79313182830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79908609390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72168254852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50137710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20068883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22450637817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08755970001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10839891433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30488777160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34656715393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39420080184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42397165298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17389535903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954346656799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97740721702576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98931503295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37038373947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30191040039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15603303909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00122261047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96847462654114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0994668006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19771242141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23343801498413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40313148498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55496406555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48351430892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67404842376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56984949111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60855150222778</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.6383228302002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49973917007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57327318191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57610177993774</t>
+    <t xml:space="preserve">4.61152935028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6859564781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64427709579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67107057571411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40610980987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54007863998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62045955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53412389755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51626205444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56687259674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51030778884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48649120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44183397293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46267318725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3346586227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.343590259552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36740636825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40908622741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40015506744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37633848190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.287024974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34061336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31084203720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29893350601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25725364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35252094268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29000186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32275009155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21557474136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0786280632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99824666976929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92977333068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90595555305481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9714527130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87618494033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87916159629822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99229216575623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95656704902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9267954826355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01313209533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9416811466217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91488766670227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89404773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85832262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8404598236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85236835479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97442936897278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13519287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20366621017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25129985809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26023149490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22748279571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17687225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14114665985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11137628555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04885721206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07565116882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06076574325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06374216079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0309944152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98038387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88213968276978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88809323310852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67969632148743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76900863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79580307006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78389525413513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7035129070282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72137570381165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72732996940613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75710129737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75114631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78687238693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73923850059509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93572759628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09649038314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21259737014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18282699584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26916313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27511596679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26320886611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51923894882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4299259185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48946714401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4983983039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48053598403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45076513290405</t>
   </si>
   <si>
     <t xml:space="preserve">4.41206359863281</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40075063705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36963987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37246799468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38378143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47994089126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55347585678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4686279296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45448684692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5167088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47428464889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.440345287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41771984100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44317388534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55064678192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45731544494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53933429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57892990112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49408149719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54216289520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45165872573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65023136138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73061323165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81099462509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85267400741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84076547622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85565090179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82290363311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77526950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73358964920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79610967636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79015493392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79313230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79908609390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72168254852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50137662887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20068883895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22450590133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08755922317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10839939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30488729476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34656715393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39420080184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42397165298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17389583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954346656799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9774067401886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98931455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37038373947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30191040039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15603303909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00122356414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96847534179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09946775436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19771242141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23343753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40313196182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55496454238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48351430892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67404842376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56984949111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60855150222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5251932144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61152982711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6948881149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68595600128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64427757263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67107105255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54007863998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62046051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53412389755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51626205444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56687259674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51030778884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48649072647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44183444976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46267366409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33465909957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34359073638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36740636825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40908622741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40015459060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37633895874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.287024974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34061336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31084203720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29893350601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25725364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35252094268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29000186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32274961471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21557426452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0786280632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99824643135071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92977333068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90595626831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9714527130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87618470191956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87916159629822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99229264259338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95656704902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92679524421692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01313161849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94168090820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91488790512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89404797554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85832238197327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84045958518982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85236883163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97442936897278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13519287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20366621017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2512993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26023054122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22748279571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17687273025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14114761352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11137628555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04885673522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0756516456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06076526641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06374263763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03099393844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9803831577301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88213920593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88809394836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67969655990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76900911331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7958037853241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78389453887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70351266860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72137594223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72733044624329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75710082054138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75114679336548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78687262535095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73923850059509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93572759628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09649038314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21259737014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18282651901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26916265487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27511644363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26320838928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51923894882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42992544174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48946809768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49839878082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48053646087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45076513290405</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.41801738739014</t>
   </si>
   <si>
@@ -683,19 +683,19 @@
     <t xml:space="preserve">4.32572746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23939180374146</t>
+    <t xml:space="preserve">4.2393913269043</t>
   </si>
   <si>
     <t xml:space="preserve">4.14412403106689</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24534606933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16794157028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20962047576904</t>
+    <t xml:space="preserve">4.24534559249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16794109344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20961999893188</t>
   </si>
   <si>
     <t xml:space="preserve">4.36442947387695</t>
@@ -704,16 +704,16 @@
     <t xml:space="preserve">4.45671987533569</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29297971725464</t>
+    <t xml:space="preserve">4.29297924041748</t>
   </si>
   <si>
     <t xml:space="preserve">4.62641477584839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66809368133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52816963195801</t>
+    <t xml:space="preserve">4.66809415817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52817058563232</t>
   </si>
   <si>
     <t xml:space="preserve">4.59664344787598</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">4.75145244598389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78420066833496</t>
+    <t xml:space="preserve">4.78420114517212</t>
   </si>
   <si>
     <t xml:space="preserve">4.72763633728027</t>
@@ -731,55 +731,55 @@
     <t xml:space="preserve">4.88244533538818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87053632736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96878051757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89435338973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86755990982056</t>
+    <t xml:space="preserve">4.87053680419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96878099441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89435386657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86756038665771</t>
   </si>
   <si>
     <t xml:space="preserve">4.86458301544189</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80504035949707</t>
+    <t xml:space="preserve">4.80504083633423</t>
   </si>
   <si>
     <t xml:space="preserve">4.7812237739563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70381927490234</t>
+    <t xml:space="preserve">4.7038197517395</t>
   </si>
   <si>
     <t xml:space="preserve">4.68297910690308</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61450672149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76336145401001</t>
+    <t xml:space="preserve">4.61450624465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76336097717285</t>
   </si>
   <si>
     <t xml:space="preserve">4.87649059295654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82588052749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90923881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93007946014404</t>
+    <t xml:space="preserve">4.82588005065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90923929214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93007898330688</t>
   </si>
   <si>
     <t xml:space="preserve">4.91221618652344</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94794130325317</t>
+    <t xml:space="preserve">4.94794178009033</t>
   </si>
   <si>
     <t xml:space="preserve">4.93603324890137</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">4.98962116241455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09679698944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12061309814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15633821487427</t>
+    <t xml:space="preserve">5.09679651260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12061405181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15633869171143</t>
   </si>
   <si>
     <t xml:space="preserve">5.1980185508728</t>
@@ -806,16 +806,16 @@
     <t xml:space="preserve">5.06107139587402</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03130006790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99557542800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04405975341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08096742630005</t>
+    <t xml:space="preserve">5.03130054473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99557495117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04405927658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08096694946289</t>
   </si>
   <si>
     <t xml:space="preserve">5.10557174682617</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">5.06251335144043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11787462234497</t>
+    <t xml:space="preserve">5.11787414550781</t>
   </si>
   <si>
     <t xml:space="preserve">5.11172389984131</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09942054748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05636167526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02252960205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96409225463867</t>
+    <t xml:space="preserve">5.09942102432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05636215209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02252912521362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96409273147583</t>
   </si>
   <si>
     <t xml:space="preserve">4.93641185760498</t>
@@ -863,10 +863,10 @@
     <t xml:space="preserve">4.91488218307495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95179033279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89642810821533</t>
+    <t xml:space="preserve">4.95178937911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89642858505249</t>
   </si>
   <si>
     <t xml:space="preserve">4.82261276245117</t>
@@ -881,10 +881,10 @@
     <t xml:space="preserve">4.7764778137207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86567163467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88412570953369</t>
+    <t xml:space="preserve">4.86567211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88412618637085</t>
   </si>
   <si>
     <t xml:space="preserve">4.79800748825073</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">4.89027643203735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98254680633545</t>
+    <t xml:space="preserve">4.98254585266113</t>
   </si>
   <si>
     <t xml:space="preserve">4.9979248046875</t>
@@ -902,22 +902,22 @@
     <t xml:space="preserve">5.1086483001709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11479949951172</t>
+    <t xml:space="preserve">5.11479902267456</t>
   </si>
   <si>
     <t xml:space="preserve">5.15478277206421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12402629852295</t>
+    <t xml:space="preserve">5.12402582168579</t>
   </si>
   <si>
     <t xml:space="preserve">5.07481575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01330280303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05943775177002</t>
+    <t xml:space="preserve">5.01330327987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05943727493286</t>
   </si>
   <si>
     <t xml:space="preserve">5.17631196975708</t>
@@ -935,13 +935,13 @@
     <t xml:space="preserve">5.15785837173462</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33624505996704</t>
+    <t xml:space="preserve">5.3362455368042</t>
   </si>
   <si>
     <t xml:space="preserve">5.30241394042969</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28703594207764</t>
+    <t xml:space="preserve">5.28703546524048</t>
   </si>
   <si>
     <t xml:space="preserve">5.25012731552124</t>
@@ -953,13 +953,13 @@
     <t xml:space="preserve">5.27165746688843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29011106491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21322011947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20091676712036</t>
+    <t xml:space="preserve">5.29011154174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21321964263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20091724395752</t>
   </si>
   <si>
     <t xml:space="preserve">5.14863157272339</t>
@@ -977,40 +977,40 @@
     <t xml:space="preserve">5.24090147018433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31471633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41313600540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42543983459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41928815841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37622976303101</t>
+    <t xml:space="preserve">5.31471586227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41313695907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42543935775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41928863525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37622928619385</t>
   </si>
   <si>
     <t xml:space="preserve">5.35162401199341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36392593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38853216171265</t>
+    <t xml:space="preserve">5.36392641067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38853168487549</t>
   </si>
   <si>
     <t xml:space="preserve">5.37315368652344</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42851495742798</t>
+    <t xml:space="preserve">5.42851448059082</t>
   </si>
   <si>
     <t xml:space="preserve">5.43159055709839</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44389295578003</t>
+    <t xml:space="preserve">5.44389343261719</t>
   </si>
   <si>
     <t xml:space="preserve">5.32701873779297</t>
@@ -1019,19 +1019,19 @@
     <t xml:space="preserve">5.34239721298218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39468288421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53616333007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62843132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84372806549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87448358535767</t>
+    <t xml:space="preserve">5.39468240737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53616237640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62843084335327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84372758865356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87448406219482</t>
   </si>
   <si>
     <t xml:space="preserve">5.65918827056885</t>
@@ -1040,28 +1040,28 @@
     <t xml:space="preserve">5.65611267089844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75145816802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78836488723755</t>
+    <t xml:space="preserve">5.75145769119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78836536407471</t>
   </si>
   <si>
     <t xml:space="preserve">5.78221464157104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69302082061768</t>
+    <t xml:space="preserve">5.69302034378052</t>
   </si>
   <si>
     <t xml:space="preserve">5.76991176605225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94829940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10515737533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12053632736206</t>
+    <t xml:space="preserve">5.94829988479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10515689849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12053537368774</t>
   </si>
   <si>
     <t xml:space="preserve">6.4157977104187</t>
@@ -1073,58 +1073,58 @@
     <t xml:space="preserve">6.32352876663208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33583116531372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36658716201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24356079101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18204879760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09285497665405</t>
+    <t xml:space="preserve">6.33583068847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36658763885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24356126785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18204832077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09285449981689</t>
   </si>
   <si>
     <t xml:space="preserve">6.21280479431152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50806665420532</t>
+    <t xml:space="preserve">6.50806617736816</t>
   </si>
   <si>
     <t xml:space="preserve">6.56342887878418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39119243621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61879014968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60648727416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55112600326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6556978225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69260549545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63724374771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6249418258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45885705947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57573127746582</t>
+    <t xml:space="preserve">6.39119148254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61878967285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60648775100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55112552642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65569734573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69260597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6372447013855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62494087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45885753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57573080062866</t>
   </si>
   <si>
     <t xml:space="preserve">6.6680006980896</t>
@@ -1136,49 +1136,49 @@
     <t xml:space="preserve">6.81563091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9509596824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88944673538208</t>
+    <t xml:space="preserve">6.95096015930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88944721221924</t>
   </si>
   <si>
     <t xml:space="preserve">6.70490789413452</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28046846389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02826595306396</t>
+    <t xml:space="preserve">6.28046894073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02826642990112</t>
   </si>
   <si>
     <t xml:space="preserve">5.96675300598145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00981187820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87756013870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93599700927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01903867721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92984533309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92369318008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05902242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06517362594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16359376907349</t>
+    <t xml:space="preserve">6.00981283187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87755918502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93599605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01903963088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92984580993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92369365692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05902290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0651741027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1635947227478</t>
   </si>
   <si>
     <t xml:space="preserve">6.13283777236938</t>
@@ -1187,10 +1187,10 @@
     <t xml:space="preserve">5.96060180664062</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90524005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99750900268555</t>
+    <t xml:space="preserve">5.90523958206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99750947952271</t>
   </si>
   <si>
     <t xml:space="preserve">5.9544506072998</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">5.88063526153564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89293718338013</t>
+    <t xml:space="preserve">5.89293766021729</t>
   </si>
   <si>
     <t xml:space="preserve">5.85602951049805</t>
@@ -1211,28 +1211,28 @@
     <t xml:space="preserve">5.64688634872437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52385950088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33316946029663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49310398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21014404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08711814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17323637008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03790807723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01945400238037</t>
+    <t xml:space="preserve">5.52385997772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33316993713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49310350418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21014451980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08711767196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17323684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03790760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01945447921753</t>
   </si>
   <si>
     <t xml:space="preserve">5.32086753845215</t>
@@ -1244,28 +1244,28 @@
     <t xml:space="preserve">4.9597864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87059307098389</t>
+    <t xml:space="preserve">4.87059259414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.74633693695068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63192367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6226954460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68728446960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82568836212158</t>
+    <t xml:space="preserve">4.63192319869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62269592285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68728494644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82568788528442</t>
   </si>
   <si>
     <t xml:space="preserve">4.82937908172607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71188974380493</t>
+    <t xml:space="preserve">4.71188926696777</t>
   </si>
   <si>
     <t xml:space="preserve">4.65283679962158</t>
@@ -1274,19 +1274,19 @@
     <t xml:space="preserve">4.66821527481079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56425809860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51873874664307</t>
+    <t xml:space="preserve">4.56425857543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51873826980591</t>
   </si>
   <si>
     <t xml:space="preserve">4.44738388061523</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63991928100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61900520324707</t>
+    <t xml:space="preserve">4.63991975784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61900472640991</t>
   </si>
   <si>
     <t xml:space="preserve">4.59501504898071</t>
@@ -1301,40 +1301,40 @@
     <t xml:space="preserve">4.73106288909912</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81509733200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27894020080566</t>
+    <t xml:space="preserve">4.81509685516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27893972396851</t>
   </si>
   <si>
     <t xml:space="preserve">5.02088165283203</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12807559967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32128763198853</t>
+    <t xml:space="preserve">5.12807512283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32128810882568</t>
   </si>
   <si>
     <t xml:space="preserve">5.53170442581177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46487379074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35635757446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18564176559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14130878448486</t>
+    <t xml:space="preserve">5.46487331390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35635709762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18564224243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14130926132202</t>
   </si>
   <si>
     <t xml:space="preserve">5.22666645050049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16115999221802</t>
+    <t xml:space="preserve">5.16115951538086</t>
   </si>
   <si>
     <t xml:space="preserve">5.11550331115723</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">5.18895053863525</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19953727722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1876277923584</t>
+    <t xml:space="preserve">5.19953680038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18762683868408</t>
   </si>
   <si>
     <t xml:space="preserve">5.26041269302368</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">5.2140941619873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19424343109131</t>
+    <t xml:space="preserve">5.19424390792847</t>
   </si>
   <si>
     <t xml:space="preserve">5.29349708557129</t>
@@ -1379,19 +1379,19 @@
     <t xml:space="preserve">5.2339448928833</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24453258514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42583417892456</t>
+    <t xml:space="preserve">5.24453210830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42583465576172</t>
   </si>
   <si>
     <t xml:space="preserve">5.31864166259766</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15057277679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92890739440918</t>
+    <t xml:space="preserve">5.15057229995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92890691757202</t>
   </si>
   <si>
     <t xml:space="preserve">5.00169324874878</t>
@@ -1409,25 +1409,25 @@
     <t xml:space="preserve">4.82369947433472</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70790386199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47631311416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73172473907471</t>
+    <t xml:space="preserve">4.70790338516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47631359100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73172426223755</t>
   </si>
   <si>
     <t xml:space="preserve">4.81311225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79061412811279</t>
+    <t xml:space="preserve">4.79061460494995</t>
   </si>
   <si>
     <t xml:space="preserve">4.89251470565796</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98581218719482</t>
+    <t xml:space="preserve">4.98581266403198</t>
   </si>
   <si>
     <t xml:space="preserve">4.9593448638916</t>
@@ -1436,19 +1436,19 @@
     <t xml:space="preserve">4.84553480148315</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74495840072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0422739982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16319131851196</t>
+    <t xml:space="preserve">4.74495792388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04227447509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16319179534912</t>
   </si>
   <si>
     <t xml:space="preserve">5.05792236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15607881546021</t>
+    <t xml:space="preserve">5.15607929229736</t>
   </si>
   <si>
     <t xml:space="preserve">5.20515727996826</t>
@@ -1457,25 +1457,25 @@
     <t xml:space="preserve">4.95905447006226</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96047687530518</t>
+    <t xml:space="preserve">4.96047639846802</t>
   </si>
   <si>
     <t xml:space="preserve">4.92491245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90997505187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02875995635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95549774169922</t>
+    <t xml:space="preserve">4.90997552871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02875947952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95549726486206</t>
   </si>
   <si>
     <t xml:space="preserve">4.97897005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89005994796753</t>
+    <t xml:space="preserve">4.89005947113037</t>
   </si>
   <si>
     <t xml:space="preserve">4.93629312515259</t>
@@ -1496,10 +1496,10 @@
     <t xml:space="preserve">5.08566236495972</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14967679977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13900804519653</t>
+    <t xml:space="preserve">5.14967727661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13900852203369</t>
   </si>
   <si>
     <t xml:space="preserve">4.99319553375244</t>
@@ -1508,16 +1508,16 @@
     <t xml:space="preserve">5.01737880706787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02804851531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06859159469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10486650466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16390323638916</t>
+    <t xml:space="preserve">5.02804803848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06859111785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10486698150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16390371322632</t>
   </si>
   <si>
     <t xml:space="preserve">5.22862958908081</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">5.15679025650024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01951313018799</t>
+    <t xml:space="preserve">5.01951360702515</t>
   </si>
   <si>
     <t xml:space="preserve">5.07214784622192</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">5.08637380599976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00030899047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92989158630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92277908325195</t>
+    <t xml:space="preserve">5.0003080368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92989206314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92277860641479</t>
   </si>
   <si>
     <t xml:space="preserve">4.91424322128296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83173513412476</t>
+    <t xml:space="preserve">4.8317346572876</t>
   </si>
   <si>
     <t xml:space="preserve">4.73926830291748</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">4.61692762374878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63684320449829</t>
+    <t xml:space="preserve">4.63684368133545</t>
   </si>
   <si>
     <t xml:space="preserve">4.67525291442871</t>
@@ -1589,22 +1589,22 @@
     <t xml:space="preserve">4.75633859634399</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68592214584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69445705413818</t>
+    <t xml:space="preserve">4.68592166900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69445753097534</t>
   </si>
   <si>
     <t xml:space="preserve">4.73713397979736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70868349075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73002147674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7093939781189</t>
+    <t xml:space="preserve">4.70868253707886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73002099990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70939350128174</t>
   </si>
   <si>
     <t xml:space="preserve">4.66173839569092</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">4.64537906646729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667531967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67454099655151</t>
+    <t xml:space="preserve">4.67667484283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67454195022583</t>
   </si>
   <si>
     <t xml:space="preserve">4.68663358688354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66600561141968</t>
+    <t xml:space="preserve">4.66600608825684</t>
   </si>
   <si>
     <t xml:space="preserve">4.68094301223755</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">4.94909620285034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8260440826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81466388702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8651647567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89361619949341</t>
+    <t xml:space="preserve">4.82604455947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81466341018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86516523361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89361667633057</t>
   </si>
   <si>
     <t xml:space="preserve">4.87298917770386</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">4.80683946609497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79332494735718</t>
+    <t xml:space="preserve">4.79332590103149</t>
   </si>
   <si>
     <t xml:space="preserve">4.7072606086731</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66387271881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56784963607788</t>
+    <t xml:space="preserve">4.66387224197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56784915924072</t>
   </si>
   <si>
     <t xml:space="preserve">4.5799412727356</t>
@@ -1676,10 +1676,10 @@
     <t xml:space="preserve">4.55220079421997</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48178386688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36797904968262</t>
+    <t xml:space="preserve">4.48178482055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36797952651978</t>
   </si>
   <si>
     <t xml:space="preserve">4.34948587417603</t>
@@ -1700,16 +1700,16 @@
     <t xml:space="preserve">4.19940519332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23852634429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18944692611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19300413131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24635028839111</t>
+    <t xml:space="preserve">4.23852586746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1894474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19300365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24634981155396</t>
   </si>
   <si>
     <t xml:space="preserve">4.23212432861328</t>
@@ -1721,16 +1721,16 @@
     <t xml:space="preserve">4.27408981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36513423919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43341684341431</t>
+    <t xml:space="preserve">4.36513376235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43341732025146</t>
   </si>
   <si>
     <t xml:space="preserve">4.44550895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43768501281738</t>
+    <t xml:space="preserve">4.43768453598022</t>
   </si>
   <si>
     <t xml:space="preserve">4.3665566444397</t>
@@ -1742,22 +1742,22 @@
     <t xml:space="preserve">4.51663684844971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42345905303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37082433700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33952760696411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2698221206665</t>
+    <t xml:space="preserve">4.42345857620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37082386016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33952808380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26982259750366</t>
   </si>
   <si>
     <t xml:space="preserve">4.29542875289917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27764654159546</t>
+    <t xml:space="preserve">4.2776460647583</t>
   </si>
   <si>
     <t xml:space="preserve">4.23283576965332</t>
@@ -1769,34 +1769,34 @@
     <t xml:space="preserve">4.17379903793335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19442653656006</t>
+    <t xml:space="preserve">4.19442701339722</t>
   </si>
   <si>
     <t xml:space="preserve">4.28831577301025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36940240859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38149309158325</t>
+    <t xml:space="preserve">4.3694019317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38149356842041</t>
   </si>
   <si>
     <t xml:space="preserve">4.34379577636719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33312606811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25559616088867</t>
+    <t xml:space="preserve">4.33312654495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25559711456299</t>
   </si>
   <si>
     <t xml:space="preserve">4.18375730514526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16810894012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13041114807129</t>
+    <t xml:space="preserve">4.16810941696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13041162490845</t>
   </si>
   <si>
     <t xml:space="preserve">4.13681268692017</t>
@@ -1805,13 +1805,13 @@
     <t xml:space="preserve">4.09982585906982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0208740234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11974143981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04007863998413</t>
+    <t xml:space="preserve">4.02087354660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11974191665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04007816314697</t>
   </si>
   <si>
     <t xml:space="preserve">4.00735950469971</t>
@@ -1823,70 +1823,70 @@
     <t xml:space="preserve">3.83807468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82242655754089</t>
+    <t xml:space="preserve">3.82242631912231</t>
   </si>
   <si>
     <t xml:space="preserve">3.86225771903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85727882385254</t>
+    <t xml:space="preserve">3.85727906227112</t>
   </si>
   <si>
     <t xml:space="preserve">3.77477049827576</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82811641693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96325969696045</t>
+    <t xml:space="preserve">3.82811665534973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96326017379761</t>
   </si>
   <si>
     <t xml:space="preserve">4.03438806533813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13112258911133</t>
+    <t xml:space="preserve">4.13112211227417</t>
   </si>
   <si>
     <t xml:space="preserve">4.11547422409058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20296144485474</t>
+    <t xml:space="preserve">4.20296239852905</t>
   </si>
   <si>
     <t xml:space="preserve">4.18802499771118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20794105529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1823353767395</t>
+    <t xml:space="preserve">4.20794057846069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18233489990234</t>
   </si>
   <si>
     <t xml:space="preserve">4.13325595855713</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09129095077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18020057678223</t>
+    <t xml:space="preserve">4.09129047393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18020105361938</t>
   </si>
   <si>
     <t xml:space="preserve">4.16028499603271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1979832649231</t>
+    <t xml:space="preserve">4.19798231124878</t>
   </si>
   <si>
     <t xml:space="preserve">4.15174961090088</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10693883895874</t>
+    <t xml:space="preserve">4.1069393157959</t>
   </si>
   <si>
     <t xml:space="preserve">4.21220827102661</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25986480712891</t>
+    <t xml:space="preserve">4.25986433029175</t>
   </si>
   <si>
     <t xml:space="preserve">4.37366962432861</t>
@@ -1898,19 +1898,19 @@
     <t xml:space="preserve">4.43697357177734</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43839597702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.397141456604</t>
+    <t xml:space="preserve">4.43839550018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39714193344116</t>
   </si>
   <si>
     <t xml:space="preserve">4.39571905136108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41705703735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40994501113892</t>
+    <t xml:space="preserve">4.41705751419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4099440574646</t>
   </si>
   <si>
     <t xml:space="preserve">4.38860654830933</t>
@@ -1925,19 +1925,19 @@
     <t xml:space="preserve">4.2676887512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23070240020752</t>
+    <t xml:space="preserve">4.23070192337036</t>
   </si>
   <si>
     <t xml:space="preserve">4.27480125427246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31534433364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38433837890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36726808547974</t>
+    <t xml:space="preserve">4.31534481048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38433885574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36726760864258</t>
   </si>
   <si>
     <t xml:space="preserve">4.36442279815674</t>
@@ -1949,28 +1949,28 @@
     <t xml:space="preserve">4.30680894851685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43270540237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49458694458008</t>
+    <t xml:space="preserve">4.43270587921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49458742141724</t>
   </si>
   <si>
     <t xml:space="preserve">4.40069818496704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48676300048828</t>
+    <t xml:space="preserve">4.48676347732544</t>
   </si>
   <si>
     <t xml:space="preserve">4.5251727104187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65889310836792</t>
+    <t xml:space="preserve">4.65889406204224</t>
   </si>
   <si>
     <t xml:space="preserve">4.73215532302856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63044214248657</t>
+    <t xml:space="preserve">4.63044261932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.59487819671631</t>
@@ -1979,37 +1979,37 @@
     <t xml:space="preserve">4.60199069976807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71366214752197</t>
+    <t xml:space="preserve">4.71366167068481</t>
   </si>
   <si>
     <t xml:space="preserve">4.73571157455444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76843070983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82248830795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76558494567871</t>
+    <t xml:space="preserve">4.76843023300171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82248783111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76558542251587</t>
   </si>
   <si>
     <t xml:space="preserve">4.72859859466553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72931051254272</t>
+    <t xml:space="preserve">4.72931003570557</t>
   </si>
   <si>
     <t xml:space="preserve">4.663161277771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61123752593994</t>
+    <t xml:space="preserve">4.61123704910278</t>
   </si>
   <si>
     <t xml:space="preserve">4.57211685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6162166595459</t>
+    <t xml:space="preserve">4.61621618270874</t>
   </si>
   <si>
     <t xml:space="preserve">4.58065223693848</t>
@@ -2027,22 +2027,22 @@
     <t xml:space="preserve">4.74424695968628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60910367965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63755512237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68734455108643</t>
+    <t xml:space="preserve">4.60910320281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63755464553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68734502792358</t>
   </si>
   <si>
     <t xml:space="preserve">4.72290849685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75847291946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80114936828613</t>
+    <t xml:space="preserve">4.75847244262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80114984512329</t>
   </si>
   <si>
     <t xml:space="preserve">4.77269840240479</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">4.87939071655273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81537532806396</t>
+    <t xml:space="preserve">4.81537485122681</t>
   </si>
   <si>
     <t xml:space="preserve">4.65178060531616</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">4.70926475524902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77082395553589</t>
+    <t xml:space="preserve">4.77082347869873</t>
   </si>
   <si>
     <t xml:space="preserve">4.76312923431396</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">4.78621339797974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85546779632568</t>
+    <t xml:space="preserve">4.85546731948853</t>
   </si>
   <si>
     <t xml:space="preserve">4.90163707733154</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">4.79390859603882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81699323654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74773931503296</t>
+    <t xml:space="preserve">4.81699371337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74773979187012</t>
   </si>
   <si>
     <t xml:space="preserve">4.67079067230225</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">4.73234987258911</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72465467453003</t>
+    <t xml:space="preserve">4.72465419769287</t>
   </si>
   <si>
     <t xml:space="preserve">4.71695995330811</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">4.80160331726074</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74004459381104</t>
+    <t xml:space="preserve">4.74004411697388</t>
   </si>
   <si>
     <t xml:space="preserve">4.68618059158325</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">4.60153675079346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53228282928467</t>
+    <t xml:space="preserve">4.53228235244751</t>
   </si>
   <si>
     <t xml:space="preserve">4.57845211029053</t>
@@ -2159,13 +2159,13 @@
     <t xml:space="preserve">4.64001131057739</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58614683151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5553674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53997755050659</t>
+    <t xml:space="preserve">4.58614730834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55536794662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53997802734375</t>
   </si>
   <si>
     <t xml:space="preserve">4.54767227172852</t>
@@ -2198,10 +2198,10 @@
     <t xml:space="preserve">4.07059049606323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03981113433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.093674659729</t>
+    <t xml:space="preserve">4.03981065750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09367513656616</t>
   </si>
   <si>
     <t xml:space="preserve">4.03211545944214</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">4.07828521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11675977706909</t>
+    <t xml:space="preserve">4.11675930023193</t>
   </si>
   <si>
     <t xml:space="preserve">4.10906457901001</t>
@@ -2225,16 +2225,16 @@
     <t xml:space="preserve">4.18601322174072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20909786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23987770080566</t>
+    <t xml:space="preserve">4.20909738540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23987722396851</t>
   </si>
   <si>
     <t xml:space="preserve">4.30913114547729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33221626281738</t>
+    <t xml:space="preserve">4.33221578598022</t>
   </si>
   <si>
     <t xml:space="preserve">4.3245210647583</t>
@@ -2246,10 +2246,10 @@
     <t xml:space="preserve">4.25526714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28604698181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27065706253052</t>
+    <t xml:space="preserve">4.28604650497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27065658569336</t>
   </si>
   <si>
     <t xml:space="preserve">4.30143642425537</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">4.37838506698608</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38607978820801</t>
+    <t xml:space="preserve">4.38608026504517</t>
   </si>
   <si>
     <t xml:space="preserve">4.41685962677002</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">4.43994426727295</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4091649055481</t>
+    <t xml:space="preserve">4.40916442871094</t>
   </si>
   <si>
     <t xml:space="preserve">4.42455434799194</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">4.43224954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56306219100952</t>
+    <t xml:space="preserve">4.56306171417236</t>
   </si>
   <si>
     <t xml:space="preserve">4.59384155273438</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">4.2244873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20140314102173</t>
+    <t xml:space="preserve">4.20140266418457</t>
   </si>
   <si>
     <t xml:space="preserve">4.10136985778809</t>
@@ -2348,13 +2348,13 @@
     <t xml:space="preserve">3.60120272636414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50116944313049</t>
+    <t xml:space="preserve">3.50116920471191</t>
   </si>
   <si>
     <t xml:space="preserve">3.49347448348999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81247758865356</t>
+    <t xml:space="preserve">2.81247782707214</t>
   </si>
   <si>
     <t xml:space="preserve">2.85864686965942</t>
@@ -2381,16 +2381,16 @@
     <t xml:space="preserve">2.98561239242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90481615066528</t>
+    <t xml:space="preserve">2.90481638908386</t>
   </si>
   <si>
     <t xml:space="preserve">2.93174815177917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92405319213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77785062789917</t>
+    <t xml:space="preserve">2.92405343055725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77785086631775</t>
   </si>
   <si>
     <t xml:space="preserve">2.88557887077332</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">2.90096855163574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84710454940796</t>
+    <t xml:space="preserve">2.84710478782654</t>
   </si>
   <si>
     <t xml:space="preserve">2.79324078559875</t>
@@ -2408,19 +2408,19 @@
     <t xml:space="preserve">2.8086302280426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86249423027039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83171486854553</t>
+    <t xml:space="preserve">2.86249446868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83171463012695</t>
   </si>
   <si>
     <t xml:space="preserve">2.78939294815063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69320726394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75476622581482</t>
+    <t xml:space="preserve">2.69320702552795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75476598739624</t>
   </si>
   <si>
     <t xml:space="preserve">2.78554558753967</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">2.72013902664185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71629166603088</t>
+    <t xml:space="preserve">2.71629190444946</t>
   </si>
   <si>
     <t xml:space="preserve">2.73168158531189</t>
@@ -2441,13 +2441,13 @@
     <t xml:space="preserve">2.70474934577942</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69705438613892</t>
+    <t xml:space="preserve">2.6970546245575</t>
   </si>
   <si>
     <t xml:space="preserve">2.72398662567139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68166446685791</t>
+    <t xml:space="preserve">2.68166470527649</t>
   </si>
   <si>
     <t xml:space="preserve">2.64319014549255</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">2.53930950164795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5085301399231</t>
+    <t xml:space="preserve">2.50852990150452</t>
   </si>
   <si>
     <t xml:space="preserve">2.47775053977966</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">2.48544549942017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55469918251038</t>
+    <t xml:space="preserve">2.55469942092896</t>
   </si>
   <si>
     <t xml:space="preserve">2.42003893852234</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">2.33539533615112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53161478042603</t>
+    <t xml:space="preserve">2.53161454200745</t>
   </si>
   <si>
     <t xml:space="preserve">2.4662082195282</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">2.49698758125305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52391982078552</t>
+    <t xml:space="preserve">2.52391958236694</t>
   </si>
   <si>
     <t xml:space="preserve">2.60086870193481</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">2.70859694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87403678894043</t>
+    <t xml:space="preserve">2.87403655052185</t>
   </si>
   <si>
     <t xml:space="preserve">3.01639199256897</t>
@@ -2522,13 +2522,13 @@
     <t xml:space="preserve">2.61625838279724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59702086448669</t>
+    <t xml:space="preserve">2.59702110290527</t>
   </si>
   <si>
     <t xml:space="preserve">2.67396974563599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6701226234436</t>
+    <t xml:space="preserve">2.67012238502502</t>
   </si>
   <si>
     <t xml:space="preserve">2.68935942649841</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">2.75324726104736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72037267684937</t>
+    <t xml:space="preserve">2.72037291526794</t>
   </si>
   <si>
     <t xml:space="preserve">2.66284227371216</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">2.60531187057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54778099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53956246376038</t>
+    <t xml:space="preserve">2.54778122901917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5395622253418</t>
   </si>
   <si>
     <t xml:space="preserve">2.51079726219177</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">2.57243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60120224952698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56832766532898</t>
+    <t xml:space="preserve">2.60120248794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56832790374756</t>
   </si>
   <si>
     <t xml:space="preserve">2.52312517166138</t>
@@ -2627,10 +2627,10 @@
     <t xml:space="preserve">2.46559476852417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47792291641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4121732711792</t>
+    <t xml:space="preserve">2.47792267799377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41217350959778</t>
   </si>
   <si>
     <t xml:space="preserve">2.45326662063599</t>
@@ -2645,22 +2645,22 @@
     <t xml:space="preserve">2.53134369850159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58887434005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65462374687195</t>
+    <t xml:space="preserve">2.58887457847595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65462350845337</t>
   </si>
   <si>
     <t xml:space="preserve">2.60942101478577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38340830802917</t>
+    <t xml:space="preserve">2.3834080696106</t>
   </si>
   <si>
     <t xml:space="preserve">2.3628613948822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38751745223999</t>
+    <t xml:space="preserve">2.38751769065857</t>
   </si>
   <si>
     <t xml:space="preserve">2.36697101593018</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">2.03411555290222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04644370079041</t>
+    <t xml:space="preserve">2.04644346237183</t>
   </si>
   <si>
     <t xml:space="preserve">2.05055284500122</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">2.157395362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16561412811279</t>
+    <t xml:space="preserve">2.16561388969421</t>
   </si>
   <si>
     <t xml:space="preserve">2.15328598022461</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">2.90940165519714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86830854415894</t>
+    <t xml:space="preserve">2.86830830574036</t>
   </si>
   <si>
     <t xml:space="preserve">2.83543395996094</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">2.96282291412354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94638586044312</t>
+    <t xml:space="preserve">2.94638562202454</t>
   </si>
   <si>
     <t xml:space="preserve">2.95460438728333</t>
@@ -2753,13 +2753,13 @@
     <t xml:space="preserve">2.88063645362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97104144096375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95049476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03679060935974</t>
+    <t xml:space="preserve">2.97104167938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95049500465393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03679084777832</t>
   </si>
   <si>
     <t xml:space="preserve">3.06555604934692</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">3.01213479042053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87652707099915</t>
+    <t xml:space="preserve">2.87652730941772</t>
   </si>
   <si>
     <t xml:space="preserve">2.92994832992554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04911875724792</t>
+    <t xml:space="preserve">3.0491189956665</t>
   </si>
   <si>
     <t xml:space="preserve">3.08199334144592</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">2.92583894729614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00391626358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04090023040771</t>
+    <t xml:space="preserve">3.00391602516174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04089999198914</t>
   </si>
   <si>
     <t xml:space="preserve">3.04500937461853</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05733728408813</t>
+    <t xml:space="preserve">3.05733752250671</t>
   </si>
   <si>
     <t xml:space="preserve">3.07788395881653</t>
@@ -2819,13 +2819,13 @@
     <t xml:space="preserve">3.10254001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06966519355774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98747897148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90118288993835</t>
+    <t xml:space="preserve">3.06966543197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98747873306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90118312835693</t>
   </si>
   <si>
     <t xml:space="preserve">2.92172980308533</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">3.00802540779114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02446293830872</t>
+    <t xml:space="preserve">3.02446269989014</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610272407532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12719583511353</t>
+    <t xml:space="preserve">3.1271960735321</t>
   </si>
   <si>
     <t xml:space="preserve">3.15185189247131</t>
@@ -2858,22 +2858,22 @@
     <t xml:space="preserve">3.2874596118927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1600706577301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22581958770752</t>
+    <t xml:space="preserve">3.16007041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2258198261261</t>
   </si>
   <si>
     <t xml:space="preserve">3.14774250984192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21349167823792</t>
+    <t xml:space="preserve">3.21349191665649</t>
   </si>
   <si>
     <t xml:space="preserve">3.13130521774292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17239856719971</t>
+    <t xml:space="preserve">3.17239832878113</t>
   </si>
   <si>
     <t xml:space="preserve">3.17650771141052</t>
@@ -2909,22 +2909,22 @@
     <t xml:space="preserve">2.81899666786194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84776186943054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91351103782654</t>
+    <t xml:space="preserve">2.84776163101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91351127624512</t>
   </si>
   <si>
     <t xml:space="preserve">3.09843063354492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26280355453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18061709403992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24636626243591</t>
+    <t xml:space="preserve">3.26280379295349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18061685562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24636650085449</t>
   </si>
   <si>
     <t xml:space="preserve">3.18883585929871</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">3.3655366897583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38197374343872</t>
+    <t xml:space="preserve">3.3819739818573</t>
   </si>
   <si>
     <t xml:space="preserve">3.41484880447388</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">3.44361400604248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51347255706787</t>
+    <t xml:space="preserve">3.51347231864929</t>
   </si>
   <si>
     <t xml:space="preserve">3.38608336448669</t>
@@ -2963,25 +2963,25 @@
     <t xml:space="preserve">3.40663003921509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3490993976593</t>
+    <t xml:space="preserve">3.34909915924072</t>
   </si>
   <si>
     <t xml:space="preserve">3.34499025344849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32033395767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36964583396912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3162248134613</t>
+    <t xml:space="preserve">3.3203341960907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3696460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31622457504272</t>
   </si>
   <si>
     <t xml:space="preserve">3.32444357872009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3367714881897</t>
+    <t xml:space="preserve">3.33677124977112</t>
   </si>
   <si>
     <t xml:space="preserve">3.30800628662109</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">3.31211566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37786483764648</t>
+    <t xml:space="preserve">3.37786459922791</t>
   </si>
   <si>
     <t xml:space="preserve">3.43128609657288</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">3.46005129814148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52990984916687</t>
+    <t xml:space="preserve">3.52990961074829</t>
   </si>
   <si>
     <t xml:space="preserve">3.5258002281189</t>
@@ -3011,25 +3011,25 @@
     <t xml:space="preserve">3.68195462226868</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79701566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81756258010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82167172431946</t>
+    <t xml:space="preserve">3.79701590538025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81756234169006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82167196273804</t>
   </si>
   <si>
     <t xml:space="preserve">3.79290628433228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76414132118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64086151123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57511210441589</t>
+    <t xml:space="preserve">3.76414084434509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64086127281189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57511234283447</t>
   </si>
   <si>
     <t xml:space="preserve">3.64497065544128</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">3.5710027217865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55867481231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45594191551208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35731816291809</t>
+    <t xml:space="preserve">3.55867505073547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45594167709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35731792449951</t>
   </si>
   <si>
     <t xml:space="preserve">3.37375545501709</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">3.45183229446411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43950438499451</t>
+    <t xml:space="preserve">3.43950462341309</t>
   </si>
   <si>
     <t xml:space="preserve">3.33266186714172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41895771026611</t>
+    <t xml:space="preserve">3.41895794868469</t>
   </si>
   <si>
     <t xml:space="preserve">3.39430212974548</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">3.19294500350952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2997875213623</t>
+    <t xml:space="preserve">3.29978728294373</t>
   </si>
   <si>
     <t xml:space="preserve">3.36142754554749</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">3.3038969039917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39019250869751</t>
+    <t xml:space="preserve">3.39019274711609</t>
   </si>
   <si>
     <t xml:space="preserve">3.48059797286987</t>
@@ -3095,22 +3095,22 @@
     <t xml:space="preserve">3.4888162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3532087802887</t>
+    <t xml:space="preserve">3.35320854187012</t>
   </si>
   <si>
     <t xml:space="preserve">3.25869417190552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23403811454773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20116376876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1970546245575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27924108505249</t>
+    <t xml:space="preserve">3.23403835296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20116353034973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19705438613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27924084663391</t>
   </si>
   <si>
     <t xml:space="preserve">3.2710223197937</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">2.99569749832153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12308669090271</t>
+    <t xml:space="preserve">3.12308645248413</t>
   </si>
   <si>
     <t xml:space="preserve">3.42717671394348</t>
@@ -3146,16 +3146,16 @@
     <t xml:space="preserve">3.29156899452209</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28334999084473</t>
+    <t xml:space="preserve">3.28335022926331</t>
   </si>
   <si>
     <t xml:space="preserve">3.34088087081909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1436333656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10664916038513</t>
+    <t xml:space="preserve">3.14363312721252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10664939880371</t>
   </si>
   <si>
     <t xml:space="preserve">3.11486792564392</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">3.02857208251953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89296436309814</t>
+    <t xml:space="preserve">2.89296460151672</t>
   </si>
   <si>
     <t xml:space="preserve">2.97926020622253</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">3.39841151237488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4764883518219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49292588233948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48470711708069</t>
+    <t xml:space="preserve">3.47648859024048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4929256439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48470687866211</t>
   </si>
   <si>
     <t xml:space="preserve">3.65318965911865</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">3.46416068077087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47237920761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43539524078369</t>
+    <t xml:space="preserve">3.4723789691925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43539500236511</t>
   </si>
   <si>
     <t xml:space="preserve">3.51758193969727</t>
@@ -3233,28 +3233,28 @@
     <t xml:space="preserve">3.60798668861389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59154963493347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66551756858826</t>
+    <t xml:space="preserve">3.59154939651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66551733016968</t>
   </si>
   <si>
     <t xml:space="preserve">3.66962695121765</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67373561859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75592279434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71482944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80112528800964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73537588119507</t>
+    <t xml:space="preserve">3.67373585700989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75592255592346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71482920646667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80112504959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73537611961365</t>
   </si>
   <si>
     <t xml:space="preserve">3.74770379066467</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">3.80523467063904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646923065186</t>
+    <t xml:space="preserve">3.77646899223328</t>
   </si>
   <si>
     <t xml:space="preserve">3.74359440803528</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">3.76003170013428</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71071982383728</t>
+    <t xml:space="preserve">3.71072006225586</t>
   </si>
   <si>
     <t xml:space="preserve">3.66140794754028</t>
@@ -8394,7 +8394,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G144" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8420,7 +8420,7 @@
         <v>7.24187612533569</v>
       </c>
       <c r="G145" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8472,7 +8472,7 @@
         <v>7.33019208908081</v>
       </c>
       <c r="G147" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8498,7 +8498,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G148" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8524,7 +8524,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G149" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8550,7 +8550,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G150" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8602,7 +8602,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G152" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8628,7 +8628,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8654,7 +8654,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8680,7 +8680,7 @@
         <v>7.07918977737427</v>
       </c>
       <c r="G155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8706,7 +8706,7 @@
         <v>7.05130100250244</v>
       </c>
       <c r="G156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8732,7 +8732,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G157" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8758,7 +8758,7 @@
         <v>7.13032007217407</v>
       </c>
       <c r="G158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8784,7 +8784,7 @@
         <v>7.04200410842896</v>
       </c>
       <c r="G159" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8810,7 +8810,7 @@
         <v>7.0048189163208</v>
       </c>
       <c r="G160" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8836,7 +8836,7 @@
         <v>6.93509578704834</v>
       </c>
       <c r="G161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8862,7 +8862,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8888,7 +8888,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8914,7 +8914,7 @@
         <v>6.78170585632324</v>
       </c>
       <c r="G164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8940,7 +8940,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8966,7 +8966,7 @@
         <v>6.88396596908569</v>
       </c>
       <c r="G166" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8992,7 +8992,7 @@
         <v>6.87002086639404</v>
       </c>
       <c r="G167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -9018,7 +9018,7 @@
         <v>6.83283615112305</v>
       </c>
       <c r="G168" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9044,7 +9044,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -9070,7 +9070,7 @@
         <v>6.77705812454224</v>
       </c>
       <c r="G170" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9096,7 +9096,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9122,7 +9122,7 @@
         <v>6.71198320388794</v>
       </c>
       <c r="G172" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9148,7 +9148,7 @@
         <v>6.64690780639648</v>
       </c>
       <c r="G173" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9174,7 +9174,7 @@
         <v>6.79565000534058</v>
       </c>
       <c r="G174" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9200,7 +9200,7 @@
         <v>6.69803810119629</v>
       </c>
       <c r="G175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9252,7 +9252,7 @@
         <v>6.74916791915894</v>
       </c>
       <c r="G177" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9278,7 +9278,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G178" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9304,7 +9304,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G179" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9330,7 +9330,7 @@
         <v>6.242516040802</v>
       </c>
       <c r="G180" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9382,7 +9382,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G182" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9408,7 +9408,7 @@
         <v>6.09842205047607</v>
       </c>
       <c r="G183" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9434,7 +9434,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G184" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9460,7 +9460,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G185" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9486,7 +9486,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G186" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9512,7 +9512,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G187" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9538,7 +9538,7 @@
         <v>6.17744112014771</v>
       </c>
       <c r="G188" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9564,7 +9564,7 @@
         <v>6.13095903396606</v>
       </c>
       <c r="G189" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9616,7 +9616,7 @@
         <v>6.26575708389282</v>
       </c>
       <c r="G191" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9668,7 +9668,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G193" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9694,7 +9694,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G194" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9720,7 +9720,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G195" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9746,7 +9746,7 @@
         <v>6.11236715316772</v>
       </c>
       <c r="G196" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9772,7 +9772,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G197" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9798,7 +9798,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G198" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9824,7 +9824,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G199" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9850,7 +9850,7 @@
         <v>6.02405118942261</v>
       </c>
       <c r="G200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9876,7 +9876,7 @@
         <v>5.99616193771362</v>
       </c>
       <c r="G201" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9902,7 +9902,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9928,7 +9928,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G203" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9954,7 +9954,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G204" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9980,7 +9980,7 @@
         <v>6.20532989501953</v>
       </c>
       <c r="G205" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10006,7 +10006,7 @@
         <v>6.45633316040039</v>
       </c>
       <c r="G206" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10032,7 +10032,7 @@
         <v>6.56324100494385</v>
       </c>
       <c r="G207" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10058,7 +10058,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G208" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10084,7 +10084,7 @@
         <v>6.63761186599731</v>
       </c>
       <c r="G209" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10136,7 +10136,7 @@
         <v>6.65155601501465</v>
       </c>
       <c r="G211" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10162,7 +10162,7 @@
         <v>6.600426197052</v>
       </c>
       <c r="G212" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10188,7 +10188,7 @@
         <v>6.52140712738037</v>
       </c>
       <c r="G213" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10240,7 +10240,7 @@
         <v>6.46562910079956</v>
       </c>
       <c r="G215" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10266,7 +10266,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G216" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10292,7 +10292,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10318,7 +10318,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G218" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10344,7 +10344,7 @@
         <v>6.36336898803711</v>
       </c>
       <c r="G219" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10370,7 +10370,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G220" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10396,7 +10396,7 @@
         <v>6.34477615356445</v>
       </c>
       <c r="G221" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10422,7 +10422,7 @@
         <v>6.29364585876465</v>
       </c>
       <c r="G222" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10448,7 +10448,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G223" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10474,7 +10474,7 @@
         <v>6.21462678909302</v>
       </c>
       <c r="G224" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10500,7 +10500,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G225" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10526,7 +10526,7 @@
         <v>6.06123685836792</v>
       </c>
       <c r="G226" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10552,7 +10552,7 @@
         <v>6.07053279876709</v>
       </c>
       <c r="G227" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10578,7 +10578,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G228" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10604,7 +10604,7 @@
         <v>5.74516010284424</v>
       </c>
       <c r="G229" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10630,7 +10630,7 @@
         <v>5.88460493087769</v>
       </c>
       <c r="G230" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10656,7 +10656,7 @@
         <v>5.92643880844116</v>
       </c>
       <c r="G231" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10682,7 +10682,7 @@
         <v>5.90784597396851</v>
       </c>
       <c r="G232" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10708,7 +10708,7 @@
         <v>5.78234481811523</v>
       </c>
       <c r="G233" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10734,7 +10734,7 @@
         <v>5.81023406982422</v>
       </c>
       <c r="G234" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10760,7 +10760,7 @@
         <v>5.81953096389771</v>
       </c>
       <c r="G235" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10786,7 +10786,7 @@
         <v>5.86601305007935</v>
       </c>
       <c r="G236" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10812,7 +10812,7 @@
         <v>5.85671615600586</v>
       </c>
       <c r="G237" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10838,7 +10838,7 @@
         <v>5.91249513626099</v>
       </c>
       <c r="G238" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10864,7 +10864,7 @@
         <v>5.83812379837036</v>
       </c>
       <c r="G239" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10890,7 +10890,7 @@
         <v>6.14490413665771</v>
       </c>
       <c r="G240" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10916,7 +10916,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G241" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10942,7 +10942,7 @@
         <v>6.3959059715271</v>
       </c>
       <c r="G242" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10968,7 +10968,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G243" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10994,7 +10994,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G244" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11046,7 +11046,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G246" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11124,7 +11124,7 @@
         <v>6.57718515396118</v>
       </c>
       <c r="G249" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11150,7 +11150,7 @@
         <v>6.53070402145386</v>
       </c>
       <c r="G250" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11176,7 +11176,7 @@
         <v>6.6655011177063</v>
       </c>
       <c r="G251" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11202,7 +11202,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G252" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11228,7 +11228,7 @@
         <v>6.67479705810547</v>
       </c>
       <c r="G253" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11254,7 +11254,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G254" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11280,7 +11280,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G255" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11306,7 +11306,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G256" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11332,7 +11332,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G257" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11358,7 +11358,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G258" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11436,7 +11436,7 @@
         <v>7.05594921112061</v>
       </c>
       <c r="G261" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11488,7 +11488,7 @@
         <v>6.91650295257568</v>
       </c>
       <c r="G263" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11514,7 +11514,7 @@
         <v>7.00946712493896</v>
       </c>
       <c r="G264" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11540,7 +11540,7 @@
         <v>7.02341079711914</v>
       </c>
       <c r="G265" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11592,7 +11592,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G267" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11618,7 +11618,7 @@
         <v>6.94903993606567</v>
       </c>
       <c r="G268" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11644,7 +11644,7 @@
         <v>6.88861417770386</v>
       </c>
       <c r="G269" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11878,7 +11878,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G278" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -12060,7 +12060,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G285" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12164,7 +12164,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G289" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12190,7 +12190,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G290" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12242,7 +12242,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G292" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12268,7 +12268,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G293" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12294,7 +12294,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G294" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12424,7 +12424,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G299" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12476,7 +12476,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G301" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12580,7 +12580,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G305" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12606,7 +12606,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G306" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12632,7 +12632,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G307" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12736,7 +12736,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G311" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -61884,7 +61884,7 @@
     </row>
     <row r="2202">
       <c r="A2202" s="1" t="n">
-        <v>45530.6496180556</v>
+        <v>45530.2916666667</v>
       </c>
       <c r="B2202" t="n">
         <v>98841</v>
@@ -61905,6 +61905,32 @@
         <v>1434</v>
       </c>
       <c r="H2202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="1" t="n">
+        <v>45531.6494444444</v>
+      </c>
+      <c r="B2203" t="n">
+        <v>263217</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>2.29999995231628</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>2.28500008583069</v>
+      </c>
+      <c r="G2203" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H2203" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="1436">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -53,628 +53,628 @@
     <t xml:space="preserve">4.92963266372681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80801725387573</t>
+    <t xml:space="preserve">4.80801773071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69488763809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72317028045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83347177505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70902919769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48276901245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30741834640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18580389022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73328447341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01610898971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0924711227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17731857299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11226940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08398675918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94540286064148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10095596313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21125793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05570459365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82378792762756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91712021827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57490253448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62015438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81813144683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69086074829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76439547538757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01893758773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954394340515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07267284393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00479555130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19994497299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14620876312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0896430015564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12358236312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12923908233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17166328430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19428777694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38660907745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35549783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5251932144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48559761047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.496910572052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48842620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58175849914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68357515335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66660594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61569738388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72882747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83629989624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76842164993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70620059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6383228302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49973917007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57327318191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57610130310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41206359863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40075063705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36963987350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37246704101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38378095626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47994089126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55347537994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46862745285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45448780059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489171981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47428464889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44034576416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41771984100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44317388534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5506477355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45731544494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53933382034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57892942428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49408292770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54216194152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45165824890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65023183822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73061370849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81099462509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85267448425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84076547622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85565185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82290315628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77526950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73359060287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79610919952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7901554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79313230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79908609390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72168207168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50137662887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2006893157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22450637817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08755970001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30488777160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34656715393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39420032501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42397165298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17389535903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954346656799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9774067401886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98931455612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37038326263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30191040039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15603303909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00122308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9684751033783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09946727752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19771242141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23343753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40313148498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55496454238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48351383209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67404842376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56984949111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60855150222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61152935028076</t>
   </si>
   <si>
     <t xml:space="preserve">4.6948881149292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7231707572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83347129821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70902919769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48276901245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30741882324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18580389022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73328447341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01610898971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09247159957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17731857299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11226892471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08398675918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94540333747864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10095596313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21125745773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05570411682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82378816604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91712021827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57490229606628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62015414237976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81813144683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69086074829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76439499855042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01893711090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954394340515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07267332077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00479555130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19994497299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1462082862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0896430015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12358236312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12923908233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17166233062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19428777694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38660955429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35549831390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52519273757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48559808731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49691009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48842573165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58175802230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68357515335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66660499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61569738388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72882747650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83629989624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76842164993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70620059967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63832330703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49973917007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57327270507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57610177993774</t>
+    <t xml:space="preserve">4.68595600128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64427757263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67107105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40610933303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54007863998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62046003341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53412389755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51626205444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56687307357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51030731201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48649120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44183444976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46267366409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3346586227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34358978271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36740684509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40908575057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40015411376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37633895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28702449798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34061336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31084203720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29893350601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25725364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35252094268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29000186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32275009155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21557474136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0786280632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99824619293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9297730922699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90595555305481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97145175933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87618494033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87916207313538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99229264259338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95656704902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92679595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01313209533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9416811466217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91488718986511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89404773712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85832214355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84046006202698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85236811637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97442889213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13519287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2036657333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25130033493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26023101806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22748327255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17687225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14114761352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11137580871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04885721206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0756516456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06076574325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06374263763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03099489212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98038339614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88214015960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88809323310852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67969632148743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76900935173035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7958025932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78389453887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70351338386536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72137594223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72732996940613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7571017742157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75114703178406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78687238693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73923873901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93572759628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09649038314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21259689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18282699584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26916265487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27511596679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26320886611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51923894882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42992639541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48946809768677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4983983039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48053598403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45076513290405</t>
   </si>
   <si>
     <t xml:space="preserve">4.41206312179565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40075063705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3696403503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37246799468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38378095626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47994089126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55347537994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46862840652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45448732376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51670837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47428417205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44034576416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41771984100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44317436218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55064725875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45731496810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53933382034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57893037796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4940824508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54216194152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45165872573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65023136138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73061370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81099462509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85267448425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84076595306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85565137863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82290267944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77526950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73358964920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79610919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7901554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79313182830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79908609390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72168254852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50137710571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20068883895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22450637817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08755970001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10839891433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30488777160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34656715393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39420080184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42397165298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17389535903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954346656799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97740721702576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98931503295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37038373947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30191040039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15603303909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00122261047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96847462654114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0994668006897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19771242141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23343801498413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40313148498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55496406555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48351430892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67404842376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56984949111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60855150222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61152935028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6859564781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64427709579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67107057571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40610980987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54007863998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62045955657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53412389755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51626205444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56687259674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51030778884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48649120330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44183397293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46267318725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3346586227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.343590259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36740636825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40908622741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40015506744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37633848190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.287024974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34061336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31084203720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29893350601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25725364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35252094268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29000186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32275009155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21557474136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0786280632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99824666976929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92977333068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90595555305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9714527130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87618494033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87916159629822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99229216575623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95656704902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9267954826355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01313209533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9416811466217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91488766670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89404773712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85832262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8404598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85236835479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97442936897278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13519287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20366621017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25129985809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26023149490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22748279571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17687225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14114665985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11137628555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04885721206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07565116882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06076574325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06374216079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0309944152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98038387298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88213968276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88809323310852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67969632148743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76900863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79580307006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78389525413513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7035129070282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72137570381165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72732996940613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75710129737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75114631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78687238693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73923850059509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93572759628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09649038314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21259737014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18282699584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26916313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27511596679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26320886611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51923894882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4299259185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48946714401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4983983039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48053598403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45076513290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41206359863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41801738739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37336111068726</t>
+    <t xml:space="preserve">4.41801691055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37336158752441</t>
   </si>
   <si>
     <t xml:space="preserve">4.35847568511963</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">4.32572746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2393913269043</t>
+    <t xml:space="preserve">4.23939180374146</t>
   </si>
   <si>
     <t xml:space="preserve">4.14412403106689</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24534559249878</t>
+    <t xml:space="preserve">4.24534606933594</t>
   </si>
   <si>
     <t xml:space="preserve">4.16794109344482</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">4.20961999893188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36442947387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45671987533569</t>
+    <t xml:space="preserve">4.36442995071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45672035217285</t>
   </si>
   <si>
     <t xml:space="preserve">4.29297924041748</t>
@@ -713,13 +713,13 @@
     <t xml:space="preserve">4.66809415817261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52817058563232</t>
+    <t xml:space="preserve">4.52817010879517</t>
   </si>
   <si>
     <t xml:space="preserve">4.59664344787598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75145244598389</t>
+    <t xml:space="preserve">4.75145292282104</t>
   </si>
   <si>
     <t xml:space="preserve">4.78420114517212</t>
@@ -737,22 +737,22 @@
     <t xml:space="preserve">4.96878099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89435386657715</t>
+    <t xml:space="preserve">4.89435291290283</t>
   </si>
   <si>
     <t xml:space="preserve">4.86756038665771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86458301544189</t>
+    <t xml:space="preserve">4.86458349227905</t>
   </si>
   <si>
     <t xml:space="preserve">4.80504083633423</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7812237739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7038197517395</t>
+    <t xml:space="preserve">4.78122329711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70381879806519</t>
   </si>
   <si>
     <t xml:space="preserve">4.68297910690308</t>
@@ -773,10 +773,10 @@
     <t xml:space="preserve">4.90923929214478</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93007898330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91221618652344</t>
+    <t xml:space="preserve">4.93007946014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9122166633606</t>
   </si>
   <si>
     <t xml:space="preserve">4.94794178009033</t>
@@ -788,19 +788,19 @@
     <t xml:space="preserve">4.98962116241455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09679651260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12061405181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15633869171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1980185508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23076677322388</t>
+    <t xml:space="preserve">5.0967960357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12061357498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15633916854858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19801807403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23076629638672</t>
   </si>
   <si>
     <t xml:space="preserve">5.06107139587402</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">5.08096694946289</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10557174682617</t>
+    <t xml:space="preserve">5.10557222366333</t>
   </si>
   <si>
     <t xml:space="preserve">5.06866407394409</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">5.139404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14247989654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06251335144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11787414550781</t>
+    <t xml:space="preserve">5.14248037338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06251287460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11787462234497</t>
   </si>
   <si>
     <t xml:space="preserve">5.11172389984131</t>
@@ -848,22 +848,22 @@
     <t xml:space="preserve">5.09942102432251</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05636215209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02252912521362</t>
+    <t xml:space="preserve">5.05636119842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02252960205078</t>
   </si>
   <si>
     <t xml:space="preserve">4.96409273147583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93641185760498</t>
+    <t xml:space="preserve">4.93641138076782</t>
   </si>
   <si>
     <t xml:space="preserve">4.91488218307495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95178937911987</t>
+    <t xml:space="preserve">4.95178985595703</t>
   </si>
   <si>
     <t xml:space="preserve">4.89642858505249</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">4.6903600692749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74264621734619</t>
+    <t xml:space="preserve">4.74264526367188</t>
   </si>
   <si>
     <t xml:space="preserve">4.7764778137207</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">4.88412618637085</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79800748825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89027643203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98254585266113</t>
+    <t xml:space="preserve">4.79800796508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89027738571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98254632949829</t>
   </si>
   <si>
     <t xml:space="preserve">4.9979248046875</t>
@@ -908,10 +908,10 @@
     <t xml:space="preserve">5.15478277206421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12402582168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07481575012207</t>
+    <t xml:space="preserve">5.12402629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07481622695923</t>
   </si>
   <si>
     <t xml:space="preserve">5.01330327987671</t>
@@ -950,10 +950,10 @@
     <t xml:space="preserve">5.25627899169922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27165746688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29011154174805</t>
+    <t xml:space="preserve">5.27165699005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29011106491089</t>
   </si>
   <si>
     <t xml:space="preserve">5.21321964263916</t>
@@ -968,22 +968,22 @@
     <t xml:space="preserve">5.22552251815796</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16708517074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18861532211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24090147018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31471586227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41313695907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42543935775757</t>
+    <t xml:space="preserve">5.16708469390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18861484527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24090099334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31471633911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41313648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42543888092041</t>
   </si>
   <si>
     <t xml:space="preserve">5.41928863525391</t>
@@ -995,43 +995,43 @@
     <t xml:space="preserve">5.35162401199341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36392641067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38853168487549</t>
+    <t xml:space="preserve">5.36392593383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38853216171265</t>
   </si>
   <si>
     <t xml:space="preserve">5.37315368652344</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42851448059082</t>
+    <t xml:space="preserve">5.42851495742798</t>
   </si>
   <si>
     <t xml:space="preserve">5.43159055709839</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44389343261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32701873779297</t>
+    <t xml:space="preserve">5.44389295578003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32701921463013</t>
   </si>
   <si>
     <t xml:space="preserve">5.34239721298218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39468240737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53616237640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62843084335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84372758865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87448406219482</t>
+    <t xml:space="preserve">5.39468288421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53616333007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62843132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84372806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87448358535767</t>
   </si>
   <si>
     <t xml:space="preserve">5.65918827056885</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">5.75145769119263</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78836536407471</t>
+    <t xml:space="preserve">5.78836488723755</t>
   </si>
   <si>
     <t xml:space="preserve">5.78221464157104</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">5.76991176605225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94829988479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10515689849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12053537368774</t>
+    <t xml:space="preserve">5.94829893112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10515785217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1205358505249</t>
   </si>
   <si>
     <t xml:space="preserve">6.4157977104187</t>
@@ -1070,73 +1070,73 @@
     <t xml:space="preserve">6.40349531173706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32352876663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33583068847656</t>
+    <t xml:space="preserve">6.32352828979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33583116531372</t>
   </si>
   <si>
     <t xml:space="preserve">6.36658763885498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24356126785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18204832077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09285449981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21280479431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50806617736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56342887878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39119148254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61878967285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60648775100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55112552642822</t>
+    <t xml:space="preserve">6.24356174468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18204879760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09285497665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21280431747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50806665420532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56342935562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39119243621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61879014968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60648727416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55112600326538</t>
   </si>
   <si>
     <t xml:space="preserve">6.65569734573364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69260597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6372447013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62494087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45885753631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57573080062866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6680006980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82793474197388</t>
+    <t xml:space="preserve">6.69260501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63724422454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62494134902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45885610580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5757303237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66800117492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82793426513672</t>
   </si>
   <si>
     <t xml:space="preserve">6.81563091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95096015930176</t>
+    <t xml:space="preserve">6.95095920562744</t>
   </si>
   <si>
     <t xml:space="preserve">6.88944721221924</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">6.28046894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02826642990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96675300598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00981283187866</t>
+    <t xml:space="preserve">6.02826690673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96675252914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00981187820435</t>
   </si>
   <si>
     <t xml:space="preserve">5.87755918502808</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">5.93599605560303</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01903963088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92984580993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92369365692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05902290344238</t>
+    <t xml:space="preserve">6.01903915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92984533309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92369318008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05902242660522</t>
   </si>
   <si>
     <t xml:space="preserve">6.0651741027832</t>
@@ -1184,28 +1184,28 @@
     <t xml:space="preserve">6.13283777236938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90523958206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99750947952271</t>
+    <t xml:space="preserve">5.96060228347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90524005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99750900268555</t>
   </si>
   <si>
     <t xml:space="preserve">5.9544506072998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88063526153564</t>
+    <t xml:space="preserve">5.88063478469849</t>
   </si>
   <si>
     <t xml:space="preserve">5.89293766021729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85602951049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69609689712524</t>
+    <t xml:space="preserve">5.85602998733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69609594345093</t>
   </si>
   <si>
     <t xml:space="preserve">5.64688634872437</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">5.21014451980591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08711767196655</t>
+    <t xml:space="preserve">5.08711814880371</t>
   </si>
   <si>
     <t xml:space="preserve">5.17323684692383</t>
@@ -1250,16 +1250,16 @@
     <t xml:space="preserve">4.74633693695068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63192319869995</t>
+    <t xml:space="preserve">4.63192272186279</t>
   </si>
   <si>
     <t xml:space="preserve">4.62269592285156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68728494644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82568788528442</t>
+    <t xml:space="preserve">4.68728399276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82568836212158</t>
   </si>
   <si>
     <t xml:space="preserve">4.82937908172607</t>
@@ -1268,31 +1268,31 @@
     <t xml:space="preserve">4.71188926696777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65283679962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66821527481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56425857543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51873826980591</t>
+    <t xml:space="preserve">4.65283727645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66821479797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56425809860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51873874664307</t>
   </si>
   <si>
     <t xml:space="preserve">4.44738388061523</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63991975784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61900472640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59501504898071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4418478012085</t>
+    <t xml:space="preserve">4.63991928100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61900520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59501552581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44184827804565</t>
   </si>
   <si>
     <t xml:space="preserve">4.33666133880615</t>
@@ -1304,25 +1304,25 @@
     <t xml:space="preserve">4.81509685516357</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27893972396851</t>
+    <t xml:space="preserve">5.27894020080566</t>
   </si>
   <si>
     <t xml:space="preserve">5.02088165283203</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12807512283325</t>
+    <t xml:space="preserve">5.12807464599609</t>
   </si>
   <si>
     <t xml:space="preserve">5.32128810882568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53170442581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46487331390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35635709762573</t>
+    <t xml:space="preserve">5.53170394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46487379074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35635757446289</t>
   </si>
   <si>
     <t xml:space="preserve">5.18564224243164</t>
@@ -1331,13 +1331,13 @@
     <t xml:space="preserve">5.14130926132202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22666645050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16115951538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11550331115723</t>
+    <t xml:space="preserve">5.2266674041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16116046905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11550283432007</t>
   </si>
   <si>
     <t xml:space="preserve">5.20549297332764</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">5.18895053863525</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19953680038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18762683868408</t>
+    <t xml:space="preserve">5.19953727722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18762731552124</t>
   </si>
   <si>
     <t xml:space="preserve">5.26041269302368</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">5.19887542724609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2140941619873</t>
+    <t xml:space="preserve">5.21409463882446</t>
   </si>
   <si>
     <t xml:space="preserve">5.19424390792847</t>
@@ -1376,25 +1376,25 @@
     <t xml:space="preserve">5.29349708557129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2339448928833</t>
+    <t xml:space="preserve">5.23394536972046</t>
   </si>
   <si>
     <t xml:space="preserve">5.24453210830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42583465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31864166259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15057229995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92890691757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00169324874878</t>
+    <t xml:space="preserve">5.42583417892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31864070892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15057277679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92890739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00169277191162</t>
   </si>
   <si>
     <t xml:space="preserve">4.94611120223999</t>
@@ -1403,19 +1403,19 @@
     <t xml:space="preserve">4.89648485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87729549407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82369947433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70790338516235</t>
+    <t xml:space="preserve">4.87729597091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8236985206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70790386199951</t>
   </si>
   <si>
     <t xml:space="preserve">4.47631359100342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73172426223755</t>
+    <t xml:space="preserve">4.73172521591187</t>
   </si>
   <si>
     <t xml:space="preserve">4.81311225891113</t>
@@ -1427,25 +1427,25 @@
     <t xml:space="preserve">4.89251470565796</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98581266403198</t>
+    <t xml:space="preserve">4.98581218719482</t>
   </si>
   <si>
     <t xml:space="preserve">4.9593448638916</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84553480148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74495792388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04227447509766</t>
+    <t xml:space="preserve">4.845534324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74495840072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0422739982605</t>
   </si>
   <si>
     <t xml:space="preserve">5.16319179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05792236328125</t>
+    <t xml:space="preserve">5.05792188644409</t>
   </si>
   <si>
     <t xml:space="preserve">5.15607929229736</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">4.97897005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89005947113037</t>
+    <t xml:space="preserve">4.89005994796753</t>
   </si>
   <si>
     <t xml:space="preserve">4.93629312515259</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">4.95194101333618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93415880203247</t>
+    <t xml:space="preserve">4.93415927886963</t>
   </si>
   <si>
     <t xml:space="preserve">5.08566236495972</t>
@@ -1511,10 +1511,10 @@
     <t xml:space="preserve">5.02804803848267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06859111785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10486698150635</t>
+    <t xml:space="preserve">5.06859159469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10486650466919</t>
   </si>
   <si>
     <t xml:space="preserve">5.16390371322632</t>
@@ -1526,34 +1526,34 @@
     <t xml:space="preserve">5.13260698318481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15110015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1646146774292</t>
+    <t xml:space="preserve">5.15110063552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16461420059204</t>
   </si>
   <si>
     <t xml:space="preserve">5.02591466903687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15679025650024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01951360702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07214784622192</t>
+    <t xml:space="preserve">5.15678977966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01951313018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07214832305908</t>
   </si>
   <si>
     <t xml:space="preserve">5.14327573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10913467407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08637380599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0003080368042</t>
+    <t xml:space="preserve">5.10913419723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0863733291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00030851364136</t>
   </si>
   <si>
     <t xml:space="preserve">4.92989206314087</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">4.73926830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6994366645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61692762374878</t>
+    <t xml:space="preserve">4.69943618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61692810058594</t>
   </si>
   <si>
     <t xml:space="preserve">4.63684368133545</t>
@@ -1598,10 +1598,10 @@
     <t xml:space="preserve">4.73713397979736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70868253707886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73002099990845</t>
+    <t xml:space="preserve">4.70868301391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73002195358276</t>
   </si>
   <si>
     <t xml:space="preserve">4.70939350128174</t>
@@ -1610,19 +1610,19 @@
     <t xml:space="preserve">4.66173839569092</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67169618606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64537906646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67667484283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67454195022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68663358688354</t>
+    <t xml:space="preserve">4.67169666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64537858963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67667531967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67454147338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68663311004639</t>
   </si>
   <si>
     <t xml:space="preserve">4.66600608825684</t>
@@ -1631,13 +1631,13 @@
     <t xml:space="preserve">4.68094301223755</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63968849182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63186454772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94909620285034</t>
+    <t xml:space="preserve">4.63968896865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63186407089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94909572601318</t>
   </si>
   <si>
     <t xml:space="preserve">4.82604455947876</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">4.81466341018677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86516523361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89361667633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87298917770386</t>
+    <t xml:space="preserve">4.8651647567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89361619949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8729887008667</t>
   </si>
   <si>
     <t xml:space="preserve">4.80683946609497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79332590103149</t>
+    <t xml:space="preserve">4.79332542419434</t>
   </si>
   <si>
     <t xml:space="preserve">4.7072606086731</t>
@@ -1673,10 +1673,10 @@
     <t xml:space="preserve">4.5799412727356</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55220079421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48178482055664</t>
+    <t xml:space="preserve">4.55220127105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48178386688232</t>
   </si>
   <si>
     <t xml:space="preserve">4.36797952651978</t>
@@ -1694,22 +1694,22 @@
     <t xml:space="preserve">4.23425817489624</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12543201446533</t>
+    <t xml:space="preserve">4.12543249130249</t>
   </si>
   <si>
     <t xml:space="preserve">4.19940519332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23852586746216</t>
+    <t xml:space="preserve">4.23852634429932</t>
   </si>
   <si>
     <t xml:space="preserve">4.1894474029541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19300365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24634981155396</t>
+    <t xml:space="preserve">4.19300413131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24635028839111</t>
   </si>
   <si>
     <t xml:space="preserve">4.23212432861328</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">4.27408981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36513376235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43341732025146</t>
+    <t xml:space="preserve">4.36513471603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43341684341431</t>
   </si>
   <si>
     <t xml:space="preserve">4.44550895690918</t>
@@ -1742,16 +1742,16 @@
     <t xml:space="preserve">4.51663684844971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42345857620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37082386016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33952808380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26982259750366</t>
+    <t xml:space="preserve">4.42345952987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37082433700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33952760696411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2698221206665</t>
   </si>
   <si>
     <t xml:space="preserve">4.29542875289917</t>
@@ -1769,16 +1769,16 @@
     <t xml:space="preserve">4.17379903793335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19442701339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28831577301025</t>
+    <t xml:space="preserve">4.19442653656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2883152961731</t>
   </si>
   <si>
     <t xml:space="preserve">4.3694019317627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38149356842041</t>
+    <t xml:space="preserve">4.38149309158325</t>
   </si>
   <si>
     <t xml:space="preserve">4.34379577636719</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">4.33312654495239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25559711456299</t>
+    <t xml:space="preserve">4.25559616088867</t>
   </si>
   <si>
     <t xml:space="preserve">4.18375730514526</t>
@@ -1796,10 +1796,10 @@
     <t xml:space="preserve">4.16810941696167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13041162490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13681268692017</t>
+    <t xml:space="preserve">4.13041114807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13681221008301</t>
   </si>
   <si>
     <t xml:space="preserve">4.09982585906982</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">4.11974191665649</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04007816314697</t>
+    <t xml:space="preserve">4.04007863998413</t>
   </si>
   <si>
     <t xml:space="preserve">4.00735950469971</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">3.91204786300659</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83807468414307</t>
+    <t xml:space="preserve">3.83807444572449</t>
   </si>
   <si>
     <t xml:space="preserve">3.82242631912231</t>
@@ -1829,16 +1829,16 @@
     <t xml:space="preserve">3.86225771903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85727906227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77477049827576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82811665534973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96326017379761</t>
+    <t xml:space="preserve">3.8572793006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77477025985718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82811689376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96325993537903</t>
   </si>
   <si>
     <t xml:space="preserve">4.03438806533813</t>
@@ -1850,13 +1850,13 @@
     <t xml:space="preserve">4.11547422409058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20296239852905</t>
+    <t xml:space="preserve">4.20296144485474</t>
   </si>
   <si>
     <t xml:space="preserve">4.18802499771118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20794057846069</t>
+    <t xml:space="preserve">4.20794105529785</t>
   </si>
   <si>
     <t xml:space="preserve">4.18233489990234</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">4.16028499603271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19798231124878</t>
+    <t xml:space="preserve">4.19798278808594</t>
   </si>
   <si>
     <t xml:space="preserve">4.15174961090088</t>
@@ -1883,22 +1883,22 @@
     <t xml:space="preserve">4.1069393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21220827102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25986433029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37366962432861</t>
+    <t xml:space="preserve">4.21220874786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25986480712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37366914749146</t>
   </si>
   <si>
     <t xml:space="preserve">4.46755886077881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43697357177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43839550018311</t>
+    <t xml:space="preserve">4.43697309494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43839597702026</t>
   </si>
   <si>
     <t xml:space="preserve">4.39714193344116</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">4.41705751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4099440574646</t>
+    <t xml:space="preserve">4.40994501113892</t>
   </si>
   <si>
     <t xml:space="preserve">4.38860654830933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27906894683838</t>
+    <t xml:space="preserve">4.27906847000122</t>
   </si>
   <si>
     <t xml:space="preserve">4.19371509552002</t>
@@ -1925,25 +1925,25 @@
     <t xml:space="preserve">4.2676887512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23070192337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27480125427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31534481048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38433885574341</t>
+    <t xml:space="preserve">4.23070240020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27480173110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31534433364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38433837890625</t>
   </si>
   <si>
     <t xml:space="preserve">4.36726760864258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36442279815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36015558242798</t>
+    <t xml:space="preserve">4.36442232131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36015510559082</t>
   </si>
   <si>
     <t xml:space="preserve">4.30680894851685</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">4.40069818496704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48676347732544</t>
+    <t xml:space="preserve">4.48676300048828</t>
   </si>
   <si>
     <t xml:space="preserve">4.5251727104187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65889406204224</t>
+    <t xml:space="preserve">4.65889358520508</t>
   </si>
   <si>
     <t xml:space="preserve">4.73215532302856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63044261932373</t>
+    <t xml:space="preserve">4.63044214248657</t>
   </si>
   <si>
     <t xml:space="preserve">4.59487819671631</t>
@@ -1979,13 +1979,13 @@
     <t xml:space="preserve">4.60199069976807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71366167068481</t>
+    <t xml:space="preserve">4.71366214752197</t>
   </si>
   <si>
     <t xml:space="preserve">4.73571157455444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76843023300171</t>
+    <t xml:space="preserve">4.76843070983887</t>
   </si>
   <si>
     <t xml:space="preserve">4.82248783111572</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">4.72859859466553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72931003570557</t>
+    <t xml:space="preserve">4.72931051254272</t>
   </si>
   <si>
     <t xml:space="preserve">4.663161277771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61123704910278</t>
+    <t xml:space="preserve">4.61123752593994</t>
   </si>
   <si>
     <t xml:space="preserve">4.57211685180664</t>
@@ -2021,49 +2021,49 @@
     <t xml:space="preserve">4.68023157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71579599380493</t>
+    <t xml:space="preserve">4.71579551696777</t>
   </si>
   <si>
     <t xml:space="preserve">4.74424695968628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60910320281982</t>
+    <t xml:space="preserve">4.60910367965698</t>
   </si>
   <si>
     <t xml:space="preserve">4.63755464553833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68734502792358</t>
+    <t xml:space="preserve">4.68734455108643</t>
   </si>
   <si>
     <t xml:space="preserve">4.72290849685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75847244262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80114984512329</t>
+    <t xml:space="preserve">4.75847291946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80114936828613</t>
   </si>
   <si>
     <t xml:space="preserve">4.77269840240479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7798113822937</t>
+    <t xml:space="preserve">4.77981090545654</t>
   </si>
   <si>
     <t xml:space="preserve">4.78692388534546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87939071655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81537485122681</t>
+    <t xml:space="preserve">4.87939119338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81537580490112</t>
   </si>
   <si>
     <t xml:space="preserve">4.65178060531616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70926475524902</t>
+    <t xml:space="preserve">4.70926523208618</t>
   </si>
   <si>
     <t xml:space="preserve">4.77082347869873</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">4.78621339797974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85546731948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90163707733154</t>
+    <t xml:space="preserve">4.85546779632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90163660049438</t>
   </si>
   <si>
     <t xml:space="preserve">4.87855243682861</t>
@@ -2096,19 +2096,19 @@
     <t xml:space="preserve">4.67079067230225</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73234987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72465419769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71695995330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80929851531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80160331726074</t>
+    <t xml:space="preserve">4.73234939575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72465467453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71695947647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80929803848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8016037940979</t>
   </si>
   <si>
     <t xml:space="preserve">4.74004411697388</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">4.60153675079346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53228235244751</t>
+    <t xml:space="preserve">4.53228282928467</t>
   </si>
   <si>
     <t xml:space="preserve">4.57845211029053</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">4.52458810806274</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5707573890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50919818878174</t>
+    <t xml:space="preserve">4.57075691223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5091986656189</t>
   </si>
   <si>
     <t xml:space="preserve">4.47841882705688</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">4.58614730834961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55536794662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53997802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54767227172852</t>
+    <t xml:space="preserve">4.55536699295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53997755050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54767274856567</t>
   </si>
   <si>
     <t xml:space="preserve">4.50150299072266</t>
@@ -2177,13 +2177,13 @@
     <t xml:space="preserve">4.39377498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34760570526123</t>
+    <t xml:space="preserve">4.34760618209839</t>
   </si>
   <si>
     <t xml:space="preserve">4.33991050720215</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24757242202759</t>
+    <t xml:space="preserve">4.24757194519043</t>
   </si>
   <si>
     <t xml:space="preserve">4.27835178375244</t>
@@ -2195,13 +2195,13 @@
     <t xml:space="preserve">4.16292858123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07059049606323</t>
+    <t xml:space="preserve">4.07059001922607</t>
   </si>
   <si>
     <t xml:space="preserve">4.03981065750122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09367513656616</t>
+    <t xml:space="preserve">4.093674659729</t>
   </si>
   <si>
     <t xml:space="preserve">4.03211545944214</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">4.18601322174072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20909738540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23987722396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30913114547729</t>
+    <t xml:space="preserve">4.20909786224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23987770080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30913162231445</t>
   </si>
   <si>
     <t xml:space="preserve">4.33221578598022</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">4.31682634353638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25526714324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28604650497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27065658569336</t>
+    <t xml:space="preserve">4.25526762008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28604698181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27065706253052</t>
   </si>
   <si>
     <t xml:space="preserve">4.30143642425537</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">4.42455434799194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44763946533203</t>
+    <t xml:space="preserve">4.44763898849487</t>
   </si>
   <si>
     <t xml:space="preserve">4.43224954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56306171417236</t>
+    <t xml:space="preserve">4.56306219100952</t>
   </si>
   <si>
     <t xml:space="preserve">4.59384155273438</t>
@@ -2294,16 +2294,16 @@
     <t xml:space="preserve">4.61692667007446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62462139129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60923147201538</t>
+    <t xml:space="preserve">4.62462091445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60923099517822</t>
   </si>
   <si>
     <t xml:space="preserve">4.82468795776367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90933179855347</t>
+    <t xml:space="preserve">4.90933227539062</t>
   </si>
   <si>
     <t xml:space="preserve">4.95550107955933</t>
@@ -2330,13 +2330,13 @@
     <t xml:space="preserve">4.88624715805054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84777307510376</t>
+    <t xml:space="preserve">4.8477725982666</t>
   </si>
   <si>
     <t xml:space="preserve">4.2244873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20140266418457</t>
+    <t xml:space="preserve">4.20140314102173</t>
   </si>
   <si>
     <t xml:space="preserve">4.10136985778809</t>
@@ -2345,25 +2345,25 @@
     <t xml:space="preserve">4.06289529800415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60120272636414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50116920471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49347448348999</t>
+    <t xml:space="preserve">3.60120248794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50116944313049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49347424507141</t>
   </si>
   <si>
     <t xml:space="preserve">2.81247782707214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85864686965942</t>
+    <t xml:space="preserve">2.858647108078</t>
   </si>
   <si>
     <t xml:space="preserve">2.62780046463013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6624276638031</t>
+    <t xml:space="preserve">2.66242742538452</t>
   </si>
   <si>
     <t xml:space="preserve">2.79708790779114</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">2.98561239242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90481638908386</t>
+    <t xml:space="preserve">2.90481615066528</t>
   </si>
   <si>
     <t xml:space="preserve">2.93174815177917</t>
@@ -2393,25 +2393,25 @@
     <t xml:space="preserve">2.77785086631775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88557887077332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90096855163574</t>
+    <t xml:space="preserve">2.88557910919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90096879005432</t>
   </si>
   <si>
     <t xml:space="preserve">2.84710478782654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79324078559875</t>
+    <t xml:space="preserve">2.79324054718018</t>
   </si>
   <si>
     <t xml:space="preserve">2.8086302280426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86249446868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83171463012695</t>
+    <t xml:space="preserve">2.86249423027039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83171510696411</t>
   </si>
   <si>
     <t xml:space="preserve">2.78939294815063</t>
@@ -2426,10 +2426,10 @@
     <t xml:space="preserve">2.78554558753967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72013902664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71629190444946</t>
+    <t xml:space="preserve">2.72013926506042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7162914276123</t>
   </si>
   <si>
     <t xml:space="preserve">2.73168158531189</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">2.74707126617432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70474934577942</t>
+    <t xml:space="preserve">2.704749584198</t>
   </si>
   <si>
     <t xml:space="preserve">2.6970546245575</t>
@@ -2447,16 +2447,16 @@
     <t xml:space="preserve">2.72398662567139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68166470527649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64319014549255</t>
+    <t xml:space="preserve">2.68166446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64319038391113</t>
   </si>
   <si>
     <t xml:space="preserve">2.53930950164795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50852990150452</t>
+    <t xml:space="preserve">2.5085301399231</t>
   </si>
   <si>
     <t xml:space="preserve">2.47775053977966</t>
@@ -2465,13 +2465,13 @@
     <t xml:space="preserve">2.48544549942017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55469942092896</t>
+    <t xml:space="preserve">2.55469918251038</t>
   </si>
   <si>
     <t xml:space="preserve">2.42003893852234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31231069564819</t>
+    <t xml:space="preserve">2.31231045722961</t>
   </si>
   <si>
     <t xml:space="preserve">2.33539533615112</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">2.49698758125305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52391958236694</t>
+    <t xml:space="preserve">2.52391982078552</t>
   </si>
   <si>
     <t xml:space="preserve">2.60086870193481</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">2.70090198516846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70859694480896</t>
+    <t xml:space="preserve">2.70859670639038</t>
   </si>
   <si>
     <t xml:space="preserve">2.87403655052185</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">2.75324726104736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72037291526794</t>
+    <t xml:space="preserve">2.72037267684937</t>
   </si>
   <si>
     <t xml:space="preserve">2.66284227371216</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">2.60531187057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54778122901917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5395622253418</t>
+    <t xml:space="preserve">2.54778099060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53956246376038</t>
   </si>
   <si>
     <t xml:space="preserve">2.51079726219177</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">2.57243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60120248794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56832790374756</t>
+    <t xml:space="preserve">2.60120224952698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56832766532898</t>
   </si>
   <si>
     <t xml:space="preserve">2.52312517166138</t>
@@ -2627,10 +2627,10 @@
     <t xml:space="preserve">2.46559476852417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47792267799377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41217350959778</t>
+    <t xml:space="preserve">2.47792291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4121732711792</t>
   </si>
   <si>
     <t xml:space="preserve">2.45326662063599</t>
@@ -2645,22 +2645,22 @@
     <t xml:space="preserve">2.53134369850159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58887457847595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65462350845337</t>
+    <t xml:space="preserve">2.58887434005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65462374687195</t>
   </si>
   <si>
     <t xml:space="preserve">2.60942101478577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3834080696106</t>
+    <t xml:space="preserve">2.38340830802917</t>
   </si>
   <si>
     <t xml:space="preserve">2.3628613948822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38751769065857</t>
+    <t xml:space="preserve">2.38751745223999</t>
   </si>
   <si>
     <t xml:space="preserve">2.36697101593018</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">2.03411555290222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04644346237183</t>
+    <t xml:space="preserve">2.04644370079041</t>
   </si>
   <si>
     <t xml:space="preserve">2.05055284500122</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">2.157395362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16561388969421</t>
+    <t xml:space="preserve">2.16561412811279</t>
   </si>
   <si>
     <t xml:space="preserve">2.15328598022461</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">2.90940165519714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86830830574036</t>
+    <t xml:space="preserve">2.86830854415894</t>
   </si>
   <si>
     <t xml:space="preserve">2.83543395996094</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">2.96282291412354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94638562202454</t>
+    <t xml:space="preserve">2.94638586044312</t>
   </si>
   <si>
     <t xml:space="preserve">2.95460438728333</t>
@@ -2753,13 +2753,13 @@
     <t xml:space="preserve">2.88063645362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97104167938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95049500465393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03679084777832</t>
+    <t xml:space="preserve">2.97104144096375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95049476623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03679060935974</t>
   </si>
   <si>
     <t xml:space="preserve">3.06555604934692</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">3.01213479042053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87652730941772</t>
+    <t xml:space="preserve">2.87652707099915</t>
   </si>
   <si>
     <t xml:space="preserve">2.92994832992554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0491189956665</t>
+    <t xml:space="preserve">3.04911875724792</t>
   </si>
   <si>
     <t xml:space="preserve">3.08199334144592</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">2.92583894729614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00391602516174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04089999198914</t>
+    <t xml:space="preserve">3.00391626358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04090023040771</t>
   </si>
   <si>
     <t xml:space="preserve">3.04500937461853</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05733752250671</t>
+    <t xml:space="preserve">3.05733728408813</t>
   </si>
   <si>
     <t xml:space="preserve">3.07788395881653</t>
@@ -2819,13 +2819,13 @@
     <t xml:space="preserve">3.10254001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06966543197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98747873306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90118312835693</t>
+    <t xml:space="preserve">3.06966519355774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98747897148132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90118288993835</t>
   </si>
   <si>
     <t xml:space="preserve">2.92172980308533</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">3.00802540779114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02446269989014</t>
+    <t xml:space="preserve">3.02446293830872</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610272407532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1271960735321</t>
+    <t xml:space="preserve">3.12719583511353</t>
   </si>
   <si>
     <t xml:space="preserve">3.15185189247131</t>
@@ -2858,22 +2858,22 @@
     <t xml:space="preserve">3.2874596118927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16007041931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2258198261261</t>
+    <t xml:space="preserve">3.1600706577301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22581958770752</t>
   </si>
   <si>
     <t xml:space="preserve">3.14774250984192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21349191665649</t>
+    <t xml:space="preserve">3.21349167823792</t>
   </si>
   <si>
     <t xml:space="preserve">3.13130521774292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17239832878113</t>
+    <t xml:space="preserve">3.17239856719971</t>
   </si>
   <si>
     <t xml:space="preserve">3.17650771141052</t>
@@ -2909,22 +2909,22 @@
     <t xml:space="preserve">2.81899666786194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84776163101196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91351127624512</t>
+    <t xml:space="preserve">2.84776186943054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91351103782654</t>
   </si>
   <si>
     <t xml:space="preserve">3.09843063354492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26280379295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18061685562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24636650085449</t>
+    <t xml:space="preserve">3.26280355453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18061709403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24636626243591</t>
   </si>
   <si>
     <t xml:space="preserve">3.18883585929871</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">3.3655366897583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3819739818573</t>
+    <t xml:space="preserve">3.38197374343872</t>
   </si>
   <si>
     <t xml:space="preserve">3.41484880447388</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">3.44361400604248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51347231864929</t>
+    <t xml:space="preserve">3.51347255706787</t>
   </si>
   <si>
     <t xml:space="preserve">3.38608336448669</t>
@@ -2963,25 +2963,25 @@
     <t xml:space="preserve">3.40663003921509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34909915924072</t>
+    <t xml:space="preserve">3.3490993976593</t>
   </si>
   <si>
     <t xml:space="preserve">3.34499025344849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3203341960907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3696460723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31622457504272</t>
+    <t xml:space="preserve">3.32033395767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36964583396912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3162248134613</t>
   </si>
   <si>
     <t xml:space="preserve">3.32444357872009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33677124977112</t>
+    <t xml:space="preserve">3.3367714881897</t>
   </si>
   <si>
     <t xml:space="preserve">3.30800628662109</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">3.31211566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37786459922791</t>
+    <t xml:space="preserve">3.37786483764648</t>
   </si>
   <si>
     <t xml:space="preserve">3.43128609657288</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">3.46005129814148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52990961074829</t>
+    <t xml:space="preserve">3.52990984916687</t>
   </si>
   <si>
     <t xml:space="preserve">3.5258002281189</t>
@@ -3011,25 +3011,25 @@
     <t xml:space="preserve">3.68195462226868</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79701590538025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81756234169006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82167196273804</t>
+    <t xml:space="preserve">3.79701566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81756258010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82167172431946</t>
   </si>
   <si>
     <t xml:space="preserve">3.79290628433228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76414084434509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64086127281189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57511234283447</t>
+    <t xml:space="preserve">3.76414132118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64086151123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57511210441589</t>
   </si>
   <si>
     <t xml:space="preserve">3.64497065544128</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">3.5710027217865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55867505073547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45594167709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35731792449951</t>
+    <t xml:space="preserve">3.55867481231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45594191551208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35731816291809</t>
   </si>
   <si>
     <t xml:space="preserve">3.37375545501709</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">3.45183229446411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43950462341309</t>
+    <t xml:space="preserve">3.43950438499451</t>
   </si>
   <si>
     <t xml:space="preserve">3.33266186714172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41895794868469</t>
+    <t xml:space="preserve">3.41895771026611</t>
   </si>
   <si>
     <t xml:space="preserve">3.39430212974548</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">3.19294500350952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29978728294373</t>
+    <t xml:space="preserve">3.2997875213623</t>
   </si>
   <si>
     <t xml:space="preserve">3.36142754554749</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">3.3038969039917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39019274711609</t>
+    <t xml:space="preserve">3.39019250869751</t>
   </si>
   <si>
     <t xml:space="preserve">3.48059797286987</t>
@@ -3095,22 +3095,22 @@
     <t xml:space="preserve">3.4888162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35320854187012</t>
+    <t xml:space="preserve">3.3532087802887</t>
   </si>
   <si>
     <t xml:space="preserve">3.25869417190552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23403835296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20116353034973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19705438613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27924084663391</t>
+    <t xml:space="preserve">3.23403811454773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20116376876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1970546245575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27924108505249</t>
   </si>
   <si>
     <t xml:space="preserve">3.2710223197937</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">2.99569749832153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12308645248413</t>
+    <t xml:space="preserve">3.12308669090271</t>
   </si>
   <si>
     <t xml:space="preserve">3.42717671394348</t>
@@ -3146,16 +3146,16 @@
     <t xml:space="preserve">3.29156899452209</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28335022926331</t>
+    <t xml:space="preserve">3.28334999084473</t>
   </si>
   <si>
     <t xml:space="preserve">3.34088087081909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14363312721252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10664939880371</t>
+    <t xml:space="preserve">3.1436333656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10664916038513</t>
   </si>
   <si>
     <t xml:space="preserve">3.11486792564392</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">3.02857208251953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89296460151672</t>
+    <t xml:space="preserve">2.89296436309814</t>
   </si>
   <si>
     <t xml:space="preserve">2.97926020622253</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">3.39841151237488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47648859024048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4929256439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48470687866211</t>
+    <t xml:space="preserve">3.4764883518219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49292588233948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48470711708069</t>
   </si>
   <si>
     <t xml:space="preserve">3.65318965911865</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">3.46416068077087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4723789691925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43539500236511</t>
+    <t xml:space="preserve">3.47237920761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43539524078369</t>
   </si>
   <si>
     <t xml:space="preserve">3.51758193969727</t>
@@ -3233,28 +3233,28 @@
     <t xml:space="preserve">3.60798668861389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59154939651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66551733016968</t>
+    <t xml:space="preserve">3.59154963493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66551756858826</t>
   </si>
   <si>
     <t xml:space="preserve">3.66962695121765</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67373585700989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75592255592346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71482920646667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80112504959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73537611961365</t>
+    <t xml:space="preserve">3.67373561859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75592279434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71482944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80112528800964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73537588119507</t>
   </si>
   <si>
     <t xml:space="preserve">3.74770379066467</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">3.80523467063904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646899223328</t>
+    <t xml:space="preserve">3.77646923065186</t>
   </si>
   <si>
     <t xml:space="preserve">3.74359440803528</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">3.76003170013428</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71072006225586</t>
+    <t xml:space="preserve">3.71071982383728</t>
   </si>
   <si>
     <t xml:space="preserve">3.66140794754028</t>
@@ -4317,6 +4317,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.26500010490417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36500000953674</t>
   </si>
 </sst>
 </file>
@@ -8420,7 +8423,7 @@
         <v>7.24187612533569</v>
       </c>
       <c r="G145" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8446,7 +8449,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G146" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8472,7 +8475,7 @@
         <v>7.33019208908081</v>
       </c>
       <c r="G147" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -12658,7 +12661,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G308" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -61910,7 +61913,7 @@
     </row>
     <row r="2203">
       <c r="A2203" s="1" t="n">
-        <v>45531.6494444444</v>
+        <v>45531.2916666667</v>
       </c>
       <c r="B2203" t="n">
         <v>263217</v>
@@ -61931,6 +61934,32 @@
         <v>1291</v>
       </c>
       <c r="H2203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="1" t="n">
+        <v>45532.6499305556</v>
+      </c>
+      <c r="B2204" t="n">
+        <v>334870</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>2.36500000953674</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>2.30999994277954</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>2.36500000953674</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H2204" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="1436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="1437">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">IGD.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97771215438843</t>
+    <t xml:space="preserve">4.97771263122559</t>
   </si>
   <si>
     <t xml:space="preserve">4.93246030807495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92963266372681</t>
+    <t xml:space="preserve">4.92963218688965</t>
   </si>
   <si>
     <t xml:space="preserve">4.80801773071289</t>
@@ -86,31 +86,31 @@
     <t xml:space="preserve">4.0924711227417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17731857299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11226940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08398675918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94540286064148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10095596313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21125793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05570459365845</t>
+    <t xml:space="preserve">4.17731904983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11226892471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08398723602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94540238380432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10095643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21125745773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05570411682129</t>
   </si>
   <si>
     <t xml:space="preserve">3.82378792762756</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91712021827698</t>
+    <t xml:space="preserve">3.91712045669556</t>
   </si>
   <si>
     <t xml:space="preserve">3.57490253448486</t>
@@ -119,10 +119,10 @@
     <t xml:space="preserve">3.62015438079834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81813144683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69086074829102</t>
+    <t xml:space="preserve">3.8181312084198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69086050987244</t>
   </si>
   <si>
     <t xml:space="preserve">3.76439547538757</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">4.01893758773804</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95954394340515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07267284393311</t>
+    <t xml:space="preserve">3.95954442024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07267379760742</t>
   </si>
   <si>
     <t xml:space="preserve">4.00479555130005</t>
@@ -143,274 +143,277 @@
     <t xml:space="preserve">4.19994497299194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14620876312256</t>
+    <t xml:space="preserve">4.14620780944824</t>
   </si>
   <si>
     <t xml:space="preserve">4.0896430015564</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12358236312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12923908233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17166328430176</t>
+    <t xml:space="preserve">4.12358283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12923860549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17166233062744</t>
   </si>
   <si>
     <t xml:space="preserve">4.19428777694702</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38660907745361</t>
+    <t xml:space="preserve">4.38660860061646</t>
   </si>
   <si>
     <t xml:space="preserve">4.35549783706665</t>
   </si>
   <si>
+    <t xml:space="preserve">4.52519273757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48559808731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.496910572052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48842620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58175802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68357515335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66660594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61569690704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72882699966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83630037307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76842212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70620059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63832235336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49973964691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57327318191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57610130310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41206312179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40075063705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36963987350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37246751785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38378095626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47994136810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55347585678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46862745285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45448732376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489124298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47428464889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44034576416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41771936416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44317388534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55064725875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45731544494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53933429718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57892942428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49408197402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54216194152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45165824890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65023136138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73061323165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81099414825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85267400741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84076595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85565137863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82290363311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77526903152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7335901260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79610919952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79015493392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79313230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79908609390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72168254852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50137662887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20068979263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22450590133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08755970001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10839939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30488729476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34656715393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39420080184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42397212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17389535903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954346656799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9774067401886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98931455612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37038373947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30191040039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15603256225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00122308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96847558021545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09946727752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19771242141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23343753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40313148498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5549635887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48351430892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67404842376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56984949111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60855150222778</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.5251932144165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48559761047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.496910572052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48842620849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58175849914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68357515335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66660594940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61569738388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72882747650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83629989624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76842164993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70620059967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49973917007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57327318191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57610130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41206359863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40075063705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36963987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37246704101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38378095626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47994089126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55347537994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46862745285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45448780059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51670837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47428464889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44034576416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41771984100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44317388534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5506477355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45731544494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53933382034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57892942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49408292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54216194152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45165824890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65023183822632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73061370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81099462509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85267448425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84076547622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85565185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82290315628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77526950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73359060287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79610919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7901554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79313230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79908609390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72168207168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50137662887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2006893157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22450637817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08755970001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30488777160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34656715393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39420032501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42397165298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17389535903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954346656799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9774067401886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98931455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37038326263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30191040039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15603303909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00122308731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9684751033783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09946727752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19771242141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23343753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40313148498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55496454238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48351383209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67404842376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56984949111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60855150222778</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.61152935028076</t>
   </si>
   <si>
     <t xml:space="preserve">4.6948881149292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68595600128174</t>
+    <t xml:space="preserve">4.6859564781189</t>
   </si>
   <si>
     <t xml:space="preserve">4.64427757263184</t>
@@ -419,22 +422,22 @@
     <t xml:space="preserve">4.67107105255127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54007863998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62046003341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53412389755249</t>
+    <t xml:space="preserve">4.40610980987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54007911682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62046051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53412437438965</t>
   </si>
   <si>
     <t xml:space="preserve">4.51626205444336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56687307357788</t>
+    <t xml:space="preserve">4.56687259674072</t>
   </si>
   <si>
     <t xml:space="preserve">4.51030731201172</t>
@@ -446,34 +449,34 @@
     <t xml:space="preserve">4.44183444976807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46267366409302</t>
+    <t xml:space="preserve">4.46267414093018</t>
   </si>
   <si>
     <t xml:space="preserve">4.3346586227417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34358978271484</t>
+    <t xml:space="preserve">4.343590259552</t>
   </si>
   <si>
     <t xml:space="preserve">4.36740684509277</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40908575057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40015411376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37633895874023</t>
+    <t xml:space="preserve">4.40908670425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40015459060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37633800506592</t>
   </si>
   <si>
     <t xml:space="preserve">4.28702449798584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34061336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31084203720093</t>
+    <t xml:space="preserve">4.34061288833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31084251403809</t>
   </si>
   <si>
     <t xml:space="preserve">4.29893350601196</t>
@@ -482,7 +485,7 @@
     <t xml:space="preserve">4.25725364685059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35252094268799</t>
+    <t xml:space="preserve">4.35252141952515</t>
   </si>
   <si>
     <t xml:space="preserve">4.29000186920166</t>
@@ -491,7 +494,7 @@
     <t xml:space="preserve">4.32275009155273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21557474136353</t>
+    <t xml:space="preserve">4.21557521820068</t>
   </si>
   <si>
     <t xml:space="preserve">4.0786280632019</t>
@@ -500,67 +503,67 @@
     <t xml:space="preserve">3.99824619293213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9297730922699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90595555305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97145175933838</t>
+    <t xml:space="preserve">3.92977285385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90595602989197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97145223617554</t>
   </si>
   <si>
     <t xml:space="preserve">3.87618494033813</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87916207313538</t>
+    <t xml:space="preserve">3.8791618347168</t>
   </si>
   <si>
     <t xml:space="preserve">3.99229264259338</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95656704902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92679595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01313209533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9416811466217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91488718986511</t>
+    <t xml:space="preserve">3.95656657218933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9267954826355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01313161849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94168066978455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91488814353943</t>
   </si>
   <si>
     <t xml:space="preserve">3.89404773712158</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85832214355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84046006202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85236811637878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97442889213562</t>
+    <t xml:space="preserve">3.85832262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84045958518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85236835479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97442936897278</t>
   </si>
   <si>
     <t xml:space="preserve">4.13519287109375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2036657333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25130033493042</t>
+    <t xml:space="preserve">4.20366621017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25129985809326</t>
   </si>
   <si>
     <t xml:space="preserve">4.26023101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22748327255249</t>
+    <t xml:space="preserve">4.22748279571533</t>
   </si>
   <si>
     <t xml:space="preserve">4.17687225341797</t>
@@ -575,34 +578,34 @@
     <t xml:space="preserve">4.04885721206665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0756516456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06076574325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06374263763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03099489212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98038339614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88214015960693</t>
+    <t xml:space="preserve">4.07565069198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06076526641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06374311447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0309944152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98038387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88213992118835</t>
   </si>
   <si>
     <t xml:space="preserve">3.88809323310852</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67969632148743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76900935173035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7958025932312</t>
+    <t xml:space="preserve">3.67969655990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76900887489319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79580283164978</t>
   </si>
   <si>
     <t xml:space="preserve">3.78389453887939</t>
@@ -611,19 +614,19 @@
     <t xml:space="preserve">3.70351338386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72137594223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72732996940613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7571017742157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75114703178406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78687238693237</t>
+    <t xml:space="preserve">3.72137546539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72733044624329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75710153579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7511465549469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78687214851379</t>
   </si>
   <si>
     <t xml:space="preserve">3.73923873901367</t>
@@ -641,40 +644,37 @@
     <t xml:space="preserve">4.18282699584961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26916265487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27511596679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26320886611938</t>
+    <t xml:space="preserve">4.26916217803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27511644363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26320838928223</t>
   </si>
   <si>
     <t xml:space="preserve">4.51923894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42992639541626</t>
+    <t xml:space="preserve">4.4299259185791</t>
   </si>
   <si>
     <t xml:space="preserve">4.48946809768677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4983983039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48053598403931</t>
+    <t xml:space="preserve">4.49839925765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48053646087646</t>
   </si>
   <si>
     <t xml:space="preserve">4.45076513290405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41206312179565</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.41801691055298</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37336158752441</t>
+    <t xml:space="preserve">4.37336111068726</t>
   </si>
   <si>
     <t xml:space="preserve">4.35847568511963</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">4.32572746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23939180374146</t>
+    <t xml:space="preserve">4.23939085006714</t>
   </si>
   <si>
     <t xml:space="preserve">4.14412403106689</t>
@@ -695,16 +695,16 @@
     <t xml:space="preserve">4.16794109344482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20961999893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36442995071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45672035217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29297924041748</t>
+    <t xml:space="preserve">4.20962047576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36442899703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45671987533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29297971725464</t>
   </si>
   <si>
     <t xml:space="preserve">4.62641477584839</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">4.66809415817261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52817010879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59664344787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75145292282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78420114517212</t>
+    <t xml:space="preserve">4.52816963195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59664440155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75145244598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78420162200928</t>
   </si>
   <si>
     <t xml:space="preserve">4.72763633728027</t>
@@ -737,16 +737,16 @@
     <t xml:space="preserve">4.96878099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89435291290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86756038665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86458349227905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80504083633423</t>
+    <t xml:space="preserve">4.89435338973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86755990982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86458301544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80504131317139</t>
   </si>
   <si>
     <t xml:space="preserve">4.78122329711914</t>
@@ -764,37 +764,37 @@
     <t xml:space="preserve">4.76336097717285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87649059295654</t>
+    <t xml:space="preserve">4.8764910697937</t>
   </si>
   <si>
     <t xml:space="preserve">4.82588005065918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90923929214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93007946014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9122166633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94794178009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93603324890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98962116241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0967960357666</t>
+    <t xml:space="preserve">4.90923881530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93007898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91221618652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94794130325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93603277206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98962068557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09679698944092</t>
   </si>
   <si>
     <t xml:space="preserve">5.12061357498169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15633916854858</t>
+    <t xml:space="preserve">5.15633869171143</t>
   </si>
   <si>
     <t xml:space="preserve">5.19801807403564</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">5.23076629638672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06107139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03130054473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99557495117188</t>
+    <t xml:space="preserve">5.06107091903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03130006790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99557542800903</t>
   </si>
   <si>
     <t xml:space="preserve">5.04405927658081</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">5.08096694946289</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10557222366333</t>
+    <t xml:space="preserve">5.10557174682617</t>
   </si>
   <si>
     <t xml:space="preserve">5.06866407394409</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">5.18553876876831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.139404296875</t>
+    <t xml:space="preserve">5.13940477371216</t>
   </si>
   <si>
     <t xml:space="preserve">5.14248037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06251287460327</t>
+    <t xml:space="preserve">5.06251382827759</t>
   </si>
   <si>
     <t xml:space="preserve">5.11787462234497</t>
@@ -845,19 +845,19 @@
     <t xml:space="preserve">5.11172389984131</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09942102432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05636119842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02252960205078</t>
+    <t xml:space="preserve">5.09942054748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05636167526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02253007888794</t>
   </si>
   <si>
     <t xml:space="preserve">4.96409273147583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93641138076782</t>
+    <t xml:space="preserve">4.93641185760498</t>
   </si>
   <si>
     <t xml:space="preserve">4.91488218307495</t>
@@ -875,37 +875,37 @@
     <t xml:space="preserve">4.6903600692749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74264526367188</t>
+    <t xml:space="preserve">4.74264574050903</t>
   </si>
   <si>
     <t xml:space="preserve">4.7764778137207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86567211151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88412618637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79800796508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89027738571167</t>
+    <t xml:space="preserve">4.86567163467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88412570953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79800748825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89027643203735</t>
   </si>
   <si>
     <t xml:space="preserve">4.98254632949829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9979248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1086483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11479902267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15478277206421</t>
+    <t xml:space="preserve">4.99792432785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10864782333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11479949951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15478324890137</t>
   </si>
   <si>
     <t xml:space="preserve">5.12402629852295</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">5.22244691848755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1701602935791</t>
+    <t xml:space="preserve">5.17016077041626</t>
   </si>
   <si>
     <t xml:space="preserve">5.15785837173462</t>
@@ -950,16 +950,16 @@
     <t xml:space="preserve">5.25627899169922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27165699005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29011106491089</t>
+    <t xml:space="preserve">5.27165746688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29011154174805</t>
   </si>
   <si>
     <t xml:space="preserve">5.21321964263916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20091724395752</t>
+    <t xml:space="preserve">5.20091676712036</t>
   </si>
   <si>
     <t xml:space="preserve">5.14863157272339</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">5.22552251815796</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16708469390869</t>
+    <t xml:space="preserve">5.16708517074585</t>
   </si>
   <si>
     <t xml:space="preserve">5.18861484527588</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">5.41313648223877</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42543888092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41928863525391</t>
+    <t xml:space="preserve">5.42543935775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41928815841675</t>
   </si>
   <si>
     <t xml:space="preserve">5.37622928619385</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35162401199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36392593383789</t>
+    <t xml:space="preserve">5.35162353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36392641067505</t>
   </si>
   <si>
     <t xml:space="preserve">5.38853216171265</t>
@@ -1004,31 +1004,31 @@
     <t xml:space="preserve">5.37315368652344</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42851495742798</t>
+    <t xml:space="preserve">5.42851448059082</t>
   </si>
   <si>
     <t xml:space="preserve">5.43159055709839</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44389295578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32701921463013</t>
+    <t xml:space="preserve">5.44389343261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32701873779297</t>
   </si>
   <si>
     <t xml:space="preserve">5.34239721298218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39468288421631</t>
+    <t xml:space="preserve">5.39468240737915</t>
   </si>
   <si>
     <t xml:space="preserve">5.53616333007812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62843132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84372806549072</t>
+    <t xml:space="preserve">5.62843179702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84372758865356</t>
   </si>
   <si>
     <t xml:space="preserve">5.87448358535767</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">5.65611267089844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75145769119263</t>
+    <t xml:space="preserve">5.75145816802979</t>
   </si>
   <si>
     <t xml:space="preserve">5.78836488723755</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">5.78221464157104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69302034378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76991176605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94829893112183</t>
+    <t xml:space="preserve">5.69301986694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76991128921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94829940795898</t>
   </si>
   <si>
     <t xml:space="preserve">6.10515785217285</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">6.1205358505249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4157977104187</t>
+    <t xml:space="preserve">6.41579818725586</t>
   </si>
   <si>
     <t xml:space="preserve">6.40349531173706</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">6.32352828979492</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33583116531372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36658763885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24356174468994</t>
+    <t xml:space="preserve">6.33583068847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36658716201782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24356126785278</t>
   </si>
   <si>
     <t xml:space="preserve">6.18204879760742</t>
@@ -1088,13 +1088,13 @@
     <t xml:space="preserve">6.09285497665405</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21280431747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50806665420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56342935562134</t>
+    <t xml:space="preserve">6.21280527114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50806617736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56342887878418</t>
   </si>
   <si>
     <t xml:space="preserve">6.39119243621826</t>
@@ -1103,43 +1103,43 @@
     <t xml:space="preserve">6.61879014968872</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60648727416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55112600326538</t>
+    <t xml:space="preserve">6.60648679733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55112552642822</t>
   </si>
   <si>
     <t xml:space="preserve">6.65569734573364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69260501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63724422454834</t>
+    <t xml:space="preserve">6.69260549545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63724374771118</t>
   </si>
   <si>
     <t xml:space="preserve">6.62494134902954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45885610580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5757303237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66800117492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82793426513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81563091278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95095920562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88944721221924</t>
+    <t xml:space="preserve">6.45885705947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57573127746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6680006980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82793521881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81563138961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95096015930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88944673538208</t>
   </si>
   <si>
     <t xml:space="preserve">6.70490789413452</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">6.28046894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02826690673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96675252914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00981187820435</t>
+    <t xml:space="preserve">6.02826595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96675300598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0098123550415</t>
   </si>
   <si>
     <t xml:space="preserve">5.87755918502808</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">6.01903915405273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92984533309937</t>
+    <t xml:space="preserve">5.92984628677368</t>
   </si>
   <si>
     <t xml:space="preserve">5.92369318008423</t>
@@ -1184,28 +1184,28 @@
     <t xml:space="preserve">6.13283777236938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060228347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90524005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99750900268555</t>
+    <t xml:space="preserve">5.96060180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90523958206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99750947952271</t>
   </si>
   <si>
     <t xml:space="preserve">5.9544506072998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88063478469849</t>
+    <t xml:space="preserve">5.88063526153564</t>
   </si>
   <si>
     <t xml:space="preserve">5.89293766021729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85602998733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69609594345093</t>
+    <t xml:space="preserve">5.85602951049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69609689712524</t>
   </si>
   <si>
     <t xml:space="preserve">5.64688634872437</t>
@@ -1214,16 +1214,16 @@
     <t xml:space="preserve">5.52385997772217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33316993713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49310350418091</t>
+    <t xml:space="preserve">5.33316946029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49310398101807</t>
   </si>
   <si>
     <t xml:space="preserve">5.21014451980591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08711814880371</t>
+    <t xml:space="preserve">5.08711767196655</t>
   </si>
   <si>
     <t xml:space="preserve">5.17323684692383</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">5.03790760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01945447921753</t>
+    <t xml:space="preserve">5.01945400238037</t>
   </si>
   <si>
     <t xml:space="preserve">5.32086753845215</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">4.9597864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87059259414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74633693695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63192272186279</t>
+    <t xml:space="preserve">4.87059307098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74633646011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63192319869995</t>
   </si>
   <si>
     <t xml:space="preserve">4.62269592285156</t>
@@ -1259,22 +1259,22 @@
     <t xml:space="preserve">4.68728399276733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82568836212158</t>
+    <t xml:space="preserve">4.82568788528442</t>
   </si>
   <si>
     <t xml:space="preserve">4.82937908172607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71188926696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65283727645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66821479797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56425809860229</t>
+    <t xml:space="preserve">4.71188974380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65283679962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66821527481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56425857543945</t>
   </si>
   <si>
     <t xml:space="preserve">4.51873874664307</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">4.61900520324707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59501552581787</t>
+    <t xml:space="preserve">4.59501504898071</t>
   </si>
   <si>
     <t xml:space="preserve">4.44184827804565</t>
@@ -1298,22 +1298,22 @@
     <t xml:space="preserve">4.33666133880615</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73106288909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81509685516357</t>
+    <t xml:space="preserve">4.73106336593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81509733200073</t>
   </si>
   <si>
     <t xml:space="preserve">5.27894020080566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02088165283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12807464599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32128810882568</t>
+    <t xml:space="preserve">5.02088212966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12807512283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32128763198853</t>
   </si>
   <si>
     <t xml:space="preserve">5.53170394897461</t>
@@ -1322,34 +1322,34 @@
     <t xml:space="preserve">5.46487379074097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35635757446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18564224243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14130926132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2266674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16116046905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11550283432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20549297332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18895053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19953727722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18762731552124</t>
+    <t xml:space="preserve">5.35635709762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18564176559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14130878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22666692733765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16115951538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11550331115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20549249649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1889500617981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19953680038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18762683868408</t>
   </si>
   <si>
     <t xml:space="preserve">5.26041269302368</t>
@@ -1358,16 +1358,16 @@
     <t xml:space="preserve">5.10557794570923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09565258026123</t>
+    <t xml:space="preserve">5.09565305709839</t>
   </si>
   <si>
     <t xml:space="preserve">5.13667726516724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19887542724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21409463882446</t>
+    <t xml:space="preserve">5.19887590408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2140941619873</t>
   </si>
   <si>
     <t xml:space="preserve">5.19424390792847</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">5.29349708557129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23394536972046</t>
+    <t xml:space="preserve">5.2339448928833</t>
   </si>
   <si>
     <t xml:space="preserve">5.24453210830688</t>
@@ -1385,16 +1385,16 @@
     <t xml:space="preserve">5.42583417892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31864070892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15057277679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92890739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00169277191162</t>
+    <t xml:space="preserve">5.3186411857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15057229995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92890691757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00169324874878</t>
   </si>
   <si>
     <t xml:space="preserve">4.94611120223999</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">4.89648485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87729597091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8236985206604</t>
+    <t xml:space="preserve">4.87729549407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82369947433472</t>
   </si>
   <si>
     <t xml:space="preserve">4.70790386199951</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">4.47631359100342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73172521591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81311225891113</t>
+    <t xml:space="preserve">4.73172473907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81311273574829</t>
   </si>
   <si>
     <t xml:space="preserve">4.79061460494995</t>
@@ -1436,16 +1436,16 @@
     <t xml:space="preserve">4.845534324646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74495840072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0422739982605</t>
+    <t xml:space="preserve">4.74495792388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04227447509766</t>
   </si>
   <si>
     <t xml:space="preserve">5.16319179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05792188644409</t>
+    <t xml:space="preserve">5.05792236328125</t>
   </si>
   <si>
     <t xml:space="preserve">5.15607929229736</t>
@@ -1463,25 +1463,25 @@
     <t xml:space="preserve">4.92491245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90997552871704</t>
+    <t xml:space="preserve">4.90997505187988</t>
   </si>
   <si>
     <t xml:space="preserve">5.02875947952271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95549726486206</t>
+    <t xml:space="preserve">4.95549774169922</t>
   </si>
   <si>
     <t xml:space="preserve">4.97897005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89005994796753</t>
+    <t xml:space="preserve">4.89005947113037</t>
   </si>
   <si>
     <t xml:space="preserve">4.93629312515259</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89503860473633</t>
+    <t xml:space="preserve">4.89503908157349</t>
   </si>
   <si>
     <t xml:space="preserve">5.01240015029907</t>
@@ -1490,16 +1490,16 @@
     <t xml:space="preserve">4.95194101333618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93415927886963</t>
+    <t xml:space="preserve">4.93415880203247</t>
   </si>
   <si>
     <t xml:space="preserve">5.08566236495972</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14967727661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13900852203369</t>
+    <t xml:space="preserve">5.14967679977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13900804519653</t>
   </si>
   <si>
     <t xml:space="preserve">4.99319553375244</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">5.01737880706787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02804803848267</t>
+    <t xml:space="preserve">5.02804851531982</t>
   </si>
   <si>
     <t xml:space="preserve">5.06859159469604</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">5.10486650466919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16390371322632</t>
+    <t xml:space="preserve">5.16390323638916</t>
   </si>
   <si>
     <t xml:space="preserve">5.22862958908081</t>
@@ -1526,19 +1526,19 @@
     <t xml:space="preserve">5.13260698318481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15110063552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16461420059204</t>
+    <t xml:space="preserve">5.15110015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1646146774292</t>
   </si>
   <si>
     <t xml:space="preserve">5.02591466903687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15678977966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01951313018799</t>
+    <t xml:space="preserve">5.15679025650024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01951360702515</t>
   </si>
   <si>
     <t xml:space="preserve">5.07214832305908</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">5.14327573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10913419723511</t>
+    <t xml:space="preserve">5.10913467407227</t>
   </si>
   <si>
     <t xml:space="preserve">5.0863733291626</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">4.92989206314087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92277860641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91424322128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8317346572876</t>
+    <t xml:space="preserve">4.92277908325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91424369812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83173513412476</t>
   </si>
   <si>
     <t xml:space="preserve">4.73926830291748</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">4.69943618774414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61692810058594</t>
+    <t xml:space="preserve">4.61692762374878</t>
   </si>
   <si>
     <t xml:space="preserve">4.63684368133545</t>
@@ -1592,28 +1592,28 @@
     <t xml:space="preserve">4.68592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69445753097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73713397979736</t>
+    <t xml:space="preserve">4.69445705413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73713445663452</t>
   </si>
   <si>
     <t xml:space="preserve">4.70868301391602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73002195358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70939350128174</t>
+    <t xml:space="preserve">4.73002147674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7093939781189</t>
   </si>
   <si>
     <t xml:space="preserve">4.66173839569092</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67169666290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64537858963013</t>
+    <t xml:space="preserve">4.67169618606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64537906646729</t>
   </si>
   <si>
     <t xml:space="preserve">4.67667531967163</t>
@@ -1622,28 +1622,28 @@
     <t xml:space="preserve">4.67454147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68663311004639</t>
+    <t xml:space="preserve">4.68663358688354</t>
   </si>
   <si>
     <t xml:space="preserve">4.66600608825684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68094301223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63968896865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63186407089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94909572601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82604455947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81466341018677</t>
+    <t xml:space="preserve">4.68094348907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63968849182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63186454772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94909620285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8260440826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81466388702393</t>
   </si>
   <si>
     <t xml:space="preserve">4.8651647567749</t>
@@ -1670,22 +1670,22 @@
     <t xml:space="preserve">4.56784915924072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5799412727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55220127105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48178386688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36797952651978</t>
+    <t xml:space="preserve">4.57994079589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55220079421997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48178434371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36797904968262</t>
   </si>
   <si>
     <t xml:space="preserve">4.34948587417603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30609750747681</t>
+    <t xml:space="preserve">4.30609798431396</t>
   </si>
   <si>
     <t xml:space="preserve">4.20651817321777</t>
@@ -1694,19 +1694,19 @@
     <t xml:space="preserve">4.23425817489624</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12543249130249</t>
+    <t xml:space="preserve">4.12543201446533</t>
   </si>
   <si>
     <t xml:space="preserve">4.19940519332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23852634429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1894474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19300413131714</t>
+    <t xml:space="preserve">4.23852586746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18944692611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19300365447998</t>
   </si>
   <si>
     <t xml:space="preserve">4.24635028839111</t>
@@ -1721,28 +1721,28 @@
     <t xml:space="preserve">4.27408981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36513471603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43341684341431</t>
+    <t xml:space="preserve">4.36513423919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43341732025146</t>
   </si>
   <si>
     <t xml:space="preserve">4.44550895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43768453598022</t>
+    <t xml:space="preserve">4.43768501281738</t>
   </si>
   <si>
     <t xml:space="preserve">4.3665566444397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29613971710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51663684844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42345952987671</t>
+    <t xml:space="preserve">4.29613924026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51663732528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42345905303955</t>
   </si>
   <si>
     <t xml:space="preserve">4.37082433700562</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">4.29542875289917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2776460647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23283576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17166519165039</t>
+    <t xml:space="preserve">4.27764654159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23283624649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17166566848755</t>
   </si>
   <si>
     <t xml:space="preserve">4.17379903793335</t>
@@ -1775,25 +1775,25 @@
     <t xml:space="preserve">4.2883152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3694019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38149309158325</t>
+    <t xml:space="preserve">4.36940240859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38149356842041</t>
   </si>
   <si>
     <t xml:space="preserve">4.34379577636719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33312654495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25559616088867</t>
+    <t xml:space="preserve">4.33312606811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25559663772583</t>
   </si>
   <si>
     <t xml:space="preserve">4.18375730514526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16810941696167</t>
+    <t xml:space="preserve">4.16810894012451</t>
   </si>
   <si>
     <t xml:space="preserve">4.13041114807129</t>
@@ -1820,43 +1820,43 @@
     <t xml:space="preserve">3.91204786300659</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83807444572449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82242631912231</t>
+    <t xml:space="preserve">3.83807468414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82242679595947</t>
   </si>
   <si>
     <t xml:space="preserve">3.86225771903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8572793006897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77477025985718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82811689376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96325993537903</t>
+    <t xml:space="preserve">3.85727906227112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77477049827576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82811665534973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96325969696045</t>
   </si>
   <si>
     <t xml:space="preserve">4.03438806533813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13112211227417</t>
+    <t xml:space="preserve">4.13112258911133</t>
   </si>
   <si>
     <t xml:space="preserve">4.11547422409058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20296144485474</t>
+    <t xml:space="preserve">4.20296192169189</t>
   </si>
   <si>
     <t xml:space="preserve">4.18802499771118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20794105529785</t>
+    <t xml:space="preserve">4.20794057846069</t>
   </si>
   <si>
     <t xml:space="preserve">4.18233489990234</t>
@@ -1880,16 +1880,16 @@
     <t xml:space="preserve">4.15174961090088</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1069393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21220874786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25986480712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37366914749146</t>
+    <t xml:space="preserve">4.10693883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21220827102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25986433029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37366962432861</t>
   </si>
   <si>
     <t xml:space="preserve">4.46755886077881</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">4.43697309494019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43839597702026</t>
+    <t xml:space="preserve">4.43839550018311</t>
   </si>
   <si>
     <t xml:space="preserve">4.39714193344116</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">4.39571905136108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41705751419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40994501113892</t>
+    <t xml:space="preserve">4.41705703735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40994453430176</t>
   </si>
   <si>
     <t xml:space="preserve">4.38860654830933</t>
@@ -1919,16 +1919,16 @@
     <t xml:space="preserve">4.27906847000122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19371509552002</t>
+    <t xml:space="preserve">4.19371557235718</t>
   </si>
   <si>
     <t xml:space="preserve">4.2676887512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23070240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27480173110962</t>
+    <t xml:space="preserve">4.23070192337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27480125427246</t>
   </si>
   <si>
     <t xml:space="preserve">4.31534433364868</t>
@@ -1937,40 +1937,40 @@
     <t xml:space="preserve">4.38433837890625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36726760864258</t>
+    <t xml:space="preserve">4.36726808547974</t>
   </si>
   <si>
     <t xml:space="preserve">4.36442232131958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36015510559082</t>
+    <t xml:space="preserve">4.36015558242798</t>
   </si>
   <si>
     <t xml:space="preserve">4.30680894851685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43270587921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49458742141724</t>
+    <t xml:space="preserve">4.43270540237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49458694458008</t>
   </si>
   <si>
     <t xml:space="preserve">4.40069818496704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48676300048828</t>
+    <t xml:space="preserve">4.48676347732544</t>
   </si>
   <si>
     <t xml:space="preserve">4.5251727104187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65889358520508</t>
+    <t xml:space="preserve">4.65889310836792</t>
   </si>
   <si>
     <t xml:space="preserve">4.73215532302856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63044214248657</t>
+    <t xml:space="preserve">4.63044261932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.59487819671631</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">4.71366214752197</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73571157455444</t>
+    <t xml:space="preserve">4.7357120513916</t>
   </si>
   <si>
     <t xml:space="preserve">4.76843070983887</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">4.57211685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61621618270874</t>
+    <t xml:space="preserve">4.6162166595459</t>
   </si>
   <si>
     <t xml:space="preserve">4.58065223693848</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">4.68023157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71579551696777</t>
+    <t xml:space="preserve">4.71579599380493</t>
   </si>
   <si>
     <t xml:space="preserve">4.74424695968628</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">4.60910367965698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63755464553833</t>
+    <t xml:space="preserve">4.63755512237549</t>
   </si>
   <si>
     <t xml:space="preserve">4.68734455108643</t>
@@ -2054,16 +2054,16 @@
     <t xml:space="preserve">4.78692388534546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87939119338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81537580490112</t>
+    <t xml:space="preserve">4.87939071655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81537532806396</t>
   </si>
   <si>
     <t xml:space="preserve">4.65178060531616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70926523208618</t>
+    <t xml:space="preserve">4.70926475524902</t>
   </si>
   <si>
     <t xml:space="preserve">4.77082347869873</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">4.78621339797974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85546779632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90163660049438</t>
+    <t xml:space="preserve">4.85546731948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90163707733154</t>
   </si>
   <si>
     <t xml:space="preserve">4.87855243682861</t>
@@ -2096,19 +2096,19 @@
     <t xml:space="preserve">4.67079067230225</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73234939575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72465467453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71695947647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80929803848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8016037940979</t>
+    <t xml:space="preserve">4.73234987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72465419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71695995330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80929851531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80160331726074</t>
   </si>
   <si>
     <t xml:space="preserve">4.74004411697388</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">4.60153675079346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53228282928467</t>
+    <t xml:space="preserve">4.53228235244751</t>
   </si>
   <si>
     <t xml:space="preserve">4.57845211029053</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">4.52458810806274</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57075691223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5091986656189</t>
+    <t xml:space="preserve">4.5707573890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50919818878174</t>
   </si>
   <si>
     <t xml:space="preserve">4.47841882705688</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">4.58614730834961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55536699295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53997755050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54767274856567</t>
+    <t xml:space="preserve">4.55536794662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53997802734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54767227172852</t>
   </si>
   <si>
     <t xml:space="preserve">4.50150299072266</t>
@@ -2177,13 +2177,13 @@
     <t xml:space="preserve">4.39377498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34760618209839</t>
+    <t xml:space="preserve">4.34760570526123</t>
   </si>
   <si>
     <t xml:space="preserve">4.33991050720215</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24757194519043</t>
+    <t xml:space="preserve">4.24757242202759</t>
   </si>
   <si>
     <t xml:space="preserve">4.27835178375244</t>
@@ -2195,13 +2195,13 @@
     <t xml:space="preserve">4.16292858123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07059001922607</t>
+    <t xml:space="preserve">4.07059049606323</t>
   </si>
   <si>
     <t xml:space="preserve">4.03981065750122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.093674659729</t>
+    <t xml:space="preserve">4.09367513656616</t>
   </si>
   <si>
     <t xml:space="preserve">4.03211545944214</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">4.18601322174072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20909786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23987770080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30913162231445</t>
+    <t xml:space="preserve">4.20909738540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23987722396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30913114547729</t>
   </si>
   <si>
     <t xml:space="preserve">4.33221578598022</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">4.31682634353638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25526762008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28604698181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27065706253052</t>
+    <t xml:space="preserve">4.25526714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28604650497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27065658569336</t>
   </si>
   <si>
     <t xml:space="preserve">4.30143642425537</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">4.42455434799194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44763898849487</t>
+    <t xml:space="preserve">4.44763946533203</t>
   </si>
   <si>
     <t xml:space="preserve">4.43224954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56306219100952</t>
+    <t xml:space="preserve">4.56306171417236</t>
   </si>
   <si>
     <t xml:space="preserve">4.59384155273438</t>
@@ -2294,16 +2294,16 @@
     <t xml:space="preserve">4.61692667007446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62462091445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60923099517822</t>
+    <t xml:space="preserve">4.62462139129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60923147201538</t>
   </si>
   <si>
     <t xml:space="preserve">4.82468795776367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90933227539062</t>
+    <t xml:space="preserve">4.90933179855347</t>
   </si>
   <si>
     <t xml:space="preserve">4.95550107955933</t>
@@ -2330,13 +2330,13 @@
     <t xml:space="preserve">4.88624715805054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8477725982666</t>
+    <t xml:space="preserve">4.84777307510376</t>
   </si>
   <si>
     <t xml:space="preserve">4.2244873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20140314102173</t>
+    <t xml:space="preserve">4.20140266418457</t>
   </si>
   <si>
     <t xml:space="preserve">4.10136985778809</t>
@@ -2345,25 +2345,25 @@
     <t xml:space="preserve">4.06289529800415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60120248794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50116944313049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49347424507141</t>
+    <t xml:space="preserve">3.60120272636414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50116920471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49347448348999</t>
   </si>
   <si>
     <t xml:space="preserve">2.81247782707214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.858647108078</t>
+    <t xml:space="preserve">2.85864686965942</t>
   </si>
   <si>
     <t xml:space="preserve">2.62780046463013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66242742538452</t>
+    <t xml:space="preserve">2.6624276638031</t>
   </si>
   <si>
     <t xml:space="preserve">2.79708790779114</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">2.98561239242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90481615066528</t>
+    <t xml:space="preserve">2.90481638908386</t>
   </si>
   <si>
     <t xml:space="preserve">2.93174815177917</t>
@@ -2393,25 +2393,25 @@
     <t xml:space="preserve">2.77785086631775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88557910919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90096879005432</t>
+    <t xml:space="preserve">2.88557887077332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90096855163574</t>
   </si>
   <si>
     <t xml:space="preserve">2.84710478782654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79324054718018</t>
+    <t xml:space="preserve">2.79324078559875</t>
   </si>
   <si>
     <t xml:space="preserve">2.8086302280426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86249423027039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83171510696411</t>
+    <t xml:space="preserve">2.86249446868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83171463012695</t>
   </si>
   <si>
     <t xml:space="preserve">2.78939294815063</t>
@@ -2426,10 +2426,10 @@
     <t xml:space="preserve">2.78554558753967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72013926506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7162914276123</t>
+    <t xml:space="preserve">2.72013902664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71629190444946</t>
   </si>
   <si>
     <t xml:space="preserve">2.73168158531189</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">2.74707126617432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.704749584198</t>
+    <t xml:space="preserve">2.70474934577942</t>
   </si>
   <si>
     <t xml:space="preserve">2.6970546245575</t>
@@ -2447,16 +2447,16 @@
     <t xml:space="preserve">2.72398662567139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68166446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64319038391113</t>
+    <t xml:space="preserve">2.68166470527649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64319014549255</t>
   </si>
   <si>
     <t xml:space="preserve">2.53930950164795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5085301399231</t>
+    <t xml:space="preserve">2.50852990150452</t>
   </si>
   <si>
     <t xml:space="preserve">2.47775053977966</t>
@@ -2465,13 +2465,13 @@
     <t xml:space="preserve">2.48544549942017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55469918251038</t>
+    <t xml:space="preserve">2.55469942092896</t>
   </si>
   <si>
     <t xml:space="preserve">2.42003893852234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31231045722961</t>
+    <t xml:space="preserve">2.31231069564819</t>
   </si>
   <si>
     <t xml:space="preserve">2.33539533615112</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">2.49698758125305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52391982078552</t>
+    <t xml:space="preserve">2.52391958236694</t>
   </si>
   <si>
     <t xml:space="preserve">2.60086870193481</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">2.70090198516846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70859670639038</t>
+    <t xml:space="preserve">2.70859694480896</t>
   </si>
   <si>
     <t xml:space="preserve">2.87403655052185</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">2.75324726104736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72037267684937</t>
+    <t xml:space="preserve">2.72037291526794</t>
   </si>
   <si>
     <t xml:space="preserve">2.66284227371216</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">2.60531187057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54778099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53956246376038</t>
+    <t xml:space="preserve">2.54778122901917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5395622253418</t>
   </si>
   <si>
     <t xml:space="preserve">2.51079726219177</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">2.57243728637695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60120224952698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56832766532898</t>
+    <t xml:space="preserve">2.60120248794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56832790374756</t>
   </si>
   <si>
     <t xml:space="preserve">2.52312517166138</t>
@@ -2627,10 +2627,10 @@
     <t xml:space="preserve">2.46559476852417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47792291641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4121732711792</t>
+    <t xml:space="preserve">2.47792267799377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41217350959778</t>
   </si>
   <si>
     <t xml:space="preserve">2.45326662063599</t>
@@ -2645,22 +2645,22 @@
     <t xml:space="preserve">2.53134369850159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58887434005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65462374687195</t>
+    <t xml:space="preserve">2.58887457847595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65462350845337</t>
   </si>
   <si>
     <t xml:space="preserve">2.60942101478577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38340830802917</t>
+    <t xml:space="preserve">2.3834080696106</t>
   </si>
   <si>
     <t xml:space="preserve">2.3628613948822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38751745223999</t>
+    <t xml:space="preserve">2.38751769065857</t>
   </si>
   <si>
     <t xml:space="preserve">2.36697101593018</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">2.03411555290222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04644370079041</t>
+    <t xml:space="preserve">2.04644346237183</t>
   </si>
   <si>
     <t xml:space="preserve">2.05055284500122</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">2.157395362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16561412811279</t>
+    <t xml:space="preserve">2.16561388969421</t>
   </si>
   <si>
     <t xml:space="preserve">2.15328598022461</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">2.90940165519714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86830854415894</t>
+    <t xml:space="preserve">2.86830830574036</t>
   </si>
   <si>
     <t xml:space="preserve">2.83543395996094</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">2.96282291412354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94638586044312</t>
+    <t xml:space="preserve">2.94638562202454</t>
   </si>
   <si>
     <t xml:space="preserve">2.95460438728333</t>
@@ -2753,13 +2753,13 @@
     <t xml:space="preserve">2.88063645362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97104144096375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95049476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03679060935974</t>
+    <t xml:space="preserve">2.97104167938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95049500465393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03679084777832</t>
   </si>
   <si>
     <t xml:space="preserve">3.06555604934692</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">3.01213479042053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87652707099915</t>
+    <t xml:space="preserve">2.87652730941772</t>
   </si>
   <si>
     <t xml:space="preserve">2.92994832992554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04911875724792</t>
+    <t xml:space="preserve">3.0491189956665</t>
   </si>
   <si>
     <t xml:space="preserve">3.08199334144592</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">2.92583894729614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00391626358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04090023040771</t>
+    <t xml:space="preserve">3.00391602516174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04089999198914</t>
   </si>
   <si>
     <t xml:space="preserve">3.04500937461853</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05733728408813</t>
+    <t xml:space="preserve">3.05733752250671</t>
   </si>
   <si>
     <t xml:space="preserve">3.07788395881653</t>
@@ -2819,13 +2819,13 @@
     <t xml:space="preserve">3.10254001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06966519355774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98747897148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90118288993835</t>
+    <t xml:space="preserve">3.06966543197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98747873306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90118312835693</t>
   </si>
   <si>
     <t xml:space="preserve">2.92172980308533</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">3.00802540779114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02446293830872</t>
+    <t xml:space="preserve">3.02446269989014</t>
   </si>
   <si>
     <t xml:space="preserve">3.08610272407532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12719583511353</t>
+    <t xml:space="preserve">3.1271960735321</t>
   </si>
   <si>
     <t xml:space="preserve">3.15185189247131</t>
@@ -2858,22 +2858,22 @@
     <t xml:space="preserve">3.2874596118927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1600706577301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22581958770752</t>
+    <t xml:space="preserve">3.16007041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2258198261261</t>
   </si>
   <si>
     <t xml:space="preserve">3.14774250984192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21349167823792</t>
+    <t xml:space="preserve">3.21349191665649</t>
   </si>
   <si>
     <t xml:space="preserve">3.13130521774292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17239856719971</t>
+    <t xml:space="preserve">3.17239832878113</t>
   </si>
   <si>
     <t xml:space="preserve">3.17650771141052</t>
@@ -2909,22 +2909,22 @@
     <t xml:space="preserve">2.81899666786194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84776186943054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91351103782654</t>
+    <t xml:space="preserve">2.84776163101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91351127624512</t>
   </si>
   <si>
     <t xml:space="preserve">3.09843063354492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26280355453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18061709403992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24636626243591</t>
+    <t xml:space="preserve">3.26280379295349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18061685562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24636650085449</t>
   </si>
   <si>
     <t xml:space="preserve">3.18883585929871</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">3.3655366897583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38197374343872</t>
+    <t xml:space="preserve">3.3819739818573</t>
   </si>
   <si>
     <t xml:space="preserve">3.41484880447388</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">3.44361400604248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51347255706787</t>
+    <t xml:space="preserve">3.51347231864929</t>
   </si>
   <si>
     <t xml:space="preserve">3.38608336448669</t>
@@ -2963,25 +2963,25 @@
     <t xml:space="preserve">3.40663003921509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3490993976593</t>
+    <t xml:space="preserve">3.34909915924072</t>
   </si>
   <si>
     <t xml:space="preserve">3.34499025344849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32033395767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36964583396912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3162248134613</t>
+    <t xml:space="preserve">3.3203341960907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3696460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31622457504272</t>
   </si>
   <si>
     <t xml:space="preserve">3.32444357872009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3367714881897</t>
+    <t xml:space="preserve">3.33677124977112</t>
   </si>
   <si>
     <t xml:space="preserve">3.30800628662109</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">3.31211566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37786483764648</t>
+    <t xml:space="preserve">3.37786459922791</t>
   </si>
   <si>
     <t xml:space="preserve">3.43128609657288</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">3.46005129814148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52990984916687</t>
+    <t xml:space="preserve">3.52990961074829</t>
   </si>
   <si>
     <t xml:space="preserve">3.5258002281189</t>
@@ -3011,25 +3011,25 @@
     <t xml:space="preserve">3.68195462226868</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79701566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81756258010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82167172431946</t>
+    <t xml:space="preserve">3.79701590538025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81756234169006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82167196273804</t>
   </si>
   <si>
     <t xml:space="preserve">3.79290628433228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76414132118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64086151123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57511210441589</t>
+    <t xml:space="preserve">3.76414084434509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64086127281189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57511234283447</t>
   </si>
   <si>
     <t xml:space="preserve">3.64497065544128</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">3.5710027217865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55867481231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45594191551208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35731816291809</t>
+    <t xml:space="preserve">3.55867505073547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45594167709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35731792449951</t>
   </si>
   <si>
     <t xml:space="preserve">3.37375545501709</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">3.45183229446411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43950438499451</t>
+    <t xml:space="preserve">3.43950462341309</t>
   </si>
   <si>
     <t xml:space="preserve">3.33266186714172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41895771026611</t>
+    <t xml:space="preserve">3.41895794868469</t>
   </si>
   <si>
     <t xml:space="preserve">3.39430212974548</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">3.19294500350952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2997875213623</t>
+    <t xml:space="preserve">3.29978728294373</t>
   </si>
   <si>
     <t xml:space="preserve">3.36142754554749</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">3.3038969039917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39019250869751</t>
+    <t xml:space="preserve">3.39019274711609</t>
   </si>
   <si>
     <t xml:space="preserve">3.48059797286987</t>
@@ -3095,22 +3095,22 @@
     <t xml:space="preserve">3.4888162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3532087802887</t>
+    <t xml:space="preserve">3.35320854187012</t>
   </si>
   <si>
     <t xml:space="preserve">3.25869417190552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23403811454773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20116376876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1970546245575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27924108505249</t>
+    <t xml:space="preserve">3.23403835296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20116353034973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19705438613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27924084663391</t>
   </si>
   <si>
     <t xml:space="preserve">3.2710223197937</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">2.99569749832153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12308669090271</t>
+    <t xml:space="preserve">3.12308645248413</t>
   </si>
   <si>
     <t xml:space="preserve">3.42717671394348</t>
@@ -3146,16 +3146,16 @@
     <t xml:space="preserve">3.29156899452209</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28334999084473</t>
+    <t xml:space="preserve">3.28335022926331</t>
   </si>
   <si>
     <t xml:space="preserve">3.34088087081909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1436333656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10664916038513</t>
+    <t xml:space="preserve">3.14363312721252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10664939880371</t>
   </si>
   <si>
     <t xml:space="preserve">3.11486792564392</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">3.02857208251953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89296436309814</t>
+    <t xml:space="preserve">2.89296460151672</t>
   </si>
   <si>
     <t xml:space="preserve">2.97926020622253</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">3.39841151237488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4764883518219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49292588233948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48470711708069</t>
+    <t xml:space="preserve">3.47648859024048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4929256439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48470687866211</t>
   </si>
   <si>
     <t xml:space="preserve">3.65318965911865</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">3.46416068077087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47237920761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43539524078369</t>
+    <t xml:space="preserve">3.4723789691925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43539500236511</t>
   </si>
   <si>
     <t xml:space="preserve">3.51758193969727</t>
@@ -3233,28 +3233,28 @@
     <t xml:space="preserve">3.60798668861389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59154963493347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66551756858826</t>
+    <t xml:space="preserve">3.59154939651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66551733016968</t>
   </si>
   <si>
     <t xml:space="preserve">3.66962695121765</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67373561859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75592279434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71482944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80112528800964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73537588119507</t>
+    <t xml:space="preserve">3.67373585700989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75592255592346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71482920646667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80112504959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73537611961365</t>
   </si>
   <si>
     <t xml:space="preserve">3.74770379066467</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">3.80523467063904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646923065186</t>
+    <t xml:space="preserve">3.77646899223328</t>
   </si>
   <si>
     <t xml:space="preserve">3.74359440803528</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">3.76003170013428</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71071982383728</t>
+    <t xml:space="preserve">3.71072006225586</t>
   </si>
   <si>
     <t xml:space="preserve">3.66140794754028</t>
@@ -4320,6 +4320,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.36500000953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36999988555908</t>
   </si>
 </sst>
 </file>
@@ -8397,7 +8400,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G144" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8449,7 +8452,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G146" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8475,7 +8478,7 @@
         <v>7.33019208908081</v>
       </c>
       <c r="G147" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8501,7 +8504,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G148" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8527,7 +8530,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G149" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8553,7 +8556,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G150" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8605,7 +8608,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G152" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8631,7 +8634,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G153" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8657,7 +8660,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G154" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8683,7 +8686,7 @@
         <v>7.07918977737427</v>
       </c>
       <c r="G155" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8709,7 +8712,7 @@
         <v>7.05130100250244</v>
       </c>
       <c r="G156" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8735,7 +8738,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G157" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8761,7 +8764,7 @@
         <v>7.13032007217407</v>
       </c>
       <c r="G158" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8787,7 +8790,7 @@
         <v>7.04200410842896</v>
       </c>
       <c r="G159" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8813,7 +8816,7 @@
         <v>7.0048189163208</v>
       </c>
       <c r="G160" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8839,7 +8842,7 @@
         <v>6.93509578704834</v>
       </c>
       <c r="G161" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8865,7 +8868,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G162" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8891,7 +8894,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G163" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8917,7 +8920,7 @@
         <v>6.78170585632324</v>
       </c>
       <c r="G164" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8943,7 +8946,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G165" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8969,7 +8972,7 @@
         <v>6.88396596908569</v>
       </c>
       <c r="G166" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8995,7 +8998,7 @@
         <v>6.87002086639404</v>
       </c>
       <c r="G167" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -9021,7 +9024,7 @@
         <v>6.83283615112305</v>
       </c>
       <c r="G168" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9047,7 +9050,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G169" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -9073,7 +9076,7 @@
         <v>6.77705812454224</v>
       </c>
       <c r="G170" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9099,7 +9102,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G171" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9125,7 +9128,7 @@
         <v>6.71198320388794</v>
       </c>
       <c r="G172" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9151,7 +9154,7 @@
         <v>6.64690780639648</v>
       </c>
       <c r="G173" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9177,7 +9180,7 @@
         <v>6.79565000534058</v>
       </c>
       <c r="G174" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9203,7 +9206,7 @@
         <v>6.69803810119629</v>
       </c>
       <c r="G175" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9255,7 +9258,7 @@
         <v>6.74916791915894</v>
       </c>
       <c r="G177" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9281,7 +9284,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G178" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9307,7 +9310,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G179" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9333,7 +9336,7 @@
         <v>6.242516040802</v>
       </c>
       <c r="G180" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9385,7 +9388,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G182" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9411,7 +9414,7 @@
         <v>6.09842205047607</v>
       </c>
       <c r="G183" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9437,7 +9440,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G184" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9463,7 +9466,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G185" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9489,7 +9492,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G186" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9515,7 +9518,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G187" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9541,7 +9544,7 @@
         <v>6.17744112014771</v>
       </c>
       <c r="G188" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9567,7 +9570,7 @@
         <v>6.13095903396606</v>
       </c>
       <c r="G189" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9619,7 +9622,7 @@
         <v>6.26575708389282</v>
       </c>
       <c r="G191" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9671,7 +9674,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G193" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9697,7 +9700,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G194" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9723,7 +9726,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G195" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9749,7 +9752,7 @@
         <v>6.11236715316772</v>
       </c>
       <c r="G196" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9775,7 +9778,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G197" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9801,7 +9804,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G198" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9827,7 +9830,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G199" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9853,7 +9856,7 @@
         <v>6.02405118942261</v>
       </c>
       <c r="G200" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9879,7 +9882,7 @@
         <v>5.99616193771362</v>
       </c>
       <c r="G201" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9905,7 +9908,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G202" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9931,7 +9934,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G203" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9957,7 +9960,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G204" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9983,7 +9986,7 @@
         <v>6.20532989501953</v>
       </c>
       <c r="G205" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10009,7 +10012,7 @@
         <v>6.45633316040039</v>
       </c>
       <c r="G206" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10035,7 +10038,7 @@
         <v>6.56324100494385</v>
       </c>
       <c r="G207" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10061,7 +10064,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G208" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10087,7 +10090,7 @@
         <v>6.63761186599731</v>
       </c>
       <c r="G209" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10139,7 +10142,7 @@
         <v>6.65155601501465</v>
       </c>
       <c r="G211" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10165,7 +10168,7 @@
         <v>6.600426197052</v>
       </c>
       <c r="G212" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10191,7 +10194,7 @@
         <v>6.52140712738037</v>
       </c>
       <c r="G213" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10243,7 +10246,7 @@
         <v>6.46562910079956</v>
       </c>
       <c r="G215" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10269,7 +10272,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G216" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10295,7 +10298,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G217" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10321,7 +10324,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G218" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10347,7 +10350,7 @@
         <v>6.36336898803711</v>
       </c>
       <c r="G219" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10373,7 +10376,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G220" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10399,7 +10402,7 @@
         <v>6.34477615356445</v>
       </c>
       <c r="G221" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10425,7 +10428,7 @@
         <v>6.29364585876465</v>
       </c>
       <c r="G222" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10451,7 +10454,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G223" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10477,7 +10480,7 @@
         <v>6.21462678909302</v>
       </c>
       <c r="G224" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10503,7 +10506,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G225" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10529,7 +10532,7 @@
         <v>6.06123685836792</v>
       </c>
       <c r="G226" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10555,7 +10558,7 @@
         <v>6.07053279876709</v>
       </c>
       <c r="G227" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10581,7 +10584,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G228" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10607,7 +10610,7 @@
         <v>5.74516010284424</v>
       </c>
       <c r="G229" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10633,7 +10636,7 @@
         <v>5.88460493087769</v>
       </c>
       <c r="G230" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10659,7 +10662,7 @@
         <v>5.92643880844116</v>
       </c>
       <c r="G231" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10685,7 +10688,7 @@
         <v>5.90784597396851</v>
       </c>
       <c r="G232" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10711,7 +10714,7 @@
         <v>5.78234481811523</v>
       </c>
       <c r="G233" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10737,7 +10740,7 @@
         <v>5.81023406982422</v>
       </c>
       <c r="G234" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10763,7 +10766,7 @@
         <v>5.81953096389771</v>
       </c>
       <c r="G235" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10789,7 +10792,7 @@
         <v>5.86601305007935</v>
       </c>
       <c r="G236" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10815,7 +10818,7 @@
         <v>5.85671615600586</v>
       </c>
       <c r="G237" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10841,7 +10844,7 @@
         <v>5.91249513626099</v>
       </c>
       <c r="G238" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10867,7 +10870,7 @@
         <v>5.83812379837036</v>
       </c>
       <c r="G239" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10893,7 +10896,7 @@
         <v>6.14490413665771</v>
       </c>
       <c r="G240" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10919,7 +10922,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G241" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10945,7 +10948,7 @@
         <v>6.3959059715271</v>
       </c>
       <c r="G242" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10971,7 +10974,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G243" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10997,7 +11000,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G244" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11049,7 +11052,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G246" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11127,7 +11130,7 @@
         <v>6.57718515396118</v>
       </c>
       <c r="G249" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11153,7 +11156,7 @@
         <v>6.53070402145386</v>
       </c>
       <c r="G250" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11179,7 +11182,7 @@
         <v>6.6655011177063</v>
       </c>
       <c r="G251" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11205,7 +11208,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G252" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11231,7 +11234,7 @@
         <v>6.67479705810547</v>
       </c>
       <c r="G253" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11257,7 +11260,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G254" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11283,7 +11286,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G255" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11309,7 +11312,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G256" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11335,7 +11338,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G257" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11361,7 +11364,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G258" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11439,7 +11442,7 @@
         <v>7.05594921112061</v>
       </c>
       <c r="G261" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11491,7 +11494,7 @@
         <v>6.91650295257568</v>
       </c>
       <c r="G263" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11517,7 +11520,7 @@
         <v>7.00946712493896</v>
       </c>
       <c r="G264" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11543,7 +11546,7 @@
         <v>7.02341079711914</v>
       </c>
       <c r="G265" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11595,7 +11598,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G267" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11621,7 +11624,7 @@
         <v>6.94903993606567</v>
       </c>
       <c r="G268" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11647,7 +11650,7 @@
         <v>6.88861417770386</v>
       </c>
       <c r="G269" t="s">
-        <v>218</v>
+        <v>67</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11881,7 +11884,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G278" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -12063,7 +12066,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G285" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12167,7 +12170,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G289" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12193,7 +12196,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G290" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12245,7 +12248,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G292" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12271,7 +12274,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G293" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12297,7 +12300,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G294" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12427,7 +12430,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G299" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12479,7 +12482,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G301" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12583,7 +12586,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G305" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12609,7 +12612,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G306" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12635,7 +12638,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G307" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12661,7 +12664,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G308" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12739,7 +12742,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G311" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -61939,7 +61942,7 @@
     </row>
     <row r="2204">
       <c r="A2204" s="1" t="n">
-        <v>45532.6499305556</v>
+        <v>45532.2916666667</v>
       </c>
       <c r="B2204" t="n">
         <v>334870</v>
@@ -61960,6 +61963,32 @@
         <v>1435</v>
       </c>
       <c r="H2204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="1" t="n">
+        <v>45533.6494791667</v>
+      </c>
+      <c r="B2205" t="n">
+        <v>379501</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>2.42499995231628</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>2.35500001907349</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>2.36999988555908</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>2.36999988555908</v>
+      </c>
+      <c r="G2205" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H2205" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89286470413208</t>
+    <t xml:space="preserve">4.89286518096924</t>
   </si>
   <si>
     <t xml:space="preserve">IGD.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97771215438843</t>
+    <t xml:space="preserve">4.97771263122559</t>
   </si>
   <si>
     <t xml:space="preserve">4.93246030807495</t>
@@ -56,655 +56,655 @@
     <t xml:space="preserve">4.80801773071289</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69488763809204</t>
+    <t xml:space="preserve">4.6948881149292</t>
   </si>
   <si>
     <t xml:space="preserve">4.72317028045654</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83347225189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70902919769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48276853561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30741786956787</t>
+    <t xml:space="preserve">4.83347177505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70902872085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48276901245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30741834640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18580436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73328447341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01610898971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09247159957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17731904983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11226940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08398723602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94540286064148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10095643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21125793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05570459365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82378816604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9171199798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57490229606628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62015414237976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81813097000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69086074829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76439547538757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01893758773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954442024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07267379760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00479555130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19994449615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1462082862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08964347839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12358236312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12923860549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1716628074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19428777694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38660907745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35549879074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52519273757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48559808731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49690961837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48842573165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58175802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68357467651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66660594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61569690704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72882652282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83629989624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76842212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70620012283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6383228302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49973917007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57327270507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5761022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41206312179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40075016021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36963987350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37246799468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38378095626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47994089126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55347537994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4686279296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45448732376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489171981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47428464889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44034576416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41772031784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44317388534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5506477355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45731496810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53933429718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57892990112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4940824508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54216289520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45165824890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65023183822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73061323165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81099462509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85267448425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84076547622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85565090179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82290315628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77526950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73358917236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79610967636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7901554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79313182830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79908609390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72168207168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50137615203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20068979263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22450542449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08755922317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10839891433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30488777160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34656715393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39420080184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42397212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17389535903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954322814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97740650177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98931455612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37038326263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30191040039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15603256225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00122308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96847486495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09946775436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19771242141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23343753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40313243865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55496454238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48351383209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67404842376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56984949111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60855150222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52519369125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63832330703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61152935028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68595600128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64427709579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67107105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40610980987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54007863998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62046003341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53412485122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51626205444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56687259674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51030731201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48649072647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44183397293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46267414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3346586227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.343590259552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36740636825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40908622741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40015459060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37633848190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.287024974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34061288833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31084203720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29893398284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25725364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35252046585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29000234603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32274961471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21557426452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07862854003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99824595451355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9297730922699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90595602989197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97145223617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87618494033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87916231155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9922924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95656728744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92679572105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01313161849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94168138504028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91488814353943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89404797554016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85832262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84046030044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85236835479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9744291305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13519287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20366621017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2512993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26023054122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22748327255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17687225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14114713668823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11137628555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04885721206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07565116882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06076574325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06374263763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0309944152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98038339614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8821394443512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88809370994568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67969608306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76900887489319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79580330848694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78389477729797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70351314544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72137594223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72733044624329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75710153579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75114727020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78687262535095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73923850059509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93572735786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09648990631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21259737014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18282699584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26916265487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27511644363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26320838928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51923942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4299259185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48946809768677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4983983039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48053598403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45076513290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41206359863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41801738739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37336111068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35847568511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32572746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2393913269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14412403106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24534559249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16794157028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20961999893188</t>
   </si>
   <si>
     <t xml:space="preserve">4.18580389022827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73328447341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01610898971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09247159957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17731857299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11226940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08398723602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94540286064148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10095643997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21125793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05570411682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82378840446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9171199798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57490229606628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62015414237976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81813168525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69086098670959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76439547538757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01893758773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954442024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07267332077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00479602813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19994449615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14620780944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0896430015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12358236312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12923860549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1716628074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19428825378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38660907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35549879074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52519273757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48559808731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49691009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48842573165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58175802230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68357419967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66660594940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61569690704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72882699966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83629989624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76842212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70620012283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63832330703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49973964691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57327365875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57610177993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41206312179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40075016021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36963939666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37246751785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38378095626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47994136810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55347585678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4686279296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45448732376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5167088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47428464889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44034576416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41771984100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44317436218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5506477355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45731544494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53933429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57893037796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4940824508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54216289520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45165872573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65023136138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73061323165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81099462509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85267448425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84076595306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85565137863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82290363311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77526950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73358917236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79610967636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7901554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79313230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79908609390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72168207168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50137662887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20068979263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22450590133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08755970001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10839939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30488777160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34656715393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39420080184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42397165298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17389535903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954346656799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97740626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98931455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37038373947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30191040039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15603303909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00122308731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9684751033783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09946727752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19771242141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23343753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40313196182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55496454238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48351383209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67404842376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56984949111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60855197906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5251932144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61152935028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6948881149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6859564781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64427709579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67107057571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40610980987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54007911682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62046003341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53412437438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51626205444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56687259674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51030731201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48649072647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44183444976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46267414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3346586227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.343590259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36740636825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40908575057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40015459060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37633800506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28702449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34061288833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31084203720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29893398284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25725364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35252141952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29000186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32274961471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21557474136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0786280632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99824619293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92977285385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90595602989197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97145223617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87618541717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87916231155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99229264259338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95656681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92679595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01313209533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94168162345886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91488766670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89404773712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85832262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84046006202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85236835479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97442936897278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13519334793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20366621017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25129985809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26023054122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22748327255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17687225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14114713668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11137628555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04885721206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07565116882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06076526641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06374263763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0309944152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98038339614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8821394443512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8880934715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67969655990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76900887489319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79580330848694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78389501571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7035129070282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72137570381165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72733044624329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75710153579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75114727020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78687262535095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73923873901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9357271194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09648990631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21259689331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18282747268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26916265487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27511644363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26320886611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51923894882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4299259185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48946857452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49839878082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48053646087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45076465606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41206359863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41801691055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37336158752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35847568511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32572746276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23939085006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14412403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24534606933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16794157028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20962047576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36442947387695</t>
+    <t xml:space="preserve">4.36442995071411</t>
   </si>
   <si>
     <t xml:space="preserve">4.45671987533569</t>
@@ -713,13 +713,13 @@
     <t xml:space="preserve">4.29297924041748</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62641477584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66809415817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52816963195801</t>
+    <t xml:space="preserve">4.62641429901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66809463500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52817010879517</t>
   </si>
   <si>
     <t xml:space="preserve">4.59664344787598</t>
@@ -728,55 +728,55 @@
     <t xml:space="preserve">4.75145292282104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78420114517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72763633728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88244581222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87053680419922</t>
+    <t xml:space="preserve">4.78420162200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72763586044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88244533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87053632736206</t>
   </si>
   <si>
     <t xml:space="preserve">4.96878099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89435338973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86755990982056</t>
+    <t xml:space="preserve">4.89435386657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8675594329834</t>
   </si>
   <si>
     <t xml:space="preserve">4.86458301544189</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80504035949707</t>
+    <t xml:space="preserve">4.80504083633423</t>
   </si>
   <si>
     <t xml:space="preserve">4.78122425079346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70381927490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68297910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61450576782227</t>
+    <t xml:space="preserve">4.70381879806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68297958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61450624465942</t>
   </si>
   <si>
     <t xml:space="preserve">4.76336097717285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87649059295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82588005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90923929214478</t>
+    <t xml:space="preserve">4.8764910697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82588052749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90923881530762</t>
   </si>
   <si>
     <t xml:space="preserve">4.93007850646973</t>
@@ -785,16 +785,16 @@
     <t xml:space="preserve">4.9122166633606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94794130325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93603324890137</t>
+    <t xml:space="preserve">4.94794178009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93603277206421</t>
   </si>
   <si>
     <t xml:space="preserve">4.98962068557739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0967960357666</t>
+    <t xml:space="preserve">5.09679555892944</t>
   </si>
   <si>
     <t xml:space="preserve">5.12061357498169</t>
@@ -821,40 +821,40 @@
     <t xml:space="preserve">5.04405927658081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08096647262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10557174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06866407394409</t>
+    <t xml:space="preserve">5.08096694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10557222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06866455078125</t>
   </si>
   <si>
     <t xml:space="preserve">5.09019422531128</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18553876876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13940477371216</t>
+    <t xml:space="preserve">5.18553924560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.139404296875</t>
   </si>
   <si>
     <t xml:space="preserve">5.14248037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06251335144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11787414550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11172389984131</t>
+    <t xml:space="preserve">5.06251287460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11787462234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11172342300415</t>
   </si>
   <si>
     <t xml:space="preserve">5.09942102432251</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05636167526245</t>
+    <t xml:space="preserve">5.05636119842529</t>
   </si>
   <si>
     <t xml:space="preserve">5.02252960205078</t>
@@ -863,13 +863,13 @@
     <t xml:space="preserve">4.96409273147583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93641138076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91488218307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95178937911987</t>
+    <t xml:space="preserve">4.93641185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91488265991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95178985595703</t>
   </si>
   <si>
     <t xml:space="preserve">4.89642858505249</t>
@@ -878,25 +878,25 @@
     <t xml:space="preserve">4.82261323928833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6903600692749</t>
+    <t xml:space="preserve">4.69035959243774</t>
   </si>
   <si>
     <t xml:space="preserve">4.74264574050903</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7764778137207</t>
+    <t xml:space="preserve">4.77647733688354</t>
   </si>
   <si>
     <t xml:space="preserve">4.86567211151123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88412618637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79800748825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89027643203735</t>
+    <t xml:space="preserve">4.88412570953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79800844192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89027690887451</t>
   </si>
   <si>
     <t xml:space="preserve">4.98254632949829</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">5.17631196975708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22859811782837</t>
+    <t xml:space="preserve">5.22859764099121</t>
   </si>
   <si>
     <t xml:space="preserve">5.22244691848755</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">5.17016077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15785837173462</t>
+    <t xml:space="preserve">5.15785884857178</t>
   </si>
   <si>
     <t xml:space="preserve">5.3362455368042</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">5.28703546524048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25012683868408</t>
+    <t xml:space="preserve">5.25012731552124</t>
   </si>
   <si>
     <t xml:space="preserve">5.25627899169922</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">5.27165699005127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29011154174805</t>
+    <t xml:space="preserve">5.29011106491089</t>
   </si>
   <si>
     <t xml:space="preserve">5.21321964263916</t>
@@ -968,16 +968,16 @@
     <t xml:space="preserve">5.20091676712036</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14863109588623</t>
+    <t xml:space="preserve">5.14863061904907</t>
   </si>
   <si>
     <t xml:space="preserve">5.22552251815796</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16708517074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18861532211304</t>
+    <t xml:space="preserve">5.16708564758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18861484527588</t>
   </si>
   <si>
     <t xml:space="preserve">5.24090099334717</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">5.41313648223877</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42543983459473</t>
+    <t xml:space="preserve">5.42543935775757</t>
   </si>
   <si>
     <t xml:space="preserve">5.41928815841675</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">5.32701873779297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34239768981934</t>
+    <t xml:space="preserve">5.34239721298218</t>
   </si>
   <si>
     <t xml:space="preserve">5.39468288421631</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53616285324097</t>
+    <t xml:space="preserve">5.53616333007812</t>
   </si>
   <si>
     <t xml:space="preserve">5.62843132019043</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">5.87448358535767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65918827056885</t>
+    <t xml:space="preserve">5.65918779373169</t>
   </si>
   <si>
     <t xml:space="preserve">5.65611219406128</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">5.78221464157104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69302034378052</t>
+    <t xml:space="preserve">5.69302082061768</t>
   </si>
   <si>
     <t xml:space="preserve">5.76991176605225</t>
@@ -1067,10 +1067,10 @@
     <t xml:space="preserve">6.10515737533569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1205358505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41579818725586</t>
+    <t xml:space="preserve">6.12053632736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4157977104187</t>
   </si>
   <si>
     <t xml:space="preserve">6.40349531173706</t>
@@ -1079,10 +1079,10 @@
     <t xml:space="preserve">6.32352828979492</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33583068847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36658811569214</t>
+    <t xml:space="preserve">6.33583116531372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36658763885498</t>
   </si>
   <si>
     <t xml:space="preserve">6.24356126785278</t>
@@ -1097,13 +1097,13 @@
     <t xml:space="preserve">6.21280479431152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50806617736816</t>
+    <t xml:space="preserve">6.50806665420532</t>
   </si>
   <si>
     <t xml:space="preserve">6.56342935562134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39119148254395</t>
+    <t xml:space="preserve">6.3911919593811</t>
   </si>
   <si>
     <t xml:space="preserve">6.61879062652588</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">6.55112600326538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65569829940796</t>
+    <t xml:space="preserve">6.6556978225708</t>
   </si>
   <si>
     <t xml:space="preserve">6.69260549545288</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">6.63724374771118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62494087219238</t>
+    <t xml:space="preserve">6.62494134902954</t>
   </si>
   <si>
     <t xml:space="preserve">6.4588565826416</t>
@@ -1133,31 +1133,31 @@
     <t xml:space="preserve">6.5757303237915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66800117492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82793474197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81563091278076</t>
+    <t xml:space="preserve">6.66800165176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82793426513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81563138961792</t>
   </si>
   <si>
     <t xml:space="preserve">6.95095920562744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88944673538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70490789413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28046894073486</t>
+    <t xml:space="preserve">6.88944625854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70490837097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28046846389771</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826595306396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9667534828186</t>
+    <t xml:space="preserve">5.96675300598145</t>
   </si>
   <si>
     <t xml:space="preserve">6.0098123550415</t>
@@ -1169,28 +1169,28 @@
     <t xml:space="preserve">5.93599653244019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01903915405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92984580993652</t>
+    <t xml:space="preserve">6.01903867721558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92984485626221</t>
   </si>
   <si>
     <t xml:space="preserve">5.92369318008423</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05902338027954</t>
+    <t xml:space="preserve">6.05902290344238</t>
   </si>
   <si>
     <t xml:space="preserve">6.0651741027832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16359424591064</t>
+    <t xml:space="preserve">6.1635947227478</t>
   </si>
   <si>
     <t xml:space="preserve">6.13283777236938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060228347778</t>
+    <t xml:space="preserve">5.96060276031494</t>
   </si>
   <si>
     <t xml:space="preserve">5.90523958206177</t>
@@ -1211,16 +1211,16 @@
     <t xml:space="preserve">5.85602998733521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69609689712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64688634872437</t>
+    <t xml:space="preserve">5.69609642028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64688587188721</t>
   </si>
   <si>
     <t xml:space="preserve">5.52385997772217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33316946029663</t>
+    <t xml:space="preserve">5.33316993713379</t>
   </si>
   <si>
     <t xml:space="preserve">5.49310350418091</t>
@@ -1235,22 +1235,22 @@
     <t xml:space="preserve">5.17323684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03790760040283</t>
+    <t xml:space="preserve">5.03790807723999</t>
   </si>
   <si>
     <t xml:space="preserve">5.01945447921753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32086706161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92103385925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95978689193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87059307098389</t>
+    <t xml:space="preserve">5.32086753845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92103338241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9597864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87059259414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.74633693695068</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">4.62269592285156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68728446960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82568788528442</t>
+    <t xml:space="preserve">4.68728399276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82568836212158</t>
   </si>
   <si>
     <t xml:space="preserve">4.82937955856323</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">4.65283679962158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66821527481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56425857543945</t>
+    <t xml:space="preserve">4.66821479797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56425809860229</t>
   </si>
   <si>
     <t xml:space="preserve">4.51873826980591</t>
@@ -1292,40 +1292,40 @@
     <t xml:space="preserve">4.63991975784302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61900520324707</t>
+    <t xml:space="preserve">4.61900472640991</t>
   </si>
   <si>
     <t xml:space="preserve">4.59501504898071</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4418478012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33666133880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73106336593628</t>
+    <t xml:space="preserve">4.44184827804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33666086196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73106288909912</t>
   </si>
   <si>
     <t xml:space="preserve">4.81509685516357</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27893972396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02088117599487</t>
+    <t xml:space="preserve">5.27894020080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02088165283203</t>
   </si>
   <si>
     <t xml:space="preserve">5.12807512283325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32128763198853</t>
+    <t xml:space="preserve">5.32128810882568</t>
   </si>
   <si>
     <t xml:space="preserve">5.53170442581177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46487331390381</t>
+    <t xml:space="preserve">5.46487379074097</t>
   </si>
   <si>
     <t xml:space="preserve">5.35635757446289</t>
@@ -1340,16 +1340,16 @@
     <t xml:space="preserve">5.22666645050049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1611590385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11550331115723</t>
+    <t xml:space="preserve">5.16115951538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11550283432007</t>
   </si>
   <si>
     <t xml:space="preserve">5.20549297332764</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1889500617981</t>
+    <t xml:space="preserve">5.18895053863525</t>
   </si>
   <si>
     <t xml:space="preserve">5.19953727722168</t>
@@ -1367,13 +1367,13 @@
     <t xml:space="preserve">5.09565305709839</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13667726516724</t>
+    <t xml:space="preserve">5.13667678833008</t>
   </si>
   <si>
     <t xml:space="preserve">5.19887590408325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21409463882446</t>
+    <t xml:space="preserve">5.21409511566162</t>
   </si>
   <si>
     <t xml:space="preserve">5.19424390792847</t>
@@ -1388,13 +1388,13 @@
     <t xml:space="preserve">5.24453210830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42583465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3186411857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15057229995728</t>
+    <t xml:space="preserve">5.42583417892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31864070892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15057277679443</t>
   </si>
   <si>
     <t xml:space="preserve">4.92890691757202</t>
@@ -1415,19 +1415,19 @@
     <t xml:space="preserve">4.82369899749756</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70790338516235</t>
+    <t xml:space="preserve">4.70790386199951</t>
   </si>
   <si>
     <t xml:space="preserve">4.47631311416626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73172426223755</t>
+    <t xml:space="preserve">4.73172473907471</t>
   </si>
   <si>
     <t xml:space="preserve">4.81311225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79061508178711</t>
+    <t xml:space="preserve">4.79061460494995</t>
   </si>
   <si>
     <t xml:space="preserve">4.89251518249512</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">4.74495840072632</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0422739982605</t>
+    <t xml:space="preserve">5.04227352142334</t>
   </si>
   <si>
     <t xml:space="preserve">5.16319179534912</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">5.20515727996826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95905447006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96047639846802</t>
+    <t xml:space="preserve">4.9590539932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96047687530518</t>
   </si>
   <si>
     <t xml:space="preserve">4.92491245269775</t>
@@ -1472,28 +1472,28 @@
     <t xml:space="preserve">4.90997552871704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02875995635986</t>
+    <t xml:space="preserve">5.02875947952271</t>
   </si>
   <si>
     <t xml:space="preserve">4.95549774169922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97897005081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89005947113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93629312515259</t>
+    <t xml:space="preserve">4.97897052764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89006042480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93629264831543</t>
   </si>
   <si>
     <t xml:space="preserve">4.89503860473633</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01240062713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95194149017334</t>
+    <t xml:space="preserve">5.01240015029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95194101333618</t>
   </si>
   <si>
     <t xml:space="preserve">4.93415880203247</t>
@@ -1517,22 +1517,22 @@
     <t xml:space="preserve">5.02804803848267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06859111785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10486698150635</t>
+    <t xml:space="preserve">5.06859159469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10486650466919</t>
   </si>
   <si>
     <t xml:space="preserve">5.16390323638916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22863006591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13260698318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15110015869141</t>
+    <t xml:space="preserve">5.22862958908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13260650634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15110063552856</t>
   </si>
   <si>
     <t xml:space="preserve">5.16461420059204</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">5.15679025650024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01951360702515</t>
+    <t xml:space="preserve">5.01951313018799</t>
   </si>
   <si>
     <t xml:space="preserve">5.07214784622192</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">5.10913467407227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08637380599976</t>
+    <t xml:space="preserve">5.0863733291626</t>
   </si>
   <si>
     <t xml:space="preserve">5.00030851364136</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">4.92989206314087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92277908325195</t>
+    <t xml:space="preserve">4.92277860641479</t>
   </si>
   <si>
     <t xml:space="preserve">4.91424322128296</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">4.75633859634399</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68592166900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69445753097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73713397979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70868253707886</t>
+    <t xml:space="preserve">4.68592214584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69445705413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73713445663452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70868349075317</t>
   </si>
   <si>
     <t xml:space="preserve">4.73002147674561</t>
@@ -1619,22 +1619,22 @@
     <t xml:space="preserve">4.67169618606567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64537954330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67667484283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67454195022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68663358688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66600608825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68094348907471</t>
+    <t xml:space="preserve">4.64537906646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67667531967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67454147338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68663311004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66600561141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68094301223755</t>
   </si>
   <si>
     <t xml:space="preserve">4.63968849182129</t>
@@ -1646,13 +1646,13 @@
     <t xml:space="preserve">4.94909620285034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8260440826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81466388702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86516523361206</t>
+    <t xml:space="preserve">4.82604455947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81466436386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8651647567749</t>
   </si>
   <si>
     <t xml:space="preserve">4.89361619949341</t>
@@ -1664,10 +1664,10 @@
     <t xml:space="preserve">4.80683946609497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79332590103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7072606086731</t>
+    <t xml:space="preserve">4.79332542419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70726013183594</t>
   </si>
   <si>
     <t xml:space="preserve">4.66387176513672</t>
@@ -1706,31 +1706,31 @@
     <t xml:space="preserve">4.19940519332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23852586746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18944787979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19300365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24635028839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23212432861328</t>
+    <t xml:space="preserve">4.23852634429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1894474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19300413131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24634981155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23212480545044</t>
   </si>
   <si>
     <t xml:space="preserve">4.22927951812744</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27408981323242</t>
+    <t xml:space="preserve">4.27409029006958</t>
   </si>
   <si>
     <t xml:space="preserve">4.36513376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43341732025146</t>
+    <t xml:space="preserve">4.43341684341431</t>
   </si>
   <si>
     <t xml:space="preserve">4.44550895690918</t>
@@ -1748,19 +1748,19 @@
     <t xml:space="preserve">4.51663684844971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42345857620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37082433700562</t>
+    <t xml:space="preserve">4.42345905303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37082386016846</t>
   </si>
   <si>
     <t xml:space="preserve">4.33952808380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26982259750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29542875289917</t>
+    <t xml:space="preserve">4.2698221206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29542827606201</t>
   </si>
   <si>
     <t xml:space="preserve">4.2776460647583</t>
@@ -1778,16 +1778,16 @@
     <t xml:space="preserve">4.19442653656006</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28831577301025</t>
+    <t xml:space="preserve">4.2883152961731</t>
   </si>
   <si>
     <t xml:space="preserve">4.3694019317627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38149356842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34379529953003</t>
+    <t xml:space="preserve">4.38149309158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34379577636719</t>
   </si>
   <si>
     <t xml:space="preserve">4.33312654495239</t>
@@ -1796,37 +1796,37 @@
     <t xml:space="preserve">4.25559663772583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18375730514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16810941696167</t>
+    <t xml:space="preserve">4.18375682830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16810989379883</t>
   </si>
   <si>
     <t xml:space="preserve">4.13041162490845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13681268692017</t>
+    <t xml:space="preserve">4.13681221008301</t>
   </si>
   <si>
     <t xml:space="preserve">4.09982633590698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02087354660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11974191665649</t>
+    <t xml:space="preserve">4.0208740234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11974143981934</t>
   </si>
   <si>
     <t xml:space="preserve">4.04007816314697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00735950469971</t>
+    <t xml:space="preserve">4.00735902786255</t>
   </si>
   <si>
     <t xml:space="preserve">3.91204786300659</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83807468414307</t>
+    <t xml:space="preserve">3.83807444572449</t>
   </si>
   <si>
     <t xml:space="preserve">3.82242679595947</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">3.86225819587708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85727906227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77477049827576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82811641693115</t>
+    <t xml:space="preserve">3.85727882385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77477073669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82811689376831</t>
   </si>
   <si>
     <t xml:space="preserve">3.96326041221619</t>
@@ -1856,19 +1856,19 @@
     <t xml:space="preserve">4.11547422409058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20296192169189</t>
+    <t xml:space="preserve">4.20296144485474</t>
   </si>
   <si>
     <t xml:space="preserve">4.18802499771118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20794057846069</t>
+    <t xml:space="preserve">4.20794105529785</t>
   </si>
   <si>
     <t xml:space="preserve">4.18233489990234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13325595855713</t>
+    <t xml:space="preserve">4.13325643539429</t>
   </si>
   <si>
     <t xml:space="preserve">4.09129047393799</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">4.16028499603271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19798231124878</t>
+    <t xml:space="preserve">4.19798278808594</t>
   </si>
   <si>
     <t xml:space="preserve">4.15174961090088</t>
@@ -1904,43 +1904,43 @@
     <t xml:space="preserve">4.43697309494019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43839597702026</t>
+    <t xml:space="preserve">4.43839645385742</t>
   </si>
   <si>
     <t xml:space="preserve">4.39714193344116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39571905136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41705751419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40994453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38860654830933</t>
+    <t xml:space="preserve">4.39571857452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41705799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40994501113892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38860607147217</t>
   </si>
   <si>
     <t xml:space="preserve">4.27906894683838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19371557235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26768827438354</t>
+    <t xml:space="preserve">4.19371509552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2676887512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.23070192337036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27480125427246</t>
+    <t xml:space="preserve">4.27480173110962</t>
   </si>
   <si>
     <t xml:space="preserve">4.31534433364868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38433885574341</t>
+    <t xml:space="preserve">4.38433837890625</t>
   </si>
   <si>
     <t xml:space="preserve">4.36726760864258</t>
@@ -1949,13 +1949,13 @@
     <t xml:space="preserve">4.36442279815674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36015510559082</t>
+    <t xml:space="preserve">4.36015462875366</t>
   </si>
   <si>
     <t xml:space="preserve">4.30680894851685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43270540237427</t>
+    <t xml:space="preserve">4.43270587921143</t>
   </si>
   <si>
     <t xml:space="preserve">4.49458742141724</t>
@@ -1964,13 +1964,13 @@
     <t xml:space="preserve">4.40069818496704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48676347732544</t>
+    <t xml:space="preserve">4.48676300048828</t>
   </si>
   <si>
     <t xml:space="preserve">4.5251727104187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65889358520508</t>
+    <t xml:space="preserve">4.65889310836792</t>
   </si>
   <si>
     <t xml:space="preserve">4.73215532302856</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">4.63044214248657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59487819671631</t>
+    <t xml:space="preserve">4.59487771987915</t>
   </si>
   <si>
     <t xml:space="preserve">4.60199069976807</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">4.73571157455444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76843023300171</t>
+    <t xml:space="preserve">4.76843070983887</t>
   </si>
   <si>
     <t xml:space="preserve">4.82248783111572</t>
@@ -2006,13 +2006,13 @@
     <t xml:space="preserve">4.72931003570557</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66316080093384</t>
+    <t xml:space="preserve">4.663161277771</t>
   </si>
   <si>
     <t xml:space="preserve">4.61123704910278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57211685180664</t>
+    <t xml:space="preserve">4.57211637496948</t>
   </si>
   <si>
     <t xml:space="preserve">4.61621618270874</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">4.74424743652344</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60910320281982</t>
+    <t xml:space="preserve">4.60910367965698</t>
   </si>
   <si>
     <t xml:space="preserve">4.63755464553833</t>
@@ -2045,19 +2045,19 @@
     <t xml:space="preserve">4.72290849685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75847291946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80114984512329</t>
+    <t xml:space="preserve">4.75847244262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80114936828613</t>
   </si>
   <si>
     <t xml:space="preserve">4.77269887924194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7798113822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78692436218262</t>
+    <t xml:space="preserve">4.77981090545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78692388534546</t>
   </si>
   <si>
     <t xml:space="preserve">4.87939071655273</t>
@@ -2081,10 +2081,10 @@
     <t xml:space="preserve">4.78621339797974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85546731948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90163707733154</t>
+    <t xml:space="preserve">4.85546779632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90163660049438</t>
   </si>
   <si>
     <t xml:space="preserve">4.87855243682861</t>
@@ -2102,10 +2102,10 @@
     <t xml:space="preserve">4.67079067230225</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73234987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72465419769287</t>
+    <t xml:space="preserve">4.73234939575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72465467453003</t>
   </si>
   <si>
     <t xml:space="preserve">4.71695947647095</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">4.80929851531982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80160331726074</t>
+    <t xml:space="preserve">4.8016037940979</t>
   </si>
   <si>
     <t xml:space="preserve">4.74004411697388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68618011474609</t>
+    <t xml:space="preserve">4.68618059158325</t>
   </si>
   <si>
     <t xml:space="preserve">4.60153675079346</t>
@@ -2135,10 +2135,10 @@
     <t xml:space="preserve">4.52458810806274</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5707573890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50919818878174</t>
+    <t xml:space="preserve">4.57075691223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5091986656189</t>
   </si>
   <si>
     <t xml:space="preserve">4.47841882705688</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">4.47072410583496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46302890777588</t>
+    <t xml:space="preserve">4.46302843093872</t>
   </si>
   <si>
     <t xml:space="preserve">4.48611354827881</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">4.75543355941772</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66309595108032</t>
+    <t xml:space="preserve">4.66309547424316</t>
   </si>
   <si>
     <t xml:space="preserve">4.64770555496216</t>
@@ -2165,19 +2165,19 @@
     <t xml:space="preserve">4.64001131057739</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58614683151245</t>
+    <t xml:space="preserve">4.58614730834961</t>
   </si>
   <si>
     <t xml:space="preserve">4.5553674697876</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53997802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54767227172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50150346755981</t>
+    <t xml:space="preserve">4.53997755050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54767274856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50150299072266</t>
   </si>
   <si>
     <t xml:space="preserve">4.39377498626709</t>
@@ -2189,16 +2189,16 @@
     <t xml:space="preserve">4.33991050720215</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24757242202759</t>
+    <t xml:space="preserve">4.24757194519043</t>
   </si>
   <si>
     <t xml:space="preserve">4.27835178375244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15523338317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16292905807495</t>
+    <t xml:space="preserve">4.15523386001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16292858123779</t>
   </si>
   <si>
     <t xml:space="preserve">4.07059001922607</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">4.03981065750122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09367513656616</t>
+    <t xml:space="preserve">4.093674659729</t>
   </si>
   <si>
     <t xml:space="preserve">4.03211545944214</t>
@@ -2222,13 +2222,13 @@
     <t xml:space="preserve">4.07828521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11675882339478</t>
+    <t xml:space="preserve">4.11675930023193</t>
   </si>
   <si>
     <t xml:space="preserve">4.10906457901001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18601322174072</t>
+    <t xml:space="preserve">4.18601369857788</t>
   </si>
   <si>
     <t xml:space="preserve">4.20909786224365</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">4.33221626281738</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32452058792114</t>
+    <t xml:space="preserve">4.3245210647583</t>
   </si>
   <si>
     <t xml:space="preserve">4.31682634353638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25526714324951</t>
+    <t xml:space="preserve">4.25526762008667</t>
   </si>
   <si>
     <t xml:space="preserve">4.28604650497437</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">4.27065706253052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30143690109253</t>
+    <t xml:space="preserve">4.30143642425537</t>
   </si>
   <si>
     <t xml:space="preserve">4.1783185005188</t>
@@ -2294,28 +2294,28 @@
     <t xml:space="preserve">4.56306219100952</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59384202957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6169261932373</t>
+    <t xml:space="preserve">4.59384155273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61692667007446</t>
   </si>
   <si>
     <t xml:space="preserve">4.62462139129639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60923147201538</t>
+    <t xml:space="preserve">4.60923099517822</t>
   </si>
   <si>
     <t xml:space="preserve">4.82468795776367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90933179855347</t>
+    <t xml:space="preserve">4.90933227539062</t>
   </si>
   <si>
     <t xml:space="preserve">4.95550107955933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86316299438477</t>
+    <t xml:space="preserve">4.86316251754761</t>
   </si>
   <si>
     <t xml:space="preserve">4.84007787704468</t>
@@ -2327,10 +2327,10 @@
     <t xml:space="preserve">4.91702651977539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83238363265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87085723876953</t>
+    <t xml:space="preserve">4.83238315582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87085771560669</t>
   </si>
   <si>
     <t xml:space="preserve">4.88624715805054</t>
@@ -2339,13 +2339,13 @@
     <t xml:space="preserve">4.84777307510376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2244873046875</t>
+    <t xml:space="preserve">4.22448778152466</t>
   </si>
   <si>
     <t xml:space="preserve">4.20140314102173</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10136938095093</t>
+    <t xml:space="preserve">4.10136985778809</t>
   </si>
   <si>
     <t xml:space="preserve">4.06289529800415</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">3.50116920471191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49347400665283</t>
+    <t xml:space="preserve">3.49347424507141</t>
   </si>
   <si>
     <t xml:space="preserve">2.81247758865356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85864686965942</t>
+    <t xml:space="preserve">2.858647108078</t>
   </si>
   <si>
     <t xml:space="preserve">2.62780046463013</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">2.73937630653381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87018942832947</t>
+    <t xml:space="preserve">2.87018918991089</t>
   </si>
   <si>
     <t xml:space="preserve">2.80093550682068</t>
@@ -2387,13 +2387,13 @@
     <t xml:space="preserve">2.98561239242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90481638908386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93174839019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92405343055725</t>
+    <t xml:space="preserve">2.90481615066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93174815177917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92405319213867</t>
   </si>
   <si>
     <t xml:space="preserve">2.77785062789917</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">2.78939294815063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69320702552795</t>
+    <t xml:space="preserve">2.69320726394653</t>
   </si>
   <si>
     <t xml:space="preserve">2.75476598739624</t>
@@ -2435,43 +2435,43 @@
     <t xml:space="preserve">2.72013926506042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71629190444946</t>
+    <t xml:space="preserve">2.71629166603088</t>
   </si>
   <si>
     <t xml:space="preserve">2.73168158531189</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74707102775574</t>
+    <t xml:space="preserve">2.74707126617432</t>
   </si>
   <si>
     <t xml:space="preserve">2.704749584198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69705438613892</t>
+    <t xml:space="preserve">2.6970546245575</t>
   </si>
   <si>
     <t xml:space="preserve">2.72398662567139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68166470527649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64319014549255</t>
+    <t xml:space="preserve">2.68166446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64319038391113</t>
   </si>
   <si>
     <t xml:space="preserve">2.53930950164795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50852990150452</t>
+    <t xml:space="preserve">2.5085301399231</t>
   </si>
   <si>
     <t xml:space="preserve">2.47775053977966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48544549942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55469942092896</t>
+    <t xml:space="preserve">2.48544526100159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55469918251038</t>
   </si>
   <si>
     <t xml:space="preserve">2.42003893852234</t>
@@ -2486,10 +2486,10 @@
     <t xml:space="preserve">2.53161454200745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4662082195282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50083518028259</t>
+    <t xml:space="preserve">2.46620798110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50083494186401</t>
   </si>
   <si>
     <t xml:space="preserve">2.49698758125305</t>
@@ -2501,19 +2501,19 @@
     <t xml:space="preserve">2.60086870193481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70090222358704</t>
+    <t xml:space="preserve">2.70090198516846</t>
   </si>
   <si>
     <t xml:space="preserve">2.70859694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87403655052185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01639223098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63164830207825</t>
+    <t xml:space="preserve">2.87403678894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01639199256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63164806365967</t>
   </si>
   <si>
     <t xml:space="preserve">2.63549542427063</t>
@@ -2537,10 +2537,10 @@
     <t xml:space="preserve">2.67012238502502</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68935966491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72783398628235</t>
+    <t xml:space="preserve">2.68935942649841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72783422470093</t>
   </si>
   <si>
     <t xml:space="preserve">2.77790355682373</t>
@@ -8487,7 +8487,7 @@
         <v>7.33019208908081</v>
       </c>
       <c r="G147" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8513,7 +8513,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G148" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8539,7 +8539,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G149" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8565,7 +8565,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8617,7 +8617,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8643,7 +8643,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8669,7 +8669,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G154" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8695,7 +8695,7 @@
         <v>7.07918977737427</v>
       </c>
       <c r="G155" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8721,7 +8721,7 @@
         <v>7.05130100250244</v>
       </c>
       <c r="G156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8773,7 +8773,7 @@
         <v>7.13032007217407</v>
       </c>
       <c r="G158" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8799,7 +8799,7 @@
         <v>7.04200410842896</v>
       </c>
       <c r="G159" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8825,7 +8825,7 @@
         <v>7.0048189163208</v>
       </c>
       <c r="G160" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8851,7 +8851,7 @@
         <v>6.93509578704834</v>
       </c>
       <c r="G161" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8877,7 +8877,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G162" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8903,7 +8903,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G163" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8929,7 +8929,7 @@
         <v>6.78170585632324</v>
       </c>
       <c r="G164" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8955,7 +8955,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8981,7 +8981,7 @@
         <v>6.88396596908569</v>
       </c>
       <c r="G166" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -9007,7 +9007,7 @@
         <v>6.87002086639404</v>
       </c>
       <c r="G167" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -9033,7 +9033,7 @@
         <v>6.83283615112305</v>
       </c>
       <c r="G168" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9059,7 +9059,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G169" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -9085,7 +9085,7 @@
         <v>6.77705812454224</v>
       </c>
       <c r="G170" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9111,7 +9111,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G171" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9137,7 +9137,7 @@
         <v>6.71198320388794</v>
       </c>
       <c r="G172" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9163,7 +9163,7 @@
         <v>6.64690780639648</v>
       </c>
       <c r="G173" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9189,7 +9189,7 @@
         <v>6.79565000534058</v>
       </c>
       <c r="G174" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9215,7 +9215,7 @@
         <v>6.69803810119629</v>
       </c>
       <c r="G175" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9267,7 +9267,7 @@
         <v>6.74916791915894</v>
       </c>
       <c r="G177" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9293,7 +9293,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G178" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9319,7 +9319,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G179" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9345,7 +9345,7 @@
         <v>6.242516040802</v>
       </c>
       <c r="G180" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9397,7 +9397,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G182" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9423,7 +9423,7 @@
         <v>6.09842205047607</v>
       </c>
       <c r="G183" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9449,7 +9449,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G184" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9475,7 +9475,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G185" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9501,7 +9501,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G186" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9527,7 +9527,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G187" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9553,7 +9553,7 @@
         <v>6.17744112014771</v>
       </c>
       <c r="G188" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9579,7 +9579,7 @@
         <v>6.13095903396606</v>
       </c>
       <c r="G189" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9631,7 +9631,7 @@
         <v>6.26575708389282</v>
       </c>
       <c r="G191" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9683,7 +9683,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G193" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9709,7 +9709,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G194" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9735,7 +9735,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G195" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9761,7 +9761,7 @@
         <v>6.11236715316772</v>
       </c>
       <c r="G196" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9787,7 +9787,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G197" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9813,7 +9813,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G198" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9839,7 +9839,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G199" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9865,7 +9865,7 @@
         <v>6.02405118942261</v>
       </c>
       <c r="G200" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9891,7 +9891,7 @@
         <v>5.99616193771362</v>
       </c>
       <c r="G201" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9917,7 +9917,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G202" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9943,7 +9943,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G203" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9969,7 +9969,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G204" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9995,7 +9995,7 @@
         <v>6.20532989501953</v>
       </c>
       <c r="G205" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10021,7 +10021,7 @@
         <v>6.45633316040039</v>
       </c>
       <c r="G206" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10047,7 +10047,7 @@
         <v>6.56324100494385</v>
       </c>
       <c r="G207" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10073,7 +10073,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G208" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10099,7 +10099,7 @@
         <v>6.63761186599731</v>
       </c>
       <c r="G209" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10151,7 +10151,7 @@
         <v>6.65155601501465</v>
       </c>
       <c r="G211" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10177,7 +10177,7 @@
         <v>6.600426197052</v>
       </c>
       <c r="G212" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10203,7 +10203,7 @@
         <v>6.52140712738037</v>
       </c>
       <c r="G213" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10255,7 +10255,7 @@
         <v>6.46562910079956</v>
       </c>
       <c r="G215" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10281,7 +10281,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G216" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10307,7 +10307,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G217" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10333,7 +10333,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G218" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10359,7 +10359,7 @@
         <v>6.36336898803711</v>
       </c>
       <c r="G219" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10385,7 +10385,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G220" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10411,7 +10411,7 @@
         <v>6.34477615356445</v>
       </c>
       <c r="G221" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10437,7 +10437,7 @@
         <v>6.29364585876465</v>
       </c>
       <c r="G222" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10463,7 +10463,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G223" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10489,7 +10489,7 @@
         <v>6.21462678909302</v>
       </c>
       <c r="G224" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10515,7 +10515,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G225" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10541,7 +10541,7 @@
         <v>6.06123685836792</v>
       </c>
       <c r="G226" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10567,7 +10567,7 @@
         <v>6.07053279876709</v>
       </c>
       <c r="G227" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10593,7 +10593,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G228" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10619,7 +10619,7 @@
         <v>5.74516010284424</v>
       </c>
       <c r="G229" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10645,7 +10645,7 @@
         <v>5.88460493087769</v>
       </c>
       <c r="G230" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10671,7 +10671,7 @@
         <v>5.92643880844116</v>
       </c>
       <c r="G231" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10697,7 +10697,7 @@
         <v>5.90784597396851</v>
       </c>
       <c r="G232" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10723,7 +10723,7 @@
         <v>5.78234481811523</v>
       </c>
       <c r="G233" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10749,7 +10749,7 @@
         <v>5.81023406982422</v>
       </c>
       <c r="G234" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10775,7 +10775,7 @@
         <v>5.81953096389771</v>
       </c>
       <c r="G235" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10801,7 +10801,7 @@
         <v>5.86601305007935</v>
       </c>
       <c r="G236" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10827,7 +10827,7 @@
         <v>5.85671615600586</v>
       </c>
       <c r="G237" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10853,7 +10853,7 @@
         <v>5.91249513626099</v>
       </c>
       <c r="G238" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10879,7 +10879,7 @@
         <v>5.83812379837036</v>
       </c>
       <c r="G239" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10905,7 +10905,7 @@
         <v>6.14490413665771</v>
       </c>
       <c r="G240" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10931,7 +10931,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G241" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10957,7 +10957,7 @@
         <v>6.3959059715271</v>
       </c>
       <c r="G242" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10983,7 +10983,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G243" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11009,7 +11009,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G244" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11061,7 +11061,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G246" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11139,7 +11139,7 @@
         <v>6.57718515396118</v>
       </c>
       <c r="G249" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11165,7 +11165,7 @@
         <v>6.53070402145386</v>
       </c>
       <c r="G250" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11191,7 +11191,7 @@
         <v>6.6655011177063</v>
       </c>
       <c r="G251" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11217,7 +11217,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G252" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11243,7 +11243,7 @@
         <v>6.67479705810547</v>
       </c>
       <c r="G253" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11269,7 +11269,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G254" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11295,7 +11295,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G255" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11321,7 +11321,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G256" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11347,7 +11347,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G257" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11373,7 +11373,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G258" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11451,7 +11451,7 @@
         <v>7.05594921112061</v>
       </c>
       <c r="G261" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11503,7 +11503,7 @@
         <v>6.91650295257568</v>
       </c>
       <c r="G263" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11529,7 +11529,7 @@
         <v>7.00946712493896</v>
       </c>
       <c r="G264" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11555,7 +11555,7 @@
         <v>7.02341079711914</v>
       </c>
       <c r="G265" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11607,7 +11607,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G267" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11633,7 +11633,7 @@
         <v>6.94903993606567</v>
       </c>
       <c r="G268" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11659,7 +11659,7 @@
         <v>6.88861417770386</v>
       </c>
       <c r="G269" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11711,7 +11711,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G271" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11763,7 +11763,7 @@
         <v>6.82818794250488</v>
       </c>
       <c r="G273" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11789,7 +11789,7 @@
         <v>6.80494689941406</v>
       </c>
       <c r="G274" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11815,7 +11815,7 @@
         <v>6.75381708145142</v>
       </c>
       <c r="G275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11867,7 +11867,7 @@
         <v>6.61901903152466</v>
       </c>
       <c r="G277" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11893,7 +11893,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G278" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11919,7 +11919,7 @@
         <v>6.47027683258057</v>
       </c>
       <c r="G279" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11945,7 +11945,7 @@
         <v>6.62831592559814</v>
       </c>
       <c r="G280" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11971,7 +11971,7 @@
         <v>6.50746297836304</v>
       </c>
       <c r="G281" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11997,7 +11997,7 @@
         <v>6.57253694534302</v>
       </c>
       <c r="G282" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12023,7 +12023,7 @@
         <v>6.53535223007202</v>
       </c>
       <c r="G283" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -12049,7 +12049,7 @@
         <v>6.53535223007202</v>
       </c>
       <c r="G284" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -12075,7 +12075,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G285" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12179,7 +12179,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G289" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12205,7 +12205,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G290" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12257,7 +12257,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G292" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12283,7 +12283,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G293" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12309,7 +12309,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G294" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12335,7 +12335,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G295" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12361,7 +12361,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G296" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12439,7 +12439,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G299" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12491,7 +12491,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G301" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12595,7 +12595,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G305" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12621,7 +12621,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G306" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12647,7 +12647,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G307" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12751,7 +12751,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G311" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -62159,7 +62159,7 @@
     </row>
     <row r="2212">
       <c r="A2212" s="1" t="n">
-        <v>45544.6493634259</v>
+        <v>45544.2916666667</v>
       </c>
       <c r="B2212" t="n">
         <v>126442</v>
@@ -62168,7 +62168,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="D2212" t="n">
-        <v>2.48499989509583</v>
+        <v>2.48000001907349</v>
       </c>
       <c r="E2212" t="n">
         <v>2.48499989509583</v>
@@ -62180,6 +62180,32 @@
         <v>1263</v>
       </c>
       <c r="H2212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="1" t="n">
+        <v>45545.6494907407</v>
+      </c>
+      <c r="B2213" t="n">
+        <v>367998</v>
+      </c>
+      <c r="C2213" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>2.45000004768372</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="G2213" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H2213" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -44,55 +44,55 @@
     <t xml:space="preserve">IGD.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97771215438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93246030807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92963266372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80801773071289</t>
+    <t xml:space="preserve">4.97771263122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93245983123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92963218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80801820755005</t>
   </si>
   <si>
     <t xml:space="preserve">4.69488763809204</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72316980361938</t>
+    <t xml:space="preserve">4.72317028045654</t>
   </si>
   <si>
     <t xml:space="preserve">4.83347225189209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70902872085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48276901245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30741786956787</t>
+    <t xml:space="preserve">4.70902919769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48276853561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30741834640503</t>
   </si>
   <si>
     <t xml:space="preserve">4.18580389022827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73328471183777</t>
+    <t xml:space="preserve">3.73328447341919</t>
   </si>
   <si>
     <t xml:space="preserve">4.01610851287842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0924711227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17731904983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11226892471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08398675918579</t>
+    <t xml:space="preserve">4.09247159957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17731857299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11226940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08398723602295</t>
   </si>
   <si>
     <t xml:space="preserve">3.94540286064148</t>
@@ -101,37 +101,37 @@
     <t xml:space="preserve">4.10095643997192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.211256980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05570459365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8237886428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9171199798584</t>
+    <t xml:space="preserve">4.21125793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05570363998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82378840446472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91712045669556</t>
   </si>
   <si>
     <t xml:space="preserve">3.57490277290344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62015414237976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81813144683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69086027145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76439571380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01893663406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954394340515</t>
+    <t xml:space="preserve">3.62015438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81813168525696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69086050987244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76439523696899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01893711090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954442024231</t>
   </si>
   <si>
     <t xml:space="preserve">4.07267332077026</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">4.14620780944824</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0896430015564</t>
+    <t xml:space="preserve">4.08964395523071</t>
   </si>
   <si>
     <t xml:space="preserve">4.12358283996582</t>
@@ -155,16 +155,16 @@
     <t xml:space="preserve">4.12923860549927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1716628074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19428777694702</t>
+    <t xml:space="preserve">4.17166233062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19428825378418</t>
   </si>
   <si>
     <t xml:space="preserve">4.38660907745361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35549831390381</t>
+    <t xml:space="preserve">4.35549783706665</t>
   </si>
   <si>
     <t xml:space="preserve">4.5251932144165</t>
@@ -173,37 +173,37 @@
     <t xml:space="preserve">4.48559808731079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.496910572052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48842573165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58175849914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68357563018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66660594940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61569690704346</t>
+    <t xml:space="preserve">4.49691009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48842620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58175754547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68357515335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6666054725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61569738388062</t>
   </si>
   <si>
     <t xml:space="preserve">4.72882699966431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83629941940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76842212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70620012283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63832235336304</t>
+    <t xml:space="preserve">4.83630084991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76842164993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70620059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6383228302002</t>
   </si>
   <si>
     <t xml:space="preserve">4.49973917007446</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">4.57327318191528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5761022567749</t>
+    <t xml:space="preserve">4.57610177993774</t>
   </si>
   <si>
     <t xml:space="preserve">4.41206359863281</t>
@@ -221,28 +221,28 @@
     <t xml:space="preserve">4.40075063705444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36963987350464</t>
+    <t xml:space="preserve">4.36963939666748</t>
   </si>
   <si>
     <t xml:space="preserve">4.37246799468994</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38378143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47994089126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55347585678101</t>
+    <t xml:space="preserve">4.38378047943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47994136810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55347537994385</t>
   </si>
   <si>
     <t xml:space="preserve">4.4686279296875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45448732376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51670837402344</t>
+    <t xml:space="preserve">4.45448780059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5167088508606</t>
   </si>
   <si>
     <t xml:space="preserve">4.41489171981812</t>
@@ -251,19 +251,19 @@
     <t xml:space="preserve">4.47428464889526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44034624099731</t>
+    <t xml:space="preserve">4.44034576416016</t>
   </si>
   <si>
     <t xml:space="preserve">4.41771936416626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44317388534546</t>
+    <t xml:space="preserve">4.44317436218262</t>
   </si>
   <si>
     <t xml:space="preserve">4.55064725875854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45731544494629</t>
+    <t xml:space="preserve">4.45731496810913</t>
   </si>
   <si>
     <t xml:space="preserve">4.53933382034302</t>
@@ -272,73 +272,73 @@
     <t xml:space="preserve">4.57892942428589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49408197402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54216241836548</t>
+    <t xml:space="preserve">4.4940824508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54216289520264</t>
   </si>
   <si>
     <t xml:space="preserve">4.45165824890137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.650230884552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73061275482178</t>
+    <t xml:space="preserve">4.65023136138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73061323165894</t>
   </si>
   <si>
     <t xml:space="preserve">4.81099462509155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85267448425293</t>
+    <t xml:space="preserve">4.85267400741577</t>
   </si>
   <si>
     <t xml:space="preserve">4.84076547622681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85565137863159</t>
+    <t xml:space="preserve">4.85565090179443</t>
   </si>
   <si>
     <t xml:space="preserve">4.82290363311768</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77526950836182</t>
+    <t xml:space="preserve">4.77526998519897</t>
   </si>
   <si>
     <t xml:space="preserve">4.7335901260376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79610967636108</t>
+    <t xml:space="preserve">4.79610919952393</t>
   </si>
   <si>
     <t xml:space="preserve">4.79015493392944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79313230514526</t>
+    <t xml:space="preserve">4.79313278198242</t>
   </si>
   <si>
     <t xml:space="preserve">4.79908609390259</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72168207168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50137662887573</t>
+    <t xml:space="preserve">4.72168159484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50137615203857</t>
   </si>
   <si>
     <t xml:space="preserve">4.20068883895874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22450590133667</t>
+    <t xml:space="preserve">4.22450542449951</t>
   </si>
   <si>
     <t xml:space="preserve">4.08755922317505</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10839891433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30488729476929</t>
+    <t xml:space="preserve">4.10839939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30488777160645</t>
   </si>
   <si>
     <t xml:space="preserve">4.34656715393066</t>
@@ -356,34 +356,34 @@
     <t xml:space="preserve">3.95954346656799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97740721702576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98931455612183</t>
+    <t xml:space="preserve">3.9774067401886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98931503295898</t>
   </si>
   <si>
     <t xml:space="preserve">4.37038326263428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30191087722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1560320854187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00122261047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96847486495972</t>
+    <t xml:space="preserve">4.30191040039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15603256225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00122308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96847534179688</t>
   </si>
   <si>
     <t xml:space="preserve">4.09946775436401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19771194458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23343753814697</t>
+    <t xml:space="preserve">4.19771242141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23343706130981</t>
   </si>
   <si>
     <t xml:space="preserve">4.40313148498535</t>
@@ -392,22 +392,19 @@
     <t xml:space="preserve">4.55496406555176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48351430892944</t>
+    <t xml:space="preserve">4.48351383209229</t>
   </si>
   <si>
     <t xml:space="preserve">4.67404890060425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56984949111938</t>
+    <t xml:space="preserve">4.56984996795654</t>
   </si>
   <si>
     <t xml:space="preserve">4.60855197906494</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6383228302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61152982711792</t>
+    <t xml:space="preserve">4.61152935028076</t>
   </si>
   <si>
     <t xml:space="preserve">4.6948881149292</t>
@@ -422,13 +419,13 @@
     <t xml:space="preserve">4.67107057571411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40610933303833</t>
+    <t xml:space="preserve">4.40610980987549</t>
   </si>
   <si>
     <t xml:space="preserve">4.54007911682129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62046051025391</t>
+    <t xml:space="preserve">4.62046003341675</t>
   </si>
   <si>
     <t xml:space="preserve">4.53412437438965</t>
@@ -437,16 +434,16 @@
     <t xml:space="preserve">4.5162615776062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56687211990356</t>
+    <t xml:space="preserve">4.56687259674072</t>
   </si>
   <si>
     <t xml:space="preserve">4.51030778884888</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48649120330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44183397293091</t>
+    <t xml:space="preserve">4.48649072647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44183349609375</t>
   </si>
   <si>
     <t xml:space="preserve">4.46267366409302</t>
@@ -458,22 +455,22 @@
     <t xml:space="preserve">4.343590259552</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36740636825562</t>
+    <t xml:space="preserve">4.36740589141846</t>
   </si>
   <si>
     <t xml:space="preserve">4.40908622741699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40015411376953</t>
+    <t xml:space="preserve">4.40015459060669</t>
   </si>
   <si>
     <t xml:space="preserve">4.37633895874023</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28702449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34061336517334</t>
+    <t xml:space="preserve">4.287024974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3406138420105</t>
   </si>
   <si>
     <t xml:space="preserve">4.31084203720093</t>
@@ -485,25 +482,25 @@
     <t xml:space="preserve">4.25725364685059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35252141952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29000186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32275056838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21557474136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0786280632019</t>
+    <t xml:space="preserve">4.35252046585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29000234603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32275009155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21557426452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07862854003906</t>
   </si>
   <si>
     <t xml:space="preserve">3.99824643135071</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92977333068848</t>
+    <t xml:space="preserve">3.92977380752563</t>
   </si>
   <si>
     <t xml:space="preserve">3.90595626831055</t>
@@ -512,25 +509,25 @@
     <t xml:space="preserve">3.97145223617554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87618517875671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87916159629822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99229264259338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95656704902649</t>
+    <t xml:space="preserve">3.87618470191956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87916207313538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99229216575623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95656681060791</t>
   </si>
   <si>
     <t xml:space="preserve">3.92679524421692</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01313161849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94168090820312</t>
+    <t xml:space="preserve">4.0131311416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9416811466217</t>
   </si>
   <si>
     <t xml:space="preserve">3.91488742828369</t>
@@ -551,31 +548,31 @@
     <t xml:space="preserve">3.9744291305542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13519334793091</t>
+    <t xml:space="preserve">4.13519382476807</t>
   </si>
   <si>
     <t xml:space="preserve">4.20366621017456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2512993812561</t>
+    <t xml:space="preserve">4.25129985809326</t>
   </si>
   <si>
     <t xml:space="preserve">4.26023101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22748279571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17687177658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14114761352539</t>
+    <t xml:space="preserve">4.22748327255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17687225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14114713668823</t>
   </si>
   <si>
     <t xml:space="preserve">4.11137628555298</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04885673522949</t>
+    <t xml:space="preserve">4.04885721206665</t>
   </si>
   <si>
     <t xml:space="preserve">4.07565116882324</t>
@@ -593,16 +590,16 @@
     <t xml:space="preserve">3.98038363456726</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88214015960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8880934715271</t>
+    <t xml:space="preserve">3.88213968276978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88809394836426</t>
   </si>
   <si>
     <t xml:space="preserve">3.67969655990601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76900959014893</t>
+    <t xml:space="preserve">3.76900911331177</t>
   </si>
   <si>
     <t xml:space="preserve">3.79580330848694</t>
@@ -611,28 +608,28 @@
     <t xml:space="preserve">3.78389453887939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70351266860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72137594223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72733044624329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75710082054138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75114679336548</t>
+    <t xml:space="preserve">3.70351314544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7213761806488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72732996940613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75710129737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75114727020264</t>
   </si>
   <si>
     <t xml:space="preserve">3.78687238693237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73923897743225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93572759628296</t>
+    <t xml:space="preserve">3.73923850059509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9357271194458</t>
   </si>
   <si>
     <t xml:space="preserve">4.09649038314819</t>
@@ -659,7 +656,7 @@
     <t xml:space="preserve">4.4299259185791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48946809768677</t>
+    <t xml:space="preserve">4.48946857452393</t>
   </si>
   <si>
     <t xml:space="preserve">4.49839878082275</t>
@@ -668,25 +665,28 @@
     <t xml:space="preserve">4.48053646087646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45076513290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41801691055298</t>
+    <t xml:space="preserve">4.45076560974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41206312179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41801738739014</t>
   </si>
   <si>
     <t xml:space="preserve">4.37336111068726</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35847520828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32572793960571</t>
+    <t xml:space="preserve">4.35847616195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32572746276855</t>
   </si>
   <si>
     <t xml:space="preserve">4.2393913269043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14412403106689</t>
+    <t xml:space="preserve">4.14412355422974</t>
   </si>
   <si>
     <t xml:space="preserve">4.24534559249878</t>
@@ -695,22 +695,22 @@
     <t xml:space="preserve">4.16794109344482</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20962047576904</t>
+    <t xml:space="preserve">4.2096209526062</t>
   </si>
   <si>
     <t xml:space="preserve">4.36442947387695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45672035217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29297971725464</t>
+    <t xml:space="preserve">4.45671987533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29297924041748</t>
   </si>
   <si>
     <t xml:space="preserve">4.62641477584839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66809415817261</t>
+    <t xml:space="preserve">4.66809368133545</t>
   </si>
   <si>
     <t xml:space="preserve">4.52817010879517</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">4.59664344787598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75145196914673</t>
+    <t xml:space="preserve">4.75145244598389</t>
   </si>
   <si>
     <t xml:space="preserve">4.78420066833496</t>
@@ -731,22 +731,22 @@
     <t xml:space="preserve">4.88244485855103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87053680419922</t>
+    <t xml:space="preserve">4.87053632736206</t>
   </si>
   <si>
     <t xml:space="preserve">4.96878099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89435338973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86755990982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86458253860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80504035949707</t>
+    <t xml:space="preserve">4.89435386657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86756038665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86458301544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80504083633423</t>
   </si>
   <si>
     <t xml:space="preserve">4.7812237739563</t>
@@ -758,22 +758,22 @@
     <t xml:space="preserve">4.68297910690308</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61450672149658</t>
+    <t xml:space="preserve">4.61450624465942</t>
   </si>
   <si>
     <t xml:space="preserve">4.76336145401001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8764910697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82588052749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90923881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93007946014404</t>
+    <t xml:space="preserve">4.87649059295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82588005065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90923929214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93007898330688</t>
   </si>
   <si>
     <t xml:space="preserve">4.9122166633606</t>
@@ -782,16 +782,16 @@
     <t xml:space="preserve">4.94794178009033</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93603277206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98962116241455</t>
+    <t xml:space="preserve">4.93603324890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98962068557739</t>
   </si>
   <si>
     <t xml:space="preserve">5.0967960357666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12061309814453</t>
+    <t xml:space="preserve">5.12061357498169</t>
   </si>
   <si>
     <t xml:space="preserve">5.15633821487427</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">5.10557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06866407394409</t>
+    <t xml:space="preserve">5.06866455078125</t>
   </si>
   <si>
     <t xml:space="preserve">5.09019374847412</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">5.13940477371216</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14247989654541</t>
+    <t xml:space="preserve">5.14248037338257</t>
   </si>
   <si>
     <t xml:space="preserve">5.06251335144043</t>
@@ -845,43 +845,43 @@
     <t xml:space="preserve">5.11172389984131</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09942054748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05636167526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02252912521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96409225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93641090393066</t>
+    <t xml:space="preserve">5.09942102432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05636215209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02252960205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96409273147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93641138076782</t>
   </si>
   <si>
     <t xml:space="preserve">4.91488218307495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95178985595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89642858505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82261323928833</t>
+    <t xml:space="preserve">4.95179033279419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89642810821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82261276245117</t>
   </si>
   <si>
     <t xml:space="preserve">4.6903600692749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74264621734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77647733688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86567211151123</t>
+    <t xml:space="preserve">4.74264574050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7764778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86567163467407</t>
   </si>
   <si>
     <t xml:space="preserve">4.88412523269653</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">4.98254680633545</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99792528152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1086483001709</t>
+    <t xml:space="preserve">4.9979248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10864782333374</t>
   </si>
   <si>
     <t xml:space="preserve">5.11479949951172</t>
@@ -908,16 +908,16 @@
     <t xml:space="preserve">5.15478277206421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12402629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07481622695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01330280303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05943822860718</t>
+    <t xml:space="preserve">5.12402677536011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07481575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01330232620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05943775177002</t>
   </si>
   <si>
     <t xml:space="preserve">5.17631196975708</t>
@@ -941,19 +941,19 @@
     <t xml:space="preserve">5.30241394042969</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28703498840332</t>
+    <t xml:space="preserve">5.28703546524048</t>
   </si>
   <si>
     <t xml:space="preserve">5.25012731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25627899169922</t>
+    <t xml:space="preserve">5.25627851486206</t>
   </si>
   <si>
     <t xml:space="preserve">5.27165746688843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29011106491089</t>
+    <t xml:space="preserve">5.29011154174805</t>
   </si>
   <si>
     <t xml:space="preserve">5.21321964263916</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">5.20091724395752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14863109588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22552251815796</t>
+    <t xml:space="preserve">5.14863061904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2255220413208</t>
   </si>
   <si>
     <t xml:space="preserve">5.16708517074585</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18861532211304</t>
+    <t xml:space="preserve">5.18861484527588</t>
   </si>
   <si>
     <t xml:space="preserve">5.24090147018433</t>
@@ -983,22 +983,22 @@
     <t xml:space="preserve">5.41313648223877</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42543888092041</t>
+    <t xml:space="preserve">5.42543935775757</t>
   </si>
   <si>
     <t xml:space="preserve">5.41928863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37622928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35162401199341</t>
+    <t xml:space="preserve">5.37622976303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35162448883057</t>
   </si>
   <si>
     <t xml:space="preserve">5.36392593383789</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3885326385498</t>
+    <t xml:space="preserve">5.38853216171265</t>
   </si>
   <si>
     <t xml:space="preserve">5.37315368652344</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">5.42851495742798</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43159103393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44389343261719</t>
+    <t xml:space="preserve">5.43159055709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44389295578003</t>
   </si>
   <si>
     <t xml:space="preserve">5.32701873779297</t>
@@ -1019,19 +1019,19 @@
     <t xml:space="preserve">5.34239673614502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39468240737915</t>
+    <t xml:space="preserve">5.39468288421631</t>
   </si>
   <si>
     <t xml:space="preserve">5.53616333007812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62843084335327</t>
+    <t xml:space="preserve">5.62843132019043</t>
   </si>
   <si>
     <t xml:space="preserve">5.84372758865356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87448406219482</t>
+    <t xml:space="preserve">5.87448358535767</t>
   </si>
   <si>
     <t xml:space="preserve">5.65918827056885</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">5.65611219406128</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75145816802979</t>
+    <t xml:space="preserve">5.75145769119263</t>
   </si>
   <si>
     <t xml:space="preserve">5.78836488723755</t>
@@ -1061,22 +1061,22 @@
     <t xml:space="preserve">6.10515737533569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12053632736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4157977104187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40349531173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32352781295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33583116531372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36658716201782</t>
+    <t xml:space="preserve">6.1205358505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41579818725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40349578857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32352828979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33583068847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36658763885498</t>
   </si>
   <si>
     <t xml:space="preserve">6.24356079101562</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">6.21280527114868</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50806617736816</t>
+    <t xml:space="preserve">6.50806665420532</t>
   </si>
   <si>
     <t xml:space="preserve">6.56342887878418</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">6.39119243621826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61879014968872</t>
+    <t xml:space="preserve">6.61879062652588</t>
   </si>
   <si>
     <t xml:space="preserve">6.60648727416992</t>
@@ -1109,16 +1109,16 @@
     <t xml:space="preserve">6.55112552642822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65569734573364</t>
+    <t xml:space="preserve">6.6556978225708</t>
   </si>
   <si>
     <t xml:space="preserve">6.69260501861572</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63724327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6249418258667</t>
+    <t xml:space="preserve">6.63724374771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62494134902954</t>
   </si>
   <si>
     <t xml:space="preserve">6.45885610580444</t>
@@ -1130,19 +1130,19 @@
     <t xml:space="preserve">6.6680006980896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82793474197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81563186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95095920562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8894476890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70490837097168</t>
+    <t xml:space="preserve">6.82793521881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81563138961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9509596824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88944721221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70490789413452</t>
   </si>
   <si>
     <t xml:space="preserve">6.28046846389771</t>
@@ -1169,25 +1169,25 @@
     <t xml:space="preserve">5.92984580993652</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92369318008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05902338027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06517457962036</t>
+    <t xml:space="preserve">5.92369365692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05902290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0651741027832</t>
   </si>
   <si>
     <t xml:space="preserve">6.16359424591064</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13283777236938</t>
+    <t xml:space="preserve">6.13283824920654</t>
   </si>
   <si>
     <t xml:space="preserve">5.96060228347778</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90524053573608</t>
+    <t xml:space="preserve">5.90523958206177</t>
   </si>
   <si>
     <t xml:space="preserve">5.99750900268555</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">5.88063478469849</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89293766021729</t>
+    <t xml:space="preserve">5.89293813705444</t>
   </si>
   <si>
     <t xml:space="preserve">5.85602951049805</t>
@@ -1211,34 +1211,34 @@
     <t xml:space="preserve">5.64688634872437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52385997772217</t>
+    <t xml:space="preserve">5.52385950088501</t>
   </si>
   <si>
     <t xml:space="preserve">5.33316946029663</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49310398101807</t>
+    <t xml:space="preserve">5.49310350418091</t>
   </si>
   <si>
     <t xml:space="preserve">5.21014404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08711814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17323637008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03790807723999</t>
+    <t xml:space="preserve">5.08711862564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17323684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03790760040283</t>
   </si>
   <si>
     <t xml:space="preserve">5.01945400238037</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32086706161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92103385925293</t>
+    <t xml:space="preserve">5.32086801528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92103338241577</t>
   </si>
   <si>
     <t xml:space="preserve">4.9597864151001</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">4.87059307098389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74633646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63192367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6226954460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68728494644165</t>
+    <t xml:space="preserve">4.74633598327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63192319869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62269592285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68728446960449</t>
   </si>
   <si>
     <t xml:space="preserve">4.82568836212158</t>
@@ -1265,40 +1265,40 @@
     <t xml:space="preserve">4.82937908172607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71188974380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65283679962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66821575164795</t>
+    <t xml:space="preserve">4.71188926696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65283632278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66821527481079</t>
   </si>
   <si>
     <t xml:space="preserve">4.56425809860229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51873874664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44738388061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63991928100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61900520324707</t>
+    <t xml:space="preserve">4.51873922348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44738435745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63991975784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61900472640991</t>
   </si>
   <si>
     <t xml:space="preserve">4.59501457214355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4418478012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33666086196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73106288909912</t>
+    <t xml:space="preserve">4.44184827804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33666133880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73106241226196</t>
   </si>
   <si>
     <t xml:space="preserve">4.81509733200073</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">5.27894020080566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02088117599487</t>
+    <t xml:space="preserve">5.02088165283203</t>
   </si>
   <si>
     <t xml:space="preserve">5.12807559967041</t>
@@ -1334,13 +1334,13 @@
     <t xml:space="preserve">5.22666645050049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16115999221802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11550283432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20549249649048</t>
+    <t xml:space="preserve">5.16115951538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11550331115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20549297332764</t>
   </si>
   <si>
     <t xml:space="preserve">5.18895053863525</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">5.18762731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26041316986084</t>
+    <t xml:space="preserve">5.26041269302368</t>
   </si>
   <si>
     <t xml:space="preserve">5.10557794570923</t>
@@ -1361,16 +1361,16 @@
     <t xml:space="preserve">5.09565258026123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13667678833008</t>
+    <t xml:space="preserve">5.13667726516724</t>
   </si>
   <si>
     <t xml:space="preserve">5.19887590408325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2140941619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19424343109131</t>
+    <t xml:space="preserve">5.21409463882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19424390792847</t>
   </si>
   <si>
     <t xml:space="preserve">5.29349708557129</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">4.89648485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87729549407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82369899749756</t>
+    <t xml:space="preserve">4.87729597091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82369947433472</t>
   </si>
   <si>
     <t xml:space="preserve">4.70790386199951</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">4.84553480148315</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74495887756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0422739982605</t>
+    <t xml:space="preserve">4.74495840072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04227447509766</t>
   </si>
   <si>
     <t xml:space="preserve">5.16319131851196</t>
@@ -1448,19 +1448,19 @@
     <t xml:space="preserve">5.05792236328125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15607881546021</t>
+    <t xml:space="preserve">5.15607929229736</t>
   </si>
   <si>
     <t xml:space="preserve">5.2051568031311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95905447006226</t>
+    <t xml:space="preserve">4.9590539932251</t>
   </si>
   <si>
     <t xml:space="preserve">4.96047687530518</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92491245269775</t>
+    <t xml:space="preserve">4.9249119758606</t>
   </si>
   <si>
     <t xml:space="preserve">4.90997552871704</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">4.89005994796753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93629264831543</t>
+    <t xml:space="preserve">4.93629312515259</t>
   </si>
   <si>
     <t xml:space="preserve">4.89503860473633</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">5.01240015029907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95194149017334</t>
+    <t xml:space="preserve">4.95194101333618</t>
   </si>
   <si>
     <t xml:space="preserve">4.93415880203247</t>
@@ -1499,13 +1499,13 @@
     <t xml:space="preserve">5.14967679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13900804519653</t>
+    <t xml:space="preserve">5.13900852203369</t>
   </si>
   <si>
     <t xml:space="preserve">4.9931960105896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01737928390503</t>
+    <t xml:space="preserve">5.01737880706787</t>
   </si>
   <si>
     <t xml:space="preserve">5.02804851531982</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">5.06859159469604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10486650466919</t>
+    <t xml:space="preserve">5.10486698150635</t>
   </si>
   <si>
     <t xml:space="preserve">5.16390323638916</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">5.07214784622192</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14327573776245</t>
+    <t xml:space="preserve">5.14327621459961</t>
   </si>
   <si>
     <t xml:space="preserve">5.10913467407227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08637380599976</t>
+    <t xml:space="preserve">5.0863733291626</t>
   </si>
   <si>
     <t xml:space="preserve">5.00030851364136</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">4.61692762374878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63684320449829</t>
+    <t xml:space="preserve">4.63684368133545</t>
   </si>
   <si>
     <t xml:space="preserve">4.67525243759155</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">4.73713397979736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70868253707886</t>
+    <t xml:space="preserve">4.70868301391602</t>
   </si>
   <si>
     <t xml:space="preserve">4.73002099990845</t>
@@ -1607,22 +1607,22 @@
     <t xml:space="preserve">4.70939445495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66173839569092</t>
+    <t xml:space="preserve">4.66173791885376</t>
   </si>
   <si>
     <t xml:space="preserve">4.67169618606567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64537954330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67667579650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67454099655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68663358688354</t>
+    <t xml:space="preserve">4.64537906646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67667531967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67454147338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68663311004639</t>
   </si>
   <si>
     <t xml:space="preserve">4.66600608825684</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">4.68094253540039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63968801498413</t>
+    <t xml:space="preserve">4.63968849182129</t>
   </si>
   <si>
     <t xml:space="preserve">4.63186454772949</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">4.86516523361206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89361619949341</t>
+    <t xml:space="preserve">4.89361572265625</t>
   </si>
   <si>
     <t xml:space="preserve">4.87298917770386</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">4.79332542419434</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70726013183594</t>
+    <t xml:space="preserve">4.7072606086731</t>
   </si>
   <si>
     <t xml:space="preserve">4.66387224197388</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">4.56784868240356</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57994174957275</t>
+    <t xml:space="preserve">4.5799412727356</t>
   </si>
   <si>
     <t xml:space="preserve">4.55220127105713</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">4.48178386688232</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36797857284546</t>
+    <t xml:space="preserve">4.36797904968262</t>
   </si>
   <si>
     <t xml:space="preserve">4.34948587417603</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">4.19940519332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23852586746216</t>
+    <t xml:space="preserve">4.23852634429932</t>
   </si>
   <si>
     <t xml:space="preserve">4.1894474029541</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">4.27408981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36513423919678</t>
+    <t xml:space="preserve">4.36513376235962</t>
   </si>
   <si>
     <t xml:space="preserve">4.43341684341431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44550895690918</t>
+    <t xml:space="preserve">4.44550848007202</t>
   </si>
   <si>
     <t xml:space="preserve">4.43768453598022</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3665566444397</t>
+    <t xml:space="preserve">4.36655712127686</t>
   </si>
   <si>
     <t xml:space="preserve">4.29613971710205</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">4.33952760696411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2698221206665</t>
+    <t xml:space="preserve">4.26982259750366</t>
   </si>
   <si>
     <t xml:space="preserve">4.29542827606201</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">4.27764654159546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23283576965332</t>
+    <t xml:space="preserve">4.23283529281616</t>
   </si>
   <si>
     <t xml:space="preserve">4.17166519165039</t>
@@ -1778,28 +1778,28 @@
     <t xml:space="preserve">4.3694019317627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38149309158325</t>
+    <t xml:space="preserve">4.38149356842041</t>
   </si>
   <si>
     <t xml:space="preserve">4.34379577636719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33312606811523</t>
+    <t xml:space="preserve">4.33312654495239</t>
   </si>
   <si>
     <t xml:space="preserve">4.25559663772583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18375730514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16810894012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13041114807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13681268692017</t>
+    <t xml:space="preserve">4.18375682830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16810941696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13041162490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13681316375732</t>
   </si>
   <si>
     <t xml:space="preserve">4.09982585906982</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">3.91204786300659</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83807420730591</t>
+    <t xml:space="preserve">3.83807468414307</t>
   </si>
   <si>
     <t xml:space="preserve">3.82242655754089</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">4.18802499771118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20794105529785</t>
+    <t xml:space="preserve">4.20794057846069</t>
   </si>
   <si>
     <t xml:space="preserve">4.18233489990234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13325643539429</t>
+    <t xml:space="preserve">4.13325595855713</t>
   </si>
   <si>
     <t xml:space="preserve">4.09129095077515</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">4.18020105361938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16028547286987</t>
+    <t xml:space="preserve">4.16028499603271</t>
   </si>
   <si>
     <t xml:space="preserve">4.1979832649231</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15174913406372</t>
+    <t xml:space="preserve">4.15174961090088</t>
   </si>
   <si>
     <t xml:space="preserve">4.10693883895874</t>
@@ -1892,10 +1892,10 @@
     <t xml:space="preserve">4.37366962432861</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46755838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43697309494019</t>
+    <t xml:space="preserve">4.46755886077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43697357177734</t>
   </si>
   <si>
     <t xml:space="preserve">4.43839597702026</t>
@@ -1904,10 +1904,10 @@
     <t xml:space="preserve">4.39714193344116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39571905136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41705751419067</t>
+    <t xml:space="preserve">4.39571952819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41705799102783</t>
   </si>
   <si>
     <t xml:space="preserve">4.40994453430176</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">4.19371509552002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26768827438354</t>
+    <t xml:space="preserve">4.2676887512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.23070192337036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2748007774353</t>
+    <t xml:space="preserve">4.27480125427246</t>
   </si>
   <si>
     <t xml:space="preserve">4.31534433364868</t>
@@ -1937,25 +1937,25 @@
     <t xml:space="preserve">4.38433885574341</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36726808547974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36442279815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36015558242798</t>
+    <t xml:space="preserve">4.36726760864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3644232749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36015510559082</t>
   </si>
   <si>
     <t xml:space="preserve">4.30680847167969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43270587921143</t>
+    <t xml:space="preserve">4.43270540237427</t>
   </si>
   <si>
     <t xml:space="preserve">4.49458742141724</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40069770812988</t>
+    <t xml:space="preserve">4.40069818496704</t>
   </si>
   <si>
     <t xml:space="preserve">4.48676347732544</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">4.65889358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73215579986572</t>
+    <t xml:space="preserve">4.73215532302856</t>
   </si>
   <si>
     <t xml:space="preserve">4.63044166564941</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">4.71366167068481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73571157455444</t>
+    <t xml:space="preserve">4.7357120513916</t>
   </si>
   <si>
     <t xml:space="preserve">4.76843070983887</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">4.82248830795288</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76558542251587</t>
+    <t xml:space="preserve">4.76558494567871</t>
   </si>
   <si>
     <t xml:space="preserve">4.72859859466553</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">4.663161277771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61123752593994</t>
+    <t xml:space="preserve">4.61123704910278</t>
   </si>
   <si>
     <t xml:space="preserve">4.57211685180664</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">4.60910367965698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63755512237549</t>
+    <t xml:space="preserve">4.63755464553833</t>
   </si>
   <si>
     <t xml:space="preserve">4.68734455108643</t>
@@ -2039,25 +2039,25 @@
     <t xml:space="preserve">4.72290849685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75847291946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80114936828613</t>
+    <t xml:space="preserve">4.75847244262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80114984512329</t>
   </si>
   <si>
     <t xml:space="preserve">4.77269792556763</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7798113822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78692436218262</t>
+    <t xml:space="preserve">4.77981090545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78692388534546</t>
   </si>
   <si>
     <t xml:space="preserve">4.87939071655273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81537485122681</t>
+    <t xml:space="preserve">4.81537532806396</t>
   </si>
   <si>
     <t xml:space="preserve">4.65178060531616</t>
@@ -8432,7 +8432,7 @@
         <v>7.24187612533569</v>
       </c>
       <c r="G145" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -8458,7 +8458,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G146" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8484,7 +8484,7 @@
         <v>7.33019208908081</v>
       </c>
       <c r="G147" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8510,7 +8510,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G148" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8536,7 +8536,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G149" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8562,7 +8562,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G150" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8614,7 +8614,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G152" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8640,7 +8640,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8666,7 +8666,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8692,7 +8692,7 @@
         <v>7.07918977737427</v>
       </c>
       <c r="G155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8718,7 +8718,7 @@
         <v>7.05130100250244</v>
       </c>
       <c r="G156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8770,7 +8770,7 @@
         <v>7.13032007217407</v>
       </c>
       <c r="G158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8796,7 +8796,7 @@
         <v>7.04200410842896</v>
       </c>
       <c r="G159" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8822,7 +8822,7 @@
         <v>7.0048189163208</v>
       </c>
       <c r="G160" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8848,7 +8848,7 @@
         <v>6.93509578704834</v>
       </c>
       <c r="G161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8874,7 +8874,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8900,7 +8900,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8926,7 +8926,7 @@
         <v>6.78170585632324</v>
       </c>
       <c r="G164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8952,7 +8952,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8978,7 +8978,7 @@
         <v>6.88396596908569</v>
       </c>
       <c r="G166" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -9004,7 +9004,7 @@
         <v>6.87002086639404</v>
       </c>
       <c r="G167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -9030,7 +9030,7 @@
         <v>6.83283615112305</v>
       </c>
       <c r="G168" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9056,7 +9056,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -9082,7 +9082,7 @@
         <v>6.77705812454224</v>
       </c>
       <c r="G170" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9108,7 +9108,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9134,7 +9134,7 @@
         <v>6.71198320388794</v>
       </c>
       <c r="G172" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9160,7 +9160,7 @@
         <v>6.64690780639648</v>
       </c>
       <c r="G173" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9186,7 +9186,7 @@
         <v>6.79565000534058</v>
       </c>
       <c r="G174" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9212,7 +9212,7 @@
         <v>6.69803810119629</v>
       </c>
       <c r="G175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9264,7 +9264,7 @@
         <v>6.74916791915894</v>
       </c>
       <c r="G177" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9290,7 +9290,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G178" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9316,7 +9316,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G179" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9342,7 +9342,7 @@
         <v>6.242516040802</v>
       </c>
       <c r="G180" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9394,7 +9394,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G182" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9420,7 +9420,7 @@
         <v>6.09842205047607</v>
       </c>
       <c r="G183" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9446,7 +9446,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G184" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9472,7 +9472,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G185" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9498,7 +9498,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G186" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9524,7 +9524,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G187" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9550,7 +9550,7 @@
         <v>6.17744112014771</v>
       </c>
       <c r="G188" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9576,7 +9576,7 @@
         <v>6.13095903396606</v>
       </c>
       <c r="G189" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9628,7 +9628,7 @@
         <v>6.26575708389282</v>
       </c>
       <c r="G191" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9680,7 +9680,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G193" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9706,7 +9706,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G194" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9732,7 +9732,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G195" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9758,7 +9758,7 @@
         <v>6.11236715316772</v>
       </c>
       <c r="G196" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9784,7 +9784,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G197" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9810,7 +9810,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G198" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9836,7 +9836,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G199" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9862,7 +9862,7 @@
         <v>6.02405118942261</v>
       </c>
       <c r="G200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9888,7 +9888,7 @@
         <v>5.99616193771362</v>
       </c>
       <c r="G201" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9914,7 +9914,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9940,7 +9940,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G203" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9966,7 +9966,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G204" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9992,7 +9992,7 @@
         <v>6.20532989501953</v>
       </c>
       <c r="G205" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10018,7 +10018,7 @@
         <v>6.45633316040039</v>
       </c>
       <c r="G206" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10044,7 +10044,7 @@
         <v>6.56324100494385</v>
       </c>
       <c r="G207" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10070,7 +10070,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G208" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10096,7 +10096,7 @@
         <v>6.63761186599731</v>
       </c>
       <c r="G209" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10148,7 +10148,7 @@
         <v>6.65155601501465</v>
       </c>
       <c r="G211" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10174,7 +10174,7 @@
         <v>6.600426197052</v>
       </c>
       <c r="G212" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10200,7 +10200,7 @@
         <v>6.52140712738037</v>
       </c>
       <c r="G213" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10252,7 +10252,7 @@
         <v>6.46562910079956</v>
       </c>
       <c r="G215" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10278,7 +10278,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G216" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10304,7 +10304,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10330,7 +10330,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G218" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10356,7 +10356,7 @@
         <v>6.36336898803711</v>
       </c>
       <c r="G219" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10382,7 +10382,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G220" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10408,7 +10408,7 @@
         <v>6.34477615356445</v>
       </c>
       <c r="G221" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10434,7 +10434,7 @@
         <v>6.29364585876465</v>
       </c>
       <c r="G222" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10460,7 +10460,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G223" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10486,7 +10486,7 @@
         <v>6.21462678909302</v>
       </c>
       <c r="G224" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10512,7 +10512,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G225" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10538,7 +10538,7 @@
         <v>6.06123685836792</v>
       </c>
       <c r="G226" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10564,7 +10564,7 @@
         <v>6.07053279876709</v>
       </c>
       <c r="G227" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10590,7 +10590,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G228" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10616,7 +10616,7 @@
         <v>5.74516010284424</v>
       </c>
       <c r="G229" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10642,7 +10642,7 @@
         <v>5.88460493087769</v>
       </c>
       <c r="G230" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10668,7 +10668,7 @@
         <v>5.92643880844116</v>
       </c>
       <c r="G231" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10694,7 +10694,7 @@
         <v>5.90784597396851</v>
       </c>
       <c r="G232" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10720,7 +10720,7 @@
         <v>5.78234481811523</v>
       </c>
       <c r="G233" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10746,7 +10746,7 @@
         <v>5.81023406982422</v>
       </c>
       <c r="G234" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10772,7 +10772,7 @@
         <v>5.81953096389771</v>
       </c>
       <c r="G235" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10798,7 +10798,7 @@
         <v>5.86601305007935</v>
       </c>
       <c r="G236" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10824,7 +10824,7 @@
         <v>5.85671615600586</v>
       </c>
       <c r="G237" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10850,7 +10850,7 @@
         <v>5.91249513626099</v>
       </c>
       <c r="G238" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10876,7 +10876,7 @@
         <v>5.83812379837036</v>
       </c>
       <c r="G239" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10902,7 +10902,7 @@
         <v>6.14490413665771</v>
       </c>
       <c r="G240" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10928,7 +10928,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G241" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10954,7 +10954,7 @@
         <v>6.3959059715271</v>
       </c>
       <c r="G242" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10980,7 +10980,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G243" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11006,7 +11006,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G244" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11058,7 +11058,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G246" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11136,7 +11136,7 @@
         <v>6.57718515396118</v>
       </c>
       <c r="G249" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11162,7 +11162,7 @@
         <v>6.53070402145386</v>
       </c>
       <c r="G250" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11188,7 +11188,7 @@
         <v>6.6655011177063</v>
       </c>
       <c r="G251" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11214,7 +11214,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G252" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11240,7 +11240,7 @@
         <v>6.67479705810547</v>
       </c>
       <c r="G253" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11266,7 +11266,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G254" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11292,7 +11292,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G255" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11318,7 +11318,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G256" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11344,7 +11344,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G257" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11370,7 +11370,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G258" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11448,7 +11448,7 @@
         <v>7.05594921112061</v>
       </c>
       <c r="G261" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11500,7 +11500,7 @@
         <v>6.91650295257568</v>
       </c>
       <c r="G263" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11526,7 +11526,7 @@
         <v>7.00946712493896</v>
       </c>
       <c r="G264" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11552,7 +11552,7 @@
         <v>7.02341079711914</v>
       </c>
       <c r="G265" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11604,7 +11604,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G267" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11630,7 +11630,7 @@
         <v>6.94903993606567</v>
       </c>
       <c r="G268" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11656,7 +11656,7 @@
         <v>6.88861417770386</v>
       </c>
       <c r="G269" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11890,7 +11890,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G278" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -12072,7 +12072,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G285" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12176,7 +12176,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G289" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12202,7 +12202,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G290" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12254,7 +12254,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G292" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12280,7 +12280,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G293" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12306,7 +12306,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G294" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12436,7 +12436,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G299" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12488,7 +12488,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G301" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12592,7 +12592,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G305" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12618,7 +12618,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G306" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12644,7 +12644,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G307" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12670,7 +12670,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G308" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12748,7 +12748,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G311" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -62208,7 +62208,7 @@
     </row>
     <row r="2214">
       <c r="A2214" s="1" t="n">
-        <v>45546.6494328704</v>
+        <v>45546.2916666667</v>
       </c>
       <c r="B2214" t="n">
         <v>173315</v>
@@ -62229,6 +62229,32 @@
         <v>1438</v>
       </c>
       <c r="H2214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" s="1" t="n">
+        <v>45547.6494560185</v>
+      </c>
+      <c r="B2215" t="n">
+        <v>514591</v>
+      </c>
+      <c r="C2215" t="n">
+        <v>2.5699999332428</v>
+      </c>
+      <c r="D2215" t="n">
+        <v>2.48499989509583</v>
+      </c>
+      <c r="E2215" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>2.54500007629395</v>
+      </c>
+      <c r="G2215" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H2215" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IGD.MI.xlsx
+++ b/data/IGD.MI.xlsx
@@ -50,67 +50,67 @@
     <t xml:space="preserve">4.93245983123779</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92963218688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80801725387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69488763809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7231707572937</t>
+    <t xml:space="preserve">4.92963266372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80801820755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6948881149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72316980361938</t>
   </si>
   <si>
     <t xml:space="preserve">4.83347225189209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70902919769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48276901245117</t>
+    <t xml:space="preserve">4.70902872085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48276853561401</t>
   </si>
   <si>
     <t xml:space="preserve">4.30741834640503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18580436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73328471183777</t>
+    <t xml:space="preserve">4.18580389022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73328447341919</t>
   </si>
   <si>
     <t xml:space="preserve">4.01610851287842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09247064590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17731857299805</t>
+    <t xml:space="preserve">4.0924711227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17731904983521</t>
   </si>
   <si>
     <t xml:space="preserve">4.11226892471313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08398675918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94540309906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10095596313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21125793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05570411682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82378816604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91712021827698</t>
+    <t xml:space="preserve">4.08398723602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94540333747864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10095643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21125745773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05570363998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82378792762756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91712045669556</t>
   </si>
   <si>
     <t xml:space="preserve">3.57490253448486</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">3.6201548576355</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81813192367554</t>
+    <t xml:space="preserve">3.81813168525696</t>
   </si>
   <si>
     <t xml:space="preserve">3.69086050987244</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">3.76439499855042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01893711090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95954418182373</t>
+    <t xml:space="preserve">4.01893758773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95954394340515</t>
   </si>
   <si>
     <t xml:space="preserve">4.07267332077026</t>
@@ -140,55 +140,55 @@
     <t xml:space="preserve">4.00479602813721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19994449615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1462082862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08964347839355</t>
+    <t xml:space="preserve">4.19994497299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14620780944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0896430015564</t>
   </si>
   <si>
     <t xml:space="preserve">4.12358236312866</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12923908233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1716628074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19428777694702</t>
+    <t xml:space="preserve">4.12923860549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17166233062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19428825378418</t>
   </si>
   <si>
     <t xml:space="preserve">4.38660860061646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35549831390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52519273757935</t>
+    <t xml:space="preserve">4.35549783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5251932144165</t>
   </si>
   <si>
     <t xml:space="preserve">4.48559808731079</t>
   </si>
   <si>
-    <t xml:space="preserve">4.496910572052</t>
+    <t xml:space="preserve">4.49691009521484</t>
   </si>
   <si>
     <t xml:space="preserve">4.48842620849609</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58175754547119</t>
+    <t xml:space="preserve">4.58175802230835</t>
   </si>
   <si>
     <t xml:space="preserve">4.68357515335083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6666054725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61569738388062</t>
+    <t xml:space="preserve">4.66660594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61569690704346</t>
   </si>
   <si>
     <t xml:space="preserve">4.72882699966431</t>
@@ -197,10 +197,10 @@
     <t xml:space="preserve">4.83630037307739</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76842164993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70620107650757</t>
+    <t xml:space="preserve">4.76842212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70620059967041</t>
   </si>
   <si>
     <t xml:space="preserve">4.6383228302002</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">4.49973917007446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57327318191528</t>
+    <t xml:space="preserve">4.57327270507812</t>
   </si>
   <si>
     <t xml:space="preserve">4.57610177993774</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">4.41206359863281</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40075063705444</t>
+    <t xml:space="preserve">4.40075016021729</t>
   </si>
   <si>
     <t xml:space="preserve">4.36963987350464</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">4.37246799468994</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38378047943115</t>
+    <t xml:space="preserve">4.38378143310547</t>
   </si>
   <si>
     <t xml:space="preserve">4.47994136810303</t>
@@ -242,52 +242,52 @@
     <t xml:space="preserve">4.45448732376099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5167088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41489219665527</t>
+    <t xml:space="preserve">4.51670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41489124298096</t>
   </si>
   <si>
     <t xml:space="preserve">4.47428464889526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44034624099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41771936416626</t>
+    <t xml:space="preserve">4.44034576416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41771984100342</t>
   </si>
   <si>
     <t xml:space="preserve">4.44317388534546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5506477355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45731496810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53933382034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57892990112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49408292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54216241836548</t>
+    <t xml:space="preserve">4.55064725875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45731544494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53933429718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57892942428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49408197402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54216194152832</t>
   </si>
   <si>
     <t xml:space="preserve">4.45165872573853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65023183822632</t>
+    <t xml:space="preserve">4.65023136138916</t>
   </si>
   <si>
     <t xml:space="preserve">4.73061323165894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81099462509155</t>
+    <t xml:space="preserve">4.81099414825439</t>
   </si>
   <si>
     <t xml:space="preserve">4.85267400741577</t>
@@ -296,28 +296,28 @@
     <t xml:space="preserve">4.84076595306396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85565090179443</t>
+    <t xml:space="preserve">4.85565137863159</t>
   </si>
   <si>
     <t xml:space="preserve">4.82290363311768</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77526950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73358917236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79610919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79015493392944</t>
+    <t xml:space="preserve">4.77526998519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73358964920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79610967636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79015445709229</t>
   </si>
   <si>
     <t xml:space="preserve">4.79313230514526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79908609390259</t>
+    <t xml:space="preserve">4.79908561706543</t>
   </si>
   <si>
     <t xml:space="preserve">4.72168207168579</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">4.50137662887573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20068883895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22450590133667</t>
+    <t xml:space="preserve">4.20068979263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22450542449951</t>
   </si>
   <si>
     <t xml:space="preserve">4.08755970001221</t>
@@ -341,25 +341,25 @@
     <t xml:space="preserve">4.30488729476929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34656715393066</t>
+    <t xml:space="preserve">4.34656667709351</t>
   </si>
   <si>
     <t xml:space="preserve">4.39420080184937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42397165298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17389488220215</t>
+    <t xml:space="preserve">4.42397212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17389535903931</t>
   </si>
   <si>
     <t xml:space="preserve">3.95954346656799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9774067401886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98931479454041</t>
+    <t xml:space="preserve">3.97740721702576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98931455612183</t>
   </si>
   <si>
     <t xml:space="preserve">4.37038373947144</t>
@@ -368,13 +368,13 @@
     <t xml:space="preserve">4.30191040039062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15603256225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00122356414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9684751033783</t>
+    <t xml:space="preserve">4.15603303909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00122308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96847486495972</t>
   </si>
   <si>
     <t xml:space="preserve">4.09946775436401</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">4.40313148498535</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55496454238892</t>
+    <t xml:space="preserve">4.55496406555176</t>
   </si>
   <si>
     <t xml:space="preserve">4.48351383209229</t>
@@ -398,46 +398,49 @@
     <t xml:space="preserve">4.67404842376709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56984949111938</t>
+    <t xml:space="preserve">4.56984996795654</t>
   </si>
   <si>
     <t xml:space="preserve">4.60855150222778</t>
   </si>
   <si>
+    <t xml:space="preserve">4.52519369125366</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.61152935028076</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6948881149292</t>
+    <t xml:space="preserve">4.69488859176636</t>
   </si>
   <si>
     <t xml:space="preserve">4.6859564781189</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64427709579468</t>
+    <t xml:space="preserve">4.64427757263184</t>
   </si>
   <si>
     <t xml:space="preserve">4.67107057571411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40610933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54007816314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62046003341675</t>
+    <t xml:space="preserve">4.40610980987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54007863998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62046051025391</t>
   </si>
   <si>
     <t xml:space="preserve">4.53412437438965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5162615776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56687259674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51030778884888</t>
+    <t xml:space="preserve">4.51626205444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56687307357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51030731201172</t>
   </si>
   <si>
     <t xml:space="preserve">4.48649072647095</t>
@@ -446,16 +449,16 @@
     <t xml:space="preserve">4.44183397293091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46267366409302</t>
+    <t xml:space="preserve">4.46267414093018</t>
   </si>
   <si>
     <t xml:space="preserve">4.3346586227417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34358978271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36740684509277</t>
+    <t xml:space="preserve">4.343590259552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36740636825562</t>
   </si>
   <si>
     <t xml:space="preserve">4.40908622741699</t>
@@ -464,13 +467,13 @@
     <t xml:space="preserve">4.40015459060669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37633848190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28702449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34061288833618</t>
+    <t xml:space="preserve">4.37633800506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.287024974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34061336517334</t>
   </si>
   <si>
     <t xml:space="preserve">4.31084203720093</t>
@@ -482,13 +485,13 @@
     <t xml:space="preserve">4.25725364685059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35252094268799</t>
+    <t xml:space="preserve">4.35252141952515</t>
   </si>
   <si>
     <t xml:space="preserve">4.29000186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32275009155273</t>
+    <t xml:space="preserve">4.32274961471558</t>
   </si>
   <si>
     <t xml:space="preserve">4.21557474136353</t>
@@ -497,37 +500,37 @@
     <t xml:space="preserve">4.0786280632019</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99824619293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9297730922699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90595602989197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97145247459412</t>
+    <t xml:space="preserve">3.99824571609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92977333068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90595650672913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97145223617554</t>
   </si>
   <si>
     <t xml:space="preserve">3.87618541717529</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87916135787964</t>
+    <t xml:space="preserve">3.8791618347168</t>
   </si>
   <si>
     <t xml:space="preserve">3.99229264259338</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95656633377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9267954826355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01313161849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94168090820312</t>
+    <t xml:space="preserve">3.95656681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92679595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01313209533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9416811466217</t>
   </si>
   <si>
     <t xml:space="preserve">3.91488814353943</t>
@@ -536,28 +539,28 @@
     <t xml:space="preserve">3.89404726028442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85832285881042</t>
+    <t xml:space="preserve">3.85832262039185</t>
   </si>
   <si>
     <t xml:space="preserve">3.84045958518982</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85236859321594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97442889213562</t>
+    <t xml:space="preserve">3.85236883163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97442936897278</t>
   </si>
   <si>
     <t xml:space="preserve">4.13519334793091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20366668701172</t>
+    <t xml:space="preserve">4.2036657333374</t>
   </si>
   <si>
     <t xml:space="preserve">4.25129985809326</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26023149490356</t>
+    <t xml:space="preserve">4.26023101806641</t>
   </si>
   <si>
     <t xml:space="preserve">4.22748279571533</t>
@@ -572,10 +575,10 @@
     <t xml:space="preserve">4.11137580871582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04885768890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07565116882324</t>
+    <t xml:space="preserve">4.04885673522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07565069198608</t>
   </si>
   <si>
     <t xml:space="preserve">4.06076526641846</t>
@@ -584,52 +587,52 @@
     <t xml:space="preserve">4.06374263763428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0309944152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98038363456726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88213920593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8880934715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67969679832458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76900935173035</t>
+    <t xml:space="preserve">4.03099393844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98038387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88213992118835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88809323310852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67969655990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76900887489319</t>
   </si>
   <si>
     <t xml:space="preserve">3.79580330848694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78389430046082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70351266860962</t>
+    <t xml:space="preserve">3.78389501571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7035129070282</t>
   </si>
   <si>
     <t xml:space="preserve">3.7213761806488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72732996940613</t>
+    <t xml:space="preserve">3.72733044624329</t>
   </si>
   <si>
     <t xml:space="preserve">3.75710153579712</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75114631652832</t>
+    <t xml:space="preserve">3.75114679336548</t>
   </si>
   <si>
     <t xml:space="preserve">3.78687262535095</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73923850059509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93572759628296</t>
+    <t xml:space="preserve">3.73923873901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9357271194458</t>
   </si>
   <si>
     <t xml:space="preserve">4.09649038314819</t>
@@ -641,7 +644,7 @@
     <t xml:space="preserve">4.18282747268677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26916217803955</t>
+    <t xml:space="preserve">4.26916265487671</t>
   </si>
   <si>
     <t xml:space="preserve">4.27511644363403</t>
@@ -650,28 +653,28 @@
     <t xml:space="preserve">4.26320886611938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51923894882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4299259185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48946809768677</t>
+    <t xml:space="preserve">4.51923942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42992544174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48946857452393</t>
   </si>
   <si>
     <t xml:space="preserve">4.49839878082275</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48053598403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45076560974121</t>
+    <t xml:space="preserve">4.48053646087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45076513290405</t>
   </si>
   <si>
     <t xml:space="preserve">4.41801738739014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37336158752441</t>
+    <t xml:space="preserve">4.37336111068726</t>
   </si>
   <si>
     <t xml:space="preserve">4.35847568511963</t>
@@ -680,19 +683,19 @@
     <t xml:space="preserve">4.32572746276855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23939180374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14412450790405</t>
+    <t xml:space="preserve">4.2393913269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14412403106689</t>
   </si>
   <si>
     <t xml:space="preserve">4.24534606933594</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16794109344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20961999893188</t>
+    <t xml:space="preserve">4.16794157028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20962047576904</t>
   </si>
   <si>
     <t xml:space="preserve">4.36442947387695</t>
@@ -701,19 +704,19 @@
     <t xml:space="preserve">4.45671987533569</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29297876358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62641525268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66809368133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52816963195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59664344787598</t>
+    <t xml:space="preserve">4.29297971725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62641477584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66809415817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52816915512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59664392471313</t>
   </si>
   <si>
     <t xml:space="preserve">4.75145292282104</t>
@@ -725,40 +728,40 @@
     <t xml:space="preserve">4.72763586044312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8824462890625</t>
+    <t xml:space="preserve">4.88244581222534</t>
   </si>
   <si>
     <t xml:space="preserve">4.87053680419922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96878099441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89435338973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8675594329834</t>
+    <t xml:space="preserve">4.96878147125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89435386657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86755990982056</t>
   </si>
   <si>
     <t xml:space="preserve">4.86458253860474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80504035949707</t>
+    <t xml:space="preserve">4.80504083633423</t>
   </si>
   <si>
     <t xml:space="preserve">4.7812237739563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70381927490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68297958374023</t>
+    <t xml:space="preserve">4.70381879806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68297910690308</t>
   </si>
   <si>
     <t xml:space="preserve">4.61450624465942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76336145401001</t>
+    <t xml:space="preserve">4.76336097717285</t>
   </si>
   <si>
     <t xml:space="preserve">4.8764910697937</t>
@@ -770,13 +773,13 @@
     <t xml:space="preserve">4.90923881530762</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93007946014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91221618652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94794130325317</t>
+    <t xml:space="preserve">4.93007898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9122166633606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94794178009033</t>
   </si>
   <si>
     <t xml:space="preserve">4.93603324890137</t>
@@ -785,13 +788,13 @@
     <t xml:space="preserve">4.98962068557739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0967960357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12061309814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15633821487427</t>
+    <t xml:space="preserve">5.09679651260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12061357498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15633869171143</t>
   </si>
   <si>
     <t xml:space="preserve">5.1980185508728</t>
@@ -800,7 +803,7 @@
     <t xml:space="preserve">5.23076629638672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06107139587402</t>
+    <t xml:space="preserve">5.06107091903687</t>
   </si>
   <si>
     <t xml:space="preserve">5.03130006790161</t>
@@ -809,7 +812,7 @@
     <t xml:space="preserve">4.99557495117188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04405975341797</t>
+    <t xml:space="preserve">5.04405927658081</t>
   </si>
   <si>
     <t xml:space="preserve">5.08096694946289</t>
@@ -821,7 +824,7 @@
     <t xml:space="preserve">5.06866455078125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09019422531128</t>
+    <t xml:space="preserve">5.09019470214844</t>
   </si>
   <si>
     <t xml:space="preserve">5.18553876876831</t>
@@ -836,7 +839,7 @@
     <t xml:space="preserve">5.06251287460327</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11787462234497</t>
+    <t xml:space="preserve">5.11787414550781</t>
   </si>
   <si>
     <t xml:space="preserve">5.11172342300415</t>
@@ -845,7 +848,7 @@
     <t xml:space="preserve">5.09942102432251</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05636167526245</t>
+    <t xml:space="preserve">5.05636119842529</t>
   </si>
   <si>
     <t xml:space="preserve">5.02252912521362</t>
@@ -854,22 +857,22 @@
     <t xml:space="preserve">4.96409225463867</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93641185760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91488170623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95179033279419</t>
+    <t xml:space="preserve">4.93641138076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91488218307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95178937911987</t>
   </si>
   <si>
     <t xml:space="preserve">4.89642858505249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82261228561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69035959243774</t>
+    <t xml:space="preserve">4.82261323928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6903600692749</t>
   </si>
   <si>
     <t xml:space="preserve">4.74264574050903</t>
@@ -878,10 +881,10 @@
     <t xml:space="preserve">4.7764778137207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86567163467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88412570953369</t>
+    <t xml:space="preserve">4.86567211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88412618637085</t>
   </si>
   <si>
     <t xml:space="preserve">4.79800748825073</t>
@@ -911,13 +914,13 @@
     <t xml:space="preserve">5.07481575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01330280303955</t>
+    <t xml:space="preserve">5.01330327987671</t>
   </si>
   <si>
     <t xml:space="preserve">5.05943727493286</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17631244659424</t>
+    <t xml:space="preserve">5.17631196975708</t>
   </si>
   <si>
     <t xml:space="preserve">5.22859811782837</t>
@@ -926,7 +929,7 @@
     <t xml:space="preserve">5.22244691848755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1701602935791</t>
+    <t xml:space="preserve">5.17015981674194</t>
   </si>
   <si>
     <t xml:space="preserve">5.15785837173462</t>
@@ -944,13 +947,13 @@
     <t xml:space="preserve">5.25012731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25627851486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27165699005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29011106491089</t>
+    <t xml:space="preserve">5.25627899169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27165746688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29011154174805</t>
   </si>
   <si>
     <t xml:space="preserve">5.21321964263916</t>
@@ -962,7 +965,7 @@
     <t xml:space="preserve">5.14863109588623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22552299499512</t>
+    <t xml:space="preserve">5.22552251815796</t>
   </si>
   <si>
     <t xml:space="preserve">5.16708517074585</t>
@@ -971,13 +974,13 @@
     <t xml:space="preserve">5.18861532211304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24090099334717</t>
+    <t xml:space="preserve">5.24090051651001</t>
   </si>
   <si>
     <t xml:space="preserve">5.31471633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41313648223877</t>
+    <t xml:space="preserve">5.41313600540161</t>
   </si>
   <si>
     <t xml:space="preserve">5.42543983459473</t>
@@ -989,25 +992,25 @@
     <t xml:space="preserve">5.37622928619385</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35162353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36392593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38853168487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3731541633606</t>
+    <t xml:space="preserve">5.35162401199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36392641067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38853216171265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37315368652344</t>
   </si>
   <si>
     <t xml:space="preserve">5.42851495742798</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43159103393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44389295578003</t>
+    <t xml:space="preserve">5.43159055709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44389343261719</t>
   </si>
   <si>
     <t xml:space="preserve">5.32701873779297</t>
@@ -1016,7 +1019,7 @@
     <t xml:space="preserve">5.34239721298218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39468240737915</t>
+    <t xml:space="preserve">5.39468288421631</t>
   </si>
   <si>
     <t xml:space="preserve">5.53616285324097</t>
@@ -1025,7 +1028,7 @@
     <t xml:space="preserve">5.62843132019043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84372806549072</t>
+    <t xml:space="preserve">5.84372758865356</t>
   </si>
   <si>
     <t xml:space="preserve">5.87448358535767</t>
@@ -1046,25 +1049,25 @@
     <t xml:space="preserve">5.78221416473389</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69301986694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7699122428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94829940795898</t>
+    <t xml:space="preserve">5.69302034378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76991176605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94829988479614</t>
   </si>
   <si>
     <t xml:space="preserve">6.10515737533569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12053537368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41579818725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40349626541138</t>
+    <t xml:space="preserve">6.12053632736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4157977104187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40349578857422</t>
   </si>
   <si>
     <t xml:space="preserve">6.32352781295776</t>
@@ -1082,31 +1085,31 @@
     <t xml:space="preserve">6.18204879760742</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09285497665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21280479431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50806665420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56342935562134</t>
+    <t xml:space="preserve">6.09285449981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21280431747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50806617736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56342887878418</t>
   </si>
   <si>
     <t xml:space="preserve">6.3911919593811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61879062652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60648727416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55112552642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65569686889648</t>
+    <t xml:space="preserve">6.61878967285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60648775100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55112600326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6556978225708</t>
   </si>
   <si>
     <t xml:space="preserve">6.69260549545288</t>
@@ -1115,16 +1118,16 @@
     <t xml:space="preserve">6.63724374771118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62494039535522</t>
+    <t xml:space="preserve">6.62494087219238</t>
   </si>
   <si>
     <t xml:space="preserve">6.4588565826416</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57573080062866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66800165176392</t>
+    <t xml:space="preserve">6.57573127746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6680006980896</t>
   </si>
   <si>
     <t xml:space="preserve">6.82793426513672</t>
@@ -1139,40 +1142,40 @@
     <t xml:space="preserve">6.88944721221924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70490741729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28046846389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02826642990112</t>
+    <t xml:space="preserve">6.70490789413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28046894073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02826595306396</t>
   </si>
   <si>
     <t xml:space="preserve">5.96675300598145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00981187820435</t>
+    <t xml:space="preserve">6.0098123550415</t>
   </si>
   <si>
     <t xml:space="preserve">5.87755918502808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93599605560303</t>
+    <t xml:space="preserve">5.93599653244019</t>
   </si>
   <si>
     <t xml:space="preserve">6.01903915405273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92984580993652</t>
+    <t xml:space="preserve">5.92984533309937</t>
   </si>
   <si>
     <t xml:space="preserve">5.92369318008423</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05902242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06517314910889</t>
+    <t xml:space="preserve">6.05902290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0651741027832</t>
   </si>
   <si>
     <t xml:space="preserve">6.16359424591064</t>
@@ -1181,19 +1184,19 @@
     <t xml:space="preserve">6.13283824920654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90524005889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99750947952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9544506072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88063526153564</t>
+    <t xml:space="preserve">5.96060228347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90523958206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99750995635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95445013046265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88063478469849</t>
   </si>
   <si>
     <t xml:space="preserve">5.89293766021729</t>
@@ -1202,19 +1205,19 @@
     <t xml:space="preserve">5.85602998733521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69609642028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64688634872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52385950088501</t>
+    <t xml:space="preserve">5.69609689712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64688682556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52385997772217</t>
   </si>
   <si>
     <t xml:space="preserve">5.33316993713379</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49310350418091</t>
+    <t xml:space="preserve">5.49310398101807</t>
   </si>
   <si>
     <t xml:space="preserve">5.21014451980591</t>
@@ -1223,25 +1226,25 @@
     <t xml:space="preserve">5.08711767196655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17323684692383</t>
+    <t xml:space="preserve">5.17323637008667</t>
   </si>
   <si>
     <t xml:space="preserve">5.03790760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01945447921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32086801528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92103338241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95978593826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87059307098389</t>
+    <t xml:space="preserve">5.01945400238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32086753845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92103385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9597864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87059259414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.74633693695068</t>
@@ -1253,13 +1256,13 @@
     <t xml:space="preserve">4.62269592285156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68728446960449</t>
+    <t xml:space="preserve">4.68728399276733</t>
   </si>
   <si>
     <t xml:space="preserve">4.82568788528442</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82937955856323</t>
+    <t xml:space="preserve">4.82937908172607</t>
   </si>
   <si>
     <t xml:space="preserve">4.71188926696777</t>
@@ -1268,7 +1271,7 @@
     <t xml:space="preserve">4.65283679962158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66821479797363</t>
+    <t xml:space="preserve">4.66821527481079</t>
   </si>
   <si>
     <t xml:space="preserve">4.56425857543945</t>
@@ -1280,40 +1283,40 @@
     <t xml:space="preserve">4.44738388061523</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63992023468018</t>
+    <t xml:space="preserve">4.63991928100586</t>
   </si>
   <si>
     <t xml:space="preserve">4.61900472640991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59501504898071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44184875488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33666038513184</t>
+    <t xml:space="preserve">4.59501457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44184827804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33666133880615</t>
   </si>
   <si>
     <t xml:space="preserve">4.73106336593628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81509733200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27893972396851</t>
+    <t xml:space="preserve">4.81509685516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27894020080566</t>
   </si>
   <si>
     <t xml:space="preserve">5.02088165283203</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12807559967041</t>
+    <t xml:space="preserve">5.12807512283325</t>
   </si>
   <si>
     <t xml:space="preserve">5.32128810882568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53170394897461</t>
+    <t xml:space="preserve">5.53170442581177</t>
   </si>
   <si>
     <t xml:space="preserve">5.46487379074097</t>
@@ -1322,13 +1325,13 @@
     <t xml:space="preserve">5.35635709762573</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18564176559448</t>
+    <t xml:space="preserve">5.18564224243164</t>
   </si>
   <si>
     <t xml:space="preserve">5.14130878448486</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22666692733765</t>
+    <t xml:space="preserve">5.22666645050049</t>
   </si>
   <si>
     <t xml:space="preserve">5.16115951538086</t>
@@ -1337,19 +1340,19 @@
     <t xml:space="preserve">5.11550331115723</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20549345016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18895053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19953775405884</t>
+    <t xml:space="preserve">5.20549297332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1889500617981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19953727722168</t>
   </si>
   <si>
     <t xml:space="preserve">5.18762731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26041221618652</t>
+    <t xml:space="preserve">5.26041269302368</t>
   </si>
   <si>
     <t xml:space="preserve">5.10557794570923</t>
@@ -1364,10 +1367,10 @@
     <t xml:space="preserve">5.19887590408325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21409511566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19424438476562</t>
+    <t xml:space="preserve">5.2140941619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19424390792847</t>
   </si>
   <si>
     <t xml:space="preserve">5.29349708557129</t>
@@ -1379,7 +1382,7 @@
     <t xml:space="preserve">5.24453210830688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42583417892456</t>
+    <t xml:space="preserve">5.42583465576172</t>
   </si>
   <si>
     <t xml:space="preserve">5.3186411857605</t>
@@ -1388,10 +1391,10 @@
     <t xml:space="preserve">5.15057277679443</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92890787124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00169277191162</t>
+    <t xml:space="preserve">4.92890691757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00169324874878</t>
   </si>
   <si>
     <t xml:space="preserve">4.94611120223999</t>
@@ -1406,16 +1409,16 @@
     <t xml:space="preserve">4.82369947433472</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70790386199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47631311416626</t>
+    <t xml:space="preserve">4.70790338516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47631359100342</t>
   </si>
   <si>
     <t xml:space="preserve">4.73172473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81311225891113</t>
+    <t xml:space="preserve">4.81311178207397</t>
   </si>
   <si>
     <t xml:space="preserve">4.79061460494995</t>
@@ -1430,19 +1433,19 @@
     <t xml:space="preserve">4.9593448638916</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84553480148315</t>
+    <t xml:space="preserve">4.845534324646</t>
   </si>
   <si>
     <t xml:space="preserve">4.74495792388916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04227447509766</t>
+    <t xml:space="preserve">5.0422739982605</t>
   </si>
   <si>
     <t xml:space="preserve">5.16319179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05792284011841</t>
+    <t xml:space="preserve">5.05792236328125</t>
   </si>
   <si>
     <t xml:space="preserve">5.15607929229736</t>
@@ -1454,7 +1457,7 @@
     <t xml:space="preserve">4.95905447006226</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96047687530518</t>
+    <t xml:space="preserve">4.96047639846802</t>
   </si>
   <si>
     <t xml:space="preserve">4.92491245269775</t>
@@ -1463,10 +1466,10 @@
     <t xml:space="preserve">4.90997552871704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02875947952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95549726486206</t>
+    <t xml:space="preserve">5.02875995635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95549774169922</t>
   </si>
   <si>
     <t xml:space="preserve">4.97897005081177</t>
@@ -1478,13 +1481,13 @@
     <t xml:space="preserve">4.93629312515259</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89503908157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01240015029907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95194101333618</t>
+    <t xml:space="preserve">4.89503860473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01240062713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95194149017334</t>
   </si>
   <si>
     <t xml:space="preserve">4.93415880203247</t>
@@ -1496,19 +1499,19 @@
     <t xml:space="preserve">5.14967727661133</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13900804519653</t>
+    <t xml:space="preserve">5.13900852203369</t>
   </si>
   <si>
     <t xml:space="preserve">4.99319553375244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01737928390503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02804851531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06859159469604</t>
+    <t xml:space="preserve">5.01737880706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02804803848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06859111785889</t>
   </si>
   <si>
     <t xml:space="preserve">5.10486698150635</t>
@@ -1517,7 +1520,7 @@
     <t xml:space="preserve">5.16390323638916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22862958908081</t>
+    <t xml:space="preserve">5.22863006591797</t>
   </si>
   <si>
     <t xml:space="preserve">5.13260698318481</t>
@@ -1526,7 +1529,7 @@
     <t xml:space="preserve">5.15110015869141</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1646146774292</t>
+    <t xml:space="preserve">5.16461420059204</t>
   </si>
   <si>
     <t xml:space="preserve">5.02591466903687</t>
@@ -1547,7 +1550,7 @@
     <t xml:space="preserve">5.10913467407227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0863733291626</t>
+    <t xml:space="preserve">5.08637380599976</t>
   </si>
   <si>
     <t xml:space="preserve">5.00030851364136</t>
@@ -1556,10 +1559,10 @@
     <t xml:space="preserve">4.92989206314087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92277860641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91424369812012</t>
+    <t xml:space="preserve">4.92277908325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91424322128296</t>
   </si>
   <si>
     <t xml:space="preserve">4.83173513412476</t>
@@ -1568,7 +1571,7 @@
     <t xml:space="preserve">4.73926830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69943618774414</t>
+    <t xml:space="preserve">4.6994366645813</t>
   </si>
   <si>
     <t xml:space="preserve">4.61692762374878</t>
@@ -1577,10 +1580,10 @@
     <t xml:space="preserve">4.63684368133545</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67525291442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76487445831299</t>
+    <t xml:space="preserve">4.67525243759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76487398147583</t>
   </si>
   <si>
     <t xml:space="preserve">4.75633859634399</t>
@@ -1589,7 +1592,7 @@
     <t xml:space="preserve">4.68592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69445705413818</t>
+    <t xml:space="preserve">4.69445753097534</t>
   </si>
   <si>
     <t xml:space="preserve">4.73713397979736</t>
@@ -1610,13 +1613,13 @@
     <t xml:space="preserve">4.67169618606567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64537906646729</t>
+    <t xml:space="preserve">4.64537954330444</t>
   </si>
   <si>
     <t xml:space="preserve">4.67667484283447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67454147338867</t>
+    <t xml:space="preserve">4.67454195022583</t>
   </si>
   <si>
     <t xml:space="preserve">4.68663358688354</t>
@@ -1625,10 +1628,10 @@
     <t xml:space="preserve">4.66600608825684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68094301223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63968801498413</t>
+    <t xml:space="preserve">4.68094348907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63968849182129</t>
   </si>
   <si>
     <t xml:space="preserve">4.63186454772949</t>
@@ -1637,7 +1640,7 @@
     <t xml:space="preserve">4.94909620285034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82604455947876</t>
+    <t xml:space="preserve">4.8260440826416</t>
   </si>
   <si>
     <t xml:space="preserve">4.81466388702393</t>
@@ -1658,16 +1661,16 @@
     <t xml:space="preserve">4.79332590103149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70726013183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66387224197388</t>
+    <t xml:space="preserve">4.7072606086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66387176513672</t>
   </si>
   <si>
     <t xml:space="preserve">4.56784915924072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57994079589844</t>
+    <t xml:space="preserve">4.5799412727356</t>
   </si>
   <si>
     <t xml:space="preserve">4.55220079421997</t>
@@ -1676,13 +1679,13 @@
     <t xml:space="preserve">4.48178434371948</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36797904968262</t>
+    <t xml:space="preserve">4.36797952651978</t>
   </si>
   <si>
     <t xml:space="preserve">4.34948587417603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30609798431396</t>
+    <t xml:space="preserve">4.30609750747681</t>
   </si>
   <si>
     <t xml:space="preserve">4.20651817321777</t>
@@ -1691,7 +1694,7 @@
     <t xml:space="preserve">4.2342586517334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12543249130249</t>
+    <t xml:space="preserve">4.12543201446533</t>
   </si>
   <si>
     <t xml:space="preserve">4.19940519332886</t>
@@ -1700,7 +1703,7 @@
     <t xml:space="preserve">4.23852586746216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1894474029541</t>
+    <t xml:space="preserve">4.18944787979126</t>
   </si>
   <si>
     <t xml:space="preserve">4.19300365447998</t>
@@ -1733,13 +1736,13 @@
     <t xml:space="preserve">4.3665566444397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29613924026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51663732528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42345905303955</t>
+    <t xml:space="preserve">4.29613971710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51663684844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42345857620239</t>
   </si>
   <si>
     <t xml:space="preserve">4.37082433700562</t>
@@ -1748,22 +1751,22 @@
     <t xml:space="preserve">4.33952808380127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2698221206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29542827606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27764654159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23283624649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17166566848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17379903793335</t>
+    <t xml:space="preserve">4.26982259750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29542875289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2776460647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23283576965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17166519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17379951477051</t>
   </si>
   <si>
     <t xml:space="preserve">4.19442653656006</t>
@@ -1778,28 +1781,28 @@
     <t xml:space="preserve">4.38149356842041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34379577636719</t>
+    <t xml:space="preserve">4.34379529953003</t>
   </si>
   <si>
     <t xml:space="preserve">4.33312654495239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25559711456299</t>
+    <t xml:space="preserve">4.25559663772583</t>
   </si>
   <si>
     <t xml:space="preserve">4.18375730514526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16810894012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13041114807129</t>
+    <t xml:space="preserve">4.16810941696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13041162490845</t>
   </si>
   <si>
     <t xml:space="preserve">4.13681268692017</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09982585906982</t>
+    <t xml:space="preserve">4.09982633590698</t>
   </si>
   <si>
     <t xml:space="preserve">4.02087354660034</t>
@@ -1808,7 +1811,7 @@
     <t xml:space="preserve">4.11974191665649</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04007863998413</t>
+    <t xml:space="preserve">4.04007816314697</t>
   </si>
   <si>
     <t xml:space="preserve">4.00735950469971</t>
@@ -1823,7 +1826,7 @@
     <t xml:space="preserve">3.82242679595947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86225771903992</t>
+    <t xml:space="preserve">3.86225819587708</t>
   </si>
   <si>
     <t xml:space="preserve">3.85727906227112</t>
@@ -1832,22 +1835,22 @@
     <t xml:space="preserve">3.77477049827576</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82811665534973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96326017379761</t>
+    <t xml:space="preserve">3.82811641693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96326041221619</t>
   </si>
   <si>
     <t xml:space="preserve">4.03438806533813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13112258911133</t>
+    <t xml:space="preserve">4.13112211227417</t>
   </si>
   <si>
     <t xml:space="preserve">4.11547422409058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20296239852905</t>
+    <t xml:space="preserve">4.20296192169189</t>
   </si>
   <si>
     <t xml:space="preserve">4.18802499771118</t>
@@ -1871,7 +1874,7 @@
     <t xml:space="preserve">4.16028499603271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19798278808594</t>
+    <t xml:space="preserve">4.19798231124878</t>
   </si>
   <si>
     <t xml:space="preserve">4.15174961090088</t>
@@ -1892,10 +1895,10 @@
     <t xml:space="preserve">4.46755886077881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43697357177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43839550018311</t>
+    <t xml:space="preserve">4.43697309494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43839597702026</t>
   </si>
   <si>
     <t xml:space="preserve">4.39714193344116</t>
@@ -1919,13 +1922,13 @@
     <t xml:space="preserve">4.19371557235718</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2676887512207</t>
+    <t xml:space="preserve">4.26768827438354</t>
   </si>
   <si>
     <t xml:space="preserve">4.23070192337036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27480173110962</t>
+    <t xml:space="preserve">4.27480125427246</t>
   </si>
   <si>
     <t xml:space="preserve">4.31534433364868</t>
@@ -1937,10 +1940,10 @@
     <t xml:space="preserve">4.36726760864258</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36442232131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36015558242798</t>
+    <t xml:space="preserve">4.36442279815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36015510559082</t>
   </si>
   <si>
     <t xml:space="preserve">4.30680894851685</t>
@@ -1949,7 +1952,7 @@
     <t xml:space="preserve">4.43270540237427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49458694458008</t>
+    <t xml:space="preserve">4.49458742141724</t>
   </si>
   <si>
     <t xml:space="preserve">4.40069818496704</t>
@@ -1967,16 +1970,16 @@
     <t xml:space="preserve">4.73215532302856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63044261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59487771987915</t>
+    <t xml:space="preserve">4.63044214248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59487819671631</t>
   </si>
   <si>
     <t xml:space="preserve">4.60199069976807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71366167068481</t>
+    <t xml:space="preserve">4.71366214752197</t>
   </si>
   <si>
     <t xml:space="preserve">4.73571157455444</t>
@@ -1991,13 +1994,13 @@
     <t xml:space="preserve">4.76558542251587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72859907150269</t>
+    <t xml:space="preserve">4.72859859466553</t>
   </si>
   <si>
     <t xml:space="preserve">4.72931003570557</t>
   </si>
   <si>
-    <t xml:space="preserve">4.663161277771</t>
+    <t xml:space="preserve">4.66316080093384</t>
   </si>
   <si>
     <t xml:space="preserve">4.61123704910278</t>
@@ -2006,13 +2009,13 @@
     <t xml:space="preserve">4.57211685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6162166595459</t>
+    <t xml:space="preserve">4.61621618270874</t>
   </si>
   <si>
     <t xml:space="preserve">4.58065223693848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70157051086426</t>
+    <t xml:space="preserve">4.7015700340271</t>
   </si>
   <si>
     <t xml:space="preserve">4.68023157119751</t>
@@ -2021,13 +2024,13 @@
     <t xml:space="preserve">4.71579599380493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74424695968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60910367965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63755512237549</t>
+    <t xml:space="preserve">4.74424743652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60910320281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63755464553833</t>
   </si>
   <si>
     <t xml:space="preserve">4.68734455108643</t>
@@ -2039,16 +2042,16 @@
     <t xml:space="preserve">4.75847291946411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80114936828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77269840240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77981090545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78692388534546</t>
+    <t xml:space="preserve">4.80114984512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77269887924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7798113822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78692436218262</t>
   </si>
   <si>
     <t xml:space="preserve">4.87939071655273</t>
@@ -2063,10 +2066,7 @@
     <t xml:space="preserve">4.70926475524902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77082347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7015700340271</t>
+    <t xml:space="preserve">4.77082395553589</t>
   </si>
   <si>
     <t xml:space="preserve">4.76312923431396</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">4.81699371337891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74773979187012</t>
+    <t xml:space="preserve">4.74773931503296</t>
   </si>
   <si>
     <t xml:space="preserve">4.67079067230225</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">4.72465419769287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71695995330811</t>
+    <t xml:space="preserve">4.71695947647095</t>
   </si>
   <si>
     <t xml:space="preserve">4.80929851531982</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">4.74004411697388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68618059158325</t>
+    <t xml:space="preserve">4.68618011474609</t>
   </si>
   <si>
     <t xml:space="preserve">4.60153675079346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53228235244751</t>
+    <t xml:space="preserve">4.53228282928467</t>
   </si>
   <si>
     <t xml:space="preserve">4.57845211029053</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">4.47841882705688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4707236289978</t>
+    <t xml:space="preserve">4.47072410583496</t>
   </si>
   <si>
     <t xml:space="preserve">4.46302890777588</t>
@@ -2147,10 +2147,10 @@
     <t xml:space="preserve">4.48611354827881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75543403625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66309547424316</t>
+    <t xml:space="preserve">4.75543355941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66309595108032</t>
   </si>
   <si>
     <t xml:space="preserve">4.64770555496216</t>
@@ -2159,10 +2159,10 @@
     <t xml:space="preserve">4.64001131057739</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58614730834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55536794662476</t>
+    <t xml:space="preserve">4.58614683151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5553674697876</t>
   </si>
   <si>
     <t xml:space="preserve">4.53997802734375</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">4.54767227172852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50150299072266</t>
+    <t xml:space="preserve">4.50150346755981</t>
   </si>
   <si>
     <t xml:space="preserve">4.39377498626709</t>
@@ -2189,13 +2189,13 @@
     <t xml:space="preserve">4.27835178375244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15523386001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16292858123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07059049606323</t>
+    <t xml:space="preserve">4.15523338317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16292905807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07059001922607</t>
   </si>
   <si>
     <t xml:space="preserve">4.03981065750122</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">4.03211545944214</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12445449829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05520057678223</t>
+    <t xml:space="preserve">4.12445402145386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05520009994507</t>
   </si>
   <si>
     <t xml:space="preserve">4.07828521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11675930023193</t>
+    <t xml:space="preserve">4.11675882339478</t>
   </si>
   <si>
     <t xml:space="preserve">4.10906457901001</t>
@@ -2225,19 +2225,19 @@
     <t xml:space="preserve">4.18601322174072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20909738540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23987722396851</t>
+    <t xml:space="preserve">4.20909786224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23987770080566</t>
   </si>
   <si>
     <t xml:space="preserve">4.30913114547729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33221578598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3245210647583</t>
+    <t xml:space="preserve">4.33221626281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32452058792114</t>
   </si>
   <si>
     <t xml:space="preserve">4.31682634353638</t>
@@ -2249,25 +2249,25 @@
     <t xml:space="preserve">4.28604650497437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27065658569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30143642425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17831802368164</t>
+    <t xml:space="preserve">4.27065706253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30143690109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1783185005188</t>
   </si>
   <si>
     <t xml:space="preserve">4.37838506698608</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38608026504517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41685962677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45533418655396</t>
+    <t xml:space="preserve">4.38607978820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41685914993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4553337097168</t>
   </si>
   <si>
     <t xml:space="preserve">4.43994426727295</t>
@@ -2279,19 +2279,19 @@
     <t xml:space="preserve">4.42455434799194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44763946533203</t>
+    <t xml:space="preserve">4.44763898849487</t>
   </si>
   <si>
     <t xml:space="preserve">4.43224954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56306171417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59384155273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61692667007446</t>
+    <t xml:space="preserve">4.56306219100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59384202957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6169261932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.62462139129639</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">4.95550107955933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86316251754761</t>
+    <t xml:space="preserve">4.86316299438477</t>
   </si>
   <si>
     <t xml:space="preserve">4.84007787704468</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">4.91702651977539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83238315582275</t>
+    <t xml:space="preserve">4.83238363265991</t>
   </si>
   <si>
     <t xml:space="preserve">4.87085723876953</t>
@@ -2336,10 +2336,10 @@
     <t xml:space="preserve">4.2244873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20140266418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10136985778809</t>
+    <t xml:space="preserve">4.20140314102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10136938095093</t>
   </si>
   <si>
     <t xml:space="preserve">4.06289529800415</t>
@@ -2351,10 +2351,10 @@
     <t xml:space="preserve">3.50116920471191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49347448348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81247782707214</t>
+    <t xml:space="preserve">3.49347400665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81247758865356</t>
   </si>
   <si>
     <t xml:space="preserve">2.85864686965942</t>
@@ -2363,16 +2363,16 @@
     <t xml:space="preserve">2.62780046463013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6624276638031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79708790779114</t>
+    <t xml:space="preserve">2.66242742538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79708766937256</t>
   </si>
   <si>
     <t xml:space="preserve">2.73937630653381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87018918991089</t>
+    <t xml:space="preserve">2.87018942832947</t>
   </si>
   <si>
     <t xml:space="preserve">2.80093550682068</t>
@@ -2384,25 +2384,25 @@
     <t xml:space="preserve">2.90481638908386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93174815177917</t>
+    <t xml:space="preserve">2.93174839019775</t>
   </si>
   <si>
     <t xml:space="preserve">2.92405343055725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77785086631775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88557887077332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90096855163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84710478782654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79324078559875</t>
+    <t xml:space="preserve">2.77785062789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88557910919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90096879005432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84710454940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79324054718018</t>
   </si>
   <si>
     <t xml:space="preserve">2.8086302280426</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">2.86249446868896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83171463012695</t>
+    <t xml:space="preserve">2.83171486854553</t>
   </si>
   <si>
     <t xml:space="preserve">2.78939294815063</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">2.78554558753967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72013902664185</t>
+    <t xml:space="preserve">2.72013926506042</t>
   </si>
   <si>
     <t xml:space="preserve">2.71629190444946</t>
@@ -2435,13 +2435,13 @@
     <t xml:space="preserve">2.73168158531189</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74707126617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70474934577942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6970546245575</t>
+    <t xml:space="preserve">2.74707102775574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.704749584198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69705438613892</t>
   </si>
   <si>
     <t xml:space="preserve">2.72398662567139</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">2.60086870193481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70090198516846</t>
+    <t xml:space="preserve">2.70090222358704</t>
   </si>
   <si>
     <t xml:space="preserve">2.70859694480896</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">2.87403655052185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01639199256897</t>
+    <t xml:space="preserve">3.01639223098755</t>
   </si>
   <si>
     <t xml:space="preserve">2.63164830207825</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">2.67012238502502</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68935942649841</t>
+    <t xml:space="preserve">2.68935966491699</t>
   </si>
   <si>
     <t xml:space="preserve">2.72783398628235</t>
@@ -8409,7 +8409,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G144" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8461,7 +8461,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G146" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8487,7 +8487,7 @@
         <v>7.33019208908081</v>
       </c>
       <c r="G147" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8513,7 +8513,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G148" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8539,7 +8539,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G149" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8565,7 +8565,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G150" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8617,7 +8617,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G152" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8643,7 +8643,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G153" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -8669,7 +8669,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G154" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -8695,7 +8695,7 @@
         <v>7.07918977737427</v>
       </c>
       <c r="G155" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8721,7 +8721,7 @@
         <v>7.05130100250244</v>
       </c>
       <c r="G156" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8747,7 +8747,7 @@
         <v>7.06524515151978</v>
       </c>
       <c r="G157" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8773,7 +8773,7 @@
         <v>7.13032007217407</v>
       </c>
       <c r="G158" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8799,7 +8799,7 @@
         <v>7.04200410842896</v>
       </c>
       <c r="G159" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8825,7 +8825,7 @@
         <v>7.0048189163208</v>
       </c>
       <c r="G160" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8851,7 +8851,7 @@
         <v>6.93509578704834</v>
       </c>
       <c r="G161" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8877,7 +8877,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G162" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8903,7 +8903,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G163" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8929,7 +8929,7 @@
         <v>6.78170585632324</v>
       </c>
       <c r="G164" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8955,7 +8955,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G165" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8981,7 +8981,7 @@
         <v>6.88396596908569</v>
       </c>
       <c r="G166" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -9007,7 +9007,7 @@
         <v>6.87002086639404</v>
       </c>
       <c r="G167" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -9033,7 +9033,7 @@
         <v>6.83283615112305</v>
       </c>
       <c r="G168" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9059,7 +9059,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G169" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -9085,7 +9085,7 @@
         <v>6.77705812454224</v>
       </c>
       <c r="G170" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9111,7 +9111,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G171" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9137,7 +9137,7 @@
         <v>6.71198320388794</v>
       </c>
       <c r="G172" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9163,7 +9163,7 @@
         <v>6.64690780639648</v>
       </c>
       <c r="G173" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9189,7 +9189,7 @@
         <v>6.79565000534058</v>
       </c>
       <c r="G174" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9215,7 +9215,7 @@
         <v>6.69803810119629</v>
       </c>
       <c r="G175" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -9267,7 +9267,7 @@
         <v>6.74916791915894</v>
       </c>
       <c r="G177" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9293,7 +9293,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G178" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -9319,7 +9319,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G179" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -9345,7 +9345,7 @@
         <v>6.242516040802</v>
       </c>
       <c r="G180" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9397,7 +9397,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G182" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9423,7 +9423,7 @@
         <v>6.09842205047607</v>
       </c>
       <c r="G183" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9449,7 +9449,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G184" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9475,7 +9475,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G185" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9501,7 +9501,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G186" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9527,7 +9527,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G187" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9553,7 +9553,7 @@
         <v>6.17744112014771</v>
       </c>
       <c r="G188" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9579,7 +9579,7 @@
         <v>6.13095903396606</v>
       </c>
       <c r="G189" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9631,7 +9631,7 @@
         <v>6.26575708389282</v>
       </c>
       <c r="G191" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9683,7 +9683,7 @@
         <v>6.23322010040283</v>
       </c>
       <c r="G193" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9709,7 +9709,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G194" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9735,7 +9735,7 @@
         <v>6.0565881729126</v>
       </c>
       <c r="G195" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -9761,7 +9761,7 @@
         <v>6.11236715316772</v>
       </c>
       <c r="G196" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9787,7 +9787,7 @@
         <v>6.13560819625854</v>
       </c>
       <c r="G197" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -9813,7 +9813,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G198" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -9839,7 +9839,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G199" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9865,7 +9865,7 @@
         <v>6.02405118942261</v>
       </c>
       <c r="G200" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9891,7 +9891,7 @@
         <v>5.99616193771362</v>
       </c>
       <c r="G201" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9917,7 +9917,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G202" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9943,7 +9943,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G203" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9969,7 +9969,7 @@
         <v>6.07982921600342</v>
       </c>
       <c r="G204" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9995,7 +9995,7 @@
         <v>6.20532989501953</v>
       </c>
       <c r="G205" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10021,7 +10021,7 @@
         <v>6.45633316040039</v>
       </c>
       <c r="G206" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10047,7 +10047,7 @@
         <v>6.56324100494385</v>
       </c>
       <c r="G207" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10073,7 +10073,7 @@
         <v>6.5818338394165</v>
       </c>
       <c r="G208" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10099,7 +10099,7 @@
         <v>6.63761186599731</v>
       </c>
       <c r="G209" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10151,7 +10151,7 @@
         <v>6.65155601501465</v>
       </c>
       <c r="G211" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10177,7 +10177,7 @@
         <v>6.600426197052</v>
       </c>
       <c r="G212" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10203,7 +10203,7 @@
         <v>6.52140712738037</v>
       </c>
       <c r="G213" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10255,7 +10255,7 @@
         <v>6.46562910079956</v>
       </c>
       <c r="G215" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10281,7 +10281,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G216" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10307,7 +10307,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G217" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10333,7 +10333,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G218" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10359,7 +10359,7 @@
         <v>6.36336898803711</v>
       </c>
       <c r="G219" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10385,7 +10385,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G220" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10411,7 +10411,7 @@
         <v>6.34477615356445</v>
       </c>
       <c r="G221" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10437,7 +10437,7 @@
         <v>6.29364585876465</v>
       </c>
       <c r="G222" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10463,7 +10463,7 @@
         <v>6.15420007705688</v>
       </c>
       <c r="G223" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10489,7 +10489,7 @@
         <v>6.21462678909302</v>
       </c>
       <c r="G224" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10515,7 +10515,7 @@
         <v>6.05193996429443</v>
       </c>
       <c r="G225" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10541,7 +10541,7 @@
         <v>6.06123685836792</v>
       </c>
       <c r="G226" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10567,7 +10567,7 @@
         <v>6.07053279876709</v>
       </c>
       <c r="G227" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10593,7 +10593,7 @@
         <v>6.01475477218628</v>
       </c>
       <c r="G228" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10619,7 +10619,7 @@
         <v>5.74516010284424</v>
       </c>
       <c r="G229" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10645,7 +10645,7 @@
         <v>5.88460493087769</v>
       </c>
       <c r="G230" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10671,7 +10671,7 @@
         <v>5.92643880844116</v>
       </c>
       <c r="G231" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10697,7 +10697,7 @@
         <v>5.90784597396851</v>
       </c>
       <c r="G232" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10723,7 +10723,7 @@
         <v>5.78234481811523</v>
       </c>
       <c r="G233" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10749,7 +10749,7 @@
         <v>5.81023406982422</v>
       </c>
       <c r="G234" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10775,7 +10775,7 @@
         <v>5.81953096389771</v>
       </c>
       <c r="G235" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10801,7 +10801,7 @@
         <v>5.86601305007935</v>
       </c>
       <c r="G236" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10827,7 +10827,7 @@
         <v>5.85671615600586</v>
       </c>
       <c r="G237" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10853,7 +10853,7 @@
         <v>5.91249513626099</v>
       </c>
       <c r="G238" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10879,7 +10879,7 @@
         <v>5.83812379837036</v>
       </c>
       <c r="G239" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -10905,7 +10905,7 @@
         <v>6.14490413665771</v>
       </c>
       <c r="G240" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10931,7 +10931,7 @@
         <v>6.20068216323853</v>
       </c>
       <c r="G241" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -10957,7 +10957,7 @@
         <v>6.3959059715271</v>
       </c>
       <c r="G242" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10983,7 +10983,7 @@
         <v>6.34012794494629</v>
       </c>
       <c r="G243" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11009,7 +11009,7 @@
         <v>6.36801719665527</v>
       </c>
       <c r="G244" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11061,7 +11061,7 @@
         <v>6.32153511047363</v>
       </c>
       <c r="G246" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11139,7 +11139,7 @@
         <v>6.57718515396118</v>
       </c>
       <c r="G249" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11165,7 +11165,7 @@
         <v>6.53070402145386</v>
       </c>
       <c r="G250" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11191,7 +11191,7 @@
         <v>6.6655011177063</v>
       </c>
       <c r="G251" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11217,7 +11217,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G252" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11243,7 +11243,7 @@
         <v>6.67479705810547</v>
       </c>
       <c r="G253" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11269,7 +11269,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G254" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11295,7 +11295,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G255" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11321,7 +11321,7 @@
         <v>6.69338989257812</v>
       </c>
       <c r="G256" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11347,7 +11347,7 @@
         <v>6.7305760383606</v>
       </c>
       <c r="G257" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11373,7 +11373,7 @@
         <v>6.76776123046875</v>
       </c>
       <c r="G258" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11451,7 +11451,7 @@
         <v>7.05594921112061</v>
       </c>
       <c r="G261" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11503,7 +11503,7 @@
         <v>6.91650295257568</v>
       </c>
       <c r="G263" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11529,7 +11529,7 @@
         <v>7.00946712493896</v>
       </c>
       <c r="G264" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11555,7 +11555,7 @@
         <v>7.02341079711914</v>
       </c>
       <c r="G265" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11607,7 +11607,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G267" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11633,7 +11633,7 @@
         <v>6.94903993606567</v>
       </c>
       <c r="G268" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11711,7 +11711,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G271" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11763,7 +11763,7 @@
         <v>6.82818794250488</v>
       </c>
       <c r="G273" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11789,7 +11789,7 @@
         <v>6.80494689941406</v>
       </c>
       <c r="G274" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11815,7 +11815,7 @@
         <v>6.75381708145142</v>
       </c>
       <c r="G275" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11867,7 +11867,7 @@
         <v>6.61901903152466</v>
       </c>
       <c r="G277" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11893,7 +11893,7 @@
         <v>6.41914701461792</v>
       </c>
       <c r="G278" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11919,7 +11919,7 @@
         <v>6.47027683258057</v>
       </c>
       <c r="G279" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11945,7 +11945,7 @@
         <v>6.62831592559814</v>
       </c>
       <c r="G280" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11971,7 +11971,7 @@
         <v>6.50746297836304</v>
       </c>
       <c r="G281" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11997,7 +11997,7 @@
         <v>6.57253694534302</v>
       </c>
       <c r="G282" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12075,7 +12075,7 @@
         <v>6.65620517730713</v>
       </c>
       <c r="G285" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12153,7 +12153,7 @@
         <v>6.81424283981323</v>
       </c>
       <c r="G288" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12179,7 +12179,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G289" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12205,7 +12205,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G290" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12231,7 +12231,7 @@
         <v>6.95833683013916</v>
       </c>
       <c r="G291" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12257,7 +12257,7 @@
         <v>6.99552202224731</v>
       </c>
       <c r="G292" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12283,7 +12283,7 @@
         <v>6.96763277053833</v>
       </c>
       <c r="G293" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12309,7 +12309,7 @@
         <v>6.8188910484314</v>
       </c>
       <c r="G294" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12335,7 +12335,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G295" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12361,7 +12361,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G296" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12413,7 +12413,7 @@
         <v>6.70268678665161</v>
       </c>
       <c r="G298" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12439,7 +12439,7 @@
         <v>6.87931823730469</v>
       </c>
       <c r="G299" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12465,7 +12465,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G300" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12491,7 +12491,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G301" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12543,7 +12543,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G303" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12569,7 +12569,7 @@
         <v>7.2232837677002</v>
       </c>
       <c r="G304" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12595,7 +12595,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G305" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12621,7 +12621,7 @@
         <v>7.31624698638916</v>
       </c>
       <c r="G306" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12647,7 +12647,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G307" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12673,7 +12673,7 @@
         <v>7.20004320144653</v>
       </c>
       <c r="G308" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12699,7 +12699,7 @@
         <v>7.06989288330078</v>
       </c>
       <c r="G309" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12725,7 +12725,7 @@
         <v>7.17680215835571</v>
       </c>
       <c r="G310" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12751,7 +12751,7 @@
         <v>7.21398687362671</v>
       </c>
       <c r="G311" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12777,7 +12777,7 @@
         <v>7.41850709915161</v>
       </c>
       <c r="G312" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12803,7 +12803,7 @@
         <v>7.46963787078857</v>
       </c>
       <c r="G313" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12855,7 +12855,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G315" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12907,7 +12907,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G317" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12933,7 +12933,7 @@
         <v>7.60443496704102</v>
       </c>
       <c r="G318" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12959,7 +12959,7 @@
         <v>7.75782489776611</v>
       </c>
       <c r="G319" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12985,7 +12985,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G320" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13037,7 +13037,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G322" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13063,7 +13063,7 @@
         <v>7.59978723526001</v>
       </c>
       <c r="G323" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13089,7 +13089,7 @@
         <v>7.59513902664185</v>
       </c>
       <c r="G324" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13193,7 +13193,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G328" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13219,7 +13219,7 @@
         <v>7.46498918533325</v>
       </c>
       <c r="G329" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13271,7 +13271,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G331" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13297,7 +13297,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G332" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13323,7 +13323,7 @@
         <v>7.34413623809814</v>
       </c>
       <c r="G333" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13349,7 +13349,7 @@
         <v>7.311598777771</v>
       </c>
       <c r="G334" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13375,7 +13375,7 @@
         <v>7.20469093322754</v>
       </c>
       <c r="G335" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13401,7 +13401,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G336" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13427,7 +13427,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G337" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13453,7 +13453,7 @@
         <v>7.53471183776855</v>
       </c>
       <c r="G338" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13479,7 +13479,7 @@
         <v>7.66486120223999</v>
       </c>
       <c r="G339" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13505,7 +13505,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G340" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13531,7 +13531,7 @@
         <v>7.6973991394043</v>
       </c>
       <c r="G341" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13557,7 +13557,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G342" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13583,7 +13583,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G343" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13609,7 +13609,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G344" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13635,7 +13635,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G345" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13661,7 +13661,7 @@
         <v>7.95769691467285</v>
       </c>
       <c r="G346" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13687,7 +13687,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G347" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13713,7 +13713,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G348" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13739,7 +13739,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G349" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13765,7 +13765,7 @@
         <v>8.16686630249023</v>
       </c>
       <c r="G350" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13791,7 +13791,7 @@
         <v>8.11573600769043</v>
       </c>
       <c r="G351" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13817,7 +13817,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G352" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13843,7 +13843,7 @@
         <v>7.8554368019104</v>
       </c>
       <c r="G353" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13869,7 +13869,7 @@
         <v>7.79965877532959</v>
       </c>
       <c r="G354" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13895,7 +13895,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G355" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13921,7 +13921,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G356" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13947,7 +13947,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G357" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13973,7 +13973,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G358" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13999,7 +13999,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G359" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14025,7 +14025,7 @@
         <v>7.67880582809448</v>
       </c>
       <c r="G360" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14051,7 +14051,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G361" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14077,7 +14077,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G362" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14103,7 +14103,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G363" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14129,7 +14129,7 @@
         <v>7.83684396743774</v>
       </c>
       <c r="G364" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14155,7 +14155,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G365" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14181,7 +14181,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G366" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14207,7 +14207,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G367" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14233,7 +14233,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G368" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14259,7 +14259,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G369" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14285,7 +14285,7 @@
         <v>7.69275093078613</v>
       </c>
       <c r="G370" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14311,7 +14311,7 @@
         <v>7.72528791427612</v>
       </c>
       <c r="G371" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14337,7 +14337,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G372" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14363,7 +14363,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G373" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14389,7 +14389,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G374" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14415,7 +14415,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G375" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14441,7 +14441,7 @@
         <v>7.50217485427856</v>
       </c>
       <c r="G376" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14467,7 +14467,7 @@
         <v>7.46034097671509</v>
       </c>
       <c r="G377" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14493,7 +14493,7 @@
         <v>7.4278039932251</v>
       </c>
       <c r="G378" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14519,7 +14519,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G379" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14545,7 +14545,7 @@
         <v>7.48358201980591</v>
       </c>
       <c r="G380" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14571,7 +14571,7 @@
         <v>7.39991521835327</v>
       </c>
       <c r="G381" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14597,7 +14597,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G382" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14623,7 +14623,7 @@
         <v>7.0884861946106</v>
       </c>
       <c r="G383" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14649,7 +14649,7 @@
         <v>7.16750478744507</v>
       </c>
       <c r="G384" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14675,7 +14675,7 @@
         <v>7.21863508224487</v>
       </c>
       <c r="G385" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14701,7 +14701,7 @@
         <v>7.35343313217163</v>
       </c>
       <c r="G386" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14727,7 +14727,7 @@
         <v>7.38132190704346</v>
       </c>
       <c r="G387" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14753,7 +14753,7 @@
         <v>7.25117301940918</v>
       </c>
       <c r="G388" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14779,7 +14779,7 @@
         <v>7.39061784744263</v>
       </c>
       <c r="G389" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14805,7 +14805,7 @@
         <v>7.53006410598755</v>
       </c>
       <c r="G390" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14831,7 +14831,7 @@
         <v>7.59048986434937</v>
       </c>
       <c r="G391" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14857,7 +14857,7 @@
         <v>7.55330514907837</v>
       </c>
       <c r="G392" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14883,7 +14883,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G393" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14909,7 +14909,7 @@
         <v>7.72064018249512</v>
       </c>
       <c r="G394" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14935,7 +14935,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G395" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14961,7 +14961,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G396" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14987,7 +14987,7 @@
         <v>7.71599102020264</v>
       </c>
       <c r="G397" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -15013,7 +15013,7 @@
         <v>7.7671217918396</v>
       </c>
       <c r="G398" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15039,7 +15039,7 @@
         <v>7.72993612289429</v>
       </c>
       <c r="G399" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15065,7 +15065,7 @@
         <v>7.79036283493042</v>
       </c>
       <c r="G400" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15091,7 +15091,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G401" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15117,7 +15117,7 @@
         <v>7.74388122558594</v>
       </c>
       <c r="G402" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15143,7 +15143,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G403" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15169,7 +15169,7 @@
         <v>7.66021299362183</v>
       </c>
       <c r="G404" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15195,7 +15195,7 @@
         <v>7.66950988769531</v>
       </c>
       <c r="G405" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15221,7 +15221,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G406" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15247,7 +15247,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G407" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15273,7 +15273,7 @@
         <v>7.64626884460449</v>
       </c>
       <c r="G408" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15299,7 +15299,7 @@
         <v>7.77177000045776</v>
       </c>
       <c r="G409" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15325,7 +15325,7 @@
         <v>7.82289981842041</v>
       </c>
       <c r="G410" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15351,7 +15351,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G411" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15377,7 +15377,7 @@
         <v>7.89262294769287</v>
       </c>
       <c r="G412" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15403,7 +15403,7 @@
         <v>7.81360292434692</v>
       </c>
       <c r="G413" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15429,7 +15429,7 @@
         <v>7.70669507980347</v>
       </c>
       <c r="G414" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15455,7 +15455,7 @@
         <v>7.79501104354858</v>
       </c>
       <c r="G415" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15481,7 +15481,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G416" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15507,7 +15507,7 @@
         <v>8.01347637176514</v>
       </c>
       <c r="G417" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15533,7 +15533,7 @@
         <v>7.99023485183716</v>
       </c>
       <c r="G418" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15559,7 +15559,7 @@
         <v>7.93445587158203</v>
       </c>
       <c r="G419" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15585,7 +15585,7 @@
         <v>7.94375276565552</v>
       </c>
       <c r="G420" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15611,7 +15611,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G421" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15637,7 +15637,7 @@
         <v>7.99488306045532</v>
       </c>
       <c r="G422" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15663,7 +15663,7 @@
         <v>7.96699380874634</v>
       </c>
       <c r="G423" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15689,7 +15689,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G424" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15715,7 +15715,7 @@
         <v>7.86008501052856</v>
       </c>
       <c r="G425" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15741,7 +15741,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G426" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15767,7 +15767,7 @@
         <v>7.78106594085693</v>
       </c>
       <c r="G427" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15793,7 +15793,7 @@
         <v>7.89727115631104</v>
       </c>
       <c r="G428" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15819,7 +15819,7 @@
         <v>7.87867784500122</v>
       </c>
       <c r="G429" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15845,7 +15845,7 @@
         <v>7.90191888809204</v>
       </c>
       <c r="G430" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15871,7 +15871,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G431" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15897,7 +15897,7 @@
         <v>7.80895519256592</v>
       </c>
       <c r="G432" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15923,7 +15923,7 @@
         <v>7.84149312973022</v>
       </c>
       <c r="G433" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15949,7 +15949,7 @@
         <v>7.92051219940186</v>
       </c>
       <c r="G434" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15975,7 +15975,7 @@
         <v>8.03206825256348</v>
       </c>
       <c r="G435" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -16001,7 +16001,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G436" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -16027,7 +16027,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G437" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16053,7 +16053,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G438" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16079,7 +16079,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G439" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16105,7 +16105,7 @@
         <v>8.19010734558105</v>
       </c>
       <c r="G440" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16131,7 +16131,7 @@
         <v>8.12503242492676</v>
       </c>
       <c r="G441" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16157,7 +16157,7 @@
         <v>8.08784675598145</v>
       </c>
       <c r="G442" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16183,7 +16183,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G443" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16209,7 +16209,7 @@
         <v>8.10643863677979</v>
       </c>
       <c r="G444" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16235,7 +16235,7 @@
         <v>8.06460571289062</v>
       </c>
       <c r="G445" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16261,7 +16261,7 @@
         <v>8.14362525939941</v>
       </c>
       <c r="G446" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16287,7 +16287,7 @@
         <v>8.12038421630859</v>
       </c>
       <c r="G447" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16313,7 +16313,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G448" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16339,7 +16339,7 @@
         <v>8.20869922637939</v>
       </c>
       <c r="G449" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16365,7 +16365,7 @@
         <v>8.20405101776123</v>
       </c>
       <c r="G450" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16391,7 +16391,7 @@
         <v>8.22729206085205</v>
       </c>
       <c r="G451" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16417,7 +16417,7 @@
         <v>8.18080997467041</v>
       </c>
       <c r="G452" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16443,7 +16443,7 @@
         <v>8.05066108703613</v>
       </c>
       <c r="G453" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16469,7 +16469,7 @@
         <v>8.07390213012695</v>
       </c>
       <c r="G454" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16495,7 +16495,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G455" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16521,7 +16521,7 @@
         <v>8.19940280914307</v>
       </c>
       <c r="G456" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16547,7 +16547,7 @@
         <v>8.36673831939697</v>
       </c>
       <c r="G457" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16573,7 +16573,7 @@
         <v>8.50618267059326</v>
       </c>
       <c r="G458" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16599,7 +16599,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G459" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16625,7 +16625,7 @@
         <v>8.83155727386475</v>
       </c>
       <c r="G460" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16651,7 +16651,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G461" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16677,7 +16677,7 @@
         <v>8.5526647567749</v>
       </c>
       <c r="G462" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16703,7 +16703,7 @@
         <v>8.54801654815674</v>
       </c>
       <c r="G463" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16729,7 +16729,7 @@
         <v>8.69211101531982</v>
       </c>
       <c r="G464" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16755,7 +16755,7 @@
         <v>8.74788856506348</v>
       </c>
       <c r="G465" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16781,7 +16781,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G466" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16807,7 +16807,7 @@
         <v>8.60379505157471</v>
       </c>
       <c r="G467" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16833,7 +16833,7 @@
         <v>8.72000026702881</v>
       </c>
       <c r="G468" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16859,7 +16859,7 @@
         <v>8.98959541320801</v>
       </c>
       <c r="G469" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16885,7 +16885,7 @@
         <v>9.22665309906006</v>
       </c>
       <c r="G470" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16911,7 +16911,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G471" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16937,7 +16937,7 @@
         <v>9.696120262146</v>
       </c>
       <c r="G472" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16963,7 +16963,7 @@
         <v>9.67752742767334</v>
       </c>
       <c r="G473" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16989,7 +16989,7 @@
         <v>9.55667400360107</v>
       </c>
       <c r="G474" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17015,7 +17015,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G475" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17041,7 +17041,7 @@
         <v>9.62174892425537</v>
       </c>
       <c r="G476" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17067,7 +17067,7 @@
         <v>9.43582057952881</v>
       </c>
       <c r="G477" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17093,7 +17093,7 @@
         <v>9.57526683807373</v>
       </c>
       <c r="G478" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17119,7 +17119,7 @@
         <v>9.34285736083984</v>
       </c>
       <c r="G479" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17145,7 +17145,7 @@
         <v>9.2080602645874</v>
       </c>
       <c r="G480" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17171,7 +17171,7 @@
         <v>9.38933944702148</v>
       </c>
       <c r="G481" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17197,7 +17197,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G482" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17223,7 +17223,7 @@
         <v>9.91923332214355</v>
       </c>
       <c r="G483" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17249,7 +17249,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G484" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17275,7 +17275,7 @@
         <v>9.65893363952637</v>
       </c>
       <c r="G485" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17301,7 +17301,7 @@
         <v>10.0029001235962</v>
       </c>
       <c r="G486" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17327,7 +17327,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G487" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17353,7 +17353,7 @@
         <v>9.90063953399658</v>
       </c>
       <c r="G488" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17379,7 +17379,7 @@
         <v>10.0586776733398</v>
       </c>
       <c r="G489" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17405,7 +17405,7 @@
         <v>10.1144561767578</v>
       </c>
       <c r="G490" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17431,7 +17431,7 @@
         <v>10.0307893753052</v>
       </c>
       <c r="G491" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17457,7 +17457,7 @@
         <v>10.0121955871582</v>
       </c>
       <c r="G492" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17483,7 +17483,7 @@
         <v>9.76119422912598</v>
       </c>
       <c r="G493" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17509,7 +17509,7 @@
         <v>9.83556461334229</v>
       </c>
       <c r="G494" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17535,7 +17535,7 @@
         <v>9.98430728912354</v>
       </c>
       <c r="G495" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17561,7 +17561,7 @@
         <v>9.93782520294189</v>
       </c>
       <c r="G496" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17587,7 +17587,7 @@
         <v>10.0772714614868</v>
       </c>
       <c r="G497" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17613,7 +17613,7 @@
         <v>10.318977355957</v>
       </c>
       <c r="G498" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17639,7 +17639,7 @@
         <v>10.3003835678101</v>
       </c>
       <c r="G499" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17665,7 +17665,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G500" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17691,7 +17691,7 @@
         <v>10.504903793335</v>
       </c>
       <c r="G501" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17717,7 +17717,7 @@
         <v>10.411940574646</v>
       </c>
       <c r="G502" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17743,7 +17743,7 @@
         <v>10.1330490112305</v>
       </c>
       <c r="G503" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17769,7 +17769,7 @@
         <v>9.49159908294678</v>
       </c>
       <c r="G504" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17795,7 +17795,7 @@
         <v>9.11044788360596</v>
       </c>
       <c r="G505" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17821,7 +17821,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G506" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17847,7 +17847,7 @@
         <v>9.08255863189697</v>
       </c>
       <c r="G507" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17873,7 +17873,7 @@
         <v>8.88268661499023</v>
       </c>
       <c r="G508" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17899,7 +17899,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G509" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17925,7 +17925,7 @@
         <v>9.09650325775146</v>
       </c>
       <c r="G510" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17951,7 +17951,7 @@
         <v>8.96170616149902</v>
       </c>
       <c r="G511" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17977,7 +17977,7 @@
         <v>8.95240879058838</v>
       </c>
       <c r="G512" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18003,7 +18003,7 @@
         <v>9.01748371124268</v>
       </c>
       <c r="G513" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18029,7 +18029,7 @@
         <v>9.1569299697876</v>
       </c>
       <c r="G514" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18055,7 +18055,7 @@
         <v>9.16622638702393</v>
       </c>
       <c r="G515" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18081,7 +18081,7 @@
         <v>9.24989414215088</v>
       </c>
       <c r="G516" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18107,7 +18107,7 @@
         <v>9.31496810913086</v>
       </c>
       <c r="G517" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18133,7 +18133,7 @@
         <v>9.26848602294922</v>
       </c>
       <c r="G518" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18159,7 +18159,7 @@
         <v>9.00818824768066</v>
       </c>
       <c r="G519" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18185,7 +18185,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G520" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18211,7 +18211,7 @@
         <v>9.06396579742432</v>
       </c>
       <c r="G521" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18237,7 +18237,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G522" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18263,7 +18263,7 @@
         <v>8.8873348236084</v>
       </c>
       <c r="G523" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18289,7 +18289,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G524" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18315,7 +18315,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G525" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18341,7 +18341,7 @@
         <v>8.97100162506104</v>
       </c>
       <c r="G526" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18367,7 +18367,7 @@
         <v>8.99889087677002</v>
       </c>
       <c r="G527" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18393,7 +18393,7 @@
         <v>8.90592765808105</v>
       </c>
       <c r="G528" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18419,7 +18419,7 @@
         <v>8.87803840637207</v>
       </c>
       <c r="G529" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18445,7 +18445,7 @@
         <v>8.92451953887939</v>
       </c>
       <c r="G530" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18471,7 +18471,7 @@
         <v>8.85014915466309</v>
       </c>
       <c r="G531" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18497,7 +18497,7 @@
         <v>8.60844421386719</v>
       </c>
       <c r="G532" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18523,7 +18523,7 @@
         <v>8.73859310150146</v>
       </c>
       <c r="G533" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18549,7 +18549,7 @@
         <v>8.53407287597656</v>
       </c>
       <c r="G534" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18575,7 +18575,7 @@
         <v>8.34814453125</v>
       </c>
       <c r="G535" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18601,7 +18601,7 @@
         <v>8.15292072296143</v>
       </c>
       <c r="G536" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18627,7 +18627,7 @@
         <v>8.05995655059814</v>
       </c>
       <c r="G537" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18653,7 +18653,7 @@
         <v>8.30166339874268</v>
       </c>
       <c r="G538" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18679,7 +18679,7 @@
         <v>7.87403011322021</v>
       </c>
       <c r="G539" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18705,7 +18705,7 @@
         <v>7.65091705322266</v>
       </c>
       <c r="G540" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18731,7 +18731,7 @@
         <v>7.62302780151367</v>
       </c>
       <c r="G541" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18757,7 +18757,7 @@
         <v>7.28835821151733</v>
       </c>
       <c r="G542" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18783,7 +18783,7 @@
         <v>7.68810176849365</v>
       </c>
       <c r="G543" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18809,7 +18809,7 @@
         <v>7.57654619216919</v>
       </c>
       <c r="G544" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18835,7 +18835,7 @@
         <v>7.8182520866394</v>
       </c>
       <c r="G545" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18861,7 +18861,7 @@
         <v>7.61373090744019</v>
       </c>
       <c r="G546" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18887,7 +18887,7 @@
         <v>7.73458385467529</v>
       </c>
       <c r="G547" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18913,7 +18913,7 @@
         <v>7.58584213256836</v>
       </c>
       <c r="G548" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18939,7 +18939,7 @@
         <v>8.0413646697998</v>
       </c>
       <c r="G549" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18965,7 +18965,7 @@
         <v>7.64162015914917</v>
       </c>
       <c r="G550" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18991,7 +18991,7 @@
         <v>7.43709993362427</v>
       </c>
       <c r="G551" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19017,7 +19017,7 @@
         <v>7.49566698074341</v>
       </c>
       <c r="G552" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19043,7 +19043,7 @@
         <v>7.36086988449097</v>
       </c>
       <c r="G553" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19069,7 +19069,7 @@
         <v>7.17308282852173</v>
       </c>
       <c r="G554" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19095,7 +19095,7 @@
         <v>7.00017118453979</v>
       </c>
       <c r="G555" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19121,7 +19121,7 @@
         <v>6.98622608184814</v>
       </c>
       <c r="G556" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19147,7 +19147,7 @@
         <v>7.08383798599243</v>
       </c>
       <c r="G557" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19173,7 +19173,7 @@
         <v>7.29300594329834</v>
       </c>
       <c r="G558" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19199,7 +19199,7 @@
         <v>7.298583984375</v>
       </c>
       <c r="G559" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19225,7 +19225,7 @@
         <v>7.12102317810059</v>
       </c>
       <c r="G560" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19251,7 +19251,7 @@
         <v>7.03177785873413</v>
       </c>
       <c r="G561" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19277,7 +19277,7 @@
         <v>7.05501890182495</v>
       </c>
       <c r="G562" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19303,7 +19303,7 @@
         <v>6.89791011810303</v>
       </c>
       <c r="G563" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19329,7 +19329,7 @@
         <v>6.82911682128906</v>
       </c>
       <c r="G564" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19355,7 +19355,7 @@
         <v>6.72127914428711</v>
       </c>
       <c r="G565" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19381,7 +19381,7 @@
         <v>7.01225614547729</v>
       </c>
       <c r="G566" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19407,7 +19407,7 @@
         <v>6.98064804077148</v>
       </c>
       <c r="G567" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19433,7 +19433,7 @@
         <v>6.94439220428467</v>
       </c>
       <c r="G568" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19459,7 +19459,7 @@
         <v>6.71291303634644</v>
       </c>
       <c r="G569" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19485,7 +19485,7 @@
         <v>6.55394506454468</v>
       </c>
       <c r="G570" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19511,7 +19511,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19537,7 +19537,7 @@
         <v>7.27699995040894</v>
       </c>
       <c r="G572" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19563,7 +19563,7 @@
         <v>7.97800016403198</v>
       </c>
       <c r="G573" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19589,7 +19589,7 @@
         <v>7.58799982070923</v>
       </c>
       <c r="G574" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19615,7 +19615,7 @@
         <v>7.75</v>
       </c>
       <c r="G575" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19641,7 +19641,7 @@
         <v>8.04199981689453</v>
       </c>
       <c r="G576" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19667,7 +19667,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G577" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19693,7 +19693,7 @@
         <v>8.25899982452393</v>
       </c>
       <c r="G578" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19719,7 +19719,7 @@
         <v>8.09500026702881</v>
       </c>
       <c r="G579" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19745,7 +19745,7 @@
         <v>7.83699989318848</v>
       </c>
       <c r="G580" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19771,7 +19771,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G581" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19797,7 +19797,7 @@
         <v>7.89900016784668</v>
       </c>
       <c r="G582" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19823,7 +19823,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G583" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19849,7 +19849,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G584" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19875,7 +19875,7 @@
         <v>7.86700010299683</v>
       </c>
       <c r="G585" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19901,7 +19901,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G586" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19927,7 +19927,7 @@
         <v>7.84200000762939</v>
       </c>
       <c r="G587" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19953,7 +19953,7 @@
         <v>7.85799980163574</v>
       </c>
       <c r="G588" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19979,7 +19979,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G589" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20005,7 +20005,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G590" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20031,7 +20031,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G591" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20057,7 +20057,7 @@
         <v>7.71600008010864</v>
       </c>
       <c r="G592" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20083,7 +20083,7 @@
         <v>7.70100021362305</v>
       </c>
       <c r="G593" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20109,7 +20109,7 @@
         <v>7.76300001144409</v>
       </c>
       <c r="G594" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20135,7 +20135,7 @@
         <v>7.85699987411499</v>
       </c>
       <c r="G595" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20161,7 +20161,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G596" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20187,7 +20187,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20213,7 +20213,7 @@
         <v>8</v>
       </c>
       <c r="G598" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20239,7 +20239,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G599" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20265,7 +20265,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20291,7 +20291,7 @@
         <v>7.92600011825562</v>
       </c>
       <c r="G601" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20317,7 +20317,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G602" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20343,7 +20343,7 @@
         <v>8.03800010681152</v>
       </c>
       <c r="G603" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20369,7 +20369,7 @@
         <v>8</v>
       </c>
       <c r="G604" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20395,7 +20395,7 @@
         <v>7.78399991989136</v>
       </c>
       <c r="G605" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20421,7 +20421,7 @@
         <v>7.73099994659424</v>
       </c>
       <c r="G606" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20447,7 +20447,7 @@
         <v>7.44899988174438</v>
       </c>
       <c r="G607" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20473,7 +20473,7 @@
         <v>7.55900001525879</v>
       </c>
       <c r="G608" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20499,7 +20499,7 @@
         <v>7.47499990463257</v>
       </c>
       <c r="G609" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20525,7 +20525,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G610" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20551,7 +20551,7 @@
         <v>7.37099981307983</v>
       </c>
       <c r="G611" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20577,7 +20577,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G612" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20603,7 +20603,7 @@
         <v>7.11499977111816</v>
       </c>
       <c r="G613" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20629,7 +20629,7 @@
         <v>6.7649998664856</v>
       </c>
       <c r="G614" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20655,7 +20655,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G615" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20681,7 +20681,7 @@
         <v>7.27400016784668</v>
       </c>
       <c r="G616" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20707,7 +20707,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G617" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20733,7 +20733,7 @@
         <v>7.39400005340576</v>
       </c>
       <c r="G618" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20759,7 +20759,7 @@
         <v>7.53499984741211</v>
       </c>
       <c r="G619" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20785,7 +20785,7 @@
         <v>7.49499988555908</v>
       </c>
       <c r="G620" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20811,7 +20811,7 @@
         <v>7.32299995422363</v>
       </c>
       <c r="G621" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20837,7 +20837,7 @@
         <v>7.1710000038147</v>
       </c>
       <c r="G622" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20863,7 +20863,7 @@
         <v>7.08900022506714</v>
       </c>
       <c r="G623" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20889,7 +20889,7 @@
         <v>7.25899982452393</v>
       </c>
       <c r="G624" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20915,7 +20915,7 @@
         <v>7.11100006103516</v>
       </c>
       <c r="G625" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20941,7 +20941,7 @@
         <v>7.24900007247925</v>
       </c>
       <c r="G626" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20967,7 +20967,7 @@
         <v>7.31799983978271</v>
       </c>
       <c r="G627" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20993,7 +20993,7 @@
         <v>6.97200012207031</v>
       </c>
       <c r="G628" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21019,7 +21019,7 @@
         <v>6.97399997711182</v>
       </c>
       <c r="G629" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21045,7 +21045,7 @@
         <v>6.92399978637695</v>
       </c>
       <c r="G630" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21071,7 +21071,7 @@
         <v>6.90299987792969</v>
       </c>
       <c r="G631" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21097,7 +21097,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G632" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21123,7 +21123,7 @@
         <v>6.96700000762939</v>
       </c>
       <c r="G633" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21149,7 +21149,7 @@
         <v>7</v>
       </c>
       <c r="G634" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21175,7 +21175,7 @@
         <v>6.875</v>
       </c>
       <c r="G635" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21201,7 +21201,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G636" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21227,7 +21227,7 @@
         <v>6.88199996948242</v>
       </c>
       <c r="G637" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21253,7 +21253,7 @@
         <v>7.04699993133545</v>
       </c>
       <c r="G638" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21279,7 +21279,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G639" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21305,7 +21305,7 @@
         <v>7</v>
       </c>
       <c r="G640" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21331,7 +21331,7 @@
         <v>6.93699979782104</v>
       </c>
       <c r="G641" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21357,7 +21357,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G642" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21383,7 +21383,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G643" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21409,7 +21409,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G644" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21435,7 +21435,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G645" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21461,7 +21461,7 @@
         <v>7.05399990081787</v>
       </c>
       <c r="G646" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21487,7 +21487,7 @@
         <v>7.06899976730347</v>
       </c>
       <c r="G647" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21513,7 +21513,7 @@
         <v>7.12599992752075</v>
       </c>
       <c r="G648" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21539,7 +21539,7 @@
         <v>7.17700004577637</v>
       </c>
       <c r="G649" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21565,7 +21565,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G650" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21591,7 +21591,7 @@
         <v>7.35099983215332</v>
       </c>
       <c r="G651" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21617,7 +21617,7 @@
         <v>7.21600008010864</v>
       </c>
       <c r="G652" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21643,7 +21643,7 @@
         <v>7.24200010299683</v>
       </c>
       <c r="G653" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21669,7 +21669,7 @@
         <v>7.26100015640259</v>
       </c>
       <c r="G654" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21695,7 +21695,7 @@
         <v>7.06599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21721,7 +21721,7 @@
         <v>7.25</v>
       </c>
       <c r="G656" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21747,7 +21747,7 @@
         <v>7.05700016021729</v>
       </c>
       <c r="G657" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21773,7 +21773,7 @@
         <v>7.13100004196167</v>
       </c>
       <c r="G658" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21799,7 +21799,7 @@
         <v>7.23099994659424</v>
       </c>
       <c r="G659" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21825,7 +21825,7 @@
         <v>7.18300008773804</v>
       </c>
       <c r="G660" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21851,7 +21851,7 @@
         <v>7.15100002288818</v>
       </c>
       <c r="G661" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21877,7 +21877,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G662" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21903,7 +21903,7 @@
         <v>6.93100023269653</v>
       </c>
       <c r="G663" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21929,7 +21929,7 @@
         <v>6.96199989318848</v>
       </c>
       <c r="G664" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21955,7 +21955,7 @@
         <v>6.9210000038147</v>
       </c>
       <c r="G665" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21981,7 +21981,7 @@
         <v>6.90899991989136</v>
       </c>
       <c r="G666" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22007,7 +22007,7 @@
         <v>6.79300022125244</v>
       </c>
       <c r="G667" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22033,7 +22033,7 @@
         <v>6.66300010681152</v>
       </c>
       <c r="G668" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22059,7 +22059,7 @@
         <v>6.60699987411499</v>
       </c>
       <c r="G669" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22085,7 +22085,7 @@
         <v>6.49100017547607</v>
       </c>
       <c r="G670" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22111,7 +22111,7 @@
         <v>6.51900005340576</v>
       </c>
       <c r="G671" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22137,7 +22137,7 @@
         <v>6.57299995422363</v>
       </c>
       <c r="G672" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22163,7 +22163,7 @@
         <v>6.69899988174438</v>
       </c>
       <c r="G673" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22189,7 +22189,7 @@
         <v>6.68699979782104</v>
       </c>
       <c r="G674" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22215,7 +22215,7 @@
         <v>6.58799982070923</v>
       </c>
       <c r="G675" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22241,7 +22241,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G676" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22267,7 +22267,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G677" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22293,7 +22293,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G678" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22319,7 +22319,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G679" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22345,7 +22345,7 @@
         <v>6.62099981307983</v>
       </c>
       <c r="G680" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22371,7 +22371,7 @@
         <v>6.55399990081787</v>
       </c>
       <c r="G681" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22397,7 +22397,7 @@
         <v>6.56799983978271</v>
       </c>
       <c r="G682" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22423,7 +22423,7 @@
         <v>6.5310001373291</v>
       </c>
       <c r="G683" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22449,7 +22449,7 @@
         <v>6.57499980926514</v>
       </c>
       <c r="G684" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22475,7 +22475,7 @@
         <v>6.57200002670288</v>
       </c>
       <c r="G685" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22501,7 +22501,7 @@
         <v>6.58900022506714</v>
       </c>
       <c r="G686" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22527,7 +22527,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G687" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22553,7 +22553,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G688" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22579,7 +22579,7 @@
         <v>6.58099985122681</v>
       </c>
       <c r="G689" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22605,7 +22605,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G690" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22631,7 +22631,7 @@
         <v>6.51200008392334</v>
       </c>
       <c r="G691" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22657,7 +22657,7 @@
         <v>6.95800018310547</v>
       </c>
       <c r="G692" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22683,7 +22683,7 @@
         <v>6.78499984741211</v>
       </c>
       <c r="G693" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22709,7 +22709,7 @@
         <v>6.76900005340576</v>
       </c>
       <c r="G694" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22735,7 +22735,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G695" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22761,7 +22761,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>544</v>
+        <v>545</v>
       